--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="1419">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">CEM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77356767654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64730453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806348800659</t>
+    <t xml:space="preserve">4.77356863021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64730501174927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806301116943</t>
   </si>
   <si>
     <t xml:space="preserve">4.41514348983765</t>
@@ -59,37 +59,37 @@
     <t xml:space="preserve">4.30517196655273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41106939315796</t>
+    <t xml:space="preserve">4.41107082366943</t>
   </si>
   <si>
     <t xml:space="preserve">4.37441301345825</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37848567962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14225196838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01435947418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05345964431763</t>
+    <t xml:space="preserve">4.37848663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14225149154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01435899734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05345916748047</t>
   </si>
   <si>
     <t xml:space="preserve">3.74879884719849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91171908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02739238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95733618736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9948091506958</t>
+    <t xml:space="preserve">3.91171884536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02739191055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95733690261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99480819702148</t>
   </si>
   <si>
     <t xml:space="preserve">3.95570731163025</t>
@@ -98,67 +98,67 @@
     <t xml:space="preserve">3.82048368453979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01272916793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95081996917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81233692169189</t>
+    <t xml:space="preserve">4.01272964477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95081973075867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81233763694763</t>
   </si>
   <si>
     <t xml:space="preserve">3.64941716194153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67059659957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69177556037903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41807055473328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21279072761536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31543064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19323992729187</t>
+    <t xml:space="preserve">3.67059636116028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69177651405334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41807007789612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21279096603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3154308795929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19324040412903</t>
   </si>
   <si>
     <t xml:space="preserve">3.2730712890625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51093482971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42947483062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54514837265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62497878074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41318297386169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45880031585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4343626499176</t>
+    <t xml:space="preserve">3.51093506813049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42947459220886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54514861106873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62497973442078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41318273544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45880055427551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43436217308044</t>
   </si>
   <si>
     <t xml:space="preserve">3.30402612686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35778975486755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47020530700684</t>
+    <t xml:space="preserve">3.35778951644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4702045917511</t>
   </si>
   <si>
     <t xml:space="preserve">3.65756273269653</t>
@@ -167,193 +167,193 @@
     <t xml:space="preserve">3.70643973350525</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6266086101532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71621441841125</t>
+    <t xml:space="preserve">3.62660837173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71621417999268</t>
   </si>
   <si>
     <t xml:space="preserve">3.6314959526062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59076619148254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795740127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59565305709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62009119987488</t>
+    <t xml:space="preserve">3.59076595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5679566860199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59565329551697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62009143829346</t>
   </si>
   <si>
     <t xml:space="preserve">3.82700037956238</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6852593421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82862901687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846014022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74391174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78138327598572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73087763786316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58750700950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64127063751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57936120033264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61357498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65104651451111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52070999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47835111618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44250845909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67222547531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55492329597473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61520481109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66733860969543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85469746589661</t>
+    <t xml:space="preserve">3.68525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82862949371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74391102790833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78138303756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73087692260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58750772476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64127111434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936096191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61357450485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65104627609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52071046829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47835063934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44250822067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67222619056702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55492353439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61520385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66733813285828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85469675064087</t>
   </si>
   <si>
     <t xml:space="preserve">3.81885457038879</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93452715873718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396675109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82374143600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77975344657898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76672029495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75042843818665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87261867523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73902368545532</t>
+    <t xml:space="preserve">3.93452835083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396722793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82374215126038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77975416183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76672005653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75042772293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87261819839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7390239238739</t>
   </si>
   <si>
     <t xml:space="preserve">3.77486634254456</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69829344749451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74716997146606</t>
+    <t xml:space="preserve">3.69829320907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74716949462891</t>
   </si>
   <si>
     <t xml:space="preserve">3.71458530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60054111480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52722644805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54351854324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60227465629578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69399881362915</t>
+    <t xml:space="preserve">3.60054135322571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52722668647766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54351902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60227417945862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69399857521057</t>
   </si>
   <si>
     <t xml:space="preserve">3.83242034912109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83575558662415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95249557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96083426475525</t>
+    <t xml:space="preserve">3.83575487136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95249605178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96083378791809</t>
   </si>
   <si>
     <t xml:space="preserve">3.85243248939514</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82908463478088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77905178070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74236249923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66898345947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65564155578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62728977203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45384740829468</t>
+    <t xml:space="preserve">3.8290843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.779052734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74236297607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66898322105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65564107894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62729001045227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45384764671326</t>
   </si>
   <si>
     <t xml:space="preserve">3.37713265419006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36379027366638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2603919506073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2220344543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06693601608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21703147888184</t>
+    <t xml:space="preserve">3.36379051208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26039218902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22203493118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06693649291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21703124046326</t>
   </si>
   <si>
     <t xml:space="preserve">3.09528756141663</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">3.16866731643677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88515496253967</t>
+    <t xml:space="preserve">2.88515472412109</t>
   </si>
   <si>
     <t xml:space="preserve">2.87681651115417</t>
@@ -377,82 +377,82 @@
     <t xml:space="preserve">2.89682912826538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99355673789978</t>
+    <t xml:space="preserve">2.9935564994812</t>
   </si>
   <si>
     <t xml:space="preserve">3.10362601280212</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01690483093262</t>
+    <t xml:space="preserve">3.0169050693512</t>
   </si>
   <si>
     <t xml:space="preserve">2.85180044174194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81844639778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82344913482666</t>
+    <t xml:space="preserve">2.81844663619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82344937324524</t>
   </si>
   <si>
     <t xml:space="preserve">2.90516757965088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93518662452698</t>
+    <t xml:space="preserve">2.93518686294556</t>
   </si>
   <si>
     <t xml:space="preserve">3.10195851325989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06026530265808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27540135383606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19535040855408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13698077201843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03358221054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.170334815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03524971008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98688578605652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2387113571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2437150478363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21869874000549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2520534992218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16032886505127</t>
+    <t xml:space="preserve">3.06026554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27540159225464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19535088539124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13698101043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03358197212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17033505439758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03524994850159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98688626289368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23871159553528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24371480941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21869921684265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25205326080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16032862663269</t>
   </si>
   <si>
     <t xml:space="preserve">3.18367671966553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08528184890747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17867350578308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30208516120911</t>
+    <t xml:space="preserve">3.08528161048889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17867374420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30208492279053</t>
   </si>
   <si>
     <t xml:space="preserve">3.34544587135315</t>
@@ -461,34 +461,34 @@
     <t xml:space="preserve">3.38880634307861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50387930870056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4738597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53556537628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5055468082428</t>
+    <t xml:space="preserve">3.50387954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47386002540588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53556561470032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50554704666138</t>
   </si>
   <si>
     <t xml:space="preserve">3.51722073554993</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75236892700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71901440620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239463806152</t>
+    <t xml:space="preserve">3.75236940383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71901535987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239392280579</t>
   </si>
   <si>
     <t xml:space="preserve">3.76904606819153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81907820701599</t>
+    <t xml:space="preserve">3.81907796859741</t>
   </si>
   <si>
     <t xml:space="preserve">3.92914748191833</t>
@@ -497,22 +497,22 @@
     <t xml:space="preserve">3.88411903381348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89912819862366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87911558151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81741070747375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69566702842712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6372971534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54390430450439</t>
+    <t xml:space="preserve">3.89912915229797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87911605834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81741046905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6956672668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63729643821716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54390454292297</t>
   </si>
   <si>
     <t xml:space="preserve">3.5855975151062</t>
@@ -524,100 +524,100 @@
     <t xml:space="preserve">3.677321434021</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61561584472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7206826210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71734690666199</t>
+    <t xml:space="preserve">3.61561608314514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72068190574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71734714508057</t>
   </si>
   <si>
     <t xml:space="preserve">3.45551514625549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55224323272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52222394943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50221133232117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57725834846497</t>
+    <t xml:space="preserve">3.55224275588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52222347259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50221061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57725882530212</t>
   </si>
   <si>
     <t xml:space="preserve">3.63562893867493</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62562251091003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63396143913269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391049385071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61394858360291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69733452796936</t>
+    <t xml:space="preserve">3.62562227249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63396120071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391073226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61394882202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69733428955078</t>
   </si>
   <si>
     <t xml:space="preserve">3.66231250762939</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71401166915894</t>
+    <t xml:space="preserve">3.71401190757751</t>
   </si>
   <si>
     <t xml:space="preserve">3.76237559318542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73402404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76070761680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60727739334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70233750343323</t>
+    <t xml:space="preserve">3.73402500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76070737838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60727763175964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70233726501465</t>
   </si>
   <si>
     <t xml:space="preserve">3.71067571640015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50721454620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48553419113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48720216751099</t>
+    <t xml:space="preserve">3.50721383094788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48553395271301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48720192909241</t>
   </si>
   <si>
     <t xml:space="preserve">3.40214800834656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43883800506592</t>
+    <t xml:space="preserve">3.4388382434845</t>
   </si>
   <si>
     <t xml:space="preserve">3.34044241905212</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28540778160095</t>
+    <t xml:space="preserve">3.28540802001953</t>
   </si>
   <si>
     <t xml:space="preserve">3.27373385429382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24037933349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27706909179688</t>
+    <t xml:space="preserve">3.24037909507751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27706933021545</t>
   </si>
   <si>
     <t xml:space="preserve">3.21036005020142</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">3.17533826828003</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06526875495911</t>
+    <t xml:space="preserve">3.06526923179626</t>
   </si>
   <si>
     <t xml:space="preserve">3.07694315910339</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">3.01190161705017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97687935829163</t>
+    <t xml:space="preserve">2.97687959671021</t>
   </si>
   <si>
     <t xml:space="preserve">3.0235755443573</t>
@@ -647,13 +647,13 @@
     <t xml:space="preserve">3.0152370929718</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10862922668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23537611961365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25038552284241</t>
+    <t xml:space="preserve">3.10862874984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23537635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25038576126099</t>
   </si>
   <si>
     <t xml:space="preserve">3.38547086715698</t>
@@ -662,34 +662,34 @@
     <t xml:space="preserve">3.2987494468689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52722716331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55724549293518</t>
+    <t xml:space="preserve">3.52722692489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55724573135376</t>
   </si>
   <si>
     <t xml:space="preserve">3.52055621147156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56892061233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64396739006042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51888823509216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68566036224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75070095062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77738523483276</t>
+    <t xml:space="preserve">3.56892013549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64396691322327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.518887758255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68566060066223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75070142745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66064429283142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77738547325134</t>
   </si>
   <si>
     <t xml:space="preserve">3.55557823181152</t>
@@ -698,25 +698,25 @@
     <t xml:space="preserve">3.39881253242493</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35211658477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29374623298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33543920516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31209087371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29541373252869</t>
+    <t xml:space="preserve">3.35211634635925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29374599456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33543944358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31209111213684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29541397094727</t>
   </si>
   <si>
     <t xml:space="preserve">3.29708170890808</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3271005153656</t>
+    <t xml:space="preserve">3.32710075378418</t>
   </si>
   <si>
     <t xml:space="preserve">3.34211039543152</t>
@@ -725,13 +725,13 @@
     <t xml:space="preserve">3.30041718482971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08091020584106</t>
+    <t xml:space="preserve">4.08090925216675</t>
   </si>
   <si>
     <t xml:space="preserve">4.1276068687439</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21099233627319</t>
+    <t xml:space="preserve">4.21099281311035</t>
   </si>
   <si>
     <t xml:space="preserve">4.25268507003784</t>
@@ -740,46 +740,46 @@
     <t xml:space="preserve">4.26102352142334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14428329467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03588151931763</t>
+    <t xml:space="preserve">4.14428281784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03588199615479</t>
   </si>
   <si>
     <t xml:space="preserve">4.27770090103149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36942529678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43196439743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56121301651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52785873413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49867343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50284242630005</t>
+    <t xml:space="preserve">4.36942577362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43196535110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56121253967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5278582572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49867391586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50284290313721</t>
   </si>
   <si>
     <t xml:space="preserve">4.4611496925354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35274839401245</t>
+    <t xml:space="preserve">4.35274791717529</t>
   </si>
   <si>
     <t xml:space="preserve">4.47782707214355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44864273071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46531963348389</t>
+    <t xml:space="preserve">4.44864177703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46531867980957</t>
   </si>
   <si>
     <t xml:space="preserve">4.47365808486938</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">4.65293741226196</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51535034179688</t>
+    <t xml:space="preserve">4.51535129547119</t>
   </si>
   <si>
     <t xml:space="preserve">4.41528749465942</t>
@@ -800,19 +800,19 @@
     <t xml:space="preserve">4.3360710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38610315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43613433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3277325630188</t>
+    <t xml:space="preserve">4.3861026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43613386154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32773208618164</t>
   </si>
   <si>
     <t xml:space="preserve">4.33190250396729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29437828063965</t>
+    <t xml:space="preserve">4.29437780380249</t>
   </si>
   <si>
     <t xml:space="preserve">4.22767019271851</t>
@@ -821,88 +821,88 @@
     <t xml:space="preserve">4.18597602844238</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30688571929932</t>
+    <t xml:space="preserve">4.30688524246216</t>
   </si>
   <si>
     <t xml:space="preserve">4.49450445175171</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4528112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36108684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39027166366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36525630950928</t>
+    <t xml:space="preserve">4.45281171798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36108636856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39027214050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36525583267212</t>
   </si>
   <si>
     <t xml:space="preserve">4.53619766235352</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61958360671997</t>
+    <t xml:space="preserve">4.61958312988281</t>
   </si>
   <si>
     <t xml:space="preserve">4.60707569122314</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61124467849731</t>
+    <t xml:space="preserve">4.61124515533447</t>
   </si>
   <si>
     <t xml:space="preserve">4.77384757995605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75300073623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80720138549805</t>
+    <t xml:space="preserve">4.75300025939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80720090866089</t>
   </si>
   <si>
     <t xml:space="preserve">4.82804822921753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91560411453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90726518630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74466180801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42779541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42362594604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34440994262695</t>
+    <t xml:space="preserve">4.91560363769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90726470947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74466276168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42779588699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42362642288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34440946578979</t>
   </si>
   <si>
     <t xml:space="preserve">4.49153566360474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53827810287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5042839050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46179008483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45329141616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38955163955688</t>
+    <t xml:space="preserve">4.53827857971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50428342819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46179056167603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45329189300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38955211639404</t>
   </si>
   <si>
     <t xml:space="preserve">4.35980653762817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34281015396118</t>
+    <t xml:space="preserve">4.34280967712402</t>
   </si>
   <si>
     <t xml:space="preserve">4.40229940414429</t>
@@ -929,16 +929,16 @@
     <t xml:space="preserve">4.38530206680298</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5170316696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48728656768799</t>
+    <t xml:space="preserve">4.51703214645386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48728704452515</t>
   </si>
   <si>
     <t xml:space="preserve">4.48303699493408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47028875350952</t>
+    <t xml:space="preserve">4.47028923034668</t>
   </si>
   <si>
     <t xml:space="preserve">4.55527544021606</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">4.57227325439453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65725898742676</t>
+    <t xml:space="preserve">4.65725946426392</t>
   </si>
   <si>
     <t xml:space="preserve">4.49578428268433</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">4.78473854064941</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67425680160522</t>
+    <t xml:space="preserve">4.67425632476807</t>
   </si>
   <si>
     <t xml:space="preserve">4.95046186447144</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">5.09918832778931</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15867900848389</t>
+    <t xml:space="preserve">5.15867948532104</t>
   </si>
   <si>
     <t xml:space="preserve">5.20967102050781</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35414886474609</t>
+    <t xml:space="preserve">5.35414838790894</t>
   </si>
   <si>
     <t xml:space="preserve">5.3923921585083</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">5.52412080764771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40938854217529</t>
+    <t xml:space="preserve">5.40938901901245</t>
   </si>
   <si>
     <t xml:space="preserve">5.4051399230957</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">5.33290195465088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39664220809937</t>
+    <t xml:space="preserve">5.39664173126221</t>
   </si>
   <si>
     <t xml:space="preserve">5.40089130401611</t>
@@ -1016,16 +1016,16 @@
     <t xml:space="preserve">5.15442991256714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666883468628</t>
+    <t xml:space="preserve">5.22666835784912</t>
   </si>
   <si>
     <t xml:space="preserve">5.30740547180176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17567682266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13318252563477</t>
+    <t xml:space="preserve">5.1756763458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13318300247192</t>
   </si>
   <si>
     <t xml:space="preserve">5.05669546127319</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">5.00570392608643</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03969860076904</t>
+    <t xml:space="preserve">5.03969764709473</t>
   </si>
   <si>
     <t xml:space="preserve">4.98870611190796</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">5.00145435333252</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05244588851929</t>
+    <t xml:space="preserve">5.05244636535645</t>
   </si>
   <si>
     <t xml:space="preserve">5.04394769668579</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">5.15018033981323</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21817016601562</t>
+    <t xml:space="preserve">5.21816968917847</t>
   </si>
   <si>
     <t xml:space="preserve">5.27766036987305</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">5.23516702651978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43913459777832</t>
+    <t xml:space="preserve">5.43913507461548</t>
   </si>
   <si>
     <t xml:space="preserve">5.3711462020874</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">5.80032682418823</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1232762336731</t>
+    <t xml:space="preserve">6.12327575683594</t>
   </si>
   <si>
     <t xml:space="preserve">5.92355728149414</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">6.13602352142334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28899955749512</t>
+    <t xml:space="preserve">6.28899908065796</t>
   </si>
   <si>
     <t xml:space="preserve">6.00854349136353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05953645706177</t>
+    <t xml:space="preserve">6.05953598022461</t>
   </si>
   <si>
     <t xml:space="preserve">6.08503198623657</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">6.03403997421265</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97879838943481</t>
+    <t xml:space="preserve">5.97879791259766</t>
   </si>
   <si>
     <t xml:space="preserve">6.04678773880005</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">6.01704263687134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0212926864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99154663085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96180152893066</t>
+    <t xml:space="preserve">6.02129220962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99154710769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96180105209351</t>
   </si>
   <si>
     <t xml:space="preserve">6.12752532958984</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">6.21251153945923</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14877223968506</t>
+    <t xml:space="preserve">6.1487717628479</t>
   </si>
   <si>
     <t xml:space="preserve">6.11902618408203</t>
@@ -1169,19 +1169,19 @@
     <t xml:space="preserve">6.17001867294312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19976425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41647958755493</t>
+    <t xml:space="preserve">6.19976377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41647911071777</t>
   </si>
   <si>
     <t xml:space="preserve">6.29749774932861</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32299327850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20401334762573</t>
+    <t xml:space="preserve">6.32299375534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20401287078857</t>
   </si>
   <si>
     <t xml:space="preserve">6.36973667144775</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">6.14452266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22101020812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30599689483643</t>
+    <t xml:space="preserve">6.22101068496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30599641799927</t>
   </si>
   <si>
     <t xml:space="preserve">6.33149290084839</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">6.13177490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14027309417725</t>
+    <t xml:space="preserve">6.14027261734009</t>
   </si>
   <si>
     <t xml:space="preserve">6.23800754547119</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">6.34848928451538</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40798091888428</t>
+    <t xml:space="preserve">6.40798044204712</t>
   </si>
   <si>
     <t xml:space="preserve">6.71393156051636</t>
@@ -1250,43 +1250,43 @@
     <t xml:space="preserve">6.74792671203613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70543336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63744354248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62894535064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79041957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87540674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72243070602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75642490386963</t>
+    <t xml:space="preserve">6.7054328918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63744449615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62894582748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7904200553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87540626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72243022918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75642538070679</t>
   </si>
   <si>
     <t xml:space="preserve">6.76492404937744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84141111373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65444135665894</t>
+    <t xml:space="preserve">6.84141159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65444183349609</t>
   </si>
   <si>
     <t xml:space="preserve">6.64594316482544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79891872406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6799373626709</t>
+    <t xml:space="preserve">6.79891920089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67993783950806</t>
   </si>
   <si>
     <t xml:space="preserve">6.57795333862305</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">6.35698890686035</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02554178237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05103731155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66293954849243</t>
+    <t xml:space="preserve">6.02554130554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0510368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66294002532959</t>
   </si>
   <si>
     <t xml:space="preserve">6.39098358154297</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">6.4589729309082</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26350355148315</t>
+    <t xml:space="preserve">6.26350402832031</t>
   </si>
   <si>
     <t xml:space="preserve">6.28050088882446</t>
@@ -1334,43 +1334,43 @@
     <t xml:space="preserve">6.17851686477661</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00004577636719</t>
+    <t xml:space="preserve">6.00004529953003</t>
   </si>
   <si>
     <t xml:space="preserve">5.96605110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93205642700195</t>
+    <t xml:space="preserve">5.93205595016479</t>
   </si>
   <si>
     <t xml:space="preserve">5.83857107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87256574630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88106441497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79607820510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94055509567261</t>
+    <t xml:space="preserve">5.87256479263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88106393814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7960786819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94055461883545</t>
   </si>
   <si>
     <t xml:space="preserve">5.98304843902588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88956356048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89806175231934</t>
+    <t xml:space="preserve">5.88956308364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89806127548218</t>
   </si>
   <si>
     <t xml:space="preserve">5.90655994415283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74508714675903</t>
+    <t xml:space="preserve">5.74508666992188</t>
   </si>
   <si>
     <t xml:space="preserve">5.76233863830566</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">5.77959060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81409597396851</t>
+    <t xml:space="preserve">5.81409645080566</t>
   </si>
   <si>
     <t xml:space="preserve">5.58981370925903</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">5.65882349014282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65019750595093</t>
+    <t xml:space="preserve">5.65019798278809</t>
   </si>
   <si>
     <t xml:space="preserve">5.85722732543945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69332838058472</t>
+    <t xml:space="preserve">5.69332885742188</t>
   </si>
   <si>
     <t xml:space="preserve">5.77096509933472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82272291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89173221588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02975273132324</t>
+    <t xml:space="preserve">5.82272243499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89173269271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02975225448608</t>
   </si>
   <si>
     <t xml:space="preserve">6.02112674713135</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">5.9003586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83134937286377</t>
+    <t xml:space="preserve">5.83134984970093</t>
   </si>
   <si>
     <t xml:space="preserve">5.9262375831604</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">5.80546998977661</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83997535705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84860134124756</t>
+    <t xml:space="preserve">5.83997488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8486008644104</t>
   </si>
   <si>
     <t xml:space="preserve">5.71920728683472</t>
@@ -1457,19 +1457,19 @@
     <t xml:space="preserve">5.78821754455566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13326787948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11601495742798</t>
+    <t xml:space="preserve">6.13326740264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11601543426514</t>
   </si>
   <si>
     <t xml:space="preserve">5.93486404418945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87447929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91761159896851</t>
+    <t xml:space="preserve">5.8744797706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91761112213135</t>
   </si>
   <si>
     <t xml:space="preserve">5.90898466110229</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">5.95211601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53805637359619</t>
+    <t xml:space="preserve">5.53805589675903</t>
   </si>
   <si>
     <t xml:space="preserve">5.49492406845093</t>
@@ -1511,16 +1511,16 @@
     <t xml:space="preserve">5.40866231918335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54668188095093</t>
+    <t xml:space="preserve">5.54668235778809</t>
   </si>
   <si>
     <t xml:space="preserve">5.57256126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55530834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46041917800903</t>
+    <t xml:space="preserve">5.55530881881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46041965484619</t>
   </si>
   <si>
     <t xml:space="preserve">5.47767210006714</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">5.33102607727051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24476289749146</t>
+    <t xml:space="preserve">5.24476337432861</t>
   </si>
   <si>
     <t xml:space="preserve">5.21888494491577</t>
@@ -1541,22 +1541,22 @@
     <t xml:space="preserve">5.23613691329956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37415742874146</t>
+    <t xml:space="preserve">5.3741569519043</t>
   </si>
   <si>
     <t xml:space="preserve">5.35690498352051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31377363204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3396520614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39140939712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42591524124146</t>
+    <t xml:space="preserve">5.3137731552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33965253829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3914098739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4259147644043</t>
   </si>
   <si>
     <t xml:space="preserve">5.40003538131714</t>
@@ -1568,10 +1568,10 @@
     <t xml:space="preserve">5.43454074859619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27064228057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19300603866577</t>
+    <t xml:space="preserve">5.27064275741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19300556182861</t>
   </si>
   <si>
     <t xml:space="preserve">5.27926826477051</t>
@@ -1580,13 +1580,13 @@
     <t xml:space="preserve">5.21025800704956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01185464859009</t>
+    <t xml:space="preserve">5.01185417175293</t>
   </si>
   <si>
     <t xml:space="preserve">4.69268369674683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58916759490967</t>
+    <t xml:space="preserve">4.58916807174683</t>
   </si>
   <si>
     <t xml:space="preserve">4.65817832946777</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">4.46840047836304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63229894638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61504602432251</t>
+    <t xml:space="preserve">4.63229942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61504697799683</t>
   </si>
   <si>
     <t xml:space="preserve">4.70993518829346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55466270446777</t>
+    <t xml:space="preserve">4.55466318130493</t>
   </si>
   <si>
     <t xml:space="preserve">4.3562593460083</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">4.30450105667114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17510843276978</t>
+    <t xml:space="preserve">4.17510795593262</t>
   </si>
   <si>
     <t xml:space="preserve">4.28724908828735</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">4.23980474472046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48565244674683</t>
+    <t xml:space="preserve">4.48565196990967</t>
   </si>
   <si>
     <t xml:space="preserve">4.62367296218872</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">4.7271876335144</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50290536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58054208755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51153135299683</t>
+    <t xml:space="preserve">4.50290489196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58054161071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51153182983398</t>
   </si>
   <si>
     <t xml:space="preserve">4.52015781402588</t>
@@ -1679,10 +1679,10 @@
     <t xml:space="preserve">4.30018854141235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24411773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18373441696167</t>
+    <t xml:space="preserve">4.24411725997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18373394012451</t>
   </si>
   <si>
     <t xml:space="preserve">4.11903715133667</t>
@@ -1697,10 +1697,10 @@
     <t xml:space="preserve">4.22255182266235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13197660446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23117828369141</t>
+    <t xml:space="preserve">4.13197612762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23117876052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.17079448699951</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">4.44252157211304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39939069747925</t>
+    <t xml:space="preserve">4.39939022064209</t>
   </si>
   <si>
     <t xml:space="preserve">4.57191562652588</t>
@@ -1739,16 +1739,16 @@
     <t xml:space="preserve">5.00322818756104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98597574234009</t>
+    <t xml:space="preserve">4.98597621917725</t>
   </si>
   <si>
     <t xml:space="preserve">5.05498552322388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10674333572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11536931991577</t>
+    <t xml:space="preserve">5.10674381256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11536884307861</t>
   </si>
   <si>
     <t xml:space="preserve">5.13262224197388</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">5.15850067138672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08949136734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07223892211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30514764785767</t>
+    <t xml:space="preserve">5.08949089050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07223844528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30514717102051</t>
   </si>
   <si>
     <t xml:space="preserve">5.22751092910767</t>
@@ -1775,19 +1775,19 @@
     <t xml:space="preserve">5.32239961624146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4517936706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38278293609619</t>
+    <t xml:space="preserve">5.45179414749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38278341293335</t>
   </si>
   <si>
     <t xml:space="preserve">5.51217746734619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5035514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58118724822998</t>
+    <t xml:space="preserve">5.50355100631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58118677139282</t>
   </si>
   <si>
     <t xml:space="preserve">5.60706615447998</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">5.11938953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11056280136108</t>
+    <t xml:space="preserve">5.11056232452393</t>
   </si>
   <si>
     <t xml:space="preserve">5.16352128982544</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">5.33122634887695</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36653137207031</t>
+    <t xml:space="preserve">5.36653184890747</t>
   </si>
   <si>
     <t xml:space="preserve">5.34005308151245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35770559310913</t>
+    <t xml:space="preserve">5.35770606994629</t>
   </si>
   <si>
     <t xml:space="preserve">5.44597101211548</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">5.53423643112183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43714475631714</t>
+    <t xml:space="preserve">5.43714427947998</t>
   </si>
   <si>
     <t xml:space="preserve">5.51658344268799</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68428754806519</t>
+    <t xml:space="preserve">5.68428802490234</t>
   </si>
   <si>
     <t xml:space="preserve">5.63132858276367</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">5.7548999786377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87847137451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86081790924072</t>
+    <t xml:space="preserve">5.87847089767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86081743240356</t>
   </si>
   <si>
     <t xml:space="preserve">5.84316492080688</t>
@@ -1889,31 +1889,31 @@
     <t xml:space="preserve">5.81668519973755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78137922286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71076679229736</t>
+    <t xml:space="preserve">5.78137969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71076631546021</t>
   </si>
   <si>
     <t xml:space="preserve">5.60484838485718</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56071615219116</t>
+    <t xml:space="preserve">5.560715675354</t>
   </si>
   <si>
     <t xml:space="preserve">5.67546081542969</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85199213027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62250137329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34887933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28709316253662</t>
+    <t xml:space="preserve">5.85199165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62250185012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34887886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28709268569946</t>
   </si>
   <si>
     <t xml:space="preserve">5.39301252365112</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">5.37535858154297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18117427825928</t>
+    <t xml:space="preserve">5.18117475509644</t>
   </si>
   <si>
     <t xml:space="preserve">5.25178718566895</t>
@@ -1946,31 +1946,31 @@
     <t xml:space="preserve">5.64898109436035</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55188941955566</t>
+    <t xml:space="preserve">5.55188894271851</t>
   </si>
   <si>
     <t xml:space="preserve">5.59602212905884</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50775623321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4724497795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42831802368164</t>
+    <t xml:space="preserve">5.50775671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47245025634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42831754684448</t>
   </si>
   <si>
     <t xml:space="preserve">5.49010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12821626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14586877822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26502752304077</t>
+    <t xml:space="preserve">5.12821578979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14586925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26502799987793</t>
   </si>
   <si>
     <t xml:space="preserve">5.13969039916992</t>
@@ -1979,13 +1979,13 @@
     <t xml:space="preserve">5.20765542984009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25531816482544</t>
+    <t xml:space="preserve">5.25531768798828</t>
   </si>
   <si>
     <t xml:space="preserve">5.31268978118896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38418483734131</t>
+    <t xml:space="preserve">5.38418531417847</t>
   </si>
   <si>
     <t xml:space="preserve">5.45214939117432</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">5.38506746292114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41154766082764</t>
+    <t xml:space="preserve">5.41154718399048</t>
   </si>
   <si>
     <t xml:space="preserve">5.37271070480347</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">5.45391464233398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32328176498413</t>
+    <t xml:space="preserve">5.32328224182129</t>
   </si>
   <si>
     <t xml:space="preserve">5.44950151443481</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">5.7284197807312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62603187561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57130813598633</t>
+    <t xml:space="preserve">5.62603235244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57130765914917</t>
   </si>
   <si>
     <t xml:space="preserve">5.53070545196533</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">6.1432671546936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1609206199646</t>
+    <t xml:space="preserve">6.16092014312744</t>
   </si>
   <si>
     <t xml:space="preserve">6.16974639892578</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">6.06294584274292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88464975357056</t>
+    <t xml:space="preserve">5.8846492767334</t>
   </si>
   <si>
     <t xml:space="preserve">5.89789056777954</t>
@@ -2072,10 +2072,10 @@
     <t xml:space="preserve">5.85552167892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85375690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92613410949707</t>
+    <t xml:space="preserve">5.85375642776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92613458633423</t>
   </si>
   <si>
     <t xml:space="preserve">6.02322578430176</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">5.97291564941406</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79373693466187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84669542312622</t>
+    <t xml:space="preserve">5.79373645782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84669589996338</t>
   </si>
   <si>
     <t xml:space="preserve">5.93496084213257</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">5.87052726745605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93143033981323</t>
+    <t xml:space="preserve">5.93143081665039</t>
   </si>
   <si>
     <t xml:space="preserve">5.87494087219238</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">5.83433866500854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8113899230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80609369277954</t>
+    <t xml:space="preserve">5.81138944625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8060941696167</t>
   </si>
   <si>
     <t xml:space="preserve">5.74077749252319</t>
@@ -2144,13 +2144,13 @@
     <t xml:space="preserve">5.87405776977539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77078723907471</t>
+    <t xml:space="preserve">5.77078676223755</t>
   </si>
   <si>
     <t xml:space="preserve">5.68340492248535</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7372465133667</t>
+    <t xml:space="preserve">5.73724603652954</t>
   </si>
   <si>
     <t xml:space="preserve">5.78579187393188</t>
@@ -2165,43 +2165,43 @@
     <t xml:space="preserve">5.75754737854004</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83963441848755</t>
+    <t xml:space="preserve">5.83963489532471</t>
   </si>
   <si>
     <t xml:space="preserve">5.72665452957153</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71871042251587</t>
+    <t xml:space="preserve">5.71871089935303</t>
   </si>
   <si>
     <t xml:space="preserve">5.7654914855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76813936233521</t>
+    <t xml:space="preserve">5.76813888549805</t>
   </si>
   <si>
     <t xml:space="preserve">5.86964511871338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95702743530273</t>
+    <t xml:space="preserve">5.95702791213989</t>
   </si>
   <si>
     <t xml:space="preserve">6.12561416625977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04617500305176</t>
+    <t xml:space="preserve">6.04617547988892</t>
   </si>
   <si>
     <t xml:space="preserve">5.99321603775024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82816028594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52982330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46892023086548</t>
+    <t xml:space="preserve">5.82815980911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5298228263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46891975402832</t>
   </si>
   <si>
     <t xml:space="preserve">5.29856824874878</t>
@@ -2222,25 +2222,25 @@
     <t xml:space="preserve">4.32809066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38678693771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39296579360962</t>
+    <t xml:space="preserve">4.38678646087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39296531677246</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357530593872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19260263442993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06020545959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84969234466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97194027900696</t>
+    <t xml:space="preserve">4.19260311126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06020498275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84969186782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9719398021698</t>
   </si>
   <si>
     <t xml:space="preserve">4.25880241394043</t>
@@ -2252,25 +2252,25 @@
     <t xml:space="preserve">4.05402660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15111875534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35898351669312</t>
+    <t xml:space="preserve">4.15111827850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35898303985596</t>
   </si>
   <si>
     <t xml:space="preserve">4.19966459274292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13743686676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34177112579346</t>
+    <t xml:space="preserve">4.13743734359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34177160263062</t>
   </si>
   <si>
     <t xml:space="preserve">4.39561367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45739936828613</t>
+    <t xml:space="preserve">4.45739984512329</t>
   </si>
   <si>
     <t xml:space="preserve">4.2543888092041</t>
@@ -2282,10 +2282,10 @@
     <t xml:space="preserve">4.54566431045532</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70454263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57214450836182</t>
+    <t xml:space="preserve">4.70454216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57214403152466</t>
   </si>
   <si>
     <t xml:space="preserve">4.72219467163086</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">4.6692361831665</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61627674102783</t>
+    <t xml:space="preserve">4.61627721786499</t>
   </si>
   <si>
     <t xml:space="preserve">4.58979749679565</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">4.88989925384521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03994989395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01347064971924</t>
+    <t xml:space="preserve">5.03995037078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01347017288208</t>
   </si>
   <si>
     <t xml:space="preserve">4.93403196334839</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">4.64275646209717</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71336936950684</t>
+    <t xml:space="preserve">4.71336889266968</t>
   </si>
   <si>
     <t xml:space="preserve">4.76632833480835</t>
@@ -4266,6 +4266,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.039999961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90999984741211</t>
   </si>
 </sst>
 </file>
@@ -60299,7 +60302,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6494444444</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>56922</v>
@@ -60320,6 +60323,32 @@
         <v>1417</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6493518519</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>49664</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>9.98999977111816</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>9.81999969482422</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>9.94999980926514</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>9.90999984741211</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79800605773926</t>
+    <t xml:space="preserve">4.79800653457642</t>
   </si>
   <si>
     <t xml:space="preserve">CEM.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">4.77356815338135</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64730501174927</t>
+    <t xml:space="preserve">4.64730548858643</t>
   </si>
   <si>
     <t xml:space="preserve">4.57806348800659</t>
@@ -56,31 +56,31 @@
     <t xml:space="preserve">4.41514301300049</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30517196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41106986999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37441349029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37848615646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14225149154663</t>
+    <t xml:space="preserve">4.30517244338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41107034683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37441253662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37848567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14225196838379</t>
   </si>
   <si>
     <t xml:space="preserve">4.01435899734497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05346012115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74879837036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91171932220459</t>
+    <t xml:space="preserve">4.05345916748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74879932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91171884536743</t>
   </si>
   <si>
     <t xml:space="preserve">4.02739238739014</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">3.99480867385864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95570778846741</t>
+    <t xml:space="preserve">3.95570755004883</t>
   </si>
   <si>
     <t xml:space="preserve">3.82048392295837</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">4.01273012161255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95082020759583</t>
+    <t xml:space="preserve">3.95081973075867</t>
   </si>
   <si>
     <t xml:space="preserve">3.81233716011047</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">3.64941740036011</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67059731483459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69177651405334</t>
+    <t xml:space="preserve">3.67059707641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69177675247192</t>
   </si>
   <si>
     <t xml:space="preserve">3.4180703163147</t>
@@ -122,16 +122,16 @@
     <t xml:space="preserve">3.2127902507782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31543040275574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19324040412903</t>
+    <t xml:space="preserve">3.31543064117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19323992729187</t>
   </si>
   <si>
     <t xml:space="preserve">3.2730712890625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51093506813049</t>
+    <t xml:space="preserve">3.51093459129333</t>
   </si>
   <si>
     <t xml:space="preserve">3.42947459220886</t>
@@ -140,46 +140,46 @@
     <t xml:space="preserve">3.54514861106873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62497925758362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41318321228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45880007743835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4343626499176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30402588844299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35778975486755</t>
+    <t xml:space="preserve">3.62497901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41318345069885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45880055427551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43436217308044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30402612686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35778999328613</t>
   </si>
   <si>
     <t xml:space="preserve">3.47020506858826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65756320953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70643925666809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62660837173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71621465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63149619102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59076571464539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795716285706</t>
+    <t xml:space="preserve">3.65756344795227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70643997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6266086101532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71621489524841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63149642944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59076595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56795692443848</t>
   </si>
   <si>
     <t xml:space="preserve">3.59565329551697</t>
@@ -191,28 +191,28 @@
     <t xml:space="preserve">3.82700037956238</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68525958061218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82862973213196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846014022827</t>
+    <t xml:space="preserve">3.68525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82862949371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846037864685</t>
   </si>
   <si>
     <t xml:space="preserve">3.74391102790833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7813823223114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.730877161026</t>
+    <t xml:space="preserve">3.78138303756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73087739944458</t>
   </si>
   <si>
     <t xml:space="preserve">3.58750772476196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64127135276794</t>
+    <t xml:space="preserve">3.64127111434937</t>
   </si>
   <si>
     <t xml:space="preserve">3.57936143875122</t>
@@ -221,49 +221,49 @@
     <t xml:space="preserve">3.61357474327087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65104651451111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52070999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47835111618042</t>
+    <t xml:space="preserve">3.65104603767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5207097530365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47835087776184</t>
   </si>
   <si>
     <t xml:space="preserve">3.44250822067261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67222619056702</t>
+    <t xml:space="preserve">3.67222571372986</t>
   </si>
   <si>
     <t xml:space="preserve">3.55492329597473</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61520409584045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66733860969543</t>
+    <t xml:space="preserve">3.61520385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66733837127686</t>
   </si>
   <si>
     <t xml:space="preserve">3.85469675064087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81885433197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93452787399292</t>
+    <t xml:space="preserve">3.81885409355164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93452739715576</t>
   </si>
   <si>
     <t xml:space="preserve">3.81396675109863</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82374167442322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77975344657898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76672077178955</t>
+    <t xml:space="preserve">3.8237419128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77975273132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76672029495239</t>
   </si>
   <si>
     <t xml:space="preserve">3.75042796134949</t>
@@ -272,13 +272,13 @@
     <t xml:space="preserve">3.87261891365051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73902344703674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77486634254456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69829297065735</t>
+    <t xml:space="preserve">3.73902368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77486562728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69829368591309</t>
   </si>
   <si>
     <t xml:space="preserve">3.74716949462891</t>
@@ -290,76 +290,76 @@
     <t xml:space="preserve">3.60054111480713</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52722644805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54351854324341</t>
+    <t xml:space="preserve">3.52722692489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54351902008057</t>
   </si>
   <si>
     <t xml:space="preserve">3.60227465629578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69399905204773</t>
+    <t xml:space="preserve">3.69399833679199</t>
   </si>
   <si>
     <t xml:space="preserve">3.83241963386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83575534820557</t>
+    <t xml:space="preserve">3.83575558662415</t>
   </si>
   <si>
     <t xml:space="preserve">3.95249557495117</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96083498001099</t>
+    <t xml:space="preserve">3.96083474159241</t>
   </si>
   <si>
     <t xml:space="preserve">3.85243248939514</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82908391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77905249595642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74236297607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6689829826355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65564131736755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62728977203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45384788513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37713265419006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36379075050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26039171218872</t>
+    <t xml:space="preserve">3.82908487319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.779052734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74236273765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66898345947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65564155578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62729001045227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45384740829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37713241577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36379051208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26039218902588</t>
   </si>
   <si>
     <t xml:space="preserve">3.2220344543457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06693649291992</t>
+    <t xml:space="preserve">3.06693625450134</t>
   </si>
   <si>
     <t xml:space="preserve">3.21703100204468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09528756141663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28707575798035</t>
+    <t xml:space="preserve">3.09528732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28707551956177</t>
   </si>
   <si>
     <t xml:space="preserve">3.41882514953613</t>
@@ -374,61 +374,61 @@
     <t xml:space="preserve">2.8768162727356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8968288898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99355673789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10362577438354</t>
+    <t xml:space="preserve">2.89682912826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9935564994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1036262512207</t>
   </si>
   <si>
     <t xml:space="preserve">3.01690483093262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85180068016052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81844639778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82344961166382</t>
+    <t xml:space="preserve">2.85180044174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81844615936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82344913482666</t>
   </si>
   <si>
     <t xml:space="preserve">2.90516757965088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9351863861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10195875167847</t>
+    <t xml:space="preserve">2.93518662452698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10195851325989</t>
   </si>
   <si>
     <t xml:space="preserve">3.06026554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27540135383606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19535064697266</t>
+    <t xml:space="preserve">3.27540111541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19535112380981</t>
   </si>
   <si>
     <t xml:space="preserve">3.13698077201843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03358197212219</t>
+    <t xml:space="preserve">3.03358221054077</t>
   </si>
   <si>
     <t xml:space="preserve">3.17033505439758</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03524947166443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9868860244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23871183395386</t>
+    <t xml:space="preserve">3.03524994850159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98688578605652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2387113571167</t>
   </si>
   <si>
     <t xml:space="preserve">3.24371480941772</t>
@@ -437,34 +437,34 @@
     <t xml:space="preserve">3.21869874000549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2520534992218</t>
+    <t xml:space="preserve">3.25205326080322</t>
   </si>
   <si>
     <t xml:space="preserve">3.16032862663269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18367695808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08528137207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17867350578308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30208539962769</t>
+    <t xml:space="preserve">3.18367671966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08528161048889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1786732673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30208516120911</t>
   </si>
   <si>
     <t xml:space="preserve">3.34544563293457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38880658149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50387859344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47386002540588</t>
+    <t xml:space="preserve">3.38880634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50387930870056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4738597869873</t>
   </si>
   <si>
     <t xml:space="preserve">3.53556537628174</t>
@@ -473,49 +473,49 @@
     <t xml:space="preserve">3.5055468082428</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51722049713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75236892700195</t>
+    <t xml:space="preserve">3.51722073554993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75236845016479</t>
   </si>
   <si>
     <t xml:space="preserve">3.7190146446228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79239416122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76904654502869</t>
+    <t xml:space="preserve">3.7923948764801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76904606819153</t>
   </si>
   <si>
     <t xml:space="preserve">3.81907796859741</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92914772033691</t>
+    <t xml:space="preserve">3.92914724349976</t>
   </si>
   <si>
     <t xml:space="preserve">3.8841187953949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89912819862366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87911534309387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81741046905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69566655158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63729667663574</t>
+    <t xml:space="preserve">3.89912891387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87911653518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81740999221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69566702842712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63729691505432</t>
   </si>
   <si>
     <t xml:space="preserve">3.54390430450439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5855975151062</t>
+    <t xml:space="preserve">3.58559727668762</t>
   </si>
   <si>
     <t xml:space="preserve">3.73235630989075</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">3.67732191085815</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61561632156372</t>
+    <t xml:space="preserve">3.61561560630798</t>
   </si>
   <si>
     <t xml:space="preserve">3.72068190574646</t>
@@ -533,94 +533,94 @@
     <t xml:space="preserve">3.71734738349915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45551538467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55224323272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52222418785095</t>
+    <t xml:space="preserve">3.45551490783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55224299430847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52222394943237</t>
   </si>
   <si>
     <t xml:space="preserve">3.50221109390259</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57725858688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63562893867493</t>
+    <t xml:space="preserve">3.57725834846497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63562917709351</t>
   </si>
   <si>
     <t xml:space="preserve">3.62562227249146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63396048545837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391049385071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61394858360291</t>
+    <t xml:space="preserve">3.63396120071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391025543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61394834518433</t>
   </si>
   <si>
     <t xml:space="preserve">3.69733452796936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66231226921082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71401119232178</t>
+    <t xml:space="preserve">3.66231250762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71401166915894</t>
   </si>
   <si>
     <t xml:space="preserve">3.76237535476685</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73402404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76070785522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6072781085968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70233774185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71067595481873</t>
+    <t xml:space="preserve">3.73402380943298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76070809364319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60727787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70233726501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71067571640015</t>
   </si>
   <si>
     <t xml:space="preserve">3.50721430778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48720169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40214824676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43883800506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3404426574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28540778160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27373361587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24037909507751</t>
+    <t xml:space="preserve">3.48553395271301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48720216751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40214776992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43883776664734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34044218063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28540754318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27373385429382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24037933349609</t>
   </si>
   <si>
     <t xml:space="preserve">3.27706909179688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21036052703857</t>
+    <t xml:space="preserve">3.21036028862</t>
   </si>
   <si>
     <t xml:space="preserve">3.17533802986145</t>
@@ -632,43 +632,43 @@
     <t xml:space="preserve">3.07694268226624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01190161705017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97687983512878</t>
+    <t xml:space="preserve">3.01190137863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97687959671021</t>
   </si>
   <si>
     <t xml:space="preserve">3.02357578277588</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02691125869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01523685455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10862946510315</t>
+    <t xml:space="preserve">3.02691149711609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0152370929718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10862922668457</t>
   </si>
   <si>
     <t xml:space="preserve">3.23537611961365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25038552284241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38547086715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29874968528748</t>
+    <t xml:space="preserve">3.25038576126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3854706287384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2987494468689</t>
   </si>
   <si>
     <t xml:space="preserve">3.52722716331482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55724549293518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52055644989014</t>
+    <t xml:space="preserve">3.55724596977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52055668830872</t>
   </si>
   <si>
     <t xml:space="preserve">3.56891989707947</t>
@@ -677,55 +677,55 @@
     <t xml:space="preserve">3.643967628479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51888751983643</t>
+    <t xml:space="preserve">3.51888823509216</t>
   </si>
   <si>
     <t xml:space="preserve">3.68566060066223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75070118904114</t>
+    <t xml:space="preserve">3.75070142745972</t>
   </si>
   <si>
     <t xml:space="preserve">3.66064476966858</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77738475799561</t>
+    <t xml:space="preserve">3.77738499641418</t>
   </si>
   <si>
     <t xml:space="preserve">3.55557823181152</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39881300926208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35211658477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29374647140503</t>
+    <t xml:space="preserve">3.39881253242493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35211682319641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29374623298645</t>
   </si>
   <si>
     <t xml:space="preserve">3.33543920516968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31209111213684</t>
+    <t xml:space="preserve">3.312091588974</t>
   </si>
   <si>
     <t xml:space="preserve">3.29541373252869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29708170890808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32710027694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34210991859436</t>
+    <t xml:space="preserve">3.2970814704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3271005153656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34211015701294</t>
   </si>
   <si>
     <t xml:space="preserve">3.30041718482971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08091020584106</t>
+    <t xml:space="preserve">4.08091068267822</t>
   </si>
   <si>
     <t xml:space="preserve">4.12760639190674</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">4.252685546875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2610239982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14428281784058</t>
+    <t xml:space="preserve">4.26102352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14428329467773</t>
   </si>
   <si>
     <t xml:space="preserve">4.03588104248047</t>
@@ -749,22 +749,22 @@
     <t xml:space="preserve">4.27770042419434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36942481994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43196535110474</t>
+    <t xml:space="preserve">4.36942529678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43196439743042</t>
   </si>
   <si>
     <t xml:space="preserve">4.56121301651001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5278582572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49867343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50284290313721</t>
+    <t xml:space="preserve">4.52785873413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49867391586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50284337997437</t>
   </si>
   <si>
     <t xml:space="preserve">4.46115016937256</t>
@@ -776,13 +776,13 @@
     <t xml:space="preserve">4.47782754898071</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44864225387573</t>
+    <t xml:space="preserve">4.44864273071289</t>
   </si>
   <si>
     <t xml:space="preserve">4.46531915664673</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47365760803223</t>
+    <t xml:space="preserve">4.47365808486938</t>
   </si>
   <si>
     <t xml:space="preserve">4.65293741226196</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">4.51535081863403</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41528797149658</t>
+    <t xml:space="preserve">4.41528844833374</t>
   </si>
   <si>
     <t xml:space="preserve">4.34024000167847</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33607053756714</t>
+    <t xml:space="preserve">4.3360710144043</t>
   </si>
   <si>
     <t xml:space="preserve">4.3861026763916</t>
@@ -806,34 +806,34 @@
     <t xml:space="preserve">4.43613433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32773208618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33190155029297</t>
+    <t xml:space="preserve">4.3277325630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33190202713013</t>
   </si>
   <si>
     <t xml:space="preserve">4.29437828063965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22766923904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18597650527954</t>
+    <t xml:space="preserve">4.22766971588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18597602844238</t>
   </si>
   <si>
     <t xml:space="preserve">4.30688619613647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49450397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45281219482422</t>
+    <t xml:space="preserve">4.49450445175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45281171798706</t>
   </si>
   <si>
     <t xml:space="preserve">4.36108684539795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39027166366577</t>
+    <t xml:space="preserve">4.39027214050293</t>
   </si>
   <si>
     <t xml:space="preserve">4.36525583267212</t>
@@ -851,28 +851,28 @@
     <t xml:space="preserve">4.61124515533447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77384757995605</t>
+    <t xml:space="preserve">4.77384805679321</t>
   </si>
   <si>
     <t xml:space="preserve">4.75300073623657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80720186233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82804775238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91560363769531</t>
+    <t xml:space="preserve">4.80720138549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82804822921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91560411453247</t>
   </si>
   <si>
     <t xml:space="preserve">4.90726518630981</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74466228485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42779541015625</t>
+    <t xml:space="preserve">4.74466180801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42779588699341</t>
   </si>
   <si>
     <t xml:space="preserve">4.42362594604492</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">4.53827857971191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50428438186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46178960800171</t>
+    <t xml:space="preserve">4.5042839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46179056167603</t>
   </si>
   <si>
     <t xml:space="preserve">4.45329093933105</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38955163955688</t>
+    <t xml:space="preserve">4.38955211639404</t>
   </si>
   <si>
     <t xml:space="preserve">4.35980606079102</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">4.34280920028687</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40229988098145</t>
+    <t xml:space="preserve">4.40229940414429</t>
   </si>
   <si>
     <t xml:space="preserve">4.35130786895752</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">4.4192967414856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45754146575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43204498291016</t>
+    <t xml:space="preserve">4.45754098892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43204545974731</t>
   </si>
   <si>
     <t xml:space="preserve">4.47878694534302</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">4.5170316696167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48728656768799</t>
+    <t xml:space="preserve">4.48728609085083</t>
   </si>
   <si>
     <t xml:space="preserve">4.48303699493408</t>
@@ -941,34 +941,34 @@
     <t xml:space="preserve">4.47028875350952</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55527544021606</t>
+    <t xml:space="preserve">4.55527496337891</t>
   </si>
   <si>
     <t xml:space="preserve">4.57227325439453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65725946426392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49578428268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43629455566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78473949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67425632476807</t>
+    <t xml:space="preserve">4.65725898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49578475952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43629360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78473901748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67425584793091</t>
   </si>
   <si>
     <t xml:space="preserve">4.95046186447144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09918928146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1586799621582</t>
+    <t xml:space="preserve">5.09918880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15867900848389</t>
   </si>
   <si>
     <t xml:space="preserve">5.20967102050781</t>
@@ -977,25 +977,25 @@
     <t xml:space="preserve">5.35414838790894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3923921585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35839748382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52412080764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40938949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40514039993286</t>
+    <t xml:space="preserve">5.39239168167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35839700698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52412128448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40938901901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4051399230957</t>
   </si>
   <si>
     <t xml:space="preserve">5.45188283920288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41363859176636</t>
+    <t xml:space="preserve">5.41363906860352</t>
   </si>
   <si>
     <t xml:space="preserve">5.33290195465088</t>
@@ -1004,22 +1004,22 @@
     <t xml:space="preserve">5.39664125442505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40089082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2649130821228</t>
+    <t xml:space="preserve">5.4008903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26491260528564</t>
   </si>
   <si>
     <t xml:space="preserve">5.11618614196777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15442943572998</t>
+    <t xml:space="preserve">5.15442991256714</t>
   </si>
   <si>
     <t xml:space="preserve">5.22666835784912</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30740594863892</t>
+    <t xml:space="preserve">5.3074049949646</t>
   </si>
   <si>
     <t xml:space="preserve">5.17567682266235</t>
@@ -1028,19 +1028,19 @@
     <t xml:space="preserve">5.13318347930908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05669498443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09068918228149</t>
+    <t xml:space="preserve">5.05669546127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09068965911865</t>
   </si>
   <si>
     <t xml:space="preserve">5.0609450340271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00570344924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03969860076904</t>
+    <t xml:space="preserve">5.00570392608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03969812393188</t>
   </si>
   <si>
     <t xml:space="preserve">4.98870611190796</t>
@@ -1049,19 +1049,19 @@
     <t xml:space="preserve">5.00145435333252</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05244636535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04394721984863</t>
+    <t xml:space="preserve">5.0524468421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04394769668579</t>
   </si>
   <si>
     <t xml:space="preserve">5.01420259475708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12468528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15018129348755</t>
+    <t xml:space="preserve">5.12468433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15017986297607</t>
   </si>
   <si>
     <t xml:space="preserve">5.21816968917847</t>
@@ -1070,22 +1070,22 @@
     <t xml:space="preserve">5.27766036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33715105056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28190898895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23516702651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43913507461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37114572525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32865190505981</t>
+    <t xml:space="preserve">5.33715152740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28190994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23516654968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43913412094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3711462020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32865285873413</t>
   </si>
   <si>
     <t xml:space="preserve">5.69409370422363</t>
@@ -1094,43 +1094,43 @@
     <t xml:space="preserve">5.80032777786255</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1232762336731</t>
+    <t xml:space="preserve">6.12327575683594</t>
   </si>
   <si>
     <t xml:space="preserve">5.92355728149414</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19551420211792</t>
+    <t xml:space="preserve">6.19551467895508</t>
   </si>
   <si>
     <t xml:space="preserve">6.1360239982605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28899955749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00854444503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05953550338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08503150939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15302133560181</t>
+    <t xml:space="preserve">6.28900003433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00854396820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05953645706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08503198623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15302038192749</t>
   </si>
   <si>
     <t xml:space="preserve">6.11477708816528</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08928108215332</t>
+    <t xml:space="preserve">6.08928155899048</t>
   </si>
   <si>
     <t xml:space="preserve">6.03403997421265</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97879838943481</t>
+    <t xml:space="preserve">5.97879886627197</t>
   </si>
   <si>
     <t xml:space="preserve">6.04678821563721</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">6.1572699546814</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21251153945923</t>
+    <t xml:space="preserve">6.21251106262207</t>
   </si>
   <si>
     <t xml:space="preserve">6.14877128601074</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">6.11902618408203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17001867294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19976377487183</t>
+    <t xml:space="preserve">6.17001914978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19976425170898</t>
   </si>
   <si>
     <t xml:space="preserve">6.41647911071777</t>
@@ -1178,22 +1178,22 @@
     <t xml:space="preserve">6.29749822616577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32299423217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20401239395142</t>
+    <t xml:space="preserve">6.32299470901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20401334762573</t>
   </si>
   <si>
     <t xml:space="preserve">6.36973667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33574247360229</t>
+    <t xml:space="preserve">6.33574199676514</t>
   </si>
   <si>
     <t xml:space="preserve">6.14452266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22101068496704</t>
+    <t xml:space="preserve">6.22101020812988</t>
   </si>
   <si>
     <t xml:space="preserve">6.30599689483643</t>
@@ -1205,16 +1205,16 @@
     <t xml:space="preserve">6.34424066543579</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2677526473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07653284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06378555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13177442550659</t>
+    <t xml:space="preserve">6.26775217056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07653379440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06378507614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13177490234375</t>
   </si>
   <si>
     <t xml:space="preserve">6.14027309417725</t>
@@ -1223,13 +1223,13 @@
     <t xml:space="preserve">6.23800802230835</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18276691436768</t>
+    <t xml:space="preserve">6.18276596069336</t>
   </si>
   <si>
     <t xml:space="preserve">6.16152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27200222015381</t>
+    <t xml:space="preserve">6.27200174331665</t>
   </si>
   <si>
     <t xml:space="preserve">6.21676063537598</t>
@@ -1238,16 +1238,16 @@
     <t xml:space="preserve">6.48446846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3484902381897</t>
+    <t xml:space="preserve">6.34848976135254</t>
   </si>
   <si>
     <t xml:space="preserve">6.40798044204712</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71393251419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74792671203613</t>
+    <t xml:space="preserve">6.71393203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74792623519897</t>
   </si>
   <si>
     <t xml:space="preserve">6.7054328918457</t>
@@ -1259,31 +1259,31 @@
     <t xml:space="preserve">6.62894630432129</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79041910171509</t>
+    <t xml:space="preserve">6.79041957855225</t>
   </si>
   <si>
     <t xml:space="preserve">6.87540626525879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72243070602417</t>
+    <t xml:space="preserve">6.72243022918701</t>
   </si>
   <si>
     <t xml:space="preserve">6.75642490386963</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76492404937744</t>
+    <t xml:space="preserve">6.76492309570312</t>
   </si>
   <si>
     <t xml:space="preserve">6.84141159057617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65444087982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64594316482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7989182472229</t>
+    <t xml:space="preserve">6.65444135665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64594221115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79891872406006</t>
   </si>
   <si>
     <t xml:space="preserve">6.6799373626709</t>
@@ -1295,64 +1295,64 @@
     <t xml:space="preserve">6.42497730255127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35698890686035</t>
+    <t xml:space="preserve">6.35698938369751</t>
   </si>
   <si>
     <t xml:space="preserve">6.02554130554199</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05103731155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66294050216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39098310470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49296712875366</t>
+    <t xml:space="preserve">6.05103778839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66294002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39098358154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49296617507935</t>
   </si>
   <si>
     <t xml:space="preserve">6.45897197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26350402832031</t>
+    <t xml:space="preserve">6.263503074646</t>
   </si>
   <si>
     <t xml:space="preserve">6.28050088882446</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18701505661011</t>
+    <t xml:space="preserve">6.18701553344727</t>
   </si>
   <si>
     <t xml:space="preserve">6.06803464889526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2550048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17851734161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00004577636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96605110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93205642700195</t>
+    <t xml:space="preserve">6.25500535964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17851686477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00004529953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96605062484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93205595016479</t>
   </si>
   <si>
     <t xml:space="preserve">5.8385705947876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87256574630737</t>
+    <t xml:space="preserve">5.87256526947021</t>
   </si>
   <si>
     <t xml:space="preserve">5.88106489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79607772827148</t>
+    <t xml:space="preserve">5.79607820510864</t>
   </si>
   <si>
     <t xml:space="preserve">5.94055509567261</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">5.88956308364868</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89806222915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90656042098999</t>
+    <t xml:space="preserve">5.89806127548218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90655994415283</t>
   </si>
   <si>
     <t xml:space="preserve">5.74508619308472</t>
@@ -1376,19 +1376,19 @@
     <t xml:space="preserve">5.76233816146851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7968430519104</t>
+    <t xml:space="preserve">5.79684352874756</t>
   </si>
   <si>
     <t xml:space="preserve">5.77959060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81409597396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58981418609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56393432617188</t>
+    <t xml:space="preserve">5.81409549713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58981370925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56393480300903</t>
   </si>
   <si>
     <t xml:space="preserve">5.65882349014282</t>
@@ -1403,19 +1403,19 @@
     <t xml:space="preserve">5.69332885742188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77096462249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82272243499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89173173904419</t>
+    <t xml:space="preserve">5.77096557617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8227219581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89173221588135</t>
   </si>
   <si>
     <t xml:space="preserve">6.02975273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02112627029419</t>
+    <t xml:space="preserve">6.02112579345703</t>
   </si>
   <si>
     <t xml:space="preserve">6.01249980926514</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">5.83134889602661</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92623662948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67607545852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61569309234619</t>
+    <t xml:space="preserve">5.92623710632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67607641220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61569261550903</t>
   </si>
   <si>
     <t xml:space="preserve">5.80546998977661</t>
@@ -1445,13 +1445,13 @@
     <t xml:space="preserve">5.83997488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84860181808472</t>
+    <t xml:space="preserve">5.84860134124756</t>
   </si>
   <si>
     <t xml:space="preserve">5.71920728683472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62431907653809</t>
+    <t xml:space="preserve">5.62431859970093</t>
   </si>
   <si>
     <t xml:space="preserve">5.78821706771851</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">6.13326787948608</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11601495742798</t>
+    <t xml:space="preserve">6.11601543426514</t>
   </si>
   <si>
     <t xml:space="preserve">5.93486356735229</t>
@@ -1469,25 +1469,25 @@
     <t xml:space="preserve">5.8744797706604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91761112213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90898466110229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00387382507324</t>
+    <t xml:space="preserve">5.91761159896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90898513793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0038743019104</t>
   </si>
   <si>
     <t xml:space="preserve">5.99524736404419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04700517654419</t>
+    <t xml:space="preserve">6.04700469970703</t>
   </si>
   <si>
     <t xml:space="preserve">5.96936893463135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88310575485229</t>
+    <t xml:space="preserve">5.88310623168945</t>
   </si>
   <si>
     <t xml:space="preserve">5.94349002838135</t>
@@ -1496,58 +1496,58 @@
     <t xml:space="preserve">5.95211601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53805589675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49492454528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4431676864624</t>
+    <t xml:space="preserve">5.53805685043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49492502212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44316720962524</t>
   </si>
   <si>
     <t xml:space="preserve">5.3655309677124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40866231918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54668188095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57256174087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55530881881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46042013168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47767210006714</t>
+    <t xml:space="preserve">5.40866279602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54668140411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57256126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55530834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46041965484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4776725769043</t>
   </si>
   <si>
     <t xml:space="preserve">5.33102607727051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24476385116577</t>
+    <t xml:space="preserve">5.24476337432861</t>
   </si>
   <si>
     <t xml:space="preserve">5.21888494491577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34827852249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23613786697388</t>
+    <t xml:space="preserve">5.3482780456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23613691329956</t>
   </si>
   <si>
     <t xml:space="preserve">5.37415742874146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35690498352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3137731552124</t>
+    <t xml:space="preserve">5.35690450668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31377267837524</t>
   </si>
   <si>
     <t xml:space="preserve">5.33965253829956</t>
@@ -1556,13 +1556,13 @@
     <t xml:space="preserve">5.3914098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4259147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40003681182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59844017028809</t>
+    <t xml:space="preserve">5.42591428756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59843969345093</t>
   </si>
   <si>
     <t xml:space="preserve">5.43454122543335</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">5.27064228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19300603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27926778793335</t>
+    <t xml:space="preserve">5.19300556182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27926826477051</t>
   </si>
   <si>
     <t xml:space="preserve">5.21025848388672</t>
@@ -1592,37 +1592,37 @@
     <t xml:space="preserve">4.65817785263062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46840047836304</t>
+    <t xml:space="preserve">4.46840000152588</t>
   </si>
   <si>
     <t xml:space="preserve">4.63229942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61504697799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70993518829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55466318130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3562593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22686576843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30450057983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17510747909546</t>
+    <t xml:space="preserve">4.61504602432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70993614196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55466270446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35625886917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2268648147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30450105667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17510843276978</t>
   </si>
   <si>
     <t xml:space="preserve">4.2872486114502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2398042678833</t>
+    <t xml:space="preserve">4.23980474472046</t>
   </si>
   <si>
     <t xml:space="preserve">4.48565244674683</t>
@@ -1634,13 +1634,13 @@
     <t xml:space="preserve">4.68405628204346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70130920410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72718858718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50290536880493</t>
+    <t xml:space="preserve">4.7013087272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72718811035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50290489196777</t>
   </si>
   <si>
     <t xml:space="preserve">4.58054161071777</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">4.51153182983398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52015733718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38213777542114</t>
+    <t xml:space="preserve">4.52015781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38213682174683</t>
   </si>
   <si>
     <t xml:space="preserve">4.42526865005493</t>
@@ -1661,28 +1661,28 @@
     <t xml:space="preserve">4.2786226272583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12766313552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16648101806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18804693222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23549127578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32175397872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30018901824951</t>
+    <t xml:space="preserve">4.12766265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16648149490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1880464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2354907989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32175350189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3001880645752</t>
   </si>
   <si>
     <t xml:space="preserve">4.24411773681641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18373394012451</t>
+    <t xml:space="preserve">4.18373346328735</t>
   </si>
   <si>
     <t xml:space="preserve">4.11903667449951</t>
@@ -1694,31 +1694,31 @@
     <t xml:space="preserve">4.3390064239502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2225513458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13197612762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23117828369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17079448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11472368240356</t>
+    <t xml:space="preserve">4.22255182266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13197660446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23117876052856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17079496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11472415924072</t>
   </si>
   <si>
     <t xml:space="preserve">4.02414798736572</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4425220489502</t>
+    <t xml:space="preserve">4.44252157211304</t>
   </si>
   <si>
     <t xml:space="preserve">4.39939022064209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57191610336304</t>
+    <t xml:space="preserve">4.57191562652588</t>
   </si>
   <si>
     <t xml:space="preserve">4.74444055557251</t>
@@ -1733,25 +1733,25 @@
     <t xml:space="preserve">4.91696548461914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96009731292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00322866439819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98597621917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05498600006104</t>
+    <t xml:space="preserve">4.96009683609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00322771072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98597574234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05498552322388</t>
   </si>
   <si>
     <t xml:space="preserve">5.10674333572388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11536979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13262176513672</t>
+    <t xml:space="preserve">5.11536884307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13262224197388</t>
   </si>
   <si>
     <t xml:space="preserve">5.15850067138672</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">5.08949089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07223844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30514717102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22751140594482</t>
+    <t xml:space="preserve">5.07223892211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30514764785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22751045227051</t>
   </si>
   <si>
     <t xml:space="preserve">5.26201581954956</t>
@@ -1775,19 +1775,19 @@
     <t xml:space="preserve">5.32239961624146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4517936706543</t>
+    <t xml:space="preserve">5.45179414749146</t>
   </si>
   <si>
     <t xml:space="preserve">5.38278293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51217699050903</t>
+    <t xml:space="preserve">5.51217746734619</t>
   </si>
   <si>
     <t xml:space="preserve">5.50355100631714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58118772506714</t>
+    <t xml:space="preserve">5.58118677139282</t>
   </si>
   <si>
     <t xml:space="preserve">5.60706615447998</t>
@@ -1796,10 +1796,10 @@
     <t xml:space="preserve">5.52942991256714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52080392837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08086442947388</t>
+    <t xml:space="preserve">5.52080345153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08086347579956</t>
   </si>
   <si>
     <t xml:space="preserve">5.21648073196411</t>
@@ -1814,21 +1814,18 @@
     <t xml:space="preserve">5.11056280136108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1635217666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19000148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19882774353027</t>
+    <t xml:space="preserve">5.16352128982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19000196456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19882726669312</t>
   </si>
   <si>
     <t xml:space="preserve">5.24296045303345</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32240009307861</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.30474662780762</t>
   </si>
   <si>
@@ -1838,7 +1835,7 @@
     <t xml:space="preserve">5.33122634887695</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36653232574463</t>
+    <t xml:space="preserve">5.36653184890747</t>
   </si>
   <si>
     <t xml:space="preserve">5.34005260467529</t>
@@ -1850,10 +1847,10 @@
     <t xml:space="preserve">5.44597101211548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56954193115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65780735015869</t>
+    <t xml:space="preserve">5.5695424079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65780782699585</t>
   </si>
   <si>
     <t xml:space="preserve">5.53423643112183</t>
@@ -1868,13 +1865,13 @@
     <t xml:space="preserve">5.68428754806519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63132858276367</t>
+    <t xml:space="preserve">5.63132810592651</t>
   </si>
   <si>
     <t xml:space="preserve">5.5871958732605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7548999786377</t>
+    <t xml:space="preserve">5.75489950180054</t>
   </si>
   <si>
     <t xml:space="preserve">5.87847089767456</t>
@@ -1895,7 +1892,7 @@
     <t xml:space="preserve">5.78137969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71076726913452</t>
+    <t xml:space="preserve">5.71076679229736</t>
   </si>
   <si>
     <t xml:space="preserve">5.60484838485718</t>
@@ -1907,7 +1904,7 @@
     <t xml:space="preserve">5.67546033859253</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85199165344238</t>
+    <t xml:space="preserve">5.85199213027954</t>
   </si>
   <si>
     <t xml:space="preserve">5.62250185012817</t>
@@ -1916,16 +1913,16 @@
     <t xml:space="preserve">5.34887886047363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28709316253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39301156997681</t>
+    <t xml:space="preserve">5.28709268569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39301204681396</t>
   </si>
   <si>
     <t xml:space="preserve">5.29591989517212</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22530794143677</t>
+    <t xml:space="preserve">5.22530746459961</t>
   </si>
   <si>
     <t xml:space="preserve">5.37535905838013</t>
@@ -1937,25 +1934,25 @@
     <t xml:space="preserve">5.25178718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26944017410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26061391830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4018383026123</t>
+    <t xml:space="preserve">5.26944065093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26061344146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40183782577515</t>
   </si>
   <si>
     <t xml:space="preserve">5.64898157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55188941955566</t>
+    <t xml:space="preserve">5.55188894271851</t>
   </si>
   <si>
     <t xml:space="preserve">5.59602212905884</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50775623321533</t>
+    <t xml:space="preserve">5.50775671005249</t>
   </si>
   <si>
     <t xml:space="preserve">5.47245025634766</t>
@@ -1964,16 +1961,16 @@
     <t xml:space="preserve">5.42831802368164</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49010372161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12821531295776</t>
+    <t xml:space="preserve">5.49010324478149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12821578979492</t>
   </si>
   <si>
     <t xml:space="preserve">5.14586925506592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26502656936646</t>
+    <t xml:space="preserve">5.26502752304077</t>
   </si>
   <si>
     <t xml:space="preserve">5.13969039916992</t>
@@ -1988,109 +1985,109 @@
     <t xml:space="preserve">5.31269025802612</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38418483734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45214986801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43273067474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38506841659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41154718399048</t>
+    <t xml:space="preserve">5.38418531417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45214939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43273162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38506746292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41154766082764</t>
   </si>
   <si>
     <t xml:space="preserve">5.37271070480347</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45391511917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32328271865845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44950151443481</t>
+    <t xml:space="preserve">5.45391464233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32328224182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44950103759766</t>
   </si>
   <si>
     <t xml:space="preserve">5.59425687789917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54747581481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42390441894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62779808044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7284197807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62603235244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57130718231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53070497512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57660341262817</t>
+    <t xml:space="preserve">5.54747629165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42390537261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62779760360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72842025756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62603187561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57130765914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53070592880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57660388946533</t>
   </si>
   <si>
     <t xml:space="preserve">5.5527720451355</t>
   </si>
   <si>
-    <t xml:space="preserve">5.578369140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89612436294556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14326667785645</t>
+    <t xml:space="preserve">5.57836961746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8961238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1432671546936</t>
   </si>
   <si>
     <t xml:space="preserve">6.16092014312744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16974687576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06294631958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88464975357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89788913726807</t>
+    <t xml:space="preserve">6.16974639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06294584274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8846492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89789009094238</t>
   </si>
   <si>
     <t xml:space="preserve">5.86876153945923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85552167892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85375690460205</t>
+    <t xml:space="preserve">5.85552215576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85375642776489</t>
   </si>
   <si>
     <t xml:space="preserve">5.92613458633423</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02322673797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05147123336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05941534042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02852201461792</t>
+    <t xml:space="preserve">6.02322626113892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05147075653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05941486358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02852153778076</t>
   </si>
   <si>
     <t xml:space="preserve">6.04441022872925</t>
@@ -2102,58 +2099,58 @@
     <t xml:space="preserve">5.9729151725769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79373645782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84669589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93496084213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02410888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81933307647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68605279922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87052726745605</t>
+    <t xml:space="preserve">5.79373693466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84669542312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93496131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02410936355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81933355331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6860523223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87052774429321</t>
   </si>
   <si>
     <t xml:space="preserve">5.93143033981323</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87494039535522</t>
+    <t xml:space="preserve">5.87494087219238</t>
   </si>
   <si>
     <t xml:space="preserve">5.84934329986572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83433818817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81138944625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80609321594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74077701568604</t>
+    <t xml:space="preserve">5.83433866500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81138896942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80609369277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74077749252319</t>
   </si>
   <si>
     <t xml:space="preserve">5.87405776977539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77078771591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68340539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73724603652954</t>
+    <t xml:space="preserve">5.77078723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68340492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7372465133667</t>
   </si>
   <si>
     <t xml:space="preserve">5.78579235076904</t>
@@ -2162,7 +2159,7 @@
     <t xml:space="preserve">5.69311380386353</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69576168060303</t>
+    <t xml:space="preserve">5.69576215744019</t>
   </si>
   <si>
     <t xml:space="preserve">5.75754737854004</t>
@@ -2171,7 +2168,7 @@
     <t xml:space="preserve">5.83963441848755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72665452957153</t>
+    <t xml:space="preserve">5.72665500640869</t>
   </si>
   <si>
     <t xml:space="preserve">5.71871137619019</t>
@@ -2183,55 +2180,55 @@
     <t xml:space="preserve">5.76813936233521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86964416503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95702743530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12561416625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04617547988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99321556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82815980911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52982234954834</t>
+    <t xml:space="preserve">5.86964464187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95702791213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12561368942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04617500305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99321603775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82816028594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5298228263855</t>
   </si>
   <si>
     <t xml:space="preserve">5.46892023086548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29856777191162</t>
+    <t xml:space="preserve">5.29856824874878</t>
   </si>
   <si>
     <t xml:space="preserve">5.1405725479126</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25708246231079</t>
+    <t xml:space="preserve">5.25708293914795</t>
   </si>
   <si>
     <t xml:space="preserve">5.28356313705444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89166498184204</t>
+    <t xml:space="preserve">4.89166450500488</t>
   </si>
   <si>
     <t xml:space="preserve">4.32809066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38678693771362</t>
+    <t xml:space="preserve">4.38678646087646</t>
   </si>
   <si>
     <t xml:space="preserve">4.39296579360962</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02357482910156</t>
+    <t xml:space="preserve">4.02357530593872</t>
   </si>
   <si>
     <t xml:space="preserve">4.19260358810425</t>
@@ -2240,10 +2237,10 @@
     <t xml:space="preserve">4.06020498275757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84969186782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97193956375122</t>
+    <t xml:space="preserve">3.84969210624695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9719398021698</t>
   </si>
   <si>
     <t xml:space="preserve">4.25880193710327</t>
@@ -2255,22 +2252,22 @@
     <t xml:space="preserve">4.05402660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15111875534058</t>
+    <t xml:space="preserve">4.15111827850342</t>
   </si>
   <si>
     <t xml:space="preserve">4.35898351669312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19966459274292</t>
+    <t xml:space="preserve">4.19966411590576</t>
   </si>
   <si>
     <t xml:space="preserve">4.13743734359741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34177112579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39561319351196</t>
+    <t xml:space="preserve">4.34177160263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39561367034912</t>
   </si>
   <si>
     <t xml:space="preserve">4.45739936828613</t>
@@ -2282,10 +2279,10 @@
     <t xml:space="preserve">4.41326665878296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54566478729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70454263687134</t>
+    <t xml:space="preserve">4.54566431045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70454216003418</t>
   </si>
   <si>
     <t xml:space="preserve">4.57214450836182</t>
@@ -2306,10 +2303,10 @@
     <t xml:space="preserve">4.5897970199585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83694076538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86342000961304</t>
+    <t xml:space="preserve">4.8369402885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8634204864502</t>
   </si>
   <si>
     <t xml:space="preserve">4.88989925384521</t>
@@ -2321,46 +2318,46 @@
     <t xml:space="preserve">5.01347064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93403244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67806339263916</t>
+    <t xml:space="preserve">4.93403196334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.678062915802</t>
   </si>
   <si>
     <t xml:space="preserve">4.64275646209717</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71336936950684</t>
+    <t xml:space="preserve">4.71336889266968</t>
   </si>
   <si>
     <t xml:space="preserve">4.76632785797119</t>
   </si>
   <si>
+    <t xml:space="preserve">4.89872646331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00738573074341</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.89872598648071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00738573074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89872550964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82628679275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98022079467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01643991470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20659446716309</t>
+    <t xml:space="preserve">4.82628583908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98022031784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01644039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20659399032593</t>
   </si>
   <si>
     <t xml:space="preserve">5.32430791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29714345932007</t>
+    <t xml:space="preserve">5.29714298248291</t>
   </si>
   <si>
     <t xml:space="preserve">5.50540733337402</t>
@@ -2369,7 +2366,7 @@
     <t xml:space="preserve">5.55068206787109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40580272674561</t>
+    <t xml:space="preserve">5.40580224990845</t>
   </si>
   <si>
     <t xml:space="preserve">5.63217639923096</t>
@@ -2387,7 +2384,7 @@
     <t xml:space="preserve">5.93099021911621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74989080429077</t>
+    <t xml:space="preserve">5.74989032745361</t>
   </si>
   <si>
     <t xml:space="preserve">5.41485786437988</t>
@@ -2396,49 +2393,49 @@
     <t xml:space="preserve">5.37863826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34241819381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66839694976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84949493408203</t>
+    <t xml:space="preserve">5.3424186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66839647293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84949541091919</t>
   </si>
   <si>
     <t xml:space="preserve">5.7227258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76800060272217</t>
+    <t xml:space="preserve">5.76800107955933</t>
   </si>
   <si>
     <t xml:space="preserve">5.79516553878784</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73178100585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75894641876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83138513565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69556093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67745113372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64123201370239</t>
+    <t xml:space="preserve">5.73178052902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75894594192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83138465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69556140899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67745161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64123153686523</t>
   </si>
   <si>
     <t xml:space="preserve">5.56879234313965</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46013307571411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53257274627686</t>
+    <t xml:space="preserve">5.46013259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5325722694397</t>
   </si>
   <si>
     <t xml:space="preserve">5.52351713180542</t>
@@ -2447,13 +2444,13 @@
     <t xml:space="preserve">5.423912525177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4963526725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39674806594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31525373458862</t>
+    <t xml:space="preserve">5.49635171890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39674758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31525325775146</t>
   </si>
   <si>
     <t xml:space="preserve">5.46918773651123</t>
@@ -2465,7 +2462,7 @@
     <t xml:space="preserve">5.36958312988281</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47824239730835</t>
+    <t xml:space="preserve">5.47824287414551</t>
   </si>
   <si>
     <t xml:space="preserve">5.59595680236816</t>
@@ -2474,7 +2471,7 @@
     <t xml:space="preserve">5.70461654663086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6502857208252</t>
+    <t xml:space="preserve">5.65028619766235</t>
   </si>
   <si>
     <t xml:space="preserve">5.6140661239624</t>
@@ -2486,16 +2483,16 @@
     <t xml:space="preserve">5.45107746124268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38769292831421</t>
+    <t xml:space="preserve">5.38769245147705</t>
   </si>
   <si>
     <t xml:space="preserve">5.30619859695435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43296766281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44202280044556</t>
+    <t xml:space="preserve">5.43296813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44202327728271</t>
   </si>
   <si>
     <t xml:space="preserve">5.35147333145142</t>
@@ -2513,25 +2510,25 @@
     <t xml:space="preserve">5.28808832168579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12509965896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99833011627197</t>
+    <t xml:space="preserve">5.12509918212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99833059310913</t>
   </si>
   <si>
     <t xml:space="preserve">4.70857191085815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81723117828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9530553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09793472290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10698938369751</t>
+    <t xml:space="preserve">4.81723213195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95305490493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09793519973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10698986053467</t>
   </si>
   <si>
     <t xml:space="preserve">4.98927545547485</t>
@@ -2540,13 +2537,13 @@
     <t xml:space="preserve">5.08887958526611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02153921127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13019895553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13925361633301</t>
+    <t xml:space="preserve">6.02153968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13019847869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13925409317017</t>
   </si>
   <si>
     <t xml:space="preserve">6.11208915710449</t>
@@ -2558,43 +2555,43 @@
     <t xml:space="preserve">6.22980308532715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48334121704102</t>
+    <t xml:space="preserve">6.48334169387817</t>
   </si>
   <si>
     <t xml:space="preserve">6.31129741668701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36562776565552</t>
+    <t xml:space="preserve">6.36562728881836</t>
   </si>
   <si>
     <t xml:space="preserve">6.41090154647827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44712114334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37468194961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42901182174683</t>
+    <t xml:space="preserve">6.44712209701538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37468242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42901134490967</t>
   </si>
   <si>
     <t xml:space="preserve">6.43806743621826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23885774612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20263767242432</t>
+    <t xml:space="preserve">6.23885822296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20263814926147</t>
   </si>
   <si>
     <t xml:space="preserve">6.18452835083008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17547369003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10303354263306</t>
+    <t xml:space="preserve">6.1754732131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10303401947021</t>
   </si>
   <si>
     <t xml:space="preserve">6.0849232673645</t>
@@ -2609,10 +2606,10 @@
     <t xml:space="preserve">6.03964948654175</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03059434890747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35657215118408</t>
+    <t xml:space="preserve">6.03059387207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35657262802124</t>
   </si>
   <si>
     <t xml:space="preserve">6.59200096130371</t>
@@ -2624,52 +2621,52 @@
     <t xml:space="preserve">6.40184736251831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32940769195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16641855239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50145149230957</t>
+    <t xml:space="preserve">6.32940673828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16641807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50145101547241</t>
   </si>
   <si>
     <t xml:space="preserve">6.24791288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33846187591553</t>
+    <t xml:space="preserve">6.33846235275269</t>
   </si>
   <si>
     <t xml:space="preserve">6.30224275588989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39279222488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61011075973511</t>
+    <t xml:space="preserve">6.39279174804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61011123657227</t>
   </si>
   <si>
     <t xml:space="preserve">6.80026483535767</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15340709686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58804512023926</t>
+    <t xml:space="preserve">7.15340805053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58804559707642</t>
   </si>
   <si>
     <t xml:space="preserve">7.69670391082764</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75103425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725481033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84158325195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67859411239624</t>
+    <t xml:space="preserve">7.75103378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84158372879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67859363555908</t>
   </si>
   <si>
     <t xml:space="preserve">7.46127557754517</t>
@@ -2681,7 +2678,7 @@
     <t xml:space="preserve">7.32545137405396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44316530227661</t>
+    <t xml:space="preserve">7.44316625595093</t>
   </si>
   <si>
     <t xml:space="preserve">7.28017663955688</t>
@@ -2690,7 +2687,7 @@
     <t xml:space="preserve">7.18962717056274</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33450698852539</t>
+    <t xml:space="preserve">7.33450651168823</t>
   </si>
   <si>
     <t xml:space="preserve">7.36167144775391</t>
@@ -2699,37 +2696,37 @@
     <t xml:space="preserve">7.4974946975708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63332080841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74197864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73292398452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80536317825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.660484790802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6061544418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31639623641968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76914358139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83252859115601</t>
+    <t xml:space="preserve">7.63331985473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74197912216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73292350769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80536413192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66048431396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60615491867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31639671325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76914405822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83252763748169</t>
   </si>
   <si>
     <t xml:space="preserve">7.92307806015015</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09512138366699</t>
+    <t xml:space="preserve">8.09512233734131</t>
   </si>
   <si>
     <t xml:space="preserve">8.35771465301514</t>
@@ -2738,16 +2735,16 @@
     <t xml:space="preserve">8.25811100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15850639343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3396053314209</t>
+    <t xml:space="preserve">8.15850734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33960628509521</t>
   </si>
   <si>
     <t xml:space="preserve">8.36676979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14945220947266</t>
+    <t xml:space="preserve">8.14945125579834</t>
   </si>
   <si>
     <t xml:space="preserve">8.24905490875244</t>
@@ -2756,10 +2753,10 @@
     <t xml:space="preserve">8.21283626556396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20378112792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16756057739258</t>
+    <t xml:space="preserve">8.203782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16756153106689</t>
   </si>
   <si>
     <t xml:space="preserve">8.24000072479248</t>
@@ -2768,58 +2765,61 @@
     <t xml:space="preserve">8.30338573455811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23094654083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31243991851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55692481994629</t>
+    <t xml:space="preserve">8.2309455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31244087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55692386627197</t>
   </si>
   <si>
     <t xml:space="preserve">8.40298938751221</t>
   </si>
   <si>
+    <t xml:space="preserve">8.61125469207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54786968231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68369293212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60219860076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81951713562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59314441680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63882446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77667903900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60206317901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58368396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53773212432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73072624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48258972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59287357330322</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.61125373840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5478687286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68369483947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60219860076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81951713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59314346313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63882446289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77667903900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60206317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58368396759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53773212432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73072624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48258972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59287357330322</t>
   </si>
   <si>
     <t xml:space="preserve">8.79505825042725</t>
@@ -27251,7 +27251,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G871" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27277,7 +27277,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G872" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27303,7 +27303,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27329,7 +27329,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27355,7 +27355,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G875" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27381,7 +27381,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G876" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27407,7 +27407,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27433,7 +27433,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G878" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27459,7 +27459,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G879" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27485,7 +27485,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27511,7 +27511,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G881" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27537,7 +27537,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G882" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27563,7 +27563,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G883" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27589,7 +27589,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G884" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27615,7 +27615,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G885" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27641,7 +27641,7 @@
         <v>6.25</v>
       </c>
       <c r="G886" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27667,7 +27667,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G887" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27693,7 +27693,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G888" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27719,7 +27719,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27745,7 +27745,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G890" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27771,7 +27771,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G891" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27797,7 +27797,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G892" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27823,7 +27823,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G893" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27849,7 +27849,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G894" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27875,7 +27875,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G895" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27901,7 +27901,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G896" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27927,7 +27927,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G897" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27953,7 +27953,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G898" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27979,7 +27979,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G899" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28005,7 +28005,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G900" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28031,7 +28031,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G901" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28057,7 +28057,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G902" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28083,7 +28083,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G903" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28109,7 +28109,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G904" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28135,7 +28135,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G905" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28161,7 +28161,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28187,7 +28187,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G907" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28213,7 +28213,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G908" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28239,7 +28239,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G909" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28265,7 +28265,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G910" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28291,7 +28291,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G911" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28317,7 +28317,7 @@
         <v>6.25</v>
       </c>
       <c r="G912" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28343,7 +28343,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G913" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28369,7 +28369,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28395,7 +28395,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G915" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28421,7 +28421,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G916" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28447,7 +28447,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G917" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28499,7 +28499,7 @@
         <v>6</v>
       </c>
       <c r="G919" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28525,7 +28525,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G920" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28551,7 +28551,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28577,7 +28577,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G922" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28603,7 +28603,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G923" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28629,7 +28629,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G924" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28681,7 +28681,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G926" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28733,7 +28733,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G928" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28759,7 +28759,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G929" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28785,7 +28785,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28811,7 +28811,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G931" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28863,7 +28863,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G933" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28915,7 +28915,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28941,7 +28941,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G936" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28967,7 +28967,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G937" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28993,7 +28993,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G938" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29019,7 +29019,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29045,7 +29045,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G940" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29071,7 +29071,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29097,7 +29097,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29123,7 +29123,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G943" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29149,7 +29149,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G944" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29175,7 +29175,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G945" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29201,7 +29201,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G946" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29227,7 +29227,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G947" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29253,7 +29253,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G948" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29279,7 +29279,7 @@
         <v>6</v>
       </c>
       <c r="G949" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29305,7 +29305,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29331,7 +29331,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G951" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29357,7 +29357,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G952" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29383,7 +29383,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G953" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29409,7 +29409,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G954" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29461,7 +29461,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G956" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29487,7 +29487,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29513,7 +29513,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G958" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29539,7 +29539,7 @@
         <v>5.82299995422363</v>
       </c>
       <c r="G959" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29565,7 +29565,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G960" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29591,7 +29591,7 @@
         <v>5.9539999961853</v>
       </c>
       <c r="G961" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29617,7 +29617,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G962" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29643,7 +29643,7 @@
         <v>6.01900005340576</v>
       </c>
       <c r="G963" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29669,7 +29669,7 @@
         <v>6</v>
       </c>
       <c r="G964" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29695,7 +29695,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G965" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29721,7 +29721,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G966" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29747,7 +29747,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G967" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29773,7 +29773,7 @@
         <v>6.17700004577637</v>
       </c>
       <c r="G968" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29799,7 +29799,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G969" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29825,7 +29825,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G970" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29851,7 +29851,7 @@
         <v>6.13100004196167</v>
       </c>
       <c r="G971" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29877,7 +29877,7 @@
         <v>6.08699989318848</v>
       </c>
       <c r="G972" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29903,7 +29903,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G973" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29929,7 +29929,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G974" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29955,7 +29955,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G975" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29981,7 +29981,7 @@
         <v>6.0310001373291</v>
       </c>
       <c r="G976" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30007,7 +30007,7 @@
         <v>6.17399978637695</v>
       </c>
       <c r="G977" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30033,7 +30033,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G978" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30059,7 +30059,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G979" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30085,7 +30085,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G980" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30111,7 +30111,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G981" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30137,7 +30137,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G982" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30163,7 +30163,7 @@
         <v>6.37599992752075</v>
       </c>
       <c r="G983" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30189,7 +30189,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G984" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30215,7 +30215,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G985" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30241,7 +30241,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G986" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30267,7 +30267,7 @@
         <v>6.37400007247925</v>
       </c>
       <c r="G987" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30293,7 +30293,7 @@
         <v>6.31199979782104</v>
       </c>
       <c r="G988" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30319,7 +30319,7 @@
         <v>6.26599979400635</v>
       </c>
       <c r="G989" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30345,7 +30345,7 @@
         <v>6.31799983978271</v>
       </c>
       <c r="G990" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30371,7 +30371,7 @@
         <v>6.29099988937378</v>
       </c>
       <c r="G991" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30397,7 +30397,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G992" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30423,7 +30423,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G993" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30449,7 +30449,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G994" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30475,7 +30475,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G995" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30501,7 +30501,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G996" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30527,7 +30527,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G997" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30553,7 +30553,7 @@
         <v>6.86899995803833</v>
       </c>
       <c r="G998" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30579,7 +30579,7 @@
         <v>6.66699981689453</v>
       </c>
       <c r="G999" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30605,7 +30605,7 @@
         <v>6.68200016021729</v>
       </c>
       <c r="G1000" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30631,7 +30631,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G1001" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30657,7 +30657,7 @@
         <v>6.63399982452393</v>
       </c>
       <c r="G1002" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30683,7 +30683,7 @@
         <v>6.63199996948242</v>
       </c>
       <c r="G1003" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30709,7 +30709,7 @@
         <v>6.71400022506714</v>
       </c>
       <c r="G1004" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30735,7 +30735,7 @@
         <v>6.82399988174438</v>
       </c>
       <c r="G1005" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30761,7 +30761,7 @@
         <v>6.85599994659424</v>
       </c>
       <c r="G1006" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30787,7 +30787,7 @@
         <v>6.86499977111816</v>
       </c>
       <c r="G1007" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30813,7 +30813,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1008" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30839,7 +30839,7 @@
         <v>6.84800004959106</v>
       </c>
       <c r="G1009" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30865,7 +30865,7 @@
         <v>6.76399993896484</v>
       </c>
       <c r="G1010" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30891,7 +30891,7 @@
         <v>6.76700019836426</v>
       </c>
       <c r="G1011" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30917,7 +30917,7 @@
         <v>6.56400012969971</v>
       </c>
       <c r="G1012" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30943,7 +30943,7 @@
         <v>6.62400007247925</v>
       </c>
       <c r="G1013" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30969,7 +30969,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1014" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -30995,7 +30995,7 @@
         <v>6.72399997711182</v>
       </c>
       <c r="G1015" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31021,7 +31021,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G1016" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31047,7 +31047,7 @@
         <v>6.59299993515015</v>
       </c>
       <c r="G1017" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31073,7 +31073,7 @@
         <v>6.44199991226196</v>
       </c>
       <c r="G1018" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31099,7 +31099,7 @@
         <v>6.65100002288818</v>
       </c>
       <c r="G1019" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31125,7 +31125,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1020" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31151,7 +31151,7 @@
         <v>6.6560001373291</v>
       </c>
       <c r="G1021" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31177,7 +31177,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G1022" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31203,7 +31203,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1023" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31229,7 +31229,7 @@
         <v>6.58400011062622</v>
       </c>
       <c r="G1024" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31255,7 +31255,7 @@
         <v>6.57800006866455</v>
       </c>
       <c r="G1025" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31281,7 +31281,7 @@
         <v>6.50400018692017</v>
       </c>
       <c r="G1026" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31307,7 +31307,7 @@
         <v>6.65500020980835</v>
       </c>
       <c r="G1027" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31333,7 +31333,7 @@
         <v>6.53800010681152</v>
       </c>
       <c r="G1028" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31359,7 +31359,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1029" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31385,7 +31385,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G1030" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31411,7 +31411,7 @@
         <v>6.5</v>
       </c>
       <c r="G1031" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31437,7 +31437,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1032" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31463,7 +31463,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G1033" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31489,7 +31489,7 @@
         <v>6.5</v>
       </c>
       <c r="G1034" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31515,7 +31515,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1035" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31541,7 +31541,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1036" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31567,7 +31567,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1037" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31593,7 +31593,7 @@
         <v>6.45300006866455</v>
       </c>
       <c r="G1038" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31619,7 +31619,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G1039" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31645,7 +31645,7 @@
         <v>6.61600017547607</v>
       </c>
       <c r="G1040" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31671,7 +31671,7 @@
         <v>6.48799991607666</v>
       </c>
       <c r="G1041" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31697,7 +31697,7 @@
         <v>6.47900009155273</v>
       </c>
       <c r="G1042" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31723,7 +31723,7 @@
         <v>6.53200006484985</v>
       </c>
       <c r="G1043" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31749,7 +31749,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G1044" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31775,7 +31775,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1045" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31801,7 +31801,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1046" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31827,7 +31827,7 @@
         <v>6.74900007247925</v>
       </c>
       <c r="G1047" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31853,7 +31853,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1048" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31879,7 +31879,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1049" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31905,7 +31905,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31931,7 +31931,7 @@
         <v>6.60300016403198</v>
       </c>
       <c r="G1051" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31957,7 +31957,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1052" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31983,7 +31983,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G1053" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32009,7 +32009,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G1054" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32035,7 +32035,7 @@
         <v>6.19600009918213</v>
       </c>
       <c r="G1055" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32061,7 +32061,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G1056" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32087,7 +32087,7 @@
         <v>5.82399988174438</v>
       </c>
       <c r="G1057" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32139,7 +32139,7 @@
         <v>5.95599985122681</v>
       </c>
       <c r="G1059" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32165,7 +32165,7 @@
         <v>5.98600006103516</v>
       </c>
       <c r="G1060" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32191,7 +32191,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1061" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32217,7 +32217,7 @@
         <v>5.54199981689453</v>
       </c>
       <c r="G1062" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32243,7 +32243,7 @@
         <v>4.90350008010864</v>
       </c>
       <c r="G1063" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32269,7 +32269,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G1064" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32295,7 +32295,7 @@
         <v>4.97700023651123</v>
       </c>
       <c r="G1065" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32321,7 +32321,7 @@
         <v>4.55849981307983</v>
       </c>
       <c r="G1066" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32347,7 +32347,7 @@
         <v>4.75</v>
       </c>
       <c r="G1067" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32373,7 +32373,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1068" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32399,7 +32399,7 @@
         <v>4.75</v>
       </c>
       <c r="G1069" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32425,7 +32425,7 @@
         <v>4.36149978637695</v>
       </c>
       <c r="G1070" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32451,7 +32451,7 @@
         <v>4.5</v>
       </c>
       <c r="G1071" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32477,7 +32477,7 @@
         <v>4.82499980926514</v>
       </c>
       <c r="G1072" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32503,7 +32503,7 @@
         <v>4.41849994659424</v>
       </c>
       <c r="G1073" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32529,7 +32529,7 @@
         <v>4.59299993515015</v>
       </c>
       <c r="G1074" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32555,7 +32555,7 @@
         <v>4.70300006866455</v>
       </c>
       <c r="G1075" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32581,7 +32581,7 @@
         <v>4.93849992752075</v>
       </c>
       <c r="G1076" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32607,7 +32607,7 @@
         <v>4.75799989700317</v>
       </c>
       <c r="G1077" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32633,7 +32633,7 @@
         <v>4.6875</v>
       </c>
       <c r="G1078" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32659,7 +32659,7 @@
         <v>4.91900014877319</v>
       </c>
       <c r="G1079" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32685,7 +32685,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G1080" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32711,7 +32711,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1081" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32737,7 +32737,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G1082" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32763,7 +32763,7 @@
         <v>5</v>
       </c>
       <c r="G1083" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32789,7 +32789,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1084" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32815,7 +32815,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32841,7 +32841,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1086" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32867,7 +32867,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1087" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32893,7 +32893,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1088" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32919,7 +32919,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1089" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32945,7 +32945,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1090" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32971,7 +32971,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -32997,7 +32997,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1092" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33023,7 +33023,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1093" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33049,7 +33049,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33075,7 +33075,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1095" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33101,7 +33101,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33127,7 +33127,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33153,7 +33153,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G1098" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33179,7 +33179,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1099" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33205,7 +33205,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33231,7 +33231,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1101" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33257,7 +33257,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1102" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33283,7 +33283,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1103" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33309,7 +33309,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1104" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33335,7 +33335,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1105" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33361,7 +33361,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1106" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33387,7 +33387,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1107" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33413,7 +33413,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1108" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33439,7 +33439,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1109" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33465,7 +33465,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1110" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33491,7 +33491,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1111" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33517,7 +33517,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1112" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33543,7 +33543,7 @@
         <v>5.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33569,7 +33569,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1114" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33595,7 +33595,7 @@
         <v>5.75</v>
       </c>
       <c r="G1115" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33621,7 +33621,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1116" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33647,7 +33647,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1117" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33673,7 +33673,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33699,7 +33699,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1119" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33725,7 +33725,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1120" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33751,7 +33751,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1121" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33777,7 +33777,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1122" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33803,7 +33803,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1123" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33829,7 +33829,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1124" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33855,7 +33855,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G1125" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33881,7 +33881,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1126" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33907,7 +33907,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1127" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33933,7 +33933,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1128" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33959,7 +33959,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1129" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -33985,7 +33985,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1130" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34011,7 +34011,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1131" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34037,7 +34037,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1132" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34063,7 +34063,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34089,7 +34089,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G1134" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34115,7 +34115,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1135" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34141,7 +34141,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1136" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34167,7 +34167,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1137" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34193,7 +34193,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1138" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34219,7 +34219,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1139" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34245,7 +34245,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1140" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34271,7 +34271,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1141" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34297,7 +34297,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G1142" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34323,7 +34323,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1143" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34349,7 +34349,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34375,7 +34375,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1145" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34401,7 +34401,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1146" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34427,7 +34427,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1147" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34453,7 +34453,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1148" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34479,7 +34479,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1149" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34505,7 +34505,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1150" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34531,7 +34531,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1151" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34557,7 +34557,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1152" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34583,7 +34583,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34609,7 +34609,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1154" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34635,7 +34635,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34661,7 +34661,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1156" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34687,7 +34687,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1157" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34713,7 +34713,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1158" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34739,7 +34739,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1159" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34765,7 +34765,7 @@
         <v>5.75</v>
       </c>
       <c r="G1160" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34791,7 +34791,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1161" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34817,7 +34817,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34843,7 +34843,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34869,7 +34869,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1164" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34895,7 +34895,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1165" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34921,7 +34921,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1166" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34947,7 +34947,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1167" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34973,7 +34973,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1168" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -34999,7 +34999,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1169" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35025,7 +35025,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1170" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35051,7 +35051,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1171" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35077,7 +35077,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35103,7 +35103,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1173" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35129,7 +35129,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1174" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35155,7 +35155,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1175" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35181,7 +35181,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1176" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35207,7 +35207,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1177" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35233,7 +35233,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35259,7 +35259,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1179" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35285,7 +35285,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1180" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35311,7 +35311,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1181" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35337,7 +35337,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1182" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35363,7 +35363,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G1183" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35389,7 +35389,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1184" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35415,7 +35415,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1185" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35441,7 +35441,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1186" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35467,7 +35467,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1187" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35493,7 +35493,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1188" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35519,7 +35519,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35545,7 +35545,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1190" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35571,7 +35571,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1191" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35597,7 +35597,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1192" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35623,7 +35623,7 @@
         <v>6</v>
       </c>
       <c r="G1193" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35649,7 +35649,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1194" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35675,7 +35675,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35701,7 +35701,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35727,7 +35727,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1197" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35753,7 +35753,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1198" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35779,7 +35779,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1199" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35805,7 +35805,7 @@
         <v>6</v>
       </c>
       <c r="G1200" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35831,7 +35831,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35857,7 +35857,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1202" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35883,7 +35883,7 @@
         <v>6</v>
       </c>
       <c r="G1203" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35909,7 +35909,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1204" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35935,7 +35935,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1205" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35961,7 +35961,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1206" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -35987,7 +35987,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1207" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -36013,7 +36013,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1208" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -36039,7 +36039,7 @@
         <v>5.75</v>
       </c>
       <c r="G1209" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -36065,7 +36065,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1210" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -36091,7 +36091,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1211" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -36117,7 +36117,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1212" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -36143,7 +36143,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1213" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -36169,7 +36169,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1214" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -36195,7 +36195,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G1215" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -36221,7 +36221,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -36247,7 +36247,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1217" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -36273,7 +36273,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1218" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -36299,7 +36299,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1219" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36325,7 +36325,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1220" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36351,7 +36351,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1221" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36377,7 +36377,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36403,7 +36403,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1223" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36429,7 +36429,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1224" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36455,7 +36455,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1225" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36481,7 +36481,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1226" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36507,7 +36507,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1227" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36533,7 +36533,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1228" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36559,7 +36559,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1229" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36585,7 +36585,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1230" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36611,7 +36611,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1231" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36637,7 +36637,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1232" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36663,7 +36663,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1233" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36689,7 +36689,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1234" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36715,7 +36715,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1235" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36741,7 +36741,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36767,7 +36767,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1237" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36793,7 +36793,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1238" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36819,7 +36819,7 @@
         <v>6.75</v>
       </c>
       <c r="G1239" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36845,7 +36845,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1240" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36871,7 +36871,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1241" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36897,7 +36897,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1242" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36923,7 +36923,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1243" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36949,7 +36949,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1244" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -36975,7 +36975,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1245" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -37001,7 +37001,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1246" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -37027,7 +37027,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -37053,7 +37053,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1248" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37079,7 +37079,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1249" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -37105,7 +37105,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1250" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -37131,7 +37131,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1251" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37157,7 +37157,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1252" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -37183,7 +37183,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1253" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -37209,7 +37209,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37235,7 +37235,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1255" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -37261,7 +37261,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1256" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -37287,7 +37287,7 @@
         <v>6.75</v>
       </c>
       <c r="G1257" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -37313,7 +37313,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1258" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37339,7 +37339,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1259" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37365,7 +37365,7 @@
         <v>6.75</v>
       </c>
       <c r="G1260" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37391,7 +37391,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1261" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37417,7 +37417,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1262" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37443,7 +37443,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1263" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37469,7 +37469,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37495,7 +37495,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1265" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37521,7 +37521,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1266" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37547,7 +37547,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1267" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37573,7 +37573,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1268" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37599,7 +37599,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1269" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37625,7 +37625,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1270" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37651,7 +37651,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1271" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37677,7 +37677,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37703,7 +37703,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1273" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37729,7 +37729,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1274" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37755,7 +37755,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1275" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37781,7 +37781,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37807,7 +37807,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1277" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37833,7 +37833,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G1278" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37859,7 +37859,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1279" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37885,7 +37885,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1280" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37911,7 +37911,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1281" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37937,7 +37937,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1282" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37963,7 +37963,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1283" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -37989,7 +37989,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G1284" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -38015,7 +38015,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1285" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -38041,7 +38041,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1286" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38067,7 +38067,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G1287" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -38093,7 +38093,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1288" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38119,7 +38119,7 @@
         <v>7</v>
       </c>
       <c r="G1289" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38145,7 +38145,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1290" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -38171,7 +38171,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1291" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -38197,7 +38197,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1292" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -38223,7 +38223,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1293" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -38249,7 +38249,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1294" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -38275,7 +38275,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1295" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -38301,7 +38301,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1296" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38327,7 +38327,7 @@
         <v>8.5</v>
       </c>
       <c r="G1297" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38353,7 +38353,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1298" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38379,7 +38379,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1299" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38405,7 +38405,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1300" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38431,7 +38431,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1301" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38457,7 +38457,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1302" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38483,7 +38483,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1303" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38509,7 +38509,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1304" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38535,7 +38535,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1305" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38561,7 +38561,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1306" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38587,7 +38587,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1307" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38613,7 +38613,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1308" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38639,7 +38639,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1309" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38665,7 +38665,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1310" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38691,7 +38691,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1311" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38717,7 +38717,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1312" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38743,7 +38743,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1313" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38769,7 +38769,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1314" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38795,7 +38795,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1315" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38821,7 +38821,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1316" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38847,7 +38847,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1317" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38873,7 +38873,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1318" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38899,7 +38899,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1319" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38925,7 +38925,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1320" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38951,7 +38951,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1321" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -38977,7 +38977,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1322" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -39003,7 +39003,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -39029,7 +39029,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1324" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -39055,7 +39055,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1325" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -39081,7 +39081,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1326" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -39107,7 +39107,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1327" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -39133,7 +39133,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1328" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -39159,7 +39159,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1329" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -39185,7 +39185,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1330" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -39211,7 +39211,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1331" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -39237,7 +39237,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1332" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -39263,7 +39263,7 @@
         <v>8.75</v>
       </c>
       <c r="G1333" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -39289,7 +39289,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1334" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -39315,7 +39315,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1335" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -39341,7 +39341,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39367,7 +39367,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1337" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39393,7 +39393,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1338" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39419,7 +39419,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1339" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39445,7 +39445,7 @@
         <v>9</v>
       </c>
       <c r="G1340" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39471,7 +39471,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1341" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39497,7 +39497,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G1342" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39523,7 +39523,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G1343" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39549,7 +39549,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1344" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39575,7 +39575,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G1345" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39601,7 +39601,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1346" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39627,7 +39627,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1347" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39653,7 +39653,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1348" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39679,7 +39679,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G1349" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39705,7 +39705,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1350" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39731,7 +39731,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1351" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39757,7 +39757,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1352" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39783,7 +39783,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1353" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39809,7 +39809,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1354" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39835,7 +39835,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1355" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39861,7 +39861,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1356" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39887,7 +39887,7 @@
         <v>9.5</v>
       </c>
       <c r="G1357" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39913,7 +39913,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1358" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39939,7 +39939,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G1359" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -39965,7 +39965,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1360" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -39991,7 +39991,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1361" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -40017,7 +40017,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1362" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -40043,7 +40043,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1363" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -40069,7 +40069,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1364" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -40095,7 +40095,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1365" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -40121,7 +40121,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1366" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -40147,7 +40147,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1367" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -40173,7 +40173,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1368" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -40199,7 +40199,7 @@
         <v>9.5</v>
       </c>
       <c r="G1369" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -40225,7 +40225,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1370" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -40251,7 +40251,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1371" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -40277,7 +40277,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1372" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -40303,7 +40303,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1373" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -40329,7 +40329,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1374" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -40641,7 +40641,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1386" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -41473,7 +41473,7 @@
         <v>9.5</v>
       </c>
       <c r="G1418" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41655,7 +41655,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1425" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41759,7 +41759,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1429" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41785,7 +41785,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1430" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41915,7 +41915,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1435" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -42149,7 +42149,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1444" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -60435,7 +60435,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6493865741</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>54966</v>
@@ -60456,6 +60456,32 @@
         <v>1416</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6495023148</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>45902</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>10.1400003433228</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>9.85999965667725</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>9.97999954223633</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>10.1199998855591</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="1421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="1422">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79800653457642</t>
+    <t xml:space="preserve">4.79800605773926</t>
   </si>
   <si>
     <t xml:space="preserve">CEM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77356863021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64730453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806396484375</t>
+    <t xml:space="preserve">4.77356815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64730405807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806301116943</t>
   </si>
   <si>
     <t xml:space="preserve">4.41514348983765</t>
@@ -62,28 +62,28 @@
     <t xml:space="preserve">4.41106939315796</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37441253662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37848567962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14225196838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01435947418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05346012115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74879908561707</t>
+    <t xml:space="preserve">4.37441301345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37848615646362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14225149154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01435899734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05345916748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74879860877991</t>
   </si>
   <si>
     <t xml:space="preserve">3.91171908378601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02739238739014</t>
+    <t xml:space="preserve">4.02739191055298</t>
   </si>
   <si>
     <t xml:space="preserve">3.95733666419983</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">3.99480867385864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95570778846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82048344612122</t>
+    <t xml:space="preserve">3.95570731163025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82048368453979</t>
   </si>
   <si>
     <t xml:space="preserve">4.01272964477539</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">3.81233763694763</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64941740036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67059659957886</t>
+    <t xml:space="preserve">3.64941716194153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67059683799744</t>
   </si>
   <si>
     <t xml:space="preserve">3.6917769908905</t>
@@ -131,112 +131,112 @@
     <t xml:space="preserve">3.27307152748108</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51093482971191</t>
+    <t xml:space="preserve">3.51093459129333</t>
   </si>
   <si>
     <t xml:space="preserve">3.42947483062744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54514837265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62497878074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41318321228027</t>
+    <t xml:space="preserve">3.54514813423157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62497925758362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41318249702454</t>
   </si>
   <si>
     <t xml:space="preserve">3.45880031585693</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43436241149902</t>
+    <t xml:space="preserve">3.4343626499176</t>
   </si>
   <si>
     <t xml:space="preserve">3.30402612686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35778975486755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47020530700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65756320953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70643925666809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62660884857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7162139415741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6314959526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59076595306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795692443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59565329551697</t>
+    <t xml:space="preserve">3.35778999328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47020506858826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65756249427795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70643973350525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6266086101532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71621417999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63149619102478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59076619148254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56795716285706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59565401077271</t>
   </si>
   <si>
     <t xml:space="preserve">3.62009143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82699990272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68526029586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82862949371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846109390259</t>
+    <t xml:space="preserve">3.82700061798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68526005744934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82862901687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846061706543</t>
   </si>
   <si>
     <t xml:space="preserve">3.74391102790833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78138256072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73087763786316</t>
+    <t xml:space="preserve">3.78138327598572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.730877161026</t>
   </si>
   <si>
     <t xml:space="preserve">3.58750772476196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64127111434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57936191558838</t>
+    <t xml:space="preserve">3.64127087593079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936120033264</t>
   </si>
   <si>
     <t xml:space="preserve">3.61357498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65104651451111</t>
+    <t xml:space="preserve">3.65104627609253</t>
   </si>
   <si>
     <t xml:space="preserve">3.52071022987366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47835111618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44250845909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67222595214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55492305755615</t>
+    <t xml:space="preserve">3.47835063934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44250822067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67222571372986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55492329597473</t>
   </si>
   <si>
     <t xml:space="preserve">3.61520433425903</t>
@@ -245,37 +245,37 @@
     <t xml:space="preserve">3.66733837127686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85469675064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81885409355164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93452763557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396698951721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8237419128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77975296974182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76672005653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75042796134949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87261891365051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73902320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77486562728882</t>
+    <t xml:space="preserve">3.85469627380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81885552406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9345281124115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396722793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82374215126038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77975368499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76672029495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75042819976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87261915206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73902368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77486610412598</t>
   </si>
   <si>
     <t xml:space="preserve">3.69829368591309</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">3.74716901779175</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71458554267883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60054087638855</t>
+    <t xml:space="preserve">3.71458578109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60054135322571</t>
   </si>
   <si>
     <t xml:space="preserve">3.52722644805908</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54351902008057</t>
+    <t xml:space="preserve">3.54351878166199</t>
   </si>
   <si>
     <t xml:space="preserve">3.60227465629578</t>
@@ -308,16 +308,16 @@
     <t xml:space="preserve">3.83575463294983</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95249533653259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96083474159241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85243225097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82908391952515</t>
+    <t xml:space="preserve">3.95249485969543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96083450317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85243201255798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8290843963623</t>
   </si>
   <si>
     <t xml:space="preserve">3.77905321121216</t>
@@ -329,52 +329,52 @@
     <t xml:space="preserve">3.66898322105408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65564131736755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62729024887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45384764671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37713217735291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36379027366638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2603919506073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22203421592712</t>
+    <t xml:space="preserve">3.65564060211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62729001045227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4538471698761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37713241577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36379051208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26039171218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22203469276428</t>
   </si>
   <si>
     <t xml:space="preserve">3.06693625450134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21703124046326</t>
+    <t xml:space="preserve">3.21703100204468</t>
   </si>
   <si>
     <t xml:space="preserve">3.09528732299805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28707551956177</t>
+    <t xml:space="preserve">3.28707528114319</t>
   </si>
   <si>
     <t xml:space="preserve">3.41882538795471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16866731643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88515520095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87681651115417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89682865142822</t>
+    <t xml:space="preserve">3.16866707801819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88515496253967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8768162727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89682912826538</t>
   </si>
   <si>
     <t xml:space="preserve">2.99355673789978</t>
@@ -383,19 +383,19 @@
     <t xml:space="preserve">3.1036262512207</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01690459251404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8518009185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81844639778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82344937324524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90516757965088</t>
+    <t xml:space="preserve">3.01690483093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85180068016052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81844615936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82344913482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90516781806946</t>
   </si>
   <si>
     <t xml:space="preserve">2.93518686294556</t>
@@ -404,52 +404,52 @@
     <t xml:space="preserve">3.10195875167847</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06026554107666</t>
+    <t xml:space="preserve">3.06026530265808</t>
   </si>
   <si>
     <t xml:space="preserve">3.27540135383606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19535112380981</t>
+    <t xml:space="preserve">3.19535088539124</t>
   </si>
   <si>
     <t xml:space="preserve">3.13698077201843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03358221054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17033529281616</t>
+    <t xml:space="preserve">3.03358197212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17033505439758</t>
   </si>
   <si>
     <t xml:space="preserve">3.03524994850159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98688578605652</t>
+    <t xml:space="preserve">2.9868860244751</t>
   </si>
   <si>
     <t xml:space="preserve">3.23871159553528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24371480941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21869850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2520534992218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16032886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18367671966553</t>
+    <t xml:space="preserve">3.2437150478363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21869874000549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25205302238464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16032838821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18367695808411</t>
   </si>
   <si>
     <t xml:space="preserve">3.08528137207031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17867374420166</t>
+    <t xml:space="preserve">3.17867350578308</t>
   </si>
   <si>
     <t xml:space="preserve">3.30208492279053</t>
@@ -458,16 +458,16 @@
     <t xml:space="preserve">3.34544563293457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38880658149719</t>
+    <t xml:space="preserve">3.38880634307861</t>
   </si>
   <si>
     <t xml:space="preserve">3.50387930870056</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4738597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53556537628174</t>
+    <t xml:space="preserve">3.47386026382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53556513786316</t>
   </si>
   <si>
     <t xml:space="preserve">3.50554704666138</t>
@@ -479,151 +479,151 @@
     <t xml:space="preserve">3.75236916542053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7190146446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239439964294</t>
+    <t xml:space="preserve">3.71901488304138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239463806152</t>
   </si>
   <si>
     <t xml:space="preserve">3.76904654502869</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81907820701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92914724349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88411903381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89912843704224</t>
+    <t xml:space="preserve">3.81907773017883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92914772033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8841187953949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89912891387939</t>
   </si>
   <si>
     <t xml:space="preserve">3.87911605834961</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81741046905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69566679000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63729667663574</t>
+    <t xml:space="preserve">3.8174102306366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69566750526428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63729643821716</t>
   </si>
   <si>
     <t xml:space="preserve">3.54390430450439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58559727668762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73235630989075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.677321434021</t>
+    <t xml:space="preserve">3.5855975151062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73235607147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67732191085815</t>
   </si>
   <si>
     <t xml:space="preserve">3.61561608314514</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72068238258362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71734690666199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45551490783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55224323272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52222418785095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50221085548401</t>
+    <t xml:space="preserve">3.72068214416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71734714508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45551514625549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55224299430847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52222347259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50221061706543</t>
   </si>
   <si>
     <t xml:space="preserve">3.57725858688354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63562941551208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62562274932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63396143913269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391049385071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61394786834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69733428955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66231274604797</t>
+    <t xml:space="preserve">3.63562870025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62562251091003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63396096229553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391097068787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61394882202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69733452796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66231250762939</t>
   </si>
   <si>
     <t xml:space="preserve">3.71401166915894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76237559318542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73402404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76070785522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60727763175964</t>
+    <t xml:space="preserve">3.76237535476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73402452468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76070737838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60727834701538</t>
   </si>
   <si>
     <t xml:space="preserve">3.70233750343323</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71067571640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50721430778503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48720192909241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40214776992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43883800506592</t>
+    <t xml:space="preserve">3.7106761932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50721406936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48553395271301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48720145225525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40214800834656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4388382434845</t>
   </si>
   <si>
     <t xml:space="preserve">3.3404426574707</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28540778160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27373361587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24037885665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2770688533783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21036028862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17533802986145</t>
+    <t xml:space="preserve">3.28540754318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2737340927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24037957191467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27706909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21036052703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17533850669861</t>
   </si>
   <si>
     <t xml:space="preserve">3.06526875495911</t>
@@ -632,43 +632,43 @@
     <t xml:space="preserve">3.07694292068481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01190161705017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97687983512878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02357530593872</t>
+    <t xml:space="preserve">3.01190185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97687959671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02357578277588</t>
   </si>
   <si>
     <t xml:space="preserve">3.02691102027893</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0152370929718</t>
+    <t xml:space="preserve">3.01523685455322</t>
   </si>
   <si>
     <t xml:space="preserve">3.10862922668457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23537611961365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25038576126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38547086715698</t>
+    <t xml:space="preserve">3.23537659645081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25038552284241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3854706287384</t>
   </si>
   <si>
     <t xml:space="preserve">3.2987494468689</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52722716331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55724549293518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52055621147156</t>
+    <t xml:space="preserve">3.52722692489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55724596977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52055668830872</t>
   </si>
   <si>
     <t xml:space="preserve">3.56892061233521</t>
@@ -677,10 +677,10 @@
     <t xml:space="preserve">3.64396691322327</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51888823509216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68566012382507</t>
+    <t xml:space="preserve">3.51888799667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68566060066223</t>
   </si>
   <si>
     <t xml:space="preserve">3.75070142745972</t>
@@ -692,10 +692,10 @@
     <t xml:space="preserve">3.77738547325134</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55557799339294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39881277084351</t>
+    <t xml:space="preserve">3.55557823181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39881253242493</t>
   </si>
   <si>
     <t xml:space="preserve">3.35211658477783</t>
@@ -710,40 +710,40 @@
     <t xml:space="preserve">3.31209111213684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29541397094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29708170890808</t>
+    <t xml:space="preserve">3.29541373252869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2970814704895</t>
   </si>
   <si>
     <t xml:space="preserve">3.32710075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34211015701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30041694641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08090972900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12760639190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21099281311035</t>
+    <t xml:space="preserve">3.34211039543152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30041670799255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08091068267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12760543823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21099185943604</t>
   </si>
   <si>
     <t xml:space="preserve">4.25268459320068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26102352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14428377151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03588199615479</t>
+    <t xml:space="preserve">4.26102447509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14428234100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03588151931763</t>
   </si>
   <si>
     <t xml:space="preserve">4.27770090103149</t>
@@ -752,19 +752,19 @@
     <t xml:space="preserve">4.36942529678345</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43196582794189</t>
+    <t xml:space="preserve">4.43196535110474</t>
   </si>
   <si>
     <t xml:space="preserve">4.56121301651001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52785873413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49867391586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50284337997437</t>
+    <t xml:space="preserve">4.5278582572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49867343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50284290313721</t>
   </si>
   <si>
     <t xml:space="preserve">4.46115016937256</t>
@@ -773,49 +773,49 @@
     <t xml:space="preserve">4.35274839401245</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4778265953064</t>
+    <t xml:space="preserve">4.47782707214355</t>
   </si>
   <si>
     <t xml:space="preserve">4.44864225387573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46531915664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47365808486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65293741226196</t>
+    <t xml:space="preserve">4.46531963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47365760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65293788909912</t>
   </si>
   <si>
     <t xml:space="preserve">4.51535034179688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41528797149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34024000167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33607053756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38610315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43613481521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32773303985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33190202713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29437828063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22766923904419</t>
+    <t xml:space="preserve">4.41528749465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33607006072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38610219955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43613433837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3277325630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33190155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29437875747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22766971588135</t>
   </si>
   <si>
     <t xml:space="preserve">4.18597650527954</t>
@@ -824,31 +824,31 @@
     <t xml:space="preserve">4.30688571929932</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49450397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45281171798706</t>
+    <t xml:space="preserve">4.49450445175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4528112411499</t>
   </si>
   <si>
     <t xml:space="preserve">4.36108732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39027118682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36525678634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53619766235352</t>
+    <t xml:space="preserve">4.39027214050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36525630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53619813919067</t>
   </si>
   <si>
     <t xml:space="preserve">4.61958312988281</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60707569122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61124515533447</t>
+    <t xml:space="preserve">4.6070761680603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61124420166016</t>
   </si>
   <si>
     <t xml:space="preserve">4.7738471031189</t>
@@ -860,67 +860,67 @@
     <t xml:space="preserve">4.80720138549805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82804822921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91560316085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90726566314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74466228485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42779541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42362689971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34440994262695</t>
+    <t xml:space="preserve">4.82804870605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91560363769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90726470947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74466276168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42779588699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42362546920776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34440946578979</t>
   </si>
   <si>
     <t xml:space="preserve">4.49153518676758</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53827810287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5042839050293</t>
+    <t xml:space="preserve">4.5382776260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50428295135498</t>
   </si>
   <si>
     <t xml:space="preserve">4.46179008483887</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45329141616821</t>
+    <t xml:space="preserve">4.45329093933105</t>
   </si>
   <si>
     <t xml:space="preserve">4.38955163955688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35980701446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34280872344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40229988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35130739212036</t>
+    <t xml:space="preserve">4.35980653762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34280920028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40229940414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35130786895752</t>
   </si>
   <si>
     <t xml:space="preserve">4.2918176651001</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41929626464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45754098892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43204545974731</t>
+    <t xml:space="preserve">4.41929578781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45754146575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43204498291016</t>
   </si>
   <si>
     <t xml:space="preserve">4.47878742218018</t>
@@ -929,70 +929,70 @@
     <t xml:space="preserve">4.38530254364014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51703119277954</t>
+    <t xml:space="preserve">4.5170316696167</t>
   </si>
   <si>
     <t xml:space="preserve">4.48728656768799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48303604125977</t>
+    <t xml:space="preserve">4.48303651809692</t>
   </si>
   <si>
     <t xml:space="preserve">4.47028875350952</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55527544021606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57227277755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6572585105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49578428268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4362940788269</t>
+    <t xml:space="preserve">4.55527591705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57227325439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65725898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49578475952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43629455566406</t>
   </si>
   <si>
     <t xml:space="preserve">4.78473901748657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67425632476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95046186447144</t>
+    <t xml:space="preserve">4.67425680160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95046281814575</t>
   </si>
   <si>
     <t xml:space="preserve">5.09918880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15867948532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20967197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35414838790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39239168167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35839748382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52412128448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40938901901245</t>
+    <t xml:space="preserve">5.15867900848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20967149734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35414791107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3923921585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35839700698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52412080764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40938997268677</t>
   </si>
   <si>
     <t xml:space="preserve">5.4051399230957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45188236236572</t>
+    <t xml:space="preserve">5.45188283920288</t>
   </si>
   <si>
     <t xml:space="preserve">5.4136381149292</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">5.33290147781372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39664125442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4008903503418</t>
+    <t xml:space="preserve">5.39664173126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40089082717896</t>
   </si>
   <si>
     <t xml:space="preserve">5.2649130821228</t>
@@ -1013,40 +1013,40 @@
     <t xml:space="preserve">5.11618614196777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1544303894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22666883468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30740547180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17567682266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13318300247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05669498443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09069061279297</t>
+    <t xml:space="preserve">5.15442991256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22666835784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30740594863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1756763458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13318347930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05669546127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09069013595581</t>
   </si>
   <si>
     <t xml:space="preserve">5.06094455718994</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00570392608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03969860076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98870658874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00145435333252</t>
+    <t xml:space="preserve">5.00570344924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03969812393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9887056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00145483016968</t>
   </si>
   <si>
     <t xml:space="preserve">5.05244636535645</t>
@@ -1055,49 +1055,49 @@
     <t xml:space="preserve">5.04394769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01420164108276</t>
+    <t xml:space="preserve">5.01420211791992</t>
   </si>
   <si>
     <t xml:space="preserve">5.12468481063843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15018033981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21816968917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27766036987305</t>
+    <t xml:space="preserve">5.15018081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21816921234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27766084671021</t>
   </si>
   <si>
     <t xml:space="preserve">5.33715105056763</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28190994262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23516654968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43913555145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3711462020874</t>
+    <t xml:space="preserve">5.28190946578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23516702651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43913459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37114572525024</t>
   </si>
   <si>
     <t xml:space="preserve">5.32865238189697</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69409418106079</t>
+    <t xml:space="preserve">5.69409370422363</t>
   </si>
   <si>
     <t xml:space="preserve">5.80032682418823</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12327527999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9235577583313</t>
+    <t xml:space="preserve">6.12327575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92355728149414</t>
   </si>
   <si>
     <t xml:space="preserve">6.19551420211792</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">6.13602352142334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28900003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00854396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05953550338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08503198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15302085876465</t>
+    <t xml:space="preserve">6.28899908065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00854444503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05953502655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08503246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15302133560181</t>
   </si>
   <si>
     <t xml:space="preserve">6.11477756500244</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">6.08928108215332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0340404510498</t>
+    <t xml:space="preserve">6.03403997421265</t>
   </si>
   <si>
     <t xml:space="preserve">5.97879886627197</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04678773880005</t>
+    <t xml:space="preserve">6.04678726196289</t>
   </si>
   <si>
     <t xml:space="preserve">6.01704263687134</t>
@@ -1142,10 +1142,10 @@
     <t xml:space="preserve">6.02129220962524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99154663085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96180200576782</t>
+    <t xml:space="preserve">5.99154710769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96180105209351</t>
   </si>
   <si>
     <t xml:space="preserve">6.127525806427</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">6.10202932357788</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1572699546814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21251153945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1487717628479</t>
+    <t xml:space="preserve">6.15727043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21251106262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14877223968506</t>
   </si>
   <si>
     <t xml:space="preserve">6.11902618408203</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">6.19976377487183</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41647911071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29749822616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32299375534058</t>
+    <t xml:space="preserve">6.41647958755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29749774932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32299423217773</t>
   </si>
   <si>
     <t xml:space="preserve">6.20401334762573</t>
@@ -1190,52 +1190,52 @@
     <t xml:space="preserve">6.33574247360229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14452266693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22101068496704</t>
+    <t xml:space="preserve">6.14452219009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22101020812988</t>
   </si>
   <si>
     <t xml:space="preserve">6.30599689483643</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33149242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34424114227295</t>
+    <t xml:space="preserve">6.33149290084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34424066543579</t>
   </si>
   <si>
     <t xml:space="preserve">6.2677526473999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07653331756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06378555297852</t>
+    <t xml:space="preserve">6.07653379440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06378602981567</t>
   </si>
   <si>
     <t xml:space="preserve">6.13177442550659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14027309417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23800754547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18276691436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16152000427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27200222015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21676158905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48446893692017</t>
+    <t xml:space="preserve">6.14027261734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23800802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18276643753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1615195274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27200269699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21676111221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48446798324585</t>
   </si>
   <si>
     <t xml:space="preserve">6.34848976135254</t>
@@ -1244,25 +1244,25 @@
     <t xml:space="preserve">6.40798044204712</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71393251419067</t>
+    <t xml:space="preserve">6.71393156051636</t>
   </si>
   <si>
     <t xml:space="preserve">6.74792623519897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70543336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63744449615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62894582748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79041910171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87540674209595</t>
+    <t xml:space="preserve">6.7054328918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63744401931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62894487380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79041957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87540626525879</t>
   </si>
   <si>
     <t xml:space="preserve">6.72243070602417</t>
@@ -1271,118 +1271,118 @@
     <t xml:space="preserve">6.75642538070679</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76492404937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84141206741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65444087982178</t>
+    <t xml:space="preserve">6.76492357254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84141254425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65444135665894</t>
   </si>
   <si>
     <t xml:space="preserve">6.64594268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79891872406006</t>
+    <t xml:space="preserve">6.7989182472229</t>
   </si>
   <si>
     <t xml:space="preserve">6.6799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57795286178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42497730255127</t>
+    <t xml:space="preserve">6.57795381546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42497777938843</t>
   </si>
   <si>
     <t xml:space="preserve">6.35698890686035</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02554178237915</t>
+    <t xml:space="preserve">6.02554130554199</t>
   </si>
   <si>
     <t xml:space="preserve">6.05103731155396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66294002532959</t>
+    <t xml:space="preserve">6.66294050216675</t>
   </si>
   <si>
     <t xml:space="preserve">6.39098310470581</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4929666519165</t>
+    <t xml:space="preserve">6.49296760559082</t>
   </si>
   <si>
     <t xml:space="preserve">6.45897197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.263503074646</t>
+    <t xml:space="preserve">6.26350355148315</t>
   </si>
   <si>
     <t xml:space="preserve">6.28050088882446</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18701601028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06803417205811</t>
+    <t xml:space="preserve">6.18701648712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06803512573242</t>
   </si>
   <si>
     <t xml:space="preserve">6.2550048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17851686477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00004529953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96605157852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93205595016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83857107162476</t>
+    <t xml:space="preserve">6.17851638793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00004577636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96605062484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93205642700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83857154846191</t>
   </si>
   <si>
     <t xml:space="preserve">5.87256526947021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88106489181519</t>
+    <t xml:space="preserve">5.88106393814087</t>
   </si>
   <si>
     <t xml:space="preserve">5.79607820510864</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94055414199829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98304796218872</t>
+    <t xml:space="preserve">5.94055461883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98304843902588</t>
   </si>
   <si>
     <t xml:space="preserve">5.88956308364868</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89806127548218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90655994415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74508619308472</t>
+    <t xml:space="preserve">5.89806270599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90656042098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74508666992188</t>
   </si>
   <si>
     <t xml:space="preserve">5.76233863830566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7968430519104</t>
+    <t xml:space="preserve">5.79684352874756</t>
   </si>
   <si>
     <t xml:space="preserve">5.77959060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81409645080566</t>
+    <t xml:space="preserve">5.81409597396851</t>
   </si>
   <si>
     <t xml:space="preserve">5.58981323242188</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">5.65882396697998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65019798278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85722780227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69332838058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77096509933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82272291183472</t>
+    <t xml:space="preserve">5.65019750595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85722732543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69332885742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77096462249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8227219581604</t>
   </si>
   <si>
     <t xml:space="preserve">5.89173221588135</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02975273132324</t>
+    <t xml:space="preserve">6.02975225448608</t>
   </si>
   <si>
     <t xml:space="preserve">6.02112627029419</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">5.90035915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83134889602661</t>
+    <t xml:space="preserve">5.83134937286377</t>
   </si>
   <si>
     <t xml:space="preserve">5.9262375831604</t>
@@ -1436,34 +1436,34 @@
     <t xml:space="preserve">5.67607593536377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61569261550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80546998977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83997488021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8486008644104</t>
+    <t xml:space="preserve">5.61569213867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80547046661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83997535705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84860134124756</t>
   </si>
   <si>
     <t xml:space="preserve">5.71920728683472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62431859970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78821754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13326787948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11601543426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93486356735229</t>
+    <t xml:space="preserve">5.62431907653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78821706771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13326740264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11601495742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93486404418945</t>
   </si>
   <si>
     <t xml:space="preserve">5.8744797706604</t>
@@ -1475,28 +1475,28 @@
     <t xml:space="preserve">5.90898513793945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0038743019104</t>
+    <t xml:space="preserve">6.00387382507324</t>
   </si>
   <si>
     <t xml:space="preserve">5.99524736404419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04700469970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96936893463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88310575485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94348955154419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9521164894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53805589675903</t>
+    <t xml:space="preserve">6.04700517654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96936845779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88310623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94349002838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95211601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53805541992188</t>
   </si>
   <si>
     <t xml:space="preserve">5.49492454528809</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">5.36553049087524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40866279602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54668188095093</t>
+    <t xml:space="preserve">5.40866231918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54668235778809</t>
   </si>
   <si>
     <t xml:space="preserve">5.57256126403809</t>
@@ -1520,25 +1520,25 @@
     <t xml:space="preserve">5.55530834197998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46041965484619</t>
+    <t xml:space="preserve">5.46042013168335</t>
   </si>
   <si>
     <t xml:space="preserve">5.47767210006714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33102560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24476337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34827852249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23613739013672</t>
+    <t xml:space="preserve">5.33102607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24476289749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21888542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34827756881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23613691329956</t>
   </si>
   <si>
     <t xml:space="preserve">5.37415742874146</t>
@@ -1553,25 +1553,25 @@
     <t xml:space="preserve">5.3396520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39140939712524</t>
+    <t xml:space="preserve">5.39141035079956</t>
   </si>
   <si>
     <t xml:space="preserve">5.4259147644043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40003633499146</t>
+    <t xml:space="preserve">5.4000358581543</t>
   </si>
   <si>
     <t xml:space="preserve">5.59843969345093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43454122543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27064275741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19300556182861</t>
+    <t xml:space="preserve">5.43454074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27064228057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19300603866577</t>
   </si>
   <si>
     <t xml:space="preserve">5.27926826477051</t>
@@ -1583,16 +1583,16 @@
     <t xml:space="preserve">5.01185417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69268321990967</t>
+    <t xml:space="preserve">4.69268369674683</t>
   </si>
   <si>
     <t xml:space="preserve">4.58916759490967</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65817832946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46840047836304</t>
+    <t xml:space="preserve">4.65817785263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46840000152588</t>
   </si>
   <si>
     <t xml:space="preserve">4.63229894638062</t>
@@ -1601,46 +1601,46 @@
     <t xml:space="preserve">4.61504697799683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70993518829346</t>
+    <t xml:space="preserve">4.70993566513062</t>
   </si>
   <si>
     <t xml:space="preserve">4.55466318130493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35625982284546</t>
+    <t xml:space="preserve">4.35625886917114</t>
   </si>
   <si>
     <t xml:space="preserve">4.22686529159546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30450201034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17510747909546</t>
+    <t xml:space="preserve">4.30450057983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17510795593262</t>
   </si>
   <si>
     <t xml:space="preserve">4.2872486114502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2398042678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48565244674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62367296218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68405723571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70130920410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72718811035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50290489196777</t>
+    <t xml:space="preserve">4.23980474472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48565196990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62367343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68405675888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7013087272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7271876335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50290584564209</t>
   </si>
   <si>
     <t xml:space="preserve">4.58054161071777</t>
@@ -1652,61 +1652,61 @@
     <t xml:space="preserve">4.52015781402588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38213729858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42526865005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2786226272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12766313552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16648149490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18804693222046</t>
+    <t xml:space="preserve">4.38213777542114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42526912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27862310409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12766265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16648197174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1880464553833</t>
   </si>
   <si>
     <t xml:space="preserve">4.23549127578735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32175397872925</t>
+    <t xml:space="preserve">4.32175445556641</t>
   </si>
   <si>
     <t xml:space="preserve">4.30018854141235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24411725997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18373394012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11903715133667</t>
+    <t xml:space="preserve">4.24411773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18373346328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11903667449951</t>
   </si>
   <si>
     <t xml:space="preserve">4.3907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3390064239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22255182266235</t>
+    <t xml:space="preserve">4.33900690078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2225513458252</t>
   </si>
   <si>
     <t xml:space="preserve">4.13197612762451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23117828369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17079401016235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11472415924072</t>
+    <t xml:space="preserve">4.23117876052856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17079496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11472368240356</t>
   </si>
   <si>
     <t xml:space="preserve">4.02414798736572</t>
@@ -1715,31 +1715,31 @@
     <t xml:space="preserve">4.4425220489502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39939022064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57191514968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74444007873535</t>
+    <t xml:space="preserve">4.39938974380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57191562652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74444103240967</t>
   </si>
   <si>
     <t xml:space="preserve">4.8910870552063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88246011734009</t>
+    <t xml:space="preserve">4.88246059417725</t>
   </si>
   <si>
     <t xml:space="preserve">4.91696548461914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96009731292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00322866439819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98597526550293</t>
+    <t xml:space="preserve">4.96009683609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00322771072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98597621917725</t>
   </si>
   <si>
     <t xml:space="preserve">5.05498552322388</t>
@@ -1757,22 +1757,22 @@
     <t xml:space="preserve">5.15850114822388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08949041366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07223844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30514717102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22751045227051</t>
+    <t xml:space="preserve">5.08949089050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07223796844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30514669418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22751092910767</t>
   </si>
   <si>
     <t xml:space="preserve">5.26201581954956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32240009307861</t>
+    <t xml:space="preserve">5.32239961624146</t>
   </si>
   <si>
     <t xml:space="preserve">5.4517936706543</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">5.50355100631714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58118724822998</t>
+    <t xml:space="preserve">5.58118677139282</t>
   </si>
   <si>
     <t xml:space="preserve">5.60706615447998</t>
@@ -1796,25 +1796,25 @@
     <t xml:space="preserve">5.52942943572998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52080392837524</t>
+    <t xml:space="preserve">5.52080297470093</t>
   </si>
   <si>
     <t xml:space="preserve">5.08086442947388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21648168563843</t>
+    <t xml:space="preserve">5.21648073196411</t>
   </si>
   <si>
     <t xml:space="preserve">5.23413372039795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11938953399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11056327819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1635217666626</t>
+    <t xml:space="preserve">5.11938905715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11056280136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16352224349976</t>
   </si>
   <si>
     <t xml:space="preserve">5.19000196456909</t>
@@ -1826,46 +1826,43 @@
     <t xml:space="preserve">5.24296092987061</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32239961624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30474710464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27826738357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33122634887695</t>
+    <t xml:space="preserve">5.30474662780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27826642990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33122587203979</t>
   </si>
   <si>
     <t xml:space="preserve">5.36653232574463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34005212783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35770606994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44597148895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5695424079895</t>
+    <t xml:space="preserve">5.34005308151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35770559310913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44597101211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56954193115234</t>
   </si>
   <si>
     <t xml:space="preserve">5.65780735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53423643112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43714427947998</t>
+    <t xml:space="preserve">5.53423595428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43714475631714</t>
   </si>
   <si>
     <t xml:space="preserve">5.51658296585083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68428707122803</t>
+    <t xml:space="preserve">5.68428754806519</t>
   </si>
   <si>
     <t xml:space="preserve">5.63132810592651</t>
@@ -1874,49 +1871,49 @@
     <t xml:space="preserve">5.58719539642334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7548999786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87847089767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86081838607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84316444396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76372575759888</t>
+    <t xml:space="preserve">5.75489950180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87847137451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86081790924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84316492080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76372623443604</t>
   </si>
   <si>
     <t xml:space="preserve">5.81668519973755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78138017654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71076679229736</t>
+    <t xml:space="preserve">5.78137969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71076631546021</t>
   </si>
   <si>
     <t xml:space="preserve">5.60484838485718</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56071615219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67546033859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85199117660522</t>
+    <t xml:space="preserve">5.560715675354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67546081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85199165344238</t>
   </si>
   <si>
     <t xml:space="preserve">5.62250137329102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34887886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28709316253662</t>
+    <t xml:space="preserve">5.34887933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28709363937378</t>
   </si>
   <si>
     <t xml:space="preserve">5.39301204681396</t>
@@ -1937,37 +1934,37 @@
     <t xml:space="preserve">5.25178718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26943969726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26061391830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4018383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64898157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55188941955566</t>
+    <t xml:space="preserve">5.26944017410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2606143951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40183877944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64898109436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55188894271851</t>
   </si>
   <si>
     <t xml:space="preserve">5.59602165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50775623321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47245073318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42831754684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49010324478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12821531295776</t>
+    <t xml:space="preserve">5.50775671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47245025634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42831802368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49010372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12821578979492</t>
   </si>
   <si>
     <t xml:space="preserve">5.14586877822876</t>
@@ -1976,7 +1973,7 @@
     <t xml:space="preserve">5.26502704620361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13968992233276</t>
+    <t xml:space="preserve">5.13969039916992</t>
   </si>
   <si>
     <t xml:space="preserve">5.20765447616577</t>
@@ -1985,19 +1982,19 @@
     <t xml:space="preserve">5.25531768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31268978118896</t>
+    <t xml:space="preserve">5.31269073486328</t>
   </si>
   <si>
     <t xml:space="preserve">5.38418531417847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45214939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43273115158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3850679397583</t>
+    <t xml:space="preserve">5.45214986801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43273162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38506746292114</t>
   </si>
   <si>
     <t xml:space="preserve">5.41154766082764</t>
@@ -2012,19 +2009,19 @@
     <t xml:space="preserve">5.32328224182129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44950103759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59425640106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54747629165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42390394210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62779712677002</t>
+    <t xml:space="preserve">5.44950151443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59425592422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54747581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42390441894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62779760360718</t>
   </si>
   <si>
     <t xml:space="preserve">5.7284197807312</t>
@@ -2033,10 +2030,10 @@
     <t xml:space="preserve">5.62603235244751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57130718231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53070592880249</t>
+    <t xml:space="preserve">5.57130765914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53070545196533</t>
   </si>
   <si>
     <t xml:space="preserve">5.57660341262817</t>
@@ -2048,46 +2045,46 @@
     <t xml:space="preserve">5.578369140625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89612436294556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14326763153076</t>
+    <t xml:space="preserve">5.8961238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1432671546936</t>
   </si>
   <si>
     <t xml:space="preserve">6.16092014312744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16974687576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06294584274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88464975357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89788913726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86876153945923</t>
+    <t xml:space="preserve">6.16974639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06294536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8846492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89789009094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86876249313354</t>
   </si>
   <si>
     <t xml:space="preserve">5.85552167892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85375642776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92613458633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02322578430176</t>
+    <t xml:space="preserve">5.85375690460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92613410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02322626113892</t>
   </si>
   <si>
     <t xml:space="preserve">6.05147075653076</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05941534042358</t>
+    <t xml:space="preserve">6.05941486358643</t>
   </si>
   <si>
     <t xml:space="preserve">6.02852201461792</t>
@@ -2099,19 +2096,19 @@
     <t xml:space="preserve">5.97026681900024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9729151725769</t>
+    <t xml:space="preserve">5.97291564941406</t>
   </si>
   <si>
     <t xml:space="preserve">5.79373645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84669542312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93496036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02410936355591</t>
+    <t xml:space="preserve">5.84669589996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93496084213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02410840988159</t>
   </si>
   <si>
     <t xml:space="preserve">5.81933355331421</t>
@@ -2120,10 +2117,10 @@
     <t xml:space="preserve">5.6860523223877</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8705267906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93142986297607</t>
+    <t xml:space="preserve">5.87052726745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93143033981323</t>
   </si>
   <si>
     <t xml:space="preserve">5.87494039535522</t>
@@ -2132,10 +2129,10 @@
     <t xml:space="preserve">5.84934377670288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83433866500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8113899230957</t>
+    <t xml:space="preserve">5.83433818817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81138944625854</t>
   </si>
   <si>
     <t xml:space="preserve">5.80609369277954</t>
@@ -2150,7 +2147,7 @@
     <t xml:space="preserve">5.77078723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68340492248535</t>
+    <t xml:space="preserve">5.68340444564819</t>
   </si>
   <si>
     <t xml:space="preserve">5.7372465133667</t>
@@ -2159,25 +2156,25 @@
     <t xml:space="preserve">5.78579187393188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69311428070068</t>
+    <t xml:space="preserve">5.69311332702637</t>
   </si>
   <si>
     <t xml:space="preserve">5.69576168060303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75754737854004</t>
+    <t xml:space="preserve">5.75754690170288</t>
   </si>
   <si>
     <t xml:space="preserve">5.83963441848755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72665500640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71871137619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7654914855957</t>
+    <t xml:space="preserve">5.72665452957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71871089935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76549196243286</t>
   </si>
   <si>
     <t xml:space="preserve">5.76813936233521</t>
@@ -2186,46 +2183,46 @@
     <t xml:space="preserve">5.86964464187622</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95702695846558</t>
+    <t xml:space="preserve">5.95702743530273</t>
   </si>
   <si>
     <t xml:space="preserve">6.12561416625977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04617500305176</t>
+    <t xml:space="preserve">6.0461745262146</t>
   </si>
   <si>
     <t xml:space="preserve">5.99321603775024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82816028594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5298228263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46892023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29856777191162</t>
+    <t xml:space="preserve">5.82815980911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52982330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46891975402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29856729507446</t>
   </si>
   <si>
     <t xml:space="preserve">5.14057302474976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25708246231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28356266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89166402816772</t>
+    <t xml:space="preserve">5.25708293914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28356313705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89166450500488</t>
   </si>
   <si>
     <t xml:space="preserve">4.32809066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38678646087646</t>
+    <t xml:space="preserve">4.38678741455078</t>
   </si>
   <si>
     <t xml:space="preserve">4.39296579360962</t>
@@ -2243,7 +2240,7 @@
     <t xml:space="preserve">3.84969234466553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97194004058838</t>
+    <t xml:space="preserve">3.97194027900696</t>
   </si>
   <si>
     <t xml:space="preserve">4.25880193710327</t>
@@ -2255,40 +2252,40 @@
     <t xml:space="preserve">4.05402660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15111875534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35898303985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19966411590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13743782043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34177207946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39561319351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45739984512329</t>
+    <t xml:space="preserve">4.15111827850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35898351669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19966459274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13743734359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34177160263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39561367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45739936828613</t>
   </si>
   <si>
     <t xml:space="preserve">4.2543888092041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4132661819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54566526412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70454216003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57214450836182</t>
+    <t xml:space="preserve">4.41326713562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54566478729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70454263687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57214403152466</t>
   </si>
   <si>
     <t xml:space="preserve">4.72219514846802</t>
@@ -2297,10 +2294,10 @@
     <t xml:space="preserve">4.66040992736816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66923570632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61627721786499</t>
+    <t xml:space="preserve">4.6692361831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61627674102783</t>
   </si>
   <si>
     <t xml:space="preserve">4.5897970199585</t>
@@ -2309,64 +2306,64 @@
     <t xml:space="preserve">4.8369402885437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86342000961304</t>
+    <t xml:space="preserve">4.8634204864502</t>
   </si>
   <si>
     <t xml:space="preserve">4.88989925384521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03995037078857</t>
+    <t xml:space="preserve">5.03994989395142</t>
   </si>
   <si>
     <t xml:space="preserve">5.01347064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93403244018555</t>
+    <t xml:space="preserve">4.93403196334839</t>
   </si>
   <si>
     <t xml:space="preserve">4.67806243896484</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64275646209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71336936950684</t>
+    <t xml:space="preserve">4.64275598526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71336889266968</t>
   </si>
   <si>
     <t xml:space="preserve">4.76632833480835</t>
   </si>
   <si>
+    <t xml:space="preserve">4.89872646331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00738525390625</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.89872598648071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00738525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89872550964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82628631591797</t>
+    <t xml:space="preserve">4.82628679275513</t>
   </si>
   <si>
     <t xml:space="preserve">4.98022031784058</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01644039154053</t>
+    <t xml:space="preserve">5.01643991470337</t>
   </si>
   <si>
     <t xml:space="preserve">5.20659399032593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32430791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29714345932007</t>
+    <t xml:space="preserve">5.3243088722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29714393615723</t>
   </si>
   <si>
     <t xml:space="preserve">5.50540733337402</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55068206787109</t>
+    <t xml:space="preserve">5.55068159103394</t>
   </si>
   <si>
     <t xml:space="preserve">5.40580272674561</t>
@@ -2381,7 +2378,7 @@
     <t xml:space="preserve">5.71367073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84044027328491</t>
+    <t xml:space="preserve">5.84043979644775</t>
   </si>
   <si>
     <t xml:space="preserve">5.93099021911621</t>
@@ -2390,19 +2387,19 @@
     <t xml:space="preserve">5.74989080429077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41485786437988</t>
+    <t xml:space="preserve">5.41485738754272</t>
   </si>
   <si>
     <t xml:space="preserve">5.37863826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3424186706543</t>
+    <t xml:space="preserve">5.34241819381714</t>
   </si>
   <si>
     <t xml:space="preserve">5.66839647293091</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84949588775635</t>
+    <t xml:space="preserve">5.84949541091919</t>
   </si>
   <si>
     <t xml:space="preserve">5.72272634506226</t>
@@ -2420,10 +2417,10 @@
     <t xml:space="preserve">5.75894594192505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83138513565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69556140899658</t>
+    <t xml:space="preserve">5.83138561248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69556093215942</t>
   </si>
   <si>
     <t xml:space="preserve">5.67745113372803</t>
@@ -2435,13 +2432,13 @@
     <t xml:space="preserve">5.56879186630249</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46013307571411</t>
+    <t xml:space="preserve">5.46013259887695</t>
   </si>
   <si>
     <t xml:space="preserve">5.5325722694397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52351760864258</t>
+    <t xml:space="preserve">5.52351713180542</t>
   </si>
   <si>
     <t xml:space="preserve">5.42391300201416</t>
@@ -2450,10 +2447,10 @@
     <t xml:space="preserve">5.49635219573975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39674806594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31525373458862</t>
+    <t xml:space="preserve">5.39674854278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31525325775146</t>
   </si>
   <si>
     <t xml:space="preserve">5.46918725967407</t>
@@ -2462,7 +2459,7 @@
     <t xml:space="preserve">5.36052846908569</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36958312988281</t>
+    <t xml:space="preserve">5.36958265304565</t>
   </si>
   <si>
     <t xml:space="preserve">5.47824287414551</t>
@@ -2474,22 +2471,22 @@
     <t xml:space="preserve">5.7046160697937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6502857208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61406660079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48729705810547</t>
+    <t xml:space="preserve">5.65028619766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6140661239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48729753494263</t>
   </si>
   <si>
     <t xml:space="preserve">5.45107746124268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38769245147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30619859695435</t>
+    <t xml:space="preserve">5.38769292831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30619812011719</t>
   </si>
   <si>
     <t xml:space="preserve">5.43296766281128</t>
@@ -2504,7 +2501,7 @@
     <t xml:space="preserve">5.26092386245728</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2337589263916</t>
+    <t xml:space="preserve">5.23375940322876</t>
   </si>
   <si>
     <t xml:space="preserve">5.26997852325439</t>
@@ -2516,13 +2513,13 @@
     <t xml:space="preserve">5.12509918212891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99833011627197</t>
+    <t xml:space="preserve">4.99833059310913</t>
   </si>
   <si>
     <t xml:space="preserve">4.70857191085815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81723213195801</t>
+    <t xml:space="preserve">4.81723117828369</t>
   </si>
   <si>
     <t xml:space="preserve">4.9530553817749</t>
@@ -2540,25 +2537,25 @@
     <t xml:space="preserve">5.08887958526611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02153968811035</t>
+    <t xml:space="preserve">6.02153921127319</t>
   </si>
   <si>
     <t xml:space="preserve">6.13019847869873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13925409317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11208915710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22074794769287</t>
+    <t xml:space="preserve">6.13925361633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11208868026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22074842453003</t>
   </si>
   <si>
     <t xml:space="preserve">6.22980308532715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48334121704102</t>
+    <t xml:space="preserve">6.48334169387817</t>
   </si>
   <si>
     <t xml:space="preserve">6.31129693984985</t>
@@ -2573,28 +2570,28 @@
     <t xml:space="preserve">6.44712162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37468194961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42901134490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43806743621826</t>
+    <t xml:space="preserve">6.37468242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42901182174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4380669593811</t>
   </si>
   <si>
     <t xml:space="preserve">6.23885774612427</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20263814926147</t>
+    <t xml:space="preserve">6.20263767242432</t>
   </si>
   <si>
     <t xml:space="preserve">6.18452835083008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1754732131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10303354263306</t>
+    <t xml:space="preserve">6.17547369003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1030330657959</t>
   </si>
   <si>
     <t xml:space="preserve">6.08492374420166</t>
@@ -2606,28 +2603,28 @@
     <t xml:space="preserve">6.06681346893311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03964900970459</t>
+    <t xml:space="preserve">6.03964948654175</t>
   </si>
   <si>
     <t xml:space="preserve">6.03059434890747</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35657262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59200048446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4561767578125</t>
+    <t xml:space="preserve">6.35657215118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59200096130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45617628097534</t>
   </si>
   <si>
     <t xml:space="preserve">6.40184736251831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32940673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16641807556152</t>
+    <t xml:space="preserve">6.32940721511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16641759872437</t>
   </si>
   <si>
     <t xml:space="preserve">6.50145101547241</t>
@@ -2636,7 +2633,7 @@
     <t xml:space="preserve">6.24791288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33846235275269</t>
+    <t xml:space="preserve">6.33846282958984</t>
   </si>
   <si>
     <t xml:space="preserve">6.30224275588989</t>
@@ -2645,7 +2642,7 @@
     <t xml:space="preserve">6.39279174804688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61011123657227</t>
+    <t xml:space="preserve">6.61011075973511</t>
   </si>
   <si>
     <t xml:space="preserve">6.80026483535767</t>
@@ -2654,13 +2651,13 @@
     <t xml:space="preserve">7.15340757369995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58804559707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69670343399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75103425979614</t>
+    <t xml:space="preserve">7.58804512023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69670391082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7510347366333</t>
   </si>
   <si>
     <t xml:space="preserve">7.78725433349609</t>
@@ -2669,22 +2666,22 @@
     <t xml:space="preserve">7.84158325195312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67859411239624</t>
+    <t xml:space="preserve">7.67859363555908</t>
   </si>
   <si>
     <t xml:space="preserve">7.46127605438232</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45222043991089</t>
+    <t xml:space="preserve">7.45221996307373</t>
   </si>
   <si>
     <t xml:space="preserve">7.32545137405396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44316577911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28017663955688</t>
+    <t xml:space="preserve">7.44316625595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28017711639404</t>
   </si>
   <si>
     <t xml:space="preserve">7.18962717056274</t>
@@ -2708,10 +2705,10 @@
     <t xml:space="preserve">7.73292398452759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80536413192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66048431396484</t>
+    <t xml:space="preserve">7.80536317825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.660484790802</t>
   </si>
   <si>
     <t xml:space="preserve">7.60615491867065</t>
@@ -2729,19 +2726,19 @@
     <t xml:space="preserve">7.92307710647583</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09512233734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35771465301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25811004638672</t>
+    <t xml:space="preserve">8.09512138366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35771369934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25811100006104</t>
   </si>
   <si>
     <t xml:space="preserve">8.15850639343262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3396053314209</t>
+    <t xml:space="preserve">8.33960628509521</t>
   </si>
   <si>
     <t xml:space="preserve">8.36676979064941</t>
@@ -2765,19 +2762,19 @@
     <t xml:space="preserve">8.24000072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30338668823242</t>
+    <t xml:space="preserve">8.30338573455811</t>
   </si>
   <si>
     <t xml:space="preserve">8.2309455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3124418258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55692291259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40298938751221</t>
+    <t xml:space="preserve">8.31244087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55692386627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40299034118652</t>
   </si>
   <si>
     <t xml:space="preserve">8.61125469207764</t>
@@ -2798,16 +2795,16 @@
     <t xml:space="preserve">8.59314346313477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63882446289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77667903900146</t>
+    <t xml:space="preserve">8.63882350921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77667808532715</t>
   </si>
   <si>
     <t xml:space="preserve">8.60206317901611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58368396759033</t>
+    <t xml:space="preserve">8.58368301391602</t>
   </si>
   <si>
     <t xml:space="preserve">8.53773212432861</t>
@@ -2819,13 +2816,16 @@
     <t xml:space="preserve">8.48258972167969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59287452697754</t>
+    <t xml:space="preserve">8.59287357330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61125373840332</t>
   </si>
   <si>
     <t xml:space="preserve">8.79505825042725</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93291282653809</t>
+    <t xml:space="preserve">8.93291187286377</t>
   </si>
   <si>
     <t xml:space="preserve">8.83181953430176</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">8.64801502227783</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67558479309082</t>
+    <t xml:space="preserve">8.67558574676514</t>
   </si>
   <si>
     <t xml:space="preserve">8.68477535247803</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">8.70315647125244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62963485717773</t>
+    <t xml:space="preserve">8.62963581085205</t>
   </si>
   <si>
     <t xml:space="preserve">8.4366397857666</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">8.27121543884277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31716537475586</t>
+    <t xml:space="preserve">8.31716632843018</t>
   </si>
   <si>
     <t xml:space="preserve">8.24364471435547</t>
@@ -2870,13 +2870,13 @@
     <t xml:space="preserve">8.20688247680664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21607398986816</t>
+    <t xml:space="preserve">8.21607303619385</t>
   </si>
   <si>
     <t xml:space="preserve">8.11498069763184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16093254089355</t>
+    <t xml:space="preserve">8.16093158721924</t>
   </si>
   <si>
     <t xml:space="preserve">7.90360593795776</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">7.94036626815796</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99550724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89441585540771</t>
+    <t xml:space="preserve">7.99550819396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8944149017334</t>
   </si>
   <si>
     <t xml:space="preserve">8.15174102783203</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">8.07821941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33554553985596</t>
+    <t xml:space="preserve">8.33554649353027</t>
   </si>
   <si>
     <t xml:space="preserve">8.46420955657959</t>
@@ -2909,28 +2909,28 @@
     <t xml:space="preserve">8.32635688781738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38149738311768</t>
+    <t xml:space="preserve">8.38149833679199</t>
   </si>
   <si>
     <t xml:space="preserve">8.12417125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75656127929688</t>
+    <t xml:space="preserve">7.75656032562256</t>
   </si>
   <si>
     <t xml:space="preserve">8.23445415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40906810760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28959560394287</t>
+    <t xml:space="preserve">8.40906715393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28959655761719</t>
   </si>
   <si>
     <t xml:space="preserve">8.65720462799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55611228942871</t>
+    <t xml:space="preserve">8.55611324310303</t>
   </si>
   <si>
     <t xml:space="preserve">8.51935195922852</t>
@@ -2945,10 +2945,10 @@
     <t xml:space="preserve">8.80424880981445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39987945556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4734001159668</t>
+    <t xml:space="preserve">8.39987850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47340106964111</t>
   </si>
   <si>
     <t xml:space="preserve">8.81343936920166</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">8.95129203796387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72153663635254</t>
+    <t xml:space="preserve">8.72153759002686</t>
   </si>
   <si>
     <t xml:space="preserve">8.66639614105225</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">8.36311721801758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19769287109375</t>
+    <t xml:space="preserve">8.19769382476807</t>
   </si>
   <si>
     <t xml:space="preserve">8.08741092681885</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">8.14255142211914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17931175231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04145812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71980047225952</t>
+    <t xml:space="preserve">8.17931270599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04145908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71979999542236</t>
   </si>
   <si>
     <t xml:space="preserve">7.78413200378418</t>
@@ -2993,19 +2993,19 @@
     <t xml:space="preserve">7.72899103164673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70142078399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81170225143433</t>
+    <t xml:space="preserve">7.70142030715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81170320510864</t>
   </si>
   <si>
     <t xml:space="preserve">7.83008337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8760347366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92198610305786</t>
+    <t xml:space="preserve">7.87603378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92198514938354</t>
   </si>
   <si>
     <t xml:space="preserve">7.86684465408325</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">8.09660053253174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39068698883057</t>
+    <t xml:space="preserve">8.39068794250488</t>
   </si>
   <si>
     <t xml:space="preserve">8.35392665863037</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">8.5469217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34473705291748</t>
+    <t xml:space="preserve">8.34473609924316</t>
   </si>
   <si>
     <t xml:space="preserve">8.18850231170654</t>
@@ -3044,10 +3044,10 @@
     <t xml:space="preserve">7.52680492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48085451126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5176157951355</t>
+    <t xml:space="preserve">7.48085498809814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51761531829834</t>
   </si>
   <si>
     <t xml:space="preserve">7.6095175743103</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">7.80251216888428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61870765686035</t>
+    <t xml:space="preserve">7.61870813369751</t>
   </si>
   <si>
     <t xml:space="preserve">7.54518604278564</t>
@@ -3095,31 +3095,31 @@
     <t xml:space="preserve">7.77494192123413</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68303871154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67384910583496</t>
+    <t xml:space="preserve">7.68303918838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67384958267212</t>
   </si>
   <si>
     <t xml:space="preserve">7.46247386932373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53599548339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60032796859741</t>
+    <t xml:space="preserve">7.5359959602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60032749176025</t>
   </si>
   <si>
     <t xml:space="preserve">7.10405492782593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06729412078857</t>
+    <t xml:space="preserve">7.06729364395142</t>
   </si>
   <si>
     <t xml:space="preserve">7.16838645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03053283691406</t>
+    <t xml:space="preserve">7.03053331375122</t>
   </si>
   <si>
     <t xml:space="preserve">7.15000629425049</t>
@@ -3140,16 +3140,16 @@
     <t xml:space="preserve">7.03972291946411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42571306228638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37057209014893</t>
+    <t xml:space="preserve">7.42571258544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37057161331177</t>
   </si>
   <si>
     <t xml:space="preserve">7.17757654190063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2878589630127</t>
+    <t xml:space="preserve">7.28785943984985</t>
   </si>
   <si>
     <t xml:space="preserve">7.34300088882446</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">6.9386305809021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87429809570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80077695846558</t>
+    <t xml:space="preserve">6.87429857254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80077648162842</t>
   </si>
   <si>
     <t xml:space="preserve">6.48830842971802</t>
@@ -3185,10 +3185,10 @@
     <t xml:space="preserve">6.25855255126953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97365522384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95527505874634</t>
+    <t xml:space="preserve">5.97365570068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95527458190918</t>
   </si>
   <si>
     <t xml:space="preserve">6.12988948822021</t>
@@ -3197,19 +3197,19 @@
     <t xml:space="preserve">6.4055962562561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21260166168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26774263381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47911834716797</t>
+    <t xml:space="preserve">6.21260213851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26774311065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47911882400513</t>
   </si>
   <si>
     <t xml:space="preserve">6.3596453666687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59859085083008</t>
+    <t xml:space="preserve">6.59859132766724</t>
   </si>
   <si>
     <t xml:space="preserve">6.51587915420532</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">6.30450391769409</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4239764213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29531383514404</t>
+    <t xml:space="preserve">6.42397689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29531335830688</t>
   </si>
   <si>
     <t xml:space="preserve">5.96446514129639</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">6.03798723220825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01041603088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05636787414551</t>
+    <t xml:space="preserve">6.01041650772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05636739730835</t>
   </si>
   <si>
     <t xml:space="preserve">6.00122594833374</t>
@@ -3275,10 +3275,10 @@
     <t xml:space="preserve">6.18503093719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10231876373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0655574798584</t>
+    <t xml:space="preserve">6.10231828689575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06555795669556</t>
   </si>
   <si>
     <t xml:space="preserve">6.13907957077026</t>
@@ -3290,16 +3290,16 @@
     <t xml:space="preserve">6.08393812179565</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0931282043457</t>
+    <t xml:space="preserve">6.09312868118286</t>
   </si>
   <si>
     <t xml:space="preserve">6.07474803924561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20341157913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19422101974487</t>
+    <t xml:space="preserve">6.20341110229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19422054290771</t>
   </si>
   <si>
     <t xml:space="preserve">6.15745973587036</t>
@@ -4275,6 +4275,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.94999980926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84000015258789</t>
   </si>
 </sst>
 </file>
@@ -27254,7 +27257,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G871" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27280,7 +27283,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G872" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27306,7 +27309,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27332,7 +27335,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27358,7 +27361,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G875" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27384,7 +27387,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G876" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27410,7 +27413,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27436,7 +27439,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G878" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27462,7 +27465,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G879" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27488,7 +27491,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27514,7 +27517,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G881" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27540,7 +27543,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G882" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27566,7 +27569,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G883" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27592,7 +27595,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G884" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27618,7 +27621,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G885" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27644,7 +27647,7 @@
         <v>6.25</v>
       </c>
       <c r="G886" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27670,7 +27673,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G887" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27696,7 +27699,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G888" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27722,7 +27725,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27748,7 +27751,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G890" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27774,7 +27777,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G891" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27800,7 +27803,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G892" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27826,7 +27829,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G893" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27852,7 +27855,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G894" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27878,7 +27881,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G895" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27904,7 +27907,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G896" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27930,7 +27933,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G897" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27956,7 +27959,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G898" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27982,7 +27985,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G899" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28008,7 +28011,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G900" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28034,7 +28037,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G901" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28060,7 +28063,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G902" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28086,7 +28089,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G903" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28112,7 +28115,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G904" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28138,7 +28141,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G905" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28164,7 +28167,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28190,7 +28193,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G907" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28216,7 +28219,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G908" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28242,7 +28245,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G909" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28268,7 +28271,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G910" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28294,7 +28297,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G911" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28320,7 +28323,7 @@
         <v>6.25</v>
       </c>
       <c r="G912" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28346,7 +28349,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G913" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28372,7 +28375,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28398,7 +28401,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G915" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28424,7 +28427,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G916" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28450,7 +28453,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G917" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28502,7 +28505,7 @@
         <v>6</v>
       </c>
       <c r="G919" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28528,7 +28531,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G920" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28554,7 +28557,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28580,7 +28583,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G922" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28606,7 +28609,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G923" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28632,7 +28635,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G924" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28684,7 +28687,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G926" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28736,7 +28739,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G928" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28762,7 +28765,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G929" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28788,7 +28791,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28814,7 +28817,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G931" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28866,7 +28869,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G933" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28918,7 +28921,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28944,7 +28947,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G936" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28970,7 +28973,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G937" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28996,7 +28999,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G938" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29022,7 +29025,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29048,7 +29051,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G940" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29074,7 +29077,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29100,7 +29103,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29126,7 +29129,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G943" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29152,7 +29155,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G944" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29178,7 +29181,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G945" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29204,7 +29207,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G946" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29230,7 +29233,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G947" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29256,7 +29259,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G948" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29282,7 +29285,7 @@
         <v>6</v>
       </c>
       <c r="G949" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29308,7 +29311,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29334,7 +29337,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G951" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29360,7 +29363,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G952" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29386,7 +29389,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G953" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29412,7 +29415,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G954" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29464,7 +29467,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G956" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29490,7 +29493,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29516,7 +29519,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G958" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29542,7 +29545,7 @@
         <v>5.82299995422363</v>
       </c>
       <c r="G959" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29568,7 +29571,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G960" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29594,7 +29597,7 @@
         <v>5.9539999961853</v>
       </c>
       <c r="G961" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29620,7 +29623,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G962" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29646,7 +29649,7 @@
         <v>6.01900005340576</v>
       </c>
       <c r="G963" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29672,7 +29675,7 @@
         <v>6</v>
       </c>
       <c r="G964" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29698,7 +29701,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G965" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29724,7 +29727,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G966" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29750,7 +29753,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G967" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29776,7 +29779,7 @@
         <v>6.17700004577637</v>
       </c>
       <c r="G968" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29802,7 +29805,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G969" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29828,7 +29831,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G970" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29854,7 +29857,7 @@
         <v>6.13100004196167</v>
       </c>
       <c r="G971" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29880,7 +29883,7 @@
         <v>6.08699989318848</v>
       </c>
       <c r="G972" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29906,7 +29909,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G973" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29932,7 +29935,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G974" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29958,7 +29961,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G975" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29984,7 +29987,7 @@
         <v>6.0310001373291</v>
       </c>
       <c r="G976" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30010,7 +30013,7 @@
         <v>6.17399978637695</v>
       </c>
       <c r="G977" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30036,7 +30039,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G978" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30062,7 +30065,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G979" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30088,7 +30091,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G980" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30114,7 +30117,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G981" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30140,7 +30143,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G982" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30166,7 +30169,7 @@
         <v>6.37599992752075</v>
       </c>
       <c r="G983" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30192,7 +30195,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G984" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30218,7 +30221,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G985" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30244,7 +30247,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G986" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30270,7 +30273,7 @@
         <v>6.37400007247925</v>
       </c>
       <c r="G987" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30296,7 +30299,7 @@
         <v>6.31199979782104</v>
       </c>
       <c r="G988" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30322,7 +30325,7 @@
         <v>6.26599979400635</v>
       </c>
       <c r="G989" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30348,7 +30351,7 @@
         <v>6.31799983978271</v>
       </c>
       <c r="G990" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30374,7 +30377,7 @@
         <v>6.29099988937378</v>
       </c>
       <c r="G991" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30400,7 +30403,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G992" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30426,7 +30429,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G993" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30452,7 +30455,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G994" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30478,7 +30481,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G995" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30504,7 +30507,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G996" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30530,7 +30533,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G997" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30556,7 +30559,7 @@
         <v>6.86899995803833</v>
       </c>
       <c r="G998" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30582,7 +30585,7 @@
         <v>6.66699981689453</v>
       </c>
       <c r="G999" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30608,7 +30611,7 @@
         <v>6.68200016021729</v>
       </c>
       <c r="G1000" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30634,7 +30637,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G1001" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30660,7 +30663,7 @@
         <v>6.63399982452393</v>
       </c>
       <c r="G1002" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30686,7 +30689,7 @@
         <v>6.63199996948242</v>
       </c>
       <c r="G1003" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30712,7 +30715,7 @@
         <v>6.71400022506714</v>
       </c>
       <c r="G1004" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30738,7 +30741,7 @@
         <v>6.82399988174438</v>
       </c>
       <c r="G1005" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30764,7 +30767,7 @@
         <v>6.85599994659424</v>
       </c>
       <c r="G1006" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30790,7 +30793,7 @@
         <v>6.86499977111816</v>
       </c>
       <c r="G1007" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30816,7 +30819,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1008" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30842,7 +30845,7 @@
         <v>6.84800004959106</v>
       </c>
       <c r="G1009" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30868,7 +30871,7 @@
         <v>6.76399993896484</v>
       </c>
       <c r="G1010" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30894,7 +30897,7 @@
         <v>6.76700019836426</v>
       </c>
       <c r="G1011" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30920,7 +30923,7 @@
         <v>6.56400012969971</v>
       </c>
       <c r="G1012" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30946,7 +30949,7 @@
         <v>6.62400007247925</v>
       </c>
       <c r="G1013" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30972,7 +30975,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1014" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -30998,7 +31001,7 @@
         <v>6.72399997711182</v>
       </c>
       <c r="G1015" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31024,7 +31027,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G1016" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31050,7 +31053,7 @@
         <v>6.59299993515015</v>
       </c>
       <c r="G1017" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31076,7 +31079,7 @@
         <v>6.44199991226196</v>
       </c>
       <c r="G1018" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31102,7 +31105,7 @@
         <v>6.65100002288818</v>
       </c>
       <c r="G1019" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31128,7 +31131,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1020" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31154,7 +31157,7 @@
         <v>6.6560001373291</v>
       </c>
       <c r="G1021" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31180,7 +31183,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G1022" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31206,7 +31209,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1023" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31232,7 +31235,7 @@
         <v>6.58400011062622</v>
       </c>
       <c r="G1024" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31258,7 +31261,7 @@
         <v>6.57800006866455</v>
       </c>
       <c r="G1025" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31284,7 +31287,7 @@
         <v>6.50400018692017</v>
       </c>
       <c r="G1026" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31310,7 +31313,7 @@
         <v>6.65500020980835</v>
       </c>
       <c r="G1027" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31336,7 +31339,7 @@
         <v>6.53800010681152</v>
       </c>
       <c r="G1028" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31362,7 +31365,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1029" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31388,7 +31391,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G1030" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31414,7 +31417,7 @@
         <v>6.5</v>
       </c>
       <c r="G1031" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31440,7 +31443,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1032" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31466,7 +31469,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G1033" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31492,7 +31495,7 @@
         <v>6.5</v>
       </c>
       <c r="G1034" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31518,7 +31521,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1035" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31544,7 +31547,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1036" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31570,7 +31573,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1037" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31596,7 +31599,7 @@
         <v>6.45300006866455</v>
       </c>
       <c r="G1038" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31622,7 +31625,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G1039" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31648,7 +31651,7 @@
         <v>6.61600017547607</v>
       </c>
       <c r="G1040" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31674,7 +31677,7 @@
         <v>6.48799991607666</v>
       </c>
       <c r="G1041" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31700,7 +31703,7 @@
         <v>6.47900009155273</v>
       </c>
       <c r="G1042" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31726,7 +31729,7 @@
         <v>6.53200006484985</v>
       </c>
       <c r="G1043" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31752,7 +31755,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G1044" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31778,7 +31781,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1045" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31804,7 +31807,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1046" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31830,7 +31833,7 @@
         <v>6.74900007247925</v>
       </c>
       <c r="G1047" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31856,7 +31859,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1048" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31882,7 +31885,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1049" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31908,7 +31911,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31934,7 +31937,7 @@
         <v>6.60300016403198</v>
       </c>
       <c r="G1051" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31960,7 +31963,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1052" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31986,7 +31989,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G1053" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32012,7 +32015,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G1054" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32038,7 +32041,7 @@
         <v>6.19600009918213</v>
       </c>
       <c r="G1055" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32064,7 +32067,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G1056" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32090,7 +32093,7 @@
         <v>5.82399988174438</v>
       </c>
       <c r="G1057" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32142,7 +32145,7 @@
         <v>5.95599985122681</v>
       </c>
       <c r="G1059" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32168,7 +32171,7 @@
         <v>5.98600006103516</v>
       </c>
       <c r="G1060" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32194,7 +32197,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1061" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32220,7 +32223,7 @@
         <v>5.54199981689453</v>
       </c>
       <c r="G1062" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32246,7 +32249,7 @@
         <v>4.90350008010864</v>
       </c>
       <c r="G1063" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32272,7 +32275,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G1064" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32298,7 +32301,7 @@
         <v>4.97700023651123</v>
       </c>
       <c r="G1065" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32324,7 +32327,7 @@
         <v>4.55849981307983</v>
       </c>
       <c r="G1066" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32350,7 +32353,7 @@
         <v>4.75</v>
       </c>
       <c r="G1067" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32376,7 +32379,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1068" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32402,7 +32405,7 @@
         <v>4.75</v>
       </c>
       <c r="G1069" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32428,7 +32431,7 @@
         <v>4.36149978637695</v>
       </c>
       <c r="G1070" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32454,7 +32457,7 @@
         <v>4.5</v>
       </c>
       <c r="G1071" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32480,7 +32483,7 @@
         <v>4.82499980926514</v>
       </c>
       <c r="G1072" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32506,7 +32509,7 @@
         <v>4.41849994659424</v>
       </c>
       <c r="G1073" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32532,7 +32535,7 @@
         <v>4.59299993515015</v>
       </c>
       <c r="G1074" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32558,7 +32561,7 @@
         <v>4.70300006866455</v>
       </c>
       <c r="G1075" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32584,7 +32587,7 @@
         <v>4.93849992752075</v>
       </c>
       <c r="G1076" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32610,7 +32613,7 @@
         <v>4.75799989700317</v>
       </c>
       <c r="G1077" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32636,7 +32639,7 @@
         <v>4.6875</v>
       </c>
       <c r="G1078" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32662,7 +32665,7 @@
         <v>4.91900014877319</v>
       </c>
       <c r="G1079" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32688,7 +32691,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G1080" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32714,7 +32717,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1081" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32740,7 +32743,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G1082" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32766,7 +32769,7 @@
         <v>5</v>
       </c>
       <c r="G1083" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32792,7 +32795,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1084" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32818,7 +32821,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32844,7 +32847,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1086" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32870,7 +32873,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1087" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32896,7 +32899,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1088" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32922,7 +32925,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1089" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32948,7 +32951,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1090" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32974,7 +32977,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33000,7 +33003,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1092" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33026,7 +33029,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1093" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33052,7 +33055,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33078,7 +33081,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1095" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33104,7 +33107,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33130,7 +33133,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33156,7 +33159,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G1098" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33182,7 +33185,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1099" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33208,7 +33211,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33234,7 +33237,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1101" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33260,7 +33263,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1102" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33286,7 +33289,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1103" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33312,7 +33315,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1104" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33338,7 +33341,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1105" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33364,7 +33367,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1106" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33390,7 +33393,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1107" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33416,7 +33419,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1108" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33442,7 +33445,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1109" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33468,7 +33471,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1110" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33494,7 +33497,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1111" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33520,7 +33523,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1112" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33546,7 +33549,7 @@
         <v>5.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33572,7 +33575,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1114" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33598,7 +33601,7 @@
         <v>5.75</v>
       </c>
       <c r="G1115" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33624,7 +33627,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1116" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33650,7 +33653,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1117" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33676,7 +33679,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33702,7 +33705,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1119" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33728,7 +33731,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1120" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33754,7 +33757,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1121" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33780,7 +33783,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1122" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33806,7 +33809,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1123" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33832,7 +33835,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1124" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33858,7 +33861,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G1125" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33884,7 +33887,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1126" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33910,7 +33913,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1127" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33936,7 +33939,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1128" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33962,7 +33965,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1129" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -33988,7 +33991,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1130" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34014,7 +34017,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1131" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34040,7 +34043,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1132" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34066,7 +34069,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34092,7 +34095,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G1134" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34118,7 +34121,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1135" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34144,7 +34147,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1136" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34170,7 +34173,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1137" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34196,7 +34199,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1138" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34222,7 +34225,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1139" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34248,7 +34251,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1140" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34274,7 +34277,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1141" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34300,7 +34303,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G1142" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34326,7 +34329,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1143" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34352,7 +34355,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34378,7 +34381,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1145" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34404,7 +34407,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1146" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34430,7 +34433,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1147" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34456,7 +34459,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1148" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34482,7 +34485,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1149" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34508,7 +34511,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1150" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34534,7 +34537,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1151" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34560,7 +34563,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1152" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34586,7 +34589,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34612,7 +34615,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1154" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34638,7 +34641,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34664,7 +34667,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1156" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34690,7 +34693,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1157" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34716,7 +34719,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1158" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34742,7 +34745,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1159" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34768,7 +34771,7 @@
         <v>5.75</v>
       </c>
       <c r="G1160" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34794,7 +34797,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1161" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34820,7 +34823,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34846,7 +34849,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34872,7 +34875,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1164" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34898,7 +34901,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1165" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34924,7 +34927,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1166" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34950,7 +34953,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1167" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34976,7 +34979,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1168" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35002,7 +35005,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1169" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35028,7 +35031,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1170" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35054,7 +35057,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1171" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35080,7 +35083,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35106,7 +35109,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1173" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35132,7 +35135,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1174" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35158,7 +35161,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1175" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35184,7 +35187,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1176" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35210,7 +35213,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1177" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35236,7 +35239,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35262,7 +35265,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1179" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35288,7 +35291,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1180" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35314,7 +35317,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1181" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35340,7 +35343,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1182" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35366,7 +35369,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G1183" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35392,7 +35395,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1184" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35418,7 +35421,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1185" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35444,7 +35447,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1186" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35470,7 +35473,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1187" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35496,7 +35499,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1188" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35522,7 +35525,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35548,7 +35551,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1190" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35574,7 +35577,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1191" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35600,7 +35603,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1192" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35626,7 +35629,7 @@
         <v>6</v>
       </c>
       <c r="G1193" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35652,7 +35655,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1194" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35678,7 +35681,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35704,7 +35707,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35730,7 +35733,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1197" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35756,7 +35759,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1198" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35782,7 +35785,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1199" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35808,7 +35811,7 @@
         <v>6</v>
       </c>
       <c r="G1200" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35834,7 +35837,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35860,7 +35863,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1202" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35886,7 +35889,7 @@
         <v>6</v>
       </c>
       <c r="G1203" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35912,7 +35915,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1204" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35938,7 +35941,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1205" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35964,7 +35967,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1206" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -35990,7 +35993,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1207" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -36016,7 +36019,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1208" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -36042,7 +36045,7 @@
         <v>5.75</v>
       </c>
       <c r="G1209" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -36068,7 +36071,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1210" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -36094,7 +36097,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1211" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -36120,7 +36123,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1212" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -36146,7 +36149,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1213" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -36172,7 +36175,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1214" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -36198,7 +36201,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G1215" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -36224,7 +36227,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -36250,7 +36253,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1217" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -36276,7 +36279,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1218" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -36302,7 +36305,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1219" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36328,7 +36331,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1220" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36354,7 +36357,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1221" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36380,7 +36383,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36406,7 +36409,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1223" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36432,7 +36435,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1224" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36458,7 +36461,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1225" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36484,7 +36487,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1226" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36510,7 +36513,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1227" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36536,7 +36539,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1228" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36562,7 +36565,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1229" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36588,7 +36591,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1230" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36614,7 +36617,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1231" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36640,7 +36643,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1232" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36666,7 +36669,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1233" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36692,7 +36695,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1234" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36718,7 +36721,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1235" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36744,7 +36747,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36770,7 +36773,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1237" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36796,7 +36799,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1238" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36822,7 +36825,7 @@
         <v>6.75</v>
       </c>
       <c r="G1239" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36848,7 +36851,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1240" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36874,7 +36877,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1241" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36900,7 +36903,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1242" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36926,7 +36929,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1243" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36952,7 +36955,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1244" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -36978,7 +36981,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1245" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -37004,7 +37007,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1246" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -37030,7 +37033,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -37056,7 +37059,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1248" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37082,7 +37085,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1249" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -37108,7 +37111,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1250" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -37134,7 +37137,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1251" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37160,7 +37163,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1252" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -37186,7 +37189,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1253" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -37212,7 +37215,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37238,7 +37241,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1255" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -37264,7 +37267,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1256" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -37290,7 +37293,7 @@
         <v>6.75</v>
       </c>
       <c r="G1257" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -37316,7 +37319,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1258" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37342,7 +37345,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1259" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37368,7 +37371,7 @@
         <v>6.75</v>
       </c>
       <c r="G1260" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37394,7 +37397,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1261" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37420,7 +37423,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1262" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37446,7 +37449,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1263" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37472,7 +37475,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37498,7 +37501,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1265" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37524,7 +37527,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1266" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37550,7 +37553,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1267" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37576,7 +37579,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1268" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37602,7 +37605,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1269" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37628,7 +37631,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1270" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37654,7 +37657,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1271" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37680,7 +37683,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37706,7 +37709,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1273" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37732,7 +37735,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1274" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37758,7 +37761,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1275" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37784,7 +37787,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37810,7 +37813,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1277" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37836,7 +37839,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G1278" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37862,7 +37865,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1279" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37888,7 +37891,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1280" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37914,7 +37917,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1281" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37940,7 +37943,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1282" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37966,7 +37969,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1283" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -37992,7 +37995,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G1284" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -38018,7 +38021,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1285" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -38044,7 +38047,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1286" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38070,7 +38073,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G1287" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -38096,7 +38099,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1288" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38122,7 +38125,7 @@
         <v>7</v>
       </c>
       <c r="G1289" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38148,7 +38151,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1290" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -38174,7 +38177,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1291" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -38200,7 +38203,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1292" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -38226,7 +38229,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1293" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -38252,7 +38255,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1294" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -38278,7 +38281,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1295" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -38304,7 +38307,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1296" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38330,7 +38333,7 @@
         <v>8.5</v>
       </c>
       <c r="G1297" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38356,7 +38359,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1298" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38382,7 +38385,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1299" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38408,7 +38411,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1300" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38434,7 +38437,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1301" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38460,7 +38463,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1302" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38486,7 +38489,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1303" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38512,7 +38515,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1304" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38538,7 +38541,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1305" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38564,7 +38567,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1306" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38590,7 +38593,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1307" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38616,7 +38619,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1308" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38642,7 +38645,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1309" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38668,7 +38671,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1310" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38694,7 +38697,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1311" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38720,7 +38723,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1312" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38746,7 +38749,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1313" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38772,7 +38775,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1314" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38798,7 +38801,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1315" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38824,7 +38827,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1316" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38850,7 +38853,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1317" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38876,7 +38879,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1318" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38902,7 +38905,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1319" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38928,7 +38931,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1320" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38954,7 +38957,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1321" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -38980,7 +38983,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1322" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -39006,7 +39009,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -39032,7 +39035,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1324" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -39058,7 +39061,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1325" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -39084,7 +39087,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1326" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -39110,7 +39113,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1327" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -39136,7 +39139,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1328" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -39162,7 +39165,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1329" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -39188,7 +39191,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1330" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -39214,7 +39217,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1331" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -39240,7 +39243,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1332" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -39266,7 +39269,7 @@
         <v>8.75</v>
       </c>
       <c r="G1333" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -39292,7 +39295,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1334" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -39318,7 +39321,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1335" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -39344,7 +39347,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39370,7 +39373,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1337" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39396,7 +39399,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1338" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39422,7 +39425,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1339" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39448,7 +39451,7 @@
         <v>9</v>
       </c>
       <c r="G1340" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39474,7 +39477,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1341" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39500,7 +39503,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G1342" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39526,7 +39529,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G1343" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39552,7 +39555,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1344" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39578,7 +39581,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G1345" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39604,7 +39607,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1346" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39630,7 +39633,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1347" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39656,7 +39659,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1348" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39682,7 +39685,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G1349" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39708,7 +39711,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1350" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39734,7 +39737,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1351" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39760,7 +39763,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1352" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39786,7 +39789,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1353" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39812,7 +39815,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1354" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39838,7 +39841,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1355" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39864,7 +39867,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1356" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39890,7 +39893,7 @@
         <v>9.5</v>
       </c>
       <c r="G1357" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39916,7 +39919,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1358" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39942,7 +39945,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G1359" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -39968,7 +39971,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1360" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -39994,7 +39997,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1361" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -40020,7 +40023,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1362" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -40046,7 +40049,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1363" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -40072,7 +40075,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1364" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -40098,7 +40101,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1365" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -40124,7 +40127,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1366" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -40150,7 +40153,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1367" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -40176,7 +40179,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1368" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -40202,7 +40205,7 @@
         <v>9.5</v>
       </c>
       <c r="G1369" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -40228,7 +40231,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1370" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -40254,7 +40257,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1371" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -40280,7 +40283,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1372" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -40306,7 +40309,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1373" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -40332,7 +40335,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1374" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -40644,7 +40647,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1386" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -41476,7 +41479,7 @@
         <v>9.5</v>
       </c>
       <c r="G1418" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41658,7 +41661,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1425" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41762,7 +41765,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1429" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41788,7 +41791,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1430" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41918,7 +41921,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1435" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -42152,7 +42155,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1444" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -60516,7 +60519,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6493402778</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>69256</v>
@@ -60537,6 +60540,32 @@
         <v>1420</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6494560185</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>72349</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>10.0799999237061</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>9.76000022888184</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>10.0799999237061</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>9.84000015258789</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1431">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79800653457642</t>
+    <t xml:space="preserve">4.79800605773926</t>
   </si>
   <si>
     <t xml:space="preserve">CEM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77356767654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64730453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806253433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41514348983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30517148971558</t>
+    <t xml:space="preserve">4.77356863021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64730358123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806301116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41514301300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30517244338989</t>
   </si>
   <si>
     <t xml:space="preserve">4.41106986999512</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37441349029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37848615646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14225196838379</t>
+    <t xml:space="preserve">4.37441301345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37848663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14225101470947</t>
   </si>
   <si>
     <t xml:space="preserve">4.01435899734497</t>
@@ -77,58 +77,58 @@
     <t xml:space="preserve">4.05346012115479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74879884719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91171956062317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02739238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95733666419983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99480819702148</t>
+    <t xml:space="preserve">3.74879908561707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91171932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02739286422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95733690261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99480867385864</t>
   </si>
   <si>
     <t xml:space="preserve">3.95570731163025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82048320770264</t>
+    <t xml:space="preserve">3.82048368453979</t>
   </si>
   <si>
     <t xml:space="preserve">4.01272964477539</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95081949234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81233716011047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64941740036011</t>
+    <t xml:space="preserve">3.95082068443298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81233763694763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64941787719727</t>
   </si>
   <si>
     <t xml:space="preserve">3.67059707641602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69177627563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41807007789612</t>
+    <t xml:space="preserve">3.69177675247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4180703163147</t>
   </si>
   <si>
     <t xml:space="preserve">3.21279072761536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31543016433716</t>
+    <t xml:space="preserve">3.31543040275574</t>
   </si>
   <si>
     <t xml:space="preserve">3.19324016571045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27307152748108</t>
+    <t xml:space="preserve">3.2730712890625</t>
   </si>
   <si>
     <t xml:space="preserve">3.51093435287476</t>
@@ -137,73 +137,73 @@
     <t xml:space="preserve">3.42947459220886</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54514789581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62497901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41318297386169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45880007743835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4343626499176</t>
+    <t xml:space="preserve">3.54514813423157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62497925758362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41318273544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45880031585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43436217308044</t>
   </si>
   <si>
     <t xml:space="preserve">3.30402612686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35778975486755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47020506858826</t>
+    <t xml:space="preserve">3.35778999328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47020554542542</t>
   </si>
   <si>
     <t xml:space="preserve">3.65756297111511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70643973350525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62660813331604</t>
+    <t xml:space="preserve">3.70643901824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62660884857178</t>
   </si>
   <si>
     <t xml:space="preserve">3.71621465682983</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63149619102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59076595306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795692443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59565353393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62009119987488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82700037956238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68526005744934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82862949371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846109390259</t>
+    <t xml:space="preserve">3.63149571418762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59076571464539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56795787811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59565305709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62009143829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82700061798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8286292552948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846061706543</t>
   </si>
   <si>
     <t xml:space="preserve">3.74391102790833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78138327598572</t>
+    <t xml:space="preserve">3.78138303756714</t>
   </si>
   <si>
     <t xml:space="preserve">3.73087739944458</t>
@@ -212,28 +212,28 @@
     <t xml:space="preserve">3.5875072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64127063751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57936120033264</t>
+    <t xml:space="preserve">3.64127111434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5793616771698</t>
   </si>
   <si>
     <t xml:space="preserve">3.61357498168945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65104627609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52071022987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47835111618042</t>
+    <t xml:space="preserve">3.65104675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5207097530365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47835087776184</t>
   </si>
   <si>
     <t xml:space="preserve">3.44250822067261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67222595214844</t>
+    <t xml:space="preserve">3.67222547531128</t>
   </si>
   <si>
     <t xml:space="preserve">3.55492353439331</t>
@@ -245,46 +245,46 @@
     <t xml:space="preserve">3.66733837127686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85469722747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81885480880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93452763557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396627426147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82374238967896</t>
+    <t xml:space="preserve">3.85469651222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81885457038879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93452787399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396722793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82374215126038</t>
   </si>
   <si>
     <t xml:space="preserve">3.77975344657898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76671934127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75042772293091</t>
+    <t xml:space="preserve">3.76672005653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75042819976807</t>
   </si>
   <si>
     <t xml:space="preserve">3.87261819839478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73902344703674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77486610412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69829344749451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74716949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71458530426025</t>
+    <t xml:space="preserve">3.73902320861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77486658096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69829368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74716925621033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71458625793457</t>
   </si>
   <si>
     <t xml:space="preserve">3.60054159164429</t>
@@ -293,52 +293,52 @@
     <t xml:space="preserve">3.52722692489624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54351925849915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60227465629578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69399905204773</t>
+    <t xml:space="preserve">3.54351902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60227489471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69399881362915</t>
   </si>
   <si>
     <t xml:space="preserve">3.83241963386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83575510978699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95249581336975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96083354949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85243201255798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8290843963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77905249595642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7423632144928</t>
+    <t xml:space="preserve">3.83575558662415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95249557495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96083402633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85243272781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82908487319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77905297279358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74236273765564</t>
   </si>
   <si>
     <t xml:space="preserve">3.66898322105408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65564107894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62729048728943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45384764671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37713241577148</t>
+    <t xml:space="preserve">3.6556408405304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62729024887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45384740829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37713265419006</t>
   </si>
   <si>
     <t xml:space="preserve">3.36379027366638</t>
@@ -353,19 +353,19 @@
     <t xml:space="preserve">3.06693649291992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21703147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09528779983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28707528114319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41882538795471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16866731643677</t>
+    <t xml:space="preserve">3.21703124046326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09528732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28707504272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41882514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16866707801819</t>
   </si>
   <si>
     <t xml:space="preserve">2.88515520095825</t>
@@ -374,25 +374,25 @@
     <t xml:space="preserve">2.87681651115417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89682912826538</t>
+    <t xml:space="preserve">2.89682865142822</t>
   </si>
   <si>
     <t xml:space="preserve">2.99355673789978</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1036262512207</t>
+    <t xml:space="preserve">3.10362601280212</t>
   </si>
   <si>
     <t xml:space="preserve">3.01690483093262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85180044174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81844592094421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82344913482666</t>
+    <t xml:space="preserve">2.8518009185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81844639778137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82344937324524</t>
   </si>
   <si>
     <t xml:space="preserve">2.9051673412323</t>
@@ -413,10 +413,10 @@
     <t xml:space="preserve">3.19535088539124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13698029518127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03358173370361</t>
+    <t xml:space="preserve">3.13698053359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03358221054077</t>
   </si>
   <si>
     <t xml:space="preserve">3.17033529281616</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">3.23871183395386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24371480941772</t>
+    <t xml:space="preserve">3.24371457099915</t>
   </si>
   <si>
     <t xml:space="preserve">3.21869874000549</t>
@@ -440,31 +440,31 @@
     <t xml:space="preserve">3.25205326080322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16032886505127</t>
+    <t xml:space="preserve">3.16032862663269</t>
   </si>
   <si>
     <t xml:space="preserve">3.18367695808411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08528137207031</t>
+    <t xml:space="preserve">3.08528113365173</t>
   </si>
   <si>
     <t xml:space="preserve">3.17867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30208492279053</t>
+    <t xml:space="preserve">3.30208516120911</t>
   </si>
   <si>
     <t xml:space="preserve">3.34544587135315</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38880658149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50387907028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47386026382446</t>
+    <t xml:space="preserve">3.38880681991577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5038788318634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47386002540588</t>
   </si>
   <si>
     <t xml:space="preserve">3.53556537628174</t>
@@ -473,19 +473,19 @@
     <t xml:space="preserve">3.50554656982422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51722073554993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75236988067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71901440620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239439964294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76904654502869</t>
+    <t xml:space="preserve">3.51722049713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75236964225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71901512145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239416122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76904630661011</t>
   </si>
   <si>
     <t xml:space="preserve">3.81907796859741</t>
@@ -494,25 +494,25 @@
     <t xml:space="preserve">3.92914724349976</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8841187953949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89912867546082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87911581993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8174102306366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69566679000854</t>
+    <t xml:space="preserve">3.88411903381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89912819862366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87911534309387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81740975379944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69566655158997</t>
   </si>
   <si>
     <t xml:space="preserve">3.63729667663574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54390406608582</t>
+    <t xml:space="preserve">3.54390382766724</t>
   </si>
   <si>
     <t xml:space="preserve">3.5855975151062</t>
@@ -524,19 +524,19 @@
     <t xml:space="preserve">3.67732214927673</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61561608314514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72068238258362</t>
+    <t xml:space="preserve">3.61561632156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72068190574646</t>
   </si>
   <si>
     <t xml:space="preserve">3.71734714508057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45551538467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55224299430847</t>
+    <t xml:space="preserve">3.45551514625549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55224347114563</t>
   </si>
   <si>
     <t xml:space="preserve">3.52222418785095</t>
@@ -545,22 +545,22 @@
     <t xml:space="preserve">3.50221133232117</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57725834846497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63562870025635</t>
+    <t xml:space="preserve">3.57725858688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63562893867493</t>
   </si>
   <si>
     <t xml:space="preserve">3.62562274932861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63396096229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391049385071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61394858360291</t>
+    <t xml:space="preserve">3.63396048545837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391025543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61394834518433</t>
   </si>
   <si>
     <t xml:space="preserve">3.69733452796936</t>
@@ -569,10 +569,10 @@
     <t xml:space="preserve">3.66231226921082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71401190757751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76237607002258</t>
+    <t xml:space="preserve">3.71401119232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76237559318542</t>
   </si>
   <si>
     <t xml:space="preserve">3.73402428627014</t>
@@ -581,19 +581,19 @@
     <t xml:space="preserve">3.76070785522461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60727787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70233726501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71067595481873</t>
+    <t xml:space="preserve">3.60727763175964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70233774185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71067643165588</t>
   </si>
   <si>
     <t xml:space="preserve">3.50721430778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48553347587585</t>
+    <t xml:space="preserve">3.48553395271301</t>
   </si>
   <si>
     <t xml:space="preserve">3.48720216751099</t>
@@ -602,46 +602,46 @@
     <t xml:space="preserve">3.40214800834656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43883752822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34044241905212</t>
+    <t xml:space="preserve">3.43883800506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3404426574707</t>
   </si>
   <si>
     <t xml:space="preserve">3.28540802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27373385429382</t>
+    <t xml:space="preserve">3.27373361587524</t>
   </si>
   <si>
     <t xml:space="preserve">3.24037909507751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27706933021545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21036005020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17533826828003</t>
+    <t xml:space="preserve">3.2770688533783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21036028862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17533802986145</t>
   </si>
   <si>
     <t xml:space="preserve">3.06526899337769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07694244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01190185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97687959671021</t>
+    <t xml:space="preserve">3.07694292068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01190161705017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97687983512878</t>
   </si>
   <si>
     <t xml:space="preserve">3.0235755443573</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02691125869751</t>
+    <t xml:space="preserve">3.02691149711609</t>
   </si>
   <si>
     <t xml:space="preserve">3.0152370929718</t>
@@ -656,22 +656,22 @@
     <t xml:space="preserve">3.25038576126099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38547086715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29874968528748</t>
+    <t xml:space="preserve">3.38547110557556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2987494468689</t>
   </si>
   <si>
     <t xml:space="preserve">3.5272274017334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55724549293518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52055597305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56892061233521</t>
+    <t xml:space="preserve">3.55724573135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52055644989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56892013549805</t>
   </si>
   <si>
     <t xml:space="preserve">3.64396739006042</t>
@@ -683,61 +683,61 @@
     <t xml:space="preserve">3.68566083908081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75070142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66064405441284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77738499641418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55557799339294</t>
+    <t xml:space="preserve">3.75070190429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77738523483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55557823181152</t>
   </si>
   <si>
     <t xml:space="preserve">3.39881277084351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35211634635925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29374647140503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3354389667511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31209111213684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29541397094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2970814704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32710075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34211039543152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30041718482971</t>
+    <t xml:space="preserve">3.35211658477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29374623298645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33543944358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31209087371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29541373252869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29708170890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3271005153656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34211015701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30041694641113</t>
   </si>
   <si>
     <t xml:space="preserve">4.08091020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12760543823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21099233627319</t>
+    <t xml:space="preserve">4.12760591506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21099185943604</t>
   </si>
   <si>
     <t xml:space="preserve">4.25268507003784</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26102447509766</t>
+    <t xml:space="preserve">4.2610239982605</t>
   </si>
   <si>
     <t xml:space="preserve">4.14428281784058</t>
@@ -746,10 +746,10 @@
     <t xml:space="preserve">4.03588151931763</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27770090103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36942481994629</t>
+    <t xml:space="preserve">4.27770042419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36942529678345</t>
   </si>
   <si>
     <t xml:space="preserve">4.43196535110474</t>
@@ -761,19 +761,19 @@
     <t xml:space="preserve">4.52785873413086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4986743927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50284337997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46115064620972</t>
+    <t xml:space="preserve">4.49867343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50284290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4611496925354</t>
   </si>
   <si>
     <t xml:space="preserve">4.35274791717529</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47782754898071</t>
+    <t xml:space="preserve">4.47782707214355</t>
   </si>
   <si>
     <t xml:space="preserve">4.44864225387573</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">4.47365760803223</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65293788909912</t>
+    <t xml:space="preserve">4.65293741226196</t>
   </si>
   <si>
     <t xml:space="preserve">4.51535081863403</t>
@@ -794,19 +794,19 @@
     <t xml:space="preserve">4.41528797149658</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34024047851562</t>
+    <t xml:space="preserve">4.34024000167847</t>
   </si>
   <si>
     <t xml:space="preserve">4.3360710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38610315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43613386154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32773208618164</t>
+    <t xml:space="preserve">4.3861026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43613433837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3277325630188</t>
   </si>
   <si>
     <t xml:space="preserve">4.33190202713013</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">4.22766971588135</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18597650527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30688571929932</t>
+    <t xml:space="preserve">4.18597602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30688619613647</t>
   </si>
   <si>
     <t xml:space="preserve">4.49450397491455</t>
@@ -830,34 +830,34 @@
     <t xml:space="preserve">4.4528112411499</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36108732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39027166366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36525535583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53619766235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61958312988281</t>
+    <t xml:space="preserve">4.36108684539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39027214050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36525583267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5361967086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61958408355713</t>
   </si>
   <si>
     <t xml:space="preserve">4.60707521438599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61124467849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7738471031189</t>
+    <t xml:space="preserve">4.61124515533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77384757995605</t>
   </si>
   <si>
     <t xml:space="preserve">4.75300121307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80720186233521</t>
+    <t xml:space="preserve">4.80720138549805</t>
   </si>
   <si>
     <t xml:space="preserve">4.82804822921753</t>
@@ -869,37 +869,37 @@
     <t xml:space="preserve">4.90726470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74466228485107</t>
+    <t xml:space="preserve">4.74466276168823</t>
   </si>
   <si>
     <t xml:space="preserve">4.42779541015625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42362642288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34440898895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49153518676758</t>
+    <t xml:space="preserve">4.42362594604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34440946578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49153566360474</t>
   </si>
   <si>
     <t xml:space="preserve">4.53827810287476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50428342819214</t>
+    <t xml:space="preserve">4.5042839050293</t>
   </si>
   <si>
     <t xml:space="preserve">4.46179008483887</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45329093933105</t>
+    <t xml:space="preserve">4.45329141616821</t>
   </si>
   <si>
     <t xml:space="preserve">4.38955163955688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35980606079102</t>
+    <t xml:space="preserve">4.35980653762817</t>
   </si>
   <si>
     <t xml:space="preserve">4.34280920028687</t>
@@ -911,22 +911,22 @@
     <t xml:space="preserve">4.35130786895752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2918176651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4192967414856</t>
+    <t xml:space="preserve">4.29181718826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41929721832275</t>
   </si>
   <si>
     <t xml:space="preserve">4.45754098892212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43204498291016</t>
+    <t xml:space="preserve">4.43204545974731</t>
   </si>
   <si>
     <t xml:space="preserve">4.47878742218018</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38530206680298</t>
+    <t xml:space="preserve">4.38530254364014</t>
   </si>
   <si>
     <t xml:space="preserve">4.5170316696167</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">4.48303699493408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47028875350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55527496337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57227325439453</t>
+    <t xml:space="preserve">4.47028923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55527591705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57227230072021</t>
   </si>
   <si>
     <t xml:space="preserve">4.65725946426392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49578475952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43629360198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78473854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67425632476807</t>
+    <t xml:space="preserve">4.49578380584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4362940788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78473949432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67425584793091</t>
   </si>
   <si>
     <t xml:space="preserve">4.95046234130859</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">5.09918880462646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1586799621582</t>
+    <t xml:space="preserve">5.15867948532104</t>
   </si>
   <si>
     <t xml:space="preserve">5.20967149734497</t>
@@ -983,13 +983,13 @@
     <t xml:space="preserve">5.35839748382568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52412176132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40938854217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40514087677002</t>
+    <t xml:space="preserve">5.52412080764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40938901901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40514039993286</t>
   </si>
   <si>
     <t xml:space="preserve">5.45188236236572</t>
@@ -1001,22 +1001,22 @@
     <t xml:space="preserve">5.33290195465088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39664125442505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4008903503418</t>
+    <t xml:space="preserve">5.39664173126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40089082717896</t>
   </si>
   <si>
     <t xml:space="preserve">5.2649130821228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11618566513062</t>
+    <t xml:space="preserve">5.11618614196777</t>
   </si>
   <si>
     <t xml:space="preserve">5.15442943572998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666835784912</t>
+    <t xml:space="preserve">5.22666788101196</t>
   </si>
   <si>
     <t xml:space="preserve">5.30740547180176</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">5.1756763458252</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13318347930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05669546127319</t>
+    <t xml:space="preserve">5.13318395614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05669498443604</t>
   </si>
   <si>
     <t xml:space="preserve">5.09068965911865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06094455718994</t>
+    <t xml:space="preserve">5.0609450340271</t>
   </si>
   <si>
     <t xml:space="preserve">5.00570344924927</t>
@@ -1046,55 +1046,55 @@
     <t xml:space="preserve">4.98870658874512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00145435333252</t>
+    <t xml:space="preserve">5.00145483016968</t>
   </si>
   <si>
     <t xml:space="preserve">5.05244636535645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04394721984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01420211791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12468528747559</t>
+    <t xml:space="preserve">5.04394769668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01420259475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12468481063843</t>
   </si>
   <si>
     <t xml:space="preserve">5.15018081665039</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21816968917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27766036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33715105056763</t>
+    <t xml:space="preserve">5.21817016601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27765989303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33715152740479</t>
   </si>
   <si>
     <t xml:space="preserve">5.28190994262695</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23516702651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43913555145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37114572525024</t>
+    <t xml:space="preserve">5.23516750335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43913507461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37114524841309</t>
   </si>
   <si>
     <t xml:space="preserve">5.32865190505981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69409418106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80032730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12327575683594</t>
+    <t xml:space="preserve">5.69409370422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80032682418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1232762336731</t>
   </si>
   <si>
     <t xml:space="preserve">5.92355728149414</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">6.19551467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1360239982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28900003433228</t>
+    <t xml:space="preserve">6.13602352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28899955749512</t>
   </si>
   <si>
     <t xml:space="preserve">6.00854396820068</t>
@@ -1115,31 +1115,31 @@
     <t xml:space="preserve">6.05953550338745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08503198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15302133560181</t>
+    <t xml:space="preserve">6.08503150939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15302038192749</t>
   </si>
   <si>
     <t xml:space="preserve">6.11477756500244</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08928155899048</t>
+    <t xml:space="preserve">6.08928108215332</t>
   </si>
   <si>
     <t xml:space="preserve">6.03403997421265</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97879886627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04678773880005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01704216003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02129220962524</t>
+    <t xml:space="preserve">5.97879838943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04678821563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01704263687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0212926864624</t>
   </si>
   <si>
     <t xml:space="preserve">5.99154663085938</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">5.96180152893066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.127525806427</t>
+    <t xml:space="preserve">6.12752532958984</t>
   </si>
   <si>
     <t xml:space="preserve">6.10202932357788</t>
@@ -1160,22 +1160,22 @@
     <t xml:space="preserve">6.21251153945923</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1487717628479</t>
+    <t xml:space="preserve">6.14877223968506</t>
   </si>
   <si>
     <t xml:space="preserve">6.11902618408203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17001819610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19976377487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41647958755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29749774932861</t>
+    <t xml:space="preserve">6.17001867294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19976329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41647911071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29749822616577</t>
   </si>
   <si>
     <t xml:space="preserve">6.32299423217773</t>
@@ -1187,25 +1187,25 @@
     <t xml:space="preserve">6.36973667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33574199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14452171325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22101020812988</t>
+    <t xml:space="preserve">6.33574247360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14452314376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22101068496704</t>
   </si>
   <si>
     <t xml:space="preserve">6.30599689483643</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33149337768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34424066543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26775312423706</t>
+    <t xml:space="preserve">6.33149242401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34424114227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2677526473999</t>
   </si>
   <si>
     <t xml:space="preserve">6.07653331756592</t>
@@ -1214,28 +1214,28 @@
     <t xml:space="preserve">6.06378555297852</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13177490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14027309417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23800802230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18276691436768</t>
+    <t xml:space="preserve">6.13177394866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14027214050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23800754547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18276596069336</t>
   </si>
   <si>
     <t xml:space="preserve">6.16152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27200174331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21676111221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48446798324585</t>
+    <t xml:space="preserve">6.27200222015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21676158905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48446846008301</t>
   </si>
   <si>
     <t xml:space="preserve">6.3484902381897</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">6.40798091888428</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71393203735352</t>
+    <t xml:space="preserve">6.71393156051636</t>
   </si>
   <si>
     <t xml:space="preserve">6.74792671203613</t>
@@ -1256,22 +1256,22 @@
     <t xml:space="preserve">6.63744401931763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62894582748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7904200553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87540626525879</t>
+    <t xml:space="preserve">6.62894630432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79041957855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87540674209595</t>
   </si>
   <si>
     <t xml:space="preserve">6.72243070602417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75642490386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76492404937744</t>
+    <t xml:space="preserve">6.75642442703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76492357254028</t>
   </si>
   <si>
     <t xml:space="preserve">6.84141159057617</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">6.65444135665894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64594268798828</t>
+    <t xml:space="preserve">6.64594316482544</t>
   </si>
   <si>
     <t xml:space="preserve">6.7989182472229</t>
@@ -1289,40 +1289,40 @@
     <t xml:space="preserve">6.6799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57795333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42497730255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35698890686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02554178237915</t>
+    <t xml:space="preserve">6.57795381546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42497777938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35698843002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02554130554199</t>
   </si>
   <si>
     <t xml:space="preserve">6.05103731155396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66294097900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39098358154297</t>
+    <t xml:space="preserve">6.66294002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39098310470581</t>
   </si>
   <si>
     <t xml:space="preserve">6.4929666519165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45897245407104</t>
+    <t xml:space="preserve">6.45897197723389</t>
   </si>
   <si>
     <t xml:space="preserve">6.26350355148315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28050088882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18701505661011</t>
+    <t xml:space="preserve">6.2805004119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18701553344727</t>
   </si>
   <si>
     <t xml:space="preserve">6.06803464889526</t>
@@ -1334,31 +1334,31 @@
     <t xml:space="preserve">6.17851734161377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00004577636719</t>
+    <t xml:space="preserve">6.00004625320435</t>
   </si>
   <si>
     <t xml:space="preserve">5.96605062484741</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93205642700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8385705947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87256574630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88106441497803</t>
+    <t xml:space="preserve">5.93205595016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83857107162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87256526947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88106489181519</t>
   </si>
   <si>
     <t xml:space="preserve">5.79607820510864</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94055461883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98304843902588</t>
+    <t xml:space="preserve">5.94055509567261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98304796218872</t>
   </si>
   <si>
     <t xml:space="preserve">5.88956260681152</t>
@@ -1379,31 +1379,31 @@
     <t xml:space="preserve">5.7968430519104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77959108352661</t>
+    <t xml:space="preserve">5.77959060668945</t>
   </si>
   <si>
     <t xml:space="preserve">5.81409549713135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58981370925903</t>
+    <t xml:space="preserve">5.58981418609619</t>
   </si>
   <si>
     <t xml:space="preserve">5.56393480300903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65882396697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65019845962524</t>
+    <t xml:space="preserve">5.65882349014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65019750595093</t>
   </si>
   <si>
     <t xml:space="preserve">5.85722732543945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69332790374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7709641456604</t>
+    <t xml:space="preserve">5.69332885742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77096462249756</t>
   </si>
   <si>
     <t xml:space="preserve">5.82272243499756</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">5.89173221588135</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02975225448608</t>
+    <t xml:space="preserve">6.02975273132324</t>
   </si>
   <si>
     <t xml:space="preserve">6.02112627029419</t>
@@ -1424,28 +1424,28 @@
     <t xml:space="preserve">5.86585378646851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9003586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83134889602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92623710632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67607593536377</t>
+    <t xml:space="preserve">5.90035915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83134841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92623662948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67607641220093</t>
   </si>
   <si>
     <t xml:space="preserve">5.61569261550903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80547046661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83997535705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8486008644104</t>
+    <t xml:space="preserve">5.80546998977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83997488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84860134124756</t>
   </si>
   <si>
     <t xml:space="preserve">5.71920728683472</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">5.62431907653809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78821754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13326740264893</t>
+    <t xml:space="preserve">5.78821706771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13326787948608</t>
   </si>
   <si>
     <t xml:space="preserve">6.11601543426514</t>
@@ -1466,19 +1466,19 @@
     <t xml:space="preserve">5.93486404418945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87448024749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91761159896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90898561477661</t>
+    <t xml:space="preserve">5.8744797706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91761112213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90898418426514</t>
   </si>
   <si>
     <t xml:space="preserve">6.00387382507324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99524784088135</t>
+    <t xml:space="preserve">5.99524736404419</t>
   </si>
   <si>
     <t xml:space="preserve">6.04700517654419</t>
@@ -1487,22 +1487,22 @@
     <t xml:space="preserve">5.96936893463135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88310670852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94349002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9521164894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53805637359619</t>
+    <t xml:space="preserve">5.88310623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94348955154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95211601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53805589675903</t>
   </si>
   <si>
     <t xml:space="preserve">5.49492502212524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44316720962524</t>
+    <t xml:space="preserve">5.4431676864624</t>
   </si>
   <si>
     <t xml:space="preserve">5.3655309677124</t>
@@ -1511,22 +1511,22 @@
     <t xml:space="preserve">5.40866184234619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54668188095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57256174087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55530881881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46041965484619</t>
+    <t xml:space="preserve">5.54668235778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57256126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55530834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46042013168335</t>
   </si>
   <si>
     <t xml:space="preserve">5.47767210006714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33102560043335</t>
+    <t xml:space="preserve">5.33102607727051</t>
   </si>
   <si>
     <t xml:space="preserve">5.24476337432861</t>
@@ -1535,31 +1535,31 @@
     <t xml:space="preserve">5.21888494491577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3482780456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23613786697388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3741569519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35690450668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3137731552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33965253829956</t>
+    <t xml:space="preserve">5.34827852249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23613739013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37415742874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35690498352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31377363204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3396520614624</t>
   </si>
   <si>
     <t xml:space="preserve">5.39140939712524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42591428756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40003633499146</t>
+    <t xml:space="preserve">5.4259147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40003681182861</t>
   </si>
   <si>
     <t xml:space="preserve">5.59843969345093</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">5.43454122543335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27064228057861</t>
+    <t xml:space="preserve">5.27064275741577</t>
   </si>
   <si>
     <t xml:space="preserve">5.19300556182861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27926778793335</t>
+    <t xml:space="preserve">5.27926826477051</t>
   </si>
   <si>
     <t xml:space="preserve">5.21025848388672</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">4.58916807174683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65817737579346</t>
+    <t xml:space="preserve">4.65817785263062</t>
   </si>
   <si>
     <t xml:space="preserve">4.46840047836304</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">4.63229942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61504650115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70993566513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55466270446777</t>
+    <t xml:space="preserve">4.61504697799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70993518829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55466318130493</t>
   </si>
   <si>
     <t xml:space="preserve">4.3562593460083</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">4.30450105667114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17510795593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28724908828735</t>
+    <t xml:space="preserve">4.17510747909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2872486114502</t>
   </si>
   <si>
     <t xml:space="preserve">4.23980474472046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48565244674683</t>
+    <t xml:space="preserve">4.48565292358398</t>
   </si>
   <si>
     <t xml:space="preserve">4.62367248535156</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">4.72718858718872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50290489196777</t>
+    <t xml:space="preserve">4.50290536880493</t>
   </si>
   <si>
     <t xml:space="preserve">4.58054161071777</t>
@@ -1652,31 +1652,31 @@
     <t xml:space="preserve">4.52015733718872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3821382522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42526865005493</t>
+    <t xml:space="preserve">4.38213777542114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42526912689209</t>
   </si>
   <si>
     <t xml:space="preserve">4.27862310409546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12766313552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16648149490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18804740905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2354907989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32175397872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3001880645752</t>
+    <t xml:space="preserve">4.12766265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16648101806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18804693222046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23549127578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32175445556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30018854141235</t>
   </si>
   <si>
     <t xml:space="preserve">4.24411773681641</t>
@@ -1685,19 +1685,19 @@
     <t xml:space="preserve">4.18373394012451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11903715133667</t>
+    <t xml:space="preserve">4.11903667449951</t>
   </si>
   <si>
     <t xml:space="preserve">4.3907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33900690078735</t>
+    <t xml:space="preserve">4.3390064239502</t>
   </si>
   <si>
     <t xml:space="preserve">4.22255182266235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13197660446167</t>
+    <t xml:space="preserve">4.13197612762451</t>
   </si>
   <si>
     <t xml:space="preserve">4.23117876052856</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">4.11472368240356</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02414798736572</t>
+    <t xml:space="preserve">4.02414846420288</t>
   </si>
   <si>
     <t xml:space="preserve">4.44252157211304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39939022064209</t>
+    <t xml:space="preserve">4.39938974380493</t>
   </si>
   <si>
     <t xml:space="preserve">4.57191562652588</t>
@@ -1724,22 +1724,22 @@
     <t xml:space="preserve">4.74444055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89108657836914</t>
+    <t xml:space="preserve">4.8910870552063</t>
   </si>
   <si>
     <t xml:space="preserve">4.88246059417725</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91696548461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96009635925293</t>
+    <t xml:space="preserve">4.9169659614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96009731292725</t>
   </si>
   <si>
     <t xml:space="preserve">5.00322818756104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98597621917725</t>
+    <t xml:space="preserve">4.98597574234009</t>
   </si>
   <si>
     <t xml:space="preserve">5.05498600006104</t>
@@ -1757,19 +1757,19 @@
     <t xml:space="preserve">5.15850067138672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08949041366577</t>
+    <t xml:space="preserve">5.08949089050293</t>
   </si>
   <si>
     <t xml:space="preserve">5.07223796844482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30514717102051</t>
+    <t xml:space="preserve">5.30514764785767</t>
   </si>
   <si>
     <t xml:space="preserve">5.22751092910767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2620153427124</t>
+    <t xml:space="preserve">5.26201581954956</t>
   </si>
   <si>
     <t xml:space="preserve">5.32239961624146</t>
@@ -1781,34 +1781,34 @@
     <t xml:space="preserve">5.38278293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51217651367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50355100631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58118724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60706663131714</t>
+    <t xml:space="preserve">5.51217699050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5035514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58118772506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60706615447998</t>
   </si>
   <si>
     <t xml:space="preserve">5.52942991256714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5208044052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08086442947388</t>
+    <t xml:space="preserve">5.52080345153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08086490631104</t>
   </si>
   <si>
     <t xml:space="preserve">5.21648073196411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23413372039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11938858032227</t>
+    <t xml:space="preserve">5.23413419723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11938905715942</t>
   </si>
   <si>
     <t xml:space="preserve">5.11056280136108</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">5.19000148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19882774353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24296045303345</t>
+    <t xml:space="preserve">5.19882822036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24296092987061</t>
   </si>
   <si>
     <t xml:space="preserve">5.32240009307861</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">5.27826690673828</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33122587203979</t>
+    <t xml:space="preserve">5.33122634887695</t>
   </si>
   <si>
     <t xml:space="preserve">5.36653232574463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34005308151245</t>
+    <t xml:space="preserve">5.34005260467529</t>
   </si>
   <si>
     <t xml:space="preserve">5.35770559310913</t>
@@ -1853,49 +1853,49 @@
     <t xml:space="preserve">5.5695424079895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65780782699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53423643112183</t>
+    <t xml:space="preserve">5.65780735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53423595428467</t>
   </si>
   <si>
     <t xml:space="preserve">5.43714427947998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51658344268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68428754806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63132810592651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58719539642334</t>
+    <t xml:space="preserve">5.51658296585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68428707122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63132858276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5871958732605</t>
   </si>
   <si>
     <t xml:space="preserve">5.7548999786377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87847137451172</t>
+    <t xml:space="preserve">5.87847089767456</t>
   </si>
   <si>
     <t xml:space="preserve">5.86081790924072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84316492080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76372575759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81668567657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78137969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71076679229736</t>
+    <t xml:space="preserve">5.84316539764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76372671127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81668519973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78137922286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71076726913452</t>
   </si>
   <si>
     <t xml:space="preserve">5.60484838485718</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">5.56071615219116</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67546033859253</t>
+    <t xml:space="preserve">5.67546081542969</t>
   </si>
   <si>
     <t xml:space="preserve">5.85199165344238</t>
@@ -1913,10 +1913,10 @@
     <t xml:space="preserve">5.62250185012817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34887933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28709268569946</t>
+    <t xml:space="preserve">5.34887886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28709316253662</t>
   </si>
   <si>
     <t xml:space="preserve">5.39301204681396</t>
@@ -1925,10 +1925,10 @@
     <t xml:space="preserve">5.29591989517212</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22530841827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37535858154297</t>
+    <t xml:space="preserve">5.22530794143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37535905838013</t>
   </si>
   <si>
     <t xml:space="preserve">5.18117475509644</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">5.25178670883179</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26944065093994</t>
+    <t xml:space="preserve">5.26944017410278</t>
   </si>
   <si>
     <t xml:space="preserve">5.26061391830444</t>
@@ -1946,19 +1946,19 @@
     <t xml:space="preserve">5.4018383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64898157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55188894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59602165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50775671005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4724497795105</t>
+    <t xml:space="preserve">5.64898109436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55188941955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59602212905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50775623321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47245025634766</t>
   </si>
   <si>
     <t xml:space="preserve">5.42831802368164</t>
@@ -1970,22 +1970,22 @@
     <t xml:space="preserve">5.12821578979492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14586925506592</t>
+    <t xml:space="preserve">5.14586877822876</t>
   </si>
   <si>
     <t xml:space="preserve">5.26502704620361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13968992233276</t>
+    <t xml:space="preserve">5.13969039916992</t>
   </si>
   <si>
     <t xml:space="preserve">5.20765447616577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25531816482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31269025802612</t>
+    <t xml:space="preserve">5.25531768798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31268978118896</t>
   </si>
   <si>
     <t xml:space="preserve">5.38418483734131</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">5.43273115158081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38506841659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41154718399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37271070480347</t>
+    <t xml:space="preserve">5.3850679397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41154766082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37271118164062</t>
   </si>
   <si>
     <t xml:space="preserve">5.45391511917114</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">5.32328224182129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44950199127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59425640106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54747581481934</t>
+    <t xml:space="preserve">5.44950151443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59425687789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54747629165649</t>
   </si>
   <si>
     <t xml:space="preserve">5.42390441894531</t>
@@ -2033,19 +2033,19 @@
     <t xml:space="preserve">5.62603235244751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57130765914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53070545196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57660388946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5527720451355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57836961746216</t>
+    <t xml:space="preserve">5.57130718231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53070497512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57660341262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55277156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.578369140625</t>
   </si>
   <si>
     <t xml:space="preserve">5.8961238861084</t>
@@ -2060,55 +2060,55 @@
     <t xml:space="preserve">6.16974687576294</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06294536590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8846492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89788913726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86876153945923</t>
+    <t xml:space="preserve">6.06294584274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88464975357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89788961410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86876201629639</t>
   </si>
   <si>
     <t xml:space="preserve">5.85552167892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85375690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92613554000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02322626113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05147171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05941486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02852153778076</t>
+    <t xml:space="preserve">5.85375642776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92613458633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02322673797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05147123336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05941534042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02852201461792</t>
   </si>
   <si>
     <t xml:space="preserve">6.04441022872925</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9702672958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9729151725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79373645782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84669542312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93496084213257</t>
+    <t xml:space="preserve">5.97026681900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97291564941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79373598098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84669589996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93496131896973</t>
   </si>
   <si>
     <t xml:space="preserve">6.02410888671875</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">5.81933355331421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68605279922485</t>
+    <t xml:space="preserve">5.6860523223877</t>
   </si>
   <si>
     <t xml:space="preserve">5.87052726745605</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">5.93142986297607</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87494087219238</t>
+    <t xml:space="preserve">5.87493991851807</t>
   </si>
   <si>
     <t xml:space="preserve">5.84934329986572</t>
@@ -2138,25 +2138,25 @@
     <t xml:space="preserve">5.81138944625854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80609321594238</t>
+    <t xml:space="preserve">5.80609369277954</t>
   </si>
   <si>
     <t xml:space="preserve">5.74077749252319</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87405824661255</t>
+    <t xml:space="preserve">5.87405729293823</t>
   </si>
   <si>
     <t xml:space="preserve">5.77078723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68340539932251</t>
+    <t xml:space="preserve">5.68340492248535</t>
   </si>
   <si>
     <t xml:space="preserve">5.7372465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78579187393188</t>
+    <t xml:space="preserve">5.78579235076904</t>
   </si>
   <si>
     <t xml:space="preserve">5.69311380386353</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">5.75754737854004</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83963489532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72665452957153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71871089935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76549100875854</t>
+    <t xml:space="preserve">5.83963441848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72665500640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71871137619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7654914855957</t>
   </si>
   <si>
     <t xml:space="preserve">5.76813936233521</t>
@@ -2186,31 +2186,31 @@
     <t xml:space="preserve">5.86964464187622</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95702695846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12561368942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04617547988892</t>
+    <t xml:space="preserve">5.95702743530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12561416625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0461745262146</t>
   </si>
   <si>
     <t xml:space="preserve">5.99321603775024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82815933227539</t>
+    <t xml:space="preserve">5.82815980911255</t>
   </si>
   <si>
     <t xml:space="preserve">5.52982234954834</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46891975402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29856777191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1405725479126</t>
+    <t xml:space="preserve">5.46892023086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29856729507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14057302474976</t>
   </si>
   <si>
     <t xml:space="preserve">5.25708293914795</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">5.28356313705444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89166498184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32809019088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38678693771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39296627044678</t>
+    <t xml:space="preserve">4.89166450500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32809066772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38678646087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39296579360962</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357482910156</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">4.19260358810425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06020498275757</t>
+    <t xml:space="preserve">4.06020593643188</t>
   </si>
   <si>
     <t xml:space="preserve">3.84969186782837</t>
@@ -2246,16 +2246,16 @@
     <t xml:space="preserve">3.97194004058838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25880241394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9000039100647</t>
+    <t xml:space="preserve">4.25880146026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90000343322754</t>
   </si>
   <si>
     <t xml:space="preserve">4.05402660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15111875534058</t>
+    <t xml:space="preserve">4.15111827850342</t>
   </si>
   <si>
     <t xml:space="preserve">4.35898351669312</t>
@@ -2264,19 +2264,19 @@
     <t xml:space="preserve">4.19966459274292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13743734359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34177207946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39561367034912</t>
+    <t xml:space="preserve">4.13743782043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34177160263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39561319351196</t>
   </si>
   <si>
     <t xml:space="preserve">4.45739984512329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2543888092041</t>
+    <t xml:space="preserve">4.25438928604126</t>
   </si>
   <si>
     <t xml:space="preserve">4.41326665878296</t>
@@ -2285,31 +2285,31 @@
     <t xml:space="preserve">4.54566478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70454216003418</t>
+    <t xml:space="preserve">4.70454263687134</t>
   </si>
   <si>
     <t xml:space="preserve">4.57214450836182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72219514846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66040945053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6692361831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61627674102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5897970199585</t>
+    <t xml:space="preserve">4.72219562530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66040992736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66923570632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61627721786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58979749679565</t>
   </si>
   <si>
     <t xml:space="preserve">4.83694076538086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86342000961304</t>
+    <t xml:space="preserve">4.86341953277588</t>
   </si>
   <si>
     <t xml:space="preserve">4.88989925384521</t>
@@ -2321,31 +2321,31 @@
     <t xml:space="preserve">5.01347064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93403291702271</t>
+    <t xml:space="preserve">4.93403244018555</t>
   </si>
   <si>
     <t xml:space="preserve">4.678062915802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64275646209717</t>
+    <t xml:space="preserve">4.64275693893433</t>
   </si>
   <si>
     <t xml:space="preserve">4.71336889266968</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76632738113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89872598648071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00738525390625</t>
+    <t xml:space="preserve">4.76632785797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89872646331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00738573074341</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872550964355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82628631591797</t>
+    <t xml:space="preserve">4.82628679275513</t>
   </si>
   <si>
     <t xml:space="preserve">4.98022079467773</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">5.01643991470337</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20659399032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32430839538574</t>
+    <t xml:space="preserve">5.20659446716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32430791854858</t>
   </si>
   <si>
     <t xml:space="preserve">5.29714345932007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50540685653687</t>
+    <t xml:space="preserve">5.50540733337402</t>
   </si>
   <si>
     <t xml:space="preserve">5.55068206787109</t>
@@ -2378,7 +2378,7 @@
     <t xml:space="preserve">5.60501194000244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71367073059082</t>
+    <t xml:space="preserve">5.71367120742798</t>
   </si>
   <si>
     <t xml:space="preserve">5.84044027328491</t>
@@ -2399,37 +2399,37 @@
     <t xml:space="preserve">5.34241819381714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66839647293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84949541091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72272634506226</t>
+    <t xml:space="preserve">5.66839694976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84949493408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7227258682251</t>
   </si>
   <si>
     <t xml:space="preserve">5.76800060272217</t>
   </si>
   <si>
-    <t xml:space="preserve">5.795166015625</t>
+    <t xml:space="preserve">5.79516553878784</t>
   </si>
   <si>
     <t xml:space="preserve">5.73178100585938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75894594192505</t>
+    <t xml:space="preserve">5.75894641876221</t>
   </si>
   <si>
     <t xml:space="preserve">5.83138513565063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69556140899658</t>
+    <t xml:space="preserve">5.69556093215942</t>
   </si>
   <si>
     <t xml:space="preserve">5.67745113372803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64123106002808</t>
+    <t xml:space="preserve">5.64123201370239</t>
   </si>
   <si>
     <t xml:space="preserve">5.56879234313965</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">5.46013307571411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5325722694397</t>
+    <t xml:space="preserve">5.53257274627686</t>
   </si>
   <si>
     <t xml:space="preserve">5.52351713180542</t>
@@ -2453,40 +2453,40 @@
     <t xml:space="preserve">5.39674806594849</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31525325775146</t>
+    <t xml:space="preserve">5.31525373458862</t>
   </si>
   <si>
     <t xml:space="preserve">5.46918773651123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36052799224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36958265304565</t>
+    <t xml:space="preserve">5.36052846908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36958312988281</t>
   </si>
   <si>
     <t xml:space="preserve">5.47824239730835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59595632553101</t>
+    <t xml:space="preserve">5.59595680236816</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461654663086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65028619766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61406660079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48729705810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45107793807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38769245147705</t>
+    <t xml:space="preserve">5.6502857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6140661239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48729753494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45107746124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38769292831421</t>
   </si>
   <si>
     <t xml:space="preserve">5.30619859695435</t>
@@ -2507,10 +2507,10 @@
     <t xml:space="preserve">5.23375940322876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26997852325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28808879852295</t>
+    <t xml:space="preserve">5.26997900009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28808832168579</t>
   </si>
   <si>
     <t xml:space="preserve">5.12509965896606</t>
@@ -2522,13 +2522,13 @@
     <t xml:space="preserve">4.70857191085815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81723165512085</t>
+    <t xml:space="preserve">4.81723117828369</t>
   </si>
   <si>
     <t xml:space="preserve">4.9530553817749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09793519973755</t>
+    <t xml:space="preserve">5.09793472290039</t>
   </si>
   <si>
     <t xml:space="preserve">5.10698938369751</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">6.13925361633301</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11208820343018</t>
+    <t xml:space="preserve">6.11208915710449</t>
   </si>
   <si>
     <t xml:space="preserve">6.22074794769287</t>
@@ -2567,28 +2567,28 @@
     <t xml:space="preserve">6.36562776565552</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41090202331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44712162017822</t>
+    <t xml:space="preserve">6.41090154647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44712114334106</t>
   </si>
   <si>
     <t xml:space="preserve">6.37468194961548</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42901229858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43806648254395</t>
+    <t xml:space="preserve">6.42901182174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43806743621826</t>
   </si>
   <si>
     <t xml:space="preserve">6.23885774612427</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20263814926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18452787399292</t>
+    <t xml:space="preserve">6.20263767242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18452835083008</t>
   </si>
   <si>
     <t xml:space="preserve">6.17547369003296</t>
@@ -2597,16 +2597,16 @@
     <t xml:space="preserve">6.10303354263306</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08492374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05775928497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06681346893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03964900970459</t>
+    <t xml:space="preserve">6.0849232673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05775880813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06681394577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03964948654175</t>
   </si>
   <si>
     <t xml:space="preserve">6.03059434890747</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">6.4561767578125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40184688568115</t>
+    <t xml:space="preserve">6.40184736251831</t>
   </si>
   <si>
     <t xml:space="preserve">6.32940769195557</t>
@@ -2636,10 +2636,10 @@
     <t xml:space="preserve">6.24791288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33846235275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30224227905273</t>
+    <t xml:space="preserve">6.33846187591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30224275588989</t>
   </si>
   <si>
     <t xml:space="preserve">6.39279222488403</t>
@@ -2648,10 +2648,10 @@
     <t xml:space="preserve">6.61011075973511</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80026531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15340757369995</t>
+    <t xml:space="preserve">6.80026483535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15340709686279</t>
   </si>
   <si>
     <t xml:space="preserve">7.58804512023926</t>
@@ -2663,10 +2663,10 @@
     <t xml:space="preserve">7.75103425979614</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78725433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84158277511597</t>
+    <t xml:space="preserve">7.78725481033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84158325195312</t>
   </si>
   <si>
     <t xml:space="preserve">7.67859411239624</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">7.46127557754517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45221996307373</t>
+    <t xml:space="preserve">7.45222043991089</t>
   </si>
   <si>
     <t xml:space="preserve">7.32545137405396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44316577911377</t>
+    <t xml:space="preserve">7.44316530227661</t>
   </si>
   <si>
     <t xml:space="preserve">7.28017663955688</t>
@@ -2699,55 +2699,55 @@
     <t xml:space="preserve">7.4974946975708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63331985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74197912216187</t>
+    <t xml:space="preserve">7.63332080841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74197864532471</t>
   </si>
   <si>
     <t xml:space="preserve">7.73292398452759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80536413192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66048526763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60615491867065</t>
+    <t xml:space="preserve">7.80536317825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.660484790802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6061544418335</t>
   </si>
   <si>
     <t xml:space="preserve">7.31639623641968</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76914310455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83252763748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92307758331299</t>
+    <t xml:space="preserve">7.76914358139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83252859115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92307806015015</t>
   </si>
   <si>
     <t xml:space="preserve">8.09512138366699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35771560668945</t>
+    <t xml:space="preserve">8.35771465301514</t>
   </si>
   <si>
     <t xml:space="preserve">8.25811100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15850734710693</t>
+    <t xml:space="preserve">8.15850639343262</t>
   </si>
   <si>
     <t xml:space="preserve">8.3396053314209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36677074432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14945125579834</t>
+    <t xml:space="preserve">8.36676979064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14945220947266</t>
   </si>
   <si>
     <t xml:space="preserve">8.24905490875244</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">8.21283626556396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.203782081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16756153106689</t>
+    <t xml:space="preserve">8.20378112792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16756057739258</t>
   </si>
   <si>
     <t xml:space="preserve">8.24000072479248</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">8.30338573455811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23094749450684</t>
+    <t xml:space="preserve">8.23094654083252</t>
   </si>
   <si>
     <t xml:space="preserve">8.31243991851807</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">8.55692481994629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40299034118652</t>
+    <t xml:space="preserve">8.40298938751221</t>
   </si>
   <si>
     <t xml:space="preserve">8.61125373840332</t>
@@ -2786,10 +2786,10 @@
     <t xml:space="preserve">8.5478687286377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68369388580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60219955444336</t>
+    <t xml:space="preserve">8.68369483947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60219860076904</t>
   </si>
   <si>
     <t xml:space="preserve">8.81951713562012</t>
@@ -2798,22 +2798,22 @@
     <t xml:space="preserve">8.59314346313477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63882350921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77667808532715</t>
+    <t xml:space="preserve">8.63882446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77667903900146</t>
   </si>
   <si>
     <t xml:space="preserve">8.60206317901611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58368301391602</t>
+    <t xml:space="preserve">8.58368396759033</t>
   </si>
   <si>
     <t xml:space="preserve">8.53773212432861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73072719573975</t>
+    <t xml:space="preserve">8.73072624206543</t>
   </si>
   <si>
     <t xml:space="preserve">8.48258972167969</t>
@@ -2825,22 +2825,22 @@
     <t xml:space="preserve">8.79505825042725</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93291187286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83181953430176</t>
+    <t xml:space="preserve">8.93291282653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83181858062744</t>
   </si>
   <si>
     <t xml:space="preserve">8.87777042388916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91453075408936</t>
+    <t xml:space="preserve">8.91453170776367</t>
   </si>
   <si>
     <t xml:space="preserve">8.85939025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64801502227783</t>
+    <t xml:space="preserve">8.64801406860352</t>
   </si>
   <si>
     <t xml:space="preserve">8.67558574676514</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">8.68477535247803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70315551757812</t>
+    <t xml:space="preserve">8.70315647125244</t>
   </si>
   <si>
     <t xml:space="preserve">8.62963485717773</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">8.4366397857666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27121543884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31716728210449</t>
+    <t xml:space="preserve">8.27121448516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31716632843018</t>
   </si>
   <si>
     <t xml:space="preserve">8.24364471435547</t>
@@ -2870,25 +2870,25 @@
     <t xml:space="preserve">8.20688343048096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21607303619385</t>
+    <t xml:space="preserve">8.21607398986816</t>
   </si>
   <si>
     <t xml:space="preserve">8.11498069763184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16093158721924</t>
+    <t xml:space="preserve">8.16093254089355</t>
   </si>
   <si>
     <t xml:space="preserve">7.90360593795776</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01388835906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94036626815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99550724029541</t>
+    <t xml:space="preserve">8.01388740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94036674499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99550771713257</t>
   </si>
   <si>
     <t xml:space="preserve">7.89441537857056</t>
@@ -2897,31 +2897,31 @@
     <t xml:space="preserve">8.15174102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07821941375732</t>
+    <t xml:space="preserve">8.07822036743164</t>
   </si>
   <si>
     <t xml:space="preserve">8.33554649353027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46420955657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32635593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38149833679199</t>
+    <t xml:space="preserve">8.46421051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32635688781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38149738311768</t>
   </si>
   <si>
     <t xml:space="preserve">8.12417125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75656080245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23445320129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40906715393066</t>
+    <t xml:space="preserve">7.75656127929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23445415496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40906810760498</t>
   </si>
   <si>
     <t xml:space="preserve">8.28959560394287</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">8.65720558166504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55611324310303</t>
+    <t xml:space="preserve">8.55611228942871</t>
   </si>
   <si>
     <t xml:space="preserve">8.51935195922852</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">8.39987945556641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47340106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81343936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95129299163818</t>
+    <t xml:space="preserve">8.4734001159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81343841552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95129203796387</t>
   </si>
   <si>
     <t xml:space="preserve">8.72153663635254</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">8.66639518737793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41825866699219</t>
+    <t xml:space="preserve">8.4182596206665</t>
   </si>
   <si>
     <t xml:space="preserve">8.36311721801758</t>
@@ -2978,46 +2978,46 @@
     <t xml:space="preserve">8.14255142211914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17931270599365</t>
+    <t xml:space="preserve">8.17931175231934</t>
   </si>
   <si>
     <t xml:space="preserve">8.04145908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71979999542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78413200378418</t>
+    <t xml:space="preserve">7.71980047225952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78413248062134</t>
   </si>
   <si>
     <t xml:space="preserve">7.72899103164673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70142030715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81170320510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8300838470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87603378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9219856262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86684513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09660053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39068794250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35392761230469</t>
+    <t xml:space="preserve">7.70142078399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81170272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83008337020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87603521347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92198610305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86684417724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09660148620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39068698883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35392665863037</t>
   </si>
   <si>
     <t xml:space="preserve">8.37230682373047</t>
@@ -3026,52 +3026,52 @@
     <t xml:space="preserve">8.5469217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34473705291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18850326538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9587459564209</t>
+    <t xml:space="preserve">8.34473609924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18850231170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95874691009521</t>
   </si>
   <si>
     <t xml:space="preserve">7.84846353530884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76575136184692</t>
+    <t xml:space="preserve">7.76575183868408</t>
   </si>
   <si>
     <t xml:space="preserve">7.52680492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48085498809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5176157951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6095175743103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50842475891113</t>
+    <t xml:space="preserve">7.48085451126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51761531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60951709747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50842523574829</t>
   </si>
   <si>
     <t xml:space="preserve">7.49923467636108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59113740921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80251169204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61870813369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5451865196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47166395187378</t>
+    <t xml:space="preserve">7.59113788604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80251264572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61870765686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54518604278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47166442871094</t>
   </si>
   <si>
     <t xml:space="preserve">7.41652250289917</t>
@@ -3086,28 +3086,28 @@
     <t xml:space="preserve">7.40733289718628</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69222974777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79332256317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77494239807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68303966522217</t>
+    <t xml:space="preserve">7.69222927093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79332160949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77494192123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68303918838501</t>
   </si>
   <si>
     <t xml:space="preserve">7.67384958267212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46247339248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5359959602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60032749176025</t>
+    <t xml:space="preserve">7.46247386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53599548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60032796859741</t>
   </si>
   <si>
     <t xml:space="preserve">7.10405445098877</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">7.06729364395142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16838598251343</t>
+    <t xml:space="preserve">7.16838645935059</t>
   </si>
   <si>
     <t xml:space="preserve">7.03053283691406</t>
@@ -3125,22 +3125,22 @@
     <t xml:space="preserve">7.15000581741333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2694787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26028871536255</t>
+    <t xml:space="preserve">7.26947832107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26028919219971</t>
   </si>
   <si>
     <t xml:space="preserve">7.08567428588867</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0213418006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03972244262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42571258544922</t>
+    <t xml:space="preserve">7.02134227752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03972291946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42571306228638</t>
   </si>
   <si>
     <t xml:space="preserve">7.37057209014893</t>
@@ -3149,10 +3149,10 @@
     <t xml:space="preserve">7.17757654190063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28785943984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3430004119873</t>
+    <t xml:space="preserve">7.2878589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34300088882446</t>
   </si>
   <si>
     <t xml:space="preserve">7.14081573486328</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">7.21433734893799</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9386305809021</t>
+    <t xml:space="preserve">6.93863010406494</t>
   </si>
   <si>
     <t xml:space="preserve">6.87429857254028</t>
@@ -3176,10 +3176,10 @@
     <t xml:space="preserve">6.72725486755371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54344987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45154762268066</t>
+    <t xml:space="preserve">6.54345035552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45154809951782</t>
   </si>
   <si>
     <t xml:space="preserve">6.25855207443237</t>
@@ -3191,25 +3191,25 @@
     <t xml:space="preserve">5.95527458190918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12988901138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40559577941895</t>
+    <t xml:space="preserve">6.12988948822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4055962562561</t>
   </si>
   <si>
     <t xml:space="preserve">6.21260166168213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26774311065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47911882400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3596453666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59859132766724</t>
+    <t xml:space="preserve">6.26774263381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47911834716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35964584350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59859085083008</t>
   </si>
   <si>
     <t xml:space="preserve">6.51587915420532</t>
@@ -3224,10 +3224,10 @@
     <t xml:space="preserve">6.44235754013062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14827013015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24017190933228</t>
+    <t xml:space="preserve">6.14826965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24017238616943</t>
   </si>
   <si>
     <t xml:space="preserve">6.24936246871948</t>
@@ -3242,22 +3242,22 @@
     <t xml:space="preserve">6.30450391769409</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42397689819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29531383514404</t>
+    <t xml:space="preserve">6.4239764213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29531335830688</t>
   </si>
   <si>
     <t xml:space="preserve">5.96446466445923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98284530639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03798723220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01041650772095</t>
+    <t xml:space="preserve">5.98284578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03798675537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01041603088379</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636739730835</t>
@@ -3275,7 +3275,7 @@
     <t xml:space="preserve">6.18503093719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10231828689575</t>
+    <t xml:space="preserve">6.10231876373291</t>
   </si>
   <si>
     <t xml:space="preserve">6.0655574798584</t>
@@ -3284,10 +3284,10 @@
     <t xml:space="preserve">6.13907909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11150884628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08393812179565</t>
+    <t xml:space="preserve">6.11150932312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0839376449585</t>
   </si>
   <si>
     <t xml:space="preserve">6.0931282043457</t>
@@ -3296,10 +3296,10 @@
     <t xml:space="preserve">6.07474803924561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20341110229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19422054290771</t>
+    <t xml:space="preserve">6.20341157913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19422101974487</t>
   </si>
   <si>
     <t xml:space="preserve">6.15745973587036</t>
@@ -3308,16 +3308,16 @@
     <t xml:space="preserve">6.1602988243103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06581544876099</t>
+    <t xml:space="preserve">6.06581592559814</t>
   </si>
   <si>
     <t xml:space="preserve">6.08471202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28312683105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40595483779907</t>
+    <t xml:space="preserve">6.28312730789185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40595531463623</t>
   </si>
   <si>
     <t xml:space="preserve">6.34926462173462</t>
@@ -3341,16 +3341,16 @@
     <t xml:space="preserve">6.12250566482544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93353939056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9524359703064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04691886901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00912570953369</t>
+    <t xml:space="preserve">5.93353986740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95243644714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04691934585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00912618637085</t>
   </si>
   <si>
     <t xml:space="preserve">6.2169885635376</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">5.84850454330444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83905601501465</t>
+    <t xml:space="preserve">5.83905649185181</t>
   </si>
   <si>
     <t xml:space="preserve">5.45167541503906</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">5.86740112304688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62174510955811</t>
+    <t xml:space="preserve">5.62174463272095</t>
   </si>
   <si>
     <t xml:space="preserve">5.97133255004883</t>
@@ -3398,10 +3398,10 @@
     <t xml:space="preserve">5.66898679733276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82960796356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88629817962646</t>
+    <t xml:space="preserve">5.82960844039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88629770278931</t>
   </si>
   <si>
     <t xml:space="preserve">5.72567653656006</t>
@@ -3425,10 +3425,10 @@
     <t xml:space="preserve">6.1697473526001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98078107833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65008974075317</t>
+    <t xml:space="preserve">5.98078060150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65009021759033</t>
   </si>
   <si>
     <t xml:space="preserve">5.60284852981567</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">5.58395195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48002052307129</t>
+    <t xml:space="preserve">5.48002099990845</t>
   </si>
   <si>
     <t xml:space="preserve">5.49891710281372</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">5.48946905136108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23436403274536</t>
+    <t xml:space="preserve">5.23436450958252</t>
   </si>
   <si>
     <t xml:space="preserve">5.20601987838745</t>
@@ -3482,19 +3482,19 @@
     <t xml:space="preserve">5.33829593658447</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18712282180786</t>
+    <t xml:space="preserve">5.1871223449707</t>
   </si>
   <si>
     <t xml:space="preserve">5.15877771377563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11153650283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12098455429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28160619735718</t>
+    <t xml:space="preserve">5.11153602600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12098503112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28160572052002</t>
   </si>
   <si>
     <t xml:space="preserve">5.149329662323</t>
@@ -3512,7 +3512,7 @@
     <t xml:space="preserve">5.01705312728882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07374334335327</t>
+    <t xml:space="preserve">5.07374286651611</t>
   </si>
   <si>
     <t xml:space="preserve">5.06429481506348</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">5.4044337272644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57450342178345</t>
+    <t xml:space="preserve">5.57450389862061</t>
   </si>
   <si>
     <t xml:space="preserve">5.67843532562256</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">5.75402164459229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99967765808105</t>
+    <t xml:space="preserve">5.9996771812439</t>
   </si>
   <si>
     <t xml:space="preserve">6.11305713653564</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">6.10360908508301</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02802228927612</t>
+    <t xml:space="preserve">6.02802276611328</t>
   </si>
   <si>
     <t xml:space="preserve">6.57602453231812</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">6.84057712554932</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93506097793579</t>
+    <t xml:space="preserve">6.93506050109863</t>
   </si>
   <si>
     <t xml:space="preserve">6.9634051322937</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">6.92561197280884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02954387664795</t>
+    <t xml:space="preserve">7.02954339981079</t>
   </si>
   <si>
     <t xml:space="preserve">7.10513019561768</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">7.4925103187561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53030347824097</t>
+    <t xml:space="preserve">7.53030395507812</t>
   </si>
   <si>
     <t xml:space="preserve">7.6153392791748</t>
@@ -3647,10 +3647,10 @@
     <t xml:space="preserve">7.65313243865967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78540802001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77595949172974</t>
+    <t xml:space="preserve">7.78540849685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77595996856689</t>
   </si>
   <si>
     <t xml:space="preserve">7.72871875762939</t>
@@ -3662,7 +3662,7 @@
     <t xml:space="preserve">7.60589075088501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58699369430542</t>
+    <t xml:space="preserve">7.58699321746826</t>
   </si>
   <si>
     <t xml:space="preserve">7.22795820236206</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">7.47361373901367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24685478210449</t>
+    <t xml:space="preserve">7.24685430526733</t>
   </si>
   <si>
     <t xml:space="preserve">7.33188962936401</t>
@@ -3680,10 +3680,10 @@
     <t xml:space="preserve">7.56809759140015</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45471715927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43582057952881</t>
+    <t xml:space="preserve">7.4547176361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43582105636597</t>
   </si>
   <si>
     <t xml:space="preserve">7.30354452133179</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">7.44526958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38857984542847</t>
+    <t xml:space="preserve">7.38857936859131</t>
   </si>
   <si>
     <t xml:space="preserve">7.36023426055908</t>
@@ -3704,13 +3704,13 @@
     <t xml:space="preserve">7.35078620910645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48306274414062</t>
+    <t xml:space="preserve">7.48306226730347</t>
   </si>
   <si>
     <t xml:space="preserve">7.46416616439819</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4074764251709</t>
+    <t xml:space="preserve">7.40747594833374</t>
   </si>
   <si>
     <t xml:space="preserve">7.26575136184692</t>
@@ -3719,16 +3719,16 @@
     <t xml:space="preserve">7.1901650428772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12402677536011</t>
+    <t xml:space="preserve">7.12402629852295</t>
   </si>
   <si>
     <t xml:space="preserve">7.21850967407227</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36968326568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34133768081665</t>
+    <t xml:space="preserve">7.36968278884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34133815765381</t>
   </si>
   <si>
     <t xml:space="preserve">7.29409599304199</t>
@@ -4302,6 +4302,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.36999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32999992370605</t>
   </si>
 </sst>
 </file>
@@ -60777,7 +60780,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6494675926</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>49034</v>
@@ -60798,6 +60801,32 @@
         <v>1429</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6495601852</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>47933</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>9.47999954223633</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>9.22000026702881</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>9.40999984741211</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>9.32999992370605</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1432">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79800605773926</t>
+    <t xml:space="preserve">4.79800510406494</t>
   </si>
   <si>
     <t xml:space="preserve">CEM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77356863021851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64730358123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806301116943</t>
+    <t xml:space="preserve">4.77356815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64730405807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806348800659</t>
   </si>
   <si>
     <t xml:space="preserve">4.41514301300049</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30517244338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41106986999512</t>
+    <t xml:space="preserve">4.30517148971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41107034683228</t>
   </si>
   <si>
     <t xml:space="preserve">4.37441301345825</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37848663330078</t>
+    <t xml:space="preserve">4.37848615646362</t>
   </si>
   <si>
     <t xml:space="preserve">4.14225101470947</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01435899734497</t>
+    <t xml:space="preserve">4.01435947418213</t>
   </si>
   <si>
     <t xml:space="preserve">4.05346012115479</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">3.91171932220459</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02739286422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95733690261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99480867385864</t>
+    <t xml:space="preserve">4.02739238739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95733642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99480819702148</t>
   </si>
   <si>
     <t xml:space="preserve">3.95570731163025</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">3.82048368453979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01272964477539</t>
+    <t xml:space="preserve">4.01273012161255</t>
   </si>
   <si>
     <t xml:space="preserve">3.95082068443298</t>
@@ -107,106 +107,106 @@
     <t xml:space="preserve">3.81233763694763</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64941787719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67059707641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69177675247192</t>
+    <t xml:space="preserve">3.64941763877869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67059683799744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69177651405334</t>
   </si>
   <si>
     <t xml:space="preserve">3.4180703163147</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21279072761536</t>
+    <t xml:space="preserve">3.21279048919678</t>
   </si>
   <si>
     <t xml:space="preserve">3.31543040275574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19324016571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2730712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51093435287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42947459220886</t>
+    <t xml:space="preserve">3.19324040412903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27307105064392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51093530654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42947435379028</t>
   </si>
   <si>
     <t xml:space="preserve">3.54514813423157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62497925758362</t>
+    <t xml:space="preserve">3.62497901916504</t>
   </si>
   <si>
     <t xml:space="preserve">3.41318273544312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45880031585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43436217308044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30402612686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35778999328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47020554542542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65756297111511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70643901824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62660884857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71621465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63149571418762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59076571464539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795787811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59565305709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62009143829346</t>
+    <t xml:space="preserve">3.45880007743835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4343626499176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30402588844299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35779023170471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47020506858826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65756320953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70643949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62660813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7162139415741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63149619102478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59076595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56795740127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59565353393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6200909614563</t>
   </si>
   <si>
     <t xml:space="preserve">3.82700061798096</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68525981903076</t>
+    <t xml:space="preserve">3.68526029586792</t>
   </si>
   <si>
     <t xml:space="preserve">3.8286292552948</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90846061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74391102790833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78138303756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73087739944458</t>
+    <t xml:space="preserve">3.90846109390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7439112663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78138327598572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73087763786316</t>
   </si>
   <si>
     <t xml:space="preserve">3.5875072479248</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">3.5793616771698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61357498168945</t>
+    <t xml:space="preserve">3.61357450485229</t>
   </si>
   <si>
     <t xml:space="preserve">3.65104675292969</t>
@@ -227,31 +227,31 @@
     <t xml:space="preserve">3.5207097530365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47835087776184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44250822067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67222547531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55492353439331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61520385742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66733837127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85469651222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81885457038879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93452787399292</t>
+    <t xml:space="preserve">3.47835063934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44250845909119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67222595214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55492281913757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61520409584045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66733860969543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85469722747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81885409355164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93452835083008</t>
   </si>
   <si>
     <t xml:space="preserve">3.81396722793579</t>
@@ -263,64 +263,64 @@
     <t xml:space="preserve">3.77975344657898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76672005653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75042819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87261819839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73902320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77486658096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69829368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74716925621033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71458625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60054159164429</t>
+    <t xml:space="preserve">3.76672077178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75042867660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87261867523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7390239238739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77486562728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69829344749451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74716901779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71458530426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60054111480713</t>
   </si>
   <si>
     <t xml:space="preserve">3.52722692489624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54351902008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60227489471436</t>
+    <t xml:space="preserve">3.54351854324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60227465629578</t>
   </si>
   <si>
     <t xml:space="preserve">3.69399881362915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83241963386536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83575558662415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95249557495117</t>
+    <t xml:space="preserve">3.83241987228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83575534820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95249509811401</t>
   </si>
   <si>
     <t xml:space="preserve">3.96083402633667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85243272781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82908487319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77905297279358</t>
+    <t xml:space="preserve">3.85243225097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8290843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77905321121216</t>
   </si>
   <si>
     <t xml:space="preserve">3.74236273765564</t>
@@ -332,49 +332,49 @@
     <t xml:space="preserve">3.6556408405304</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62729024887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45384740829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37713265419006</t>
+    <t xml:space="preserve">3.62729048728943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45384764671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37713241577148</t>
   </si>
   <si>
     <t xml:space="preserve">3.36379027366638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26039171218872</t>
+    <t xml:space="preserve">3.2603919506073</t>
   </si>
   <si>
     <t xml:space="preserve">3.2220344543457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06693649291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21703124046326</t>
+    <t xml:space="preserve">3.06693625450134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21703100204468</t>
   </si>
   <si>
     <t xml:space="preserve">3.09528732299805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28707504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41882514953613</t>
+    <t xml:space="preserve">3.28707551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41882538795471</t>
   </si>
   <si>
     <t xml:space="preserve">3.16866707801819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88515520095825</t>
+    <t xml:space="preserve">2.88515496253967</t>
   </si>
   <si>
     <t xml:space="preserve">2.87681651115417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89682865142822</t>
+    <t xml:space="preserve">2.89682912826538</t>
   </si>
   <si>
     <t xml:space="preserve">2.99355673789978</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">3.10362601280212</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01690483093262</t>
+    <t xml:space="preserve">3.01690459251404</t>
   </si>
   <si>
     <t xml:space="preserve">2.8518009185791</t>
@@ -395,10 +395,10 @@
     <t xml:space="preserve">2.82344937324524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9051673412323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9351863861084</t>
+    <t xml:space="preserve">2.90516781806946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93518614768982</t>
   </si>
   <si>
     <t xml:space="preserve">3.10195875167847</t>
@@ -413,31 +413,31 @@
     <t xml:space="preserve">3.19535088539124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13698053359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03358221054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17033529281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03524971008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9868860244751</t>
+    <t xml:space="preserve">3.13698077201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03358197212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.170334815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03525018692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98688578605652</t>
   </si>
   <si>
     <t xml:space="preserve">3.23871183395386</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24371457099915</t>
+    <t xml:space="preserve">3.24371528625488</t>
   </si>
   <si>
     <t xml:space="preserve">3.21869874000549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25205326080322</t>
+    <t xml:space="preserve">3.2520534992218</t>
   </si>
   <si>
     <t xml:space="preserve">3.16032862663269</t>
@@ -446,94 +446,94 @@
     <t xml:space="preserve">3.18367695808411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08528113365173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17867374420166</t>
+    <t xml:space="preserve">3.08528137207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17867350578308</t>
   </si>
   <si>
     <t xml:space="preserve">3.30208516120911</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34544587135315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38880681991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5038788318634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47386002540588</t>
+    <t xml:space="preserve">3.34544563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38880658149719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50387907028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47386026382446</t>
   </si>
   <si>
     <t xml:space="preserve">3.53556537628174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50554656982422</t>
+    <t xml:space="preserve">3.5055468082428</t>
   </si>
   <si>
     <t xml:space="preserve">3.51722049713135</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75236964225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71901512145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239416122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76904630661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81907796859741</t>
+    <t xml:space="preserve">3.75236940383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7190146446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239439964294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76904654502869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81907844543457</t>
   </si>
   <si>
     <t xml:space="preserve">3.92914724349976</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88411903381348</t>
+    <t xml:space="preserve">3.88411831855774</t>
   </si>
   <si>
     <t xml:space="preserve">3.89912819862366</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87911534309387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81740975379944</t>
+    <t xml:space="preserve">3.87911581993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81740999221802</t>
   </si>
   <si>
     <t xml:space="preserve">3.69566655158997</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63729667663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54390382766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5855975151062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73235654830933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67732214927673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61561632156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72068190574646</t>
+    <t xml:space="preserve">3.63729691505432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54390478134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58559727668762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73235607147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67732167243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61561608314514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72068285942078</t>
   </si>
   <si>
     <t xml:space="preserve">3.71734714508057</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45551514625549</t>
+    <t xml:space="preserve">3.45551562309265</t>
   </si>
   <si>
     <t xml:space="preserve">3.55224347114563</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">3.52222418785095</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50221133232117</t>
+    <t xml:space="preserve">3.50221109390259</t>
   </si>
   <si>
     <t xml:space="preserve">3.57725858688354</t>
@@ -551,31 +551,31 @@
     <t xml:space="preserve">3.63562893867493</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62562274932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63396048545837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391025543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61394834518433</t>
+    <t xml:space="preserve">3.62562227249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63396096229553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391049385071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61394858360291</t>
   </si>
   <si>
     <t xml:space="preserve">3.69733452796936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66231226921082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71401119232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76237559318542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73402428627014</t>
+    <t xml:space="preserve">3.66231274604797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71401143074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76237535476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73402404785156</t>
   </si>
   <si>
     <t xml:space="preserve">3.76070785522461</t>
@@ -584,43 +584,43 @@
     <t xml:space="preserve">3.60727763175964</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70233774185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71067643165588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50721430778503</t>
+    <t xml:space="preserve">3.70233726501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71067595481873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50721406936646</t>
   </si>
   <si>
     <t xml:space="preserve">3.48553395271301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48720216751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40214800834656</t>
+    <t xml:space="preserve">3.48720169067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40214776992798</t>
   </si>
   <si>
     <t xml:space="preserve">3.43883800506592</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3404426574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28540802001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27373361587524</t>
+    <t xml:space="preserve">3.34044241905212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28540778160095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2737340927124</t>
   </si>
   <si>
     <t xml:space="preserve">3.24037909507751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2770688533783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21036028862</t>
+    <t xml:space="preserve">3.27706933021545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21036052703857</t>
   </si>
   <si>
     <t xml:space="preserve">3.17533802986145</t>
@@ -629,49 +629,49 @@
     <t xml:space="preserve">3.06526899337769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07694292068481</t>
+    <t xml:space="preserve">3.07694268226624</t>
   </si>
   <si>
     <t xml:space="preserve">3.01190161705017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97687983512878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0235755443573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02691149711609</t>
+    <t xml:space="preserve">2.97687959671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02357578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02691125869751</t>
   </si>
   <si>
     <t xml:space="preserve">3.0152370929718</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10862946510315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23537611961365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25038576126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38547110557556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2987494468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5272274017334</t>
+    <t xml:space="preserve">3.10862922668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23537635803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25038552284241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3854706287384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29874968528748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52722644805908</t>
   </si>
   <si>
     <t xml:space="preserve">3.55724573135376</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52055644989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56892013549805</t>
+    <t xml:space="preserve">3.52055597305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56892037391663</t>
   </si>
   <si>
     <t xml:space="preserve">3.64396739006042</t>
@@ -680,37 +680,37 @@
     <t xml:space="preserve">3.51888799667358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68566083908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75070190429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77738523483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55557823181152</t>
+    <t xml:space="preserve">3.68566036224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75070142745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66064476966858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77738475799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55557799339294</t>
   </si>
   <si>
     <t xml:space="preserve">3.39881277084351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35211658477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29374623298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33543944358826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31209087371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29541373252869</t>
+    <t xml:space="preserve">3.35211634635925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29374647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33543920516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31209111213684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29541397094727</t>
   </si>
   <si>
     <t xml:space="preserve">3.29708170890808</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">3.34211015701294</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30041694641113</t>
+    <t xml:space="preserve">3.30041670799255</t>
   </si>
   <si>
     <t xml:space="preserve">4.08091020584106</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">4.21099185943604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25268507003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2610239982605</t>
+    <t xml:space="preserve">4.252685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26102304458618</t>
   </si>
   <si>
     <t xml:space="preserve">4.14428281784058</t>
@@ -749,22 +749,22 @@
     <t xml:space="preserve">4.27770042419434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36942529678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43196535110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56121253967285</t>
+    <t xml:space="preserve">4.36942481994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43196487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56121301651001</t>
   </si>
   <si>
     <t xml:space="preserve">4.52785873413086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49867343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50284290313721</t>
+    <t xml:space="preserve">4.49867391586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50284385681152</t>
   </si>
   <si>
     <t xml:space="preserve">4.4611496925354</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">4.47365760803223</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65293741226196</t>
+    <t xml:space="preserve">4.65293788909912</t>
   </si>
   <si>
     <t xml:space="preserve">4.51535081863403</t>
@@ -800,10 +800,10 @@
     <t xml:space="preserve">4.3360710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3861026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43613433837891</t>
+    <t xml:space="preserve">4.38610315322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43613386154175</t>
   </si>
   <si>
     <t xml:space="preserve">4.3277325630188</t>
@@ -815,16 +815,16 @@
     <t xml:space="preserve">4.29437828063965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22766971588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18597602844238</t>
+    <t xml:space="preserve">4.22766923904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1859769821167</t>
   </si>
   <si>
     <t xml:space="preserve">4.30688619613647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49450397491455</t>
+    <t xml:space="preserve">4.49450492858887</t>
   </si>
   <si>
     <t xml:space="preserve">4.4528112411499</t>
@@ -839,25 +839,25 @@
     <t xml:space="preserve">4.36525583267212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5361967086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61958408355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60707521438599</t>
+    <t xml:space="preserve">4.53619766235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61958360671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60707569122314</t>
   </si>
   <si>
     <t xml:space="preserve">4.61124515533447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77384757995605</t>
+    <t xml:space="preserve">4.7738471031189</t>
   </si>
   <si>
     <t xml:space="preserve">4.75300121307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80720138549805</t>
+    <t xml:space="preserve">4.80720186233521</t>
   </si>
   <si>
     <t xml:space="preserve">4.82804822921753</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">4.90726470947266</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74466276168823</t>
+    <t xml:space="preserve">4.74466228485107</t>
   </si>
   <si>
     <t xml:space="preserve">4.42779541015625</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">4.34440946578979</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49153566360474</t>
+    <t xml:space="preserve">4.49153518676758</t>
   </si>
   <si>
     <t xml:space="preserve">4.53827810287476</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">4.46179008483887</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45329141616821</t>
+    <t xml:space="preserve">4.45329093933105</t>
   </si>
   <si>
     <t xml:space="preserve">4.38955163955688</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">4.40229988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35130786895752</t>
+    <t xml:space="preserve">4.35130834579468</t>
   </si>
   <si>
     <t xml:space="preserve">4.29181718826294</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">4.45754098892212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43204545974731</t>
+    <t xml:space="preserve">4.43204498291016</t>
   </si>
   <si>
     <t xml:space="preserve">4.47878742218018</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">4.38530254364014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5170316696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48728609085083</t>
+    <t xml:space="preserve">4.51703119277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48728656768799</t>
   </si>
   <si>
     <t xml:space="preserve">4.48303699493408</t>
@@ -941,37 +941,37 @@
     <t xml:space="preserve">4.47028923034668</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55527591705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57227230072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65725946426392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49578380584717</t>
+    <t xml:space="preserve">4.55527496337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57227277755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65725898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49578475952148</t>
   </si>
   <si>
     <t xml:space="preserve">4.4362940788269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78473949432373</t>
+    <t xml:space="preserve">4.78473901748657</t>
   </si>
   <si>
     <t xml:space="preserve">4.67425584793091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95046234130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09918880462646</t>
+    <t xml:space="preserve">4.95046186447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09918832778931</t>
   </si>
   <si>
     <t xml:space="preserve">5.15867948532104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20967149734497</t>
+    <t xml:space="preserve">5.20967102050781</t>
   </si>
   <si>
     <t xml:space="preserve">5.35414838790894</t>
@@ -980,19 +980,19 @@
     <t xml:space="preserve">5.3923921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35839748382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52412080764771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40938901901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40514039993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45188236236572</t>
+    <t xml:space="preserve">5.35839700698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52412128448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40938949584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40514087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45188283920288</t>
   </si>
   <si>
     <t xml:space="preserve">5.41363906860352</t>
@@ -1001,40 +1001,40 @@
     <t xml:space="preserve">5.33290195465088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39664173126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40089082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2649130821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11618614196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15442943572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22666788101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30740547180176</t>
+    <t xml:space="preserve">5.39664125442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4008903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26491212844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11618661880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15442991256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22666883468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30740594863892</t>
   </si>
   <si>
     <t xml:space="preserve">5.1756763458252</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13318395614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05669498443604</t>
+    <t xml:space="preserve">5.13318347930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05669546127319</t>
   </si>
   <si>
     <t xml:space="preserve">5.09068965911865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0609450340271</t>
+    <t xml:space="preserve">5.06094455718994</t>
   </si>
   <si>
     <t xml:space="preserve">5.00570344924927</t>
@@ -1046,16 +1046,16 @@
     <t xml:space="preserve">4.98870658874512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00145483016968</t>
+    <t xml:space="preserve">5.00145435333252</t>
   </si>
   <si>
     <t xml:space="preserve">5.05244636535645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04394769668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01420259475708</t>
+    <t xml:space="preserve">5.04394721984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01420211791992</t>
   </si>
   <si>
     <t xml:space="preserve">5.12468481063843</t>
@@ -1067,34 +1067,34 @@
     <t xml:space="preserve">5.21817016601562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27765989303589</t>
+    <t xml:space="preserve">5.27766084671021</t>
   </si>
   <si>
     <t xml:space="preserve">5.33715152740479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28190994262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23516750335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43913507461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37114524841309</t>
+    <t xml:space="preserve">5.28190946578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23516702651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43913412094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37114572525024</t>
   </si>
   <si>
     <t xml:space="preserve">5.32865190505981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69409370422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80032682418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1232762336731</t>
+    <t xml:space="preserve">5.69409322738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80032730102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12327527999878</t>
   </si>
   <si>
     <t xml:space="preserve">5.92355728149414</t>
@@ -1103,37 +1103,37 @@
     <t xml:space="preserve">6.19551467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13602352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28899955749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00854396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05953550338745</t>
+    <t xml:space="preserve">6.1360239982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28900003433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00854349136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05953598022461</t>
   </si>
   <si>
     <t xml:space="preserve">6.08503150939941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15302038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11477756500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08928108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03403997421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97879838943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04678821563721</t>
+    <t xml:space="preserve">6.15302085876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11477708816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08928203582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0340404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97879886627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04678726196289</t>
   </si>
   <si>
     <t xml:space="preserve">6.01704263687134</t>
@@ -1142,31 +1142,31 @@
     <t xml:space="preserve">6.0212926864624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99154663085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96180152893066</t>
+    <t xml:space="preserve">5.99154758453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96180105209351</t>
   </si>
   <si>
     <t xml:space="preserve">6.12752532958984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10202932357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15727090835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21251153945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14877223968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11902618408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17001867294312</t>
+    <t xml:space="preserve">6.10202884674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15727043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21251249313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1487717628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11902666091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17001914978027</t>
   </si>
   <si>
     <t xml:space="preserve">6.19976329803467</t>
@@ -1178,52 +1178,52 @@
     <t xml:space="preserve">6.29749822616577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32299423217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20401334762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36973667144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33574247360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14452314376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22101068496704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30599689483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33149242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34424114227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2677526473999</t>
+    <t xml:space="preserve">6.32299375534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20401382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36973714828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33574199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14452266693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22101020812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30599641799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33149290084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34424066543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26775312423706</t>
   </si>
   <si>
     <t xml:space="preserve">6.07653331756592</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06378555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13177394866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14027214050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23800754547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18276596069336</t>
+    <t xml:space="preserve">6.06378507614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13177442550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1402735710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23800706863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18276643753052</t>
   </si>
   <si>
     <t xml:space="preserve">6.16152000427246</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">6.27200222015381</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21676158905029</t>
+    <t xml:space="preserve">6.21676063537598</t>
   </si>
   <si>
     <t xml:space="preserve">6.48446846008301</t>
@@ -1241,34 +1241,34 @@
     <t xml:space="preserve">6.3484902381897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40798091888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71393156051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74792671203613</t>
+    <t xml:space="preserve">6.40797996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71393203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74792718887329</t>
   </si>
   <si>
     <t xml:space="preserve">6.70543336868286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63744401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62894630432129</t>
+    <t xml:space="preserve">6.63744354248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62894582748413</t>
   </si>
   <si>
     <t xml:space="preserve">6.79041957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87540674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72243070602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75642442703247</t>
+    <t xml:space="preserve">6.87540626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72243022918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75642490386963</t>
   </si>
   <si>
     <t xml:space="preserve">6.76492357254028</t>
@@ -1277,19 +1277,19 @@
     <t xml:space="preserve">6.84141159057617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65444135665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64594316482544</t>
+    <t xml:space="preserve">6.65444040298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64594268798828</t>
   </si>
   <si>
     <t xml:space="preserve">6.7989182472229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6799373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57795381546021</t>
+    <t xml:space="preserve">6.67993783950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57795286178589</t>
   </si>
   <si>
     <t xml:space="preserve">6.42497777938843</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">6.02554130554199</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05103731155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66294002532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39098310470581</t>
+    <t xml:space="preserve">6.05103778839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66294097900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39098358154297</t>
   </si>
   <si>
     <t xml:space="preserve">6.4929666519165</t>
@@ -1316,31 +1316,31 @@
     <t xml:space="preserve">6.45897197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26350355148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2805004119873</t>
+    <t xml:space="preserve">6.263503074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28050088882446</t>
   </si>
   <si>
     <t xml:space="preserve">6.18701553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06803464889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2550048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17851734161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00004625320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96605062484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93205595016479</t>
+    <t xml:space="preserve">6.06803417205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25500535964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17851686477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00004529953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96605110168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93205642700195</t>
   </si>
   <si>
     <t xml:space="preserve">5.83857107162476</t>
@@ -1352,19 +1352,19 @@
     <t xml:space="preserve">5.88106489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79607820510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94055509567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98304796218872</t>
+    <t xml:space="preserve">5.7960786819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94055461883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98304843902588</t>
   </si>
   <si>
     <t xml:space="preserve">5.88956260681152</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89806175231934</t>
+    <t xml:space="preserve">5.89806222915649</t>
   </si>
   <si>
     <t xml:space="preserve">5.90656042098999</t>
@@ -1373,28 +1373,28 @@
     <t xml:space="preserve">5.74508619308472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76233816146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7968430519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77959060668945</t>
+    <t xml:space="preserve">5.76233863830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79684352874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77959108352661</t>
   </si>
   <si>
     <t xml:space="preserve">5.81409549713135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58981418609619</t>
+    <t xml:space="preserve">5.58981370925903</t>
   </si>
   <si>
     <t xml:space="preserve">5.56393480300903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65882349014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65019750595093</t>
+    <t xml:space="preserve">5.65882396697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65019798278809</t>
   </si>
   <si>
     <t xml:space="preserve">5.85722732543945</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">5.69332885742188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77096462249756</t>
+    <t xml:space="preserve">5.77096509933472</t>
   </si>
   <si>
     <t xml:space="preserve">5.82272243499756</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">5.89173221588135</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02975273132324</t>
+    <t xml:space="preserve">6.02975177764893</t>
   </si>
   <si>
     <t xml:space="preserve">6.02112627029419</t>
@@ -1427,22 +1427,22 @@
     <t xml:space="preserve">5.90035915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83134841918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92623662948608</t>
+    <t xml:space="preserve">5.83134937286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9262375831604</t>
   </si>
   <si>
     <t xml:space="preserve">5.67607641220093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61569261550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80546998977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83997488021851</t>
+    <t xml:space="preserve">5.61569309234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80546951293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83997535705566</t>
   </si>
   <si>
     <t xml:space="preserve">5.84860134124756</t>
@@ -1451,28 +1451,28 @@
     <t xml:space="preserve">5.71920728683472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62431907653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78821706771851</t>
+    <t xml:space="preserve">5.62431859970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78821754455566</t>
   </si>
   <si>
     <t xml:space="preserve">6.13326787948608</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11601543426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93486404418945</t>
+    <t xml:space="preserve">6.11601495742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93486356735229</t>
   </si>
   <si>
     <t xml:space="preserve">5.8744797706604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91761112213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90898418426514</t>
+    <t xml:space="preserve">5.91761159896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90898513793945</t>
   </si>
   <si>
     <t xml:space="preserve">6.00387382507324</t>
@@ -1481,13 +1481,13 @@
     <t xml:space="preserve">5.99524736404419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04700517654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96936893463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88310623168945</t>
+    <t xml:space="preserve">6.04700469970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96936845779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88310670852661</t>
   </si>
   <si>
     <t xml:space="preserve">5.94348955154419</t>
@@ -1496,10 +1496,10 @@
     <t xml:space="preserve">5.95211601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53805589675903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49492502212524</t>
+    <t xml:space="preserve">5.53805637359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49492454528809</t>
   </si>
   <si>
     <t xml:space="preserve">5.4431676864624</t>
@@ -1517,16 +1517,16 @@
     <t xml:space="preserve">5.57256126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55530834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46042013168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47767210006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33102607727051</t>
+    <t xml:space="preserve">5.55530881881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46041965484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4776725769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33102560043335</t>
   </si>
   <si>
     <t xml:space="preserve">5.24476337432861</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">5.21888494491577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34827852249146</t>
+    <t xml:space="preserve">5.3482780456543</t>
   </si>
   <si>
     <t xml:space="preserve">5.23613739013672</t>
@@ -1544,40 +1544,40 @@
     <t xml:space="preserve">5.37415742874146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35690498352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31377363204956</t>
+    <t xml:space="preserve">5.35690450668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3137731552124</t>
   </si>
   <si>
     <t xml:space="preserve">5.3396520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39140939712524</t>
+    <t xml:space="preserve">5.3914098739624</t>
   </si>
   <si>
     <t xml:space="preserve">5.4259147644043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40003681182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59843969345093</t>
+    <t xml:space="preserve">5.4000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59844017028809</t>
   </si>
   <si>
     <t xml:space="preserve">5.43454122543335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27064275741577</t>
+    <t xml:space="preserve">5.27064180374146</t>
   </si>
   <si>
     <t xml:space="preserve">5.19300556182861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27926826477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21025848388672</t>
+    <t xml:space="preserve">5.27926778793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21025800704956</t>
   </si>
   <si>
     <t xml:space="preserve">5.01185464859009</t>
@@ -1589,10 +1589,10 @@
     <t xml:space="preserve">4.58916807174683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65817785263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46840047836304</t>
+    <t xml:space="preserve">4.65817832946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46840000152588</t>
   </si>
   <si>
     <t xml:space="preserve">4.63229942321777</t>
@@ -1601,25 +1601,25 @@
     <t xml:space="preserve">4.61504697799683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70993518829346</t>
+    <t xml:space="preserve">4.70993614196777</t>
   </si>
   <si>
     <t xml:space="preserve">4.55466318130493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3562593460083</t>
+    <t xml:space="preserve">4.35625886917114</t>
   </si>
   <si>
     <t xml:space="preserve">4.22686529159546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30450105667114</t>
+    <t xml:space="preserve">4.3045015335083</t>
   </si>
   <si>
     <t xml:space="preserve">4.17510747909546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2872486114502</t>
+    <t xml:space="preserve">4.28724813461304</t>
   </si>
   <si>
     <t xml:space="preserve">4.23980474472046</t>
@@ -1628,7 +1628,7 @@
     <t xml:space="preserve">4.48565292358398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62367248535156</t>
+    <t xml:space="preserve">4.62367343902588</t>
   </si>
   <si>
     <t xml:space="preserve">4.68405675888062</t>
@@ -1637,16 +1637,16 @@
     <t xml:space="preserve">4.70130920410156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72718858718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50290536880493</t>
+    <t xml:space="preserve">4.72718811035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50290489196777</t>
   </si>
   <si>
     <t xml:space="preserve">4.58054161071777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51153182983398</t>
+    <t xml:space="preserve">4.51153135299683</t>
   </si>
   <si>
     <t xml:space="preserve">4.52015733718872</t>
@@ -1658,25 +1658,25 @@
     <t xml:space="preserve">4.42526912689209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27862310409546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12766265869141</t>
+    <t xml:space="preserve">4.2786226272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12766313552856</t>
   </si>
   <si>
     <t xml:space="preserve">4.16648101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18804693222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23549127578735</t>
+    <t xml:space="preserve">4.18804740905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2354907989502</t>
   </si>
   <si>
     <t xml:space="preserve">4.32175445556641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30018854141235</t>
+    <t xml:space="preserve">4.3001880645752</t>
   </si>
   <si>
     <t xml:space="preserve">4.24411773681641</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">4.18373394012451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11903667449951</t>
+    <t xml:space="preserve">4.11903715133667</t>
   </si>
   <si>
     <t xml:space="preserve">4.3907642364502</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">4.17079448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11472368240356</t>
+    <t xml:space="preserve">4.11472320556641</t>
   </si>
   <si>
     <t xml:space="preserve">4.02414846420288</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">4.44252157211304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39938974380493</t>
+    <t xml:space="preserve">4.39939022064209</t>
   </si>
   <si>
     <t xml:space="preserve">4.57191562652588</t>
@@ -1727,25 +1727,25 @@
     <t xml:space="preserve">4.8910870552063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88246059417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9169659614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96009731292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00322818756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98597574234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05498600006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10674381256104</t>
+    <t xml:space="preserve">4.88246011734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91696548461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96009683609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00322866439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98597621917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05498552322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10674333572388</t>
   </si>
   <si>
     <t xml:space="preserve">5.11536931991577</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">5.08949089050293</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07223796844482</t>
+    <t xml:space="preserve">5.07223892211914</t>
   </si>
   <si>
     <t xml:space="preserve">5.30514764785767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22751092910767</t>
+    <t xml:space="preserve">5.22751045227051</t>
   </si>
   <si>
     <t xml:space="preserve">5.26201581954956</t>
@@ -1778,46 +1778,46 @@
     <t xml:space="preserve">5.4517936706543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38278293609619</t>
+    <t xml:space="preserve">5.38278341293335</t>
   </si>
   <si>
     <t xml:space="preserve">5.51217699050903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5035514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58118772506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60706615447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52942991256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52080345153809</t>
+    <t xml:space="preserve">5.50355100631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58118677139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60706663131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5294303894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52080392837524</t>
   </si>
   <si>
     <t xml:space="preserve">5.08086490631104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21648073196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23413419723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11938905715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11056280136108</t>
+    <t xml:space="preserve">5.21648120880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23413372039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11938953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11056327819824</t>
   </si>
   <si>
     <t xml:space="preserve">5.1635217666626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19000148773193</t>
+    <t xml:space="preserve">5.19000196456909</t>
   </si>
   <si>
     <t xml:space="preserve">5.19882822036743</t>
@@ -1826,13 +1826,10 @@
     <t xml:space="preserve">5.24296092987061</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32240009307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30474662780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27826690673828</t>
+    <t xml:space="preserve">5.30474710464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27826738357544</t>
   </si>
   <si>
     <t xml:space="preserve">5.33122634887695</t>
@@ -1850,16 +1847,16 @@
     <t xml:space="preserve">5.44597101211548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5695424079895</t>
+    <t xml:space="preserve">5.56954193115234</t>
   </si>
   <si>
     <t xml:space="preserve">5.65780735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53423595428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43714427947998</t>
+    <t xml:space="preserve">5.53423690795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43714380264282</t>
   </si>
   <si>
     <t xml:space="preserve">5.51658296585083</t>
@@ -1868,13 +1865,13 @@
     <t xml:space="preserve">5.68428707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63132858276367</t>
+    <t xml:space="preserve">5.63132810592651</t>
   </si>
   <si>
     <t xml:space="preserve">5.5871958732605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7548999786377</t>
+    <t xml:space="preserve">5.75489950180054</t>
   </si>
   <si>
     <t xml:space="preserve">5.87847089767456</t>
@@ -1883,28 +1880,28 @@
     <t xml:space="preserve">5.86081790924072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84316539764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76372671127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81668519973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78137922286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71076726913452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60484838485718</t>
+    <t xml:space="preserve">5.84316492080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76372623443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81668567657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78137969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71076679229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60484790802002</t>
   </si>
   <si>
     <t xml:space="preserve">5.56071615219116</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67546081542969</t>
+    <t xml:space="preserve">5.67546033859253</t>
   </si>
   <si>
     <t xml:space="preserve">5.85199165344238</t>
@@ -1919,7 +1916,7 @@
     <t xml:space="preserve">5.28709316253662</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39301204681396</t>
+    <t xml:space="preserve">5.39301156997681</t>
   </si>
   <si>
     <t xml:space="preserve">5.29591989517212</t>
@@ -1931,16 +1928,16 @@
     <t xml:space="preserve">5.37535905838013</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18117475509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25178670883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26944017410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26061391830444</t>
+    <t xml:space="preserve">5.18117427825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25178718566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26943969726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26061344146729</t>
   </si>
   <si>
     <t xml:space="preserve">5.4018383026123</t>
@@ -1952,10 +1949,10 @@
     <t xml:space="preserve">5.55188941955566</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59602212905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50775623321533</t>
+    <t xml:space="preserve">5.59602165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50775671005249</t>
   </si>
   <si>
     <t xml:space="preserve">5.47245025634766</t>
@@ -1967,10 +1964,10 @@
     <t xml:space="preserve">5.49010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12821578979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14586877822876</t>
+    <t xml:space="preserve">5.12821531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14586925506592</t>
   </si>
   <si>
     <t xml:space="preserve">5.26502704620361</t>
@@ -1985,10 +1982,10 @@
     <t xml:space="preserve">5.25531768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31268978118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38418483734131</t>
+    <t xml:space="preserve">5.31269025802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38418579101562</t>
   </si>
   <si>
     <t xml:space="preserve">5.45214939117432</t>
@@ -1997,25 +1994,25 @@
     <t xml:space="preserve">5.43273115158081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3850679397583</t>
+    <t xml:space="preserve">5.38506746292114</t>
   </si>
   <si>
     <t xml:space="preserve">5.41154766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37271118164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45391511917114</t>
+    <t xml:space="preserve">5.37271070480347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45391464233398</t>
   </si>
   <si>
     <t xml:space="preserve">5.32328224182129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44950151443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59425687789917</t>
+    <t xml:space="preserve">5.44950103759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59425640106201</t>
   </si>
   <si>
     <t xml:space="preserve">5.54747629165649</t>
@@ -2030,25 +2027,25 @@
     <t xml:space="preserve">5.7284197807312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62603235244751</t>
+    <t xml:space="preserve">5.62603282928467</t>
   </si>
   <si>
     <t xml:space="preserve">5.57130718231201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53070497512817</t>
+    <t xml:space="preserve">5.53070592880249</t>
   </si>
   <si>
     <t xml:space="preserve">5.57660341262817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55277156829834</t>
+    <t xml:space="preserve">5.5527720451355</t>
   </si>
   <si>
     <t xml:space="preserve">5.578369140625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8961238861084</t>
+    <t xml:space="preserve">5.89612436294556</t>
   </si>
   <si>
     <t xml:space="preserve">6.1432671546936</t>
@@ -2057,7 +2054,7 @@
     <t xml:space="preserve">6.16092014312744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16974687576294</t>
+    <t xml:space="preserve">6.16974639892578</t>
   </si>
   <si>
     <t xml:space="preserve">6.06294584274292</t>
@@ -2069,22 +2066,22 @@
     <t xml:space="preserve">5.89788961410522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86876201629639</t>
+    <t xml:space="preserve">5.86876153945923</t>
   </si>
   <si>
     <t xml:space="preserve">5.85552167892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85375642776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92613458633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02322673797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05147123336792</t>
+    <t xml:space="preserve">5.85375690460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92613410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02322578430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05147075653076</t>
   </si>
   <si>
     <t xml:space="preserve">6.05941534042358</t>
@@ -2093,25 +2090,25 @@
     <t xml:space="preserve">6.02852201461792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04441022872925</t>
+    <t xml:space="preserve">6.04440975189209</t>
   </si>
   <si>
     <t xml:space="preserve">5.97026681900024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97291564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79373598098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84669589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93496131896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02410888671875</t>
+    <t xml:space="preserve">5.9729151725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79373645782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84669542312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93496084213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02410936355591</t>
   </si>
   <si>
     <t xml:space="preserve">5.81933355331421</t>
@@ -2123,31 +2120,31 @@
     <t xml:space="preserve">5.87052726745605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93142986297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87493991851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84934329986572</t>
+    <t xml:space="preserve">5.93143033981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87494039535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84934377670288</t>
   </si>
   <si>
     <t xml:space="preserve">5.83433818817139</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81138944625854</t>
+    <t xml:space="preserve">5.8113899230957</t>
   </si>
   <si>
     <t xml:space="preserve">5.80609369277954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74077749252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87405729293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77078723907471</t>
+    <t xml:space="preserve">5.74077701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87405776977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77078771591187</t>
   </si>
   <si>
     <t xml:space="preserve">5.68340492248535</t>
@@ -2159,7 +2156,7 @@
     <t xml:space="preserve">5.78579235076904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69311380386353</t>
+    <t xml:space="preserve">5.69311428070068</t>
   </si>
   <si>
     <t xml:space="preserve">5.69576168060303</t>
@@ -2192,28 +2189,28 @@
     <t xml:space="preserve">6.12561416625977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0461745262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99321603775024</t>
+    <t xml:space="preserve">6.04617500305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99321556091309</t>
   </si>
   <si>
     <t xml:space="preserve">5.82815980911255</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52982234954834</t>
+    <t xml:space="preserve">5.5298228263855</t>
   </si>
   <si>
     <t xml:space="preserve">5.46892023086548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29856729507446</t>
+    <t xml:space="preserve">5.29856777191162</t>
   </si>
   <si>
     <t xml:space="preserve">5.14057302474976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25708293914795</t>
+    <t xml:space="preserve">5.25708246231079</t>
   </si>
   <si>
     <t xml:space="preserve">5.28356313705444</t>
@@ -2225,7 +2222,7 @@
     <t xml:space="preserve">4.32809066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38678646087646</t>
+    <t xml:space="preserve">4.38678693771362</t>
   </si>
   <si>
     <t xml:space="preserve">4.39296579360962</t>
@@ -2234,19 +2231,19 @@
     <t xml:space="preserve">4.02357482910156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19260358810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06020593643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84969186782837</t>
+    <t xml:space="preserve">4.19260311126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06020498275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84969234466553</t>
   </si>
   <si>
     <t xml:space="preserve">3.97194004058838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25880146026611</t>
+    <t xml:space="preserve">4.25880193710327</t>
   </si>
   <si>
     <t xml:space="preserve">3.90000343322754</t>
@@ -2255,16 +2252,16 @@
     <t xml:space="preserve">4.05402660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15111827850342</t>
+    <t xml:space="preserve">4.15111875534058</t>
   </si>
   <si>
     <t xml:space="preserve">4.35898351669312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19966459274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13743782043457</t>
+    <t xml:space="preserve">4.19966411590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13743734359741</t>
   </si>
   <si>
     <t xml:space="preserve">4.34177160263062</t>
@@ -2276,13 +2273,13 @@
     <t xml:space="preserve">4.45739984512329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25438928604126</t>
+    <t xml:space="preserve">4.2543888092041</t>
   </si>
   <si>
     <t xml:space="preserve">4.41326665878296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54566478729248</t>
+    <t xml:space="preserve">4.54566526412964</t>
   </si>
   <si>
     <t xml:space="preserve">4.70454263687134</t>
@@ -2291,28 +2288,28 @@
     <t xml:space="preserve">4.57214450836182</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72219562530518</t>
+    <t xml:space="preserve">4.72219514846802</t>
   </si>
   <si>
     <t xml:space="preserve">4.66040992736816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66923570632935</t>
+    <t xml:space="preserve">4.6692361831665</t>
   </si>
   <si>
     <t xml:space="preserve">4.61627721786499</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58979749679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83694076538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86341953277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88989925384521</t>
+    <t xml:space="preserve">4.5897970199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8369402885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8634204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88989973068237</t>
   </si>
   <si>
     <t xml:space="preserve">5.03995037078857</t>
@@ -2324,10 +2321,10 @@
     <t xml:space="preserve">4.93403244018555</t>
   </si>
   <si>
-    <t xml:space="preserve">4.678062915802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64275693893433</t>
+    <t xml:space="preserve">4.67806243896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64275646209717</t>
   </si>
   <si>
     <t xml:space="preserve">4.71336889266968</t>
@@ -2336,7 +2333,7 @@
     <t xml:space="preserve">4.76632785797119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89872646331787</t>
+    <t xml:space="preserve">4.89872598648071</t>
   </si>
   <si>
     <t xml:space="preserve">5.00738573074341</t>
@@ -2345,16 +2342,16 @@
     <t xml:space="preserve">4.89872550964355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82628679275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98022079467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01643991470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20659446716309</t>
+    <t xml:space="preserve">4.82628631591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98022031784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01644039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20659399032593</t>
   </si>
   <si>
     <t xml:space="preserve">5.32430791854858</t>
@@ -2369,7 +2366,7 @@
     <t xml:space="preserve">5.55068206787109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40580272674561</t>
+    <t xml:space="preserve">5.40580224990845</t>
   </si>
   <si>
     <t xml:space="preserve">5.63217639923096</t>
@@ -2384,7 +2381,7 @@
     <t xml:space="preserve">5.84044027328491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93099021911621</t>
+    <t xml:space="preserve">5.93099069595337</t>
   </si>
   <si>
     <t xml:space="preserve">5.74989080429077</t>
@@ -2396,13 +2393,13 @@
     <t xml:space="preserve">5.37863826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34241819381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66839694976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84949493408203</t>
+    <t xml:space="preserve">5.3424186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66839647293091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84949541091919</t>
   </si>
   <si>
     <t xml:space="preserve">5.7227258682251</t>
@@ -2414,22 +2411,22 @@
     <t xml:space="preserve">5.79516553878784</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73178100585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75894641876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83138513565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69556093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67745113372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64123201370239</t>
+    <t xml:space="preserve">5.73178052902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75894594192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83138465881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69556140899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67745161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64123153686523</t>
   </si>
   <si>
     <t xml:space="preserve">5.56879234313965</t>
@@ -2438,25 +2435,25 @@
     <t xml:space="preserve">5.46013307571411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53257274627686</t>
+    <t xml:space="preserve">5.5325722694397</t>
   </si>
   <si>
     <t xml:space="preserve">5.52351713180542</t>
   </si>
   <si>
-    <t xml:space="preserve">5.423912525177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4963526725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39674806594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31525373458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46918773651123</t>
+    <t xml:space="preserve">5.42391300201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49635219573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39674758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31525325775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46918725967407</t>
   </si>
   <si>
     <t xml:space="preserve">5.36052846908569</t>
@@ -2465,10 +2462,10 @@
     <t xml:space="preserve">5.36958312988281</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47824239730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59595680236816</t>
+    <t xml:space="preserve">5.47824287414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59595727920532</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461654663086</t>
@@ -2483,7 +2480,7 @@
     <t xml:space="preserve">5.48729753494263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45107746124268</t>
+    <t xml:space="preserve">5.45107793807983</t>
   </si>
   <si>
     <t xml:space="preserve">5.38769292831421</t>
@@ -2504,7 +2501,7 @@
     <t xml:space="preserve">5.26092386245728</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23375940322876</t>
+    <t xml:space="preserve">5.2337589263916</t>
   </si>
   <si>
     <t xml:space="preserve">5.26997900009155</t>
@@ -2516,13 +2513,13 @@
     <t xml:space="preserve">5.12509965896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99833011627197</t>
+    <t xml:space="preserve">4.99833059310913</t>
   </si>
   <si>
     <t xml:space="preserve">4.70857191085815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81723117828369</t>
+    <t xml:space="preserve">4.81723165512085</t>
   </si>
   <si>
     <t xml:space="preserve">4.9530553817749</t>
@@ -2537,16 +2534,16 @@
     <t xml:space="preserve">4.98927545547485</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08887958526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02153921127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13019895553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13925361633301</t>
+    <t xml:space="preserve">5.08888006210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02153968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13019847869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13925409317017</t>
   </si>
   <si>
     <t xml:space="preserve">6.11208915710449</t>
@@ -2570,13 +2567,13 @@
     <t xml:space="preserve">6.41090154647827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44712114334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37468194961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42901182174683</t>
+    <t xml:space="preserve">6.44712162017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37468242645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42901134490967</t>
   </si>
   <si>
     <t xml:space="preserve">6.43806743621826</t>
@@ -2585,16 +2582,16 @@
     <t xml:space="preserve">6.23885774612427</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20263767242432</t>
+    <t xml:space="preserve">6.20263814926147</t>
   </si>
   <si>
     <t xml:space="preserve">6.18452835083008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17547369003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10303354263306</t>
+    <t xml:space="preserve">6.1754732131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10303401947021</t>
   </si>
   <si>
     <t xml:space="preserve">6.0849232673645</t>
@@ -2603,7 +2600,7 @@
     <t xml:space="preserve">6.05775880813599</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06681394577026</t>
+    <t xml:space="preserve">6.06681346893311</t>
   </si>
   <si>
     <t xml:space="preserve">6.03964948654175</t>
@@ -2612,7 +2609,7 @@
     <t xml:space="preserve">6.03059434890747</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35657215118408</t>
+    <t xml:space="preserve">6.35657262802124</t>
   </si>
   <si>
     <t xml:space="preserve">6.59200096130371</t>
@@ -2624,13 +2621,13 @@
     <t xml:space="preserve">6.40184736251831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32940769195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16641855239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50145149230957</t>
+    <t xml:space="preserve">6.32940721511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16641807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50145101547241</t>
   </si>
   <si>
     <t xml:space="preserve">6.24791288375854</t>
@@ -2639,52 +2636,52 @@
     <t xml:space="preserve">6.33846187591553</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30224275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39279222488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61011075973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80026483535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15340709686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58804512023926</t>
+    <t xml:space="preserve">6.30224227905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39279174804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61011123657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80026531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15340805053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58804559707642</t>
   </si>
   <si>
     <t xml:space="preserve">7.69670391082764</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75103425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725481033325</t>
+    <t xml:space="preserve">7.75103378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725385665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.84158325195312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67859411239624</t>
+    <t xml:space="preserve">7.67859315872192</t>
   </si>
   <si>
     <t xml:space="preserve">7.46127557754517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45222043991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32545137405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44316530227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28017663955688</t>
+    <t xml:space="preserve">7.45222091674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32545185089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44316577911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28017616271973</t>
   </si>
   <si>
     <t xml:space="preserve">7.18962717056274</t>
@@ -2699,16 +2696,16 @@
     <t xml:space="preserve">7.4974946975708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63332080841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74197864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73292398452759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80536317825317</t>
+    <t xml:space="preserve">7.63332033157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74197912216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73292350769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80536413192749</t>
   </si>
   <si>
     <t xml:space="preserve">7.660484790802</t>
@@ -2720,28 +2717,28 @@
     <t xml:space="preserve">7.31639623641968</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76914358139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83252859115601</t>
+    <t xml:space="preserve">7.76914405822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83252763748169</t>
   </si>
   <si>
     <t xml:space="preserve">7.92307806015015</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09512138366699</t>
+    <t xml:space="preserve">8.09512233734131</t>
   </si>
   <si>
     <t xml:space="preserve">8.35771465301514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25811100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15850639343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3396053314209</t>
+    <t xml:space="preserve">8.25811004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15850734710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33960628509521</t>
   </si>
   <si>
     <t xml:space="preserve">8.36676979064941</t>
@@ -2759,7 +2756,7 @@
     <t xml:space="preserve">8.20378112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16756057739258</t>
+    <t xml:space="preserve">8.16756153106689</t>
   </si>
   <si>
     <t xml:space="preserve">8.24000072479248</t>
@@ -2768,60 +2765,63 @@
     <t xml:space="preserve">8.30338573455811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23094654083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31243991851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55692481994629</t>
+    <t xml:space="preserve">8.2309455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31244087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55692386627197</t>
   </si>
   <si>
     <t xml:space="preserve">8.40298938751221</t>
   </si>
   <si>
+    <t xml:space="preserve">8.61125469207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5478687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68369388580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60219764709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81951713562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59314346313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63882446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77667903900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60206317901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58368396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53773212432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73072624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48258972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59287357330322</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.61125373840332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5478687286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68369483947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60219860076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81951713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59314346313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63882446289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77667903900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60206317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58368396759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53773212432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73072624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48258972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59287357330322</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.79505825042725</t>
   </si>
   <si>
@@ -4305,6 +4305,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.32999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31999969482422</t>
   </si>
 </sst>
 </file>
@@ -27284,7 +27287,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G871" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27310,7 +27313,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G872" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27336,7 +27339,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27362,7 +27365,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27388,7 +27391,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G875" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27414,7 +27417,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G876" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27440,7 +27443,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27466,7 +27469,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G878" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27492,7 +27495,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G879" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27518,7 +27521,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27544,7 +27547,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G881" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27570,7 +27573,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G882" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27596,7 +27599,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G883" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27622,7 +27625,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G884" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27648,7 +27651,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G885" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27674,7 +27677,7 @@
         <v>6.25</v>
       </c>
       <c r="G886" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27700,7 +27703,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G887" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27726,7 +27729,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G888" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27752,7 +27755,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27778,7 +27781,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G890" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27804,7 +27807,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G891" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27830,7 +27833,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G892" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27856,7 +27859,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G893" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27882,7 +27885,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G894" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27908,7 +27911,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G895" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27934,7 +27937,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G896" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27960,7 +27963,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G897" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27986,7 +27989,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G898" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28012,7 +28015,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G899" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28038,7 +28041,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G900" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28064,7 +28067,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G901" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28090,7 +28093,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G902" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28116,7 +28119,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G903" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28142,7 +28145,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G904" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28168,7 +28171,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G905" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28194,7 +28197,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28220,7 +28223,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G907" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28246,7 +28249,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G908" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28272,7 +28275,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G909" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28298,7 +28301,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G910" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28324,7 +28327,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G911" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28350,7 +28353,7 @@
         <v>6.25</v>
       </c>
       <c r="G912" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28376,7 +28379,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G913" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28402,7 +28405,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28428,7 +28431,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G915" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28454,7 +28457,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G916" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28480,7 +28483,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G917" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28532,7 +28535,7 @@
         <v>6</v>
       </c>
       <c r="G919" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28558,7 +28561,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G920" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28584,7 +28587,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28610,7 +28613,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G922" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28636,7 +28639,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G923" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28662,7 +28665,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G924" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28714,7 +28717,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G926" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28766,7 +28769,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G928" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28792,7 +28795,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G929" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28818,7 +28821,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28844,7 +28847,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G931" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28896,7 +28899,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G933" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28948,7 +28951,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28974,7 +28977,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G936" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29000,7 +29003,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G937" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29026,7 +29029,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G938" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29052,7 +29055,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29078,7 +29081,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G940" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29104,7 +29107,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29130,7 +29133,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29156,7 +29159,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G943" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29182,7 +29185,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G944" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29208,7 +29211,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G945" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29234,7 +29237,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G946" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29260,7 +29263,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G947" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29286,7 +29289,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G948" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29312,7 +29315,7 @@
         <v>6</v>
       </c>
       <c r="G949" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29338,7 +29341,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29364,7 +29367,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G951" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29390,7 +29393,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G952" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29416,7 +29419,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G953" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29442,7 +29445,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G954" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29494,7 +29497,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G956" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29520,7 +29523,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29546,7 +29549,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G958" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29572,7 +29575,7 @@
         <v>5.82299995422363</v>
       </c>
       <c r="G959" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29598,7 +29601,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G960" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29624,7 +29627,7 @@
         <v>5.9539999961853</v>
       </c>
       <c r="G961" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29650,7 +29653,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G962" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29676,7 +29679,7 @@
         <v>6.01900005340576</v>
       </c>
       <c r="G963" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29702,7 +29705,7 @@
         <v>6</v>
       </c>
       <c r="G964" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29728,7 +29731,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G965" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29754,7 +29757,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G966" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29780,7 +29783,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G967" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29806,7 +29809,7 @@
         <v>6.17700004577637</v>
       </c>
       <c r="G968" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29832,7 +29835,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G969" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29858,7 +29861,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G970" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29884,7 +29887,7 @@
         <v>6.13100004196167</v>
       </c>
       <c r="G971" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29910,7 +29913,7 @@
         <v>6.08699989318848</v>
       </c>
       <c r="G972" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29936,7 +29939,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G973" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29962,7 +29965,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G974" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29988,7 +29991,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G975" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30014,7 +30017,7 @@
         <v>6.0310001373291</v>
       </c>
       <c r="G976" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30040,7 +30043,7 @@
         <v>6.17399978637695</v>
       </c>
       <c r="G977" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30066,7 +30069,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G978" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30092,7 +30095,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G979" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30118,7 +30121,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G980" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30144,7 +30147,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G981" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30170,7 +30173,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G982" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30196,7 +30199,7 @@
         <v>6.37599992752075</v>
       </c>
       <c r="G983" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30222,7 +30225,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G984" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30248,7 +30251,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G985" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30274,7 +30277,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G986" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30300,7 +30303,7 @@
         <v>6.37400007247925</v>
       </c>
       <c r="G987" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30326,7 +30329,7 @@
         <v>6.31199979782104</v>
       </c>
       <c r="G988" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30352,7 +30355,7 @@
         <v>6.26599979400635</v>
       </c>
       <c r="G989" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30378,7 +30381,7 @@
         <v>6.31799983978271</v>
       </c>
       <c r="G990" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30404,7 +30407,7 @@
         <v>6.29099988937378</v>
       </c>
       <c r="G991" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30430,7 +30433,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G992" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30456,7 +30459,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G993" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30482,7 +30485,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G994" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30508,7 +30511,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G995" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30534,7 +30537,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G996" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30560,7 +30563,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G997" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30586,7 +30589,7 @@
         <v>6.86899995803833</v>
       </c>
       <c r="G998" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30612,7 +30615,7 @@
         <v>6.66699981689453</v>
       </c>
       <c r="G999" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30638,7 +30641,7 @@
         <v>6.68200016021729</v>
       </c>
       <c r="G1000" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30664,7 +30667,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G1001" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30690,7 +30693,7 @@
         <v>6.63399982452393</v>
       </c>
       <c r="G1002" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30716,7 +30719,7 @@
         <v>6.63199996948242</v>
       </c>
       <c r="G1003" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30742,7 +30745,7 @@
         <v>6.71400022506714</v>
       </c>
       <c r="G1004" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30768,7 +30771,7 @@
         <v>6.82399988174438</v>
       </c>
       <c r="G1005" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30794,7 +30797,7 @@
         <v>6.85599994659424</v>
       </c>
       <c r="G1006" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30820,7 +30823,7 @@
         <v>6.86499977111816</v>
       </c>
       <c r="G1007" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30846,7 +30849,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1008" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30872,7 +30875,7 @@
         <v>6.84800004959106</v>
       </c>
       <c r="G1009" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30898,7 +30901,7 @@
         <v>6.76399993896484</v>
       </c>
       <c r="G1010" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30924,7 +30927,7 @@
         <v>6.76700019836426</v>
       </c>
       <c r="G1011" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30950,7 +30953,7 @@
         <v>6.56400012969971</v>
       </c>
       <c r="G1012" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30976,7 +30979,7 @@
         <v>6.62400007247925</v>
       </c>
       <c r="G1013" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31002,7 +31005,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1014" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31028,7 +31031,7 @@
         <v>6.72399997711182</v>
       </c>
       <c r="G1015" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31054,7 +31057,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G1016" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31080,7 +31083,7 @@
         <v>6.59299993515015</v>
       </c>
       <c r="G1017" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31106,7 +31109,7 @@
         <v>6.44199991226196</v>
       </c>
       <c r="G1018" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31132,7 +31135,7 @@
         <v>6.65100002288818</v>
       </c>
       <c r="G1019" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31158,7 +31161,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1020" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31184,7 +31187,7 @@
         <v>6.6560001373291</v>
       </c>
       <c r="G1021" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31210,7 +31213,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G1022" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31236,7 +31239,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1023" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31262,7 +31265,7 @@
         <v>6.58400011062622</v>
       </c>
       <c r="G1024" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31288,7 +31291,7 @@
         <v>6.57800006866455</v>
       </c>
       <c r="G1025" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31314,7 +31317,7 @@
         <v>6.50400018692017</v>
       </c>
       <c r="G1026" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31340,7 +31343,7 @@
         <v>6.65500020980835</v>
       </c>
       <c r="G1027" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31366,7 +31369,7 @@
         <v>6.53800010681152</v>
       </c>
       <c r="G1028" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31392,7 +31395,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1029" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31418,7 +31421,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G1030" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31444,7 +31447,7 @@
         <v>6.5</v>
       </c>
       <c r="G1031" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31470,7 +31473,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1032" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31496,7 +31499,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G1033" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31522,7 +31525,7 @@
         <v>6.5</v>
       </c>
       <c r="G1034" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31548,7 +31551,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1035" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31574,7 +31577,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1036" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31600,7 +31603,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1037" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31626,7 +31629,7 @@
         <v>6.45300006866455</v>
       </c>
       <c r="G1038" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31652,7 +31655,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G1039" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31678,7 +31681,7 @@
         <v>6.61600017547607</v>
       </c>
       <c r="G1040" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31704,7 +31707,7 @@
         <v>6.48799991607666</v>
       </c>
       <c r="G1041" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31730,7 +31733,7 @@
         <v>6.47900009155273</v>
       </c>
       <c r="G1042" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31756,7 +31759,7 @@
         <v>6.53200006484985</v>
       </c>
       <c r="G1043" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31782,7 +31785,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G1044" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31808,7 +31811,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1045" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31834,7 +31837,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1046" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31860,7 +31863,7 @@
         <v>6.74900007247925</v>
       </c>
       <c r="G1047" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31886,7 +31889,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1048" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31912,7 +31915,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1049" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31938,7 +31941,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31964,7 +31967,7 @@
         <v>6.60300016403198</v>
       </c>
       <c r="G1051" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31990,7 +31993,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1052" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32016,7 +32019,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G1053" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32042,7 +32045,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G1054" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32068,7 +32071,7 @@
         <v>6.19600009918213</v>
       </c>
       <c r="G1055" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32094,7 +32097,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G1056" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32120,7 +32123,7 @@
         <v>5.82399988174438</v>
       </c>
       <c r="G1057" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32172,7 +32175,7 @@
         <v>5.95599985122681</v>
       </c>
       <c r="G1059" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32198,7 +32201,7 @@
         <v>5.98600006103516</v>
       </c>
       <c r="G1060" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32224,7 +32227,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1061" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32250,7 +32253,7 @@
         <v>5.54199981689453</v>
       </c>
       <c r="G1062" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32276,7 +32279,7 @@
         <v>4.90350008010864</v>
       </c>
       <c r="G1063" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32302,7 +32305,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G1064" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32328,7 +32331,7 @@
         <v>4.97700023651123</v>
       </c>
       <c r="G1065" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32354,7 +32357,7 @@
         <v>4.55849981307983</v>
       </c>
       <c r="G1066" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32380,7 +32383,7 @@
         <v>4.75</v>
       </c>
       <c r="G1067" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32406,7 +32409,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1068" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32432,7 +32435,7 @@
         <v>4.75</v>
       </c>
       <c r="G1069" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32458,7 +32461,7 @@
         <v>4.36149978637695</v>
       </c>
       <c r="G1070" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32484,7 +32487,7 @@
         <v>4.5</v>
       </c>
       <c r="G1071" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32510,7 +32513,7 @@
         <v>4.82499980926514</v>
       </c>
       <c r="G1072" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32536,7 +32539,7 @@
         <v>4.41849994659424</v>
       </c>
       <c r="G1073" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32562,7 +32565,7 @@
         <v>4.59299993515015</v>
       </c>
       <c r="G1074" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32588,7 +32591,7 @@
         <v>4.70300006866455</v>
       </c>
       <c r="G1075" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32614,7 +32617,7 @@
         <v>4.93849992752075</v>
       </c>
       <c r="G1076" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32640,7 +32643,7 @@
         <v>4.75799989700317</v>
       </c>
       <c r="G1077" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32666,7 +32669,7 @@
         <v>4.6875</v>
       </c>
       <c r="G1078" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32692,7 +32695,7 @@
         <v>4.91900014877319</v>
       </c>
       <c r="G1079" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32718,7 +32721,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G1080" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32744,7 +32747,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1081" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32770,7 +32773,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G1082" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32796,7 +32799,7 @@
         <v>5</v>
       </c>
       <c r="G1083" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32822,7 +32825,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1084" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32848,7 +32851,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32874,7 +32877,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1086" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32900,7 +32903,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1087" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32926,7 +32929,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1088" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32952,7 +32955,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1089" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32978,7 +32981,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1090" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33004,7 +33007,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33030,7 +33033,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1092" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33056,7 +33059,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1093" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33082,7 +33085,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33108,7 +33111,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1095" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33134,7 +33137,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33160,7 +33163,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33186,7 +33189,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G1098" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33212,7 +33215,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1099" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33238,7 +33241,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33264,7 +33267,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1101" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33290,7 +33293,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1102" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33316,7 +33319,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1103" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33342,7 +33345,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1104" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33368,7 +33371,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1105" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33394,7 +33397,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1106" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33420,7 +33423,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1107" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33446,7 +33449,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1108" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33472,7 +33475,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1109" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33498,7 +33501,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1110" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33524,7 +33527,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1111" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33550,7 +33553,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1112" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33576,7 +33579,7 @@
         <v>5.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33602,7 +33605,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1114" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33628,7 +33631,7 @@
         <v>5.75</v>
       </c>
       <c r="G1115" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33654,7 +33657,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1116" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33680,7 +33683,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1117" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33706,7 +33709,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33732,7 +33735,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1119" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33758,7 +33761,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1120" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33784,7 +33787,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1121" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33810,7 +33813,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1122" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33836,7 +33839,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1123" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33862,7 +33865,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1124" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33888,7 +33891,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G1125" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33914,7 +33917,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1126" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33940,7 +33943,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1127" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33966,7 +33969,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1128" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33992,7 +33995,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1129" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34018,7 +34021,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1130" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34044,7 +34047,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1131" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34070,7 +34073,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1132" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34096,7 +34099,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34122,7 +34125,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G1134" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34148,7 +34151,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1135" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34174,7 +34177,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1136" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34200,7 +34203,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1137" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34226,7 +34229,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1138" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34252,7 +34255,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1139" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34278,7 +34281,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1140" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34304,7 +34307,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1141" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34330,7 +34333,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G1142" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34356,7 +34359,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1143" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34382,7 +34385,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34408,7 +34411,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1145" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34434,7 +34437,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1146" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34460,7 +34463,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1147" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34486,7 +34489,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1148" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34512,7 +34515,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1149" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34538,7 +34541,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1150" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34564,7 +34567,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1151" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34590,7 +34593,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1152" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34616,7 +34619,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34642,7 +34645,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1154" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34668,7 +34671,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34694,7 +34697,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1156" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34720,7 +34723,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1157" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34746,7 +34749,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1158" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34772,7 +34775,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1159" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34798,7 +34801,7 @@
         <v>5.75</v>
       </c>
       <c r="G1160" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34824,7 +34827,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1161" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34850,7 +34853,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34876,7 +34879,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34902,7 +34905,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1164" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34928,7 +34931,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1165" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34954,7 +34957,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1166" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34980,7 +34983,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1167" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35006,7 +35009,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1168" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35032,7 +35035,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1169" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35058,7 +35061,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1170" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35084,7 +35087,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1171" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35110,7 +35113,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35136,7 +35139,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1173" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35162,7 +35165,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1174" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35188,7 +35191,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1175" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35214,7 +35217,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1176" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35240,7 +35243,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1177" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35266,7 +35269,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35292,7 +35295,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1179" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35318,7 +35321,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1180" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35344,7 +35347,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1181" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35370,7 +35373,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1182" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35396,7 +35399,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G1183" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35422,7 +35425,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1184" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35448,7 +35451,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1185" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35474,7 +35477,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1186" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35500,7 +35503,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1187" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35526,7 +35529,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1188" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35552,7 +35555,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35578,7 +35581,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1190" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35604,7 +35607,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1191" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35630,7 +35633,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1192" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35656,7 +35659,7 @@
         <v>6</v>
       </c>
       <c r="G1193" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35682,7 +35685,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1194" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35708,7 +35711,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35734,7 +35737,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35760,7 +35763,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1197" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35786,7 +35789,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1198" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35812,7 +35815,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1199" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35838,7 +35841,7 @@
         <v>6</v>
       </c>
       <c r="G1200" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35864,7 +35867,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35890,7 +35893,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1202" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35916,7 +35919,7 @@
         <v>6</v>
       </c>
       <c r="G1203" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35942,7 +35945,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1204" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35968,7 +35971,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1205" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35994,7 +35997,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1206" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -36020,7 +36023,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1207" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -36046,7 +36049,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1208" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -36072,7 +36075,7 @@
         <v>5.75</v>
       </c>
       <c r="G1209" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -36098,7 +36101,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1210" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -36124,7 +36127,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1211" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -36150,7 +36153,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1212" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -36176,7 +36179,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1213" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -36202,7 +36205,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1214" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -36228,7 +36231,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G1215" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -36254,7 +36257,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -36280,7 +36283,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1217" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -36306,7 +36309,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1218" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -36332,7 +36335,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1219" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36358,7 +36361,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1220" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36384,7 +36387,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1221" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36410,7 +36413,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36436,7 +36439,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1223" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36462,7 +36465,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1224" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36488,7 +36491,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1225" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36514,7 +36517,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1226" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36540,7 +36543,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1227" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36566,7 +36569,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1228" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36592,7 +36595,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1229" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36618,7 +36621,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1230" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36644,7 +36647,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1231" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36670,7 +36673,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1232" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36696,7 +36699,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1233" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36722,7 +36725,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1234" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36748,7 +36751,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1235" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36774,7 +36777,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36800,7 +36803,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1237" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36826,7 +36829,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1238" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36852,7 +36855,7 @@
         <v>6.75</v>
       </c>
       <c r="G1239" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36878,7 +36881,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1240" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36904,7 +36907,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1241" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36930,7 +36933,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1242" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36956,7 +36959,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1243" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36982,7 +36985,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1244" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -37008,7 +37011,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1245" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -37034,7 +37037,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1246" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -37060,7 +37063,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -37086,7 +37089,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1248" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37112,7 +37115,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1249" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -37138,7 +37141,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1250" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -37164,7 +37167,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1251" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37190,7 +37193,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1252" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -37216,7 +37219,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1253" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -37242,7 +37245,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37268,7 +37271,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1255" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -37294,7 +37297,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1256" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -37320,7 +37323,7 @@
         <v>6.75</v>
       </c>
       <c r="G1257" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -37346,7 +37349,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1258" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37372,7 +37375,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1259" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37398,7 +37401,7 @@
         <v>6.75</v>
       </c>
       <c r="G1260" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37424,7 +37427,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1261" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37450,7 +37453,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1262" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37476,7 +37479,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1263" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37502,7 +37505,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37528,7 +37531,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1265" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37554,7 +37557,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1266" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37580,7 +37583,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1267" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37606,7 +37609,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1268" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37632,7 +37635,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1269" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37658,7 +37661,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1270" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37684,7 +37687,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1271" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37710,7 +37713,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37736,7 +37739,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1273" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37762,7 +37765,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1274" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37788,7 +37791,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1275" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37814,7 +37817,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37840,7 +37843,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1277" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37866,7 +37869,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G1278" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37892,7 +37895,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1279" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37918,7 +37921,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1280" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37944,7 +37947,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1281" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37970,7 +37973,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1282" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37996,7 +37999,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1283" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -38022,7 +38025,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G1284" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -38048,7 +38051,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1285" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -38074,7 +38077,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1286" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38100,7 +38103,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G1287" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -38126,7 +38129,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1288" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38152,7 +38155,7 @@
         <v>7</v>
       </c>
       <c r="G1289" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38178,7 +38181,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1290" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -38204,7 +38207,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1291" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -38230,7 +38233,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1292" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -38256,7 +38259,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1293" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -38282,7 +38285,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1294" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -38308,7 +38311,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1295" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -38334,7 +38337,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1296" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38360,7 +38363,7 @@
         <v>8.5</v>
       </c>
       <c r="G1297" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38386,7 +38389,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1298" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38412,7 +38415,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1299" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38438,7 +38441,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1300" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38464,7 +38467,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1301" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38490,7 +38493,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1302" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38516,7 +38519,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1303" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38542,7 +38545,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1304" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38568,7 +38571,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1305" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38594,7 +38597,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1306" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38620,7 +38623,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1307" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38646,7 +38649,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1308" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38672,7 +38675,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1309" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38698,7 +38701,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1310" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38724,7 +38727,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1311" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38750,7 +38753,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1312" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38776,7 +38779,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1313" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38802,7 +38805,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1314" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38828,7 +38831,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1315" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38854,7 +38857,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1316" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38880,7 +38883,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1317" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38906,7 +38909,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1318" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38932,7 +38935,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1319" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38958,7 +38961,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1320" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38984,7 +38987,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1321" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39010,7 +39013,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1322" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -39036,7 +39039,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -39062,7 +39065,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1324" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -39088,7 +39091,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1325" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -39114,7 +39117,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1326" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -39140,7 +39143,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1327" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -39166,7 +39169,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1328" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -39192,7 +39195,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1329" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -39218,7 +39221,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1330" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -39244,7 +39247,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1331" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -39270,7 +39273,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1332" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -39296,7 +39299,7 @@
         <v>8.75</v>
       </c>
       <c r="G1333" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -39322,7 +39325,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1334" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -39348,7 +39351,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1335" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -39374,7 +39377,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39400,7 +39403,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1337" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39426,7 +39429,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1338" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39452,7 +39455,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1339" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39478,7 +39481,7 @@
         <v>9</v>
       </c>
       <c r="G1340" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39504,7 +39507,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1341" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39530,7 +39533,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G1342" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39556,7 +39559,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G1343" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39582,7 +39585,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1344" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39608,7 +39611,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G1345" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39634,7 +39637,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1346" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39660,7 +39663,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1347" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39686,7 +39689,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1348" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39712,7 +39715,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G1349" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39738,7 +39741,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1350" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39764,7 +39767,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1351" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39790,7 +39793,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1352" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39816,7 +39819,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1353" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39842,7 +39845,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1354" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39868,7 +39871,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1355" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39894,7 +39897,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1356" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39920,7 +39923,7 @@
         <v>9.5</v>
       </c>
       <c r="G1357" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39946,7 +39949,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1358" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39972,7 +39975,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G1359" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -39998,7 +40001,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1360" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -40024,7 +40027,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1361" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -40050,7 +40053,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1362" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -40076,7 +40079,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1363" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -40102,7 +40105,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1364" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -40128,7 +40131,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1365" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -40154,7 +40157,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1366" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -40180,7 +40183,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1367" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -40206,7 +40209,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1368" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -40232,7 +40235,7 @@
         <v>9.5</v>
       </c>
       <c r="G1369" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -40258,7 +40261,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1370" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -40284,7 +40287,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1371" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -40310,7 +40313,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1372" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -40336,7 +40339,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1373" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -40362,7 +40365,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1374" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -40674,7 +40677,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1386" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -41506,7 +41509,7 @@
         <v>9.5</v>
       </c>
       <c r="G1418" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41688,7 +41691,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1425" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41792,7 +41795,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1429" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41818,7 +41821,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1430" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41948,7 +41951,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1435" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -42182,7 +42185,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1444" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -60806,7 +60809,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6495601852</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>47933</v>
@@ -60827,6 +60830,32 @@
         <v>1430</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6493055556</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>67201</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>9.36999988555908</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>9.26000022888184</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>9.31999969482422</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="1434">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7980055809021</t>
+    <t xml:space="preserve">4.79800653457642</t>
   </si>
   <si>
     <t xml:space="preserve">CEM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77356815338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64730453491211</t>
+    <t xml:space="preserve">4.77356767654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64730501174927</t>
   </si>
   <si>
     <t xml:space="preserve">4.57806348800659</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">4.41514348983765</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30517148971558</t>
+    <t xml:space="preserve">4.30517196655273</t>
   </si>
   <si>
     <t xml:space="preserve">4.41107034683228</t>
@@ -65,166 +65,166 @@
     <t xml:space="preserve">4.37441253662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37848567962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14225149154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01435852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05346012115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74879932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91171884536743</t>
+    <t xml:space="preserve">4.37848615646362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14225101470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01435899734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05345916748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74879908561707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91171932220459</t>
   </si>
   <si>
     <t xml:space="preserve">4.02739238739014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95733618736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99480867385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95570731163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82048416137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01272964477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95081973075867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81233787536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64941763877869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67059755325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69177675247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41807055473328</t>
+    <t xml:space="preserve">3.95733571052551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99480843544006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95570755004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82048392295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01273059844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95081996917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81233692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64941740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67059707641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69177651405334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4180703163147</t>
   </si>
   <si>
     <t xml:space="preserve">3.21279048919678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3154308795929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19323968887329</t>
+    <t xml:space="preserve">3.31543040275574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19323992729187</t>
   </si>
   <si>
     <t xml:space="preserve">3.2730712890625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51093506813049</t>
+    <t xml:space="preserve">3.51093482971191</t>
   </si>
   <si>
     <t xml:space="preserve">3.42947459220886</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54514837265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62497901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41318249702454</t>
+    <t xml:space="preserve">3.54514813423157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6249794960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41318273544312</t>
   </si>
   <si>
     <t xml:space="preserve">3.45880031585693</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43436241149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30402588844299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35778999328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4702045917511</t>
+    <t xml:space="preserve">3.43436217308044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30402636528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35779023170471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47020506858826</t>
   </si>
   <si>
     <t xml:space="preserve">3.65756297111511</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70643973350525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62660837173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71621417999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63149619102478</t>
+    <t xml:space="preserve">3.70643925666809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62660813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71621465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63149642944336</t>
   </si>
   <si>
     <t xml:space="preserve">3.59076595306396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56795763969421</t>
+    <t xml:space="preserve">3.56795716285706</t>
   </si>
   <si>
     <t xml:space="preserve">3.59565329551697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62009143829346</t>
+    <t xml:space="preserve">3.6200909614563</t>
   </si>
   <si>
     <t xml:space="preserve">3.82700085639954</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68525958061218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82862973213196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846014022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74391055107117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78138208389282</t>
+    <t xml:space="preserve">3.68525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82862949371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90845990180969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74391078948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78138327598572</t>
   </si>
   <si>
     <t xml:space="preserve">3.73087763786316</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5875072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64127087593079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57936143875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61357498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65104627609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5207097530365</t>
+    <t xml:space="preserve">3.58750748634338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64127159118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5793616771698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61357450485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65104651451111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52070999145508</t>
   </si>
   <si>
     <t xml:space="preserve">3.47835063934326</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">3.67222619056702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55492281913757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61520409584045</t>
+    <t xml:space="preserve">3.55492305755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61520457267761</t>
   </si>
   <si>
     <t xml:space="preserve">3.66733813285828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85469675064087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81885504722595</t>
+    <t xml:space="preserve">3.85469698905945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81885528564453</t>
   </si>
   <si>
     <t xml:space="preserve">3.9345281124115</t>
@@ -257,76 +257,76 @@
     <t xml:space="preserve">3.81396698951721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8237419128418</t>
+    <t xml:space="preserve">3.82374167442322</t>
   </si>
   <si>
     <t xml:space="preserve">3.77975344657898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76671981811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75042772293091</t>
+    <t xml:space="preserve">3.76672029495239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75042796134949</t>
   </si>
   <si>
     <t xml:space="preserve">3.87261819839478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73902368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77486538887024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69829344749451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74716949462891</t>
+    <t xml:space="preserve">3.73902344703674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7748658657074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69829297065735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74716997146606</t>
   </si>
   <si>
     <t xml:space="preserve">3.71458530426025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60054111480713</t>
+    <t xml:space="preserve">3.60054135322571</t>
   </si>
   <si>
     <t xml:space="preserve">3.52722668647766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54351925849915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60227465629578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69399881362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8324191570282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83575510978699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95249557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96083450317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85243272781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82908487319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77905297279358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7423632144928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6689829826355</t>
+    <t xml:space="preserve">3.54351902008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6022744178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69399857521057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83241939544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83575558662415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95249533653259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96083402633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85243225097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8290843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.779052734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74236297607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66898322105408</t>
   </si>
   <si>
     <t xml:space="preserve">3.65564107894897</t>
@@ -335,10 +335,10 @@
     <t xml:space="preserve">3.62729024887085</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45384740829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37713241577148</t>
+    <t xml:space="preserve">3.45384788513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37713265419006</t>
   </si>
   <si>
     <t xml:space="preserve">3.36379075050354</t>
@@ -347,142 +347,142 @@
     <t xml:space="preserve">3.2603919506073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2220344543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06693625450134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21703124046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09528779983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28707528114319</t>
+    <t xml:space="preserve">3.22203421592712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06693649291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21703100204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09528756141663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28707551956177</t>
   </si>
   <si>
     <t xml:space="preserve">3.41882514953613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16866707801819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88515496253967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8768162727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89682912826538</t>
+    <t xml:space="preserve">3.16866731643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88515472412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87681603431702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8968288898468</t>
   </si>
   <si>
     <t xml:space="preserve">2.99355673789978</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1036262512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01690483093262</t>
+    <t xml:space="preserve">3.10362601280212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01690459251404</t>
   </si>
   <si>
     <t xml:space="preserve">2.85180020332336</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81844639778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82344913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90516757965088</t>
+    <t xml:space="preserve">2.81844615936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82344961166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90516781806946</t>
   </si>
   <si>
     <t xml:space="preserve">2.9351863861084</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10195851325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06026554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27540159225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19535088539124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13698101043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03358197212219</t>
+    <t xml:space="preserve">3.10195827484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06026577949524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27540135383606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19535112380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13698077201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03358221054077</t>
   </si>
   <si>
     <t xml:space="preserve">3.17033505439758</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03524994850159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9868860244751</t>
+    <t xml:space="preserve">3.03524971008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98688554763794</t>
   </si>
   <si>
     <t xml:space="preserve">3.23871159553528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24371480941772</t>
+    <t xml:space="preserve">3.24371457099915</t>
   </si>
   <si>
     <t xml:space="preserve">3.21869874000549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25205326080322</t>
+    <t xml:space="preserve">3.2520534992218</t>
   </si>
   <si>
     <t xml:space="preserve">3.16032862663269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18367695808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08528137207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17867374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30208516120911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34544587135315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38880658149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50387907028198</t>
+    <t xml:space="preserve">3.18367671966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08528161048889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1786732673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30208492279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34544563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38880634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50387859344482</t>
   </si>
   <si>
     <t xml:space="preserve">3.47386002540588</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53556537628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50554704666138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51722049713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75236892700195</t>
+    <t xml:space="preserve">3.53556489944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5055468082428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51722073554993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75236940383911</t>
   </si>
   <si>
     <t xml:space="preserve">3.71901488304138</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79239416122437</t>
+    <t xml:space="preserve">3.79239439964294</t>
   </si>
   <si>
     <t xml:space="preserve">3.76904630661011</t>
@@ -494,10 +494,10 @@
     <t xml:space="preserve">3.92914700508118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88411903381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89912891387939</t>
+    <t xml:space="preserve">3.88411927223206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89912915229797</t>
   </si>
   <si>
     <t xml:space="preserve">3.87911558151245</t>
@@ -506,58 +506,58 @@
     <t xml:space="preserve">3.81741094589233</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69566679000854</t>
+    <t xml:space="preserve">3.69566655158997</t>
   </si>
   <si>
     <t xml:space="preserve">3.63729643821716</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54390406608582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58559727668762</t>
+    <t xml:space="preserve">3.54390430450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58559703826904</t>
   </si>
   <si>
     <t xml:space="preserve">3.73235678672791</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67732191085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61561632156372</t>
+    <t xml:space="preserve">3.67732167243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61561608314514</t>
   </si>
   <si>
     <t xml:space="preserve">3.72068238258362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71734738349915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45551490783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55224275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52222418785095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50221085548401</t>
+    <t xml:space="preserve">3.71734762191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45551514625549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55224299430847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52222394943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50221109390259</t>
   </si>
   <si>
     <t xml:space="preserve">3.57725882530212</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63562893867493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62562227249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63396096229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391073226929</t>
+    <t xml:space="preserve">3.63562870025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62562274932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63396143913269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391025543213</t>
   </si>
   <si>
     <t xml:space="preserve">3.61394906044006</t>
@@ -566,49 +566,49 @@
     <t xml:space="preserve">3.69733428955078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66231274604797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71401119232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76237511634827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7340247631073</t>
+    <t xml:space="preserve">3.66231250762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71401143074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.762375831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73402428627014</t>
   </si>
   <si>
     <t xml:space="preserve">3.76070761680603</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60727763175964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70233750343323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7106761932373</t>
+    <t xml:space="preserve">3.60727787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70233774185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71067643165588</t>
   </si>
   <si>
     <t xml:space="preserve">3.50721430778503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48553347587585</t>
+    <t xml:space="preserve">3.48553371429443</t>
   </si>
   <si>
     <t xml:space="preserve">3.48720169067383</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40214776992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43883800506592</t>
+    <t xml:space="preserve">3.40214824676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43883776664734</t>
   </si>
   <si>
     <t xml:space="preserve">3.34044241905212</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28540778160095</t>
+    <t xml:space="preserve">3.28540754318237</t>
   </si>
   <si>
     <t xml:space="preserve">3.27373361587524</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">3.27706933021545</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21036005020142</t>
+    <t xml:space="preserve">3.21036028862</t>
   </si>
   <si>
     <t xml:space="preserve">3.17533826828003</t>
@@ -629,19 +629,19 @@
     <t xml:space="preserve">3.06526899337769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07694292068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01190161705017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97687935829163</t>
+    <t xml:space="preserve">3.07694268226624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01190137863159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97687959671021</t>
   </si>
   <si>
     <t xml:space="preserve">3.02357578277588</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02691125869751</t>
+    <t xml:space="preserve">3.02691149711609</t>
   </si>
   <si>
     <t xml:space="preserve">3.0152370929718</t>
@@ -656,40 +656,40 @@
     <t xml:space="preserve">3.25038576126099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38547110557556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2987494468689</t>
+    <t xml:space="preserve">3.38547086715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29874920845032</t>
   </si>
   <si>
     <t xml:space="preserve">3.52722716331482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55724596977234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5205557346344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56892013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64396715164185</t>
+    <t xml:space="preserve">3.55724620819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52055549621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56892037391663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.643967628479</t>
   </si>
   <si>
     <t xml:space="preserve">3.51888823509216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68566036224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75070190429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66064429283142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77738499641418</t>
+    <t xml:space="preserve">3.68566060066223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75070118904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66064405441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77738547325134</t>
   </si>
   <si>
     <t xml:space="preserve">3.55557823181152</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">3.39881277084351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35211658477783</t>
+    <t xml:space="preserve">3.35211634635925</t>
   </si>
   <si>
     <t xml:space="preserve">3.29374599456787</t>
@@ -710,28 +710,28 @@
     <t xml:space="preserve">3.31209087371826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29541397094727</t>
+    <t xml:space="preserve">3.29541420936584</t>
   </si>
   <si>
     <t xml:space="preserve">3.29708194732666</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3271005153656</t>
+    <t xml:space="preserve">3.32710075378418</t>
   </si>
   <si>
     <t xml:space="preserve">3.34211015701294</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30041718482971</t>
+    <t xml:space="preserve">3.30041742324829</t>
   </si>
   <si>
     <t xml:space="preserve">4.08091020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12760639190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21099233627319</t>
+    <t xml:space="preserve">4.12760591506958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21099281311035</t>
   </si>
   <si>
     <t xml:space="preserve">4.25268507003784</t>
@@ -740,19 +740,19 @@
     <t xml:space="preserve">4.26102352142334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14428281784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03588151931763</t>
+    <t xml:space="preserve">4.14428329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03588199615479</t>
   </si>
   <si>
     <t xml:space="preserve">4.27770090103149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36942529678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43196535110474</t>
+    <t xml:space="preserve">4.36942577362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43196582794189</t>
   </si>
   <si>
     <t xml:space="preserve">4.56121301651001</t>
@@ -764,124 +764,124 @@
     <t xml:space="preserve">4.49867343902588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50284290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46115016937256</t>
+    <t xml:space="preserve">4.50284337997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4611496925354</t>
   </si>
   <si>
     <t xml:space="preserve">4.35274791717529</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4778265953064</t>
+    <t xml:space="preserve">4.47782707214355</t>
   </si>
   <si>
     <t xml:space="preserve">4.44864225387573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46531915664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47365760803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65293788909912</t>
+    <t xml:space="preserve">4.46531867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47365713119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65293836593628</t>
   </si>
   <si>
     <t xml:space="preserve">4.51535081863403</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41528797149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34024047851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33607053756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38610219955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43613481521606</t>
+    <t xml:space="preserve">4.41528749465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34024095535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3360710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3861026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43613433837891</t>
   </si>
   <si>
     <t xml:space="preserve">4.32773208618164</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33190202713013</t>
+    <t xml:space="preserve">4.33190155029297</t>
   </si>
   <si>
     <t xml:space="preserve">4.29437828063965</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22766923904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18597602844238</t>
+    <t xml:space="preserve">4.22766971588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18597555160522</t>
   </si>
   <si>
     <t xml:space="preserve">4.30688571929932</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49450445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45281171798706</t>
+    <t xml:space="preserve">4.49450349807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45281219482422</t>
   </si>
   <si>
     <t xml:space="preserve">4.36108684539795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39027166366577</t>
+    <t xml:space="preserve">4.39027214050293</t>
   </si>
   <si>
     <t xml:space="preserve">4.36525630950928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53619718551636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61958312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60707521438599</t>
+    <t xml:space="preserve">4.53619766235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61958360671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60707473754883</t>
   </si>
   <si>
     <t xml:space="preserve">4.61124515533447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77384757995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75300073623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80720186233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82804822921753</t>
+    <t xml:space="preserve">4.7738471031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75300168991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80720138549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82804775238037</t>
   </si>
   <si>
     <t xml:space="preserve">4.91560363769531</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90726518630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74466228485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42779588699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42362594604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34440946578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49153518676758</t>
+    <t xml:space="preserve">4.90726566314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74466276168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42779541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42362642288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34440994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49153566360474</t>
   </si>
   <si>
     <t xml:space="preserve">4.53827857971191</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">4.5042839050293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46178960800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45329093933105</t>
+    <t xml:space="preserve">4.46179008483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45329189300537</t>
   </si>
   <si>
     <t xml:space="preserve">4.38955163955688</t>
@@ -902,16 +902,16 @@
     <t xml:space="preserve">4.35980653762817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34280872344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40229940414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35130786895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2918176651001</t>
+    <t xml:space="preserve">4.34280920028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40229988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35130739212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29181814193726</t>
   </si>
   <si>
     <t xml:space="preserve">4.4192967414856</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">4.45754098892212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43204593658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47878742218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38530254364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5170316696167</t>
+    <t xml:space="preserve">4.43204545974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47878694534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38530158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51703214645386</t>
   </si>
   <si>
     <t xml:space="preserve">4.48728656768799</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">4.47028875350952</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55527591705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57227230072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65725994110107</t>
+    <t xml:space="preserve">4.55527544021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57227277755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65725946426392</t>
   </si>
   <si>
     <t xml:space="preserve">4.49578475952148</t>
@@ -959,19 +959,19 @@
     <t xml:space="preserve">4.78473901748657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67425680160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95046234130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09918880462646</t>
+    <t xml:space="preserve">4.67425632476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95046186447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09918832778931</t>
   </si>
   <si>
     <t xml:space="preserve">5.15867900848389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20967149734497</t>
+    <t xml:space="preserve">5.20967102050781</t>
   </si>
   <si>
     <t xml:space="preserve">5.35414838790894</t>
@@ -983,13 +983,13 @@
     <t xml:space="preserve">5.35839700698853</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52412128448486</t>
+    <t xml:space="preserve">5.52412080764771</t>
   </si>
   <si>
     <t xml:space="preserve">5.40938901901245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40514087677002</t>
+    <t xml:space="preserve">5.40514039993286</t>
   </si>
   <si>
     <t xml:space="preserve">5.45188283920288</t>
@@ -1001,25 +1001,25 @@
     <t xml:space="preserve">5.33290147781372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39664173126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4008903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2649130821228</t>
+    <t xml:space="preserve">5.39664220809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40089082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26491212844849</t>
   </si>
   <si>
     <t xml:space="preserve">5.11618614196777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1544303894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22666835784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30740547180176</t>
+    <t xml:space="preserve">5.15442991256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22666883468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3074049949646</t>
   </si>
   <si>
     <t xml:space="preserve">5.17567682266235</t>
@@ -1028,16 +1028,16 @@
     <t xml:space="preserve">5.13318300247192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05669593811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09068965911865</t>
+    <t xml:space="preserve">5.05669546127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09069013595581</t>
   </si>
   <si>
     <t xml:space="preserve">5.0609450340271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00570344924927</t>
+    <t xml:space="preserve">5.00570392608643</t>
   </si>
   <si>
     <t xml:space="preserve">5.03969812393188</t>
@@ -1049,25 +1049,25 @@
     <t xml:space="preserve">5.00145483016968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0524468421936</t>
+    <t xml:space="preserve">5.05244588851929</t>
   </si>
   <si>
     <t xml:space="preserve">5.04394769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01420164108276</t>
+    <t xml:space="preserve">5.01420211791992</t>
   </si>
   <si>
     <t xml:space="preserve">5.12468481063843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15018081665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21816921234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27766084671021</t>
+    <t xml:space="preserve">5.15018033981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21816968917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27766036987305</t>
   </si>
   <si>
     <t xml:space="preserve">5.33715152740479</t>
@@ -1076,34 +1076,34 @@
     <t xml:space="preserve">5.28190994262695</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23516702651978</t>
+    <t xml:space="preserve">5.23516750335693</t>
   </si>
   <si>
     <t xml:space="preserve">5.43913507461548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37114524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32865238189697</t>
+    <t xml:space="preserve">5.37114572525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32865190505981</t>
   </si>
   <si>
     <t xml:space="preserve">5.69409370422363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80032730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12327527999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92355680465698</t>
+    <t xml:space="preserve">5.80032682418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12327575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92355728149414</t>
   </si>
   <si>
     <t xml:space="preserve">6.19551467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1360239982605</t>
+    <t xml:space="preserve">6.13602352142334</t>
   </si>
   <si>
     <t xml:space="preserve">6.28900003433228</t>
@@ -1112,34 +1112,34 @@
     <t xml:space="preserve">6.00854396820068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05953598022461</t>
+    <t xml:space="preserve">6.05953645706177</t>
   </si>
   <si>
     <t xml:space="preserve">6.08503198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15302085876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11477708816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08928108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03403949737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97879886627197</t>
+    <t xml:space="preserve">6.15302133560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11477756500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08928060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03403997421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97879838943481</t>
   </si>
   <si>
     <t xml:space="preserve">6.04678773880005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01704263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0212926864624</t>
+    <t xml:space="preserve">6.0170431137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02129220962524</t>
   </si>
   <si>
     <t xml:space="preserve">5.99154710769653</t>
@@ -1160,7 +1160,7 @@
     <t xml:space="preserve">6.21251153945923</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14877128601074</t>
+    <t xml:space="preserve">6.1487717628479</t>
   </si>
   <si>
     <t xml:space="preserve">6.11902618408203</t>
@@ -1172,16 +1172,16 @@
     <t xml:space="preserve">6.19976377487183</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41647911071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29749870300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32299423217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20401334762573</t>
+    <t xml:space="preserve">6.41647863388062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29749774932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32299375534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20401287078857</t>
   </si>
   <si>
     <t xml:space="preserve">6.36973667144775</t>
@@ -1196,25 +1196,25 @@
     <t xml:space="preserve">6.22101068496704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30599689483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33149242401123</t>
+    <t xml:space="preserve">6.30599641799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33149290084839</t>
   </si>
   <si>
     <t xml:space="preserve">6.34424114227295</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2677526473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07653331756592</t>
+    <t xml:space="preserve">6.26775312423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07653284072876</t>
   </si>
   <si>
     <t xml:space="preserve">6.06378555297852</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13177394866943</t>
+    <t xml:space="preserve">6.13177442550659</t>
   </si>
   <si>
     <t xml:space="preserve">6.14027261734009</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">6.23800802230835</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18276643753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1615195274353</t>
+    <t xml:space="preserve">6.18276596069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16152000427246</t>
   </si>
   <si>
     <t xml:space="preserve">6.27200222015381</t>
@@ -1256,49 +1256,49 @@
     <t xml:space="preserve">6.63744401931763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62894535064697</t>
+    <t xml:space="preserve">6.62894582748413</t>
   </si>
   <si>
     <t xml:space="preserve">6.79041957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87540674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72243070602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75642538070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76492357254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84141254425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65444040298462</t>
+    <t xml:space="preserve">6.87540626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72243022918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75642442703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76492404937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84141206741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65444135665894</t>
   </si>
   <si>
     <t xml:space="preserve">6.64594268798828</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7989182472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6799373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57795333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42497730255127</t>
+    <t xml:space="preserve">6.79891872406006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67993783950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57795286178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42497777938843</t>
   </si>
   <si>
     <t xml:space="preserve">6.35698890686035</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02554178237915</t>
+    <t xml:space="preserve">6.02554130554199</t>
   </si>
   <si>
     <t xml:space="preserve">6.05103778839111</t>
@@ -1310,28 +1310,28 @@
     <t xml:space="preserve">6.39098358154297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49296712875366</t>
+    <t xml:space="preserve">6.4929666519165</t>
   </si>
   <si>
     <t xml:space="preserve">6.45897245407104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.263503074646</t>
+    <t xml:space="preserve">6.26350355148315</t>
   </si>
   <si>
     <t xml:space="preserve">6.28050088882446</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18701601028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06803417205811</t>
+    <t xml:space="preserve">6.18701553344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06803464889526</t>
   </si>
   <si>
     <t xml:space="preserve">6.2550048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17851686477661</t>
+    <t xml:space="preserve">6.17851734161377</t>
   </si>
   <si>
     <t xml:space="preserve">6.00004577636719</t>
@@ -1340,16 +1340,16 @@
     <t xml:space="preserve">5.96605110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93205642700195</t>
+    <t xml:space="preserve">5.93205595016479</t>
   </si>
   <si>
     <t xml:space="preserve">5.83857107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87256574630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88106441497803</t>
+    <t xml:space="preserve">5.87256526947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88106393814087</t>
   </si>
   <si>
     <t xml:space="preserve">5.79607820510864</t>
@@ -1361,22 +1361,22 @@
     <t xml:space="preserve">5.98304796218872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88956260681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89806127548218</t>
+    <t xml:space="preserve">5.88956308364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89806175231934</t>
   </si>
   <si>
     <t xml:space="preserve">5.90655994415283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74508571624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76233863830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7968430519104</t>
+    <t xml:space="preserve">5.74508619308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76233816146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79684352874756</t>
   </si>
   <si>
     <t xml:space="preserve">5.77959060668945</t>
@@ -1388,16 +1388,16 @@
     <t xml:space="preserve">5.58981418609619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56393432617188</t>
+    <t xml:space="preserve">5.56393480300903</t>
   </si>
   <si>
     <t xml:space="preserve">5.65882396697998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65019798278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85722780227661</t>
+    <t xml:space="preserve">5.65019750595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85722684860229</t>
   </si>
   <si>
     <t xml:space="preserve">5.69332838058472</t>
@@ -1406,31 +1406,31 @@
     <t xml:space="preserve">5.77096509933472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82272243499756</t>
+    <t xml:space="preserve">5.82272291183472</t>
   </si>
   <si>
     <t xml:space="preserve">5.89173221588135</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02975225448608</t>
+    <t xml:space="preserve">6.02975273132324</t>
   </si>
   <si>
     <t xml:space="preserve">6.02112627029419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01249933242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86585378646851</t>
+    <t xml:space="preserve">6.01249980926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86585330963135</t>
   </si>
   <si>
     <t xml:space="preserve">5.90035820007324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83134841918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9262375831604</t>
+    <t xml:space="preserve">5.83134889602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92623710632324</t>
   </si>
   <si>
     <t xml:space="preserve">5.67607593536377</t>
@@ -1442,49 +1442,49 @@
     <t xml:space="preserve">5.80546998977661</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83997440338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8486008644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71920776367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62431907653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78821754455566</t>
+    <t xml:space="preserve">5.83997488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84860134124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71920728683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62431859970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78821706771851</t>
   </si>
   <si>
     <t xml:space="preserve">6.13326740264893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11601543426514</t>
+    <t xml:space="preserve">6.11601495742798</t>
   </si>
   <si>
     <t xml:space="preserve">5.93486404418945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87448024749756</t>
+    <t xml:space="preserve">5.8744797706604</t>
   </si>
   <si>
     <t xml:space="preserve">5.91761159896851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90898513793945</t>
+    <t xml:space="preserve">5.90898466110229</t>
   </si>
   <si>
     <t xml:space="preserve">6.00387382507324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99524688720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04700517654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96936893463135</t>
+    <t xml:space="preserve">5.99524736404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04700565338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96936845779419</t>
   </si>
   <si>
     <t xml:space="preserve">5.88310623168945</t>
@@ -1496,16 +1496,16 @@
     <t xml:space="preserve">5.95211601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53805637359619</t>
+    <t xml:space="preserve">5.53805685043335</t>
   </si>
   <si>
     <t xml:space="preserve">5.49492454528809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44316720962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36553049087524</t>
+    <t xml:space="preserve">5.44316673278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3655309677124</t>
   </si>
   <si>
     <t xml:space="preserve">5.40866184234619</t>
@@ -1514,109 +1514,109 @@
     <t xml:space="preserve">5.54668188095093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57256174087524</t>
+    <t xml:space="preserve">5.57256126403809</t>
   </si>
   <si>
     <t xml:space="preserve">5.55530834197998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46041965484619</t>
+    <t xml:space="preserve">5.46041917800903</t>
   </si>
   <si>
     <t xml:space="preserve">5.4776725769043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33102560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24476337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34827852249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23613739013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3741569519043</t>
+    <t xml:space="preserve">5.33102607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24476289749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21888494491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3482780456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23613691329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37415742874146</t>
   </si>
   <si>
     <t xml:space="preserve">5.35690498352051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3137731552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33965253829956</t>
+    <t xml:space="preserve">5.31377363204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3396520614624</t>
   </si>
   <si>
     <t xml:space="preserve">5.39140939712524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42591428756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40003633499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59843969345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43454122543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27064228057861</t>
+    <t xml:space="preserve">5.42591524124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59844017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43454074859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27064180374146</t>
   </si>
   <si>
     <t xml:space="preserve">5.19300603866577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27926778793335</t>
+    <t xml:space="preserve">5.27926826477051</t>
   </si>
   <si>
     <t xml:space="preserve">5.21025800704956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01185464859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69268274307251</t>
+    <t xml:space="preserve">5.01185417175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69268369674683</t>
   </si>
   <si>
     <t xml:space="preserve">4.58916807174683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65817785263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46840000152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63229894638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61504697799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70993566513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55466318130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35625886917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2268648147583</t>
+    <t xml:space="preserve">4.65817832946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46840047836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63229942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61504602432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70993518829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55466270446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3562593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22686529159546</t>
   </si>
   <si>
     <t xml:space="preserve">4.30450105667114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17510747909546</t>
+    <t xml:space="preserve">4.17510843276978</t>
   </si>
   <si>
     <t xml:space="preserve">4.2872486114502</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">4.68405675888062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70130920410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72718858718872</t>
+    <t xml:space="preserve">4.7013087272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72718811035156</t>
   </si>
   <si>
     <t xml:space="preserve">4.50290489196777</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">4.51153135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52015733718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3821382522583</t>
+    <t xml:space="preserve">4.52015781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38213729858398</t>
   </si>
   <si>
     <t xml:space="preserve">4.42526912689209</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">4.2786226272583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12766265869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16648149490356</t>
+    <t xml:space="preserve">4.12766313552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16648197174072</t>
   </si>
   <si>
     <t xml:space="preserve">4.18804740905762</t>
@@ -1679,13 +1679,13 @@
     <t xml:space="preserve">4.30018854141235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24411773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18373346328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11903667449951</t>
+    <t xml:space="preserve">4.24411725997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18373441696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11903715133667</t>
   </si>
   <si>
     <t xml:space="preserve">4.3907642364502</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">4.3390064239502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22255229949951</t>
+    <t xml:space="preserve">4.22255182266235</t>
   </si>
   <si>
     <t xml:space="preserve">4.13197660446167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23117780685425</t>
+    <t xml:space="preserve">4.23117876052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.17079448699951</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">4.11472415924072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02414798736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4425220489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39939022064209</t>
+    <t xml:space="preserve">4.02414846420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44252157211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39939069747925</t>
   </si>
   <si>
     <t xml:space="preserve">4.57191562652588</t>
@@ -1724,28 +1724,28 @@
     <t xml:space="preserve">4.74444055557251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8910870552063</t>
+    <t xml:space="preserve">4.89108753204346</t>
   </si>
   <si>
     <t xml:space="preserve">4.88246059417725</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91696548461914</t>
+    <t xml:space="preserve">4.91696643829346</t>
   </si>
   <si>
     <t xml:space="preserve">4.96009731292725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00322866439819</t>
+    <t xml:space="preserve">5.00322818756104</t>
   </si>
   <si>
     <t xml:space="preserve">4.98597574234009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05498600006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10674285888672</t>
+    <t xml:space="preserve">5.05498552322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10674333572388</t>
   </si>
   <si>
     <t xml:space="preserve">5.11536931991577</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">5.15850067138672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08948993682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07223796844482</t>
+    <t xml:space="preserve">5.08949089050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07223844528198</t>
   </si>
   <si>
     <t xml:space="preserve">5.30514764785767</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">5.22751045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2620153427124</t>
+    <t xml:space="preserve">5.26201581954956</t>
   </si>
   <si>
     <t xml:space="preserve">5.32239961624146</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">5.4517936706543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38278293609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51217699050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5035514831543</t>
+    <t xml:space="preserve">5.38278341293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51217746734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50355100631714</t>
   </si>
   <si>
     <t xml:space="preserve">5.58118724822998</t>
@@ -1796,10 +1796,10 @@
     <t xml:space="preserve">5.52942991256714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52080345153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08086395263672</t>
+    <t xml:space="preserve">5.52080392837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08086442947388</t>
   </si>
   <si>
     <t xml:space="preserve">5.21648120880127</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">5.11938953399658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11056280136108</t>
+    <t xml:space="preserve">5.11056232452393</t>
   </si>
   <si>
     <t xml:space="preserve">5.16352128982544</t>
@@ -1829,13 +1829,13 @@
     <t xml:space="preserve">5.30474662780762</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27826690673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33122587203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36653184890747</t>
+    <t xml:space="preserve">5.27826642990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33122634887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36653137207031</t>
   </si>
   <si>
     <t xml:space="preserve">5.34005308151245</t>
@@ -1844,31 +1844,31 @@
     <t xml:space="preserve">5.35770559310913</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44597148895264</t>
+    <t xml:space="preserve">5.44597101211548</t>
   </si>
   <si>
     <t xml:space="preserve">5.5695424079895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65780782699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53423643112183</t>
+    <t xml:space="preserve">5.65780735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53423595428467</t>
   </si>
   <si>
     <t xml:space="preserve">5.43714475631714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51658296585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68428707122803</t>
+    <t xml:space="preserve">5.51658344268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68428754806519</t>
   </si>
   <si>
     <t xml:space="preserve">5.63132810592651</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58719491958618</t>
+    <t xml:space="preserve">5.58719539642334</t>
   </si>
   <si>
     <t xml:space="preserve">5.7548999786377</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">5.86081838607788</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84316492080688</t>
+    <t xml:space="preserve">5.84316539764404</t>
   </si>
   <si>
     <t xml:space="preserve">5.76372671127319</t>
@@ -1904,22 +1904,22 @@
     <t xml:space="preserve">5.67546081542969</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85199165344238</t>
+    <t xml:space="preserve">5.85199213027954</t>
   </si>
   <si>
     <t xml:space="preserve">5.62250185012817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34887933731079</t>
+    <t xml:space="preserve">5.34887886047363</t>
   </si>
   <si>
     <t xml:space="preserve">5.28709268569946</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39301156997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29591941833496</t>
+    <t xml:space="preserve">5.39301204681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29591989517212</t>
   </si>
   <si>
     <t xml:space="preserve">5.22530746459961</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">5.37535858154297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18117475509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25178623199463</t>
+    <t xml:space="preserve">5.18117427825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25178670883179</t>
   </si>
   <si>
     <t xml:space="preserve">5.26944017410278</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">5.50775671005249</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47245025634766</t>
+    <t xml:space="preserve">5.4724497795105</t>
   </si>
   <si>
     <t xml:space="preserve">5.42831802368164</t>
@@ -1964,19 +1964,19 @@
     <t xml:space="preserve">5.49010324478149</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12821531295776</t>
+    <t xml:space="preserve">5.12821578979492</t>
   </si>
   <si>
     <t xml:space="preserve">5.14586877822876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26502704620361</t>
+    <t xml:space="preserve">5.26502752304077</t>
   </si>
   <si>
     <t xml:space="preserve">5.13969039916992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20765447616577</t>
+    <t xml:space="preserve">5.20765495300293</t>
   </si>
   <si>
     <t xml:space="preserve">5.25531816482544</t>
@@ -1988,13 +1988,13 @@
     <t xml:space="preserve">5.38418483734131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45214986801147</t>
+    <t xml:space="preserve">5.45214939117432</t>
   </si>
   <si>
     <t xml:space="preserve">5.43273162841797</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3850679397583</t>
+    <t xml:space="preserve">5.38506746292114</t>
   </si>
   <si>
     <t xml:space="preserve">5.41154766082764</t>
@@ -2009,13 +2009,13 @@
     <t xml:space="preserve">5.32328176498413</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44950151443481</t>
+    <t xml:space="preserve">5.44950103759766</t>
   </si>
   <si>
     <t xml:space="preserve">5.59425687789917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54747581481934</t>
+    <t xml:space="preserve">5.54747629165649</t>
   </si>
   <si>
     <t xml:space="preserve">5.42390489578247</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">5.57130765914917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53070592880249</t>
+    <t xml:space="preserve">5.53070545196533</t>
   </si>
   <si>
     <t xml:space="preserve">5.57660341262817</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">5.5527720451355</t>
   </si>
   <si>
-    <t xml:space="preserve">5.578369140625</t>
+    <t xml:space="preserve">5.57836961746216</t>
   </si>
   <si>
     <t xml:space="preserve">5.89612340927124</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">5.8846492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89789009094238</t>
+    <t xml:space="preserve">5.89789056777954</t>
   </si>
   <si>
     <t xml:space="preserve">5.86876153945923</t>
@@ -2081,10 +2081,10 @@
     <t xml:space="preserve">6.02322626113892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05147171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05941534042358</t>
+    <t xml:space="preserve">6.05147123336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05941486358643</t>
   </si>
   <si>
     <t xml:space="preserve">6.02852201461792</t>
@@ -2111,31 +2111,31 @@
     <t xml:space="preserve">6.02410888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81933355331421</t>
+    <t xml:space="preserve">5.81933307647705</t>
   </si>
   <si>
     <t xml:space="preserve">5.68605279922485</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87052726745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93142986297607</t>
+    <t xml:space="preserve">5.87052774429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93143033981323</t>
   </si>
   <si>
     <t xml:space="preserve">5.87494039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84934329986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8343391418457</t>
+    <t xml:space="preserve">5.84934377670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83433866500854</t>
   </si>
   <si>
     <t xml:space="preserve">5.8113899230957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80609321594238</t>
+    <t xml:space="preserve">5.80609369277954</t>
   </si>
   <si>
     <t xml:space="preserve">5.74077749252319</t>
@@ -2147,10 +2147,10 @@
     <t xml:space="preserve">5.77078676223755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68340539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73724699020386</t>
+    <t xml:space="preserve">5.68340492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7372465133667</t>
   </si>
   <si>
     <t xml:space="preserve">5.78579187393188</t>
@@ -2171,19 +2171,19 @@
     <t xml:space="preserve">5.72665500640869</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71871137619019</t>
+    <t xml:space="preserve">5.71871089935303</t>
   </si>
   <si>
     <t xml:space="preserve">5.7654914855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76813983917236</t>
+    <t xml:space="preserve">5.76813936233521</t>
   </si>
   <si>
     <t xml:space="preserve">5.86964511871338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95702695846558</t>
+    <t xml:space="preserve">5.95702743530273</t>
   </si>
   <si>
     <t xml:space="preserve">6.12561416625977</t>
@@ -2198,10 +2198,10 @@
     <t xml:space="preserve">5.82816028594971</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5298228263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46891975402832</t>
+    <t xml:space="preserve">5.52982330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46892023086548</t>
   </si>
   <si>
     <t xml:space="preserve">5.29856824874878</t>
@@ -2213,25 +2213,25 @@
     <t xml:space="preserve">5.25708293914795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28356266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89166498184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32809019088745</t>
+    <t xml:space="preserve">5.28356313705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89166450500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32809066772461</t>
   </si>
   <si>
     <t xml:space="preserve">4.38678646087646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39296627044678</t>
+    <t xml:space="preserve">4.39296579360962</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357482910156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19260358810425</t>
+    <t xml:space="preserve">4.19260311126709</t>
   </si>
   <si>
     <t xml:space="preserve">4.06020545959473</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">3.84969234466553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97194051742554</t>
+    <t xml:space="preserve">3.97194027900696</t>
   </si>
   <si>
     <t xml:space="preserve">4.25880241394043</t>
@@ -2255,22 +2255,22 @@
     <t xml:space="preserve">4.15111875534058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35898303985596</t>
+    <t xml:space="preserve">4.35898351669312</t>
   </si>
   <si>
     <t xml:space="preserve">4.19966411590576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13743734359741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34177160263062</t>
+    <t xml:space="preserve">4.13743686676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34177112579346</t>
   </si>
   <si>
     <t xml:space="preserve">4.39561367034912</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45739984512329</t>
+    <t xml:space="preserve">4.45739936828613</t>
   </si>
   <si>
     <t xml:space="preserve">4.25438928604126</t>
@@ -2279,19 +2279,19 @@
     <t xml:space="preserve">4.4132661819458</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54566478729248</t>
+    <t xml:space="preserve">4.54566431045532</t>
   </si>
   <si>
     <t xml:space="preserve">4.70454216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57214403152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72219514846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66040992736816</t>
+    <t xml:space="preserve">4.57214450836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72219467163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66040945053101</t>
   </si>
   <si>
     <t xml:space="preserve">4.6692361831665</t>
@@ -2306,19 +2306,19 @@
     <t xml:space="preserve">4.8369402885437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86342000961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88989973068237</t>
+    <t xml:space="preserve">4.8634204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88989925384521</t>
   </si>
   <si>
     <t xml:space="preserve">5.03995037078857</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0134711265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93403244018555</t>
+    <t xml:space="preserve">5.01347064971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93403196334839</t>
   </si>
   <si>
     <t xml:space="preserve">4.678062915802</t>
@@ -2330,22 +2330,22 @@
     <t xml:space="preserve">4.71336936950684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76632785797119</t>
+    <t xml:space="preserve">4.76632833480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89872646331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00738525390625</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872598648071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00738525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89872550964355</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.82628631591797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98022079467773</t>
+    <t xml:space="preserve">4.98022031784058</t>
   </si>
   <si>
     <t xml:space="preserve">5.01643991470337</t>
@@ -2357,16 +2357,16 @@
     <t xml:space="preserve">5.3243088722229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29714345932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50540685653687</t>
+    <t xml:space="preserve">5.29714298248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50540733337402</t>
   </si>
   <si>
     <t xml:space="preserve">5.55068206787109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40580224990845</t>
+    <t xml:space="preserve">5.40580272674561</t>
   </si>
   <si>
     <t xml:space="preserve">5.63217687606812</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">5.74989032745361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41485786437988</t>
+    <t xml:space="preserve">5.41485738754272</t>
   </si>
   <si>
     <t xml:space="preserve">5.37863826751709</t>
@@ -2411,22 +2411,22 @@
     <t xml:space="preserve">5.79516553878784</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73178100585938</t>
+    <t xml:space="preserve">5.73178052902222</t>
   </si>
   <si>
     <t xml:space="preserve">5.75894594192505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83138561248779</t>
+    <t xml:space="preserve">5.83138513565063</t>
   </si>
   <si>
     <t xml:space="preserve">5.69556093215942</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67745113372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64123153686523</t>
+    <t xml:space="preserve">5.67745161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64123201370239</t>
   </si>
   <si>
     <t xml:space="preserve">5.56879186630249</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">5.46013259887695</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5325722694397</t>
+    <t xml:space="preserve">5.53257274627686</t>
   </si>
   <si>
     <t xml:space="preserve">5.52351713180542</t>
@@ -2444,10 +2444,10 @@
     <t xml:space="preserve">5.423912525177</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4963526725769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39674806594849</t>
+    <t xml:space="preserve">5.49635219573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39674758911133</t>
   </si>
   <si>
     <t xml:space="preserve">5.31525325775146</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">5.36052799224854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36958265304565</t>
+    <t xml:space="preserve">5.36958312988281</t>
   </si>
   <si>
     <t xml:space="preserve">5.47824287414551</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">5.59595632553101</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70461654663086</t>
+    <t xml:space="preserve">5.7046160697937</t>
   </si>
   <si>
     <t xml:space="preserve">5.65028619766235</t>
@@ -2483,19 +2483,19 @@
     <t xml:space="preserve">5.45107746124268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38769245147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30619859695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43296766281128</t>
+    <t xml:space="preserve">5.38769292831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3061990737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43296813964844</t>
   </si>
   <si>
     <t xml:space="preserve">5.44202280044556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35147333145142</t>
+    <t xml:space="preserve">5.35147285461426</t>
   </si>
   <si>
     <t xml:space="preserve">5.26092338562012</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">5.28808832168579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12509965896606</t>
+    <t xml:space="preserve">5.12509918212891</t>
   </si>
   <si>
     <t xml:space="preserve">4.99833011627197</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">4.9530553817749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09793472290039</t>
+    <t xml:space="preserve">5.09793519973755</t>
   </si>
   <si>
     <t xml:space="preserve">5.10698938369751</t>
@@ -2537,16 +2537,16 @@
     <t xml:space="preserve">5.08887958526611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02153968811035</t>
+    <t xml:space="preserve">6.02153921127319</t>
   </si>
   <si>
     <t xml:space="preserve">6.13019847869873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13925361633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11208820343018</t>
+    <t xml:space="preserve">6.13925409317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11208868026733</t>
   </si>
   <si>
     <t xml:space="preserve">6.22074842453003</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">6.48334121704102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31129741668701</t>
+    <t xml:space="preserve">6.31129693984985</t>
   </si>
   <si>
     <t xml:space="preserve">6.36562728881836</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">6.23885822296143</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20263814926147</t>
+    <t xml:space="preserve">6.20263862609863</t>
   </si>
   <si>
     <t xml:space="preserve">6.18452787399292</t>
@@ -2615,10 +2615,10 @@
     <t xml:space="preserve">6.59200096130371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4561767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40184688568115</t>
+    <t xml:space="preserve">6.45617628097534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40184736251831</t>
   </si>
   <si>
     <t xml:space="preserve">6.32940721511841</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">6.16641807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50145101547241</t>
+    <t xml:space="preserve">6.50145149230957</t>
   </si>
   <si>
     <t xml:space="preserve">6.24791288375854</t>
@@ -2636,16 +2636,16 @@
     <t xml:space="preserve">6.33846235275269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30224227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39279222488403</t>
+    <t xml:space="preserve">6.30224275588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39279174804688</t>
   </si>
   <si>
     <t xml:space="preserve">6.61011075973511</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80026483535767</t>
+    <t xml:space="preserve">6.80026435852051</t>
   </si>
   <si>
     <t xml:space="preserve">7.15340757369995</t>
@@ -2675,19 +2675,19 @@
     <t xml:space="preserve">7.45222043991089</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32545137405396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44316577911377</t>
+    <t xml:space="preserve">7.32545185089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44316625595093</t>
   </si>
   <si>
     <t xml:space="preserve">7.28017711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1896276473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33450698852539</t>
+    <t xml:space="preserve">7.18962717056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33450651168823</t>
   </si>
   <si>
     <t xml:space="preserve">7.36167097091675</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">7.73292350769043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80536317825317</t>
+    <t xml:space="preserve">7.80536365509033</t>
   </si>
   <si>
     <t xml:space="preserve">7.660484790802</t>
@@ -2717,13 +2717,13 @@
     <t xml:space="preserve">7.31639623641968</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76914405822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83252859115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9230785369873</t>
+    <t xml:space="preserve">7.76914358139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83252811431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92307806015015</t>
   </si>
   <si>
     <t xml:space="preserve">8.09512138366699</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">8.35771465301514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25811100006104</t>
+    <t xml:space="preserve">8.25811195373535</t>
   </si>
   <si>
     <t xml:space="preserve">8.15850639343262</t>
@@ -2741,10 +2741,10 @@
     <t xml:space="preserve">8.3396053314209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36677074432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14945125579834</t>
+    <t xml:space="preserve">8.36676979064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14945220947266</t>
   </si>
   <si>
     <t xml:space="preserve">8.24905490875244</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">8.20378112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16756248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2400016784668</t>
+    <t xml:space="preserve">8.16756153106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24000072479248</t>
   </si>
   <si>
     <t xml:space="preserve">8.30338573455811</t>
@@ -2774,25 +2774,25 @@
     <t xml:space="preserve">8.55692386627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40298938751221</t>
+    <t xml:space="preserve">8.40299034118652</t>
   </si>
   <si>
     <t xml:space="preserve">8.61125469207764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5478687286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68369293212891</t>
+    <t xml:space="preserve">8.54786968231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68369388580322</t>
   </si>
   <si>
     <t xml:space="preserve">8.60219955444336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81951713562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59314346313477</t>
+    <t xml:space="preserve">8.81951808929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59314441680908</t>
   </si>
   <si>
     <t xml:space="preserve">8.63882350921631</t>
@@ -4311,6 +4311,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.52999973297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48999977111816</t>
   </si>
 </sst>
 </file>
@@ -60890,7 +60893,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6496412037</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>72744</v>
@@ -60911,6 +60914,32 @@
         <v>1428</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6496180556</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>58945</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>9.64000034332275</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>9.47999954223633</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>9.56999969482422</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>9.48999977111816</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1437">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,637 +47,637 @@
     <t xml:space="preserve">4.77356767654419</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64730453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806396484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41514348983765</t>
+    <t xml:space="preserve">4.64730501174927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806301116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41514301300049</t>
   </si>
   <si>
     <t xml:space="preserve">4.30517148971558</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41107034683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37441253662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37848520278931</t>
+    <t xml:space="preserve">4.41106939315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37441301345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37848567962646</t>
   </si>
   <si>
     <t xml:space="preserve">4.14225149154663</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01435852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05345916748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74879932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91171908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02739238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95733666419983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99480843544006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95570802688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82048344612122</t>
+    <t xml:space="preserve">4.01435995101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05345964431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74879908561707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91171932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02739143371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95733642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99480819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95570778846741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82048296928406</t>
   </si>
   <si>
     <t xml:space="preserve">4.01272964477539</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95081996917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81233739852905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64941740036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67059707641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6917769908905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41807055473328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21279048919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31543064117432</t>
+    <t xml:space="preserve">3.95082020759583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81233692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64941811561584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67059659957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69177675247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4180703163147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21279096603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31543040275574</t>
   </si>
   <si>
     <t xml:space="preserve">3.19324016571045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27307152748108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51093554496765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42947506904602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54514861106873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6249794960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41318249702454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45880055427551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43436288833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30402588844299</t>
+    <t xml:space="preserve">3.2730712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51093435287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42947483062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54514837265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62497901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41318273544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45880031585693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43436241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30402612686157</t>
   </si>
   <si>
     <t xml:space="preserve">3.35778999328613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47020530700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65756320953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70643949508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62660813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71621441841125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63149619102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59076571464539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795763969421</t>
+    <t xml:space="preserve">3.47020506858826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65756249427795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70643925666809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62660884857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7162139415741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63149571418762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59076595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56795716285706</t>
   </si>
   <si>
     <t xml:space="preserve">3.59565353393555</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62009119987488</t>
+    <t xml:space="preserve">3.62009215354919</t>
   </si>
   <si>
     <t xml:space="preserve">3.82700037956238</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68525981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82862901687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846037864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74391055107117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78138279914856</t>
+    <t xml:space="preserve">3.68526005744934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82862973213196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7439112663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78138327598572</t>
   </si>
   <si>
     <t xml:space="preserve">3.73087787628174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58750748634338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64127111434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5793616771698</t>
+    <t xml:space="preserve">3.58750700950623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64127087593079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936143875122</t>
   </si>
   <si>
     <t xml:space="preserve">3.61357474327087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65104603767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52071046829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47835063934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44250845909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67222619056702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55492329597473</t>
+    <t xml:space="preserve">3.65104651451111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52071022987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47835111618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44250798225403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67222595214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55492353439331</t>
   </si>
   <si>
     <t xml:space="preserve">3.61520433425903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66733813285828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85469722747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81885433197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93452763557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396675109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82374262809753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77975296974182</t>
+    <t xml:space="preserve">3.66733837127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85469698905945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81885504722595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93452787399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396698951721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8237419128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7797532081604</t>
   </si>
   <si>
     <t xml:space="preserve">3.76672005653381</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75042819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87261748313904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73902344703674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7748658657074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69829273223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74716949462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71458506584167</t>
+    <t xml:space="preserve">3.75042796134949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87261819839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73902368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77486538887024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69829368591309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74716925621033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71458554267883</t>
   </si>
   <si>
     <t xml:space="preserve">3.60054111480713</t>
   </si>
   <si>
+    <t xml:space="preserve">3.52722644805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54351854324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60227465629578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69399929046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83241963386536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83575510978699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95249462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96083450317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85243248939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82908415794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77905297279358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74236273765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66898345947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65564131736755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62729001045227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45384764671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37713265419006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36379027366638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2603919506073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22203421592712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06693649291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21703100204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09528756141663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28707528114319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41882562637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16866707801819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88515520095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87681603431702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8968288898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9935564994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10362601280212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01690483093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85180068016052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81844663619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82344961166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9051673412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9351863861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10195851325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06026554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27540135383606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19535112380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13698077201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03358197212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.170334815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03524994850159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98688578605652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23871159553528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24371480941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21869874000549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25205326080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16032886505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18367671966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08528161048889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17867374420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30208492279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34544563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38880658149719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50387907028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47385954856873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53556513786316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50554656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51722097396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75236845016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71901488304138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239416122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76904630661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81907844543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92914772033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8841187953949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89912867546082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87911605834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81741046905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69566702842712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6372971534729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54390358924866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58559703826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73235607147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67732167243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61561584472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72068214416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71734690666199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45551514625549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55224323272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52222418785095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50221085548401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57725858688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63562870025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62562227249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63396096229553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391025543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61394834518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6973340511322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66231203079224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71401190757751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76237511634827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73402380943298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76070833206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60727787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70233774185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71067595481873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50721430778503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48553371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48720240592957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40214776992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43883800506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34044241905212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28540754318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27373361587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24037885665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27706933021545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21036028862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17533826828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06526875495911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07694292068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01190185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97687983512878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02357578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02691149711609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0152370929718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10862946510315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23537611961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25038576126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3854706287384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29874968528748</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.52722716331482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54351925849915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60227513313293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69399881362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83241939544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83575487136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95249533653259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96083450317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85243225097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82908463478088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77905297279358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74236297607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66898345947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6556408405304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62729048728943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45384764671326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37713241577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36379051208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2603919506073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22203421592712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06693625450134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21703100204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09528756141663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28707528114319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41882491111755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16866731643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88515496253967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8768162727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8968288898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99355673789978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10362577438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0169050693512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85180044174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81844615936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82344937324524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9051673412323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93518662452698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10195851325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06026554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27540159225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19535112380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13698101043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03358221054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17033505439758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03524971008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98688578605652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23871159553528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2437150478363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21869874000549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25205326080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16032886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18367695808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08528137207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17867350578308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30208516120911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34544587135315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38880658149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50387907028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4738597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5355658531189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5055468082428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51722049713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75236916542053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71901535987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239416122437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76904630661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81907820701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92914748191833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88411927223206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89912843704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87911558151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81741070747375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69566679000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63729667663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54390454292297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58559727668762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73235630989075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67732191085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61561584472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72068238258362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71734738349915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45551490783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55224323272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52222394943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50221133232117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57725858688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63562870025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62562251091003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63396096229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391073226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61394906044006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69733500480652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66231274604797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71401119232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76237511634827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73402452468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76070761680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60727739334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70233750343323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71067667007446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50721406936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48553419113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48720169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40214800834656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43883776664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34044241905212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28540802001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27373385429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24037909507751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27706909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21036005020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17533850669861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06526899337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07694268226624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01190161705017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97687911987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02357578277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02691125869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0152370929718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10862898826599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23537635803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25038576126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38547110557556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2987494468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52722692489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55724573135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5205557346344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56892013549805</t>
+    <t xml:space="preserve">3.5572464466095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52055644989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56892061233521</t>
   </si>
   <si>
     <t xml:space="preserve">3.64396715164185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51888823509216</t>
+    <t xml:space="preserve">3.51888799667358</t>
   </si>
   <si>
     <t xml:space="preserve">3.68566060066223</t>
@@ -686,19 +686,19 @@
     <t xml:space="preserve">3.75070190429688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66064476966858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77738499641418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55557799339294</t>
+    <t xml:space="preserve">3.66064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77738571166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55557823181152</t>
   </si>
   <si>
     <t xml:space="preserve">3.39881277084351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35211634635925</t>
+    <t xml:space="preserve">3.35211658477783</t>
   </si>
   <si>
     <t xml:space="preserve">3.29374623298645</t>
@@ -710,43 +710,43 @@
     <t xml:space="preserve">3.31209111213684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29541373252869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29708170890808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32710075378418</t>
+    <t xml:space="preserve">3.29541397094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2970814704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3271005153656</t>
   </si>
   <si>
     <t xml:space="preserve">3.34211015701294</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30041694641113</t>
+    <t xml:space="preserve">3.30041742324829</t>
   </si>
   <si>
     <t xml:space="preserve">4.08090972900391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12760639190674</t>
+    <t xml:space="preserve">4.12760591506958</t>
   </si>
   <si>
     <t xml:space="preserve">4.21099233627319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25268459320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26102304458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14428281784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03588056564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27770137786865</t>
+    <t xml:space="preserve">4.25268507003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26102352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14428329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03588151931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27770090103149</t>
   </si>
   <si>
     <t xml:space="preserve">4.36942481994629</t>
@@ -758,16 +758,16 @@
     <t xml:space="preserve">4.56121349334717</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52785873413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49867343902588</t>
+    <t xml:space="preserve">4.5278582572937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49867391586304</t>
   </si>
   <si>
     <t xml:space="preserve">4.50284337997437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46115016937256</t>
+    <t xml:space="preserve">4.4611496925354</t>
   </si>
   <si>
     <t xml:space="preserve">4.35274791717529</t>
@@ -779,25 +779,25 @@
     <t xml:space="preserve">4.44864225387573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46531915664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47365760803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65293788909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51535081863403</t>
+    <t xml:space="preserve">4.46531963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47365713119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65293836593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51534986495972</t>
   </si>
   <si>
     <t xml:space="preserve">4.41528749465942</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34024047851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3360710144043</t>
+    <t xml:space="preserve">4.34024000167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33607053756714</t>
   </si>
   <si>
     <t xml:space="preserve">4.38610315322876</t>
@@ -812,31 +812,31 @@
     <t xml:space="preserve">4.33190202713013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29437828063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22766971588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18597602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30688524246216</t>
+    <t xml:space="preserve">4.29437780380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22766923904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18597650527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30688571929932</t>
   </si>
   <si>
     <t xml:space="preserve">4.49450397491455</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45281219482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36108684539795</t>
+    <t xml:space="preserve">4.45281171798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36108732223511</t>
   </si>
   <si>
     <t xml:space="preserve">4.39027166366577</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36525583267212</t>
+    <t xml:space="preserve">4.36525630950928</t>
   </si>
   <si>
     <t xml:space="preserve">4.53619718551636</t>
@@ -845,49 +845,49 @@
     <t xml:space="preserve">4.61958360671997</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60707521438599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61124467849731</t>
+    <t xml:space="preserve">4.60707569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61124563217163</t>
   </si>
   <si>
     <t xml:space="preserve">4.7738471031189</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75300025939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80720138549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82804822921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91560363769531</t>
+    <t xml:space="preserve">4.75300121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80720186233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82804870605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91560316085815</t>
   </si>
   <si>
     <t xml:space="preserve">4.90726566314697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74466228485107</t>
+    <t xml:space="preserve">4.74466276168823</t>
   </si>
   <si>
     <t xml:space="preserve">4.42779541015625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42362546920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34440946578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49153470993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53827857971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5042839050293</t>
+    <t xml:space="preserve">4.42362642288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34440994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49153566360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53827810287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50428342819214</t>
   </si>
   <si>
     <t xml:space="preserve">4.46178960800171</t>
@@ -899,31 +899,31 @@
     <t xml:space="preserve">4.38955116271973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35980701446533</t>
+    <t xml:space="preserve">4.35980653762817</t>
   </si>
   <si>
     <t xml:space="preserve">4.34280872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">4.40229940414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35130834579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2918176651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4192967414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45754051208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43204545974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47878742218018</t>
+    <t xml:space="preserve">4.40229988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35130786895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29181718826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41929626464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45754098892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43204498291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47878789901733</t>
   </si>
   <si>
     <t xml:space="preserve">4.38530254364014</t>
@@ -932,40 +932,40 @@
     <t xml:space="preserve">4.51703119277954</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48728656768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48303651809692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47028923034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55527591705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57227230072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65725994110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49578475952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4362940788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78473901748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67425680160522</t>
+    <t xml:space="preserve">4.48728704452515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48303699493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47028875350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55527544021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57227277755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65725898742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49578428268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43629455566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78473949432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67425632476807</t>
   </si>
   <si>
     <t xml:space="preserve">4.95046234130859</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09918832778931</t>
+    <t xml:space="preserve">5.09918928146362</t>
   </si>
   <si>
     <t xml:space="preserve">5.15867900848389</t>
@@ -983,28 +983,28 @@
     <t xml:space="preserve">5.35839748382568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52412128448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40938949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40514087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45188331604004</t>
+    <t xml:space="preserve">5.52412080764771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40938901901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40514039993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45188188552856</t>
   </si>
   <si>
     <t xml:space="preserve">5.41363859176636</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33290195465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39664173126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40089082717896</t>
+    <t xml:space="preserve">5.33290147781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39664125442505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4008903503418</t>
   </si>
   <si>
     <t xml:space="preserve">5.26491260528564</t>
@@ -1016,31 +1016,31 @@
     <t xml:space="preserve">5.15442991256714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666835784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30740594863892</t>
+    <t xml:space="preserve">5.22666883468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30740547180176</t>
   </si>
   <si>
     <t xml:space="preserve">5.17567682266235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13318300247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05669593811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09068965911865</t>
+    <t xml:space="preserve">5.13318347930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05669546127319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09069013595581</t>
   </si>
   <si>
     <t xml:space="preserve">5.0609450340271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00570344924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03969764709473</t>
+    <t xml:space="preserve">5.00570392608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03969812393188</t>
   </si>
   <si>
     <t xml:space="preserve">4.98870611190796</t>
@@ -1049,61 +1049,61 @@
     <t xml:space="preserve">5.00145483016968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0524468421936</t>
+    <t xml:space="preserve">5.05244588851929</t>
   </si>
   <si>
     <t xml:space="preserve">5.04394769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01420164108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12468481063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15018033981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21816921234131</t>
+    <t xml:space="preserve">5.01420259475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12468433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15018129348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21816968917847</t>
   </si>
   <si>
     <t xml:space="preserve">5.27766084671021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33715152740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28190994262695</t>
+    <t xml:space="preserve">5.33715105056763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28190946578979</t>
   </si>
   <si>
     <t xml:space="preserve">5.23516702651978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43913459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37114524841309</t>
+    <t xml:space="preserve">5.43913507461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37114572525024</t>
   </si>
   <si>
     <t xml:space="preserve">5.32865190505981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69409418106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80032730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12327527999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92355728149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19551467895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1360239982605</t>
+    <t xml:space="preserve">5.69409370422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80032682418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1232762336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9235577583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19551420211792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13602352142334</t>
   </si>
   <si>
     <t xml:space="preserve">6.28899955749512</t>
@@ -1112,40 +1112,40 @@
     <t xml:space="preserve">6.00854396820068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05953550338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08503198623657</t>
+    <t xml:space="preserve">6.05953645706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08503103256226</t>
   </si>
   <si>
     <t xml:space="preserve">6.15302085876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11477708816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08928155899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03403949737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97879886627197</t>
+    <t xml:space="preserve">6.1147780418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08928108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03403997421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97879838943481</t>
   </si>
   <si>
     <t xml:space="preserve">6.04678773880005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01704263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0212926864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99154758453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96180152893066</t>
+    <t xml:space="preserve">6.0170431137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02129220962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99154663085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96180200576782</t>
   </si>
   <si>
     <t xml:space="preserve">6.12752485275269</t>
@@ -1157,25 +1157,25 @@
     <t xml:space="preserve">6.15727043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21251153945923</t>
+    <t xml:space="preserve">6.21251201629639</t>
   </si>
   <si>
     <t xml:space="preserve">6.1487717628479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11902618408203</t>
+    <t xml:space="preserve">6.11902666091919</t>
   </si>
   <si>
     <t xml:space="preserve">6.17001867294312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19976425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41647911071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29749822616577</t>
+    <t xml:space="preserve">6.19976329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41648006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29749774932861</t>
   </si>
   <si>
     <t xml:space="preserve">6.32299423217773</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">6.20401334762573</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36973714828491</t>
+    <t xml:space="preserve">6.36973667144775</t>
   </si>
   <si>
     <t xml:space="preserve">6.33574199676514</t>
@@ -1193,16 +1193,16 @@
     <t xml:space="preserve">6.14452266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22101020812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30599641799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33149242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34424114227295</t>
+    <t xml:space="preserve">6.2210111618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30599689483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33149290084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34424066543579</t>
   </si>
   <si>
     <t xml:space="preserve">6.26775312423706</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">6.06378555297852</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13177394866943</t>
+    <t xml:space="preserve">6.13177442550659</t>
   </si>
   <si>
     <t xml:space="preserve">6.14027309417725</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">6.18276643753052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1615195274353</t>
+    <t xml:space="preserve">6.16152000427246</t>
   </si>
   <si>
     <t xml:space="preserve">6.27200222015381</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">6.34848976135254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40797996520996</t>
+    <t xml:space="preserve">6.40798091888428</t>
   </si>
   <si>
     <t xml:space="preserve">6.71393203735352</t>
@@ -1250,40 +1250,40 @@
     <t xml:space="preserve">6.74792671203613</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7054328918457</t>
+    <t xml:space="preserve">6.70543336868286</t>
   </si>
   <si>
     <t xml:space="preserve">6.63744401931763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62894535064697</t>
+    <t xml:space="preserve">6.62894630432129</t>
   </si>
   <si>
     <t xml:space="preserve">6.79041957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87540674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72243118286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75642538070679</t>
+    <t xml:space="preserve">6.87540578842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72243022918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75642490386963</t>
   </si>
   <si>
     <t xml:space="preserve">6.76492357254028</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84141254425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65444040298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64594268798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7989182472229</t>
+    <t xml:space="preserve">6.84141159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65444087982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64594316482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79891920089722</t>
   </si>
   <si>
     <t xml:space="preserve">6.6799373626709</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">6.57795333862305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42497777938843</t>
+    <t xml:space="preserve">6.42497730255127</t>
   </si>
   <si>
     <t xml:space="preserve">6.35698843002319</t>
@@ -1307,25 +1307,25 @@
     <t xml:space="preserve">6.66294002532959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39098310470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49296712875366</t>
+    <t xml:space="preserve">6.39098262786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4929666519165</t>
   </si>
   <si>
     <t xml:space="preserve">6.45897245407104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.263503074646</t>
+    <t xml:space="preserve">6.26350355148315</t>
   </si>
   <si>
     <t xml:space="preserve">6.2805004119873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18701553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06803369522095</t>
+    <t xml:space="preserve">6.18701601028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06803512573242</t>
   </si>
   <si>
     <t xml:space="preserve">6.2550048828125</t>
@@ -1334,52 +1334,52 @@
     <t xml:space="preserve">6.17851686477661</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00004577636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96605157852173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93205690383911</t>
+    <t xml:space="preserve">6.00004529953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96605110168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93205642700195</t>
   </si>
   <si>
     <t xml:space="preserve">5.83857107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87256574630737</t>
+    <t xml:space="preserve">5.87256526947021</t>
   </si>
   <si>
     <t xml:space="preserve">5.88106441497803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7960786819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94055509567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98304843902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88956260681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89806127548218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90656042098999</t>
+    <t xml:space="preserve">5.79607820510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94055461883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98304796218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88956308364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89806175231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90655994415283</t>
   </si>
   <si>
     <t xml:space="preserve">5.74508619308472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76233911514282</t>
+    <t xml:space="preserve">5.76233816146851</t>
   </si>
   <si>
     <t xml:space="preserve">5.79684352874756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77959108352661</t>
+    <t xml:space="preserve">5.77959060668945</t>
   </si>
   <si>
     <t xml:space="preserve">5.81409597396851</t>
@@ -1391,112 +1391,112 @@
     <t xml:space="preserve">5.56393432617188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65882396697998</t>
+    <t xml:space="preserve">5.65882349014282</t>
   </si>
   <si>
     <t xml:space="preserve">5.65019798278809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85722780227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69332790374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77096557617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82272291183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89173269271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02975225448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02112674713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01249980926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86585378646851</t>
+    <t xml:space="preserve">5.85722684860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69332885742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77096462249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82272243499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89173173904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02975273132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02112627029419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01249933242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86585330963135</t>
   </si>
   <si>
     <t xml:space="preserve">5.9003586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83134889602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9262375831604</t>
+    <t xml:space="preserve">5.83134794235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92623710632324</t>
   </si>
   <si>
     <t xml:space="preserve">5.67607593536377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61569261550903</t>
+    <t xml:space="preserve">5.61569309234619</t>
   </si>
   <si>
     <t xml:space="preserve">5.80546998977661</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83997488021851</t>
+    <t xml:space="preserve">5.83997440338135</t>
   </si>
   <si>
     <t xml:space="preserve">5.84860134124756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71920776367188</t>
+    <t xml:space="preserve">5.71920728683472</t>
   </si>
   <si>
     <t xml:space="preserve">5.62431907653809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78821802139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13326740264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11601543426514</t>
+    <t xml:space="preserve">5.78821706771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13326787948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11601495742798</t>
   </si>
   <si>
     <t xml:space="preserve">5.93486404418945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87448024749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91761159896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90898561477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0038743019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99524736404419</t>
+    <t xml:space="preserve">5.8744797706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91761112213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90898513793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00387334823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99524784088135</t>
   </si>
   <si>
     <t xml:space="preserve">6.04700517654419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96936893463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88310670852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94349050521851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9521164894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53805637359619</t>
+    <t xml:space="preserve">5.96936941146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88310623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94349002838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95211601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53805589675903</t>
   </si>
   <si>
     <t xml:space="preserve">5.49492454528809</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">5.44316720962524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36553049087524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40866136550903</t>
+    <t xml:space="preserve">5.3655309677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40866279602051</t>
   </si>
   <si>
     <t xml:space="preserve">5.54668188095093</t>
@@ -1517,13 +1517,13 @@
     <t xml:space="preserve">5.57256126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55530834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46041917800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4776725769043</t>
+    <t xml:space="preserve">5.55530881881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46042013168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47767210006714</t>
   </si>
   <si>
     <t xml:space="preserve">5.33102560043335</t>
@@ -1535,13 +1535,13 @@
     <t xml:space="preserve">5.21888446807861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3482780456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23613739013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3741569519043</t>
+    <t xml:space="preserve">5.34827852249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23613786697388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37415742874146</t>
   </si>
   <si>
     <t xml:space="preserve">5.35690498352051</t>
@@ -1553,13 +1553,13 @@
     <t xml:space="preserve">5.33965253829956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39140939712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42591428756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4000358581543</t>
+    <t xml:space="preserve">5.3914098739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42591524124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40003681182861</t>
   </si>
   <si>
     <t xml:space="preserve">5.59843969345093</t>
@@ -1571,34 +1571,34 @@
     <t xml:space="preserve">5.27064228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19300603866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27926778793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21025800704956</t>
+    <t xml:space="preserve">5.19300556182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27926826477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21025848388672</t>
   </si>
   <si>
     <t xml:space="preserve">5.01185464859009</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69268274307251</t>
+    <t xml:space="preserve">4.69268321990967</t>
   </si>
   <si>
     <t xml:space="preserve">4.58916807174683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65817785263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46840000152588</t>
+    <t xml:space="preserve">4.65817737579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46840047836304</t>
   </si>
   <si>
     <t xml:space="preserve">4.63229894638062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61504697799683</t>
+    <t xml:space="preserve">4.61504650115967</t>
   </si>
   <si>
     <t xml:space="preserve">4.70993566513062</t>
@@ -1607,16 +1607,16 @@
     <t xml:space="preserve">4.55466318130493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35625886917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2268648147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3045015335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1751070022583</t>
+    <t xml:space="preserve">4.3562593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22686529159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30450057983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17510795593262</t>
   </si>
   <si>
     <t xml:space="preserve">4.2872486114502</t>
@@ -1628,10 +1628,10 @@
     <t xml:space="preserve">4.48565244674683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62367296218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68405675888062</t>
+    <t xml:space="preserve">4.62367248535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68405628204346</t>
   </si>
   <si>
     <t xml:space="preserve">4.70130920410156</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">4.72718858718872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50290489196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58054208755493</t>
+    <t xml:space="preserve">4.50290536880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58054161071777</t>
   </si>
   <si>
     <t xml:space="preserve">4.51153135299683</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">4.3821382522583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42526960372925</t>
+    <t xml:space="preserve">4.42526912689209</t>
   </si>
   <si>
     <t xml:space="preserve">4.2786226272583</t>
@@ -1664,25 +1664,25 @@
     <t xml:space="preserve">4.12766313552856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16648101806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18804788589478</t>
+    <t xml:space="preserve">4.16648149490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18804693222046</t>
   </si>
   <si>
     <t xml:space="preserve">4.23549127578735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32175350189209</t>
+    <t xml:space="preserve">4.32175397872925</t>
   </si>
   <si>
     <t xml:space="preserve">4.30018901824951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24411821365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18373346328735</t>
+    <t xml:space="preserve">4.24411725997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18373394012451</t>
   </si>
   <si>
     <t xml:space="preserve">4.11903667449951</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">4.3390064239502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22255229949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13197660446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23117780685425</t>
+    <t xml:space="preserve">4.22255182266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13197612762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23117828369141</t>
   </si>
   <si>
     <t xml:space="preserve">4.17079448699951</t>
@@ -1733,61 +1733,61 @@
     <t xml:space="preserve">4.91696548461914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96009731292725</t>
+    <t xml:space="preserve">4.96009683609009</t>
   </si>
   <si>
     <t xml:space="preserve">5.00322866439819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98597621917725</t>
+    <t xml:space="preserve">4.98597574234009</t>
   </si>
   <si>
     <t xml:space="preserve">5.05498600006104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10674285888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11536884307861</t>
+    <t xml:space="preserve">5.10674381256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11537027359009</t>
   </si>
   <si>
     <t xml:space="preserve">5.13262176513672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15850067138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08948993682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07223796844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30514764785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22750997543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2620153427124</t>
+    <t xml:space="preserve">5.15850019454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08949136734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07223844528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30514717102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22751092910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26201581954956</t>
   </si>
   <si>
     <t xml:space="preserve">5.32239961624146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4517936706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38278293609619</t>
+    <t xml:space="preserve">5.45179319381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38278341293335</t>
   </si>
   <si>
     <t xml:space="preserve">5.51217699050903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5035514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58118677139282</t>
+    <t xml:space="preserve">5.50355100631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">5.60706615447998</t>
@@ -1796,36 +1796,39 @@
     <t xml:space="preserve">5.52942991256714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52080297470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08086395263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21648120880127</t>
+    <t xml:space="preserve">5.52080392837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08086490631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21648073196411</t>
   </si>
   <si>
     <t xml:space="preserve">5.23413419723511</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11938953399658</t>
+    <t xml:space="preserve">5.11938905715942</t>
   </si>
   <si>
     <t xml:space="preserve">5.11056280136108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16352128982544</t>
+    <t xml:space="preserve">5.1635217666626</t>
   </si>
   <si>
     <t xml:space="preserve">5.19000148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19882774353027</t>
+    <t xml:space="preserve">5.19882822036743</t>
   </si>
   <si>
     <t xml:space="preserve">5.24296092987061</t>
   </si>
   <si>
+    <t xml:space="preserve">5.32240009307861</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.30474662780762</t>
   </si>
   <si>
@@ -1835,100 +1838,100 @@
     <t xml:space="preserve">5.33122587203979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36653184890747</t>
+    <t xml:space="preserve">5.36653232574463</t>
   </si>
   <si>
     <t xml:space="preserve">5.34005308151245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35770559310913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44597148895264</t>
+    <t xml:space="preserve">5.35770606994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44597101211548</t>
   </si>
   <si>
     <t xml:space="preserve">5.5695424079895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65780782699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53423643112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43714475631714</t>
+    <t xml:space="preserve">5.65780735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53423595428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43714427947998</t>
   </si>
   <si>
     <t xml:space="preserve">5.51658296585083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68428707122803</t>
+    <t xml:space="preserve">5.68428754806519</t>
   </si>
   <si>
     <t xml:space="preserve">5.63132810592651</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58719491958618</t>
+    <t xml:space="preserve">5.5871958732605</t>
   </si>
   <si>
     <t xml:space="preserve">5.7548999786377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87847137451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86081838607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84316492080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76372671127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81668567657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78137922286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71076679229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60484886169434</t>
+    <t xml:space="preserve">5.87847089767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86081743240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84316539764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76372623443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81668519973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78137969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71076726913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60484838485718</t>
   </si>
   <si>
     <t xml:space="preserve">5.56071615219116</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67546081542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85199165344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62250185012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34887933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28709268569946</t>
+    <t xml:space="preserve">5.67546033859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85199213027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62250232696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34887838363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28709316253662</t>
   </si>
   <si>
     <t xml:space="preserve">5.39301156997681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29591941833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22530746459961</t>
+    <t xml:space="preserve">5.29592037200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22530794143677</t>
   </si>
   <si>
     <t xml:space="preserve">5.37535858154297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18117475509644</t>
+    <t xml:space="preserve">5.18117427825928</t>
   </si>
   <si>
     <t xml:space="preserve">5.25178623199463</t>
@@ -1937,22 +1940,22 @@
     <t xml:space="preserve">5.26944017410278</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26061344146729</t>
+    <t xml:space="preserve">5.26061391830444</t>
   </si>
   <si>
     <t xml:space="preserve">5.4018383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64898157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55188941955566</t>
+    <t xml:space="preserve">5.64898109436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55188989639282</t>
   </si>
   <si>
     <t xml:space="preserve">5.59602212905884</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50775671005249</t>
+    <t xml:space="preserve">5.50775623321533</t>
   </si>
   <si>
     <t xml:space="preserve">5.47245025634766</t>
@@ -1961,10 +1964,10 @@
     <t xml:space="preserve">5.42831802368164</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49010324478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12821531295776</t>
+    <t xml:space="preserve">5.49010372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12821578979492</t>
   </si>
   <si>
     <t xml:space="preserve">5.14586877822876</t>
@@ -1979,22 +1982,22 @@
     <t xml:space="preserve">5.20765447616577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25531816482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31269025802612</t>
+    <t xml:space="preserve">5.25531768798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31268978118896</t>
   </si>
   <si>
     <t xml:space="preserve">5.38418483734131</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45214986801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43273162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3850679397583</t>
+    <t xml:space="preserve">5.45214939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43273115158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38506746292114</t>
   </si>
   <si>
     <t xml:space="preserve">5.41154766082764</t>
@@ -2006,7 +2009,7 @@
     <t xml:space="preserve">5.45391511917114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32328176498413</t>
+    <t xml:space="preserve">5.32328224182129</t>
   </si>
   <si>
     <t xml:space="preserve">5.44950151443481</t>
@@ -2018,7 +2021,7 @@
     <t xml:space="preserve">5.54747581481934</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42390489578247</t>
+    <t xml:space="preserve">5.42390441894531</t>
   </si>
   <si>
     <t xml:space="preserve">5.62779760360718</t>
@@ -2027,13 +2030,13 @@
     <t xml:space="preserve">5.7284197807312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62603187561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57130765914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53070592880249</t>
+    <t xml:space="preserve">5.62603235244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57130718231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53070545196533</t>
   </si>
   <si>
     <t xml:space="preserve">5.57660341262817</t>
@@ -2045,43 +2048,43 @@
     <t xml:space="preserve">5.578369140625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89612340927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1432671546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16092014312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16974639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06294536590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8846492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89789009094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86876153945923</t>
+    <t xml:space="preserve">5.8961238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14326667785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16091966629028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16974687576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06294584274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88464975357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89788961410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86876201629639</t>
   </si>
   <si>
     <t xml:space="preserve">5.85552167892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85375642776489</t>
+    <t xml:space="preserve">5.85375690460205</t>
   </si>
   <si>
     <t xml:space="preserve">5.92613458633423</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02322626113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05147171020508</t>
+    <t xml:space="preserve">6.02322673797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05147123336792</t>
   </si>
   <si>
     <t xml:space="preserve">6.05941534042358</t>
@@ -2093,28 +2096,28 @@
     <t xml:space="preserve">6.04441022872925</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9702672958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97291564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79373645782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84669542312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93496036529541</t>
+    <t xml:space="preserve">5.97026681900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9729151725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79373598098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84669589996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93496084213257</t>
   </si>
   <si>
     <t xml:space="preserve">6.02410888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81933355331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68605279922485</t>
+    <t xml:space="preserve">5.81933307647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6860523223877</t>
   </si>
   <si>
     <t xml:space="preserve">5.87052726745605</t>
@@ -2129,10 +2132,10 @@
     <t xml:space="preserve">5.84934329986572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8343391418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8113899230957</t>
+    <t xml:space="preserve">5.83433818817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81138944625854</t>
   </si>
   <si>
     <t xml:space="preserve">5.80609321594238</t>
@@ -2144,13 +2147,13 @@
     <t xml:space="preserve">5.87405776977539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77078676223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68340539932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73724699020386</t>
+    <t xml:space="preserve">5.77078723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68340492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7372465133667</t>
   </si>
   <si>
     <t xml:space="preserve">5.78579187393188</t>
@@ -2159,7 +2162,7 @@
     <t xml:space="preserve">5.69311380386353</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69576168060303</t>
+    <t xml:space="preserve">5.69576120376587</t>
   </si>
   <si>
     <t xml:space="preserve">5.75754737854004</t>
@@ -2177,10 +2180,10 @@
     <t xml:space="preserve">5.7654914855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76813983917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86964511871338</t>
+    <t xml:space="preserve">5.76813936233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86964464187622</t>
   </si>
   <si>
     <t xml:space="preserve">5.95702695846558</t>
@@ -2192,40 +2195,40 @@
     <t xml:space="preserve">6.04617500305176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99321556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82816028594971</t>
+    <t xml:space="preserve">5.99321603775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82815980911255</t>
   </si>
   <si>
     <t xml:space="preserve">5.5298228263855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46891975402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29856824874878</t>
+    <t xml:space="preserve">5.46892023086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29856777191162</t>
   </si>
   <si>
     <t xml:space="preserve">5.14057302474976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25708293914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28356266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89166498184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32809019088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38678646087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39296627044678</t>
+    <t xml:space="preserve">5.25708246231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28356313705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89166450500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32809066772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38678693771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39296579360962</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357482910156</t>
@@ -2234,16 +2237,16 @@
     <t xml:space="preserve">4.19260358810425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06020545959473</t>
+    <t xml:space="preserve">4.06020593643188</t>
   </si>
   <si>
     <t xml:space="preserve">3.84969234466553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97194051742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25880241394043</t>
+    <t xml:space="preserve">3.97193956375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25880193710327</t>
   </si>
   <si>
     <t xml:space="preserve">3.90000343322754</t>
@@ -2255,28 +2258,28 @@
     <t xml:space="preserve">4.15111875534058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35898303985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19966411590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13743734359741</t>
+    <t xml:space="preserve">4.35898351669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19966459274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13743782043457</t>
   </si>
   <si>
     <t xml:space="preserve">4.34177160263062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39561367034912</t>
+    <t xml:space="preserve">4.39561319351196</t>
   </si>
   <si>
     <t xml:space="preserve">4.45739984512329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25438928604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4132661819458</t>
+    <t xml:space="preserve">4.2543888092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41326665878296</t>
   </si>
   <si>
     <t xml:space="preserve">4.54566478729248</t>
@@ -2285,7 +2288,7 @@
     <t xml:space="preserve">4.70454216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57214403152466</t>
+    <t xml:space="preserve">4.57214450836182</t>
   </si>
   <si>
     <t xml:space="preserve">4.72219514846802</t>
@@ -2294,10 +2297,10 @@
     <t xml:space="preserve">4.66040992736816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6692361831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61627674102783</t>
+    <t xml:space="preserve">4.66923570632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61627721786499</t>
   </si>
   <si>
     <t xml:space="preserve">4.58979749679565</t>
@@ -2306,13 +2309,13 @@
     <t xml:space="preserve">4.8369402885437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86342000961304</t>
+    <t xml:space="preserve">4.86341953277588</t>
   </si>
   <si>
     <t xml:space="preserve">4.88989973068237</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03995037078857</t>
+    <t xml:space="preserve">5.03995084762573</t>
   </si>
   <si>
     <t xml:space="preserve">5.0134711265564</t>
@@ -2324,67 +2327,67 @@
     <t xml:space="preserve">4.678062915802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64275646209717</t>
+    <t xml:space="preserve">4.64275693893433</t>
   </si>
   <si>
     <t xml:space="preserve">4.71336936950684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76632785797119</t>
+    <t xml:space="preserve">4.76632738113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89872646331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00738525390625</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872598648071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00738525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89872550964355</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.82628631591797</t>
   </si>
   <si>
     <t xml:space="preserve">4.98022079467773</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01643991470337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20659399032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3243088722229</t>
+    <t xml:space="preserve">5.01644039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20659446716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32430791854858</t>
   </si>
   <si>
     <t xml:space="preserve">5.29714345932007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50540685653687</t>
+    <t xml:space="preserve">5.50540733337402</t>
   </si>
   <si>
     <t xml:space="preserve">5.55068206787109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40580224990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63217687606812</t>
+    <t xml:space="preserve">5.40580272674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63217639923096</t>
   </si>
   <si>
     <t xml:space="preserve">5.60501194000244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71367073059082</t>
+    <t xml:space="preserve">5.71367120742798</t>
   </si>
   <si>
     <t xml:space="preserve">5.84044027328491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93099021911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74989032745361</t>
+    <t xml:space="preserve">5.93099069595337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74989080429077</t>
   </si>
   <si>
     <t xml:space="preserve">5.41485786437988</t>
@@ -2393,19 +2396,19 @@
     <t xml:space="preserve">5.37863826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3424186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66839647293091</t>
+    <t xml:space="preserve">5.34241819381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66839694976807</t>
   </si>
   <si>
     <t xml:space="preserve">5.84949541091919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72272634506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76800060272217</t>
+    <t xml:space="preserve">5.7227258682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76800107955933</t>
   </si>
   <si>
     <t xml:space="preserve">5.79516553878784</t>
@@ -2420,19 +2423,19 @@
     <t xml:space="preserve">5.83138561248779</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69556093215942</t>
+    <t xml:space="preserve">5.69556140899658</t>
   </si>
   <si>
     <t xml:space="preserve">5.67745113372803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64123153686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56879186630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46013259887695</t>
+    <t xml:space="preserve">5.64123201370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56879234313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46013307571411</t>
   </si>
   <si>
     <t xml:space="preserve">5.5325722694397</t>
@@ -2453,31 +2456,31 @@
     <t xml:space="preserve">5.31525325775146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46918773651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36052799224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36958265304565</t>
+    <t xml:space="preserve">5.46918725967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36052846908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36958312988281</t>
   </si>
   <si>
     <t xml:space="preserve">5.47824287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59595632553101</t>
+    <t xml:space="preserve">5.59595680236816</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461654663086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65028619766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61406660079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48729753494263</t>
+    <t xml:space="preserve">5.6502857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6140661239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48729705810547</t>
   </si>
   <si>
     <t xml:space="preserve">5.45107746124268</t>
@@ -2489,7 +2492,7 @@
     <t xml:space="preserve">5.30619859695435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43296766281128</t>
+    <t xml:space="preserve">5.43296813964844</t>
   </si>
   <si>
     <t xml:space="preserve">5.44202280044556</t>
@@ -2498,22 +2501,22 @@
     <t xml:space="preserve">5.35147333145142</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26092338562012</t>
+    <t xml:space="preserve">5.26092386245728</t>
   </si>
   <si>
     <t xml:space="preserve">5.23375940322876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26997852325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28808832168579</t>
+    <t xml:space="preserve">5.26997900009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28808879852295</t>
   </si>
   <si>
     <t xml:space="preserve">5.12509965896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99833011627197</t>
+    <t xml:space="preserve">4.99833059310913</t>
   </si>
   <si>
     <t xml:space="preserve">4.70857191085815</t>
@@ -2537,16 +2540,16 @@
     <t xml:space="preserve">5.08887958526611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02153968811035</t>
+    <t xml:space="preserve">6.02153921127319</t>
   </si>
   <si>
     <t xml:space="preserve">6.13019847869873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13925361633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11208820343018</t>
+    <t xml:space="preserve">6.13925409317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11208868026733</t>
   </si>
   <si>
     <t xml:space="preserve">6.22074842453003</t>
@@ -2561,73 +2564,73 @@
     <t xml:space="preserve">6.31129741668701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36562728881836</t>
+    <t xml:space="preserve">6.36562776565552</t>
   </si>
   <si>
     <t xml:space="preserve">6.41090202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44712162017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37468242645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42901182174683</t>
+    <t xml:space="preserve">6.44712114334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37468194961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42901229858398</t>
   </si>
   <si>
     <t xml:space="preserve">6.4380669593811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23885822296143</t>
+    <t xml:space="preserve">6.23885774612427</t>
   </si>
   <si>
     <t xml:space="preserve">6.20263814926147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18452787399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17547369003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10303354263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08492374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05775928497314</t>
+    <t xml:space="preserve">6.18452835083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1754732131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10303401947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0849232673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05775880813599</t>
   </si>
   <si>
     <t xml:space="preserve">6.06681394577026</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03964900970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03059387207031</t>
+    <t xml:space="preserve">6.03964948654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03059434890747</t>
   </si>
   <si>
     <t xml:space="preserve">6.35657215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59200096130371</t>
+    <t xml:space="preserve">6.59200048446655</t>
   </si>
   <si>
     <t xml:space="preserve">6.4561767578125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40184688568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32940721511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16641807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50145101547241</t>
+    <t xml:space="preserve">6.40184736251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32940769195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16641855239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50145149230957</t>
   </si>
   <si>
     <t xml:space="preserve">6.24791288375854</t>
@@ -2651,22 +2654,22 @@
     <t xml:space="preserve">7.15340757369995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58804512023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69670438766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7510347366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84158277511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6785945892334</t>
+    <t xml:space="preserve">7.58804559707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69670391082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75103425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725385665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84158325195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67859411239624</t>
   </si>
   <si>
     <t xml:space="preserve">7.46127557754517</t>
@@ -2678,22 +2681,22 @@
     <t xml:space="preserve">7.32545137405396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44316577911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28017711639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1896276473999</t>
+    <t xml:space="preserve">7.44316530227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28017616271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18962717056274</t>
   </si>
   <si>
     <t xml:space="preserve">7.33450698852539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36167097091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49749517440796</t>
+    <t xml:space="preserve">7.36167144775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4974946975708</t>
   </si>
   <si>
     <t xml:space="preserve">7.63331985473633</t>
@@ -2702,13 +2705,13 @@
     <t xml:space="preserve">7.74197912216187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73292350769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80536317825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.660484790802</t>
+    <t xml:space="preserve">7.73292398452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80536413192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66048431396484</t>
   </si>
   <si>
     <t xml:space="preserve">7.6061544418335</t>
@@ -2717,37 +2720,37 @@
     <t xml:space="preserve">7.31639623641968</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76914405822754</t>
+    <t xml:space="preserve">7.76914358139038</t>
   </si>
   <si>
     <t xml:space="preserve">7.83252859115601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9230785369873</t>
+    <t xml:space="preserve">7.92307806015015</t>
   </si>
   <si>
     <t xml:space="preserve">8.09512138366699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35771465301514</t>
+    <t xml:space="preserve">8.35771560668945</t>
   </si>
   <si>
     <t xml:space="preserve">8.25811100006104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15850639343262</t>
+    <t xml:space="preserve">8.15850734710693</t>
   </si>
   <si>
     <t xml:space="preserve">8.3396053314209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36677074432373</t>
+    <t xml:space="preserve">8.36676979064941</t>
   </si>
   <si>
     <t xml:space="preserve">8.14945125579834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24905490875244</t>
+    <t xml:space="preserve">8.24905586242676</t>
   </si>
   <si>
     <t xml:space="preserve">8.21283626556396</t>
@@ -2756,10 +2759,10 @@
     <t xml:space="preserve">8.20378112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16756248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2400016784668</t>
+    <t xml:space="preserve">8.16756153106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24000072479248</t>
   </si>
   <si>
     <t xml:space="preserve">8.30338573455811</t>
@@ -2768,7 +2771,7 @@
     <t xml:space="preserve">8.23094654083252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31244087219238</t>
+    <t xml:space="preserve">8.31243991851807</t>
   </si>
   <si>
     <t xml:space="preserve">8.55692386627197</t>
@@ -2777,16 +2780,16 @@
     <t xml:space="preserve">8.40298938751221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61125469207764</t>
+    <t xml:space="preserve">8.61125373840332</t>
   </si>
   <si>
     <t xml:space="preserve">8.5478687286377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68369293212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60219955444336</t>
+    <t xml:space="preserve">8.68369483947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60219860076904</t>
   </si>
   <si>
     <t xml:space="preserve">8.81951713562012</t>
@@ -2795,7 +2798,7 @@
     <t xml:space="preserve">8.59314346313477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63882350921631</t>
+    <t xml:space="preserve">8.63882446289062</t>
   </si>
   <si>
     <t xml:space="preserve">8.77667808532715</t>
@@ -2819,28 +2822,25 @@
     <t xml:space="preserve">8.59287357330322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61125373840332</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.79505825042725</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93291187286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83181953430176</t>
+    <t xml:space="preserve">8.93291282653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83181858062744</t>
   </si>
   <si>
     <t xml:space="preserve">8.87777042388916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91453075408936</t>
+    <t xml:space="preserve">8.91453170776367</t>
   </si>
   <si>
     <t xml:space="preserve">8.85939025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64801502227783</t>
+    <t xml:space="preserve">8.64801406860352</t>
   </si>
   <si>
     <t xml:space="preserve">8.67558574676514</t>
@@ -2849,22 +2849,22 @@
     <t xml:space="preserve">8.68477535247803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70315551757812</t>
+    <t xml:space="preserve">8.70315647125244</t>
   </si>
   <si>
     <t xml:space="preserve">8.62963485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4366397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27121543884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31716728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24364471435547</t>
+    <t xml:space="preserve">8.43663883209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27121448516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31716537475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24364376068115</t>
   </si>
   <si>
     <t xml:space="preserve">8.20688343048096</t>
@@ -2873,10 +2873,10 @@
     <t xml:space="preserve">8.21607303619385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11498069763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16093158721924</t>
+    <t xml:space="preserve">8.11498165130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16093254089355</t>
   </si>
   <si>
     <t xml:space="preserve">7.90360593795776</t>
@@ -2885,43 +2885,43 @@
     <t xml:space="preserve">8.01388835906982</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94036626815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99550724029541</t>
+    <t xml:space="preserve">7.94036674499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99550676345825</t>
   </si>
   <si>
     <t xml:space="preserve">7.89441537857056</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15174102783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07821941375732</t>
+    <t xml:space="preserve">8.15174198150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07822036743164</t>
   </si>
   <si>
     <t xml:space="preserve">8.33554649353027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46420955657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32635593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38149833679199</t>
+    <t xml:space="preserve">8.46421051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32635688781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38149738311768</t>
   </si>
   <si>
     <t xml:space="preserve">8.12417125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75656080245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23445320129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40906715393066</t>
+    <t xml:space="preserve">7.75656175613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23445415496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40906810760498</t>
   </si>
   <si>
     <t xml:space="preserve">8.28959560394287</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">8.65720558166504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55611324310303</t>
+    <t xml:space="preserve">8.55611228942871</t>
   </si>
   <si>
     <t xml:space="preserve">8.51935195922852</t>
@@ -2939,22 +2939,22 @@
     <t xml:space="preserve">8.5009708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88696098327637</t>
+    <t xml:space="preserve">8.88696193695068</t>
   </si>
   <si>
     <t xml:space="preserve">8.80424880981445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39987945556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47340106964111</t>
+    <t xml:space="preserve">8.39987850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4734001159668</t>
   </si>
   <si>
     <t xml:space="preserve">8.81343936920166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95129299163818</t>
+    <t xml:space="preserve">8.95129203796387</t>
   </si>
   <si>
     <t xml:space="preserve">8.72153663635254</t>
@@ -2975,19 +2975,19 @@
     <t xml:space="preserve">8.08741092681885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14255142211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17931270599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04145908355713</t>
+    <t xml:space="preserve">8.14255046844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17931175231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04146003723145</t>
   </si>
   <si>
     <t xml:space="preserve">7.71979999542236</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78413200378418</t>
+    <t xml:space="preserve">7.78413248062134</t>
   </si>
   <si>
     <t xml:space="preserve">7.72899103164673</t>
@@ -2996,16 +2996,16 @@
     <t xml:space="preserve">7.70142030715942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81170320510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8300838470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87603378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9219856262207</t>
+    <t xml:space="preserve">7.81170272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83008432388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87603425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92198514938354</t>
   </si>
   <si>
     <t xml:space="preserve">7.86684513092041</t>
@@ -3017,16 +3017,16 @@
     <t xml:space="preserve">8.39068794250488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35392761230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37230682373047</t>
+    <t xml:space="preserve">8.35392665863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37230777740479</t>
   </si>
   <si>
     <t xml:space="preserve">8.5469217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34473705291748</t>
+    <t xml:space="preserve">8.34473609924316</t>
   </si>
   <si>
     <t xml:space="preserve">8.18850326538086</t>
@@ -3038,40 +3038,40 @@
     <t xml:space="preserve">7.84846353530884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76575136184692</t>
+    <t xml:space="preserve">7.76575183868408</t>
   </si>
   <si>
     <t xml:space="preserve">7.52680492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48085498809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5176157951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6095175743103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50842475891113</t>
+    <t xml:space="preserve">7.48085451126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51761531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60951709747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50842523574829</t>
   </si>
   <si>
     <t xml:space="preserve">7.49923467636108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59113740921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80251169204712</t>
+    <t xml:space="preserve">7.59113788604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80251264572144</t>
   </si>
   <si>
     <t xml:space="preserve">7.61870813369751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5451865196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47166395187378</t>
+    <t xml:space="preserve">7.54518604278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47166442871094</t>
   </si>
   <si>
     <t xml:space="preserve">7.41652250289917</t>
@@ -3092,22 +3092,22 @@
     <t xml:space="preserve">7.79332256317139</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77494239807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68303966522217</t>
+    <t xml:space="preserve">7.77494192123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68303918838501</t>
   </si>
   <si>
     <t xml:space="preserve">7.67384958267212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46247339248657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5359959602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60032749176025</t>
+    <t xml:space="preserve">7.46247386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53599548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60032796859741</t>
   </si>
   <si>
     <t xml:space="preserve">7.10405445098877</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">7.06729364395142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16838598251343</t>
+    <t xml:space="preserve">7.16838693618774</t>
   </si>
   <si>
     <t xml:space="preserve">7.03053283691406</t>
@@ -3125,22 +3125,22 @@
     <t xml:space="preserve">7.15000581741333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2694787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26028871536255</t>
+    <t xml:space="preserve">7.26947832107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26028919219971</t>
   </si>
   <si>
     <t xml:space="preserve">7.08567428588867</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0213418006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03972244262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42571258544922</t>
+    <t xml:space="preserve">7.02134227752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03972291946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42571306228638</t>
   </si>
   <si>
     <t xml:space="preserve">7.37057209014893</t>
@@ -3149,40 +3149,40 @@
     <t xml:space="preserve">7.17757654190063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28785943984985</t>
+    <t xml:space="preserve">7.2878589630127</t>
   </si>
   <si>
     <t xml:space="preserve">7.3430004119873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14081573486328</t>
+    <t xml:space="preserve">7.14081525802612</t>
   </si>
   <si>
     <t xml:space="preserve">7.21433734893799</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9386305809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87429857254028</t>
+    <t xml:space="preserve">6.93863010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87429904937744</t>
   </si>
   <si>
     <t xml:space="preserve">6.80077695846558</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48830842971802</t>
+    <t xml:space="preserve">6.48830890655518</t>
   </si>
   <si>
     <t xml:space="preserve">6.72725486755371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54344987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45154762268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25855207443237</t>
+    <t xml:space="preserve">6.54345035552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45154809951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25855255126953</t>
   </si>
   <si>
     <t xml:space="preserve">5.97365522384644</t>
@@ -3191,19 +3191,19 @@
     <t xml:space="preserve">5.95527458190918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12988901138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40559577941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21260166168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26774311065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47911882400513</t>
+    <t xml:space="preserve">6.12988948822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4055962562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21260118484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26774263381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47911834716797</t>
   </si>
   <si>
     <t xml:space="preserve">6.3596453666687</t>
@@ -3227,10 +3227,10 @@
     <t xml:space="preserve">6.14827013015747</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24017190933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24936246871948</t>
+    <t xml:space="preserve">6.24017238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24936199188232</t>
   </si>
   <si>
     <t xml:space="preserve">6.39640617370605</t>
@@ -3239,25 +3239,25 @@
     <t xml:space="preserve">6.38721561431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30450391769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42397689819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29531383514404</t>
+    <t xml:space="preserve">6.30450344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4239764213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29531335830688</t>
   </si>
   <si>
     <t xml:space="preserve">5.96446466445923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98284530639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03798723220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01041650772095</t>
+    <t xml:space="preserve">5.98284578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03798675537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01041603088379</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636739730835</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">6.11150884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08393812179565</t>
+    <t xml:space="preserve">6.0839376449585</t>
   </si>
   <si>
     <t xml:space="preserve">6.0931282043457</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">6.07474803924561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20341110229492</t>
+    <t xml:space="preserve">6.20341157913208</t>
   </si>
   <si>
     <t xml:space="preserve">6.19422054290771</t>
@@ -4320,6 +4320,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.63000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76000022888184</t>
   </si>
 </sst>
 </file>
@@ -27299,7 +27302,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G871" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27325,7 +27328,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G872" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27351,7 +27354,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27377,7 +27380,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27403,7 +27406,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G875" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27429,7 +27432,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G876" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27455,7 +27458,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27481,7 +27484,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G878" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27507,7 +27510,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G879" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27533,7 +27536,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27559,7 +27562,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G881" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27585,7 +27588,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G882" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27611,7 +27614,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G883" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27637,7 +27640,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G884" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27663,7 +27666,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G885" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27689,7 +27692,7 @@
         <v>6.25</v>
       </c>
       <c r="G886" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27715,7 +27718,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G887" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27741,7 +27744,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G888" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27767,7 +27770,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27793,7 +27796,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G890" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27819,7 +27822,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G891" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27845,7 +27848,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G892" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27871,7 +27874,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G893" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27897,7 +27900,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G894" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27923,7 +27926,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G895" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27949,7 +27952,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G896" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27975,7 +27978,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G897" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28001,7 +28004,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G898" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28027,7 +28030,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G899" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28053,7 +28056,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G900" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28079,7 +28082,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G901" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28105,7 +28108,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G902" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28131,7 +28134,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G903" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28157,7 +28160,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G904" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28183,7 +28186,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G905" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28209,7 +28212,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28235,7 +28238,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G907" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28261,7 +28264,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G908" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28287,7 +28290,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G909" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28313,7 +28316,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G910" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28339,7 +28342,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G911" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28365,7 +28368,7 @@
         <v>6.25</v>
       </c>
       <c r="G912" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28391,7 +28394,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G913" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28417,7 +28420,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28443,7 +28446,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G915" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28469,7 +28472,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G916" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28495,7 +28498,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G917" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28547,7 +28550,7 @@
         <v>6</v>
       </c>
       <c r="G919" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28573,7 +28576,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G920" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28599,7 +28602,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28625,7 +28628,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G922" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28651,7 +28654,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G923" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28677,7 +28680,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G924" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28729,7 +28732,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G926" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28781,7 +28784,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G928" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28807,7 +28810,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G929" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28833,7 +28836,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28859,7 +28862,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G931" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28911,7 +28914,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G933" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28963,7 +28966,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28989,7 +28992,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G936" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29015,7 +29018,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G937" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29041,7 +29044,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G938" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29067,7 +29070,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29093,7 +29096,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G940" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29119,7 +29122,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29145,7 +29148,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29171,7 +29174,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G943" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29197,7 +29200,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G944" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29223,7 +29226,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G945" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29249,7 +29252,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G946" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29275,7 +29278,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G947" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29301,7 +29304,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G948" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29327,7 +29330,7 @@
         <v>6</v>
       </c>
       <c r="G949" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29353,7 +29356,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29379,7 +29382,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G951" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29405,7 +29408,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G952" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29431,7 +29434,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G953" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29457,7 +29460,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G954" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29509,7 +29512,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G956" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29535,7 +29538,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29561,7 +29564,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G958" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29587,7 +29590,7 @@
         <v>5.82299995422363</v>
       </c>
       <c r="G959" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29613,7 +29616,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G960" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29639,7 +29642,7 @@
         <v>5.9539999961853</v>
       </c>
       <c r="G961" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29665,7 +29668,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G962" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29691,7 +29694,7 @@
         <v>6.01900005340576</v>
       </c>
       <c r="G963" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29717,7 +29720,7 @@
         <v>6</v>
       </c>
       <c r="G964" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29743,7 +29746,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G965" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29769,7 +29772,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G966" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29795,7 +29798,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G967" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29821,7 +29824,7 @@
         <v>6.17700004577637</v>
       </c>
       <c r="G968" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29847,7 +29850,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G969" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29873,7 +29876,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G970" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29899,7 +29902,7 @@
         <v>6.13100004196167</v>
       </c>
       <c r="G971" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29925,7 +29928,7 @@
         <v>6.08699989318848</v>
       </c>
       <c r="G972" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29951,7 +29954,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G973" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29977,7 +29980,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G974" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30003,7 +30006,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G975" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30029,7 +30032,7 @@
         <v>6.0310001373291</v>
       </c>
       <c r="G976" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30055,7 +30058,7 @@
         <v>6.17399978637695</v>
       </c>
       <c r="G977" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30081,7 +30084,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G978" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30107,7 +30110,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G979" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30133,7 +30136,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G980" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30159,7 +30162,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G981" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30185,7 +30188,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G982" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30211,7 +30214,7 @@
         <v>6.37599992752075</v>
       </c>
       <c r="G983" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30237,7 +30240,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G984" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30263,7 +30266,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G985" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30289,7 +30292,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G986" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30315,7 +30318,7 @@
         <v>6.37400007247925</v>
       </c>
       <c r="G987" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30341,7 +30344,7 @@
         <v>6.31199979782104</v>
       </c>
       <c r="G988" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30367,7 +30370,7 @@
         <v>6.26599979400635</v>
       </c>
       <c r="G989" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30393,7 +30396,7 @@
         <v>6.31799983978271</v>
       </c>
       <c r="G990" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30419,7 +30422,7 @@
         <v>6.29099988937378</v>
       </c>
       <c r="G991" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30445,7 +30448,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G992" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30471,7 +30474,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G993" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30497,7 +30500,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G994" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30523,7 +30526,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G995" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30549,7 +30552,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G996" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30575,7 +30578,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G997" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30601,7 +30604,7 @@
         <v>6.86899995803833</v>
       </c>
       <c r="G998" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30627,7 +30630,7 @@
         <v>6.66699981689453</v>
       </c>
       <c r="G999" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30653,7 +30656,7 @@
         <v>6.68200016021729</v>
       </c>
       <c r="G1000" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30679,7 +30682,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G1001" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30705,7 +30708,7 @@
         <v>6.63399982452393</v>
       </c>
       <c r="G1002" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30731,7 +30734,7 @@
         <v>6.63199996948242</v>
       </c>
       <c r="G1003" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30757,7 +30760,7 @@
         <v>6.71400022506714</v>
       </c>
       <c r="G1004" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30783,7 +30786,7 @@
         <v>6.82399988174438</v>
       </c>
       <c r="G1005" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30809,7 +30812,7 @@
         <v>6.85599994659424</v>
       </c>
       <c r="G1006" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30835,7 +30838,7 @@
         <v>6.86499977111816</v>
       </c>
       <c r="G1007" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30861,7 +30864,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1008" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30887,7 +30890,7 @@
         <v>6.84800004959106</v>
       </c>
       <c r="G1009" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30913,7 +30916,7 @@
         <v>6.76399993896484</v>
       </c>
       <c r="G1010" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30939,7 +30942,7 @@
         <v>6.76700019836426</v>
       </c>
       <c r="G1011" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30965,7 +30968,7 @@
         <v>6.56400012969971</v>
       </c>
       <c r="G1012" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30991,7 +30994,7 @@
         <v>6.62400007247925</v>
       </c>
       <c r="G1013" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31017,7 +31020,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1014" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31043,7 +31046,7 @@
         <v>6.72399997711182</v>
       </c>
       <c r="G1015" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31069,7 +31072,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G1016" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31095,7 +31098,7 @@
         <v>6.59299993515015</v>
       </c>
       <c r="G1017" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31121,7 +31124,7 @@
         <v>6.44199991226196</v>
       </c>
       <c r="G1018" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31147,7 +31150,7 @@
         <v>6.65100002288818</v>
       </c>
       <c r="G1019" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31173,7 +31176,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1020" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31199,7 +31202,7 @@
         <v>6.6560001373291</v>
       </c>
       <c r="G1021" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31225,7 +31228,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G1022" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31251,7 +31254,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1023" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31277,7 +31280,7 @@
         <v>6.58400011062622</v>
       </c>
       <c r="G1024" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31303,7 +31306,7 @@
         <v>6.57800006866455</v>
       </c>
       <c r="G1025" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31329,7 +31332,7 @@
         <v>6.50400018692017</v>
       </c>
       <c r="G1026" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31355,7 +31358,7 @@
         <v>6.65500020980835</v>
       </c>
       <c r="G1027" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31381,7 +31384,7 @@
         <v>6.53800010681152</v>
       </c>
       <c r="G1028" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31407,7 +31410,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1029" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31433,7 +31436,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G1030" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31459,7 +31462,7 @@
         <v>6.5</v>
       </c>
       <c r="G1031" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31485,7 +31488,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1032" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31511,7 +31514,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G1033" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31537,7 +31540,7 @@
         <v>6.5</v>
       </c>
       <c r="G1034" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31563,7 +31566,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1035" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31589,7 +31592,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1036" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31615,7 +31618,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1037" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31641,7 +31644,7 @@
         <v>6.45300006866455</v>
       </c>
       <c r="G1038" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31667,7 +31670,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G1039" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31693,7 +31696,7 @@
         <v>6.61600017547607</v>
       </c>
       <c r="G1040" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31719,7 +31722,7 @@
         <v>6.48799991607666</v>
       </c>
       <c r="G1041" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31745,7 +31748,7 @@
         <v>6.47900009155273</v>
       </c>
       <c r="G1042" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31771,7 +31774,7 @@
         <v>6.53200006484985</v>
       </c>
       <c r="G1043" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31797,7 +31800,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G1044" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31823,7 +31826,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1045" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31849,7 +31852,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1046" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31875,7 +31878,7 @@
         <v>6.74900007247925</v>
       </c>
       <c r="G1047" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31901,7 +31904,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1048" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31927,7 +31930,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1049" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31953,7 +31956,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31979,7 +31982,7 @@
         <v>6.60300016403198</v>
       </c>
       <c r="G1051" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32005,7 +32008,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1052" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32031,7 +32034,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G1053" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32057,7 +32060,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G1054" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32083,7 +32086,7 @@
         <v>6.19600009918213</v>
       </c>
       <c r="G1055" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32109,7 +32112,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G1056" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32135,7 +32138,7 @@
         <v>5.82399988174438</v>
       </c>
       <c r="G1057" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32187,7 +32190,7 @@
         <v>5.95599985122681</v>
       </c>
       <c r="G1059" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32213,7 +32216,7 @@
         <v>5.98600006103516</v>
       </c>
       <c r="G1060" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32239,7 +32242,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1061" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32265,7 +32268,7 @@
         <v>5.54199981689453</v>
       </c>
       <c r="G1062" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32291,7 +32294,7 @@
         <v>4.90350008010864</v>
       </c>
       <c r="G1063" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32317,7 +32320,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G1064" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32343,7 +32346,7 @@
         <v>4.97700023651123</v>
       </c>
       <c r="G1065" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32369,7 +32372,7 @@
         <v>4.55849981307983</v>
       </c>
       <c r="G1066" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32395,7 +32398,7 @@
         <v>4.75</v>
       </c>
       <c r="G1067" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32421,7 +32424,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1068" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32447,7 +32450,7 @@
         <v>4.75</v>
       </c>
       <c r="G1069" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32473,7 +32476,7 @@
         <v>4.36149978637695</v>
       </c>
       <c r="G1070" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32499,7 +32502,7 @@
         <v>4.5</v>
       </c>
       <c r="G1071" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32525,7 +32528,7 @@
         <v>4.82499980926514</v>
       </c>
       <c r="G1072" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32551,7 +32554,7 @@
         <v>4.41849994659424</v>
       </c>
       <c r="G1073" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32577,7 +32580,7 @@
         <v>4.59299993515015</v>
       </c>
       <c r="G1074" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32603,7 +32606,7 @@
         <v>4.70300006866455</v>
       </c>
       <c r="G1075" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32629,7 +32632,7 @@
         <v>4.93849992752075</v>
       </c>
       <c r="G1076" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32655,7 +32658,7 @@
         <v>4.75799989700317</v>
       </c>
       <c r="G1077" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32681,7 +32684,7 @@
         <v>4.6875</v>
       </c>
       <c r="G1078" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32707,7 +32710,7 @@
         <v>4.91900014877319</v>
       </c>
       <c r="G1079" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32733,7 +32736,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G1080" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32759,7 +32762,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1081" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32785,7 +32788,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G1082" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32811,7 +32814,7 @@
         <v>5</v>
       </c>
       <c r="G1083" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32837,7 +32840,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1084" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32863,7 +32866,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32889,7 +32892,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1086" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32915,7 +32918,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1087" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32941,7 +32944,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1088" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32967,7 +32970,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1089" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32993,7 +32996,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1090" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33019,7 +33022,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33045,7 +33048,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1092" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33071,7 +33074,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1093" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33097,7 +33100,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33123,7 +33126,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1095" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33149,7 +33152,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33175,7 +33178,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33201,7 +33204,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G1098" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33227,7 +33230,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1099" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33253,7 +33256,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33279,7 +33282,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1101" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33305,7 +33308,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1102" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33331,7 +33334,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1103" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33357,7 +33360,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1104" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33383,7 +33386,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1105" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33409,7 +33412,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1106" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33435,7 +33438,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1107" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33461,7 +33464,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1108" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33487,7 +33490,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1109" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33513,7 +33516,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1110" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33539,7 +33542,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1111" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33565,7 +33568,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1112" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33591,7 +33594,7 @@
         <v>5.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33617,7 +33620,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1114" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33643,7 +33646,7 @@
         <v>5.75</v>
       </c>
       <c r="G1115" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33669,7 +33672,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1116" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33695,7 +33698,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1117" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33721,7 +33724,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33747,7 +33750,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1119" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33773,7 +33776,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1120" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33799,7 +33802,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1121" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33825,7 +33828,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1122" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33851,7 +33854,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1123" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33877,7 +33880,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1124" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33903,7 +33906,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G1125" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33929,7 +33932,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1126" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33955,7 +33958,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1127" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33981,7 +33984,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1128" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34007,7 +34010,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1129" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34033,7 +34036,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1130" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34059,7 +34062,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1131" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34085,7 +34088,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1132" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34111,7 +34114,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34137,7 +34140,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G1134" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34163,7 +34166,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1135" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34189,7 +34192,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1136" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34215,7 +34218,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1137" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34241,7 +34244,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1138" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34267,7 +34270,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1139" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34293,7 +34296,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1140" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34319,7 +34322,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1141" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34345,7 +34348,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G1142" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34371,7 +34374,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1143" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34397,7 +34400,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34423,7 +34426,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1145" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34449,7 +34452,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1146" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34475,7 +34478,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1147" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34501,7 +34504,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1148" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34527,7 +34530,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1149" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34553,7 +34556,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1150" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34579,7 +34582,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1151" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34605,7 +34608,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1152" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34631,7 +34634,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34657,7 +34660,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1154" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34683,7 +34686,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34709,7 +34712,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34735,7 +34738,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1157" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34761,7 +34764,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1158" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34787,7 +34790,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1159" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34813,7 +34816,7 @@
         <v>5.75</v>
       </c>
       <c r="G1160" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34839,7 +34842,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1161" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34865,7 +34868,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34891,7 +34894,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34917,7 +34920,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1164" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34943,7 +34946,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1165" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34969,7 +34972,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1166" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34995,7 +34998,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1167" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35021,7 +35024,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1168" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35047,7 +35050,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1169" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35073,7 +35076,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1170" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35099,7 +35102,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1171" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35125,7 +35128,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35151,7 +35154,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1173" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35177,7 +35180,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1174" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35203,7 +35206,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1175" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35229,7 +35232,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1176" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35255,7 +35258,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1177" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35281,7 +35284,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35307,7 +35310,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1179" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35333,7 +35336,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1180" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35359,7 +35362,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1181" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35385,7 +35388,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1182" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35411,7 +35414,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G1183" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35437,7 +35440,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1184" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35463,7 +35466,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1185" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35489,7 +35492,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1186" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35515,7 +35518,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1187" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35541,7 +35544,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1188" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35567,7 +35570,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35593,7 +35596,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1190" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35619,7 +35622,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1191" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35645,7 +35648,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1192" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35671,7 +35674,7 @@
         <v>6</v>
       </c>
       <c r="G1193" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35697,7 +35700,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1194" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35723,7 +35726,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35749,7 +35752,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35775,7 +35778,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1197" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35801,7 +35804,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1198" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35827,7 +35830,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1199" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35853,7 +35856,7 @@
         <v>6</v>
       </c>
       <c r="G1200" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35879,7 +35882,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35905,7 +35908,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1202" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35931,7 +35934,7 @@
         <v>6</v>
       </c>
       <c r="G1203" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35957,7 +35960,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1204" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35983,7 +35986,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1205" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -36009,7 +36012,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1206" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -36035,7 +36038,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1207" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -36061,7 +36064,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1208" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -36087,7 +36090,7 @@
         <v>5.75</v>
       </c>
       <c r="G1209" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -36113,7 +36116,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1210" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -36139,7 +36142,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1211" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -36165,7 +36168,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1212" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -36191,7 +36194,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1213" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -36217,7 +36220,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1214" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -36243,7 +36246,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G1215" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -36269,7 +36272,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -36295,7 +36298,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1217" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -36321,7 +36324,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1218" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -36347,7 +36350,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1219" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36373,7 +36376,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1220" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36399,7 +36402,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1221" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36425,7 +36428,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36451,7 +36454,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1223" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36477,7 +36480,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1224" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36503,7 +36506,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1225" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36529,7 +36532,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1226" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36555,7 +36558,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1227" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36581,7 +36584,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1228" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36607,7 +36610,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1229" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36633,7 +36636,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1230" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36659,7 +36662,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1231" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36685,7 +36688,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1232" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36711,7 +36714,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1233" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36737,7 +36740,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1234" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36763,7 +36766,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1235" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36789,7 +36792,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36815,7 +36818,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1237" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36841,7 +36844,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1238" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36867,7 +36870,7 @@
         <v>6.75</v>
       </c>
       <c r="G1239" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36893,7 +36896,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1240" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36919,7 +36922,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1241" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36945,7 +36948,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1242" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36971,7 +36974,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1243" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36997,7 +37000,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1244" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -37023,7 +37026,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1245" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -37049,7 +37052,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1246" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -37075,7 +37078,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -37101,7 +37104,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1248" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37127,7 +37130,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1249" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -37153,7 +37156,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1250" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -37179,7 +37182,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1251" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37205,7 +37208,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1252" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -37231,7 +37234,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1253" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -37257,7 +37260,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37283,7 +37286,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1255" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -37309,7 +37312,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1256" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -37335,7 +37338,7 @@
         <v>6.75</v>
       </c>
       <c r="G1257" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -37361,7 +37364,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1258" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37387,7 +37390,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1259" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37413,7 +37416,7 @@
         <v>6.75</v>
       </c>
       <c r="G1260" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37439,7 +37442,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1261" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37465,7 +37468,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1262" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37491,7 +37494,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1263" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37517,7 +37520,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37543,7 +37546,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1265" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37569,7 +37572,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1266" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37595,7 +37598,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1267" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37621,7 +37624,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1268" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37647,7 +37650,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1269" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37673,7 +37676,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1270" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37699,7 +37702,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1271" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37725,7 +37728,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37751,7 +37754,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1273" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37777,7 +37780,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1274" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37803,7 +37806,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1275" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37829,7 +37832,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1276" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37855,7 +37858,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1277" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37881,7 +37884,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G1278" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37907,7 +37910,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1279" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37933,7 +37936,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1280" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37959,7 +37962,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1281" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37985,7 +37988,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1282" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38011,7 +38014,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1283" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -38037,7 +38040,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G1284" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -38063,7 +38066,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1285" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -38089,7 +38092,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1286" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38115,7 +38118,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G1287" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -38141,7 +38144,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1288" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38167,7 +38170,7 @@
         <v>7</v>
       </c>
       <c r="G1289" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38193,7 +38196,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1290" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -38219,7 +38222,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1291" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -38245,7 +38248,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1292" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -38271,7 +38274,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1293" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -38297,7 +38300,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1294" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -38323,7 +38326,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1295" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -38349,7 +38352,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1296" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38375,7 +38378,7 @@
         <v>8.5</v>
       </c>
       <c r="G1297" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38401,7 +38404,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1298" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38427,7 +38430,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1299" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38453,7 +38456,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1300" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38479,7 +38482,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1301" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38505,7 +38508,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1302" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38531,7 +38534,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1303" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38557,7 +38560,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1304" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38583,7 +38586,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1305" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38609,7 +38612,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1306" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38635,7 +38638,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1307" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38661,7 +38664,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1308" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38687,7 +38690,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1309" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38713,7 +38716,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1310" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38739,7 +38742,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1311" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38765,7 +38768,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1312" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38791,7 +38794,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1313" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38817,7 +38820,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1314" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38843,7 +38846,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1315" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38869,7 +38872,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1316" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38895,7 +38898,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1317" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38921,7 +38924,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1318" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38947,7 +38950,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1319" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38973,7 +38976,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1320" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38999,7 +39002,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1321" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39025,7 +39028,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1322" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -39051,7 +39054,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -39077,7 +39080,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1324" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -39103,7 +39106,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1325" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -39129,7 +39132,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1326" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -39155,7 +39158,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1327" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -39181,7 +39184,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1328" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -39207,7 +39210,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1329" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -39233,7 +39236,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1330" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -39259,7 +39262,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1331" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -39285,7 +39288,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1332" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -39311,7 +39314,7 @@
         <v>8.75</v>
       </c>
       <c r="G1333" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -39337,7 +39340,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1334" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -39363,7 +39366,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1335" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -39389,7 +39392,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39415,7 +39418,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1337" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39441,7 +39444,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1338" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39467,7 +39470,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1339" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39493,7 +39496,7 @@
         <v>9</v>
       </c>
       <c r="G1340" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39519,7 +39522,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1341" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39545,7 +39548,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G1342" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39571,7 +39574,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G1343" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39597,7 +39600,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1344" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39623,7 +39626,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G1345" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39649,7 +39652,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1346" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39675,7 +39678,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1347" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39701,7 +39704,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1348" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39727,7 +39730,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G1349" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39753,7 +39756,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1350" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39779,7 +39782,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1351" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39805,7 +39808,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1352" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39831,7 +39834,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1353" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39857,7 +39860,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1354" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39883,7 +39886,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1355" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39909,7 +39912,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1356" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39935,7 +39938,7 @@
         <v>9.5</v>
       </c>
       <c r="G1357" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39961,7 +39964,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1358" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39987,7 +39990,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G1359" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -40013,7 +40016,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1360" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -40039,7 +40042,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1361" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -40065,7 +40068,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1362" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -40091,7 +40094,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1363" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -40117,7 +40120,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1364" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -40143,7 +40146,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1365" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -40169,7 +40172,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1366" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -40195,7 +40198,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1367" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -40221,7 +40224,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1368" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -40247,7 +40250,7 @@
         <v>9.5</v>
       </c>
       <c r="G1369" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -40273,7 +40276,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1370" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -40299,7 +40302,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1371" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -40325,7 +40328,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1372" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -40351,7 +40354,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1373" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -40377,7 +40380,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1374" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -40689,7 +40692,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1386" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -41521,7 +41524,7 @@
         <v>9.5</v>
       </c>
       <c r="G1418" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41703,7 +41706,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1425" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41807,7 +41810,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1429" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41833,7 +41836,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1430" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41963,7 +41966,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1435" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -42197,7 +42200,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1444" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -60977,7 +60980,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6495138889</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>67804</v>
@@ -60998,6 +61001,32 @@
         <v>1435</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6495486111</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>82018</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>9.80000019073486</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>9.63000011444092</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>9.63000011444092</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>9.76000022888184</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79800605773926</t>
+    <t xml:space="preserve">4.79800653457642</t>
   </si>
   <si>
     <t xml:space="preserve">CEM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77356767654419</t>
+    <t xml:space="preserve">4.77356815338135</t>
   </si>
   <si>
     <t xml:space="preserve">4.64730501174927</t>
@@ -56,70 +56,70 @@
     <t xml:space="preserve">4.41514301300049</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30517148971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41106939315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37441301345825</t>
+    <t xml:space="preserve">4.30517244338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41106986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37441253662109</t>
   </si>
   <si>
     <t xml:space="preserve">4.37848567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14225149154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01435995101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05345964431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74879908561707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91171932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02739143371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95733642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99480819702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95570778846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82048296928406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01272964477539</t>
+    <t xml:space="preserve">4.14225244522095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01435899734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05346012115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74879932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91171860694885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02739238739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95733690261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99480843544006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95570731163025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82048344612122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01273059844971</t>
   </si>
   <si>
     <t xml:space="preserve">3.95082020759583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81233692169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64941811561584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67059659957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69177675247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4180703163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21279096603394</t>
+    <t xml:space="preserve">3.81233716011047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64941763877869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67059731483459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69177603721619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41806983947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21279048919678</t>
   </si>
   <si>
     <t xml:space="preserve">3.31543040275574</t>
@@ -131,49 +131,49 @@
     <t xml:space="preserve">3.2730712890625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51093435287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42947483062744</t>
+    <t xml:space="preserve">3.51093482971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4294741153717</t>
   </si>
   <si>
     <t xml:space="preserve">3.54514837265015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62497901916504</t>
+    <t xml:space="preserve">3.62497925758362</t>
   </si>
   <si>
     <t xml:space="preserve">3.41318273544312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45880031585693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43436241149902</t>
+    <t xml:space="preserve">3.45880055427551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4343626499176</t>
   </si>
   <si>
     <t xml:space="preserve">3.30402612686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35778999328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47020506858826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65756249427795</t>
+    <t xml:space="preserve">3.35778975486755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47020554542542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65756344795227</t>
   </si>
   <si>
     <t xml:space="preserve">3.70643925666809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62660884857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7162139415741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63149571418762</t>
+    <t xml:space="preserve">3.6266086101532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71621465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63149619102478</t>
   </si>
   <si>
     <t xml:space="preserve">3.59076595306396</t>
@@ -182,70 +182,70 @@
     <t xml:space="preserve">3.56795716285706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59565353393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62009215354919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82700037956238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68526005744934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82862973213196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7439112663269</t>
+    <t xml:space="preserve">3.59565305709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62009167671204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82700109481812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68526029586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82862949371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846037864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74391150474548</t>
   </si>
   <si>
     <t xml:space="preserve">3.78138327598572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73087787628174</t>
+    <t xml:space="preserve">3.730877161026</t>
   </si>
   <si>
     <t xml:space="preserve">3.58750700950623</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64127087593079</t>
+    <t xml:space="preserve">3.64127063751221</t>
   </si>
   <si>
     <t xml:space="preserve">3.57936143875122</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61357474327087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65104651451111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52071022987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47835111618042</t>
+    <t xml:space="preserve">3.61357498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65104603767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5207097530365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47835063934326</t>
   </si>
   <si>
     <t xml:space="preserve">3.44250798225403</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67222595214844</t>
+    <t xml:space="preserve">3.67222571372986</t>
   </si>
   <si>
     <t xml:space="preserve">3.55492353439331</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61520433425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66733837127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85469698905945</t>
+    <t xml:space="preserve">3.61520385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66733813285828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85469722747803</t>
   </si>
   <si>
     <t xml:space="preserve">3.81885504722595</t>
@@ -257,19 +257,19 @@
     <t xml:space="preserve">3.81396698951721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8237419128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7797532081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76672005653381</t>
+    <t xml:space="preserve">3.82374215126038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7797544002533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76671981811523</t>
   </si>
   <si>
     <t xml:space="preserve">3.75042796134949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87261819839478</t>
+    <t xml:space="preserve">3.87261867523193</t>
   </si>
   <si>
     <t xml:space="preserve">3.73902368545532</t>
@@ -278,124 +278,124 @@
     <t xml:space="preserve">3.77486538887024</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69829368591309</t>
+    <t xml:space="preserve">3.69829344749451</t>
   </si>
   <si>
     <t xml:space="preserve">3.74716925621033</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71458554267883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60054111480713</t>
+    <t xml:space="preserve">3.71458530426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60054135322571</t>
   </si>
   <si>
     <t xml:space="preserve">3.52722644805908</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54351854324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60227465629578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69399929046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83241963386536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83575510978699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95249462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96083450317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85243248939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82908415794373</t>
+    <t xml:space="preserve">3.54351925849915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6022744178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69399905204773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83241987228394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83575487136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95249581336975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96083402633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85243201255798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82908463478088</t>
   </si>
   <si>
     <t xml:space="preserve">3.77905297279358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74236273765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66898345947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65564131736755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62729001045227</t>
+    <t xml:space="preserve">3.74236297607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6689829826355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65564155578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62729024887085</t>
   </si>
   <si>
     <t xml:space="preserve">3.45384764671326</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37713265419006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36379027366638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2603919506073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22203421592712</t>
+    <t xml:space="preserve">3.37713241577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36379051208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26039171218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2220344543457</t>
   </si>
   <si>
     <t xml:space="preserve">3.06693649291992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21703100204468</t>
+    <t xml:space="preserve">3.21703124046326</t>
   </si>
   <si>
     <t xml:space="preserve">3.09528756141663</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28707528114319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41882562637329</t>
+    <t xml:space="preserve">3.28707504272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41882514953613</t>
   </si>
   <si>
     <t xml:space="preserve">3.16866707801819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88515520095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87681603431702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8968288898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9935564994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10362601280212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01690483093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85180068016052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81844663619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82344961166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9051673412323</t>
+    <t xml:space="preserve">2.88515496253967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87681674957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89682912826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99355697631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1036262512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0169050693512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8518009185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81844592094421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82344913482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90516781806946</t>
   </si>
   <si>
     <t xml:space="preserve">2.9351863861084</t>
@@ -410,25 +410,25 @@
     <t xml:space="preserve">3.27540135383606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19535112380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13698077201843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03358197212219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.170334815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03524994850159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98688578605652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23871159553528</t>
+    <t xml:space="preserve">3.19535064697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13698053359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03358173370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17033529281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03524971008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98688626289368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23871183395386</t>
   </si>
   <si>
     <t xml:space="preserve">3.24371480941772</t>
@@ -437,154 +437,154 @@
     <t xml:space="preserve">3.21869874000549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25205326080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16032886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18367671966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08528161048889</t>
+    <t xml:space="preserve">3.2520534992218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16032862663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18367695808411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08528113365173</t>
   </si>
   <si>
     <t xml:space="preserve">3.17867374420166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30208492279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34544563293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38880658149719</t>
+    <t xml:space="preserve">3.30208468437195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34544587135315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38880634307861</t>
   </si>
   <si>
     <t xml:space="preserve">3.50387907028198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47385954856873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53556513786316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50554656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51722097396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75236845016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71901488304138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239416122437</t>
+    <t xml:space="preserve">3.47386026382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53556537628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50554609298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51722049713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75236940383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71901440620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239392280579</t>
   </si>
   <si>
     <t xml:space="preserve">3.76904630661011</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81907844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92914772033691</t>
+    <t xml:space="preserve">3.81907796859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92914724349976</t>
   </si>
   <si>
     <t xml:space="preserve">3.8841187953949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89912867546082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87911605834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81741046905518</t>
+    <t xml:space="preserve">3.89912843704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87911581993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8174102306366</t>
   </si>
   <si>
     <t xml:space="preserve">3.69566702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6372971534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54390358924866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58559703826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73235607147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67732167243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61561584472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72068214416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71734690666199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45551514625549</t>
+    <t xml:space="preserve">3.63729667663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54390430450439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58559727668762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73235630989075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67732214927673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61561560630798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72068190574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71734714508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45551562309265</t>
   </si>
   <si>
     <t xml:space="preserve">3.55224323272705</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52222418785095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50221085548401</t>
+    <t xml:space="preserve">3.52222394943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50221133232117</t>
   </si>
   <si>
     <t xml:space="preserve">3.57725858688354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63562870025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62562227249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63396096229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391025543213</t>
+    <t xml:space="preserve">3.63562846183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62562274932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63396048545837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391073226929</t>
   </si>
   <si>
     <t xml:space="preserve">3.61394834518433</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6973340511322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66231203079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71401190757751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76237511634827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73402380943298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76070833206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60727787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70233774185181</t>
+    <t xml:space="preserve">3.69733476638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66231250762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7140109539032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76237535476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73402500152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76070785522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60727763175964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70233726501465</t>
   </si>
   <si>
     <t xml:space="preserve">3.71067595481873</t>
@@ -596,13 +596,13 @@
     <t xml:space="preserve">3.48553371429443</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48720240592957</t>
+    <t xml:space="preserve">3.48720169067383</t>
   </si>
   <si>
     <t xml:space="preserve">3.40214776992798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43883800506592</t>
+    <t xml:space="preserve">3.43883776664734</t>
   </si>
   <si>
     <t xml:space="preserve">3.34044241905212</t>
@@ -611,37 +611,37 @@
     <t xml:space="preserve">3.28540754318237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27373361587524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24037885665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27706933021545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21036028862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17533826828003</t>
+    <t xml:space="preserve">3.27373337745667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24037909507751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27706909179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21036005020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17533802986145</t>
   </si>
   <si>
     <t xml:space="preserve">3.06526875495911</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07694292068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01190185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97687983512878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02357578277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02691149711609</t>
+    <t xml:space="preserve">3.07694268226624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01190161705017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97687959671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0235755443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02691102027893</t>
   </si>
   <si>
     <t xml:space="preserve">3.0152370929718</t>
@@ -653,25 +653,25 @@
     <t xml:space="preserve">3.23537611961365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25038576126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3854706287384</t>
+    <t xml:space="preserve">3.25038552284241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38547086715698</t>
   </si>
   <si>
     <t xml:space="preserve">3.29874968528748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52722716331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5572464466095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52055644989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56892061233521</t>
+    <t xml:space="preserve">3.52722692489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55724596977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52055621147156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56892037391663</t>
   </si>
   <si>
     <t xml:space="preserve">3.64396715164185</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">3.68566060066223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75070190429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77738571166992</t>
+    <t xml:space="preserve">3.75070142745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66064429283142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77738499641418</t>
   </si>
   <si>
     <t xml:space="preserve">3.55557823181152</t>
@@ -701,34 +701,34 @@
     <t xml:space="preserve">3.35211658477783</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29374623298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33543920516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31209111213684</t>
+    <t xml:space="preserve">3.29374647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33543944358826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31209087371826</t>
   </si>
   <si>
     <t xml:space="preserve">3.29541397094727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2970814704895</t>
+    <t xml:space="preserve">3.29708170890808</t>
   </si>
   <si>
     <t xml:space="preserve">3.3271005153656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34211015701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30041742324829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08090972900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12760591506958</t>
+    <t xml:space="preserve">3.34211039543152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30041694641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08091068267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12760543823242</t>
   </si>
   <si>
     <t xml:space="preserve">4.21099233627319</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">4.25268507003784</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26102352142334</t>
+    <t xml:space="preserve">4.26102447509766</t>
   </si>
   <si>
     <t xml:space="preserve">4.14428329467773</t>
@@ -749,22 +749,22 @@
     <t xml:space="preserve">4.27770090103149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36942481994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43196487426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56121349334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5278582572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49867391586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50284337997437</t>
+    <t xml:space="preserve">4.36942529678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43196535110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56121301651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52785873413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4986743927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50284290313721</t>
   </si>
   <si>
     <t xml:space="preserve">4.4611496925354</t>
@@ -773,31 +773,31 @@
     <t xml:space="preserve">4.35274791717529</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47782707214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44864225387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46531963348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47365713119507</t>
+    <t xml:space="preserve">4.47782754898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44864177703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46531915664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47365760803223</t>
   </si>
   <si>
     <t xml:space="preserve">4.65293836593628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51534986495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41528749465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34024000167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33607053756714</t>
+    <t xml:space="preserve">4.51535081863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41528797149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34024047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33607149124146</t>
   </si>
   <si>
     <t xml:space="preserve">4.38610315322876</t>
@@ -806,37 +806,37 @@
     <t xml:space="preserve">4.43613433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3277325630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33190202713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29437780380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22766923904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18597650527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30688571929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49450397491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45281171798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36108732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39027166366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36525630950928</t>
+    <t xml:space="preserve">4.32773303985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33190155029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29437828063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22766971588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1859769821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30688619613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49450445175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4528112411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36108636856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39027118682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36525583267212</t>
   </si>
   <si>
     <t xml:space="preserve">4.53619718551636</t>
@@ -848,37 +848,37 @@
     <t xml:space="preserve">4.60707569122314</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61124563217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7738471031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75300121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80720186233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82804870605469</t>
+    <t xml:space="preserve">4.61124420166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77384757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75300025939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80720233917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82804822921753</t>
   </si>
   <si>
     <t xml:space="preserve">4.91560316085815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90726566314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74466276168823</t>
+    <t xml:space="preserve">4.90726518630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74466228485107</t>
   </si>
   <si>
     <t xml:space="preserve">4.42779541015625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42362642288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34440994262695</t>
+    <t xml:space="preserve">4.42362594604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34440946578979</t>
   </si>
   <si>
     <t xml:space="preserve">4.49153566360474</t>
@@ -887,88 +887,88 @@
     <t xml:space="preserve">4.53827810287476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50428342819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46178960800171</t>
+    <t xml:space="preserve">4.5042839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46179008483887</t>
   </si>
   <si>
     <t xml:space="preserve">4.45329093933105</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38955116271973</t>
+    <t xml:space="preserve">4.38955211639404</t>
   </si>
   <si>
     <t xml:space="preserve">4.35980653762817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34280872344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40229988098145</t>
+    <t xml:space="preserve">4.34280920028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4023003578186</t>
   </si>
   <si>
     <t xml:space="preserve">4.35130786895752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29181718826294</t>
+    <t xml:space="preserve">4.2918176651001</t>
   </si>
   <si>
     <t xml:space="preserve">4.41929626464844</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45754098892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43204498291016</t>
+    <t xml:space="preserve">4.45754051208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.432044506073</t>
   </si>
   <si>
     <t xml:space="preserve">4.47878789901733</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38530254364014</t>
+    <t xml:space="preserve">4.38530206680298</t>
   </si>
   <si>
     <t xml:space="preserve">4.51703119277954</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48728704452515</t>
+    <t xml:space="preserve">4.48728609085083</t>
   </si>
   <si>
     <t xml:space="preserve">4.48303699493408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47028875350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55527544021606</t>
+    <t xml:space="preserve">4.47028923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55527591705322</t>
   </si>
   <si>
     <t xml:space="preserve">4.57227277755737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65725898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49578428268433</t>
+    <t xml:space="preserve">4.65725946426392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49578475952148</t>
   </si>
   <si>
     <t xml:space="preserve">4.43629455566406</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78473949432373</t>
+    <t xml:space="preserve">4.78473901748657</t>
   </si>
   <si>
     <t xml:space="preserve">4.67425632476807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95046234130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09918928146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15867900848389</t>
+    <t xml:space="preserve">4.95046281814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09918880462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1586799621582</t>
   </si>
   <si>
     <t xml:space="preserve">5.20967102050781</t>
@@ -992,46 +992,46 @@
     <t xml:space="preserve">5.40514039993286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45188188552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41363859176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33290147781372</t>
+    <t xml:space="preserve">5.45188331604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41363906860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33290195465088</t>
   </si>
   <si>
     <t xml:space="preserve">5.39664125442505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4008903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26491260528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11618614196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15442991256714</t>
+    <t xml:space="preserve">5.40089130401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2649130821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11618518829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1544303894043</t>
   </si>
   <si>
     <t xml:space="preserve">5.22666883468628</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30740547180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17567682266235</t>
+    <t xml:space="preserve">5.30740594863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1756763458252</t>
   </si>
   <si>
     <t xml:space="preserve">5.13318347930908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05669546127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09069013595581</t>
+    <t xml:space="preserve">5.05669593811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09068965911865</t>
   </si>
   <si>
     <t xml:space="preserve">5.0609450340271</t>
@@ -1043,31 +1043,31 @@
     <t xml:space="preserve">5.03969812393188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98870611190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00145483016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05244588851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04394769668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01420259475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12468433380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15018129348755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21816968917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27766084671021</t>
+    <t xml:space="preserve">4.9887056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00145435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0524468421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04394721984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01420211791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12468528747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15018081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21817016601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27766036987305</t>
   </si>
   <si>
     <t xml:space="preserve">5.33715105056763</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">5.28190946578979</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23516702651978</t>
+    <t xml:space="preserve">5.23516750335693</t>
   </si>
   <si>
     <t xml:space="preserve">5.43913507461548</t>
@@ -1085,58 +1085,58 @@
     <t xml:space="preserve">5.37114572525024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32865190505981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69409370422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80032682418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1232762336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9235577583313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19551420211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13602352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28899955749512</t>
+    <t xml:space="preserve">5.32865238189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69409418106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80032777786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12327575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92355728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19551467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1360239982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28900003433228</t>
   </si>
   <si>
     <t xml:space="preserve">6.00854396820068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05953645706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08503103256226</t>
+    <t xml:space="preserve">6.05953598022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08503198623657</t>
   </si>
   <si>
     <t xml:space="preserve">6.15302085876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1147780418396</t>
+    <t xml:space="preserve">6.11477708816528</t>
   </si>
   <si>
     <t xml:space="preserve">6.08928108215332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03403997421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97879838943481</t>
+    <t xml:space="preserve">6.03404092788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97879886627197</t>
   </si>
   <si>
     <t xml:space="preserve">6.04678773880005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0170431137085</t>
+    <t xml:space="preserve">6.01704263687134</t>
   </si>
   <si>
     <t xml:space="preserve">6.02129220962524</t>
@@ -1145,37 +1145,37 @@
     <t xml:space="preserve">5.99154663085938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96180200576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12752485275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10202932357788</t>
+    <t xml:space="preserve">5.96180105209351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.127525806427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10202884674072</t>
   </si>
   <si>
     <t xml:space="preserve">6.15727043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21251201629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1487717628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11902666091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17001867294312</t>
+    <t xml:space="preserve">6.21251153945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14877223968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11902618408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17001819610596</t>
   </si>
   <si>
     <t xml:space="preserve">6.19976329803467</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41648006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29749774932861</t>
+    <t xml:space="preserve">6.41647958755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29749822616577</t>
   </si>
   <si>
     <t xml:space="preserve">6.32299423217773</t>
@@ -1187,91 +1187,91 @@
     <t xml:space="preserve">6.36973667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33574199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14452266693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2210111618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30599689483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33149290084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34424066543579</t>
+    <t xml:space="preserve">6.33574247360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14452219009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22101020812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30599641799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33149242401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34424114227295</t>
   </si>
   <si>
     <t xml:space="preserve">6.26775312423706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07653284072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06378555297852</t>
+    <t xml:space="preserve">6.07653379440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06378602981567</t>
   </si>
   <si>
     <t xml:space="preserve">6.13177442550659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14027309417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23800754547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18276643753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16152000427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27200222015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21676158905029</t>
+    <t xml:space="preserve">6.14027261734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23800802230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18276691436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16152048110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27200174331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21676111221313</t>
   </si>
   <si>
     <t xml:space="preserve">6.48446846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34848976135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40798091888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71393203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74792671203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70543336868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63744401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62894630432129</t>
+    <t xml:space="preserve">6.34849071502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40798044204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71393156051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74792575836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7054328918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63744449615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62894535064697</t>
   </si>
   <si>
     <t xml:space="preserve">6.79041957855225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87540578842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72243022918701</t>
+    <t xml:space="preserve">6.87540626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72243070602417</t>
   </si>
   <si>
     <t xml:space="preserve">6.75642490386963</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76492357254028</t>
+    <t xml:space="preserve">6.76492404937744</t>
   </si>
   <si>
     <t xml:space="preserve">6.84141159057617</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">6.65444087982178</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64594316482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79891920089722</t>
+    <t xml:space="preserve">6.64594268798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7989182472229</t>
   </si>
   <si>
     <t xml:space="preserve">6.6799373626709</t>
@@ -1292,22 +1292,22 @@
     <t xml:space="preserve">6.57795333862305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42497730255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35698843002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02554178237915</t>
+    <t xml:space="preserve">6.42497825622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35698890686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02554130554199</t>
   </si>
   <si>
     <t xml:space="preserve">6.05103731155396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66294002532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39098262786865</t>
+    <t xml:space="preserve">6.66294097900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39098358154297</t>
   </si>
   <si>
     <t xml:space="preserve">6.4929666519165</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">6.2805004119873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18701601028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06803512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2550048828125</t>
+    <t xml:space="preserve">6.18701505661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06803464889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25500535964966</t>
   </si>
   <si>
     <t xml:space="preserve">6.17851686477661</t>
@@ -1337,10 +1337,10 @@
     <t xml:space="preserve">6.00004529953003</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96605110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93205642700195</t>
+    <t xml:space="preserve">5.96605062484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93205595016479</t>
   </si>
   <si>
     <t xml:space="preserve">5.83857107162476</t>
@@ -1349,13 +1349,13 @@
     <t xml:space="preserve">5.87256526947021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88106441497803</t>
+    <t xml:space="preserve">5.88106489181519</t>
   </si>
   <si>
     <t xml:space="preserve">5.79607820510864</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94055461883545</t>
+    <t xml:space="preserve">5.94055509567261</t>
   </si>
   <si>
     <t xml:space="preserve">5.98304796218872</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">5.88956308364868</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89806175231934</t>
+    <t xml:space="preserve">5.89806222915649</t>
   </si>
   <si>
     <t xml:space="preserve">5.90655994415283</t>
@@ -1379,37 +1379,37 @@
     <t xml:space="preserve">5.79684352874756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77959060668945</t>
+    <t xml:space="preserve">5.77959108352661</t>
   </si>
   <si>
     <t xml:space="preserve">5.81409597396851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58981418609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56393432617188</t>
+    <t xml:space="preserve">5.58981323242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56393480300903</t>
   </si>
   <si>
     <t xml:space="preserve">5.65882349014282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65019798278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85722684860229</t>
+    <t xml:space="preserve">5.65019750595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85722732543945</t>
   </si>
   <si>
     <t xml:space="preserve">5.69332885742188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77096462249756</t>
+    <t xml:space="preserve">5.77096509933472</t>
   </si>
   <si>
     <t xml:space="preserve">5.82272243499756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89173173904419</t>
+    <t xml:space="preserve">5.89173269271851</t>
   </si>
   <si>
     <t xml:space="preserve">6.02975273132324</t>
@@ -1418,22 +1418,22 @@
     <t xml:space="preserve">6.02112627029419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01249933242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86585330963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9003586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83134794235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92623710632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67607593536377</t>
+    <t xml:space="preserve">6.01249980926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86585378646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90035915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83134889602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9262375831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67607641220093</t>
   </si>
   <si>
     <t xml:space="preserve">5.61569309234619</t>
@@ -1442,19 +1442,19 @@
     <t xml:space="preserve">5.80546998977661</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83997440338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84860134124756</t>
+    <t xml:space="preserve">5.83997488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84860181808472</t>
   </si>
   <si>
     <t xml:space="preserve">5.71920728683472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62431907653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78821706771851</t>
+    <t xml:space="preserve">5.62431859970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78821802139282</t>
   </si>
   <si>
     <t xml:space="preserve">6.13326787948608</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">6.11601495742798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93486404418945</t>
+    <t xml:space="preserve">5.93486356735229</t>
   </si>
   <si>
     <t xml:space="preserve">5.8744797706604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91761112213135</t>
+    <t xml:space="preserve">5.91761159896851</t>
   </si>
   <si>
     <t xml:space="preserve">5.90898513793945</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">6.00387334823608</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99524784088135</t>
+    <t xml:space="preserve">5.99524736404419</t>
   </si>
   <si>
     <t xml:space="preserve">6.04700517654419</t>
@@ -1487,28 +1487,28 @@
     <t xml:space="preserve">5.96936941146851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88310623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94349002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95211601257324</t>
+    <t xml:space="preserve">5.88310670852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94348955154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9521164894104</t>
   </si>
   <si>
     <t xml:space="preserve">5.53805589675903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49492454528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44316720962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3655309677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40866279602051</t>
+    <t xml:space="preserve">5.49492502212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44316673278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36553049087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40866231918335</t>
   </si>
   <si>
     <t xml:space="preserve">5.54668188095093</t>
@@ -1520,34 +1520,34 @@
     <t xml:space="preserve">5.55530881881714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46042013168335</t>
+    <t xml:space="preserve">5.46041917800903</t>
   </si>
   <si>
     <t xml:space="preserve">5.47767210006714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33102560043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24476337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21888446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34827852249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23613786697388</t>
+    <t xml:space="preserve">5.33102607727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24476289749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21888542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34827756881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23613739013672</t>
   </si>
   <si>
     <t xml:space="preserve">5.37415742874146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35690498352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3137731552124</t>
+    <t xml:space="preserve">5.35690450668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31377363204956</t>
   </si>
   <si>
     <t xml:space="preserve">5.33965253829956</t>
@@ -1556,10 +1556,10 @@
     <t xml:space="preserve">5.3914098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42591524124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40003681182861</t>
+    <t xml:space="preserve">5.4259147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4000358581543</t>
   </si>
   <si>
     <t xml:space="preserve">5.59843969345093</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">5.19300556182861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27926826477051</t>
+    <t xml:space="preserve">5.27926874160767</t>
   </si>
   <si>
     <t xml:space="preserve">5.21025848388672</t>
@@ -1586,55 +1586,55 @@
     <t xml:space="preserve">4.69268321990967</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58916807174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65817737579346</t>
+    <t xml:space="preserve">4.58916759490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65817785263062</t>
   </si>
   <si>
     <t xml:space="preserve">4.46840047836304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63229894638062</t>
+    <t xml:space="preserve">4.63229942321777</t>
   </si>
   <si>
     <t xml:space="preserve">4.61504650115967</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70993566513062</t>
+    <t xml:space="preserve">4.70993518829346</t>
   </si>
   <si>
     <t xml:space="preserve">4.55466318130493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3562593460083</t>
+    <t xml:space="preserve">4.35625886917114</t>
   </si>
   <si>
     <t xml:space="preserve">4.22686529159546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30450057983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17510795593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2872486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23980474472046</t>
+    <t xml:space="preserve">4.30450105667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17510747909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28724908828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2398042678833</t>
   </si>
   <si>
     <t xml:space="preserve">4.48565244674683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62367248535156</t>
+    <t xml:space="preserve">4.62367296218872</t>
   </si>
   <si>
     <t xml:space="preserve">4.68405628204346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70130920410156</t>
+    <t xml:space="preserve">4.7013087272644</t>
   </si>
   <si>
     <t xml:space="preserve">4.72718858718872</t>
@@ -1646,25 +1646,25 @@
     <t xml:space="preserve">4.58054161071777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51153135299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52015733718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3821382522583</t>
+    <t xml:space="preserve">4.51153182983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52015781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38213777542114</t>
   </si>
   <si>
     <t xml:space="preserve">4.42526912689209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2786226272583</t>
+    <t xml:space="preserve">4.27862310409546</t>
   </si>
   <si>
     <t xml:space="preserve">4.12766313552856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16648149490356</t>
+    <t xml:space="preserve">4.16648197174072</t>
   </si>
   <si>
     <t xml:space="preserve">4.18804693222046</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">4.32175397872925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30018901824951</t>
+    <t xml:space="preserve">4.30018854141235</t>
   </si>
   <si>
     <t xml:space="preserve">4.24411725997925</t>
@@ -1694,16 +1694,16 @@
     <t xml:space="preserve">4.3390064239502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22255182266235</t>
+    <t xml:space="preserve">4.22255229949951</t>
   </si>
   <si>
     <t xml:space="preserve">4.13197612762451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23117828369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17079448699951</t>
+    <t xml:space="preserve">4.23117876052856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17079496383667</t>
   </si>
   <si>
     <t xml:space="preserve">4.11472368240356</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">4.4425220489502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39939022064209</t>
+    <t xml:space="preserve">4.39938974380493</t>
   </si>
   <si>
     <t xml:space="preserve">4.57191562652588</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74444055557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8910870552063</t>
+    <t xml:space="preserve">4.74444103240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89108657836914</t>
   </si>
   <si>
     <t xml:space="preserve">4.88246059417725</t>
@@ -1736,37 +1736,37 @@
     <t xml:space="preserve">4.96009683609009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00322866439819</t>
+    <t xml:space="preserve">5.00322818756104</t>
   </si>
   <si>
     <t xml:space="preserve">4.98597574234009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05498600006104</t>
+    <t xml:space="preserve">5.05498504638672</t>
   </si>
   <si>
     <t xml:space="preserve">5.10674381256104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11537027359009</t>
+    <t xml:space="preserve">5.11536931991577</t>
   </si>
   <si>
     <t xml:space="preserve">5.13262176513672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15850019454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08949136734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07223844528198</t>
+    <t xml:space="preserve">5.15850067138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08949089050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07223796844482</t>
   </si>
   <si>
     <t xml:space="preserve">5.30514717102051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22751092910767</t>
+    <t xml:space="preserve">5.22751045227051</t>
   </si>
   <si>
     <t xml:space="preserve">5.26201581954956</t>
@@ -1775,34 +1775,34 @@
     <t xml:space="preserve">5.32239961624146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45179319381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38278341293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51217699050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50355100631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58118772506714</t>
+    <t xml:space="preserve">5.4517936706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38278293609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51217746734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5035514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58118724822998</t>
   </si>
   <si>
     <t xml:space="preserve">5.60706615447998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52942991256714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52080392837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08086490631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21648073196411</t>
+    <t xml:space="preserve">5.52942895889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52080345153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08086442947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21648120880127</t>
   </si>
   <si>
     <t xml:space="preserve">5.23413419723511</t>
@@ -1811,13 +1811,13 @@
     <t xml:space="preserve">5.11938905715942</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11056280136108</t>
+    <t xml:space="preserve">5.11056232452393</t>
   </si>
   <si>
     <t xml:space="preserve">5.1635217666626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19000148773193</t>
+    <t xml:space="preserve">5.19000101089478</t>
   </si>
   <si>
     <t xml:space="preserve">5.19882822036743</t>
@@ -1835,10 +1835,10 @@
     <t xml:space="preserve">5.27826690673828</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33122587203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36653232574463</t>
+    <t xml:space="preserve">5.33122634887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36653184890747</t>
   </si>
   <si>
     <t xml:space="preserve">5.34005308151245</t>
@@ -1847,10 +1847,10 @@
     <t xml:space="preserve">5.35770606994629</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44597101211548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5695424079895</t>
+    <t xml:space="preserve">5.44597148895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56954193115234</t>
   </si>
   <si>
     <t xml:space="preserve">5.65780735015869</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">5.53423595428467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43714427947998</t>
+    <t xml:space="preserve">5.43714475631714</t>
   </si>
   <si>
     <t xml:space="preserve">5.51658296585083</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">5.63132810592651</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5871958732605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7548999786377</t>
+    <t xml:space="preserve">5.58719539642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75489950180054</t>
   </si>
   <si>
     <t xml:space="preserve">5.87847089767456</t>
@@ -1883,19 +1883,19 @@
     <t xml:space="preserve">5.86081743240356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84316539764404</t>
+    <t xml:space="preserve">5.84316492080688</t>
   </si>
   <si>
     <t xml:space="preserve">5.76372623443604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81668519973755</t>
+    <t xml:space="preserve">5.81668567657471</t>
   </si>
   <si>
     <t xml:space="preserve">5.78137969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71076726913452</t>
+    <t xml:space="preserve">5.71076679229736</t>
   </si>
   <si>
     <t xml:space="preserve">5.60484838485718</t>
@@ -1907,19 +1907,19 @@
     <t xml:space="preserve">5.67546033859253</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85199213027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62250232696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34887838363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28709316253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39301156997681</t>
+    <t xml:space="preserve">5.85199165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62250185012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34887886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28709268569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39301204681396</t>
   </si>
   <si>
     <t xml:space="preserve">5.29592037200928</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">5.37535858154297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18117427825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25178623199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26944017410278</t>
+    <t xml:space="preserve">5.18117475509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25178670883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26943969726562</t>
   </si>
   <si>
     <t xml:space="preserve">5.26061391830444</t>
@@ -1949,19 +1949,19 @@
     <t xml:space="preserve">5.64898109436035</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55188989639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59602212905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50775623321533</t>
+    <t xml:space="preserve">5.55188894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59602165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50775671005249</t>
   </si>
   <si>
     <t xml:space="preserve">5.47245025634766</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42831802368164</t>
+    <t xml:space="preserve">5.4283185005188</t>
   </si>
   <si>
     <t xml:space="preserve">5.49010372161865</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">5.26502704620361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13969039916992</t>
+    <t xml:space="preserve">5.13968992233276</t>
   </si>
   <si>
     <t xml:space="preserve">5.20765447616577</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">5.25531768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31268978118896</t>
+    <t xml:space="preserve">5.31269025802612</t>
   </si>
   <si>
     <t xml:space="preserve">5.38418483734131</t>
@@ -1997,22 +1997,22 @@
     <t xml:space="preserve">5.43273115158081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38506746292114</t>
+    <t xml:space="preserve">5.3850679397583</t>
   </si>
   <si>
     <t xml:space="preserve">5.41154766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37271070480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45391511917114</t>
+    <t xml:space="preserve">5.37271022796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45391464233398</t>
   </si>
   <si>
     <t xml:space="preserve">5.32328224182129</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44950151443481</t>
+    <t xml:space="preserve">5.44950103759766</t>
   </si>
   <si>
     <t xml:space="preserve">5.59425687789917</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">5.42390441894531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62779760360718</t>
+    <t xml:space="preserve">5.62779808044434</t>
   </si>
   <si>
     <t xml:space="preserve">5.7284197807312</t>
@@ -2033,10 +2033,10 @@
     <t xml:space="preserve">5.62603235244751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57130718231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53070545196533</t>
+    <t xml:space="preserve">5.57130765914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53070592880249</t>
   </si>
   <si>
     <t xml:space="preserve">5.57660341262817</t>
@@ -2060,19 +2060,19 @@
     <t xml:space="preserve">6.16974687576294</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06294584274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88464975357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89788961410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86876201629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85552167892456</t>
+    <t xml:space="preserve">6.06294536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8846492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89788913726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86876249313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8555212020874</t>
   </si>
   <si>
     <t xml:space="preserve">5.85375690460205</t>
@@ -2081,13 +2081,13 @@
     <t xml:space="preserve">5.92613458633423</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02322673797607</t>
+    <t xml:space="preserve">6.02322626113892</t>
   </si>
   <si>
     <t xml:space="preserve">6.05147123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05941534042358</t>
+    <t xml:space="preserve">6.05941486358643</t>
   </si>
   <si>
     <t xml:space="preserve">6.02852201461792</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">5.79373598098755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84669589996338</t>
+    <t xml:space="preserve">5.84669542312622</t>
   </si>
   <si>
     <t xml:space="preserve">5.93496084213257</t>
@@ -2114,16 +2114,16 @@
     <t xml:space="preserve">6.02410888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81933307647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6860523223877</t>
+    <t xml:space="preserve">5.81933259963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68605184555054</t>
   </si>
   <si>
     <t xml:space="preserve">5.87052726745605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93142986297607</t>
+    <t xml:space="preserve">5.93143033981323</t>
   </si>
   <si>
     <t xml:space="preserve">5.87494039535522</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">5.84934329986572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83433818817139</t>
+    <t xml:space="preserve">5.83433866500854</t>
   </si>
   <si>
     <t xml:space="preserve">5.81138944625854</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">5.80609321594238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74077749252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87405776977539</t>
+    <t xml:space="preserve">5.74077701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87405824661255</t>
   </si>
   <si>
     <t xml:space="preserve">5.77078723907471</t>
@@ -2162,16 +2162,16 @@
     <t xml:space="preserve">5.69311380386353</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69576120376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75754737854004</t>
+    <t xml:space="preserve">5.69576168060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75754690170288</t>
   </si>
   <si>
     <t xml:space="preserve">5.83963441848755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72665500640869</t>
+    <t xml:space="preserve">5.72665452957153</t>
   </si>
   <si>
     <t xml:space="preserve">5.71871137619019</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">5.86964464187622</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95702695846558</t>
+    <t xml:space="preserve">5.95702743530273</t>
   </si>
   <si>
     <t xml:space="preserve">6.12561416625977</t>
@@ -2213,19 +2213,19 @@
     <t xml:space="preserve">5.14057302474976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25708246231079</t>
+    <t xml:space="preserve">5.25708293914795</t>
   </si>
   <si>
     <t xml:space="preserve">5.28356313705444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89166450500488</t>
+    <t xml:space="preserve">4.89166498184204</t>
   </si>
   <si>
     <t xml:space="preserve">4.32809066772461</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38678693771362</t>
+    <t xml:space="preserve">4.38678741455078</t>
   </si>
   <si>
     <t xml:space="preserve">4.39296579360962</t>
@@ -2237,22 +2237,22 @@
     <t xml:space="preserve">4.19260358810425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06020593643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84969234466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97193956375122</t>
+    <t xml:space="preserve">4.06020545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84969258308411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9719398021698</t>
   </si>
   <si>
     <t xml:space="preserve">4.25880193710327</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90000343322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05402660369873</t>
+    <t xml:space="preserve">3.90000367164612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05402708053589</t>
   </si>
   <si>
     <t xml:space="preserve">4.15111875534058</t>
@@ -2264,25 +2264,25 @@
     <t xml:space="preserve">4.19966459274292</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13743782043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34177160263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39561319351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45739984512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2543888092041</t>
+    <t xml:space="preserve">4.13743734359741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34177207946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39561367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45739936828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25438928604126</t>
   </si>
   <si>
     <t xml:space="preserve">4.41326665878296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54566478729248</t>
+    <t xml:space="preserve">4.54566431045532</t>
   </si>
   <si>
     <t xml:space="preserve">4.70454216003418</t>
@@ -2294,46 +2294,46 @@
     <t xml:space="preserve">4.72219514846802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66040992736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66923570632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61627721786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58979749679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8369402885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.86341953277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88989973068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03995084762573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0134711265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93403244018555</t>
+    <t xml:space="preserve">4.66040945053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6692361831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61627674102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5897970199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83694076538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86342000961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88989925384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03995037078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01347064971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93403291702271</t>
   </si>
   <si>
     <t xml:space="preserve">4.678062915802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64275693893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71336936950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76632738113403</t>
+    <t xml:space="preserve">4.64275646209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71336889266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76632785797119</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872646331787</t>
@@ -2351,10 +2351,10 @@
     <t xml:space="preserve">4.98022079467773</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01644039154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20659446716309</t>
+    <t xml:space="preserve">5.01643991470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20659399032593</t>
   </si>
   <si>
     <t xml:space="preserve">5.32430791854858</t>
@@ -2363,13 +2363,13 @@
     <t xml:space="preserve">5.29714345932007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50540733337402</t>
+    <t xml:space="preserve">5.50540685653687</t>
   </si>
   <si>
     <t xml:space="preserve">5.55068206787109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40580272674561</t>
+    <t xml:space="preserve">5.40580224990845</t>
   </si>
   <si>
     <t xml:space="preserve">5.63217639923096</t>
@@ -2378,13 +2378,13 @@
     <t xml:space="preserve">5.60501194000244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71367120742798</t>
+    <t xml:space="preserve">5.71367073059082</t>
   </si>
   <si>
     <t xml:space="preserve">5.84044027328491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93099069595337</t>
+    <t xml:space="preserve">5.93099021911621</t>
   </si>
   <si>
     <t xml:space="preserve">5.74989080429077</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">5.84949541091919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7227258682251</t>
+    <t xml:space="preserve">5.72272634506226</t>
   </si>
   <si>
     <t xml:space="preserve">5.76800107955933</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">5.83138561248779</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69556140899658</t>
+    <t xml:space="preserve">5.69556093215942</t>
   </si>
   <si>
     <t xml:space="preserve">5.67745113372803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64123201370239</t>
+    <t xml:space="preserve">5.64123153686523</t>
   </si>
   <si>
     <t xml:space="preserve">5.56879234313965</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">5.5325722694397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52351713180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.423912525177</t>
+    <t xml:space="preserve">5.52351665496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42391204833984</t>
   </si>
   <si>
     <t xml:space="preserve">5.4963526725769</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">5.31525325775146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46918725967407</t>
+    <t xml:space="preserve">5.46918773651123</t>
   </si>
   <si>
     <t xml:space="preserve">5.36052846908569</t>
@@ -2468,13 +2468,13 @@
     <t xml:space="preserve">5.47824287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59595680236816</t>
+    <t xml:space="preserve">5.59595632553101</t>
   </si>
   <si>
     <t xml:space="preserve">5.70461654663086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6502857208252</t>
+    <t xml:space="preserve">5.65028619766235</t>
   </si>
   <si>
     <t xml:space="preserve">5.6140661239624</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">5.38769245147705</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30619859695435</t>
+    <t xml:space="preserve">5.30619812011719</t>
   </si>
   <si>
     <t xml:space="preserve">5.43296813964844</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">5.12509965896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99833059310913</t>
+    <t xml:space="preserve">4.99833011627197</t>
   </si>
   <si>
     <t xml:space="preserve">4.70857191085815</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">4.81723117828369</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9530553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09793472290039</t>
+    <t xml:space="preserve">4.95305490493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09793519973755</t>
   </si>
   <si>
     <t xml:space="preserve">5.10698938369751</t>
@@ -2549,10 +2549,10 @@
     <t xml:space="preserve">6.13925409317017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11208868026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22074842453003</t>
+    <t xml:space="preserve">6.11208820343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22074794769287</t>
   </si>
   <si>
     <t xml:space="preserve">6.22980308532715</t>
@@ -2564,16 +2564,16 @@
     <t xml:space="preserve">6.31129741668701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36562776565552</t>
+    <t xml:space="preserve">6.36562728881836</t>
   </si>
   <si>
     <t xml:space="preserve">6.41090202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44712114334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37468194961548</t>
+    <t xml:space="preserve">6.44712162017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37468242645264</t>
   </si>
   <si>
     <t xml:space="preserve">6.42901229858398</t>
@@ -2591,16 +2591,16 @@
     <t xml:space="preserve">6.18452835083008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1754732131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10303401947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0849232673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05775880813599</t>
+    <t xml:space="preserve">6.17547369003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10303354263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08492374420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05775928497314</t>
   </si>
   <si>
     <t xml:space="preserve">6.06681394577026</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">6.03964948654175</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03059434890747</t>
+    <t xml:space="preserve">6.03059387207031</t>
   </si>
   <si>
     <t xml:space="preserve">6.35657215118408</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">6.4561767578125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40184736251831</t>
+    <t xml:space="preserve">6.40184688568115</t>
   </si>
   <si>
     <t xml:space="preserve">6.32940769195557</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">6.16641855239868</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50145149230957</t>
+    <t xml:space="preserve">6.50145101547241</t>
   </si>
   <si>
     <t xml:space="preserve">6.24791288375854</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">7.58804559707642</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69670391082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75103425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725385665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84158325195312</t>
+    <t xml:space="preserve">7.69670343399048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7510347366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84158277511597</t>
   </si>
   <si>
     <t xml:space="preserve">7.67859411239624</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">7.80536413192749</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66048431396484</t>
+    <t xml:space="preserve">7.660484790802</t>
   </si>
   <si>
     <t xml:space="preserve">7.6061544418335</t>
@@ -2723,10 +2723,10 @@
     <t xml:space="preserve">7.76914358139038</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83252859115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92307806015015</t>
+    <t xml:space="preserve">7.83252763748169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92307758331299</t>
   </si>
   <si>
     <t xml:space="preserve">8.09512138366699</t>
@@ -2750,16 +2750,16 @@
     <t xml:space="preserve">8.14945125579834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24905586242676</t>
+    <t xml:space="preserve">8.24905490875244</t>
   </si>
   <si>
     <t xml:space="preserve">8.21283626556396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20378112792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16756153106689</t>
+    <t xml:space="preserve">8.203782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16756248474121</t>
   </si>
   <si>
     <t xml:space="preserve">8.24000072479248</t>
@@ -2777,22 +2777,22 @@
     <t xml:space="preserve">8.55692386627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40298938751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61125373840332</t>
+    <t xml:space="preserve">8.40299034118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61125469207764</t>
   </si>
   <si>
     <t xml:space="preserve">8.5478687286377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68369483947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60219860076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81951713562012</t>
+    <t xml:space="preserve">8.68369388580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60219955444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8195161819458</t>
   </si>
   <si>
     <t xml:space="preserve">8.59314346313477</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">8.77667808532715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60206317901611</t>
+    <t xml:space="preserve">8.60206413269043</t>
   </si>
   <si>
     <t xml:space="preserve">8.58368301391602</t>
@@ -2831,16 +2831,16 @@
     <t xml:space="preserve">8.83181858062744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87777042388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91453170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85939025878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64801406860352</t>
+    <t xml:space="preserve">8.87776947021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91453075408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85939121246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64801502227783</t>
   </si>
   <si>
     <t xml:space="preserve">8.67558574676514</t>
@@ -2849,19 +2849,19 @@
     <t xml:space="preserve">8.68477535247803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70315647125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62963485717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43663883209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27121448516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31716537475586</t>
+    <t xml:space="preserve">8.70315551757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62963390350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4366397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27121543884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31716632843018</t>
   </si>
   <si>
     <t xml:space="preserve">8.24364376068115</t>
@@ -2870,28 +2870,28 @@
     <t xml:space="preserve">8.20688343048096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21607303619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11498165130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16093254089355</t>
+    <t xml:space="preserve">8.21607398986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11498069763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16093158721924</t>
   </si>
   <si>
     <t xml:space="preserve">7.90360593795776</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01388835906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94036674499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99550676345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89441537857056</t>
+    <t xml:space="preserve">8.01388931274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94036722183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99550724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89441442489624</t>
   </si>
   <si>
     <t xml:space="preserve">8.15174198150635</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">7.75656175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23445415496826</t>
+    <t xml:space="preserve">8.23445320129395</t>
   </si>
   <si>
     <t xml:space="preserve">8.40906810760498</t>
@@ -2939,16 +2939,16 @@
     <t xml:space="preserve">8.5009708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88696193695068</t>
+    <t xml:space="preserve">8.88696098327637</t>
   </si>
   <si>
     <t xml:space="preserve">8.80424880981445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39987850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4734001159668</t>
+    <t xml:space="preserve">8.39987945556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47340106964111</t>
   </si>
   <si>
     <t xml:space="preserve">8.81343936920166</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">8.66639518737793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41825866699219</t>
+    <t xml:space="preserve">8.41825771331787</t>
   </si>
   <si>
     <t xml:space="preserve">8.36311721801758</t>
@@ -2975,19 +2975,19 @@
     <t xml:space="preserve">8.08741092681885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14255046844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17931175231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04146003723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71979999542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78413248062134</t>
+    <t xml:space="preserve">8.14255142211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17931270599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04145908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71979951858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78413200378418</t>
   </si>
   <si>
     <t xml:space="preserve">7.72899103164673</t>
@@ -2996,16 +2996,16 @@
     <t xml:space="preserve">7.70142030715942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81170272827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83008432388306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87603425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92198514938354</t>
+    <t xml:space="preserve">7.81170320510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8300838470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8760347366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9219856262207</t>
   </si>
   <si>
     <t xml:space="preserve">7.86684513092041</t>
@@ -3014,19 +3014,19 @@
     <t xml:space="preserve">8.09660053253174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39068794250488</t>
+    <t xml:space="preserve">8.3906888961792</t>
   </si>
   <si>
     <t xml:space="preserve">8.35392665863037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37230777740479</t>
+    <t xml:space="preserve">8.37230682373047</t>
   </si>
   <si>
     <t xml:space="preserve">8.5469217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34473609924316</t>
+    <t xml:space="preserve">8.34473705291748</t>
   </si>
   <si>
     <t xml:space="preserve">8.18850326538086</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">7.52680492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48085451126099</t>
+    <t xml:space="preserve">7.48085498809814</t>
   </si>
   <si>
     <t xml:space="preserve">7.51761531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60951709747314</t>
+    <t xml:space="preserve">7.6095175743103</t>
   </si>
   <si>
     <t xml:space="preserve">7.50842523574829</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">7.49923467636108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59113788604736</t>
+    <t xml:space="preserve">7.59113740921021</t>
   </si>
   <si>
     <t xml:space="preserve">7.80251264572144</t>
@@ -3068,13 +3068,13 @@
     <t xml:space="preserve">7.61870813369751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54518604278564</t>
+    <t xml:space="preserve">7.5451865196228</t>
   </si>
   <si>
     <t xml:space="preserve">7.47166442871094</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41652250289917</t>
+    <t xml:space="preserve">7.41652297973633</t>
   </si>
   <si>
     <t xml:space="preserve">7.45328330993652</t>
@@ -3086,22 +3086,22 @@
     <t xml:space="preserve">7.40733289718628</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69222974777222</t>
+    <t xml:space="preserve">7.69223022460938</t>
   </si>
   <si>
     <t xml:space="preserve">7.79332256317139</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77494192123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68303918838501</t>
+    <t xml:space="preserve">7.77494239807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68303871154785</t>
   </si>
   <si>
     <t xml:space="preserve">7.67384958267212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46247386932373</t>
+    <t xml:space="preserve">7.46247339248657</t>
   </si>
   <si>
     <t xml:space="preserve">7.53599548339844</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">7.06729364395142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16838693618774</t>
+    <t xml:space="preserve">7.16838645935059</t>
   </si>
   <si>
     <t xml:space="preserve">7.03053283691406</t>
@@ -3125,10 +3125,10 @@
     <t xml:space="preserve">7.15000581741333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26947832107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26028919219971</t>
+    <t xml:space="preserve">7.2694787979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26028871536255</t>
   </si>
   <si>
     <t xml:space="preserve">7.08567428588867</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">7.02134227752686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03972291946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42571306228638</t>
+    <t xml:space="preserve">7.03972244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42571258544922</t>
   </si>
   <si>
     <t xml:space="preserve">7.37057209014893</t>
@@ -3155,7 +3155,7 @@
     <t xml:space="preserve">7.3430004119873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14081525802612</t>
+    <t xml:space="preserve">7.14081573486328</t>
   </si>
   <si>
     <t xml:space="preserve">7.21433734893799</t>
@@ -3164,52 +3164,52 @@
     <t xml:space="preserve">6.93863010406494</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87429904937744</t>
+    <t xml:space="preserve">6.87429857254028</t>
   </si>
   <si>
     <t xml:space="preserve">6.80077695846558</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48830890655518</t>
+    <t xml:space="preserve">6.48830842971802</t>
   </si>
   <si>
     <t xml:space="preserve">6.72725486755371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54345035552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45154809951782</t>
+    <t xml:space="preserve">6.54344987869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45154762268066</t>
   </si>
   <si>
     <t xml:space="preserve">6.25855255126953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97365522384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95527458190918</t>
+    <t xml:space="preserve">5.97365570068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95527505874634</t>
   </si>
   <si>
     <t xml:space="preserve">6.12988948822021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4055962562561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21260118484497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26774263381958</t>
+    <t xml:space="preserve">6.40559577941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21260166168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26774311065674</t>
   </si>
   <si>
     <t xml:space="preserve">6.47911834716797</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3596453666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59859132766724</t>
+    <t xml:space="preserve">6.35964584350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59859085083008</t>
   </si>
   <si>
     <t xml:space="preserve">6.51587915420532</t>
@@ -3227,13 +3227,13 @@
     <t xml:space="preserve">6.14827013015747</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24017238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24936199188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39640617370605</t>
+    <t xml:space="preserve">6.24017190933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24936246871948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39640665054321</t>
   </si>
   <si>
     <t xml:space="preserve">6.38721561431885</t>
@@ -3242,19 +3242,19 @@
     <t xml:space="preserve">6.30450344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4239764213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29531335830688</t>
+    <t xml:space="preserve">6.42397689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29531383514404</t>
   </si>
   <si>
     <t xml:space="preserve">5.96446466445923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98284578323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03798675537109</t>
+    <t xml:space="preserve">5.98284530639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03798723220825</t>
   </si>
   <si>
     <t xml:space="preserve">6.01041603088379</t>
@@ -3275,25 +3275,25 @@
     <t xml:space="preserve">6.18503093719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10231828689575</t>
+    <t xml:space="preserve">6.10231876373291</t>
   </si>
   <si>
     <t xml:space="preserve">6.0655574798584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13907909393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11150884628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0839376449585</t>
+    <t xml:space="preserve">6.13907957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1115083694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08393812179565</t>
   </si>
   <si>
     <t xml:space="preserve">6.0931282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07474803924561</t>
+    <t xml:space="preserve">6.07474756240845</t>
   </si>
   <si>
     <t xml:space="preserve">6.20341157913208</t>
@@ -61006,13 +61006,13 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6495486111</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>82018</v>
       </c>
       <c r="C2168" t="n">
-        <v>9.80000019073486</v>
+        <v>9.8100004196167</v>
       </c>
       <c r="D2168" t="n">
         <v>9.63000011444092</v>
@@ -61027,6 +61027,32 @@
         <v>1436</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6493287037</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>87347</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>9.77000045776367</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>9.63000011444092</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>9.71000003814697</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>9.71000003814697</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -44,13 +44,13 @@
     <t xml:space="preserve">CEM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77356767654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64730501174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806396484375</t>
+    <t xml:space="preserve">4.77356815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64730453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806348800659</t>
   </si>
   <si>
     <t xml:space="preserve">4.41514301300049</t>
@@ -62,37 +62,37 @@
     <t xml:space="preserve">4.41107034683228</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37441301345825</t>
+    <t xml:space="preserve">4.37441253662109</t>
   </si>
   <si>
     <t xml:space="preserve">4.37848567962646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14225149154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01435899734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05345964431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74879837036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91171932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02739191055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95733618736267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99480843544006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95570731163025</t>
+    <t xml:space="preserve">4.14225196838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01435947418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05346012115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74879884719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91171884536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02739238739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95733594894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99480819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95570778846741</t>
   </si>
   <si>
     <t xml:space="preserve">3.82048392295837</t>
@@ -101,22 +101,22 @@
     <t xml:space="preserve">4.01272964477539</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95081996917725</t>
+    <t xml:space="preserve">3.95082020759583</t>
   </si>
   <si>
     <t xml:space="preserve">3.81233739852905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64941740036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67059659957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69177651405334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41807055473328</t>
+    <t xml:space="preserve">3.64941763877869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67059707641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69177675247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4180703163147</t>
   </si>
   <si>
     <t xml:space="preserve">3.21279048919678</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">3.31543040275574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19324040412903</t>
+    <t xml:space="preserve">3.19324016571045</t>
   </si>
   <si>
     <t xml:space="preserve">3.2730712890625</t>
@@ -134,52 +134,52 @@
     <t xml:space="preserve">3.51093482971191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42947459220886</t>
+    <t xml:space="preserve">3.42947483062744</t>
   </si>
   <si>
     <t xml:space="preserve">3.54514861106873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62497901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41318273544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45880007743835</t>
+    <t xml:space="preserve">3.62497878074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41318297386169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45880031585693</t>
   </si>
   <si>
     <t xml:space="preserve">3.43436241149902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30402612686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35778975486755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47020506858826</t>
+    <t xml:space="preserve">3.30402636528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35778999328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4702045917511</t>
   </si>
   <si>
     <t xml:space="preserve">3.65756320953369</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70643973350525</t>
+    <t xml:space="preserve">3.70643925666809</t>
   </si>
   <si>
     <t xml:space="preserve">3.6266086101532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71621441841125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63149642944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59076547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795787811279</t>
+    <t xml:space="preserve">3.71621489524841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6314959526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59076619148254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56795716285706</t>
   </si>
   <si>
     <t xml:space="preserve">3.59565353393555</t>
@@ -194,64 +194,64 @@
     <t xml:space="preserve">3.68525981903076</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82862949371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846157073975</t>
+    <t xml:space="preserve">3.82862973213196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846061706543</t>
   </si>
   <si>
     <t xml:space="preserve">3.74391102790833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78138303756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73087787628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5875072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64127087593079</t>
+    <t xml:space="preserve">3.78138327598572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.730877161026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58750820159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64127135276794</t>
   </si>
   <si>
     <t xml:space="preserve">3.57936120033264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61357474327087</t>
+    <t xml:space="preserve">3.61357426643372</t>
   </si>
   <si>
     <t xml:space="preserve">3.65104651451111</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52071022987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47835063934326</t>
+    <t xml:space="preserve">3.52071046829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47835087776184</t>
   </si>
   <si>
     <t xml:space="preserve">3.44250798225403</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67222595214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55492353439331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61520409584045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6673378944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85469698905945</t>
+    <t xml:space="preserve">3.6722264289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55492329597473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61520385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66733884811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85469746589661</t>
   </si>
   <si>
     <t xml:space="preserve">3.81885457038879</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9345281124115</t>
+    <t xml:space="preserve">3.93452739715576</t>
   </si>
   <si>
     <t xml:space="preserve">3.81396698951721</t>
@@ -260,85 +260,85 @@
     <t xml:space="preserve">3.8237419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77975296974182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76671981811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75042867660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8726179599762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7390239238739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77486634254456</t>
+    <t xml:space="preserve">3.77975344657898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76672005653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75042796134949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87261867523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73902368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77486562728882</t>
   </si>
   <si>
     <t xml:space="preserve">3.69829344749451</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74716925621033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71458554267883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60054159164429</t>
+    <t xml:space="preserve">3.74716949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71458506584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60054135322571</t>
   </si>
   <si>
     <t xml:space="preserve">3.52722668647766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54351925849915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6022744178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69399857521057</t>
+    <t xml:space="preserve">3.54351878166199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60227465629578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69399929046631</t>
   </si>
   <si>
     <t xml:space="preserve">3.83241963386536</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83575463294983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95249533653259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96083378791809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85243248939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82908391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.779052734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74236273765564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66898345947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65564107894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62729048728943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45384740829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37713241577148</t>
+    <t xml:space="preserve">3.83575558662415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95249509811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96083354949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85243201255798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82908415794373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77905321121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7423632144928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66898322105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6556408405304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62729001045227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45384764671326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37713217735291</t>
   </si>
   <si>
     <t xml:space="preserve">3.36379051208496</t>
@@ -347,31 +347,31 @@
     <t xml:space="preserve">3.2603919506073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2220344543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06693601608276</t>
+    <t xml:space="preserve">3.22203469276428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06693649291992</t>
   </si>
   <si>
     <t xml:space="preserve">3.21703100204468</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09528779983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28707528114319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41882491111755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16866731643677</t>
+    <t xml:space="preserve">3.09528756141663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28707551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41882514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16866755485535</t>
   </si>
   <si>
     <t xml:space="preserve">2.88515496253967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8768162727356</t>
+    <t xml:space="preserve">2.87681603431702</t>
   </si>
   <si>
     <t xml:space="preserve">2.8968288898468</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">2.8518009185791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81844615936279</t>
+    <t xml:space="preserve">2.81844639778137</t>
   </si>
   <si>
     <t xml:space="preserve">2.82344937324524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9051673412323</t>
+    <t xml:space="preserve">2.90516781806946</t>
   </si>
   <si>
     <t xml:space="preserve">2.93518662452698</t>
@@ -404,40 +404,40 @@
     <t xml:space="preserve">3.10195851325989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06026554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27540159225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19535112380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13698053359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03358244895935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17033505439758</t>
+    <t xml:space="preserve">3.06026530265808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27540135383606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19535088539124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13698077201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03358197212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.170334815979</t>
   </si>
   <si>
     <t xml:space="preserve">3.03524971008301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9868860244751</t>
+    <t xml:space="preserve">2.98688578605652</t>
   </si>
   <si>
     <t xml:space="preserve">3.23871159553528</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24371457099915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21869874000549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25205326080322</t>
+    <t xml:space="preserve">3.24371480941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21869850158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25205302238464</t>
   </si>
   <si>
     <t xml:space="preserve">3.16032886505127</t>
@@ -449,43 +449,43 @@
     <t xml:space="preserve">3.08528137207031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17867374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30208492279053</t>
+    <t xml:space="preserve">3.17867350578308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30208516120911</t>
   </si>
   <si>
     <t xml:space="preserve">3.34544587135315</t>
   </si>
   <si>
-    <t xml:space="preserve">3.38880658149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50387930870056</t>
+    <t xml:space="preserve">3.38880610466003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50387907028198</t>
   </si>
   <si>
     <t xml:space="preserve">3.4738597869873</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53556537628174</t>
+    <t xml:space="preserve">3.53556561470032</t>
   </si>
   <si>
     <t xml:space="preserve">3.50554656982422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51722049713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75236868858337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71901440620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239439964294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76904654502869</t>
+    <t xml:space="preserve">3.51722073554993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75236892700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7190146446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239416122437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76904606819153</t>
   </si>
   <si>
     <t xml:space="preserve">3.81907844543457</t>
@@ -497,25 +497,25 @@
     <t xml:space="preserve">3.8841187953949</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89912939071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87911558151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8174102306366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69566631317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63729667663574</t>
+    <t xml:space="preserve">3.89912867546082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87911605834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81740999221802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69566679000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63729643821716</t>
   </si>
   <si>
     <t xml:space="preserve">3.54390406608582</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5855975151062</t>
+    <t xml:space="preserve">3.58559703826904</t>
   </si>
   <si>
     <t xml:space="preserve">3.73235654830933</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">3.67732167243958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61561560630798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72068214416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71734738349915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45551514625549</t>
+    <t xml:space="preserve">3.61561584472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72068238258362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71734762191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45551538467407</t>
   </si>
   <si>
     <t xml:space="preserve">3.55224299430847</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">3.50221133232117</t>
   </si>
   <si>
-    <t xml:space="preserve">3.57725882530212</t>
+    <t xml:space="preserve">3.57725858688354</t>
   </si>
   <si>
     <t xml:space="preserve">3.63562870025635</t>
@@ -554,10 +554,10 @@
     <t xml:space="preserve">3.62562274932861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63396120071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391097068787</t>
+    <t xml:space="preserve">3.63396048545837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391073226929</t>
   </si>
   <si>
     <t xml:space="preserve">3.61394858360291</t>
@@ -572,19 +572,19 @@
     <t xml:space="preserve">3.71401166915894</t>
   </si>
   <si>
-    <t xml:space="preserve">3.762375831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73402452468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76070809364319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60727787017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70233774185181</t>
+    <t xml:space="preserve">3.76237535476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73402428627014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76070833206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6072781085968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70233726501465</t>
   </si>
   <si>
     <t xml:space="preserve">3.71067595481873</t>
@@ -605,10 +605,10 @@
     <t xml:space="preserve">3.4388382434845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3404426574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28540778160095</t>
+    <t xml:space="preserve">3.34044241905212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28540754318237</t>
   </si>
   <si>
     <t xml:space="preserve">3.27373385429382</t>
@@ -617,31 +617,31 @@
     <t xml:space="preserve">3.24037933349609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27706933021545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21036052703857</t>
+    <t xml:space="preserve">3.2770688533783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21036028862</t>
   </si>
   <si>
     <t xml:space="preserve">3.17533826828003</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06526899337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07694292068481</t>
+    <t xml:space="preserve">3.06526875495911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07694244384766</t>
   </si>
   <si>
     <t xml:space="preserve">3.01190185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97687935829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0235755443573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02691102027893</t>
+    <t xml:space="preserve">2.97687959671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02357578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02691125869751</t>
   </si>
   <si>
     <t xml:space="preserve">3.01523685455322</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">3.10862922668457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23537611961365</t>
+    <t xml:space="preserve">3.23537588119507</t>
   </si>
   <si>
     <t xml:space="preserve">3.25038576126099</t>
@@ -659,79 +659,79 @@
     <t xml:space="preserve">3.38547086715698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29874920845032</t>
+    <t xml:space="preserve">3.29874968528748</t>
   </si>
   <si>
     <t xml:space="preserve">3.52722692489624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55724620819092</t>
+    <t xml:space="preserve">3.5572464466095</t>
   </si>
   <si>
     <t xml:space="preserve">3.52055621147156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56891989707947</t>
+    <t xml:space="preserve">3.56892037391663</t>
   </si>
   <si>
     <t xml:space="preserve">3.64396715164185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51888871192932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68566083908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75070142745972</t>
+    <t xml:space="preserve">3.51888799667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68566036224365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75070095062256</t>
   </si>
   <si>
     <t xml:space="preserve">3.66064453125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77738475799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55557799339294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39881300926208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35211610794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29374623298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3354389667511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31209111213684</t>
+    <t xml:space="preserve">3.77738499641418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55557823181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39881324768066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35211682319641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29374647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33543920516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31209087371826</t>
   </si>
   <si>
     <t xml:space="preserve">3.29541397094727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29708170890808</t>
+    <t xml:space="preserve">3.29708194732666</t>
   </si>
   <si>
     <t xml:space="preserve">3.32710075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34210968017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30041694641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08091068267822</t>
+    <t xml:space="preserve">3.34211015701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30041670799255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08091020584106</t>
   </si>
   <si>
     <t xml:space="preserve">4.12760639190674</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21099233627319</t>
+    <t xml:space="preserve">4.21099281311035</t>
   </si>
   <si>
     <t xml:space="preserve">4.25268507003784</t>
@@ -740,10 +740,10 @@
     <t xml:space="preserve">4.26102352142334</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14428329467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03588104248047</t>
+    <t xml:space="preserve">4.14428377151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03588151931763</t>
   </si>
   <si>
     <t xml:space="preserve">4.27770090103149</t>
@@ -752,25 +752,25 @@
     <t xml:space="preserve">4.36942577362061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43196487426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56121301651001</t>
+    <t xml:space="preserve">4.43196535110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56121206283569</t>
   </si>
   <si>
     <t xml:space="preserve">4.52785873413086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49867391586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50284337997437</t>
+    <t xml:space="preserve">4.49867343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50284290313721</t>
   </si>
   <si>
     <t xml:space="preserve">4.46115016937256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35274839401245</t>
+    <t xml:space="preserve">4.35274791717529</t>
   </si>
   <si>
     <t xml:space="preserve">4.47782707214355</t>
@@ -779,19 +779,19 @@
     <t xml:space="preserve">4.44864225387573</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46531915664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47365713119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65293741226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51535129547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41528797149658</t>
+    <t xml:space="preserve">4.46531963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47365760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65293788909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51535081863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41528749465942</t>
   </si>
   <si>
     <t xml:space="preserve">4.34024000167847</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">4.43613433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32773208618164</t>
+    <t xml:space="preserve">4.3277325630188</t>
   </si>
   <si>
     <t xml:space="preserve">4.33190202713013</t>
@@ -830,40 +830,40 @@
     <t xml:space="preserve">4.45281171798706</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36108684539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39027261734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36525678634644</t>
+    <t xml:space="preserve">4.36108636856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39027166366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36525630950928</t>
   </si>
   <si>
     <t xml:space="preserve">4.53619718551636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61958312988281</t>
+    <t xml:space="preserve">4.61958408355713</t>
   </si>
   <si>
     <t xml:space="preserve">4.60707569122314</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61124563217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77384662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75300073623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80720138549805</t>
+    <t xml:space="preserve">4.61124467849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77384757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75300121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80720186233521</t>
   </si>
   <si>
     <t xml:space="preserve">4.82804918289185</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91560411453247</t>
+    <t xml:space="preserve">4.91560363769531</t>
   </si>
   <si>
     <t xml:space="preserve">4.90726566314697</t>
@@ -872,31 +872,31 @@
     <t xml:space="preserve">4.74466228485107</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42779588699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42362689971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34440994262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49153470993042</t>
+    <t xml:space="preserve">4.42779541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42362594604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34440946578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49153566360474</t>
   </si>
   <si>
     <t xml:space="preserve">4.53827810287476</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50428342819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46179056167603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45329189300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38955211639404</t>
+    <t xml:space="preserve">4.5042839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46179008483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45329141616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38955163955688</t>
   </si>
   <si>
     <t xml:space="preserve">4.35980653762817</t>
@@ -917,70 +917,70 @@
     <t xml:space="preserve">4.41929626464844</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45754051208496</t>
+    <t xml:space="preserve">4.45754098892212</t>
   </si>
   <si>
     <t xml:space="preserve">4.43204498291016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47878742218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38530206680298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51703119277954</t>
+    <t xml:space="preserve">4.47878694534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38530254364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51703071594238</t>
   </si>
   <si>
     <t xml:space="preserve">4.48728656768799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48303651809692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47028875350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55527544021606</t>
+    <t xml:space="preserve">4.48303699493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47028923034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55527496337891</t>
   </si>
   <si>
     <t xml:space="preserve">4.57227277755737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6572585105896</t>
+    <t xml:space="preserve">4.65725946426392</t>
   </si>
   <si>
     <t xml:space="preserve">4.49578428268433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4362940788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78473949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67425632476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95046234130859</t>
+    <t xml:space="preserve">4.43629360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78473901748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67425584793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95046186447144</t>
   </si>
   <si>
     <t xml:space="preserve">5.09918928146362</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1586799621582</t>
+    <t xml:space="preserve">5.15867853164673</t>
   </si>
   <si>
     <t xml:space="preserve">5.20967102050781</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35414886474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3923921585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35839748382568</t>
+    <t xml:space="preserve">5.35414838790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39239168167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35839796066284</t>
   </si>
   <si>
     <t xml:space="preserve">5.52412080764771</t>
@@ -992,10 +992,10 @@
     <t xml:space="preserve">5.40514039993286</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45188283920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4136381149292</t>
+    <t xml:space="preserve">5.45188236236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41363859176636</t>
   </si>
   <si>
     <t xml:space="preserve">5.33290195465088</t>
@@ -1004,25 +1004,25 @@
     <t xml:space="preserve">5.39664125442505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40089082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2649130821228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11618614196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1544303894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22666883468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30740547180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1756763458252</t>
+    <t xml:space="preserve">5.40089130401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26491260528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11618566513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15442943572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22666788101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3074049949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17567729949951</t>
   </si>
   <si>
     <t xml:space="preserve">5.13318347930908</t>
@@ -1031,13 +1031,13 @@
     <t xml:space="preserve">5.05669498443604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09068965911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06094455718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00570344924927</t>
+    <t xml:space="preserve">5.09069013595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0609450340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00570392608643</t>
   </si>
   <si>
     <t xml:space="preserve">5.03969812393188</t>
@@ -1049,52 +1049,52 @@
     <t xml:space="preserve">5.00145483016968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05244636535645</t>
+    <t xml:space="preserve">5.05244588851929</t>
   </si>
   <si>
     <t xml:space="preserve">5.04394769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01420211791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12468481063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15017986297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21816968917847</t>
+    <t xml:space="preserve">5.01420259475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12468528747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15018033981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21817016601562</t>
   </si>
   <si>
     <t xml:space="preserve">5.27766036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33715105056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28190946578979</t>
+    <t xml:space="preserve">5.33715200424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28190994262695</t>
   </si>
   <si>
     <t xml:space="preserve">5.23516702651978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43913459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37114572525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32865238189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69409418106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80032682418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12327575683594</t>
+    <t xml:space="preserve">5.43913507461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37114524841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32865190505981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69409370422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80032730102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1232762336731</t>
   </si>
   <si>
     <t xml:space="preserve">5.92355728149414</t>
@@ -1103,28 +1103,28 @@
     <t xml:space="preserve">6.19551420211792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1360239982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28900003433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00854396820068</t>
+    <t xml:space="preserve">6.13602352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28899955749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00854349136353</t>
   </si>
   <si>
     <t xml:space="preserve">6.05953598022461</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08503198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15302085876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11477661132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08928108215332</t>
+    <t xml:space="preserve">6.08503150939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15302133560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11477708816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08928155899048</t>
   </si>
   <si>
     <t xml:space="preserve">6.03403949737549</t>
@@ -1136,13 +1136,13 @@
     <t xml:space="preserve">6.04678821563721</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01704263687134</t>
+    <t xml:space="preserve">6.0170431137085</t>
   </si>
   <si>
     <t xml:space="preserve">6.02129220962524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99154710769653</t>
+    <t xml:space="preserve">5.99154663085938</t>
   </si>
   <si>
     <t xml:space="preserve">5.96180152893066</t>
@@ -1151,25 +1151,25 @@
     <t xml:space="preserve">6.12752532958984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10202932357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15727090835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21251201629639</t>
+    <t xml:space="preserve">6.10202884674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15727043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21251249313354</t>
   </si>
   <si>
     <t xml:space="preserve">6.1487717628479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11902618408203</t>
+    <t xml:space="preserve">6.11902666091919</t>
   </si>
   <si>
     <t xml:space="preserve">6.17001867294312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19976377487183</t>
+    <t xml:space="preserve">6.19976329803467</t>
   </si>
   <si>
     <t xml:space="preserve">6.41647958755493</t>
@@ -1178,25 +1178,25 @@
     <t xml:space="preserve">6.29749822616577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32299423217773</t>
+    <t xml:space="preserve">6.32299375534058</t>
   </si>
   <si>
     <t xml:space="preserve">6.20401334762573</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36973714828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33574199676514</t>
+    <t xml:space="preserve">6.36973667144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33574247360229</t>
   </si>
   <si>
     <t xml:space="preserve">6.14452266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2210111618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30599737167358</t>
+    <t xml:space="preserve">6.22101020812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30599641799927</t>
   </si>
   <si>
     <t xml:space="preserve">6.33149242401123</t>
@@ -1208,28 +1208,28 @@
     <t xml:space="preserve">6.2677526473999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07653331756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06378602981567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13177442550659</t>
+    <t xml:space="preserve">6.07653284072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06378555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13177490234375</t>
   </si>
   <si>
     <t xml:space="preserve">6.14027309417725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23800754547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18276691436768</t>
+    <t xml:space="preserve">6.23800706863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18276596069336</t>
   </si>
   <si>
     <t xml:space="preserve">6.16152000427246</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27200174331665</t>
+    <t xml:space="preserve">6.27200222015381</t>
   </si>
   <si>
     <t xml:space="preserve">6.21676111221313</t>
@@ -1247,16 +1247,16 @@
     <t xml:space="preserve">6.71393156051636</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74792623519897</t>
+    <t xml:space="preserve">6.74792671203613</t>
   </si>
   <si>
     <t xml:space="preserve">6.70543336868286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63744401931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62894535064697</t>
+    <t xml:space="preserve">6.63744354248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62894582748413</t>
   </si>
   <si>
     <t xml:space="preserve">6.79041957855225</t>
@@ -1265,25 +1265,25 @@
     <t xml:space="preserve">6.87540626525879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72243022918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75642538070679</t>
+    <t xml:space="preserve">6.72242975234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75642442703247</t>
   </si>
   <si>
     <t xml:space="preserve">6.76492404937744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84141206741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65444135665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6459436416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79891777038574</t>
+    <t xml:space="preserve">6.84141159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65444087982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64594316482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7989182472229</t>
   </si>
   <si>
     <t xml:space="preserve">6.6799373626709</t>
@@ -1292,46 +1292,46 @@
     <t xml:space="preserve">6.57795333862305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42497825622559</t>
+    <t xml:space="preserve">6.42497682571411</t>
   </si>
   <si>
     <t xml:space="preserve">6.35698843002319</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02554225921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05103778839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66293954849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39098262786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49296712875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4589729309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26350355148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2805004119873</t>
+    <t xml:space="preserve">6.02554178237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05103731155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66294002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39098310470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4929666519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45897245407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.263503074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28050088882446</t>
   </si>
   <si>
     <t xml:space="preserve">6.18701601028442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06803417205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2550048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17851686477661</t>
+    <t xml:space="preserve">6.06803512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25500535964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17851638793945</t>
   </si>
   <si>
     <t xml:space="preserve">6.00004529953003</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">5.96605110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93205595016479</t>
+    <t xml:space="preserve">5.93205642700195</t>
   </si>
   <si>
     <t xml:space="preserve">5.83857107162476</t>
@@ -1349,31 +1349,31 @@
     <t xml:space="preserve">5.87256526947021</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88106393814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79607725143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94055461883545</t>
+    <t xml:space="preserve">5.88106441497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79607820510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94055414199829</t>
   </si>
   <si>
     <t xml:space="preserve">5.98304843902588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88956356048584</t>
+    <t xml:space="preserve">5.88956308364868</t>
   </si>
   <si>
     <t xml:space="preserve">5.89806222915649</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90656042098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74508571624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76233863830566</t>
+    <t xml:space="preserve">5.90655994415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74508619308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76233816146851</t>
   </si>
   <si>
     <t xml:space="preserve">5.7968430519104</t>
@@ -1382,28 +1382,28 @@
     <t xml:space="preserve">5.77959060668945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81409645080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58981323242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56393527984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65882396697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65019750595093</t>
+    <t xml:space="preserve">5.81409597396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58981418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56393480300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65882349014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65019798278809</t>
   </si>
   <si>
     <t xml:space="preserve">5.85722732543945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69332838058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77096509933472</t>
+    <t xml:space="preserve">5.69332885742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77096462249756</t>
   </si>
   <si>
     <t xml:space="preserve">5.82272243499756</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">6.01249980926514</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86585426330566</t>
+    <t xml:space="preserve">5.86585378646851</t>
   </si>
   <si>
     <t xml:space="preserve">5.90035915374756</t>
@@ -1433,19 +1433,19 @@
     <t xml:space="preserve">5.9262375831604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67607593536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61569213867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80546998977661</t>
+    <t xml:space="preserve">5.67607641220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61569261550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80546951293945</t>
   </si>
   <si>
     <t xml:space="preserve">5.83997488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84860181808472</t>
+    <t xml:space="preserve">5.84860134124756</t>
   </si>
   <si>
     <t xml:space="preserve">5.71920728683472</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">5.62431859970093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78821754455566</t>
+    <t xml:space="preserve">5.78821706771851</t>
   </si>
   <si>
     <t xml:space="preserve">6.13326787948608</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">5.93486356735229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87448024749756</t>
+    <t xml:space="preserve">5.8744797706604</t>
   </si>
   <si>
     <t xml:space="preserve">5.91761112213135</t>
@@ -1475,34 +1475,34 @@
     <t xml:space="preserve">5.90898513793945</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0038743019104</t>
+    <t xml:space="preserve">6.00387334823608</t>
   </si>
   <si>
     <t xml:space="preserve">5.99524736404419</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04700469970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96936893463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88310575485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94348907470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9521164894104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53805637359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49492406845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44316673278809</t>
+    <t xml:space="preserve">6.04700517654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96936941146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88310670852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94349002838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95211601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53805589675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49492502212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4431676864624</t>
   </si>
   <si>
     <t xml:space="preserve">5.36553049087524</t>
@@ -1511,52 +1511,52 @@
     <t xml:space="preserve">5.40866279602051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54668188095093</t>
+    <t xml:space="preserve">5.54668235778809</t>
   </si>
   <si>
     <t xml:space="preserve">5.57256126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55530834197998</t>
+    <t xml:space="preserve">5.55530881881714</t>
   </si>
   <si>
     <t xml:space="preserve">5.46042013168335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47767162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33102607727051</t>
+    <t xml:space="preserve">5.47767210006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33102560043335</t>
   </si>
   <si>
     <t xml:space="preserve">5.24476337432861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21888494491577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34827852249146</t>
+    <t xml:space="preserve">5.21888446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3482780456543</t>
   </si>
   <si>
     <t xml:space="preserve">5.23613691329956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3741569519043</t>
+    <t xml:space="preserve">5.37415742874146</t>
   </si>
   <si>
     <t xml:space="preserve">5.35690498352051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31377267837524</t>
+    <t xml:space="preserve">5.3137731552124</t>
   </si>
   <si>
     <t xml:space="preserve">5.3396520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39140892028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42591524124146</t>
+    <t xml:space="preserve">5.3914098739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4259147644043</t>
   </si>
   <si>
     <t xml:space="preserve">5.40003633499146</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">5.59843969345093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43454122543335</t>
+    <t xml:space="preserve">5.43454170227051</t>
   </si>
   <si>
     <t xml:space="preserve">5.27064228057861</t>
@@ -1574,61 +1574,61 @@
     <t xml:space="preserve">5.19300556182861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27926826477051</t>
+    <t xml:space="preserve">5.27926778793335</t>
   </si>
   <si>
     <t xml:space="preserve">5.21025848388672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01185417175293</t>
+    <t xml:space="preserve">5.01185464859009</t>
   </si>
   <si>
     <t xml:space="preserve">4.69268274307251</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58916807174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65817832946777</t>
+    <t xml:space="preserve">4.58916854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65817785263062</t>
   </si>
   <si>
     <t xml:space="preserve">4.46840047836304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63229942321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61504650115967</t>
+    <t xml:space="preserve">4.63229894638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61504697799683</t>
   </si>
   <si>
     <t xml:space="preserve">4.70993566513062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55466365814209</t>
+    <t xml:space="preserve">4.55466318130493</t>
   </si>
   <si>
     <t xml:space="preserve">4.3562593460083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22686529159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3045015335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17510747909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28724908828735</t>
+    <t xml:space="preserve">4.2268648147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30450105667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17510795593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2872486114502</t>
   </si>
   <si>
     <t xml:space="preserve">4.23980474472046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48565196990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62367296218872</t>
+    <t xml:space="preserve">4.48565244674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62367248535156</t>
   </si>
   <si>
     <t xml:space="preserve">4.68405675888062</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">4.70130920410156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7271876335144</t>
+    <t xml:space="preserve">4.72718811035156</t>
   </si>
   <si>
     <t xml:space="preserve">4.50290536880493</t>
@@ -1649,31 +1649,31 @@
     <t xml:space="preserve">4.51153182983398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52015829086304</t>
+    <t xml:space="preserve">4.52015781402588</t>
   </si>
   <si>
     <t xml:space="preserve">4.38213777542114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42526912689209</t>
+    <t xml:space="preserve">4.42526865005493</t>
   </si>
   <si>
     <t xml:space="preserve">4.2786226272583</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12766361236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16648149490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18804740905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2354907989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32175445556641</t>
+    <t xml:space="preserve">4.12766313552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16648101806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18804693222046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23549127578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32175397872925</t>
   </si>
   <si>
     <t xml:space="preserve">4.30018854141235</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">4.24411773681641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18373394012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11903715133667</t>
+    <t xml:space="preserve">4.18373346328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11903667449951</t>
   </si>
   <si>
     <t xml:space="preserve">4.39076375961304</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">4.3390064239502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2225513458252</t>
+    <t xml:space="preserve">4.22255277633667</t>
   </si>
   <si>
     <t xml:space="preserve">4.13197612762451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23117876052856</t>
+    <t xml:space="preserve">4.23117828369141</t>
   </si>
   <si>
     <t xml:space="preserve">4.17079401016235</t>
@@ -1709,25 +1709,25 @@
     <t xml:space="preserve">4.11472415924072</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02414846420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44252157211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39939069747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57191514968872</t>
+    <t xml:space="preserve">4.02414798736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4425220489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39938974380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57191562652588</t>
   </si>
   <si>
     <t xml:space="preserve">4.74444007873535</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8910870552063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88246059417725</t>
+    <t xml:space="preserve">4.89108657836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88246011734009</t>
   </si>
   <si>
     <t xml:space="preserve">4.9169659614563</t>
@@ -1739,34 +1739,34 @@
     <t xml:space="preserve">5.00322866439819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98597526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05498552322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10674333572388</t>
+    <t xml:space="preserve">4.98597574234009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05498600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10674381256104</t>
   </si>
   <si>
     <t xml:space="preserve">5.11536931991577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13262128829956</t>
+    <t xml:space="preserve">5.13262176513672</t>
   </si>
   <si>
     <t xml:space="preserve">5.15850114822388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08949089050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07223844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30514764785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22751045227051</t>
+    <t xml:space="preserve">5.08949136734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07223796844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30514669418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22751092910767</t>
   </si>
   <si>
     <t xml:space="preserve">5.26201581954956</t>
@@ -1778,76 +1778,73 @@
     <t xml:space="preserve">5.4517936706543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38278293609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51217794418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50355100631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58118677139282</t>
+    <t xml:space="preserve">5.38278341293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51217699050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5035514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58118772506714</t>
   </si>
   <si>
     <t xml:space="preserve">5.60706615447998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52942943572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52080345153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08086442947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21648168563843</t>
+    <t xml:space="preserve">5.52942991256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52080392837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08086490631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21648073196411</t>
   </si>
   <si>
     <t xml:space="preserve">5.23413372039795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11938953399658</t>
+    <t xml:space="preserve">5.11938905715942</t>
   </si>
   <si>
     <t xml:space="preserve">5.11056327819824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1635217666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19000196456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19882774353027</t>
+    <t xml:space="preserve">5.16352128982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19000148773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19882822036743</t>
   </si>
   <si>
     <t xml:space="preserve">5.24296092987061</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32239961624146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30474710464478</t>
+    <t xml:space="preserve">5.30474662780762</t>
   </si>
   <si>
     <t xml:space="preserve">5.27826738357544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33122634887695</t>
+    <t xml:space="preserve">5.33122587203979</t>
   </si>
   <si>
     <t xml:space="preserve">5.36653232574463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34005212783813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35770606994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44597148895264</t>
+    <t xml:space="preserve">5.34005260467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35770559310913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44597101211548</t>
   </si>
   <si>
     <t xml:space="preserve">5.5695424079895</t>
@@ -1868,10 +1865,10 @@
     <t xml:space="preserve">5.68428707122803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63132810592651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58719539642334</t>
+    <t xml:space="preserve">5.63132858276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5871958732605</t>
   </si>
   <si>
     <t xml:space="preserve">5.7548999786377</t>
@@ -1880,22 +1877,22 @@
     <t xml:space="preserve">5.87847089767456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86081838607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84316444396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76372575759888</t>
+    <t xml:space="preserve">5.86081790924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84316492080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76372623443604</t>
   </si>
   <si>
     <t xml:space="preserve">5.81668519973755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78138017654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71076679229736</t>
+    <t xml:space="preserve">5.78137969970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71076726913452</t>
   </si>
   <si>
     <t xml:space="preserve">5.60484838485718</t>
@@ -1904,19 +1901,19 @@
     <t xml:space="preserve">5.56071615219116</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67546033859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85199117660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62250137329102</t>
+    <t xml:space="preserve">5.67546081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85199165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62250185012817</t>
   </si>
   <si>
     <t xml:space="preserve">5.34887886047363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28709316253662</t>
+    <t xml:space="preserve">5.28709363937378</t>
   </si>
   <si>
     <t xml:space="preserve">5.39301204681396</t>
@@ -1928,25 +1925,25 @@
     <t xml:space="preserve">5.22530794143677</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37535858154297</t>
+    <t xml:space="preserve">5.37535953521729</t>
   </si>
   <si>
     <t xml:space="preserve">5.18117475509644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25178718566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26943969726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26061391830444</t>
+    <t xml:space="preserve">5.25178670883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26944017410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26061344146729</t>
   </si>
   <si>
     <t xml:space="preserve">5.4018383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64898157119751</t>
+    <t xml:space="preserve">5.64898109436035</t>
   </si>
   <si>
     <t xml:space="preserve">5.55188941955566</t>
@@ -1958,16 +1955,16 @@
     <t xml:space="preserve">5.50775623321533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47245073318481</t>
+    <t xml:space="preserve">5.47245025634766</t>
   </si>
   <si>
     <t xml:space="preserve">5.42831754684448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49010324478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12821531295776</t>
+    <t xml:space="preserve">5.49010372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12821578979492</t>
   </si>
   <si>
     <t xml:space="preserve">5.14586877822876</t>
@@ -1976,10 +1973,10 @@
     <t xml:space="preserve">5.26502704620361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13968992233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20765447616577</t>
+    <t xml:space="preserve">5.13969039916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20765495300293</t>
   </si>
   <si>
     <t xml:space="preserve">5.25531768798828</t>
@@ -1988,7 +1985,7 @@
     <t xml:space="preserve">5.31268978118896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38418531417847</t>
+    <t xml:space="preserve">5.38418483734131</t>
   </si>
   <si>
     <t xml:space="preserve">5.45214939117432</t>
@@ -1997,13 +1994,13 @@
     <t xml:space="preserve">5.43273115158081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3850679397583</t>
+    <t xml:space="preserve">5.38506746292114</t>
   </si>
   <si>
     <t xml:space="preserve">5.41154766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37271070480347</t>
+    <t xml:space="preserve">5.37271118164062</t>
   </si>
   <si>
     <t xml:space="preserve">5.45391464233398</t>
@@ -2021,67 +2018,67 @@
     <t xml:space="preserve">5.54747629165649</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42390394210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62779712677002</t>
+    <t xml:space="preserve">5.42390441894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62779760360718</t>
   </si>
   <si>
     <t xml:space="preserve">5.7284197807312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62603235244751</t>
+    <t xml:space="preserve">5.62603282928467</t>
   </si>
   <si>
     <t xml:space="preserve">5.57130718231201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53070592880249</t>
+    <t xml:space="preserve">5.53070497512817</t>
   </si>
   <si>
     <t xml:space="preserve">5.57660341262817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5527720451355</t>
+    <t xml:space="preserve">5.55277156829834</t>
   </si>
   <si>
     <t xml:space="preserve">5.578369140625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89612436294556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14326763153076</t>
+    <t xml:space="preserve">5.8961238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14326667785645</t>
   </si>
   <si>
     <t xml:space="preserve">6.16092014312744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16974687576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06294584274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88464975357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89788913726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86876153945923</t>
+    <t xml:space="preserve">6.16974639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06294631958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8846492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89788961410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86876201629639</t>
   </si>
   <si>
     <t xml:space="preserve">5.85552167892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85375642776489</t>
+    <t xml:space="preserve">5.85375690460205</t>
   </si>
   <si>
     <t xml:space="preserve">5.92613458633423</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02322578430176</t>
+    <t xml:space="preserve">6.02322626113892</t>
   </si>
   <si>
     <t xml:space="preserve">6.05147075653076</t>
@@ -2093,34 +2090,34 @@
     <t xml:space="preserve">6.02852201461792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04440975189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97026681900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9729151725769</t>
+    <t xml:space="preserve">6.04441022872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9702672958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97291564941406</t>
   </si>
   <si>
     <t xml:space="preserve">5.79373645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84669542312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93496036529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02410936355591</t>
+    <t xml:space="preserve">5.84669589996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93496084213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02410888671875</t>
   </si>
   <si>
     <t xml:space="preserve">5.81933355331421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6860523223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8705267906189</t>
+    <t xml:space="preserve">5.68605279922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87052726745605</t>
   </si>
   <si>
     <t xml:space="preserve">5.93142986297607</t>
@@ -2132,10 +2129,10 @@
     <t xml:space="preserve">5.84934377670288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83433866500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8113899230957</t>
+    <t xml:space="preserve">5.83433818817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81138944625854</t>
   </si>
   <si>
     <t xml:space="preserve">5.80609369277954</t>
@@ -2156,16 +2153,16 @@
     <t xml:space="preserve">5.7372465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78579187393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69311428070068</t>
+    <t xml:space="preserve">5.78579235076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69311380386353</t>
   </si>
   <si>
     <t xml:space="preserve">5.69576168060303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75754737854004</t>
+    <t xml:space="preserve">5.7575478553772</t>
   </si>
   <si>
     <t xml:space="preserve">5.83963441848755</t>
@@ -2180,13 +2177,13 @@
     <t xml:space="preserve">5.7654914855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76813936233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86964464187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95702695846558</t>
+    <t xml:space="preserve">5.76813888549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86964511871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95702743530273</t>
   </si>
   <si>
     <t xml:space="preserve">6.12561416625977</t>
@@ -2207,7 +2204,7 @@
     <t xml:space="preserve">5.46892023086548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29856777191162</t>
+    <t xml:space="preserve">5.29856729507446</t>
   </si>
   <si>
     <t xml:space="preserve">5.14057302474976</t>
@@ -2216,13 +2213,13 @@
     <t xml:space="preserve">5.25708246231079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28356266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89166402816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32809066772461</t>
+    <t xml:space="preserve">5.28356313705444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89166450500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32809019088745</t>
   </si>
   <si>
     <t xml:space="preserve">4.38678646087646</t>
@@ -2237,19 +2234,19 @@
     <t xml:space="preserve">4.19260311126709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06020498275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84969234466553</t>
+    <t xml:space="preserve">4.06020545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84969186782837</t>
   </si>
   <si>
     <t xml:space="preserve">3.97194004058838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25880193710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90000367164612</t>
+    <t xml:space="preserve">4.25880146026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90000343322754</t>
   </si>
   <si>
     <t xml:space="preserve">4.05402660369873</t>
@@ -2258,10 +2255,10 @@
     <t xml:space="preserve">4.15111875534058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35898303985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19966411590576</t>
+    <t xml:space="preserve">4.35898399353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19966459274292</t>
   </si>
   <si>
     <t xml:space="preserve">4.13743782043457</t>
@@ -2279,19 +2276,19 @@
     <t xml:space="preserve">4.2543888092041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4132661819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54566526412964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70454216003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57214450836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72219514846802</t>
+    <t xml:space="preserve">4.41326665878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54566478729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70454263687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57214403152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72219562530518</t>
   </si>
   <si>
     <t xml:space="preserve">4.66040992736816</t>
@@ -2312,40 +2309,40 @@
     <t xml:space="preserve">4.86342000961304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88989925384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03995037078857</t>
+    <t xml:space="preserve">4.88989973068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03995084762573</t>
   </si>
   <si>
     <t xml:space="preserve">5.01347064971924</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93403244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67806243896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64275646209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71336936950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76632833480835</t>
+    <t xml:space="preserve">4.93403196334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.678062915802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64275693893433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71336889266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76632785797119</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872598648071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00738525390625</t>
+    <t xml:space="preserve">5.00738573074341</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872550964355</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82628631591797</t>
+    <t xml:space="preserve">4.82628679275513</t>
   </si>
   <si>
     <t xml:space="preserve">4.98022031784058</t>
@@ -2354,13 +2351,13 @@
     <t xml:space="preserve">5.01644039154053</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20659399032593</t>
+    <t xml:space="preserve">5.20659446716309</t>
   </si>
   <si>
     <t xml:space="preserve">5.32430791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29714345932007</t>
+    <t xml:space="preserve">5.29714298248291</t>
   </si>
   <si>
     <t xml:space="preserve">5.50540733337402</t>
@@ -2378,19 +2375,19 @@
     <t xml:space="preserve">5.60501194000244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71367073059082</t>
+    <t xml:space="preserve">5.71367120742798</t>
   </si>
   <si>
     <t xml:space="preserve">5.84044027328491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93099021911621</t>
+    <t xml:space="preserve">5.93099069595337</t>
   </si>
   <si>
     <t xml:space="preserve">5.74989080429077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41485786437988</t>
+    <t xml:space="preserve">5.41485834121704</t>
   </si>
   <si>
     <t xml:space="preserve">5.37863826751709</t>
@@ -2402,10 +2399,10 @@
     <t xml:space="preserve">5.66839647293091</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84949588775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72272634506226</t>
+    <t xml:space="preserve">5.84949541091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7227258682251</t>
   </si>
   <si>
     <t xml:space="preserve">5.76800060272217</t>
@@ -2417,16 +2414,16 @@
     <t xml:space="preserve">5.73178100585938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75894594192505</t>
+    <t xml:space="preserve">5.75894641876221</t>
   </si>
   <si>
     <t xml:space="preserve">5.83138513565063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69556140899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67745113372803</t>
+    <t xml:space="preserve">5.69556093215942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67745161056519</t>
   </si>
   <si>
     <t xml:space="preserve">5.64123153686523</t>
@@ -2438,10 +2435,10 @@
     <t xml:space="preserve">5.46013307571411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5325722694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52351760864258</t>
+    <t xml:space="preserve">5.53257274627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52351713180542</t>
   </si>
   <si>
     <t xml:space="preserve">5.42391300201416</t>
@@ -2450,7 +2447,7 @@
     <t xml:space="preserve">5.49635219573975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39674806594849</t>
+    <t xml:space="preserve">5.39674758911133</t>
   </si>
   <si>
     <t xml:space="preserve">5.31525373458862</t>
@@ -2462,31 +2459,31 @@
     <t xml:space="preserve">5.36052846908569</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36958312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47824287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59595632553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7046160697937</t>
+    <t xml:space="preserve">5.36958265304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47824239730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59595680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70461654663086</t>
   </si>
   <si>
     <t xml:space="preserve">5.6502857208252</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61406660079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48729705810547</t>
+    <t xml:space="preserve">5.6140661239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48729753494263</t>
   </si>
   <si>
     <t xml:space="preserve">5.45107746124268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38769245147705</t>
+    <t xml:space="preserve">5.38769292831421</t>
   </si>
   <si>
     <t xml:space="preserve">5.30619859695435</t>
@@ -2498,7 +2495,7 @@
     <t xml:space="preserve">5.44202280044556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35147285461426</t>
+    <t xml:space="preserve">5.35147333145142</t>
   </si>
   <si>
     <t xml:space="preserve">5.26092386245728</t>
@@ -2507,7 +2504,7 @@
     <t xml:space="preserve">5.2337589263916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26997852325439</t>
+    <t xml:space="preserve">5.26997900009155</t>
   </si>
   <si>
     <t xml:space="preserve">5.28808879852295</t>
@@ -2516,13 +2513,13 @@
     <t xml:space="preserve">5.12509918212891</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99833011627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70857191085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81723213195801</t>
+    <t xml:space="preserve">4.99833059310913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.708571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81723165512085</t>
   </si>
   <si>
     <t xml:space="preserve">4.9530553817749</t>
@@ -2534,10 +2531,10 @@
     <t xml:space="preserve">5.10698938369751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98927593231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08887958526611</t>
+    <t xml:space="preserve">4.98927545547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08888006210327</t>
   </si>
   <si>
     <t xml:space="preserve">6.02153968811035</t>
@@ -2546,25 +2543,25 @@
     <t xml:space="preserve">6.13019847869873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13925409317017</t>
+    <t xml:space="preserve">6.13925361633301</t>
   </si>
   <si>
     <t xml:space="preserve">6.11208915710449</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22074794769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22980308532715</t>
+    <t xml:space="preserve">6.22074842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22980260848999</t>
   </si>
   <si>
     <t xml:space="preserve">6.48334121704102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31129693984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36562728881836</t>
+    <t xml:space="preserve">6.31129741668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36562776565552</t>
   </si>
   <si>
     <t xml:space="preserve">6.41090154647827</t>
@@ -2573,7 +2570,7 @@
     <t xml:space="preserve">6.44712162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37468194961548</t>
+    <t xml:space="preserve">6.37468242645264</t>
   </si>
   <si>
     <t xml:space="preserve">6.42901134490967</t>
@@ -2591,22 +2588,22 @@
     <t xml:space="preserve">6.18452835083008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1754732131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10303354263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08492374420166</t>
+    <t xml:space="preserve">6.17547369003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10303401947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0849232673645</t>
   </si>
   <si>
     <t xml:space="preserve">6.05775880813599</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06681346893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03964900970459</t>
+    <t xml:space="preserve">6.06681394577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03964948654175</t>
   </si>
   <si>
     <t xml:space="preserve">6.03059434890747</t>
@@ -2615,16 +2612,16 @@
     <t xml:space="preserve">6.35657262802124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59200048446655</t>
+    <t xml:space="preserve">6.59200096130371</t>
   </si>
   <si>
     <t xml:space="preserve">6.4561767578125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40184736251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32940673828125</t>
+    <t xml:space="preserve">6.40184688568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32940721511841</t>
   </si>
   <si>
     <t xml:space="preserve">6.16641807556152</t>
@@ -2636,13 +2633,13 @@
     <t xml:space="preserve">6.24791288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33846235275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30224275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39279174804688</t>
+    <t xml:space="preserve">6.33846187591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30224227905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39279222488403</t>
   </si>
   <si>
     <t xml:space="preserve">6.61011123657227</t>
@@ -2654,16 +2651,16 @@
     <t xml:space="preserve">7.15340757369995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58804559707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69670343399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75103425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725433349609</t>
+    <t xml:space="preserve">7.58804607391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69670391082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75103330612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725385665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.84158325195312</t>
@@ -2672,13 +2669,13 @@
     <t xml:space="preserve">7.67859411239624</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46127605438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45222043991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32545137405396</t>
+    <t xml:space="preserve">7.46127557754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45222091674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32545185089111</t>
   </si>
   <si>
     <t xml:space="preserve">7.44316577911377</t>
@@ -2696,10 +2693,10 @@
     <t xml:space="preserve">7.36167097091675</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49749565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63331985473633</t>
+    <t xml:space="preserve">7.49749517440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63332080841064</t>
   </si>
   <si>
     <t xml:space="preserve">7.74197864532471</t>
@@ -2708,16 +2705,16 @@
     <t xml:space="preserve">7.73292398452759</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80536413192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66048431396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60615491867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31639671325684</t>
+    <t xml:space="preserve">7.80536317825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.660484790802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6061544418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31639623641968</t>
   </si>
   <si>
     <t xml:space="preserve">7.7691445350647</t>
@@ -2726,10 +2723,10 @@
     <t xml:space="preserve">7.83252859115601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92307710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09512233734131</t>
+    <t xml:space="preserve">7.92307806015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09512138366699</t>
   </si>
   <si>
     <t xml:space="preserve">8.35771465301514</t>
@@ -2744,19 +2741,19 @@
     <t xml:space="preserve">8.3396053314209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36676979064941</t>
+    <t xml:space="preserve">8.36677074432373</t>
   </si>
   <si>
     <t xml:space="preserve">8.14945220947266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24905586242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21283626556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.203782081604</t>
+    <t xml:space="preserve">8.24905490875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21283531188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20378112792969</t>
   </si>
   <si>
     <t xml:space="preserve">8.16756153106689</t>
@@ -2765,16 +2762,16 @@
     <t xml:space="preserve">8.24000072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30338668823242</t>
+    <t xml:space="preserve">8.30338573455811</t>
   </si>
   <si>
     <t xml:space="preserve">8.2309455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3124418258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55692291259766</t>
+    <t xml:space="preserve">8.31244087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55692481994629</t>
   </si>
   <si>
     <t xml:space="preserve">8.40298938751221</t>
@@ -2786,10 +2783,10 @@
     <t xml:space="preserve">8.5478687286377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68369293212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60219860076904</t>
+    <t xml:space="preserve">8.68369388580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60219764709473</t>
   </si>
   <si>
     <t xml:space="preserve">8.81951713562012</t>
@@ -2819,7 +2816,10 @@
     <t xml:space="preserve">8.48258972167969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59287452697754</t>
+    <t xml:space="preserve">8.59287357330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61125373840332</t>
   </si>
   <si>
     <t xml:space="preserve">8.79505825042725</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">8.93291282653809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83181953430176</t>
+    <t xml:space="preserve">8.83181858062744</t>
   </si>
   <si>
     <t xml:space="preserve">8.87777042388916</t>
@@ -2840,10 +2840,10 @@
     <t xml:space="preserve">8.85939025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64801502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67558479309082</t>
+    <t xml:space="preserve">8.64801406860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67558574676514</t>
   </si>
   <si>
     <t xml:space="preserve">8.68477535247803</t>
@@ -2858,16 +2858,16 @@
     <t xml:space="preserve">8.4366397857666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27121543884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31716537475586</t>
+    <t xml:space="preserve">8.27121448516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31716632843018</t>
   </si>
   <si>
     <t xml:space="preserve">8.24364471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20688247680664</t>
+    <t xml:space="preserve">8.20688343048096</t>
   </si>
   <si>
     <t xml:space="preserve">8.21607398986816</t>
@@ -2882,28 +2882,28 @@
     <t xml:space="preserve">7.90360593795776</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01388835906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94036626815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99550724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89441585540771</t>
+    <t xml:space="preserve">8.01388740539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94036674499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99550771713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89441537857056</t>
   </si>
   <si>
     <t xml:space="preserve">8.15174102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07821941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33554553985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46420955657959</t>
+    <t xml:space="preserve">8.07822036743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33554649353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46421051025391</t>
   </si>
   <si>
     <t xml:space="preserve">8.32635688781738</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">8.28959560394287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65720462799072</t>
+    <t xml:space="preserve">8.65720558166504</t>
   </si>
   <si>
     <t xml:space="preserve">8.55611228942871</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">8.4734001159668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81343936920166</t>
+    <t xml:space="preserve">8.81343841552734</t>
   </si>
   <si>
     <t xml:space="preserve">8.95129203796387</t>
@@ -2960,10 +2960,10 @@
     <t xml:space="preserve">8.72153663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66639614105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41825866699219</t>
+    <t xml:space="preserve">8.66639518737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4182596206665</t>
   </si>
   <si>
     <t xml:space="preserve">8.36311721801758</t>
@@ -2981,13 +2981,13 @@
     <t xml:space="preserve">8.17931175231934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04145812988281</t>
+    <t xml:space="preserve">8.04145908355713</t>
   </si>
   <si>
     <t xml:space="preserve">7.71980047225952</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78413200378418</t>
+    <t xml:space="preserve">7.78413248062134</t>
   </si>
   <si>
     <t xml:space="preserve">7.72899103164673</t>
@@ -2996,22 +2996,22 @@
     <t xml:space="preserve">7.70142078399658</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81170225143433</t>
+    <t xml:space="preserve">7.81170272827148</t>
   </si>
   <si>
     <t xml:space="preserve">7.83008337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8760347366333</t>
+    <t xml:space="preserve">7.87603521347046</t>
   </si>
   <si>
     <t xml:space="preserve">7.92198610305786</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86684465408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09660053253174</t>
+    <t xml:space="preserve">7.86684417724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09660148620605</t>
   </si>
   <si>
     <t xml:space="preserve">8.39068698883057</t>
@@ -3026,19 +3026,19 @@
     <t xml:space="preserve">8.5469217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34473705291748</t>
+    <t xml:space="preserve">8.34473609924316</t>
   </si>
   <si>
     <t xml:space="preserve">8.18850231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95874643325806</t>
+    <t xml:space="preserve">7.95874691009521</t>
   </si>
   <si>
     <t xml:space="preserve">7.84846353530884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76575136184692</t>
+    <t xml:space="preserve">7.76575183868408</t>
   </si>
   <si>
     <t xml:space="preserve">7.52680492401123</t>
@@ -3047,10 +3047,10 @@
     <t xml:space="preserve">7.48085451126099</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5176157951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6095175743103</t>
+    <t xml:space="preserve">7.51761531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60951709747314</t>
   </si>
   <si>
     <t xml:space="preserve">7.50842523574829</t>
@@ -3059,10 +3059,10 @@
     <t xml:space="preserve">7.49923467636108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59113740921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80251216888428</t>
+    <t xml:space="preserve">7.59113788604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80251264572144</t>
   </si>
   <si>
     <t xml:space="preserve">7.61870765686035</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">7.54518604278564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47166395187378</t>
+    <t xml:space="preserve">7.47166442871094</t>
   </si>
   <si>
     <t xml:space="preserve">7.41652250289917</t>
@@ -3089,16 +3089,16 @@
     <t xml:space="preserve">7.69222927093506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79332208633423</t>
+    <t xml:space="preserve">7.79332160949707</t>
   </si>
   <si>
     <t xml:space="preserve">7.77494192123413</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68303871154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67384910583496</t>
+    <t xml:space="preserve">7.68303918838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67384958267212</t>
   </si>
   <si>
     <t xml:space="preserve">7.46247386932373</t>
@@ -3110,10 +3110,10 @@
     <t xml:space="preserve">7.60032796859741</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10405492782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06729412078857</t>
+    <t xml:space="preserve">7.10405445098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06729364395142</t>
   </si>
   <si>
     <t xml:space="preserve">7.16838645935059</t>
@@ -3122,13 +3122,13 @@
     <t xml:space="preserve">7.03053283691406</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15000629425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2694787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26028871536255</t>
+    <t xml:space="preserve">7.15000581741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26947832107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26028919219971</t>
   </si>
   <si>
     <t xml:space="preserve">7.08567428588867</t>
@@ -3161,10 +3161,10 @@
     <t xml:space="preserve">7.21433734893799</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9386305809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87429809570312</t>
+    <t xml:space="preserve">6.93863010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87429857254028</t>
   </si>
   <si>
     <t xml:space="preserve">6.80077695846558</t>
@@ -3176,19 +3176,19 @@
     <t xml:space="preserve">6.72725486755371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54344987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45154762268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25855255126953</t>
+    <t xml:space="preserve">6.54345035552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45154809951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25855207443237</t>
   </si>
   <si>
     <t xml:space="preserve">5.97365522384644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95527505874634</t>
+    <t xml:space="preserve">5.95527458190918</t>
   </si>
   <si>
     <t xml:space="preserve">6.12988948822021</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">6.47911834716797</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3596453666687</t>
+    <t xml:space="preserve">6.35964584350586</t>
   </si>
   <si>
     <t xml:space="preserve">6.59859085083008</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">6.14826965332031</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24017190933228</t>
+    <t xml:space="preserve">6.24017238616943</t>
   </si>
   <si>
     <t xml:space="preserve">6.24936246871948</t>
@@ -3245,22 +3245,22 @@
     <t xml:space="preserve">6.4239764213562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29531383514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96446514129639</t>
+    <t xml:space="preserve">6.29531335830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96446466445923</t>
   </si>
   <si>
     <t xml:space="preserve">5.98284578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03798723220825</t>
+    <t xml:space="preserve">6.03798675537109</t>
   </si>
   <si>
     <t xml:space="preserve">6.01041603088379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05636787414551</t>
+    <t xml:space="preserve">6.05636739730835</t>
   </si>
   <si>
     <t xml:space="preserve">6.00122594833374</t>
@@ -3281,13 +3281,13 @@
     <t xml:space="preserve">6.0655574798584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13907957077026</t>
+    <t xml:space="preserve">6.13907909393311</t>
   </si>
   <si>
     <t xml:space="preserve">6.11150932312012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08393812179565</t>
+    <t xml:space="preserve">6.0839376449585</t>
   </si>
   <si>
     <t xml:space="preserve">6.0931282043457</t>
@@ -27308,7 +27308,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G871" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27334,7 +27334,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G872" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27360,7 +27360,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27386,7 +27386,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27412,7 +27412,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G875" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27438,7 +27438,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G876" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27464,7 +27464,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27490,7 +27490,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G878" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27516,7 +27516,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G879" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27542,7 +27542,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27568,7 +27568,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G881" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27594,7 +27594,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G882" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27620,7 +27620,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G883" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27646,7 +27646,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G884" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27672,7 +27672,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G885" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27698,7 +27698,7 @@
         <v>6.25</v>
       </c>
       <c r="G886" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27724,7 +27724,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G887" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27750,7 +27750,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G888" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27776,7 +27776,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27802,7 +27802,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G890" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27828,7 +27828,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G891" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27854,7 +27854,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G892" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27880,7 +27880,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G893" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27906,7 +27906,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G894" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27932,7 +27932,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G895" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27958,7 +27958,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G896" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27984,7 +27984,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G897" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28010,7 +28010,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G898" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28036,7 +28036,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G899" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28062,7 +28062,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G900" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28088,7 +28088,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G901" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28114,7 +28114,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G902" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28140,7 +28140,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G903" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28166,7 +28166,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G904" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28192,7 +28192,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G905" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28218,7 +28218,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28244,7 +28244,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G907" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28270,7 +28270,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G908" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28296,7 +28296,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G909" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28322,7 +28322,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G910" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28348,7 +28348,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G911" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28374,7 +28374,7 @@
         <v>6.25</v>
       </c>
       <c r="G912" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28400,7 +28400,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G913" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28426,7 +28426,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28452,7 +28452,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G915" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28478,7 +28478,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G916" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28504,7 +28504,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G917" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28556,7 +28556,7 @@
         <v>6</v>
       </c>
       <c r="G919" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28582,7 +28582,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G920" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28608,7 +28608,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28634,7 +28634,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G922" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28660,7 +28660,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G923" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28686,7 +28686,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G924" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28738,7 +28738,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G926" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28790,7 +28790,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G928" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28816,7 +28816,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G929" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28842,7 +28842,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28868,7 +28868,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G931" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28920,7 +28920,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G933" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28972,7 +28972,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28998,7 +28998,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G936" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29024,7 +29024,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G937" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29050,7 +29050,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G938" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29076,7 +29076,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29102,7 +29102,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G940" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29128,7 +29128,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29154,7 +29154,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29180,7 +29180,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G943" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29206,7 +29206,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G944" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29232,7 +29232,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G945" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29258,7 +29258,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G946" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29284,7 +29284,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G947" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29310,7 +29310,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G948" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29336,7 +29336,7 @@
         <v>6</v>
       </c>
       <c r="G949" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29362,7 +29362,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29388,7 +29388,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G951" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29414,7 +29414,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G952" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29440,7 +29440,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G953" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29466,7 +29466,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G954" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29518,7 +29518,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G956" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29544,7 +29544,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29570,7 +29570,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G958" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29596,7 +29596,7 @@
         <v>5.82299995422363</v>
       </c>
       <c r="G959" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29622,7 +29622,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G960" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29648,7 +29648,7 @@
         <v>5.9539999961853</v>
       </c>
       <c r="G961" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29674,7 +29674,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G962" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29700,7 +29700,7 @@
         <v>6.01900005340576</v>
       </c>
       <c r="G963" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29726,7 +29726,7 @@
         <v>6</v>
       </c>
       <c r="G964" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29752,7 +29752,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G965" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29778,7 +29778,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G966" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29804,7 +29804,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G967" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29830,7 +29830,7 @@
         <v>6.17700004577637</v>
       </c>
       <c r="G968" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29856,7 +29856,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G969" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29882,7 +29882,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G970" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29908,7 +29908,7 @@
         <v>6.13100004196167</v>
       </c>
       <c r="G971" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29934,7 +29934,7 @@
         <v>6.08699989318848</v>
       </c>
       <c r="G972" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29960,7 +29960,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G973" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29986,7 +29986,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G974" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30012,7 +30012,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G975" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30038,7 +30038,7 @@
         <v>6.0310001373291</v>
       </c>
       <c r="G976" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30064,7 +30064,7 @@
         <v>6.17399978637695</v>
       </c>
       <c r="G977" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30090,7 +30090,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G978" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30116,7 +30116,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G979" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30142,7 +30142,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G980" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30168,7 +30168,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G981" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30194,7 +30194,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G982" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30220,7 +30220,7 @@
         <v>6.37599992752075</v>
       </c>
       <c r="G983" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30246,7 +30246,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G984" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30272,7 +30272,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G985" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30298,7 +30298,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G986" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30324,7 +30324,7 @@
         <v>6.37400007247925</v>
       </c>
       <c r="G987" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30350,7 +30350,7 @@
         <v>6.31199979782104</v>
       </c>
       <c r="G988" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30376,7 +30376,7 @@
         <v>6.26599979400635</v>
       </c>
       <c r="G989" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30402,7 +30402,7 @@
         <v>6.31799983978271</v>
       </c>
       <c r="G990" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30428,7 +30428,7 @@
         <v>6.29099988937378</v>
       </c>
       <c r="G991" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30454,7 +30454,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G992" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30480,7 +30480,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G993" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30506,7 +30506,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G994" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30532,7 +30532,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G995" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30558,7 +30558,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G996" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30584,7 +30584,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G997" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30610,7 +30610,7 @@
         <v>6.86899995803833</v>
       </c>
       <c r="G998" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30636,7 +30636,7 @@
         <v>6.66699981689453</v>
       </c>
       <c r="G999" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30662,7 +30662,7 @@
         <v>6.68200016021729</v>
       </c>
       <c r="G1000" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30688,7 +30688,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G1001" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30714,7 +30714,7 @@
         <v>6.63399982452393</v>
       </c>
       <c r="G1002" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30740,7 +30740,7 @@
         <v>6.63199996948242</v>
       </c>
       <c r="G1003" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30766,7 +30766,7 @@
         <v>6.71400022506714</v>
       </c>
       <c r="G1004" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30792,7 +30792,7 @@
         <v>6.82399988174438</v>
       </c>
       <c r="G1005" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30818,7 +30818,7 @@
         <v>6.85599994659424</v>
       </c>
       <c r="G1006" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30844,7 +30844,7 @@
         <v>6.86499977111816</v>
       </c>
       <c r="G1007" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30870,7 +30870,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1008" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30896,7 +30896,7 @@
         <v>6.84800004959106</v>
       </c>
       <c r="G1009" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30922,7 +30922,7 @@
         <v>6.76399993896484</v>
       </c>
       <c r="G1010" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30948,7 +30948,7 @@
         <v>6.76700019836426</v>
       </c>
       <c r="G1011" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30974,7 +30974,7 @@
         <v>6.56400012969971</v>
       </c>
       <c r="G1012" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31000,7 +31000,7 @@
         <v>6.62400007247925</v>
       </c>
       <c r="G1013" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31026,7 +31026,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1014" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31052,7 +31052,7 @@
         <v>6.72399997711182</v>
       </c>
       <c r="G1015" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31078,7 +31078,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G1016" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31104,7 +31104,7 @@
         <v>6.59299993515015</v>
       </c>
       <c r="G1017" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31130,7 +31130,7 @@
         <v>6.44199991226196</v>
       </c>
       <c r="G1018" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31156,7 +31156,7 @@
         <v>6.65100002288818</v>
       </c>
       <c r="G1019" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31182,7 +31182,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1020" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31208,7 +31208,7 @@
         <v>6.6560001373291</v>
       </c>
       <c r="G1021" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31234,7 +31234,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G1022" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31260,7 +31260,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1023" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31286,7 +31286,7 @@
         <v>6.58400011062622</v>
       </c>
       <c r="G1024" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31312,7 +31312,7 @@
         <v>6.57800006866455</v>
       </c>
       <c r="G1025" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31338,7 +31338,7 @@
         <v>6.50400018692017</v>
       </c>
       <c r="G1026" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31364,7 +31364,7 @@
         <v>6.65500020980835</v>
       </c>
       <c r="G1027" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31390,7 +31390,7 @@
         <v>6.53800010681152</v>
       </c>
       <c r="G1028" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31416,7 +31416,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1029" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31442,7 +31442,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G1030" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31468,7 +31468,7 @@
         <v>6.5</v>
       </c>
       <c r="G1031" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31494,7 +31494,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1032" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31520,7 +31520,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G1033" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31546,7 +31546,7 @@
         <v>6.5</v>
       </c>
       <c r="G1034" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31572,7 +31572,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1035" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31598,7 +31598,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1036" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31624,7 +31624,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1037" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31650,7 +31650,7 @@
         <v>6.45300006866455</v>
       </c>
       <c r="G1038" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31676,7 +31676,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G1039" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31702,7 +31702,7 @@
         <v>6.61600017547607</v>
       </c>
       <c r="G1040" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31728,7 +31728,7 @@
         <v>6.48799991607666</v>
       </c>
       <c r="G1041" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31754,7 +31754,7 @@
         <v>6.47900009155273</v>
       </c>
       <c r="G1042" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31780,7 +31780,7 @@
         <v>6.53200006484985</v>
       </c>
       <c r="G1043" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31806,7 +31806,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G1044" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31832,7 +31832,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1045" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31858,7 +31858,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1046" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31884,7 +31884,7 @@
         <v>6.74900007247925</v>
       </c>
       <c r="G1047" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31910,7 +31910,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1048" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31936,7 +31936,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1049" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31962,7 +31962,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31988,7 +31988,7 @@
         <v>6.60300016403198</v>
       </c>
       <c r="G1051" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32014,7 +32014,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1052" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32040,7 +32040,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G1053" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32066,7 +32066,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G1054" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32092,7 +32092,7 @@
         <v>6.19600009918213</v>
       </c>
       <c r="G1055" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32118,7 +32118,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G1056" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32144,7 +32144,7 @@
         <v>5.82399988174438</v>
       </c>
       <c r="G1057" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32196,7 +32196,7 @@
         <v>5.95599985122681</v>
       </c>
       <c r="G1059" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32222,7 +32222,7 @@
         <v>5.98600006103516</v>
       </c>
       <c r="G1060" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32248,7 +32248,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1061" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32274,7 +32274,7 @@
         <v>5.54199981689453</v>
       </c>
       <c r="G1062" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32300,7 +32300,7 @@
         <v>4.90350008010864</v>
       </c>
       <c r="G1063" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32326,7 +32326,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G1064" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32352,7 +32352,7 @@
         <v>4.97700023651123</v>
       </c>
       <c r="G1065" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32378,7 +32378,7 @@
         <v>4.55849981307983</v>
       </c>
       <c r="G1066" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32404,7 +32404,7 @@
         <v>4.75</v>
       </c>
       <c r="G1067" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32430,7 +32430,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1068" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32456,7 +32456,7 @@
         <v>4.75</v>
       </c>
       <c r="G1069" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32482,7 +32482,7 @@
         <v>4.36149978637695</v>
       </c>
       <c r="G1070" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32508,7 +32508,7 @@
         <v>4.5</v>
       </c>
       <c r="G1071" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32534,7 +32534,7 @@
         <v>4.82499980926514</v>
       </c>
       <c r="G1072" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32560,7 +32560,7 @@
         <v>4.41849994659424</v>
       </c>
       <c r="G1073" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32586,7 +32586,7 @@
         <v>4.59299993515015</v>
       </c>
       <c r="G1074" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32612,7 +32612,7 @@
         <v>4.70300006866455</v>
       </c>
       <c r="G1075" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32638,7 +32638,7 @@
         <v>4.93849992752075</v>
       </c>
       <c r="G1076" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32664,7 +32664,7 @@
         <v>4.75799989700317</v>
       </c>
       <c r="G1077" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32690,7 +32690,7 @@
         <v>4.6875</v>
       </c>
       <c r="G1078" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32716,7 +32716,7 @@
         <v>4.91900014877319</v>
       </c>
       <c r="G1079" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32742,7 +32742,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G1080" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32768,7 +32768,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1081" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32794,7 +32794,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G1082" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32820,7 +32820,7 @@
         <v>5</v>
       </c>
       <c r="G1083" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32846,7 +32846,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1084" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32872,7 +32872,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32898,7 +32898,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1086" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32924,7 +32924,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1087" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32950,7 +32950,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1088" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32976,7 +32976,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1089" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33002,7 +33002,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1090" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33028,7 +33028,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33054,7 +33054,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1092" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33080,7 +33080,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1093" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33106,7 +33106,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33132,7 +33132,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1095" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33158,7 +33158,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33184,7 +33184,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33210,7 +33210,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G1098" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33236,7 +33236,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1099" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33262,7 +33262,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33288,7 +33288,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1101" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33314,7 +33314,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1102" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33340,7 +33340,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1103" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33366,7 +33366,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1104" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33392,7 +33392,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1105" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33418,7 +33418,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1106" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33444,7 +33444,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1107" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33470,7 +33470,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1108" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33496,7 +33496,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1109" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33522,7 +33522,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1110" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33548,7 +33548,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1111" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33574,7 +33574,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1112" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33600,7 +33600,7 @@
         <v>5.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33626,7 +33626,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1114" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33652,7 +33652,7 @@
         <v>5.75</v>
       </c>
       <c r="G1115" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33678,7 +33678,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1116" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33704,7 +33704,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1117" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33730,7 +33730,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33756,7 +33756,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1119" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33782,7 +33782,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1120" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33808,7 +33808,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1121" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33834,7 +33834,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1122" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33860,7 +33860,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1123" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33886,7 +33886,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1124" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33912,7 +33912,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G1125" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33938,7 +33938,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1126" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33964,7 +33964,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1127" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33990,7 +33990,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1128" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34016,7 +34016,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1129" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34042,7 +34042,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1130" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34068,7 +34068,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1131" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34094,7 +34094,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1132" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34120,7 +34120,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34146,7 +34146,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G1134" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34172,7 +34172,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1135" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34198,7 +34198,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1136" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34224,7 +34224,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1137" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34250,7 +34250,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1138" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34276,7 +34276,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1139" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34302,7 +34302,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1140" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34328,7 +34328,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1141" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34354,7 +34354,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G1142" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34380,7 +34380,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1143" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34406,7 +34406,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34432,7 +34432,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1145" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34458,7 +34458,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1146" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34484,7 +34484,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1147" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34510,7 +34510,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1148" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34536,7 +34536,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1149" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34562,7 +34562,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1150" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34588,7 +34588,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1151" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34614,7 +34614,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1152" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34640,7 +34640,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34666,7 +34666,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1154" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34692,7 +34692,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34718,7 +34718,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1156" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34744,7 +34744,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1157" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34770,7 +34770,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1158" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34796,7 +34796,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1159" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34822,7 +34822,7 @@
         <v>5.75</v>
       </c>
       <c r="G1160" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34848,7 +34848,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1161" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34874,7 +34874,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34900,7 +34900,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34926,7 +34926,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1164" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34952,7 +34952,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1165" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34978,7 +34978,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1166" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35004,7 +35004,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1167" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35030,7 +35030,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1168" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35056,7 +35056,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1169" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35082,7 +35082,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1170" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35108,7 +35108,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1171" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35134,7 +35134,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35160,7 +35160,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1173" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35186,7 +35186,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1174" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35212,7 +35212,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1175" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35238,7 +35238,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1176" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35264,7 +35264,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1177" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35290,7 +35290,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35316,7 +35316,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1179" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35342,7 +35342,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1180" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35368,7 +35368,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1181" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35394,7 +35394,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1182" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35420,7 +35420,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G1183" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35446,7 +35446,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1184" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35472,7 +35472,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1185" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35498,7 +35498,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1186" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35524,7 +35524,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1187" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35550,7 +35550,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1188" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35576,7 +35576,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35602,7 +35602,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1190" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35628,7 +35628,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1191" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35654,7 +35654,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1192" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35680,7 +35680,7 @@
         <v>6</v>
       </c>
       <c r="G1193" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35706,7 +35706,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1194" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35732,7 +35732,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35758,7 +35758,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35784,7 +35784,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1197" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35810,7 +35810,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1198" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35836,7 +35836,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1199" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35862,7 +35862,7 @@
         <v>6</v>
       </c>
       <c r="G1200" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35888,7 +35888,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35914,7 +35914,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1202" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35940,7 +35940,7 @@
         <v>6</v>
       </c>
       <c r="G1203" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35966,7 +35966,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1204" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35992,7 +35992,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1205" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -36018,7 +36018,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1206" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -36044,7 +36044,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1207" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -36070,7 +36070,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1208" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -36096,7 +36096,7 @@
         <v>5.75</v>
       </c>
       <c r="G1209" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -36122,7 +36122,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1210" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -36148,7 +36148,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1211" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -36174,7 +36174,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1212" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -36200,7 +36200,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1213" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -36226,7 +36226,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1214" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -36252,7 +36252,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G1215" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -36278,7 +36278,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -36304,7 +36304,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1217" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -36330,7 +36330,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1218" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -36356,7 +36356,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1219" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36382,7 +36382,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1220" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36408,7 +36408,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1221" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36434,7 +36434,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36460,7 +36460,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1223" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36486,7 +36486,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1224" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36512,7 +36512,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1225" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36538,7 +36538,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1226" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36564,7 +36564,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1227" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36590,7 +36590,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1228" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36616,7 +36616,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1229" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36642,7 +36642,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1230" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36668,7 +36668,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1231" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36694,7 +36694,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1232" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36720,7 +36720,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1233" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36746,7 +36746,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1234" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36772,7 +36772,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1235" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36798,7 +36798,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36824,7 +36824,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1237" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36850,7 +36850,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1238" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36876,7 +36876,7 @@
         <v>6.75</v>
       </c>
       <c r="G1239" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36902,7 +36902,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1240" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36928,7 +36928,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1241" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36954,7 +36954,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1242" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36980,7 +36980,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1243" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -37006,7 +37006,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1244" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -37032,7 +37032,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1245" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -37058,7 +37058,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1246" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -37084,7 +37084,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -37110,7 +37110,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1248" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37136,7 +37136,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1249" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -37162,7 +37162,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1250" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -37188,7 +37188,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1251" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37214,7 +37214,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1252" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -37240,7 +37240,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1253" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -37266,7 +37266,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37292,7 +37292,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1255" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -37318,7 +37318,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1256" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -37344,7 +37344,7 @@
         <v>6.75</v>
       </c>
       <c r="G1257" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -37370,7 +37370,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1258" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37396,7 +37396,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1259" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37422,7 +37422,7 @@
         <v>6.75</v>
       </c>
       <c r="G1260" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37448,7 +37448,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1261" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37474,7 +37474,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1262" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37500,7 +37500,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1263" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37526,7 +37526,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37552,7 +37552,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1265" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37578,7 +37578,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1266" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37604,7 +37604,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1267" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37630,7 +37630,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1268" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37656,7 +37656,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1269" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37682,7 +37682,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1270" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37708,7 +37708,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1271" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37734,7 +37734,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37760,7 +37760,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1273" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37786,7 +37786,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1274" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37812,7 +37812,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1275" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37838,7 +37838,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1276" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37864,7 +37864,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1277" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37890,7 +37890,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G1278" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37916,7 +37916,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1279" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37942,7 +37942,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1280" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37968,7 +37968,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1281" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37994,7 +37994,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1282" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38020,7 +38020,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1283" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -38046,7 +38046,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G1284" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -38072,7 +38072,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1285" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -38098,7 +38098,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1286" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38124,7 +38124,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G1287" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -38150,7 +38150,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1288" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38176,7 +38176,7 @@
         <v>7</v>
       </c>
       <c r="G1289" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38202,7 +38202,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1290" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -38228,7 +38228,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1291" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -38254,7 +38254,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1292" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -38280,7 +38280,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1293" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -38306,7 +38306,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1294" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -38332,7 +38332,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1295" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -38358,7 +38358,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1296" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38384,7 +38384,7 @@
         <v>8.5</v>
       </c>
       <c r="G1297" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38410,7 +38410,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1298" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38436,7 +38436,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1299" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38462,7 +38462,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1300" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38488,7 +38488,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1301" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38514,7 +38514,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1302" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38540,7 +38540,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1303" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38566,7 +38566,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1304" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38592,7 +38592,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1305" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38618,7 +38618,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1306" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38644,7 +38644,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1307" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38670,7 +38670,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1308" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38696,7 +38696,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1309" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38722,7 +38722,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1310" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38748,7 +38748,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1311" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38774,7 +38774,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1312" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38800,7 +38800,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1313" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38826,7 +38826,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1314" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38852,7 +38852,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1315" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38878,7 +38878,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1316" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38904,7 +38904,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1317" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38930,7 +38930,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1318" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38956,7 +38956,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1319" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38982,7 +38982,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1320" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -39008,7 +39008,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1321" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39034,7 +39034,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1322" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -39060,7 +39060,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -39086,7 +39086,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1324" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -39112,7 +39112,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1325" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -39138,7 +39138,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1326" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -39164,7 +39164,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1327" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -39190,7 +39190,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1328" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -39216,7 +39216,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1329" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -39242,7 +39242,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1330" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -39268,7 +39268,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1331" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -39294,7 +39294,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1332" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -39320,7 +39320,7 @@
         <v>8.75</v>
       </c>
       <c r="G1333" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -39346,7 +39346,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1334" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -39372,7 +39372,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1335" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -39398,7 +39398,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39424,7 +39424,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1337" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39450,7 +39450,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1338" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39476,7 +39476,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1339" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39502,7 +39502,7 @@
         <v>9</v>
       </c>
       <c r="G1340" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39528,7 +39528,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1341" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39554,7 +39554,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G1342" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39580,7 +39580,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G1343" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39606,7 +39606,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1344" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39632,7 +39632,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G1345" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39658,7 +39658,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1346" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39684,7 +39684,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1347" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39710,7 +39710,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1348" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39736,7 +39736,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G1349" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39762,7 +39762,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1350" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39788,7 +39788,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1351" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39814,7 +39814,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1352" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39840,7 +39840,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1353" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39866,7 +39866,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1354" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39892,7 +39892,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1355" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39918,7 +39918,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1356" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39944,7 +39944,7 @@
         <v>9.5</v>
       </c>
       <c r="G1357" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39970,7 +39970,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1358" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39996,7 +39996,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G1359" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -40022,7 +40022,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1360" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -40048,7 +40048,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1361" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -40074,7 +40074,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1362" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -40100,7 +40100,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1363" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -40126,7 +40126,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1364" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -40152,7 +40152,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1365" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -40178,7 +40178,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1366" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -40204,7 +40204,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1367" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -40230,7 +40230,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1368" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -40256,7 +40256,7 @@
         <v>9.5</v>
       </c>
       <c r="G1369" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -40282,7 +40282,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1370" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -40308,7 +40308,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1371" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -40334,7 +40334,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1372" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -40360,7 +40360,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1373" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -40386,7 +40386,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1374" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -40698,7 +40698,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1386" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -41530,7 +41530,7 @@
         <v>9.5</v>
       </c>
       <c r="G1418" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41712,7 +41712,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1425" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41816,7 +41816,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1429" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41842,7 +41842,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1430" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41972,7 +41972,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1435" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -42206,7 +42206,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1444" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -61142,7 +61142,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6495023148</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>70631</v>
@@ -61163,6 +61163,32 @@
         <v>1414</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6496412037</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>59306</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>10.3800001144409</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>10.3800001144409</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>10.2200002670288</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7980055809021</t>
+    <t xml:space="preserve">4.79800653457642</t>
   </si>
   <si>
     <t xml:space="preserve">CEM.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">4.77356815338135</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64730501174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806348800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41514301300049</t>
+    <t xml:space="preserve">4.64730548858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806301116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41514348983765</t>
   </si>
   <si>
     <t xml:space="preserve">4.30517148971558</t>
@@ -62,70 +62,70 @@
     <t xml:space="preserve">4.41107034683228</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37441253662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37848615646362</t>
+    <t xml:space="preserve">4.37441301345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37848567962646</t>
   </si>
   <si>
     <t xml:space="preserve">4.14225149154663</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01435947418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05345964431763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74879884719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91171836853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02739191055298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95733690261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99480867385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95570778846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82048344612122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01272964477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95082020759583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81233716011047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64941763877869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67059707641602</t>
+    <t xml:space="preserve">4.01435899734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05345916748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74879860877991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91171956062317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02739286422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95733618736267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99480891227722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95570707321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82048392295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01273059844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95081996917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81233763694763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64941740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67059659957886</t>
   </si>
   <si>
     <t xml:space="preserve">3.69177651405334</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41807055473328</t>
+    <t xml:space="preserve">3.41807079315186</t>
   </si>
   <si>
     <t xml:space="preserve">3.21279048919678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31543064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19323992729187</t>
+    <t xml:space="preserve">3.31543040275574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19324016571045</t>
   </si>
   <si>
     <t xml:space="preserve">3.2730712890625</t>
@@ -137,160 +137,160 @@
     <t xml:space="preserve">3.42947506904602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54514837265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62497901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41318249702454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45880007743835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4343626499176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30402612686157</t>
+    <t xml:space="preserve">3.54514861106873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62497925758362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41318273544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45879983901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43436241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30402636528015</t>
   </si>
   <si>
     <t xml:space="preserve">3.35778999328613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47020530700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65756320953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70643949508667</t>
+    <t xml:space="preserve">3.47020554542542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65756297111511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70643997192383</t>
   </si>
   <si>
     <t xml:space="preserve">3.62660837173462</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71621513366699</t>
+    <t xml:space="preserve">3.71621441841125</t>
   </si>
   <si>
     <t xml:space="preserve">3.63149619102478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.59076595306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795740127563</t>
+    <t xml:space="preserve">3.59076642990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56795763969421</t>
   </si>
   <si>
     <t xml:space="preserve">3.59565305709839</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62009167671204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82700061798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68526005744934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82862973213196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90846037864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74391078948975</t>
+    <t xml:space="preserve">3.62009119987488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82700133323669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68525981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8286292552948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90846061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74391174316406</t>
   </si>
   <si>
     <t xml:space="preserve">3.78138279914856</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73087739944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5875072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64127063751221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5793616771698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61357498168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65104603767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52070999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47835087776184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44250822067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67222571372986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55492353439331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61520409584045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66733860969543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85469627380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81885504722595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93452835083008</t>
+    <t xml:space="preserve">3.73087763786316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58750772476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64127111434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936143875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61357474327087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65104627609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52071022987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47835063934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44250798225403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67222595214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55492305755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61520457267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66733813285828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85469698905945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81885433197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9345281124115</t>
   </si>
   <si>
     <t xml:space="preserve">3.81396651268005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82374215126038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7797532081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76672029495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75042819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87261819839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73902368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77486562728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69829368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74716973304749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71458530426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60054087638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52722716331482</t>
+    <t xml:space="preserve">3.82374238967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77975368499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76671981811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75042796134949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87261867523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73902320861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7748658657074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69829273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74716949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71458554267883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60054111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52722644805908</t>
   </si>
   <si>
     <t xml:space="preserve">3.54351902008057</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">3.6022744178772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69399905204773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83241987228394</t>
+    <t xml:space="preserve">3.69399857521057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83242058753967</t>
   </si>
   <si>
     <t xml:space="preserve">3.83575487136841</t>
@@ -314,25 +314,25 @@
     <t xml:space="preserve">3.96083450317383</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85243201255798</t>
+    <t xml:space="preserve">3.85243153572083</t>
   </si>
   <si>
     <t xml:space="preserve">3.82908463478088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77905249595642</t>
+    <t xml:space="preserve">3.779052734375</t>
   </si>
   <si>
     <t xml:space="preserve">3.7423632144928</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6689829826355</t>
+    <t xml:space="preserve">3.66898322105408</t>
   </si>
   <si>
     <t xml:space="preserve">3.65564155578613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62729024887085</t>
+    <t xml:space="preserve">3.62729001045227</t>
   </si>
   <si>
     <t xml:space="preserve">3.45384764671326</t>
@@ -341,19 +341,19 @@
     <t xml:space="preserve">3.37713217735291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36379027366638</t>
+    <t xml:space="preserve">3.36379051208496</t>
   </si>
   <si>
     <t xml:space="preserve">3.2603919506073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22203421592712</t>
+    <t xml:space="preserve">3.2220344543457</t>
   </si>
   <si>
     <t xml:space="preserve">3.06693649291992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21703147888184</t>
+    <t xml:space="preserve">3.21703100204468</t>
   </si>
   <si>
     <t xml:space="preserve">3.09528779983521</t>
@@ -362,37 +362,37 @@
     <t xml:space="preserve">3.28707528114319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41882538795471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16866731643677</t>
+    <t xml:space="preserve">3.41882514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16866707801819</t>
   </si>
   <si>
     <t xml:space="preserve">2.88515520095825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87681651115417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89682912826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99355697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1036262512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01690483093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85180044174194</t>
+    <t xml:space="preserve">2.8768162727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8968288898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9935564994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10362601280212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0169050693512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85180020332336</t>
   </si>
   <si>
     <t xml:space="preserve">2.81844615936279</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82344913482666</t>
+    <t xml:space="preserve">2.82344937324524</t>
   </si>
   <si>
     <t xml:space="preserve">2.90516757965088</t>
@@ -401,34 +401,34 @@
     <t xml:space="preserve">2.93518662452698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10195851325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06026554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27540135383606</t>
+    <t xml:space="preserve">3.10195827484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06026601791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27540159225464</t>
   </si>
   <si>
     <t xml:space="preserve">3.19535088539124</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13698053359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03358173370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17033553123474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03524971008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98688578605652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23871183395386</t>
+    <t xml:space="preserve">3.13698077201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03358197212219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17033505439758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03524994850159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9868860244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23871159553528</t>
   </si>
   <si>
     <t xml:space="preserve">3.24371480941772</t>
@@ -437,25 +437,25 @@
     <t xml:space="preserve">3.21869874000549</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2520534992218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16032886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18367695808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08528137207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17867374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30208516120911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34544587135315</t>
+    <t xml:space="preserve">3.25205326080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16032838821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18367671966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08528161048889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17867350578308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30208492279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34544563293457</t>
   </si>
   <si>
     <t xml:space="preserve">3.38880658149719</t>
@@ -464,40 +464,40 @@
     <t xml:space="preserve">3.50387907028198</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47386026382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53556537628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50554656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51722049713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75236964225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71901488304138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239392280579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76904606819153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81907820701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92914772033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8841187953949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89912819862366</t>
+    <t xml:space="preserve">3.47385954856873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53556561470032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5055468082428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51722073554993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75236916542053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7190146446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239463806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76904582977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81907773017883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92914700508118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88411951065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89912843704224</t>
   </si>
   <si>
     <t xml:space="preserve">3.87911558151245</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">3.81740999221802</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69566679000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63729691505432</t>
+    <t xml:space="preserve">3.69566655158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63729667663574</t>
   </si>
   <si>
     <t xml:space="preserve">3.54390430450439</t>
@@ -518,28 +518,28 @@
     <t xml:space="preserve">3.5855975151062</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73235678672791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67732214927673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61561560630798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72068214416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71734738349915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45551538467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55224347114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52222418785095</t>
+    <t xml:space="preserve">3.73235654830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67732167243958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61561632156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72068238258362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71734714508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45551490783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55224323272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52222371101379</t>
   </si>
   <si>
     <t xml:space="preserve">3.50221109390259</t>
@@ -548,106 +548,106 @@
     <t xml:space="preserve">3.57725834846497</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63562846183777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62562251091003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63396072387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391097068787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61394834518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69733476638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66231179237366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71401143074036</t>
+    <t xml:space="preserve">3.63562941551208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62562227249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63396096229553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391025543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61394882202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69733428955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66231226921082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71401166915894</t>
   </si>
   <si>
     <t xml:space="preserve">3.762375831604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73402452468872</t>
+    <t xml:space="preserve">3.7340247631073</t>
   </si>
   <si>
     <t xml:space="preserve">3.76070809364319</t>
   </si>
   <si>
-    <t xml:space="preserve">3.60727763175964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70233750343323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71067547798157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50721430778503</t>
+    <t xml:space="preserve">3.6072781085968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70233774185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71067643165588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50721454620361</t>
   </si>
   <si>
     <t xml:space="preserve">3.48553371429443</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48720216751099</t>
+    <t xml:space="preserve">3.48720145225525</t>
   </si>
   <si>
     <t xml:space="preserve">3.40214800834656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43883776664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34044241905212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28540802001953</t>
+    <t xml:space="preserve">3.43883752822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3404426574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28540778160095</t>
   </si>
   <si>
     <t xml:space="preserve">3.27373361587524</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24037909507751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2770688533783</t>
+    <t xml:space="preserve">3.24037957191467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27706933021545</t>
   </si>
   <si>
     <t xml:space="preserve">3.21035981178284</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17533850669861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06526899337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07694244384766</t>
+    <t xml:space="preserve">3.17533826828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06526875495911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07694292068481</t>
   </si>
   <si>
     <t xml:space="preserve">3.01190161705017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97687935829163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0235755443573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02691125869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0152370929718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10862946510315</t>
+    <t xml:space="preserve">2.97687959671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02357578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02691102027893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01523733139038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10862898826599</t>
   </si>
   <si>
     <t xml:space="preserve">3.23537611961365</t>
@@ -662,13 +662,16 @@
     <t xml:space="preserve">3.2987494468689</t>
   </si>
   <si>
+    <t xml:space="preserve">3.52722692489624</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.55724549293518</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52055644989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56892037391663</t>
+    <t xml:space="preserve">3.52055597305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56892061233521</t>
   </si>
   <si>
     <t xml:space="preserve">3.64396739006042</t>
@@ -677,37 +680,37 @@
     <t xml:space="preserve">3.51888823509216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.68566036224365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7507016658783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66064429283142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77738499641418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55557799339294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39881253242493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35211658477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29374647140503</t>
+    <t xml:space="preserve">3.68566083908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75070118904114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66064405441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77738523483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55557823181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39881277084351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35211634635925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29374623298645</t>
   </si>
   <si>
     <t xml:space="preserve">3.33543920516968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31209087371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29541420936584</t>
+    <t xml:space="preserve">3.31209135055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29541397094727</t>
   </si>
   <si>
     <t xml:space="preserve">3.29708170890808</t>
@@ -722,7 +725,7 @@
     <t xml:space="preserve">3.30041694641113</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08091020584106</t>
+    <t xml:space="preserve">4.08090972900391</t>
   </si>
   <si>
     <t xml:space="preserve">4.12760591506958</t>
@@ -731,61 +734,61 @@
     <t xml:space="preserve">4.21099281311035</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25268507003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26102447509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14428281784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03588151931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27770042419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36942481994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43196535110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56121301651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52785873413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4986743927002</t>
+    <t xml:space="preserve">4.25268459320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26102304458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14428377151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03588199615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27770090103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36942529678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43196487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56121253967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52785921096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49867391586304</t>
   </si>
   <si>
     <t xml:space="preserve">4.50284290313721</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46115016937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35274791717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47782754898071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44864225387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46531915664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47365808486938</t>
+    <t xml:space="preserve">4.4611496925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35274744033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47782707214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44864273071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46531963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47365713119507</t>
   </si>
   <si>
     <t xml:space="preserve">4.65293788909912</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51535034179688</t>
+    <t xml:space="preserve">4.51535081863403</t>
   </si>
   <si>
     <t xml:space="preserve">4.41528797149658</t>
@@ -797,76 +800,76 @@
     <t xml:space="preserve">4.3360710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38610315322876</t>
+    <t xml:space="preserve">4.3861026763916</t>
   </si>
   <si>
     <t xml:space="preserve">4.43613386154175</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3277325630188</t>
+    <t xml:space="preserve">4.32773208618164</t>
   </si>
   <si>
     <t xml:space="preserve">4.33190107345581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29437780380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22767019271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18597602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30688619613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49450445175171</t>
+    <t xml:space="preserve">4.29437828063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22766971588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18597650527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30688524246216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49450492858887</t>
   </si>
   <si>
     <t xml:space="preserve">4.45281219482422</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36108732223511</t>
+    <t xml:space="preserve">4.36108684539795</t>
   </si>
   <si>
     <t xml:space="preserve">4.39027166366577</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36525583267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53619766235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61958312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60707569122314</t>
+    <t xml:space="preserve">4.36525678634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53619718551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61958360671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60707521438599</t>
   </si>
   <si>
     <t xml:space="preserve">4.61124467849731</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77384757995605</t>
+    <t xml:space="preserve">4.77384805679321</t>
   </si>
   <si>
     <t xml:space="preserve">4.75300073623657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80720186233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82804822921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91560316085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90726566314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74466228485107</t>
+    <t xml:space="preserve">4.80720138549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82804870605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91560363769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90726518630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74466276168823</t>
   </si>
   <si>
     <t xml:space="preserve">4.42779541015625</t>
@@ -875,7 +878,7 @@
     <t xml:space="preserve">4.42362594604492</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34440898895264</t>
+    <t xml:space="preserve">4.34440946578979</t>
   </si>
   <si>
     <t xml:space="preserve">4.49153518676758</t>
@@ -884,31 +887,31 @@
     <t xml:space="preserve">4.53827857971191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50428295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46179056167603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45329093933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38955211639404</t>
+    <t xml:space="preserve">4.50428342819214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46179008483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45329141616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38955116271973</t>
   </si>
   <si>
     <t xml:space="preserve">4.35980653762817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34280967712402</t>
+    <t xml:space="preserve">4.34280872344971</t>
   </si>
   <si>
     <t xml:space="preserve">4.40229988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35130786895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2918176651001</t>
+    <t xml:space="preserve">4.35130739212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29181814193726</t>
   </si>
   <si>
     <t xml:space="preserve">4.4192967414856</t>
@@ -920,16 +923,16 @@
     <t xml:space="preserve">4.432044506073</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47878789901733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38530254364014</t>
+    <t xml:space="preserve">4.47878694534302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38530206680298</t>
   </si>
   <si>
     <t xml:space="preserve">4.51703119277954</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48728609085083</t>
+    <t xml:space="preserve">4.48728704452515</t>
   </si>
   <si>
     <t xml:space="preserve">4.48303699493408</t>
@@ -938,43 +941,43 @@
     <t xml:space="preserve">4.47028875350952</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55527496337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57227325439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65725946426392</t>
+    <t xml:space="preserve">4.55527544021606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57227277755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65725898742676</t>
   </si>
   <si>
     <t xml:space="preserve">4.49578428268433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4362940788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78473854064941</t>
+    <t xml:space="preserve">4.43629360198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78473901748657</t>
   </si>
   <si>
     <t xml:space="preserve">4.67425632476807</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95046234130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09918880462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15867948532104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20967102050781</t>
+    <t xml:space="preserve">4.95046281814575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09918928146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15867900848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20967149734497</t>
   </si>
   <si>
     <t xml:space="preserve">5.35414838790894</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39239168167114</t>
+    <t xml:space="preserve">5.3923921585083</t>
   </si>
   <si>
     <t xml:space="preserve">5.35839700698853</t>
@@ -983,28 +986,28 @@
     <t xml:space="preserve">5.52412128448486</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40938949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40514039993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45188283920288</t>
+    <t xml:space="preserve">5.40938997268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4051399230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45188236236572</t>
   </si>
   <si>
     <t xml:space="preserve">5.41363906860352</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33290147781372</t>
+    <t xml:space="preserve">5.33290195465088</t>
   </si>
   <si>
     <t xml:space="preserve">5.39664125442505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40089130401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2649130821228</t>
+    <t xml:space="preserve">5.4008903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26491260528564</t>
   </si>
   <si>
     <t xml:space="preserve">5.11618566513062</t>
@@ -1013,16 +1016,16 @@
     <t xml:space="preserve">5.15442991256714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666883468628</t>
+    <t xml:space="preserve">5.22666835784912</t>
   </si>
   <si>
     <t xml:space="preserve">5.30740547180176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17567682266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13318300247192</t>
+    <t xml:space="preserve">5.1756763458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13318347930908</t>
   </si>
   <si>
     <t xml:space="preserve">5.05669546127319</t>
@@ -1034,10 +1037,10 @@
     <t xml:space="preserve">5.06094455718994</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00570392608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03969860076904</t>
+    <t xml:space="preserve">5.00570344924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03969812393188</t>
   </si>
   <si>
     <t xml:space="preserve">4.98870611190796</t>
@@ -1046,55 +1049,55 @@
     <t xml:space="preserve">5.00145435333252</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0524468421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04394721984863</t>
+    <t xml:space="preserve">5.05244636535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04394769668579</t>
   </si>
   <si>
     <t xml:space="preserve">5.01420211791992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12468528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15018033981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21817016601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27766084671021</t>
+    <t xml:space="preserve">5.12468481063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15018081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21816968917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27766036987305</t>
   </si>
   <si>
     <t xml:space="preserve">5.33715105056763</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28190946578979</t>
+    <t xml:space="preserve">5.28190994262695</t>
   </si>
   <si>
     <t xml:space="preserve">5.23516702651978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43913507461548</t>
+    <t xml:space="preserve">5.43913459777832</t>
   </si>
   <si>
     <t xml:space="preserve">5.37114572525024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32865190505981</t>
+    <t xml:space="preserve">5.32865285873413</t>
   </si>
   <si>
     <t xml:space="preserve">5.69409418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80032682418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12327575683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92355680465698</t>
+    <t xml:space="preserve">5.80032777786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12327527999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92355728149414</t>
   </si>
   <si>
     <t xml:space="preserve">6.19551467895508</t>
@@ -1106,34 +1109,34 @@
     <t xml:space="preserve">6.28900003433228</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00854396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05953550338745</t>
+    <t xml:space="preserve">6.00854444503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05953645706177</t>
   </si>
   <si>
     <t xml:space="preserve">6.08503198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15302133560181</t>
+    <t xml:space="preserve">6.15302085876465</t>
   </si>
   <si>
     <t xml:space="preserve">6.11477756500244</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08928203582764</t>
+    <t xml:space="preserve">6.08928155899048</t>
   </si>
   <si>
     <t xml:space="preserve">6.03403997421265</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97879886627197</t>
+    <t xml:space="preserve">5.97879934310913</t>
   </si>
   <si>
     <t xml:space="preserve">6.04678773880005</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0170431137085</t>
+    <t xml:space="preserve">6.01704263687134</t>
   </si>
   <si>
     <t xml:space="preserve">6.02129220962524</t>
@@ -1142,19 +1145,19 @@
     <t xml:space="preserve">5.99154663085938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96180152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.127525806427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10202932357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1572699546814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21251153945923</t>
+    <t xml:space="preserve">5.96180200576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12752532958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10202884674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15727043151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21251201629639</t>
   </si>
   <si>
     <t xml:space="preserve">6.1487717628479</t>
@@ -1166,91 +1169,91 @@
     <t xml:space="preserve">6.17001819610596</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19976425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41647958755493</t>
+    <t xml:space="preserve">6.19976377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41647863388062</t>
   </si>
   <si>
     <t xml:space="preserve">6.29749822616577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32299423217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20401334762573</t>
+    <t xml:space="preserve">6.32299375534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20401287078857</t>
   </si>
   <si>
     <t xml:space="preserve">6.36973667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33574199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14452219009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22101020812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30599641799927</t>
+    <t xml:space="preserve">6.33574151992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14452266693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22101068496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30599737167358</t>
   </si>
   <si>
     <t xml:space="preserve">6.33149242401123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34424018859863</t>
+    <t xml:space="preserve">6.34424066543579</t>
   </si>
   <si>
     <t xml:space="preserve">6.26775312423706</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07653379440308</t>
+    <t xml:space="preserve">6.07653331756592</t>
   </si>
   <si>
     <t xml:space="preserve">6.06378602981567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13177442550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14027309417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23800802230835</t>
+    <t xml:space="preserve">6.13177490234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1402735710144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23800849914551</t>
   </si>
   <si>
     <t xml:space="preserve">6.18276643753052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1615195274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27200174331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21676063537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48446893692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34849071502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40798044204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71393156051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74792623519897</t>
+    <t xml:space="preserve">6.16152000427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27200269699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21676158905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48446846008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34848976135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40797996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71393203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74792671203613</t>
   </si>
   <si>
     <t xml:space="preserve">6.70543336868286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63744354248047</t>
+    <t xml:space="preserve">6.63744401931763</t>
   </si>
   <si>
     <t xml:space="preserve">6.62894535064697</t>
@@ -1265,28 +1268,28 @@
     <t xml:space="preserve">6.72243070602417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75642538070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76492357254028</t>
+    <t xml:space="preserve">6.75642490386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7649245262146</t>
   </si>
   <si>
     <t xml:space="preserve">6.84141206741333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65444087982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64594316482544</t>
+    <t xml:space="preserve">6.65444183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64594268798828</t>
   </si>
   <si>
     <t xml:space="preserve">6.7989182472229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67993831634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57795286178589</t>
+    <t xml:space="preserve">6.67993783950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57795333862305</t>
   </si>
   <si>
     <t xml:space="preserve">6.42497825622559</t>
@@ -1304,13 +1307,13 @@
     <t xml:space="preserve">6.66294050216675</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39098310470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4929666519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45897245407104</t>
+    <t xml:space="preserve">6.39098358154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49296617507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45897197723389</t>
   </si>
   <si>
     <t xml:space="preserve">6.26350402832031</t>
@@ -1319,109 +1322,109 @@
     <t xml:space="preserve">6.2805004119873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18701553344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06803512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2550048828125</t>
+    <t xml:space="preserve">6.18701601028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06803464889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25500535964966</t>
   </si>
   <si>
     <t xml:space="preserve">6.17851734161377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00004577636719</t>
+    <t xml:space="preserve">6.00004529953003</t>
   </si>
   <si>
     <t xml:space="preserve">5.96605110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93205642700195</t>
+    <t xml:space="preserve">5.93205690383911</t>
   </si>
   <si>
     <t xml:space="preserve">5.83857107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87256526947021</t>
+    <t xml:space="preserve">5.87256574630737</t>
   </si>
   <si>
     <t xml:space="preserve">5.88106489181519</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79607772827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94055509567261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98304796218872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88956260681152</t>
+    <t xml:space="preserve">5.79607820510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94055461883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98304843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88956308364868</t>
   </si>
   <si>
     <t xml:space="preserve">5.89806175231934</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90656042098999</t>
+    <t xml:space="preserve">5.90655946731567</t>
   </si>
   <si>
     <t xml:space="preserve">5.74508619308472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76233768463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79684352874756</t>
+    <t xml:space="preserve">5.76233816146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7968430519104</t>
   </si>
   <si>
     <t xml:space="preserve">5.77959108352661</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81409597396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58981323242188</t>
+    <t xml:space="preserve">5.81409549713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58981418609619</t>
   </si>
   <si>
     <t xml:space="preserve">5.56393432617188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65882396697998</t>
+    <t xml:space="preserve">5.65882349014282</t>
   </si>
   <si>
     <t xml:space="preserve">5.65019750595093</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85722780227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69332885742188</t>
+    <t xml:space="preserve">5.85722732543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69332838058472</t>
   </si>
   <si>
     <t xml:space="preserve">5.77096509933472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8227219581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89173269271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02975273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02112627029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01249933242798</t>
+    <t xml:space="preserve">5.82272243499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89173221588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02975225448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02112674713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01249980926514</t>
   </si>
   <si>
     <t xml:space="preserve">5.86585378646851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9003586769104</t>
+    <t xml:space="preserve">5.90035820007324</t>
   </si>
   <si>
     <t xml:space="preserve">5.83134889602661</t>
@@ -1430,31 +1433,31 @@
     <t xml:space="preserve">5.9262375831604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67607593536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61569261550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80547046661377</t>
+    <t xml:space="preserve">5.67607688903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61569213867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80546998977661</t>
   </si>
   <si>
     <t xml:space="preserve">5.83997488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84860134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71920776367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62431859970093</t>
+    <t xml:space="preserve">5.8486008644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71920728683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62431907653809</t>
   </si>
   <si>
     <t xml:space="preserve">5.78821754455566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13326787948608</t>
+    <t xml:space="preserve">6.13326740264893</t>
   </si>
   <si>
     <t xml:space="preserve">6.11601495742798</t>
@@ -1463,61 +1466,61 @@
     <t xml:space="preserve">5.93486404418945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87448024749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91761159896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90898561477661</t>
+    <t xml:space="preserve">5.8744797706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91761112213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90898513793945</t>
   </si>
   <si>
     <t xml:space="preserve">6.00387382507324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99524784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04700517654419</t>
+    <t xml:space="preserve">5.99524688720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04700469970703</t>
   </si>
   <si>
     <t xml:space="preserve">5.96936941146851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88310623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94349002838135</t>
+    <t xml:space="preserve">5.88310670852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94348955154419</t>
   </si>
   <si>
     <t xml:space="preserve">5.95211601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53805589675903</t>
+    <t xml:space="preserve">5.53805637359619</t>
   </si>
   <si>
     <t xml:space="preserve">5.49492502212524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44316720962524</t>
+    <t xml:space="preserve">5.4431676864624</t>
   </si>
   <si>
     <t xml:space="preserve">5.3655309677124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40866184234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54668188095093</t>
+    <t xml:space="preserve">5.40866279602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54668235778809</t>
   </si>
   <si>
     <t xml:space="preserve">5.57256126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5553092956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46041917800903</t>
+    <t xml:space="preserve">5.55530834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46041965484619</t>
   </si>
   <si>
     <t xml:space="preserve">5.47767210006714</t>
@@ -1529,19 +1532,19 @@
     <t xml:space="preserve">5.24476337432861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21888494491577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34827756881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23613739013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3741569519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35690498352051</t>
+    <t xml:space="preserve">5.21888446807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3482780456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23613691329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37415742874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35690450668335</t>
   </si>
   <si>
     <t xml:space="preserve">5.3137731552124</t>
@@ -1553,19 +1556,19 @@
     <t xml:space="preserve">5.3914098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42591428756714</t>
+    <t xml:space="preserve">5.4259147644043</t>
   </si>
   <si>
     <t xml:space="preserve">5.4000358581543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59843921661377</t>
+    <t xml:space="preserve">5.59843969345093</t>
   </si>
   <si>
     <t xml:space="preserve">5.43454122543335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27064275741577</t>
+    <t xml:space="preserve">5.27064180374146</t>
   </si>
   <si>
     <t xml:space="preserve">5.19300556182861</t>
@@ -1574,16 +1577,16 @@
     <t xml:space="preserve">5.27926826477051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21025800704956</t>
+    <t xml:space="preserve">5.21025848388672</t>
   </si>
   <si>
     <t xml:space="preserve">5.01185417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69268321990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58916807174683</t>
+    <t xml:space="preserve">4.69268274307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58916759490967</t>
   </si>
   <si>
     <t xml:space="preserve">4.65817785263062</t>
@@ -1592,7 +1595,7 @@
     <t xml:space="preserve">4.46840047836304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63229942321777</t>
+    <t xml:space="preserve">4.63229894638062</t>
   </si>
   <si>
     <t xml:space="preserve">4.61504650115967</t>
@@ -1601,52 +1604,52 @@
     <t xml:space="preserve">4.70993518829346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55466270446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3562593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22686576843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3045015335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17510747909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2872486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23980522155762</t>
+    <t xml:space="preserve">4.55466365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35625982284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22686529159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30450201034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17510795593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28724908828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23980474472046</t>
   </si>
   <si>
     <t xml:space="preserve">4.48565244674683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62367248535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68405628204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70130920410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72718858718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50290536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58054161071777</t>
+    <t xml:space="preserve">4.62367296218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68405675888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70130968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72718811035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50290489196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58054113388062</t>
   </si>
   <si>
     <t xml:space="preserve">4.51153135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52015733718872</t>
+    <t xml:space="preserve">4.52015781402588</t>
   </si>
   <si>
     <t xml:space="preserve">4.38213777542114</t>
@@ -1661,16 +1664,16 @@
     <t xml:space="preserve">4.12766313552856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16648149490356</t>
+    <t xml:space="preserve">4.16648101806641</t>
   </si>
   <si>
     <t xml:space="preserve">4.18804740905762</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2354907989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32175350189209</t>
+    <t xml:space="preserve">4.23549175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32175445556641</t>
   </si>
   <si>
     <t xml:space="preserve">4.30018854141235</t>
@@ -1679,31 +1682,31 @@
     <t xml:space="preserve">4.24411773681641</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18373346328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11903762817383</t>
+    <t xml:space="preserve">4.18373394012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11903667449951</t>
   </si>
   <si>
     <t xml:space="preserve">4.3907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3390064239502</t>
+    <t xml:space="preserve">4.33900690078735</t>
   </si>
   <si>
     <t xml:space="preserve">4.22255182266235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13197660446167</t>
+    <t xml:space="preserve">4.13197612762451</t>
   </si>
   <si>
     <t xml:space="preserve">4.23117876052856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17079496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11472415924072</t>
+    <t xml:space="preserve">4.17079448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11472368240356</t>
   </si>
   <si>
     <t xml:space="preserve">4.02414798736572</t>
@@ -1715,7 +1718,7 @@
     <t xml:space="preserve">4.39938974380493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57191514968872</t>
+    <t xml:space="preserve">4.57191562652588</t>
   </si>
   <si>
     <t xml:space="preserve">4.74444055557251</t>
@@ -1733,40 +1736,40 @@
     <t xml:space="preserve">4.96009683609009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00322866439819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98597574234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05498600006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10674333572388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11536979675293</t>
+    <t xml:space="preserve">5.00322818756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98597621917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05498552322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10674238204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11536931991577</t>
   </si>
   <si>
     <t xml:space="preserve">5.13262176513672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15850067138672</t>
+    <t xml:space="preserve">5.15850019454956</t>
   </si>
   <si>
     <t xml:space="preserve">5.08949041366577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07223796844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30514764785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22751045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2620153427124</t>
+    <t xml:space="preserve">5.07223844528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30514717102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22751092910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26201581954956</t>
   </si>
   <si>
     <t xml:space="preserve">5.32239961624146</t>
@@ -1781,7 +1784,7 @@
     <t xml:space="preserve">5.51217699050903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5035514831543</t>
+    <t xml:space="preserve">5.50355100631714</t>
   </si>
   <si>
     <t xml:space="preserve">5.58118724822998</t>
@@ -1793,10 +1796,10 @@
     <t xml:space="preserve">5.52942943572998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52080392837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08086490631104</t>
+    <t xml:space="preserve">5.52080345153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08086442947388</t>
   </si>
   <si>
     <t xml:space="preserve">5.21648120880127</t>
@@ -1808,31 +1811,28 @@
     <t xml:space="preserve">5.11938905715942</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11056280136108</t>
+    <t xml:space="preserve">5.11056327819824</t>
   </si>
   <si>
     <t xml:space="preserve">5.16352224349976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19000148773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19882774353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24296045303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32240009307861</t>
+    <t xml:space="preserve">5.19000196456909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19882822036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24296092987061</t>
   </si>
   <si>
     <t xml:space="preserve">5.30474662780762</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27826690673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33122587203979</t>
+    <t xml:space="preserve">5.27826642990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33122634887695</t>
   </si>
   <si>
     <t xml:space="preserve">5.36653232574463</t>
@@ -1841,19 +1841,19 @@
     <t xml:space="preserve">5.34005260467529</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35770654678345</t>
+    <t xml:space="preserve">5.35770559310913</t>
   </si>
   <si>
     <t xml:space="preserve">5.44597101211548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5695424079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65780782699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53423595428467</t>
+    <t xml:space="preserve">5.56954288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65780735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53423690795898</t>
   </si>
   <si>
     <t xml:space="preserve">5.43714427947998</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">5.51658344268799</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68428754806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63132762908936</t>
+    <t xml:space="preserve">5.68428707122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63132810592651</t>
   </si>
   <si>
     <t xml:space="preserve">5.58719539642334</t>
@@ -1874,76 +1874,76 @@
     <t xml:space="preserve">5.7548999786377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87847089767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86081790924072</t>
+    <t xml:space="preserve">5.8784704208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86081838607788</t>
   </si>
   <si>
     <t xml:space="preserve">5.84316492080688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76372623443604</t>
+    <t xml:space="preserve">5.76372671127319</t>
   </si>
   <si>
     <t xml:space="preserve">5.81668567657471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78137969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71076726913452</t>
+    <t xml:space="preserve">5.78137922286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71076679229736</t>
   </si>
   <si>
     <t xml:space="preserve">5.60484838485718</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56071662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67545986175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85199165344238</t>
+    <t xml:space="preserve">5.56071615219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67546081542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85199117660522</t>
   </si>
   <si>
     <t xml:space="preserve">5.62250185012817</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34887886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28709268569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39301204681396</t>
+    <t xml:space="preserve">5.34887933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28709316253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39301156997681</t>
   </si>
   <si>
     <t xml:space="preserve">5.29592037200928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22530794143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37535810470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18117475509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25178670883179</t>
+    <t xml:space="preserve">5.22530698776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37535858154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18117427825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25178718566895</t>
   </si>
   <si>
     <t xml:space="preserve">5.26944017410278</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2606143951416</t>
+    <t xml:space="preserve">5.26061344146729</t>
   </si>
   <si>
     <t xml:space="preserve">5.4018383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64898157119751</t>
+    <t xml:space="preserve">5.64898109436035</t>
   </si>
   <si>
     <t xml:space="preserve">5.55188941955566</t>
@@ -1952,10 +1952,10 @@
     <t xml:space="preserve">5.59602212905884</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50775623321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4724497795105</t>
+    <t xml:space="preserve">5.50775671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47245025634766</t>
   </si>
   <si>
     <t xml:space="preserve">5.42831802368164</t>
@@ -1964,16 +1964,16 @@
     <t xml:space="preserve">5.49010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12821578979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14586877822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26502704620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13968992233276</t>
+    <t xml:space="preserve">5.12821531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14586925506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26502752304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13969039916992</t>
   </si>
   <si>
     <t xml:space="preserve">5.20765447616577</t>
@@ -1985,13 +1985,13 @@
     <t xml:space="preserve">5.31268978118896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38418483734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45214939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43273115158081</t>
+    <t xml:space="preserve">5.38418531417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45214986801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43273162841797</t>
   </si>
   <si>
     <t xml:space="preserve">5.3850679397583</t>
@@ -2000,13 +2000,13 @@
     <t xml:space="preserve">5.41154766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37271022796631</t>
+    <t xml:space="preserve">5.37271070480347</t>
   </si>
   <si>
     <t xml:space="preserve">5.45391464233398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32328224182129</t>
+    <t xml:space="preserve">5.32328271865845</t>
   </si>
   <si>
     <t xml:space="preserve">5.44950151443481</t>
@@ -2018,28 +2018,28 @@
     <t xml:space="preserve">5.54747581481934</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42390441894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62779760360718</t>
+    <t xml:space="preserve">5.42390394210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62779808044434</t>
   </si>
   <si>
     <t xml:space="preserve">5.7284197807312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62603235244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57130718231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53070592880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57660388946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5527720451355</t>
+    <t xml:space="preserve">5.62603282928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57130765914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53070545196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57660341262817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55277156829834</t>
   </si>
   <si>
     <t xml:space="preserve">5.578369140625</t>
@@ -2051,13 +2051,13 @@
     <t xml:space="preserve">6.1432671546936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16092014312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16974687576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06294536590576</t>
+    <t xml:space="preserve">6.1609206199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16974639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06294584274292</t>
   </si>
   <si>
     <t xml:space="preserve">5.88464975357056</t>
@@ -2072,10 +2072,10 @@
     <t xml:space="preserve">5.85552167892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85375690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92613506317139</t>
+    <t xml:space="preserve">5.85375642776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92613410949707</t>
   </si>
   <si>
     <t xml:space="preserve">6.02322626113892</t>
@@ -2090,19 +2090,19 @@
     <t xml:space="preserve">6.02852201461792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04441022872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9702672958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97291469573975</t>
+    <t xml:space="preserve">6.04440927505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97026681900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9729151725769</t>
   </si>
   <si>
     <t xml:space="preserve">5.79373645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84669542312622</t>
+    <t xml:space="preserve">5.84669589996338</t>
   </si>
   <si>
     <t xml:space="preserve">5.93496084213257</t>
@@ -2120,10 +2120,10 @@
     <t xml:space="preserve">5.87052726745605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93142938613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87494087219238</t>
+    <t xml:space="preserve">5.93142986297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87494039535522</t>
   </si>
   <si>
     <t xml:space="preserve">5.84934329986572</t>
@@ -2132,49 +2132,49 @@
     <t xml:space="preserve">5.83433818817139</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81138896942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80609321594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74077796936035</t>
+    <t xml:space="preserve">5.8113899230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80609369277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74077701568604</t>
   </si>
   <si>
     <t xml:space="preserve">5.87405776977539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77078723907471</t>
+    <t xml:space="preserve">5.77078771591187</t>
   </si>
   <si>
     <t xml:space="preserve">5.68340492248535</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73724603652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78579187393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69311380386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69576120376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75754690170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83963489532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72665452957153</t>
+    <t xml:space="preserve">5.7372465133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78579235076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69311332702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69576168060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75754737854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83963441848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72665500640869</t>
   </si>
   <si>
     <t xml:space="preserve">5.71871089935303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76549100875854</t>
+    <t xml:space="preserve">5.7654914855957</t>
   </si>
   <si>
     <t xml:space="preserve">5.76813936233521</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">5.95702695846558</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12561464309692</t>
+    <t xml:space="preserve">6.12561416625977</t>
   </si>
   <si>
     <t xml:space="preserve">6.04617547988892</t>
@@ -2198,25 +2198,25 @@
     <t xml:space="preserve">5.82815980911255</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5298228263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46892023086548</t>
+    <t xml:space="preserve">5.52982234954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46891975402832</t>
   </si>
   <si>
     <t xml:space="preserve">5.29856777191162</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14057302474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25708246231079</t>
+    <t xml:space="preserve">5.14057350158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25708293914795</t>
   </si>
   <si>
     <t xml:space="preserve">5.28356313705444</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89166498184204</t>
+    <t xml:space="preserve">4.89166450500488</t>
   </si>
   <si>
     <t xml:space="preserve">4.32809066772461</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">4.38678693771362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39296627044678</t>
+    <t xml:space="preserve">4.39296579360962</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357482910156</t>
@@ -2234,22 +2234,22 @@
     <t xml:space="preserve">4.19260358810425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06020545959473</t>
+    <t xml:space="preserve">4.06020498275757</t>
   </si>
   <si>
     <t xml:space="preserve">3.84969258308411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97193956375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25880241394043</t>
+    <t xml:space="preserve">3.97194004058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25880193710327</t>
   </si>
   <si>
     <t xml:space="preserve">3.9000039100647</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05402660369873</t>
+    <t xml:space="preserve">4.05402708053589</t>
   </si>
   <si>
     <t xml:space="preserve">4.15111875534058</t>
@@ -2264,10 +2264,10 @@
     <t xml:space="preserve">4.13743734359741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34177207946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39561367034912</t>
+    <t xml:space="preserve">4.34177160263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39561319351196</t>
   </si>
   <si>
     <t xml:space="preserve">4.45739984512329</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">4.25438928604126</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41326665878296</t>
+    <t xml:space="preserve">4.4132661819458</t>
   </si>
   <si>
     <t xml:space="preserve">4.54566478729248</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">4.70454216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57214403152466</t>
+    <t xml:space="preserve">4.57214450836182</t>
   </si>
   <si>
     <t xml:space="preserve">4.72219514846802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66040992736816</t>
+    <t xml:space="preserve">4.66041040420532</t>
   </si>
   <si>
     <t xml:space="preserve">4.66923570632935</t>
@@ -2300,25 +2300,25 @@
     <t xml:space="preserve">4.61627674102783</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58979749679565</t>
+    <t xml:space="preserve">4.5897970199585</t>
   </si>
   <si>
     <t xml:space="preserve">4.8369402885437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.86342000961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88989973068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03995037078857</t>
+    <t xml:space="preserve">4.8634204864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88989925384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03994989395142</t>
   </si>
   <si>
     <t xml:space="preserve">5.0134711265564</t>
   </si>
   <si>
-    <t xml:space="preserve">4.93403244018555</t>
+    <t xml:space="preserve">4.93403196334839</t>
   </si>
   <si>
     <t xml:space="preserve">4.678062915802</t>
@@ -2330,7 +2330,7 @@
     <t xml:space="preserve">4.71336936950684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76632738113403</t>
+    <t xml:space="preserve">4.76632785797119</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872598648071</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">5.00738525390625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82628631591797</t>
+    <t xml:space="preserve">4.82628583908081</t>
   </si>
   <si>
     <t xml:space="preserve">4.98022079467773</t>
@@ -2351,28 +2351,28 @@
     <t xml:space="preserve">5.20659399032593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32430791854858</t>
+    <t xml:space="preserve">5.32430839538574</t>
   </si>
   <si>
     <t xml:space="preserve">5.29714345932007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50540685653687</t>
+    <t xml:space="preserve">5.50540733337402</t>
   </si>
   <si>
     <t xml:space="preserve">5.55068206787109</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40580224990845</t>
+    <t xml:space="preserve">5.40580272674561</t>
   </si>
   <si>
     <t xml:space="preserve">5.63217639923096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60501194000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71367073059082</t>
+    <t xml:space="preserve">5.60501146316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71367168426514</t>
   </si>
   <si>
     <t xml:space="preserve">5.84044027328491</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">5.74989080429077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41485786437988</t>
+    <t xml:space="preserve">5.41485738754272</t>
   </si>
   <si>
     <t xml:space="preserve">5.37863826751709</t>
@@ -2399,52 +2399,52 @@
     <t xml:space="preserve">5.84949541091919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72272634506226</t>
+    <t xml:space="preserve">5.7227258682251</t>
   </si>
   <si>
     <t xml:space="preserve">5.76800107955933</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79516553878784</t>
+    <t xml:space="preserve">5.79516506195068</t>
   </si>
   <si>
     <t xml:space="preserve">5.73178100585938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75894594192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83138561248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69556093215942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67745113372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64123153686523</t>
+    <t xml:space="preserve">5.75894546508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83138513565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69556140899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67745161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64123201370239</t>
   </si>
   <si>
     <t xml:space="preserve">5.56879234313965</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46013307571411</t>
+    <t xml:space="preserve">5.46013259887695</t>
   </si>
   <si>
     <t xml:space="preserve">5.5325722694397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52351665496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42391204833984</t>
+    <t xml:space="preserve">5.52351760864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42391300201416</t>
   </si>
   <si>
     <t xml:space="preserve">5.4963526725769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39674806594849</t>
+    <t xml:space="preserve">5.39674758911133</t>
   </si>
   <si>
     <t xml:space="preserve">5.31525325775146</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">5.46918773651123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36052846908569</t>
+    <t xml:space="preserve">5.36052799224854</t>
   </si>
   <si>
     <t xml:space="preserve">5.36958312988281</t>
@@ -2462,28 +2462,28 @@
     <t xml:space="preserve">5.47824287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59595632553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70461654663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65028619766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6140661239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48729705810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45107746124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38769245147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30619812011719</t>
+    <t xml:space="preserve">5.59595680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7046160697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6502857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61406660079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48729753494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45107793807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38769292831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30619859695435</t>
   </si>
   <si>
     <t xml:space="preserve">5.43296813964844</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">5.23375940322876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26997900009155</t>
+    <t xml:space="preserve">5.26997852325439</t>
   </si>
   <si>
     <t xml:space="preserve">5.28808879852295</t>
@@ -2519,10 +2519,10 @@
     <t xml:space="preserve">4.81723117828369</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95305490493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09793519973755</t>
+    <t xml:space="preserve">4.9530553817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09793472290039</t>
   </si>
   <si>
     <t xml:space="preserve">5.10698938369751</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">4.98927545547485</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08887958526611</t>
+    <t xml:space="preserve">5.08888006210327</t>
   </si>
   <si>
     <t xml:space="preserve">6.02153921127319</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">6.13019847869873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13925409317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11208820343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22074794769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22980308532715</t>
+    <t xml:space="preserve">6.13925361633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11208915710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22074842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22980260848999</t>
   </si>
   <si>
     <t xml:space="preserve">6.48334121704102</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">6.31129741668701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36562728881836</t>
+    <t xml:space="preserve">6.36562776565552</t>
   </si>
   <si>
     <t xml:space="preserve">6.41090202331543</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">6.44712162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37468242645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42901229858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4380669593811</t>
+    <t xml:space="preserve">6.37468194961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42901182174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43806648254395</t>
   </si>
   <si>
     <t xml:space="preserve">6.23885774612427</t>
@@ -2585,13 +2585,13 @@
     <t xml:space="preserve">6.18452835083008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17547369003296</t>
+    <t xml:space="preserve">6.1754732131958</t>
   </si>
   <si>
     <t xml:space="preserve">6.10303354263306</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08492374420166</t>
+    <t xml:space="preserve">6.0849232673645</t>
   </si>
   <si>
     <t xml:space="preserve">6.05775928497314</t>
@@ -2603,28 +2603,28 @@
     <t xml:space="preserve">6.03964948654175</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03059387207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35657215118408</t>
+    <t xml:space="preserve">6.03059434890747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35657262802124</t>
   </si>
   <si>
     <t xml:space="preserve">6.59200048446655</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4561767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40184688568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32940769195557</t>
+    <t xml:space="preserve">6.45617723464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40184736251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32940721511841</t>
   </si>
   <si>
     <t xml:space="preserve">6.16641855239868</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50145101547241</t>
+    <t xml:space="preserve">6.50145149230957</t>
   </si>
   <si>
     <t xml:space="preserve">6.24791288375854</t>
@@ -2633,10 +2633,10 @@
     <t xml:space="preserve">6.33846235275269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30224227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39279222488403</t>
+    <t xml:space="preserve">6.30224275588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39279174804688</t>
   </si>
   <si>
     <t xml:space="preserve">6.61011075973511</t>
@@ -2645,28 +2645,28 @@
     <t xml:space="preserve">6.80026483535767</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15340757369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58804559707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69670343399048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7510347366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84158277511597</t>
+    <t xml:space="preserve">7.15340805053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5880446434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69670391082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75103425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725385665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84158325195312</t>
   </si>
   <si>
     <t xml:space="preserve">7.67859411239624</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46127557754517</t>
+    <t xml:space="preserve">7.46127510070801</t>
   </si>
   <si>
     <t xml:space="preserve">7.45222043991089</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">7.32545137405396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44316530227661</t>
+    <t xml:space="preserve">7.44316577911377</t>
   </si>
   <si>
     <t xml:space="preserve">7.28017616271973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18962717056274</t>
+    <t xml:space="preserve">7.1896276473999</t>
   </si>
   <si>
     <t xml:space="preserve">7.33450698852539</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">7.80536413192749</t>
   </si>
   <si>
-    <t xml:space="preserve">7.660484790802</t>
+    <t xml:space="preserve">7.66048431396484</t>
   </si>
   <si>
     <t xml:space="preserve">7.6061544418335</t>
@@ -2717,25 +2717,25 @@
     <t xml:space="preserve">7.76914358139038</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83252763748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92307758331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09512138366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35771560668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25811100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15850734710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3396053314209</t>
+    <t xml:space="preserve">7.83252859115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92307901382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09512233734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35771465301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25811004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15850639343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33960628509521</t>
   </si>
   <si>
     <t xml:space="preserve">8.36676979064941</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">8.14945125579834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24905490875244</t>
+    <t xml:space="preserve">8.24905586242676</t>
   </si>
   <si>
     <t xml:space="preserve">8.21283626556396</t>
@@ -2753,43 +2753,43 @@
     <t xml:space="preserve">8.203782081604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16756248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24000072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30338573455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23094654083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31243991851807</t>
+    <t xml:space="preserve">8.16756153106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2400016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30338668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2309455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31244087219238</t>
   </si>
   <si>
     <t xml:space="preserve">8.55692386627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40299034118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61125469207764</t>
+    <t xml:space="preserve">8.40298938751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61125373840332</t>
   </si>
   <si>
     <t xml:space="preserve">8.5478687286377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68369388580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60219955444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8195161819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59314346313477</t>
+    <t xml:space="preserve">8.68369483947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60219860076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81951713562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59314441680908</t>
   </si>
   <si>
     <t xml:space="preserve">8.63882446289062</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">8.77667808532715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60206413269043</t>
+    <t xml:space="preserve">8.60206317901611</t>
   </si>
   <si>
     <t xml:space="preserve">8.58368301391602</t>
@@ -2825,16 +2825,16 @@
     <t xml:space="preserve">8.83181858062744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87776947021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91453075408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85939121246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64801502227783</t>
+    <t xml:space="preserve">8.87777042388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91453170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85939025878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64801406860352</t>
   </si>
   <si>
     <t xml:space="preserve">8.67558574676514</t>
@@ -2843,19 +2843,19 @@
     <t xml:space="preserve">8.68477535247803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70315551757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62963390350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4366397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27121543884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31716632843018</t>
+    <t xml:space="preserve">8.70315647125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62963485717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43663883209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27121448516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31716537475586</t>
   </si>
   <si>
     <t xml:space="preserve">8.24364376068115</t>
@@ -2864,28 +2864,28 @@
     <t xml:space="preserve">8.20688343048096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21607398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11498069763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16093158721924</t>
+    <t xml:space="preserve">8.21607303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11498165130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16093254089355</t>
   </si>
   <si>
     <t xml:space="preserve">7.90360593795776</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01388931274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94036722183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99550724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89441442489624</t>
+    <t xml:space="preserve">8.01388835906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94036674499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99550676345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89441537857056</t>
   </si>
   <si>
     <t xml:space="preserve">8.15174198150635</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">7.75656175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23445320129395</t>
+    <t xml:space="preserve">8.23445415496826</t>
   </si>
   <si>
     <t xml:space="preserve">8.40906810760498</t>
@@ -2933,16 +2933,16 @@
     <t xml:space="preserve">8.5009708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88696098327637</t>
+    <t xml:space="preserve">8.88696193695068</t>
   </si>
   <si>
     <t xml:space="preserve">8.80424880981445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39987945556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47340106964111</t>
+    <t xml:space="preserve">8.39987850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4734001159668</t>
   </si>
   <si>
     <t xml:space="preserve">8.81343936920166</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">8.66639518737793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41825771331787</t>
+    <t xml:space="preserve">8.41825866699219</t>
   </si>
   <si>
     <t xml:space="preserve">8.36311721801758</t>
@@ -2969,19 +2969,19 @@
     <t xml:space="preserve">8.08741092681885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14255142211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17931270599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04145908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71979951858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78413200378418</t>
+    <t xml:space="preserve">8.14255046844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17931175231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04146003723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71979999542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78413248062134</t>
   </si>
   <si>
     <t xml:space="preserve">7.72899103164673</t>
@@ -2990,16 +2990,16 @@
     <t xml:space="preserve">7.70142030715942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81170320510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8300838470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8760347366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9219856262207</t>
+    <t xml:space="preserve">7.81170272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83008432388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87603425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92198514938354</t>
   </si>
   <si>
     <t xml:space="preserve">7.86684513092041</t>
@@ -3008,19 +3008,19 @@
     <t xml:space="preserve">8.09660053253174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3906888961792</t>
+    <t xml:space="preserve">8.39068794250488</t>
   </si>
   <si>
     <t xml:space="preserve">8.35392665863037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37230682373047</t>
+    <t xml:space="preserve">8.37230777740479</t>
   </si>
   <si>
     <t xml:space="preserve">8.5469217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34473705291748</t>
+    <t xml:space="preserve">8.34473609924316</t>
   </si>
   <si>
     <t xml:space="preserve">8.18850326538086</t>
@@ -3038,13 +3038,13 @@
     <t xml:space="preserve">7.52680492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48085498809814</t>
+    <t xml:space="preserve">7.48085451126099</t>
   </si>
   <si>
     <t xml:space="preserve">7.51761531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6095175743103</t>
+    <t xml:space="preserve">7.60951709747314</t>
   </si>
   <si>
     <t xml:space="preserve">7.50842523574829</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">7.49923467636108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59113740921021</t>
+    <t xml:space="preserve">7.59113788604736</t>
   </si>
   <si>
     <t xml:space="preserve">7.80251264572144</t>
@@ -3062,13 +3062,13 @@
     <t xml:space="preserve">7.61870813369751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5451865196228</t>
+    <t xml:space="preserve">7.54518604278564</t>
   </si>
   <si>
     <t xml:space="preserve">7.47166442871094</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41652297973633</t>
+    <t xml:space="preserve">7.41652250289917</t>
   </si>
   <si>
     <t xml:space="preserve">7.45328330993652</t>
@@ -3080,22 +3080,22 @@
     <t xml:space="preserve">7.40733289718628</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69223022460938</t>
+    <t xml:space="preserve">7.69222974777222</t>
   </si>
   <si>
     <t xml:space="preserve">7.79332256317139</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77494239807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68303871154785</t>
+    <t xml:space="preserve">7.77494192123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68303918838501</t>
   </si>
   <si>
     <t xml:space="preserve">7.67384958267212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46247339248657</t>
+    <t xml:space="preserve">7.46247386932373</t>
   </si>
   <si>
     <t xml:space="preserve">7.53599548339844</t>
@@ -3110,7 +3110,7 @@
     <t xml:space="preserve">7.06729364395142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16838645935059</t>
+    <t xml:space="preserve">7.16838693618774</t>
   </si>
   <si>
     <t xml:space="preserve">7.03053283691406</t>
@@ -3119,10 +3119,10 @@
     <t xml:space="preserve">7.15000581741333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2694787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26028871536255</t>
+    <t xml:space="preserve">7.26947832107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26028919219971</t>
   </si>
   <si>
     <t xml:space="preserve">7.08567428588867</t>
@@ -3131,10 +3131,10 @@
     <t xml:space="preserve">7.02134227752686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03972244262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42571258544922</t>
+    <t xml:space="preserve">7.03972291946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42571306228638</t>
   </si>
   <si>
     <t xml:space="preserve">7.37057209014893</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">7.3430004119873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14081573486328</t>
+    <t xml:space="preserve">7.14081525802612</t>
   </si>
   <si>
     <t xml:space="preserve">7.21433734893799</t>
@@ -3158,52 +3158,52 @@
     <t xml:space="preserve">6.93863010406494</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87429857254028</t>
+    <t xml:space="preserve">6.87429904937744</t>
   </si>
   <si>
     <t xml:space="preserve">6.80077695846558</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48830842971802</t>
+    <t xml:space="preserve">6.48830890655518</t>
   </si>
   <si>
     <t xml:space="preserve">6.72725486755371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54344987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45154762268066</t>
+    <t xml:space="preserve">6.54345035552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45154809951782</t>
   </si>
   <si>
     <t xml:space="preserve">6.25855255126953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97365570068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95527505874634</t>
+    <t xml:space="preserve">5.97365522384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95527458190918</t>
   </si>
   <si>
     <t xml:space="preserve">6.12988948822021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40559577941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21260166168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26774311065674</t>
+    <t xml:space="preserve">6.4055962562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21260118484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26774263381958</t>
   </si>
   <si>
     <t xml:space="preserve">6.47911834716797</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35964584350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59859085083008</t>
+    <t xml:space="preserve">6.3596453666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59859132766724</t>
   </si>
   <si>
     <t xml:space="preserve">6.51587915420532</t>
@@ -3221,13 +3221,13 @@
     <t xml:space="preserve">6.14827013015747</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24017190933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24936246871948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39640665054321</t>
+    <t xml:space="preserve">6.24017238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24936199188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39640617370605</t>
   </si>
   <si>
     <t xml:space="preserve">6.38721561431885</t>
@@ -3236,19 +3236,19 @@
     <t xml:space="preserve">6.30450344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42397689819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29531383514404</t>
+    <t xml:space="preserve">6.4239764213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29531335830688</t>
   </si>
   <si>
     <t xml:space="preserve">5.96446466445923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98284530639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03798723220825</t>
+    <t xml:space="preserve">5.98284578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03798675537109</t>
   </si>
   <si>
     <t xml:space="preserve">6.01041603088379</t>
@@ -3269,25 +3269,25 @@
     <t xml:space="preserve">6.18503093719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10231876373291</t>
+    <t xml:space="preserve">6.10231828689575</t>
   </si>
   <si>
     <t xml:space="preserve">6.0655574798584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13907957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1115083694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08393812179565</t>
+    <t xml:space="preserve">6.13907909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11150884628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0839376449585</t>
   </si>
   <si>
     <t xml:space="preserve">6.0931282043457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07474756240845</t>
+    <t xml:space="preserve">6.07474803924561</t>
   </si>
   <si>
     <t xml:space="preserve">6.20341157913208</t>
@@ -11078,7 +11078,7 @@
         <v>4.23000001907349</v>
       </c>
       <c r="G247" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11130,7 +11130,7 @@
         <v>4.26599979400635</v>
       </c>
       <c r="G249" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11156,7 +11156,7 @@
         <v>4.22200012207031</v>
       </c>
       <c r="G250" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11234,7 +11234,7 @@
         <v>4.28000020980835</v>
       </c>
       <c r="G253" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11260,7 +11260,7 @@
         <v>4.36999988555908</v>
       </c>
       <c r="G254" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11312,7 +11312,7 @@
         <v>4.21999979019165</v>
       </c>
       <c r="G256" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11364,7 +11364,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G258" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11390,7 +11390,7 @@
         <v>4.4980001449585</v>
       </c>
       <c r="G259" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11468,7 +11468,7 @@
         <v>4.3899998664856</v>
       </c>
       <c r="G262" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11546,7 +11546,7 @@
         <v>4.42000007629395</v>
       </c>
       <c r="G265" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11572,7 +11572,7 @@
         <v>4.53000020980835</v>
       </c>
       <c r="G266" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11624,7 +11624,7 @@
         <v>4.26399993896484</v>
       </c>
       <c r="G268" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11650,7 +11650,7 @@
         <v>4.07600021362305</v>
       </c>
       <c r="G269" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -11676,7 +11676,7 @@
         <v>4.01999998092651</v>
       </c>
       <c r="G270" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11728,7 +11728,7 @@
         <v>3.95000004768372</v>
       </c>
       <c r="G272" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -11754,7 +11754,7 @@
         <v>4</v>
       </c>
       <c r="G273" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11806,7 +11806,7 @@
         <v>4</v>
       </c>
       <c r="G275" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -11858,7 +11858,7 @@
         <v>3.97199988365173</v>
       </c>
       <c r="G277" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11884,7 +11884,7 @@
         <v>3.95199990272522</v>
       </c>
       <c r="G278" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11910,7 +11910,7 @@
         <v>3.9539999961853</v>
       </c>
       <c r="G279" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11936,7 +11936,7 @@
         <v>3.99000000953674</v>
       </c>
       <c r="G280" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11962,7 +11962,7 @@
         <v>4</v>
       </c>
       <c r="G281" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11988,7 +11988,7 @@
         <v>4.00799989700317</v>
       </c>
       <c r="G282" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12014,7 +12014,7 @@
         <v>4</v>
       </c>
       <c r="G283" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -12092,7 +12092,7 @@
         <v>3.95799994468689</v>
       </c>
       <c r="G286" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -12196,7 +12196,7 @@
         <v>4.89400005340576</v>
       </c>
       <c r="G290" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12222,7 +12222,7 @@
         <v>4.94999980926514</v>
       </c>
       <c r="G291" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12248,7 +12248,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G292" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12274,7 +12274,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G293" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12300,7 +12300,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G294" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12326,7 +12326,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G295" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12352,7 +12352,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G296" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12378,7 +12378,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G297" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12404,7 +12404,7 @@
         <v>5.13000011444092</v>
       </c>
       <c r="G298" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12430,7 +12430,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G299" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12456,7 +12456,7 @@
         <v>5.31500005722046</v>
       </c>
       <c r="G300" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12482,7 +12482,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G301" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12508,7 +12508,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G302" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12534,7 +12534,7 @@
         <v>5.39499998092651</v>
       </c>
       <c r="G303" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12560,7 +12560,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G304" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12586,7 +12586,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G305" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12612,7 +12612,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G306" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12638,7 +12638,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G307" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12664,7 +12664,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G308" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12690,7 +12690,7 @@
         <v>5.35500001907349</v>
       </c>
       <c r="G309" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12716,7 +12716,7 @@
         <v>5.36499977111816</v>
       </c>
       <c r="G310" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12742,7 +12742,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G311" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12768,7 +12768,7 @@
         <v>5.41499996185303</v>
       </c>
       <c r="G312" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12794,7 +12794,7 @@
         <v>5.29500007629395</v>
       </c>
       <c r="G313" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12820,7 +12820,7 @@
         <v>5.20499992370605</v>
       </c>
       <c r="G314" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12846,7 +12846,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G315" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12872,7 +12872,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G316" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12898,7 +12898,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G317" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12924,7 +12924,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G318" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12950,7 +12950,7 @@
         <v>5.19500017166138</v>
       </c>
       <c r="G319" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12976,7 +12976,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G320" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13002,7 +13002,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G321" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13028,7 +13028,7 @@
         <v>5.07000017166138</v>
       </c>
       <c r="G322" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13054,7 +13054,7 @@
         <v>5.01999998092651</v>
       </c>
       <c r="G323" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13080,7 +13080,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G324" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13106,7 +13106,7 @@
         <v>5.16499996185303</v>
       </c>
       <c r="G325" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13132,7 +13132,7 @@
         <v>5.19000005722046</v>
       </c>
       <c r="G326" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13158,7 +13158,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G327" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13184,7 +13184,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G328" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13210,7 +13210,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G329" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13236,7 +13236,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G330" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13262,7 +13262,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G331" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13288,7 +13288,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G332" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13314,7 +13314,7 @@
         <v>5.33500003814697</v>
       </c>
       <c r="G333" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13340,7 +13340,7 @@
         <v>5.2649998664856</v>
       </c>
       <c r="G334" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13366,7 +13366,7 @@
         <v>5.2350001335144</v>
       </c>
       <c r="G335" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13392,7 +13392,7 @@
         <v>5.31500005722046</v>
       </c>
       <c r="G336" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13418,7 +13418,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G337" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13444,7 +13444,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G338" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13470,7 +13470,7 @@
         <v>5.52500009536743</v>
       </c>
       <c r="G339" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13496,7 +13496,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G340" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13522,7 +13522,7 @@
         <v>5.72499990463257</v>
       </c>
       <c r="G341" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13548,7 +13548,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G342" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13574,7 +13574,7 @@
         <v>5.72499990463257</v>
       </c>
       <c r="G343" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13600,7 +13600,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G344" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13626,7 +13626,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G345" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13652,7 +13652,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G346" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13678,7 +13678,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G347" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13704,7 +13704,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G348" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13730,7 +13730,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G349" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13756,7 +13756,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G350" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13782,7 +13782,7 @@
         <v>5.30499982833862</v>
       </c>
       <c r="G351" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13808,7 +13808,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G352" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13834,7 +13834,7 @@
         <v>5.21000003814697</v>
       </c>
       <c r="G353" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13860,7 +13860,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G354" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13886,7 +13886,7 @@
         <v>5.28499984741211</v>
       </c>
       <c r="G355" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13912,7 +13912,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G356" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13938,7 +13938,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G357" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13964,7 +13964,7 @@
         <v>5.25</v>
       </c>
       <c r="G358" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13990,7 +13990,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G359" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14016,7 +14016,7 @@
         <v>5.16499996185303</v>
       </c>
       <c r="G360" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14042,7 +14042,7 @@
         <v>5.13000011444092</v>
       </c>
       <c r="G361" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14068,7 +14068,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G362" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14094,7 +14094,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G363" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14120,7 +14120,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G364" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14146,7 +14146,7 @@
         <v>5.25</v>
       </c>
       <c r="G365" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14172,7 +14172,7 @@
         <v>5.11999988555908</v>
       </c>
       <c r="G366" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14198,7 +14198,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G367" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14224,7 +14224,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G368" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14250,7 +14250,7 @@
         <v>5.24499988555908</v>
       </c>
       <c r="G369" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14276,7 +14276,7 @@
         <v>5.21500015258789</v>
       </c>
       <c r="G370" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14302,7 +14302,7 @@
         <v>5.26999998092651</v>
       </c>
       <c r="G371" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14328,7 +14328,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G372" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14354,7 +14354,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G373" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14380,7 +14380,7 @@
         <v>5.15999984741211</v>
       </c>
       <c r="G374" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14406,7 +14406,7 @@
         <v>5.31500005722046</v>
       </c>
       <c r="G375" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14432,7 +14432,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G376" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14458,7 +14458,7 @@
         <v>5.27500009536743</v>
       </c>
       <c r="G377" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14484,7 +14484,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G378" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14510,7 +14510,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G379" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14536,7 +14536,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G380" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14562,7 +14562,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G381" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14588,7 +14588,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G382" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14614,7 +14614,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G383" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14640,7 +14640,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G384" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14666,7 +14666,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G385" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14692,7 +14692,7 @@
         <v>5.5</v>
       </c>
       <c r="G386" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14718,7 +14718,7 @@
         <v>5.82499980926514</v>
       </c>
       <c r="G387" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14744,7 +14744,7 @@
         <v>6</v>
       </c>
       <c r="G388" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14770,7 +14770,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G389" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14796,7 +14796,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G390" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14822,7 +14822,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G391" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14848,7 +14848,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G392" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14874,7 +14874,7 @@
         <v>6.34499979019165</v>
       </c>
       <c r="G393" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14900,7 +14900,7 @@
         <v>6.30499982833862</v>
       </c>
       <c r="G394" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14926,7 +14926,7 @@
         <v>6.5</v>
       </c>
       <c r="G395" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14952,7 +14952,7 @@
         <v>6.36499977111816</v>
       </c>
       <c r="G396" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14978,7 +14978,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G397" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15004,7 +15004,7 @@
         <v>6.41499996185303</v>
       </c>
       <c r="G398" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15030,7 +15030,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G399" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15056,7 +15056,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G400" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15082,7 +15082,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G401" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15108,7 +15108,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G402" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15134,7 +15134,7 @@
         <v>6.19500017166138</v>
       </c>
       <c r="G403" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15160,7 +15160,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G404" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15186,7 +15186,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G405" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15212,7 +15212,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G406" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15238,7 +15238,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G407" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15264,7 +15264,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G408" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15290,7 +15290,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G409" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15316,7 +15316,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G410" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15342,7 +15342,7 @@
         <v>6.24499988555908</v>
       </c>
       <c r="G411" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15368,7 +15368,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G412" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15394,7 +15394,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G413" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15420,7 +15420,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G414" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15446,7 +15446,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G415" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15472,7 +15472,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G416" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15498,7 +15498,7 @@
         <v>5.95499992370605</v>
       </c>
       <c r="G417" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15524,7 +15524,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G418" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15550,7 +15550,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G419" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15576,7 +15576,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G420" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15602,7 +15602,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G421" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15628,7 +15628,7 @@
         <v>5.94500017166138</v>
       </c>
       <c r="G422" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15654,7 +15654,7 @@
         <v>5.93499994277954</v>
       </c>
       <c r="G423" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15680,7 +15680,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G424" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15706,7 +15706,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G425" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15732,7 +15732,7 @@
         <v>6</v>
       </c>
       <c r="G426" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15758,7 +15758,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G427" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15784,7 +15784,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G428" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15810,7 +15810,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G429" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15836,7 +15836,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G430" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15862,7 +15862,7 @@
         <v>6.21500015258789</v>
       </c>
       <c r="G431" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15888,7 +15888,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G432" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15914,7 +15914,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G433" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15940,7 +15940,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G434" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15966,7 +15966,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G435" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15992,7 +15992,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G436" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16018,7 +16018,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G437" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16044,7 +16044,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G438" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16070,7 +16070,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G439" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16096,7 +16096,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G440" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16122,7 +16122,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G441" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16148,7 +16148,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G442" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16174,7 +16174,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G443" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16200,7 +16200,7 @@
         <v>7.28999996185303</v>
       </c>
       <c r="G444" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16226,7 +16226,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G445" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16252,7 +16252,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G446" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16278,7 +16278,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G447" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16304,7 +16304,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G448" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16330,7 +16330,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G449" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16356,7 +16356,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G450" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16382,7 +16382,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G451" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16408,7 +16408,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G452" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16434,7 +16434,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G453" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16460,7 +16460,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G454" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16486,7 +16486,7 @@
         <v>7.03499984741211</v>
       </c>
       <c r="G455" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16512,7 +16512,7 @@
         <v>7.11499977111816</v>
       </c>
       <c r="G456" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16538,7 +16538,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G457" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16564,7 +16564,7 @@
         <v>7.08500003814697</v>
       </c>
       <c r="G458" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16590,7 +16590,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G459" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16616,7 +16616,7 @@
         <v>7.0149998664856</v>
       </c>
       <c r="G460" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16642,7 +16642,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G461" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16668,7 +16668,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G462" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16694,7 +16694,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G463" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16720,7 +16720,7 @@
         <v>7.24499988555908</v>
       </c>
       <c r="G464" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16746,7 +16746,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G465" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16772,7 +16772,7 @@
         <v>7.19500017166138</v>
       </c>
       <c r="G466" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16798,7 +16798,7 @@
         <v>7.2350001335144</v>
       </c>
       <c r="G467" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16824,7 +16824,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G468" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16850,7 +16850,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G469" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16876,7 +16876,7 @@
         <v>7.29500007629395</v>
       </c>
       <c r="G470" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16902,7 +16902,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G471" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16928,7 +16928,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G472" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16954,7 +16954,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G473" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16980,7 +16980,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G474" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17006,7 +17006,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G475" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17032,7 +17032,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G476" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17058,7 +17058,7 @@
         <v>7.49499988555908</v>
       </c>
       <c r="G477" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17084,7 +17084,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G478" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17110,7 +17110,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G479" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17136,7 +17136,7 @@
         <v>7.29500007629395</v>
       </c>
       <c r="G480" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17162,7 +17162,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G481" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17188,7 +17188,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G482" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17214,7 +17214,7 @@
         <v>7.42000007629395</v>
       </c>
       <c r="G483" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17240,7 +17240,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G484" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17266,7 +17266,7 @@
         <v>7.46500015258789</v>
       </c>
       <c r="G485" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17292,7 +17292,7 @@
         <v>7.375</v>
       </c>
       <c r="G486" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17318,7 +17318,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G487" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17344,7 +17344,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G488" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17370,7 +17370,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G489" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17396,7 +17396,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G490" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17422,7 +17422,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G491" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17448,7 +17448,7 @@
         <v>7.13500022888184</v>
       </c>
       <c r="G492" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17474,7 +17474,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G493" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17500,7 +17500,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G494" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17526,7 +17526,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G495" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17552,7 +17552,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G496" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17578,7 +17578,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G497" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17604,7 +17604,7 @@
         <v>7.2350001335144</v>
       </c>
       <c r="G498" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17630,7 +17630,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G499" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17656,7 +17656,7 @@
         <v>7.22499990463257</v>
       </c>
       <c r="G500" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17682,7 +17682,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G501" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17708,7 +17708,7 @@
         <v>7.24499988555908</v>
       </c>
       <c r="G502" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17734,7 +17734,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G503" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17760,7 +17760,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G504" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17786,7 +17786,7 @@
         <v>7.27500009536743</v>
       </c>
       <c r="G505" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17812,7 +17812,7 @@
         <v>7.25</v>
       </c>
       <c r="G506" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17838,7 +17838,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G507" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17864,7 +17864,7 @@
         <v>7.31500005722046</v>
       </c>
       <c r="G508" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17890,7 +17890,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G509" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17916,7 +17916,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G510" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17942,7 +17942,7 @@
         <v>7.55000019073486</v>
       </c>
       <c r="G511" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17968,7 +17968,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G512" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17994,7 +17994,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G513" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18020,7 +18020,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G514" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18046,7 +18046,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G515" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18072,7 +18072,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G516" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18098,7 +18098,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G517" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18124,7 +18124,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G518" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18150,7 +18150,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G519" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18176,7 +18176,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G520" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18202,7 +18202,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G521" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18228,7 +18228,7 @@
         <v>7.90999984741211</v>
       </c>
       <c r="G522" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18254,7 +18254,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G523" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18280,7 +18280,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G524" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18306,7 +18306,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G525" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18332,7 +18332,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G526" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18358,7 +18358,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G527" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18384,7 +18384,7 @@
         <v>7.82999992370605</v>
       </c>
       <c r="G528" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18410,7 +18410,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G529" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18436,7 +18436,7 @@
         <v>8</v>
       </c>
       <c r="G530" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18462,7 +18462,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G531" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18488,7 +18488,7 @@
         <v>7.73999977111816</v>
       </c>
       <c r="G532" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18514,7 +18514,7 @@
         <v>7.55999994277954</v>
       </c>
       <c r="G533" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18540,7 +18540,7 @@
         <v>7.48000001907349</v>
       </c>
       <c r="G534" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18566,7 +18566,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G535" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18592,7 +18592,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G536" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18618,7 +18618,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G537" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18644,7 +18644,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G538" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18670,7 +18670,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G539" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18696,7 +18696,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G540" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18722,7 +18722,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G541" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18748,7 +18748,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G542" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18774,7 +18774,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G543" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18800,7 +18800,7 @@
         <v>7.40000009536743</v>
       </c>
       <c r="G544" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18826,7 +18826,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G545" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18852,7 +18852,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G546" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18878,7 +18878,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G547" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18904,7 +18904,7 @@
         <v>7.6399998664856</v>
       </c>
       <c r="G548" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18930,7 +18930,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G549" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18956,7 +18956,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G550" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18982,7 +18982,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G551" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19008,7 +19008,7 @@
         <v>7.36999988555908</v>
       </c>
       <c r="G552" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19034,7 +19034,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G553" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19060,7 +19060,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G554" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19086,7 +19086,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G555" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19112,7 +19112,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G556" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19138,7 +19138,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G557" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19164,7 +19164,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G558" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19190,7 +19190,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G559" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19216,7 +19216,7 @@
         <v>7.3600001335144</v>
       </c>
       <c r="G560" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19242,7 +19242,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G561" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19268,7 +19268,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G562" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19294,7 +19294,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G563" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19320,7 +19320,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19346,7 +19346,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G565" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19372,7 +19372,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G566" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19398,7 +19398,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G567" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19424,7 +19424,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G568" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19450,7 +19450,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G569" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19476,7 +19476,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G570" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19502,7 +19502,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G571" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19528,7 +19528,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G572" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19554,7 +19554,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G573" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19580,7 +19580,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G574" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19606,7 +19606,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G575" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19632,7 +19632,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G576" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19658,7 +19658,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G577" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19684,7 +19684,7 @@
         <v>7.34000015258789</v>
       </c>
       <c r="G578" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19710,7 +19710,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G579" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19736,7 +19736,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G580" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19762,7 +19762,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G581" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19788,7 +19788,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G582" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19814,7 +19814,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G583" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19840,7 +19840,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G584" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19866,7 +19866,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G585" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19892,7 +19892,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G586" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19918,7 +19918,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G587" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19944,7 +19944,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G588" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19970,7 +19970,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G589" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19996,7 +19996,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G590" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20022,7 +20022,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G591" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20048,7 +20048,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G592" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20074,7 +20074,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G593" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20100,7 +20100,7 @@
         <v>6.92999982833862</v>
       </c>
       <c r="G594" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20126,7 +20126,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G595" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20152,7 +20152,7 @@
         <v>7.15000009536743</v>
       </c>
       <c r="G596" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20178,7 +20178,7 @@
         <v>7.21000003814697</v>
       </c>
       <c r="G597" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20204,7 +20204,7 @@
         <v>7.32000017166138</v>
       </c>
       <c r="G598" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20230,7 +20230,7 @@
         <v>7.23000001907349</v>
       </c>
       <c r="G599" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20256,7 +20256,7 @@
         <v>7.23999977111816</v>
       </c>
       <c r="G600" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20282,7 +20282,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G601" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20308,7 +20308,7 @@
         <v>7.30999994277954</v>
       </c>
       <c r="G602" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20334,7 +20334,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G603" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20360,7 +20360,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G604" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20386,7 +20386,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G605" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20412,7 +20412,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G606" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20438,7 +20438,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G607" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20464,7 +20464,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G608" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20490,7 +20490,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G609" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20516,7 +20516,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G610" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20542,7 +20542,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G611" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20568,7 +20568,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G612" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20594,7 +20594,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G613" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20620,7 +20620,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G614" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20646,7 +20646,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G615" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20672,7 +20672,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G616" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20698,7 +20698,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G617" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20724,7 +20724,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G618" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20750,7 +20750,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G619" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20776,7 +20776,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G620" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20802,7 +20802,7 @@
         <v>6.75</v>
       </c>
       <c r="G621" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20828,7 +20828,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G622" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20854,7 +20854,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G623" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20880,7 +20880,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G624" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20906,7 +20906,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G625" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20932,7 +20932,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G626" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20958,7 +20958,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G627" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20984,7 +20984,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G628" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21010,7 +21010,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G629" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21036,7 +21036,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G630" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21062,7 +21062,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21088,7 +21088,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G632" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21114,7 +21114,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G633" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21140,7 +21140,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G634" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21166,7 +21166,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G635" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21192,7 +21192,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G636" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21218,7 +21218,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G637" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21244,7 +21244,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G638" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21270,7 +21270,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G639" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21296,7 +21296,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G640" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21322,7 +21322,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G641" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21348,7 +21348,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G642" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21374,7 +21374,7 @@
         <v>7.09000015258789</v>
       </c>
       <c r="G643" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21400,7 +21400,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G644" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21426,7 +21426,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G645" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21452,7 +21452,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G646" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21478,7 +21478,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G647" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21504,7 +21504,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G648" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -21530,7 +21530,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G649" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21556,7 +21556,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G650" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21582,7 +21582,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G651" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21608,7 +21608,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G652" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21634,7 +21634,7 @@
         <v>6.59999990463257</v>
       </c>
       <c r="G653" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21660,7 +21660,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G654" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21686,7 +21686,7 @@
         <v>6.57999992370605</v>
       </c>
       <c r="G655" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21712,7 +21712,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G656" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21738,7 +21738,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G657" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21764,7 +21764,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G658" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21790,7 +21790,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G659" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21816,7 +21816,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G660" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21842,7 +21842,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G661" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21868,7 +21868,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G662" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21894,7 +21894,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G663" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21920,7 +21920,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G664" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21946,7 +21946,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G665" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21972,7 +21972,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G666" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21998,7 +21998,7 @@
         <v>6.48000001907349</v>
       </c>
       <c r="G667" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22024,7 +22024,7 @@
         <v>6.42000007629395</v>
       </c>
       <c r="G668" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22050,7 +22050,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G669" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22076,7 +22076,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G670" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22102,7 +22102,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G671" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22128,7 +22128,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G672" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22154,7 +22154,7 @@
         <v>6.42000007629395</v>
       </c>
       <c r="G673" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22180,7 +22180,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G674" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22206,7 +22206,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G675" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22232,7 +22232,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G676" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22258,7 +22258,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G677" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22284,7 +22284,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G678" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22310,7 +22310,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G679" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22336,7 +22336,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G680" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22362,7 +22362,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G681" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22388,7 +22388,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G682" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22414,7 +22414,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G683" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22440,7 +22440,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G684" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22466,7 +22466,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G685" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22492,7 +22492,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G686" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22518,7 +22518,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G687" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22544,7 +22544,7 @@
         <v>6.21000003814697</v>
       </c>
       <c r="G688" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -22570,7 +22570,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G689" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22596,7 +22596,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G690" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -22622,7 +22622,7 @@
         <v>6.25</v>
       </c>
       <c r="G691" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22648,7 +22648,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G692" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -22674,7 +22674,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G693" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -22700,7 +22700,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G694" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -22726,7 +22726,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G695" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22752,7 +22752,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G696" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22778,7 +22778,7 @@
         <v>6.42000007629395</v>
       </c>
       <c r="G697" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22804,7 +22804,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G698" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22830,7 +22830,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G699" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22856,7 +22856,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G700" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22882,7 +22882,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G701" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22908,7 +22908,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G702" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22934,7 +22934,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G703" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22960,7 +22960,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G704" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22986,7 +22986,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G705" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23012,7 +23012,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G706" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23038,7 +23038,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G707" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23064,7 +23064,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G708" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23090,7 +23090,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G709" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23116,7 +23116,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G710" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23142,7 +23142,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G711" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23168,7 +23168,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G712" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23194,7 +23194,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G713" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23220,7 +23220,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G714" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23246,7 +23246,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G715" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23272,7 +23272,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G716" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23298,7 +23298,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G717" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23324,7 +23324,7 @@
         <v>4.98999977111816</v>
       </c>
       <c r="G718" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23350,7 +23350,7 @@
         <v>4.84000015258789</v>
       </c>
       <c r="G719" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23376,7 +23376,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G720" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23402,7 +23402,7 @@
         <v>4.91499996185303</v>
       </c>
       <c r="G721" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23428,7 +23428,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G722" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23454,7 +23454,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G723" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23480,7 +23480,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G724" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23506,7 +23506,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G725" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23532,7 +23532,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G726" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23558,7 +23558,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G727" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23584,7 +23584,7 @@
         <v>5.44000005722046</v>
       </c>
       <c r="G728" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23610,7 +23610,7 @@
         <v>5.3600001335144</v>
       </c>
       <c r="G729" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23636,7 +23636,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G730" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23662,7 +23662,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G731" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23688,7 +23688,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G732" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23714,7 +23714,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G733" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23740,7 +23740,7 @@
         <v>5.21999979019165</v>
       </c>
       <c r="G734" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -23766,7 +23766,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G735" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23792,7 +23792,7 @@
         <v>5.13000011444092</v>
       </c>
       <c r="G736" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23818,7 +23818,7 @@
         <v>4.96000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23844,7 +23844,7 @@
         <v>4.78499984741211</v>
       </c>
       <c r="G738" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23870,7 +23870,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G739" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23896,7 +23896,7 @@
         <v>4.85500001907349</v>
       </c>
       <c r="G740" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23922,7 +23922,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G741" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23948,7 +23948,7 @@
         <v>5.01000022888184</v>
       </c>
       <c r="G742" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23974,7 +23974,7 @@
         <v>4.9850001335144</v>
       </c>
       <c r="G743" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24000,7 +24000,7 @@
         <v>4.92000007629395</v>
       </c>
       <c r="G744" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24026,7 +24026,7 @@
         <v>4.84999990463257</v>
       </c>
       <c r="G745" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24052,7 +24052,7 @@
         <v>4.77500009536743</v>
       </c>
       <c r="G746" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24078,7 +24078,7 @@
         <v>5.09000015258789</v>
       </c>
       <c r="G747" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24104,7 +24104,7 @@
         <v>5.03000020980835</v>
       </c>
       <c r="G748" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24130,7 +24130,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G749" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24156,7 +24156,7 @@
         <v>4.85500001907349</v>
       </c>
       <c r="G750" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24182,7 +24182,7 @@
         <v>4.89499998092651</v>
       </c>
       <c r="G751" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24208,7 +24208,7 @@
         <v>4.78999996185303</v>
       </c>
       <c r="G752" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24234,7 +24234,7 @@
         <v>4.90500020980835</v>
       </c>
       <c r="G753" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24260,7 +24260,7 @@
         <v>4.90999984741211</v>
       </c>
       <c r="G754" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24286,7 +24286,7 @@
         <v>4.83500003814697</v>
       </c>
       <c r="G755" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24312,7 +24312,7 @@
         <v>4.82999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24338,7 +24338,7 @@
         <v>4.76999998092651</v>
       </c>
       <c r="G757" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24364,7 +24364,7 @@
         <v>4.66499996185303</v>
       </c>
       <c r="G758" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24390,7 +24390,7 @@
         <v>4.91499996185303</v>
       </c>
       <c r="G759" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24416,7 +24416,7 @@
         <v>4.90000009536743</v>
       </c>
       <c r="G760" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24442,7 +24442,7 @@
         <v>5.09000015258789</v>
       </c>
       <c r="G761" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24468,7 +24468,7 @@
         <v>5.09000015258789</v>
       </c>
       <c r="G762" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24494,7 +24494,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G763" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24520,7 +24520,7 @@
         <v>5.09999990463257</v>
       </c>
       <c r="G764" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24546,7 +24546,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G765" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -24572,7 +24572,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G766" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24598,7 +24598,7 @@
         <v>5.30999994277954</v>
       </c>
       <c r="G767" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24624,7 +24624,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G768" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24650,7 +24650,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G769" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -24676,7 +24676,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G770" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24702,7 +24702,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G771" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -24728,7 +24728,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G772" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -24754,7 +24754,7 @@
         <v>5.5</v>
       </c>
       <c r="G773" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24780,7 +24780,7 @@
         <v>5.67000007629395</v>
       </c>
       <c r="G774" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24806,7 +24806,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G775" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24832,7 +24832,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G776" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24858,7 +24858,7 @@
         <v>5.75</v>
       </c>
       <c r="G777" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24884,7 +24884,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G778" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24910,7 +24910,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G779" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24936,7 +24936,7 @@
         <v>5.75</v>
       </c>
       <c r="G780" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24962,7 +24962,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G781" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24988,7 +24988,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G782" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -25014,7 +25014,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G783" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -25040,7 +25040,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G784" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25066,7 +25066,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G785" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25092,7 +25092,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G786" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25118,7 +25118,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G787" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25144,7 +25144,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G788" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25170,7 +25170,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G789" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25196,7 +25196,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G790" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25222,7 +25222,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G791" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25248,7 +25248,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G792" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25274,7 +25274,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G793" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25300,7 +25300,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G794" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25326,7 +25326,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G795" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25352,7 +25352,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G796" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25378,7 +25378,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G797" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25404,7 +25404,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G798" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25430,7 +25430,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G799" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25456,7 +25456,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G800" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25482,7 +25482,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G801" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -25508,7 +25508,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G802" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25534,7 +25534,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G803" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -25560,7 +25560,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G804" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25586,7 +25586,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G805" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25612,7 +25612,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G806" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25638,7 +25638,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G807" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25664,7 +25664,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G808" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25690,7 +25690,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G809" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -25716,7 +25716,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G810" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -25742,7 +25742,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G811" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -25768,7 +25768,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G812" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25794,7 +25794,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G813" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25820,7 +25820,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G814" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25846,7 +25846,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G815" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25872,7 +25872,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G816" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25898,7 +25898,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G817" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25924,7 +25924,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G818" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25950,7 +25950,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G819" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25976,7 +25976,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G820" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26002,7 +26002,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G821" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26028,7 +26028,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G822" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26054,7 +26054,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G823" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26080,7 +26080,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G824" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26106,7 +26106,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26132,7 +26132,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G826" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26158,7 +26158,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G827" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26184,7 +26184,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G828" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26210,7 +26210,7 @@
         <v>6.51000022888184</v>
       </c>
       <c r="G829" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26236,7 +26236,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G830" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26262,7 +26262,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G831" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26288,7 +26288,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G832" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26314,7 +26314,7 @@
         <v>6.5</v>
       </c>
       <c r="G833" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26340,7 +26340,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G834" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26366,7 +26366,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G835" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26392,7 +26392,7 @@
         <v>6.42000007629395</v>
       </c>
       <c r="G836" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26418,7 +26418,7 @@
         <v>6.5</v>
       </c>
       <c r="G837" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26444,7 +26444,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G838" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26470,7 +26470,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G839" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26496,7 +26496,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G840" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -26522,7 +26522,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G841" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -26548,7 +26548,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G842" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26574,7 +26574,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G843" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26600,7 +26600,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G844" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26626,7 +26626,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G845" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26652,7 +26652,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G846" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -26678,7 +26678,7 @@
         <v>6.5</v>
       </c>
       <c r="G847" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -26704,7 +26704,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G848" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -26730,7 +26730,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G849" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -26756,7 +26756,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G850" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26782,7 +26782,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G851" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26808,7 +26808,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G852" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26834,7 +26834,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G853" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26860,7 +26860,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G854" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26886,7 +26886,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G855" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26912,7 +26912,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G856" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26938,7 +26938,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G857" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26964,7 +26964,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G858" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26990,7 +26990,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G859" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27016,7 +27016,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G860" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27042,7 +27042,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G861" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27068,7 +27068,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G862" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27094,7 +27094,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G863" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27120,7 +27120,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27146,7 +27146,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G865" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27172,7 +27172,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G866" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27198,7 +27198,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G867" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27224,7 +27224,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G868" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27250,7 +27250,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G869" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27276,7 +27276,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G870" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27302,7 +27302,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G871" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27406,7 +27406,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G875" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27432,7 +27432,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G876" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -28524,7 +28524,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G918" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -28706,7 +28706,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G925" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -28758,7 +28758,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G927" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28888,7 +28888,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G932" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -28940,7 +28940,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G934" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29486,7 +29486,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G955" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -32164,7 +32164,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G1058" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -61188,7 +61188,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6493634259</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>65280</v>
@@ -61209,6 +61209,32 @@
         <v>1407</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6493287037</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>47139</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>10.2399997711182</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>10.0600004196167</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>10.2399997711182</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>10.1199998855591</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -47,16 +47,16 @@
     <t xml:space="preserve">4.77356767654419</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64730501174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806301116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41514348983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30517148971558</t>
+    <t xml:space="preserve">4.64730453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806348800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41514301300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30517101287842</t>
   </si>
   <si>
     <t xml:space="preserve">4.41107034683228</t>
@@ -65,82 +65,82 @@
     <t xml:space="preserve">4.37441253662109</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37848615646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14225244522095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01435852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05346012115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74879932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91171908378601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02739238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95733737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99480819702148</t>
+    <t xml:space="preserve">4.37848567962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14225149154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01435899734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05345964431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74879908561707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91171884536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02739191055298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95733666419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99480843544006</t>
   </si>
   <si>
     <t xml:space="preserve">3.95570731163025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82048344612122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01272964477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95082020759583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81233787536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64941740036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67059707641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69177675247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4180703163147</t>
+    <t xml:space="preserve">3.82048320770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01273012161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95081996917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81233763694763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64941716194153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67059683799744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6917769908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41807055473328</t>
   </si>
   <si>
     <t xml:space="preserve">3.21279048919678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31543064117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19324016571045</t>
+    <t xml:space="preserve">3.31543016433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19323992729187</t>
   </si>
   <si>
     <t xml:space="preserve">3.2730712890625</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51093482971191</t>
+    <t xml:space="preserve">3.51093506813049</t>
   </si>
   <si>
     <t xml:space="preserve">3.42947483062744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54514813423157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62497901916504</t>
+    <t xml:space="preserve">3.54514837265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62497878074646</t>
   </si>
   <si>
     <t xml:space="preserve">3.41318297386169</t>
@@ -161,109 +161,109 @@
     <t xml:space="preserve">3.47020483016968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65756273269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70643949508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62660837173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7162139415741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63149571418762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59076571464539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795740127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59565353393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62009143829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82700037956238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68526005744934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82862949371338</t>
+    <t xml:space="preserve">3.65756344795227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70643925666809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62660813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71621465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63149619102478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59076547622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56795692443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59565377235413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62009167671204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82700085639954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68525958061218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82862997055054</t>
   </si>
   <si>
     <t xml:space="preserve">3.90846061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74391055107117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78138279914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.730877161026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58750772476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64127111434937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57936143875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61357450485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65104603767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52070999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47835040092468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44250845909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67222619056702</t>
+    <t xml:space="preserve">3.74391078948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78138303756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73087739944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5875072479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64127135276794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57936120033264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61357426643372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65104651451111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52071022987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47835087776184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44250798225403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67222595214844</t>
   </si>
   <si>
     <t xml:space="preserve">3.55492305755615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61520409584045</t>
+    <t xml:space="preserve">3.61520433425903</t>
   </si>
   <si>
     <t xml:space="preserve">3.66733813285828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85469651222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81885480880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9345281124115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396675109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82374262809753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77975344657898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76671981811523</t>
+    <t xml:space="preserve">3.85469722747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81885457038879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93452787399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396698951721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82374238967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77975249290466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76671957969666</t>
   </si>
   <si>
     <t xml:space="preserve">3.75042819976807</t>
@@ -275,118 +275,118 @@
     <t xml:space="preserve">3.73902368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7748658657074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69829297065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74716877937317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71458601951599</t>
+    <t xml:space="preserve">3.77486610412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69829344749451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74716949462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7145848274231</t>
   </si>
   <si>
     <t xml:space="preserve">3.60054111480713</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52722668647766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54351925849915</t>
+    <t xml:space="preserve">3.52722644805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54351902008057</t>
   </si>
   <si>
     <t xml:space="preserve">3.6022744178772</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69399905204773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83241939544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83575463294983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95249509811401</t>
+    <t xml:space="preserve">3.69399881362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8324191570282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83575510978699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95249438285828</t>
   </si>
   <si>
     <t xml:space="preserve">3.96083378791809</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85243272781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82908415794373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77905249595642</t>
+    <t xml:space="preserve">3.85243225097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8290843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77905321121216</t>
   </si>
   <si>
     <t xml:space="preserve">3.74236249923706</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66898345947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65564155578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62729048728943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45384740829468</t>
+    <t xml:space="preserve">3.66898322105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65564107894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62729024887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4538471698761</t>
   </si>
   <si>
     <t xml:space="preserve">3.37713217735291</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36379051208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26039218902588</t>
+    <t xml:space="preserve">3.3637900352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26039171218872</t>
   </si>
   <si>
     <t xml:space="preserve">3.2220344543457</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06693649291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21703124046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09528732299805</t>
+    <t xml:space="preserve">3.06693601608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21703147888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09528756141663</t>
   </si>
   <si>
     <t xml:space="preserve">3.28707551956177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41882538795471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16866755485535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88515496253967</t>
+    <t xml:space="preserve">3.41882491111755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16866731643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88515520095825</t>
   </si>
   <si>
     <t xml:space="preserve">2.87681651115417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89682936668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9935564994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1036262512207</t>
+    <t xml:space="preserve">2.8968288898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99355673789978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10362577438354</t>
   </si>
   <si>
     <t xml:space="preserve">3.01690483093262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85180068016052</t>
+    <t xml:space="preserve">2.8518009185791</t>
   </si>
   <si>
     <t xml:space="preserve">2.81844639778137</t>
@@ -395,22 +395,22 @@
     <t xml:space="preserve">2.82344913482666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90516757965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93518686294556</t>
+    <t xml:space="preserve">2.90516781806946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93518662452698</t>
   </si>
   <si>
     <t xml:space="preserve">3.10195851325989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06026530265808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27540159225464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19535064697266</t>
+    <t xml:space="preserve">3.06026554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27540183067322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19535088539124</t>
   </si>
   <si>
     <t xml:space="preserve">3.13698101043701</t>
@@ -419,52 +419,52 @@
     <t xml:space="preserve">3.03358221054077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.170334815979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03524971008301</t>
+    <t xml:space="preserve">3.17033505439758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03524994850159</t>
   </si>
   <si>
     <t xml:space="preserve">2.98688578605652</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23871111869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24371528625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21869897842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25205326080322</t>
+    <t xml:space="preserve">3.23871159553528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24371457099915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21869874000549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2520534992218</t>
   </si>
   <si>
     <t xml:space="preserve">3.16032862663269</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18367695808411</t>
+    <t xml:space="preserve">3.18367648124695</t>
   </si>
   <si>
     <t xml:space="preserve">3.08528137207031</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17867374420166</t>
+    <t xml:space="preserve">3.17867398262024</t>
   </si>
   <si>
     <t xml:space="preserve">3.30208492279053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34544563293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38880658149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50387907028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47386026382446</t>
+    <t xml:space="preserve">3.34544587135315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38880634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50387930870056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47385954856873</t>
   </si>
   <si>
     <t xml:space="preserve">3.53556537628174</t>
@@ -479,28 +479,28 @@
     <t xml:space="preserve">3.75236940383911</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71901535987854</t>
+    <t xml:space="preserve">3.7190146446228</t>
   </si>
   <si>
     <t xml:space="preserve">3.79239463806152</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76904606819153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81907796859741</t>
+    <t xml:space="preserve">3.76904582977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81907773017883</t>
   </si>
   <si>
     <t xml:space="preserve">3.92914700508118</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88411927223206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89912867546082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87911605834961</t>
+    <t xml:space="preserve">3.88411855697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89912891387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87911510467529</t>
   </si>
   <si>
     <t xml:space="preserve">3.81741046905518</t>
@@ -509,55 +509,55 @@
     <t xml:space="preserve">3.69566679000854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63729643821716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54390430450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5855975151062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73235678672791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67732167243958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61561608314514</t>
+    <t xml:space="preserve">3.63729667663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54390406608582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58559775352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73235607147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.677321434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61561584472656</t>
   </si>
   <si>
     <t xml:space="preserve">3.72068214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71734666824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45551538467407</t>
+    <t xml:space="preserve">3.71734714508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45551490783691</t>
   </si>
   <si>
     <t xml:space="preserve">3.55224275588989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52222371101379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50221085548401</t>
+    <t xml:space="preserve">3.52222347259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50221109390259</t>
   </si>
   <si>
     <t xml:space="preserve">3.57725858688354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63562870025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62562227249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63396096229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391073226929</t>
+    <t xml:space="preserve">3.63562846183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62562274932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63396048545837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391097068787</t>
   </si>
   <si>
     <t xml:space="preserve">3.61394858360291</t>
@@ -566,85 +566,85 @@
     <t xml:space="preserve">3.69733452796936</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66231250762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71401190757751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76237487792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73402404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76070857048035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60727763175964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70233774185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71067595481873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50721406936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48720169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40214800834656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43883800506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34044218063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28540802001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27373361587524</t>
+    <t xml:space="preserve">3.66231274604797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71401166915894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76237535476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73402428627014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76070833206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60727787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70233750343323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71067571640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50721430778503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48553347587585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48720216751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40214824676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4388382434845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34044241905212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28540778160095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27373385429382</t>
   </si>
   <si>
     <t xml:space="preserve">3.24037933349609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27706909179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21036052703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17533826828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06526923179626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07694268226624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01190137863159</t>
+    <t xml:space="preserve">3.27706933021545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21036028862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17533802986145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06526899337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07694292068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01190185546875</t>
   </si>
   <si>
     <t xml:space="preserve">2.97687935829163</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02357602119446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02691149711609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01523685455322</t>
+    <t xml:space="preserve">3.0235755443573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02691102027893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0152370929718</t>
   </si>
   <si>
     <t xml:space="preserve">3.10862922668457</t>
@@ -653,73 +653,73 @@
     <t xml:space="preserve">3.23537611961365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25038576126099</t>
+    <t xml:space="preserve">3.25038552284241</t>
   </si>
   <si>
     <t xml:space="preserve">3.38547086715698</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29874968528748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52722692489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55724620819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52055621147156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56892013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64396739006042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51888799667358</t>
+    <t xml:space="preserve">3.29874920845032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52722716331482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55724596977234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52055597305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56891965866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64396715164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51888847351074</t>
   </si>
   <si>
     <t xml:space="preserve">3.68566036224365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75070118904114</t>
+    <t xml:space="preserve">3.75070142745972</t>
   </si>
   <si>
     <t xml:space="preserve">3.66064476966858</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77738547325134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55557799339294</t>
+    <t xml:space="preserve">3.77738523483276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55557823181152</t>
   </si>
   <si>
     <t xml:space="preserve">3.39881277084351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35211658477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29374623298645</t>
+    <t xml:space="preserve">3.35211634635925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29374647140503</t>
   </si>
   <si>
     <t xml:space="preserve">3.33543920516968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31209135055542</t>
+    <t xml:space="preserve">3.31209111213684</t>
   </si>
   <si>
     <t xml:space="preserve">3.29541397094727</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2970814704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32710075378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34211015701294</t>
+    <t xml:space="preserve">3.29708170890808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3271005153656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34210991859436</t>
   </si>
   <si>
     <t xml:space="preserve">3.30041718482971</t>
@@ -737,43 +737,43 @@
     <t xml:space="preserve">4.25268459320068</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2610239982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14428281784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03588151931763</t>
+    <t xml:space="preserve">4.26102352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14428329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03588199615479</t>
   </si>
   <si>
     <t xml:space="preserve">4.27770090103149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36942577362061</t>
+    <t xml:space="preserve">4.36942625045776</t>
   </si>
   <si>
     <t xml:space="preserve">4.43196535110474</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56121301651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5278582572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49867343902588</t>
+    <t xml:space="preserve">4.56121253967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52785921096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49867391586304</t>
   </si>
   <si>
     <t xml:space="preserve">4.50284337997437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46115064620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35274791717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47782754898071</t>
+    <t xml:space="preserve">4.46115016937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35274839401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47782707214355</t>
   </si>
   <si>
     <t xml:space="preserve">4.44864225387573</t>
@@ -782,16 +782,16 @@
     <t xml:space="preserve">4.46531963348389</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47365808486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65293788909912</t>
+    <t xml:space="preserve">4.47365760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65293741226196</t>
   </si>
   <si>
     <t xml:space="preserve">4.51535129547119</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41528797149658</t>
+    <t xml:space="preserve">4.41528701782227</t>
   </si>
   <si>
     <t xml:space="preserve">4.34024000167847</t>
@@ -800,22 +800,22 @@
     <t xml:space="preserve">4.3360710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3861026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43613433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32773208618164</t>
+    <t xml:space="preserve">4.38610219955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43613481521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3277325630188</t>
   </si>
   <si>
     <t xml:space="preserve">4.33190202713013</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29437732696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22766923904419</t>
+    <t xml:space="preserve">4.29437828063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22766971588135</t>
   </si>
   <si>
     <t xml:space="preserve">4.18597602844238</t>
@@ -824,19 +824,19 @@
     <t xml:space="preserve">4.30688571929932</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49450445175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45281219482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36108732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39027214050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36525583267212</t>
+    <t xml:space="preserve">4.49450397491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45281171798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36108779907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39027166366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36525678634644</t>
   </si>
   <si>
     <t xml:space="preserve">4.53619766235352</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">4.61958312988281</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60707569122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61124563217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7738471031189</t>
+    <t xml:space="preserve">4.60707521438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61124467849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77384757995605</t>
   </si>
   <si>
     <t xml:space="preserve">4.75300121307373</t>
@@ -860,85 +860,85 @@
     <t xml:space="preserve">4.80720138549805</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82804822921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91560363769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90726518630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74466228485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42779588699341</t>
+    <t xml:space="preserve">4.82804870605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91560316085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90726566314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74466180801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42779541015625</t>
   </si>
   <si>
     <t xml:space="preserve">4.42362594604492</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34440994262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49153566360474</t>
+    <t xml:space="preserve">4.34440946578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49153518676758</t>
   </si>
   <si>
     <t xml:space="preserve">4.53827857971191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50428342819214</t>
+    <t xml:space="preserve">4.5042839050293</t>
   </si>
   <si>
     <t xml:space="preserve">4.46179056167603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45329189300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38955163955688</t>
+    <t xml:space="preserve">4.45329141616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38955116271973</t>
   </si>
   <si>
     <t xml:space="preserve">4.35980653762817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34280967712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40229988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3513069152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2918176651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4192967414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45754146575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43204545974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47878789901733</t>
+    <t xml:space="preserve">4.34280920028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40229940414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35130739212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29181814193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41929626464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45754098892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.432044506073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47878694534302</t>
   </si>
   <si>
     <t xml:space="preserve">4.38530206680298</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51703214645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48728656768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48303651809692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47028875350952</t>
+    <t xml:space="preserve">4.5170316696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48728609085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48303604125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47028827667236</t>
   </si>
   <si>
     <t xml:space="preserve">4.55527544021606</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">4.57227277755737</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65725946426392</t>
+    <t xml:space="preserve">4.6572585105896</t>
   </si>
   <si>
     <t xml:space="preserve">4.49578475952148</t>
@@ -956,79 +956,79 @@
     <t xml:space="preserve">4.4362940788269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78473901748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67425632476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95046234130859</t>
+    <t xml:space="preserve">4.78473949432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67425584793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95046281814575</t>
   </si>
   <si>
     <t xml:space="preserve">5.09918928146362</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15867900848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20967102050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35414743423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3923921585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35839700698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52412176132202</t>
+    <t xml:space="preserve">5.1586799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20967149734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35414791107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39239168167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35839748382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52412080764771</t>
   </si>
   <si>
     <t xml:space="preserve">5.40938901901245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4051399230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45188283920288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41363859176636</t>
+    <t xml:space="preserve">5.40514039993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45188236236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4136381149292</t>
   </si>
   <si>
     <t xml:space="preserve">5.33290147781372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39664173126221</t>
+    <t xml:space="preserve">5.39664125442505</t>
   </si>
   <si>
     <t xml:space="preserve">5.40089082717896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26491212844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11618566513062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15442943572998</t>
+    <t xml:space="preserve">5.26491260528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11618614196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1544303894043</t>
   </si>
   <si>
     <t xml:space="preserve">5.22666835784912</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30740547180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1756763458252</t>
+    <t xml:space="preserve">5.3074049949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17567729949951</t>
   </si>
   <si>
     <t xml:space="preserve">5.13318300247192</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05669546127319</t>
+    <t xml:space="preserve">5.05669498443604</t>
   </si>
   <si>
     <t xml:space="preserve">5.09069013595581</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">5.06094455718994</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00570392608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03969764709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98870611190796</t>
+    <t xml:space="preserve">5.00570344924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03969860076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98870658874512</t>
   </si>
   <si>
     <t xml:space="preserve">5.00145483016968</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">5.04394769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01420211791992</t>
+    <t xml:space="preserve">5.01420259475708</t>
   </si>
   <si>
     <t xml:space="preserve">5.12468481063843</t>
@@ -1064,10 +1064,10 @@
     <t xml:space="preserve">5.15018033981323</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21816921234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27766084671021</t>
+    <t xml:space="preserve">5.21816968917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27766036987305</t>
   </si>
   <si>
     <t xml:space="preserve">5.33715105056763</t>
@@ -1079,22 +1079,22 @@
     <t xml:space="preserve">5.23516702651978</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43913459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37114572525024</t>
+    <t xml:space="preserve">5.43913507461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3711462020874</t>
   </si>
   <si>
     <t xml:space="preserve">5.32865190505981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69409370422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80032682418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12327575683594</t>
+    <t xml:space="preserve">5.69409418106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80032730102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1232762336731</t>
   </si>
   <si>
     <t xml:space="preserve">5.92355728149414</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">6.19551420211792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13602352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28899955749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00854396820068</t>
+    <t xml:space="preserve">6.1360239982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28900051116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00854349136353</t>
   </si>
   <si>
     <t xml:space="preserve">6.05953598022461</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">6.08503198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15302038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1147780418396</t>
+    <t xml:space="preserve">6.15302085876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11477708816528</t>
   </si>
   <si>
     <t xml:space="preserve">6.08928108215332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03403949737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97879886627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04678773880005</t>
+    <t xml:space="preserve">6.0340404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97879838943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04678821563721</t>
   </si>
   <si>
     <t xml:space="preserve">6.01704263687134</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">6.0212926864624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99154710769653</t>
+    <t xml:space="preserve">5.99154663085938</t>
   </si>
   <si>
     <t xml:space="preserve">5.96180200576782</t>
@@ -1157,97 +1157,97 @@
     <t xml:space="preserve">6.15727043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21251153945923</t>
+    <t xml:space="preserve">6.21251106262207</t>
   </si>
   <si>
     <t xml:space="preserve">6.1487717628479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11902618408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17001914978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19976425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41647958755493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29749727249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32299423217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20401287078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36973714828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33574199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14452266693115</t>
+    <t xml:space="preserve">6.11902713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17001819610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19976377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41647911071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29749870300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32299375534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20401334762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36973667144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33574151992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14452219009399</t>
   </si>
   <si>
     <t xml:space="preserve">6.22101068496704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30599641799927</t>
+    <t xml:space="preserve">6.30599737167358</t>
   </si>
   <si>
     <t xml:space="preserve">6.33149194717407</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34424161911011</t>
+    <t xml:space="preserve">6.34424066543579</t>
   </si>
   <si>
     <t xml:space="preserve">6.2677526473999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07653379440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06378555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13177442550659</t>
+    <t xml:space="preserve">6.07653331756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06378507614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13177490234375</t>
   </si>
   <si>
     <t xml:space="preserve">6.14027309417725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23800706863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18276596069336</t>
+    <t xml:space="preserve">6.23800754547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18276643753052</t>
   </si>
   <si>
     <t xml:space="preserve">6.1615195274353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27200222015381</t>
+    <t xml:space="preserve">6.27200174331665</t>
   </si>
   <si>
     <t xml:space="preserve">6.21676111221313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48446846008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34848928451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40798091888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71393203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74792671203613</t>
+    <t xml:space="preserve">6.48446893692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34848976135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40797996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71393251419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74792623519897</t>
   </si>
   <si>
     <t xml:space="preserve">6.70543336868286</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">6.7904200553894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87540674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72243022918701</t>
+    <t xml:space="preserve">6.87540626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72243070602417</t>
   </si>
   <si>
     <t xml:space="preserve">6.75642490386963</t>
@@ -1274,13 +1274,13 @@
     <t xml:space="preserve">6.76492404937744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84141159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65444183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64594316482544</t>
+    <t xml:space="preserve">6.84141206741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65444040298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64594268798828</t>
   </si>
   <si>
     <t xml:space="preserve">6.7989182472229</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">6.05103731155396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66294002532959</t>
+    <t xml:space="preserve">6.66293954849243</t>
   </si>
   <si>
     <t xml:space="preserve">6.39098310470581</t>
@@ -1313,37 +1313,37 @@
     <t xml:space="preserve">6.4929666519165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45897340774536</t>
+    <t xml:space="preserve">6.4589729309082</t>
   </si>
   <si>
     <t xml:space="preserve">6.26350355148315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28050088882446</t>
+    <t xml:space="preserve">6.28050136566162</t>
   </si>
   <si>
     <t xml:space="preserve">6.18701553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06803417205811</t>
+    <t xml:space="preserve">6.06803464889526</t>
   </si>
   <si>
     <t xml:space="preserve">6.2550048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17851686477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00004529953003</t>
+    <t xml:space="preserve">6.17851734161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00004482269287</t>
   </si>
   <si>
     <t xml:space="preserve">5.96605110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93205690383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8385705947876</t>
+    <t xml:space="preserve">5.93205642700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83857107162476</t>
   </si>
   <si>
     <t xml:space="preserve">5.87256574630737</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">5.79607772827148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94055461883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98304843902588</t>
+    <t xml:space="preserve">5.94055414199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98304796218872</t>
   </si>
   <si>
     <t xml:space="preserve">5.88956308364868</t>
@@ -1367,10 +1367,10 @@
     <t xml:space="preserve">5.89806175231934</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90656042098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74508666992188</t>
+    <t xml:space="preserve">5.90655994415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74508619308472</t>
   </si>
   <si>
     <t xml:space="preserve">5.76233863830566</t>
@@ -1385,28 +1385,28 @@
     <t xml:space="preserve">5.81409597396851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58981323242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56393480300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65882396697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65019798278809</t>
+    <t xml:space="preserve">5.58981370925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56393527984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65882349014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65019750595093</t>
   </si>
   <si>
     <t xml:space="preserve">5.85722732543945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69332885742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77096509933472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82272243499756</t>
+    <t xml:space="preserve">5.69332838058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77096462249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82272291183472</t>
   </si>
   <si>
     <t xml:space="preserve">5.89173269271851</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">6.02975225448608</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02112674713135</t>
+    <t xml:space="preserve">6.02112627029419</t>
   </si>
   <si>
     <t xml:space="preserve">6.01249980926514</t>
@@ -1427,13 +1427,13 @@
     <t xml:space="preserve">5.90035915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83134937286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92623710632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67607641220093</t>
+    <t xml:space="preserve">5.83134889602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9262375831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67607593536377</t>
   </si>
   <si>
     <t xml:space="preserve">5.61569261550903</t>
@@ -1445,19 +1445,19 @@
     <t xml:space="preserve">5.83997488021851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84860181808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71920776367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62431907653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78821802139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13326740264893</t>
+    <t xml:space="preserve">5.84860134124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71920728683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62431859970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78821754455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13326835632324</t>
   </si>
   <si>
     <t xml:space="preserve">6.11601543426514</t>
@@ -1466,10 +1466,10 @@
     <t xml:space="preserve">5.93486404418945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87448024749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91761159896851</t>
+    <t xml:space="preserve">5.8744797706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91761112213135</t>
   </si>
   <si>
     <t xml:space="preserve">5.90898513793945</t>
@@ -1487,16 +1487,16 @@
     <t xml:space="preserve">5.96936893463135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88310623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94349002838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95211601257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53805637359619</t>
+    <t xml:space="preserve">5.88310575485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94348955154419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9521164894104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53805589675903</t>
   </si>
   <si>
     <t xml:space="preserve">5.49492454528809</t>
@@ -1508,40 +1508,40 @@
     <t xml:space="preserve">5.3655309677124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40866184234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54668235778809</t>
+    <t xml:space="preserve">5.40866231918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54668140411377</t>
   </si>
   <si>
     <t xml:space="preserve">5.57256126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55530881881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46041917800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4776725769043</t>
+    <t xml:space="preserve">5.55530834197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46042013168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47767210006714</t>
   </si>
   <si>
     <t xml:space="preserve">5.33102560043335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24476337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21888542175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34827756881714</t>
+    <t xml:space="preserve">5.24476289749146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21888494491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34827852249146</t>
   </si>
   <si>
     <t xml:space="preserve">5.23613691329956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3741569519043</t>
+    <t xml:space="preserve">5.37415742874146</t>
   </si>
   <si>
     <t xml:space="preserve">5.35690498352051</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">5.42591524124146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4000358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59844017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43454027175903</t>
+    <t xml:space="preserve">5.40003633499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59843969345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43454074859619</t>
   </si>
   <si>
     <t xml:space="preserve">5.27064228057861</t>
@@ -1574,22 +1574,22 @@
     <t xml:space="preserve">5.19300556182861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27926874160767</t>
+    <t xml:space="preserve">5.27926778793335</t>
   </si>
   <si>
     <t xml:space="preserve">5.21025800704956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01185417175293</t>
+    <t xml:space="preserve">5.01185464859009</t>
   </si>
   <si>
     <t xml:space="preserve">4.69268321990967</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58916807174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65817832946777</t>
+    <t xml:space="preserve">4.58916854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65817785263062</t>
   </si>
   <si>
     <t xml:space="preserve">4.46840000152588</t>
@@ -1601,55 +1601,55 @@
     <t xml:space="preserve">4.61504697799683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70993566513062</t>
+    <t xml:space="preserve">4.70993518829346</t>
   </si>
   <si>
     <t xml:space="preserve">4.55466318130493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35625886917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22686576843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30450057983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17510795593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28724908828735</t>
+    <t xml:space="preserve">4.35625982284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22686529159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3045015335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1751070022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2872486114502</t>
   </si>
   <si>
     <t xml:space="preserve">4.2398042678833</t>
   </si>
   <si>
-    <t xml:space="preserve">4.48565292358398</t>
+    <t xml:space="preserve">4.48565244674683</t>
   </si>
   <si>
     <t xml:space="preserve">4.62367296218872</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68405628204346</t>
+    <t xml:space="preserve">4.68405675888062</t>
   </si>
   <si>
     <t xml:space="preserve">4.70130920410156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72718858718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50290536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58054208755493</t>
+    <t xml:space="preserve">4.72718811035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50290489196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58054161071777</t>
   </si>
   <si>
     <t xml:space="preserve">4.51153182983398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52015829086304</t>
+    <t xml:space="preserve">4.52015781402588</t>
   </si>
   <si>
     <t xml:space="preserve">4.38213777542114</t>
@@ -1658,109 +1658,109 @@
     <t xml:space="preserve">4.42526912689209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2786226272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12766313552856</t>
+    <t xml:space="preserve">4.27862310409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12766265869141</t>
   </si>
   <si>
     <t xml:space="preserve">4.16648149490356</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18804693222046</t>
+    <t xml:space="preserve">4.1880464553833</t>
   </si>
   <si>
     <t xml:space="preserve">4.2354907989502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32175397872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3001880645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24411725997925</t>
+    <t xml:space="preserve">4.32175445556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30018854141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24411773681641</t>
   </si>
   <si>
     <t xml:space="preserve">4.18373394012451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11903667449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39076328277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3390064239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22255229949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13197660446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23117923736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17079496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11472368240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02414846420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44252109527588</t>
+    <t xml:space="preserve">4.11903715133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3907642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33900594711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22255182266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13197612762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23117828369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17079448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11472415924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02414798736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44252157211304</t>
   </si>
   <si>
     <t xml:space="preserve">4.39938974380493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57191562652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74444055557251</t>
+    <t xml:space="preserve">4.57191514968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74444007873535</t>
   </si>
   <si>
     <t xml:space="preserve">4.8910870552063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8824610710144</t>
+    <t xml:space="preserve">4.88246011734009</t>
   </si>
   <si>
     <t xml:space="preserve">4.91696548461914</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96009683609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00322818756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98597574234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05498552322388</t>
+    <t xml:space="preserve">4.96009731292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00322866439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98597526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05498600006104</t>
   </si>
   <si>
     <t xml:space="preserve">5.10674333572388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11536884307861</t>
+    <t xml:space="preserve">5.11536979675293</t>
   </si>
   <si>
     <t xml:space="preserve">5.13262176513672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15850067138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08949041366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07223844528198</t>
+    <t xml:space="preserve">5.15850114822388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08949089050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07223749160767</t>
   </si>
   <si>
     <t xml:space="preserve">5.30514717102051</t>
@@ -1769,67 +1769,70 @@
     <t xml:space="preserve">5.22751045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26201581954956</t>
+    <t xml:space="preserve">5.26201629638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32240009307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4517936706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38278245925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51217746734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50355100631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58118724822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60706567764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52942991256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52080345153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08086442947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21648120880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23413419723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11938953399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11056327819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1635217666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19000101089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19882774353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24296092987061</t>
   </si>
   <si>
     <t xml:space="preserve">5.32239961624146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4517936706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38278293609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51217794418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5035514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58118677139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60706663131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52942943572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52080345153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08086442947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21648073196411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23413372039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11938905715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11056280136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16352128982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19000196456909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19882822036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24296092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30474615097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27826642990112</t>
+    <t xml:space="preserve">5.30474662780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27826738357544</t>
   </si>
   <si>
     <t xml:space="preserve">5.33122587203979</t>
@@ -1838,37 +1841,37 @@
     <t xml:space="preserve">5.36653184890747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34005308151245</t>
+    <t xml:space="preserve">5.34005260467529</t>
   </si>
   <si>
     <t xml:space="preserve">5.35770559310913</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44597101211548</t>
+    <t xml:space="preserve">5.44597148895264</t>
   </si>
   <si>
     <t xml:space="preserve">5.56954193115234</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65780735015869</t>
+    <t xml:space="preserve">5.65780782699585</t>
   </si>
   <si>
     <t xml:space="preserve">5.53423595428467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43714475631714</t>
+    <t xml:space="preserve">5.43714427947998</t>
   </si>
   <si>
     <t xml:space="preserve">5.51658296585083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68428802490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63132858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58719539642334</t>
+    <t xml:space="preserve">5.68428707122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63132810592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5871958732605</t>
   </si>
   <si>
     <t xml:space="preserve">5.7548999786377</t>
@@ -1877,16 +1880,16 @@
     <t xml:space="preserve">5.87847089767456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86081743240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84316492080688</t>
+    <t xml:space="preserve">5.86081838607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84316444396973</t>
   </si>
   <si>
     <t xml:space="preserve">5.76372623443604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81668519973755</t>
+    <t xml:space="preserve">5.81668567657471</t>
   </si>
   <si>
     <t xml:space="preserve">5.78137969970703</t>
@@ -1895,40 +1898,40 @@
     <t xml:space="preserve">5.71076679229736</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60484886169434</t>
+    <t xml:space="preserve">5.60484838485718</t>
   </si>
   <si>
     <t xml:space="preserve">5.560715675354</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67546081542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85199213027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62250185012817</t>
+    <t xml:space="preserve">5.67545986175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85199117660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62250137329102</t>
   </si>
   <si>
     <t xml:space="preserve">5.34887886047363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28709316253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39301204681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29592037200928</t>
+    <t xml:space="preserve">5.28709363937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39301156997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29591989517212</t>
   </si>
   <si>
     <t xml:space="preserve">5.22530746459961</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37535858154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18117475509644</t>
+    <t xml:space="preserve">5.37535905838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18117523193359</t>
   </si>
   <si>
     <t xml:space="preserve">5.25178718566895</t>
@@ -1940,61 +1943,61 @@
     <t xml:space="preserve">5.26061344146729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4018383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64898157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55188941955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59602212905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50775623321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4724497795105</t>
+    <t xml:space="preserve">5.40183782577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64898109436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55188989639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59602165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50775575637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47245073318481</t>
   </si>
   <si>
     <t xml:space="preserve">5.42831754684448</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49010324478149</t>
+    <t xml:space="preserve">5.49010372161865</t>
   </si>
   <si>
     <t xml:space="preserve">5.12821578979492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14586925506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26502752304077</t>
+    <t xml:space="preserve">5.14586877822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26502704620361</t>
   </si>
   <si>
     <t xml:space="preserve">5.13969039916992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20765447616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25531816482544</t>
+    <t xml:space="preserve">5.20765495300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25531721115112</t>
   </si>
   <si>
     <t xml:space="preserve">5.31269025802612</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38418531417847</t>
+    <t xml:space="preserve">5.38418579101562</t>
   </si>
   <si>
     <t xml:space="preserve">5.45214939117432</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43273162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38506746292114</t>
+    <t xml:space="preserve">5.43273115158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3850679397583</t>
   </si>
   <si>
     <t xml:space="preserve">5.41154766082764</t>
@@ -2006,19 +2009,19 @@
     <t xml:space="preserve">5.45391464233398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32328176498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44950103759766</t>
+    <t xml:space="preserve">5.32328224182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44950151443481</t>
   </si>
   <si>
     <t xml:space="preserve">5.59425640106201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54747629165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42390489578247</t>
+    <t xml:space="preserve">5.54747581481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42390441894531</t>
   </si>
   <si>
     <t xml:space="preserve">5.62779760360718</t>
@@ -2027,19 +2030,19 @@
     <t xml:space="preserve">5.72842025756836</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62603235244751</t>
+    <t xml:space="preserve">5.62603187561035</t>
   </si>
   <si>
     <t xml:space="preserve">5.57130765914917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53070545196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57660341262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5527720451355</t>
+    <t xml:space="preserve">5.53070592880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57660388946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55277156829834</t>
   </si>
   <si>
     <t xml:space="preserve">5.578369140625</t>
@@ -2051,7 +2054,7 @@
     <t xml:space="preserve">6.1432671546936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1609206199646</t>
+    <t xml:space="preserve">6.16092014312744</t>
   </si>
   <si>
     <t xml:space="preserve">6.16974639892578</t>
@@ -2060,25 +2063,25 @@
     <t xml:space="preserve">6.06294584274292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88464975357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89789009094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86876201629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85552215576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85375642776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92613506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02322578430176</t>
+    <t xml:space="preserve">5.8846492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89788913726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86876153945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85552167892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85375690460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92613458633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02322626113892</t>
   </si>
   <si>
     <t xml:space="preserve">6.05147075653076</t>
@@ -2087,34 +2090,34 @@
     <t xml:space="preserve">6.05941486358643</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02852201461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04441070556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9702672958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97291564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79373598098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84669589996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93496131896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02410840988159</t>
+    <t xml:space="preserve">6.02852249145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04440975189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97026681900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97291469573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79373645782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84669542312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93496084213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02410888671875</t>
   </si>
   <si>
     <t xml:space="preserve">5.81933307647705</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6860523223877</t>
+    <t xml:space="preserve">5.68605279922485</t>
   </si>
   <si>
     <t xml:space="preserve">5.87052726745605</t>
@@ -2123,7 +2126,7 @@
     <t xml:space="preserve">5.93143033981323</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87494087219238</t>
+    <t xml:space="preserve">5.87494039535522</t>
   </si>
   <si>
     <t xml:space="preserve">5.84934377670288</t>
@@ -2132,31 +2135,31 @@
     <t xml:space="preserve">5.83433866500854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81138944625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80609369277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74077749252319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87405776977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77078676223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68340492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73724699020386</t>
+    <t xml:space="preserve">5.8113899230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80609321594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74077701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87405824661255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77078771591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68340444564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73724603652954</t>
   </si>
   <si>
     <t xml:space="preserve">5.78579187393188</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69311380386353</t>
+    <t xml:space="preserve">5.69311428070068</t>
   </si>
   <si>
     <t xml:space="preserve">5.69576215744019</t>
@@ -2165,10 +2168,10 @@
     <t xml:space="preserve">5.75754737854004</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83963441848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72665405273438</t>
+    <t xml:space="preserve">5.83963489532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72665500640869</t>
   </si>
   <si>
     <t xml:space="preserve">5.71871137619019</t>
@@ -2177,13 +2180,13 @@
     <t xml:space="preserve">5.7654914855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76813888549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86964511871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95702743530273</t>
+    <t xml:space="preserve">5.76813936233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86964464187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95702695846558</t>
   </si>
   <si>
     <t xml:space="preserve">6.12561416625977</t>
@@ -2192,7 +2195,7 @@
     <t xml:space="preserve">6.04617500305176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99321603775024</t>
+    <t xml:space="preserve">5.99321556091309</t>
   </si>
   <si>
     <t xml:space="preserve">5.82816028594971</t>
@@ -2201,13 +2204,13 @@
     <t xml:space="preserve">5.52982330322266</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46892023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29856777191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1405725479126</t>
+    <t xml:space="preserve">5.46891975402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29856729507446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14057302474976</t>
   </si>
   <si>
     <t xml:space="preserve">5.25708293914795</t>
@@ -2216,34 +2219,34 @@
     <t xml:space="preserve">5.28356266021729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89166450500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32809066772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38678693771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39296531677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02357578277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19260263442993</t>
+    <t xml:space="preserve">4.89166402816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32809019088745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38678646087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39296579360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02357530593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19260311126709</t>
   </si>
   <si>
     <t xml:space="preserve">4.06020498275757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84969234466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97194027900696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25880241394043</t>
+    <t xml:space="preserve">3.84969210624695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97194004058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25880193710327</t>
   </si>
   <si>
     <t xml:space="preserve">3.90000367164612</t>
@@ -2252,13 +2255,13 @@
     <t xml:space="preserve">4.05402660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15111827850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35898303985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19966459274292</t>
+    <t xml:space="preserve">4.15111875534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35898399353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19966411590576</t>
   </si>
   <si>
     <t xml:space="preserve">4.13743734359741</t>
@@ -2267,19 +2270,19 @@
     <t xml:space="preserve">4.34177160263062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39561319351196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45739936828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2543888092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41326665878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54566383361816</t>
+    <t xml:space="preserve">4.39561367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45739984512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25438928604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4132661819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54566478729248</t>
   </si>
   <si>
     <t xml:space="preserve">4.70454216003418</t>
@@ -2288,22 +2291,22 @@
     <t xml:space="preserve">4.57214403152466</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72219562530518</t>
+    <t xml:space="preserve">4.72219514846802</t>
   </si>
   <si>
     <t xml:space="preserve">4.66040992736816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6692361831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61627721786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58979749679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83694076538086</t>
+    <t xml:space="preserve">4.66923570632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61627674102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5897970199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8369402885437</t>
   </si>
   <si>
     <t xml:space="preserve">4.86342000961304</t>
@@ -2312,52 +2315,52 @@
     <t xml:space="preserve">4.88989925384521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03995037078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01347064971924</t>
+    <t xml:space="preserve">5.03995084762573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0134711265564</t>
   </si>
   <si>
     <t xml:space="preserve">4.93403196334839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.678062915802</t>
+    <t xml:space="preserve">4.67806243896484</t>
   </si>
   <si>
     <t xml:space="preserve">4.64275646209717</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71336936950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76632833480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89872646331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00738573074341</t>
+    <t xml:space="preserve">4.71336889266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76632785797119</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872598648071</t>
   </si>
   <si>
+    <t xml:space="preserve">5.00738525390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89872550964355</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.82628631591797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98022079467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01643991470337</t>
+    <t xml:space="preserve">4.98022031784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01644039154053</t>
   </si>
   <si>
     <t xml:space="preserve">5.20659399032593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32430839538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29714298248291</t>
+    <t xml:space="preserve">5.32430791854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29714345932007</t>
   </si>
   <si>
     <t xml:space="preserve">5.50540733337402</t>
@@ -2372,7 +2375,7 @@
     <t xml:space="preserve">5.63217639923096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60501146316528</t>
+    <t xml:space="preserve">5.60501194000244</t>
   </si>
   <si>
     <t xml:space="preserve">5.71367073059082</t>
@@ -2387,40 +2390,40 @@
     <t xml:space="preserve">5.74989080429077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41485738754272</t>
+    <t xml:space="preserve">5.41485786437988</t>
   </si>
   <si>
     <t xml:space="preserve">5.37863826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34241819381714</t>
+    <t xml:space="preserve">5.3424186706543</t>
   </si>
   <si>
     <t xml:space="preserve">5.66839647293091</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84949541091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7227258682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76800107955933</t>
+    <t xml:space="preserve">5.84949588775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72272634506226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76800060272217</t>
   </si>
   <si>
     <t xml:space="preserve">5.79516553878784</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73178052902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75894546508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83138561248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69556093215942</t>
+    <t xml:space="preserve">5.73178100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75894594192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83138513565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69556140899658</t>
   </si>
   <si>
     <t xml:space="preserve">5.67745113372803</t>
@@ -2432,34 +2435,34 @@
     <t xml:space="preserve">5.56879186630249</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46013259887695</t>
+    <t xml:space="preserve">5.46013307571411</t>
   </si>
   <si>
     <t xml:space="preserve">5.5325722694397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52351713180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.423912525177</t>
+    <t xml:space="preserve">5.52351760864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42391300201416</t>
   </si>
   <si>
     <t xml:space="preserve">5.49635219573975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39674758911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31525325775146</t>
+    <t xml:space="preserve">5.39674806594849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31525373458862</t>
   </si>
   <si>
     <t xml:space="preserve">5.46918725967407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36052799224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36958265304565</t>
+    <t xml:space="preserve">5.36052846908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36958312988281</t>
   </si>
   <si>
     <t xml:space="preserve">5.47824287414551</t>
@@ -2471,10 +2474,10 @@
     <t xml:space="preserve">5.7046160697937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65028619766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6140661239624</t>
+    <t xml:space="preserve">5.6502857208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61406660079956</t>
   </si>
   <si>
     <t xml:space="preserve">5.48729705810547</t>
@@ -2483,13 +2486,13 @@
     <t xml:space="preserve">5.45107746124268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38769292831421</t>
+    <t xml:space="preserve">5.38769245147705</t>
   </si>
   <si>
     <t xml:space="preserve">5.30619859695435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43296813964844</t>
+    <t xml:space="preserve">5.43296766281128</t>
   </si>
   <si>
     <t xml:space="preserve">5.44202280044556</t>
@@ -2498,40 +2501,40 @@
     <t xml:space="preserve">5.35147285461426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26092338562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23375940322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26997900009155</t>
+    <t xml:space="preserve">5.26092386245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2337589263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26997852325439</t>
   </si>
   <si>
     <t xml:space="preserve">5.28808879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12509965896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99833059310913</t>
+    <t xml:space="preserve">5.12509918212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99833011627197</t>
   </si>
   <si>
     <t xml:space="preserve">4.70857191085815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81723165512085</t>
+    <t xml:space="preserve">4.81723213195801</t>
   </si>
   <si>
     <t xml:space="preserve">4.9530553817749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09793519973755</t>
+    <t xml:space="preserve">5.09793472290039</t>
   </si>
   <si>
     <t xml:space="preserve">5.10698938369751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98927545547485</t>
+    <t xml:space="preserve">4.98927593231201</t>
   </si>
   <si>
     <t xml:space="preserve">5.08887958526611</t>
@@ -2546,7 +2549,7 @@
     <t xml:space="preserve">6.13925409317017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11208868026733</t>
+    <t xml:space="preserve">6.11208915710449</t>
   </si>
   <si>
     <t xml:space="preserve">6.22074794769287</t>
@@ -2558,10 +2561,10 @@
     <t xml:space="preserve">6.48334121704102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31129741668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3656268119812</t>
+    <t xml:space="preserve">6.31129693984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36562728881836</t>
   </si>
   <si>
     <t xml:space="preserve">6.41090154647827</t>
@@ -2570,16 +2573,16 @@
     <t xml:space="preserve">6.44712162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37468242645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42901182174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4380669593811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23885822296143</t>
+    <t xml:space="preserve">6.37468194961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42901134490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43806743621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23885774612427</t>
   </si>
   <si>
     <t xml:space="preserve">6.20263814926147</t>
@@ -2588,7 +2591,7 @@
     <t xml:space="preserve">6.18452835083008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17547369003296</t>
+    <t xml:space="preserve">6.1754732131958</t>
   </si>
   <si>
     <t xml:space="preserve">6.10303354263306</t>
@@ -2600,34 +2603,34 @@
     <t xml:space="preserve">6.05775880813599</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06681394577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03964948654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03059387207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35657215118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59200096130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45617628097534</t>
+    <t xml:space="preserve">6.06681346893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03964900970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03059434890747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35657262802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59200048446655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4561767578125</t>
   </si>
   <si>
     <t xml:space="preserve">6.40184736251831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32940721511841</t>
+    <t xml:space="preserve">6.32940673828125</t>
   </si>
   <si>
     <t xml:space="preserve">6.16641807556152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50145149230957</t>
+    <t xml:space="preserve">6.50145101547241</t>
   </si>
   <si>
     <t xml:space="preserve">6.24791288375854</t>
@@ -2642,19 +2645,19 @@
     <t xml:space="preserve">6.39279174804688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61011075973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80026435852051</t>
+    <t xml:space="preserve">6.61011123657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80026483535767</t>
   </si>
   <si>
     <t xml:space="preserve">7.15340757369995</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58804512023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69670438766479</t>
+    <t xml:space="preserve">7.58804559707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69670343399048</t>
   </si>
   <si>
     <t xml:space="preserve">7.75103425979614</t>
@@ -2669,22 +2672,22 @@
     <t xml:space="preserve">7.67859411239624</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46127557754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45221996307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32545185089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44316625595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28017711639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1896276473999</t>
+    <t xml:space="preserve">7.46127605438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45222043991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32545137405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44316577911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28017663955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18962717056274</t>
   </si>
   <si>
     <t xml:space="preserve">7.33450651168823</t>
@@ -2693,46 +2696,46 @@
     <t xml:space="preserve">7.36167097091675</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49749517440796</t>
+    <t xml:space="preserve">7.49749565124512</t>
   </si>
   <si>
     <t xml:space="preserve">7.63331985473633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74197959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73292350769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80536317825317</t>
+    <t xml:space="preserve">7.74197864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73292398452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80536413192749</t>
   </si>
   <si>
     <t xml:space="preserve">7.66048431396484</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6061544418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31639623641968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76914358139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83252811431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92307806015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09512138366699</t>
+    <t xml:space="preserve">7.60615491867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31639671325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7691445350647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83252859115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92307710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09512233734131</t>
   </si>
   <si>
     <t xml:space="preserve">8.35771465301514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25811195373535</t>
+    <t xml:space="preserve">8.25811004638672</t>
   </si>
   <si>
     <t xml:space="preserve">8.15850639343262</t>
@@ -2747,7 +2750,7 @@
     <t xml:space="preserve">8.14945220947266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24905490875244</t>
+    <t xml:space="preserve">8.24905586242676</t>
   </si>
   <si>
     <t xml:space="preserve">8.21283626556396</t>
@@ -2756,34 +2759,34 @@
     <t xml:space="preserve">8.203782081604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16756248474121</t>
+    <t xml:space="preserve">8.16756153106689</t>
   </si>
   <si>
     <t xml:space="preserve">8.24000072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30338573455811</t>
+    <t xml:space="preserve">8.30338668823242</t>
   </si>
   <si>
     <t xml:space="preserve">8.2309455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31244087219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55692386627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40299034118652</t>
+    <t xml:space="preserve">8.3124418258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55692291259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40298938751221</t>
   </si>
   <si>
     <t xml:space="preserve">8.61125469207764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54786968231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68369388580322</t>
+    <t xml:space="preserve">8.5478687286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68369293212891</t>
   </si>
   <si>
     <t xml:space="preserve">8.60219860076904</t>
@@ -2792,19 +2795,19 @@
     <t xml:space="preserve">8.81951713562012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5931453704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63882350921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77667808532715</t>
+    <t xml:space="preserve">8.59314346313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63882446289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77667903900146</t>
   </si>
   <si>
     <t xml:space="preserve">8.60206317901611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58368301391602</t>
+    <t xml:space="preserve">8.58368396759033</t>
   </si>
   <si>
     <t xml:space="preserve">8.53773212432861</t>
@@ -2816,16 +2819,13 @@
     <t xml:space="preserve">8.48258972167969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59287357330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61125373840332</t>
+    <t xml:space="preserve">8.59287452697754</t>
   </si>
   <si>
     <t xml:space="preserve">8.79505825042725</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93291187286377</t>
+    <t xml:space="preserve">8.93291282653809</t>
   </si>
   <si>
     <t xml:space="preserve">8.83181953430176</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">8.64801502227783</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67558574676514</t>
+    <t xml:space="preserve">8.67558479309082</t>
   </si>
   <si>
     <t xml:space="preserve">8.68477535247803</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">8.70315647125244</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62963581085205</t>
+    <t xml:space="preserve">8.62963485717773</t>
   </si>
   <si>
     <t xml:space="preserve">8.4366397857666</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">8.27121543884277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31716632843018</t>
+    <t xml:space="preserve">8.31716537475586</t>
   </si>
   <si>
     <t xml:space="preserve">8.24364471435547</t>
@@ -2870,13 +2870,13 @@
     <t xml:space="preserve">8.20688247680664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21607303619385</t>
+    <t xml:space="preserve">8.21607398986816</t>
   </si>
   <si>
     <t xml:space="preserve">8.11498069763184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16093158721924</t>
+    <t xml:space="preserve">8.16093254089355</t>
   </si>
   <si>
     <t xml:space="preserve">7.90360593795776</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">7.94036626815796</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99550819396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8944149017334</t>
+    <t xml:space="preserve">7.99550724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89441585540771</t>
   </si>
   <si>
     <t xml:space="preserve">8.15174102783203</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">8.07821941375732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33554649353027</t>
+    <t xml:space="preserve">8.33554553985596</t>
   </si>
   <si>
     <t xml:space="preserve">8.46420955657959</t>
@@ -2909,28 +2909,28 @@
     <t xml:space="preserve">8.32635688781738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38149833679199</t>
+    <t xml:space="preserve">8.38149738311768</t>
   </si>
   <si>
     <t xml:space="preserve">8.12417125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75656032562256</t>
+    <t xml:space="preserve">7.75656127929688</t>
   </si>
   <si>
     <t xml:space="preserve">8.23445415496826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40906715393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28959655761719</t>
+    <t xml:space="preserve">8.40906810760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28959560394287</t>
   </si>
   <si>
     <t xml:space="preserve">8.65720462799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55611324310303</t>
+    <t xml:space="preserve">8.55611228942871</t>
   </si>
   <si>
     <t xml:space="preserve">8.51935195922852</t>
@@ -2945,10 +2945,10 @@
     <t xml:space="preserve">8.80424880981445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39987850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47340106964111</t>
+    <t xml:space="preserve">8.39987945556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4734001159668</t>
   </si>
   <si>
     <t xml:space="preserve">8.81343936920166</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">8.95129203796387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72153759002686</t>
+    <t xml:space="preserve">8.72153663635254</t>
   </si>
   <si>
     <t xml:space="preserve">8.66639614105225</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">8.36311721801758</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19769382476807</t>
+    <t xml:space="preserve">8.19769287109375</t>
   </si>
   <si>
     <t xml:space="preserve">8.08741092681885</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">8.14255142211914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17931270599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04145908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71979999542236</t>
+    <t xml:space="preserve">8.17931175231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04145812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71980047225952</t>
   </si>
   <si>
     <t xml:space="preserve">7.78413200378418</t>
@@ -2993,19 +2993,19 @@
     <t xml:space="preserve">7.72899103164673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70142030715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81170320510864</t>
+    <t xml:space="preserve">7.70142078399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81170225143433</t>
   </si>
   <si>
     <t xml:space="preserve">7.83008337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87603378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92198514938354</t>
+    <t xml:space="preserve">7.8760347366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92198610305786</t>
   </si>
   <si>
     <t xml:space="preserve">7.86684465408325</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">8.09660053253174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39068794250488</t>
+    <t xml:space="preserve">8.39068698883057</t>
   </si>
   <si>
     <t xml:space="preserve">8.35392665863037</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">8.5469217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34473609924316</t>
+    <t xml:space="preserve">8.34473705291748</t>
   </si>
   <si>
     <t xml:space="preserve">8.18850231170654</t>
@@ -3044,10 +3044,10 @@
     <t xml:space="preserve">7.52680492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48085498809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51761531829834</t>
+    <t xml:space="preserve">7.48085451126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5176157951355</t>
   </si>
   <si>
     <t xml:space="preserve">7.6095175743103</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">7.80251216888428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61870813369751</t>
+    <t xml:space="preserve">7.61870765686035</t>
   </si>
   <si>
     <t xml:space="preserve">7.54518604278564</t>
@@ -3095,31 +3095,31 @@
     <t xml:space="preserve">7.77494192123413</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68303918838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67384958267212</t>
+    <t xml:space="preserve">7.68303871154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67384910583496</t>
   </si>
   <si>
     <t xml:space="preserve">7.46247386932373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5359959602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60032749176025</t>
+    <t xml:space="preserve">7.53599548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60032796859741</t>
   </si>
   <si>
     <t xml:space="preserve">7.10405492782593</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06729364395142</t>
+    <t xml:space="preserve">7.06729412078857</t>
   </si>
   <si>
     <t xml:space="preserve">7.16838645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03053331375122</t>
+    <t xml:space="preserve">7.03053283691406</t>
   </si>
   <si>
     <t xml:space="preserve">7.15000629425049</t>
@@ -3140,16 +3140,16 @@
     <t xml:space="preserve">7.03972291946411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42571258544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37057161331177</t>
+    <t xml:space="preserve">7.42571306228638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37057209014893</t>
   </si>
   <si>
     <t xml:space="preserve">7.17757654190063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28785943984985</t>
+    <t xml:space="preserve">7.2878589630127</t>
   </si>
   <si>
     <t xml:space="preserve">7.34300088882446</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">6.9386305809021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87429857254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80077648162842</t>
+    <t xml:space="preserve">6.87429809570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80077695846558</t>
   </si>
   <si>
     <t xml:space="preserve">6.48830842971802</t>
@@ -3185,10 +3185,10 @@
     <t xml:space="preserve">6.25855255126953</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97365570068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95527458190918</t>
+    <t xml:space="preserve">5.97365522384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95527505874634</t>
   </si>
   <si>
     <t xml:space="preserve">6.12988948822021</t>
@@ -3197,19 +3197,19 @@
     <t xml:space="preserve">6.4055962562561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21260213851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26774311065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47911882400513</t>
+    <t xml:space="preserve">6.21260166168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26774263381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47911834716797</t>
   </si>
   <si>
     <t xml:space="preserve">6.3596453666687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59859132766724</t>
+    <t xml:space="preserve">6.59859085083008</t>
   </si>
   <si>
     <t xml:space="preserve">6.51587915420532</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">6.30450391769409</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42397689819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29531335830688</t>
+    <t xml:space="preserve">6.4239764213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29531383514404</t>
   </si>
   <si>
     <t xml:space="preserve">5.96446514129639</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">6.03798723220825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01041650772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05636739730835</t>
+    <t xml:space="preserve">6.01041603088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05636787414551</t>
   </si>
   <si>
     <t xml:space="preserve">6.00122594833374</t>
@@ -3275,10 +3275,10 @@
     <t xml:space="preserve">6.18503093719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10231828689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06555795669556</t>
+    <t xml:space="preserve">6.10231876373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0655574798584</t>
   </si>
   <si>
     <t xml:space="preserve">6.13907957077026</t>
@@ -3290,16 +3290,16 @@
     <t xml:space="preserve">6.08393812179565</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09312868118286</t>
+    <t xml:space="preserve">6.0931282043457</t>
   </si>
   <si>
     <t xml:space="preserve">6.07474803924561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20341110229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19422054290771</t>
+    <t xml:space="preserve">6.20341157913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19422101974487</t>
   </si>
   <si>
     <t xml:space="preserve">6.15745973587036</t>
@@ -27308,7 +27308,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G871" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27334,7 +27334,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G872" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27360,7 +27360,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27386,7 +27386,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27412,7 +27412,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G875" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27438,7 +27438,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G876" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27464,7 +27464,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27490,7 +27490,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G878" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27516,7 +27516,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G879" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27542,7 +27542,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27568,7 +27568,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G881" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27594,7 +27594,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G882" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27620,7 +27620,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G883" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27646,7 +27646,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G884" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27672,7 +27672,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G885" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27698,7 +27698,7 @@
         <v>6.25</v>
       </c>
       <c r="G886" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27724,7 +27724,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G887" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27750,7 +27750,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G888" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27776,7 +27776,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27802,7 +27802,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G890" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27828,7 +27828,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G891" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27854,7 +27854,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G892" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27880,7 +27880,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G893" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27906,7 +27906,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G894" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27932,7 +27932,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G895" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27958,7 +27958,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G896" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27984,7 +27984,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G897" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28010,7 +28010,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G898" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28036,7 +28036,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G899" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28062,7 +28062,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G900" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28088,7 +28088,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G901" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28114,7 +28114,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G902" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28140,7 +28140,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G903" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28166,7 +28166,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G904" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28192,7 +28192,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G905" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28218,7 +28218,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28244,7 +28244,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G907" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28270,7 +28270,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G908" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28296,7 +28296,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G909" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28322,7 +28322,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G910" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28348,7 +28348,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G911" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28374,7 +28374,7 @@
         <v>6.25</v>
       </c>
       <c r="G912" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28400,7 +28400,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G913" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28426,7 +28426,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28452,7 +28452,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G915" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28478,7 +28478,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G916" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28504,7 +28504,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G917" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28556,7 +28556,7 @@
         <v>6</v>
       </c>
       <c r="G919" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28582,7 +28582,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G920" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28608,7 +28608,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28634,7 +28634,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G922" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28660,7 +28660,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G923" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28686,7 +28686,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G924" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28738,7 +28738,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G926" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28790,7 +28790,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G928" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28816,7 +28816,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G929" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28842,7 +28842,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28868,7 +28868,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G931" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28920,7 +28920,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G933" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28972,7 +28972,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28998,7 +28998,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G936" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29024,7 +29024,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G937" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29050,7 +29050,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G938" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29076,7 +29076,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29102,7 +29102,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G940" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29128,7 +29128,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29154,7 +29154,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29180,7 +29180,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G943" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29206,7 +29206,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G944" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29232,7 +29232,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G945" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -29258,7 +29258,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G946" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -29284,7 +29284,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G947" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -29310,7 +29310,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G948" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -29336,7 +29336,7 @@
         <v>6</v>
       </c>
       <c r="G949" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -29362,7 +29362,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G950" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -29388,7 +29388,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G951" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -29414,7 +29414,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G952" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -29440,7 +29440,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G953" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -29466,7 +29466,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G954" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -29518,7 +29518,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G956" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -29544,7 +29544,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G957" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -29570,7 +29570,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G958" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -29596,7 +29596,7 @@
         <v>5.82299995422363</v>
       </c>
       <c r="G959" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -29622,7 +29622,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G960" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -29648,7 +29648,7 @@
         <v>5.9539999961853</v>
       </c>
       <c r="G961" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -29674,7 +29674,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G962" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -29700,7 +29700,7 @@
         <v>6.01900005340576</v>
       </c>
       <c r="G963" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -29726,7 +29726,7 @@
         <v>6</v>
       </c>
       <c r="G964" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -29752,7 +29752,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G965" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -29778,7 +29778,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G966" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -29804,7 +29804,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G967" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -29830,7 +29830,7 @@
         <v>6.17700004577637</v>
       </c>
       <c r="G968" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29856,7 +29856,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G969" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29882,7 +29882,7 @@
         <v>6.10099983215332</v>
       </c>
       <c r="G970" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29908,7 +29908,7 @@
         <v>6.13100004196167</v>
       </c>
       <c r="G971" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29934,7 +29934,7 @@
         <v>6.08699989318848</v>
       </c>
       <c r="G972" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29960,7 +29960,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G973" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29986,7 +29986,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G974" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30012,7 +30012,7 @@
         <v>6.17899990081787</v>
       </c>
       <c r="G975" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30038,7 +30038,7 @@
         <v>6.0310001373291</v>
       </c>
       <c r="G976" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30064,7 +30064,7 @@
         <v>6.17399978637695</v>
       </c>
       <c r="G977" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30090,7 +30090,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G978" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30116,7 +30116,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G979" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30142,7 +30142,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G980" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30168,7 +30168,7 @@
         <v>6.14499998092651</v>
       </c>
       <c r="G981" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30194,7 +30194,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G982" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30220,7 +30220,7 @@
         <v>6.37599992752075</v>
       </c>
       <c r="G983" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30246,7 +30246,7 @@
         <v>6.48999977111816</v>
       </c>
       <c r="G984" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -30272,7 +30272,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G985" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -30298,7 +30298,7 @@
         <v>6.33799982070923</v>
       </c>
       <c r="G986" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -30324,7 +30324,7 @@
         <v>6.37400007247925</v>
       </c>
       <c r="G987" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30350,7 +30350,7 @@
         <v>6.31199979782104</v>
       </c>
       <c r="G988" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -30376,7 +30376,7 @@
         <v>6.26599979400635</v>
       </c>
       <c r="G989" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -30402,7 +30402,7 @@
         <v>6.31799983978271</v>
       </c>
       <c r="G990" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -30428,7 +30428,7 @@
         <v>6.29099988937378</v>
       </c>
       <c r="G991" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -30454,7 +30454,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G992" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -30480,7 +30480,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G993" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -30506,7 +30506,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G994" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -30532,7 +30532,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G995" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -30558,7 +30558,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G996" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -30584,7 +30584,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G997" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -30610,7 +30610,7 @@
         <v>6.86899995803833</v>
       </c>
       <c r="G998" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -30636,7 +30636,7 @@
         <v>6.66699981689453</v>
       </c>
       <c r="G999" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -30662,7 +30662,7 @@
         <v>6.68200016021729</v>
       </c>
       <c r="G1000" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -30688,7 +30688,7 @@
         <v>6.64900016784668</v>
       </c>
       <c r="G1001" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -30714,7 +30714,7 @@
         <v>6.63399982452393</v>
       </c>
       <c r="G1002" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -30740,7 +30740,7 @@
         <v>6.63199996948242</v>
       </c>
       <c r="G1003" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -30766,7 +30766,7 @@
         <v>6.71400022506714</v>
       </c>
       <c r="G1004" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -30792,7 +30792,7 @@
         <v>6.82399988174438</v>
       </c>
       <c r="G1005" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -30818,7 +30818,7 @@
         <v>6.85599994659424</v>
       </c>
       <c r="G1006" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30844,7 +30844,7 @@
         <v>6.86499977111816</v>
       </c>
       <c r="G1007" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30870,7 +30870,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1008" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30896,7 +30896,7 @@
         <v>6.84800004959106</v>
       </c>
       <c r="G1009" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30922,7 +30922,7 @@
         <v>6.76399993896484</v>
       </c>
       <c r="G1010" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30948,7 +30948,7 @@
         <v>6.76700019836426</v>
       </c>
       <c r="G1011" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30974,7 +30974,7 @@
         <v>6.56400012969971</v>
       </c>
       <c r="G1012" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31000,7 +31000,7 @@
         <v>6.62400007247925</v>
       </c>
       <c r="G1013" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31026,7 +31026,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1014" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31052,7 +31052,7 @@
         <v>6.72399997711182</v>
       </c>
       <c r="G1015" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31078,7 +31078,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G1016" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31104,7 +31104,7 @@
         <v>6.59299993515015</v>
       </c>
       <c r="G1017" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -31130,7 +31130,7 @@
         <v>6.44199991226196</v>
       </c>
       <c r="G1018" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31156,7 +31156,7 @@
         <v>6.65100002288818</v>
       </c>
       <c r="G1019" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31182,7 +31182,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1020" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31208,7 +31208,7 @@
         <v>6.6560001373291</v>
       </c>
       <c r="G1021" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31234,7 +31234,7 @@
         <v>6.6269998550415</v>
       </c>
       <c r="G1022" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -31260,7 +31260,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1023" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -31286,7 +31286,7 @@
         <v>6.58400011062622</v>
       </c>
       <c r="G1024" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -31312,7 +31312,7 @@
         <v>6.57800006866455</v>
       </c>
       <c r="G1025" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -31338,7 +31338,7 @@
         <v>6.50400018692017</v>
       </c>
       <c r="G1026" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -31364,7 +31364,7 @@
         <v>6.65500020980835</v>
       </c>
       <c r="G1027" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -31390,7 +31390,7 @@
         <v>6.53800010681152</v>
       </c>
       <c r="G1028" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -31416,7 +31416,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G1029" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -31442,7 +31442,7 @@
         <v>6.43900012969971</v>
       </c>
       <c r="G1030" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -31468,7 +31468,7 @@
         <v>6.5</v>
       </c>
       <c r="G1031" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -31494,7 +31494,7 @@
         <v>6.6100001335144</v>
       </c>
       <c r="G1032" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -31520,7 +31520,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G1033" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -31546,7 +31546,7 @@
         <v>6.5</v>
       </c>
       <c r="G1034" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -31572,7 +31572,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1035" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -31598,7 +31598,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1036" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -31624,7 +31624,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1037" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -31650,7 +31650,7 @@
         <v>6.45300006866455</v>
       </c>
       <c r="G1038" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -31676,7 +31676,7 @@
         <v>6.52299976348877</v>
       </c>
       <c r="G1039" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -31702,7 +31702,7 @@
         <v>6.61600017547607</v>
       </c>
       <c r="G1040" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -31728,7 +31728,7 @@
         <v>6.48799991607666</v>
       </c>
       <c r="G1041" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -31754,7 +31754,7 @@
         <v>6.47900009155273</v>
       </c>
       <c r="G1042" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -31780,7 +31780,7 @@
         <v>6.53200006484985</v>
       </c>
       <c r="G1043" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -31806,7 +31806,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G1044" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31832,7 +31832,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1045" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31858,7 +31858,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1046" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31884,7 +31884,7 @@
         <v>6.74900007247925</v>
       </c>
       <c r="G1047" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31910,7 +31910,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1048" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31936,7 +31936,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1049" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31962,7 +31962,7 @@
         <v>6.78999996185303</v>
       </c>
       <c r="G1050" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31988,7 +31988,7 @@
         <v>6.60300016403198</v>
       </c>
       <c r="G1051" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32014,7 +32014,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G1052" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32040,7 +32040,7 @@
         <v>6.2649998664856</v>
       </c>
       <c r="G1053" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32066,7 +32066,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G1054" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32092,7 +32092,7 @@
         <v>6.19600009918213</v>
       </c>
       <c r="G1055" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32118,7 +32118,7 @@
         <v>6.00299978256226</v>
       </c>
       <c r="G1056" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32144,7 +32144,7 @@
         <v>5.82399988174438</v>
       </c>
       <c r="G1057" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32196,7 +32196,7 @@
         <v>5.95599985122681</v>
       </c>
       <c r="G1059" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32222,7 +32222,7 @@
         <v>5.98600006103516</v>
       </c>
       <c r="G1060" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32248,7 +32248,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1061" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -32274,7 +32274,7 @@
         <v>5.54199981689453</v>
       </c>
       <c r="G1062" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -32300,7 +32300,7 @@
         <v>4.90350008010864</v>
       </c>
       <c r="G1063" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32326,7 +32326,7 @@
         <v>4.96999979019165</v>
       </c>
       <c r="G1064" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -32352,7 +32352,7 @@
         <v>4.97700023651123</v>
       </c>
       <c r="G1065" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -32378,7 +32378,7 @@
         <v>4.55849981307983</v>
       </c>
       <c r="G1066" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -32404,7 +32404,7 @@
         <v>4.75</v>
       </c>
       <c r="G1067" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -32430,7 +32430,7 @@
         <v>4.59999990463257</v>
       </c>
       <c r="G1068" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -32456,7 +32456,7 @@
         <v>4.75</v>
       </c>
       <c r="G1069" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -32482,7 +32482,7 @@
         <v>4.36149978637695</v>
       </c>
       <c r="G1070" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -32508,7 +32508,7 @@
         <v>4.5</v>
       </c>
       <c r="G1071" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -32534,7 +32534,7 @@
         <v>4.82499980926514</v>
       </c>
       <c r="G1072" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -32560,7 +32560,7 @@
         <v>4.41849994659424</v>
       </c>
       <c r="G1073" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -32586,7 +32586,7 @@
         <v>4.59299993515015</v>
       </c>
       <c r="G1074" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -32612,7 +32612,7 @@
         <v>4.70300006866455</v>
       </c>
       <c r="G1075" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -32638,7 +32638,7 @@
         <v>4.93849992752075</v>
       </c>
       <c r="G1076" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -32664,7 +32664,7 @@
         <v>4.75799989700317</v>
       </c>
       <c r="G1077" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -32690,7 +32690,7 @@
         <v>4.6875</v>
       </c>
       <c r="G1078" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -32716,7 +32716,7 @@
         <v>4.91900014877319</v>
       </c>
       <c r="G1079" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -32742,7 +32742,7 @@
         <v>4.98000001907349</v>
       </c>
       <c r="G1080" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -32768,7 +32768,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1081" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -32794,7 +32794,7 @@
         <v>4.82000017166138</v>
       </c>
       <c r="G1082" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -32820,7 +32820,7 @@
         <v>5</v>
       </c>
       <c r="G1083" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32846,7 +32846,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1084" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32872,7 +32872,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1085" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32898,7 +32898,7 @@
         <v>5.17999982833862</v>
       </c>
       <c r="G1086" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32924,7 +32924,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G1087" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32950,7 +32950,7 @@
         <v>5.15000009536743</v>
       </c>
       <c r="G1088" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32976,7 +32976,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G1089" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33002,7 +33002,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="G1090" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33028,7 +33028,7 @@
         <v>5.28999996185303</v>
       </c>
       <c r="G1091" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33054,7 +33054,7 @@
         <v>5.23000001907349</v>
       </c>
       <c r="G1092" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33080,7 +33080,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1093" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33106,7 +33106,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1094" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33132,7 +33132,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1095" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33158,7 +33158,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1096" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33184,7 +33184,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33210,7 +33210,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G1098" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33236,7 +33236,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G1099" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -33262,7 +33262,7 @@
         <v>5.48000001907349</v>
       </c>
       <c r="G1100" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -33288,7 +33288,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1101" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -33314,7 +33314,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1102" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -33340,7 +33340,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G1103" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -33366,7 +33366,7 @@
         <v>5.26000022888184</v>
       </c>
       <c r="G1104" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -33392,7 +33392,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G1105" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -33418,7 +33418,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1106" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -33444,7 +33444,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1107" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -33470,7 +33470,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G1108" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -33496,7 +33496,7 @@
         <v>5.55000019073486</v>
       </c>
       <c r="G1109" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -33522,7 +33522,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="G1110" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -33548,7 +33548,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G1111" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -33574,7 +33574,7 @@
         <v>5.32999992370605</v>
       </c>
       <c r="G1112" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -33600,7 +33600,7 @@
         <v>5.5</v>
       </c>
       <c r="G1113" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -33626,7 +33626,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G1114" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -33652,7 +33652,7 @@
         <v>5.75</v>
       </c>
       <c r="G1115" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -33678,7 +33678,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1116" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -33704,7 +33704,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1117" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -33730,7 +33730,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1118" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -33756,7 +33756,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1119" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -33782,7 +33782,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1120" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -33808,7 +33808,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1121" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33834,7 +33834,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G1122" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33860,7 +33860,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1123" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33886,7 +33886,7 @@
         <v>6.44999980926514</v>
       </c>
       <c r="G1124" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33912,7 +33912,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G1125" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33938,7 +33938,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1126" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33964,7 +33964,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G1127" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33990,7 +33990,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1128" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34016,7 +34016,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1129" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34042,7 +34042,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1130" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34068,7 +34068,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G1131" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34094,7 +34094,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1132" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34120,7 +34120,7 @@
         <v>6.46000003814697</v>
       </c>
       <c r="G1133" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34146,7 +34146,7 @@
         <v>6.32000017166138</v>
       </c>
       <c r="G1134" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34172,7 +34172,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1135" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34198,7 +34198,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1136" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34224,7 +34224,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1137" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34250,7 +34250,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1138" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -34276,7 +34276,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="G1139" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -34302,7 +34302,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1140" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -34328,7 +34328,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1141" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -34354,7 +34354,7 @@
         <v>6.3600001335144</v>
       </c>
       <c r="G1142" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -34380,7 +34380,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G1143" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -34406,7 +34406,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1144" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -34432,7 +34432,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G1145" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -34458,7 +34458,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1146" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -34484,7 +34484,7 @@
         <v>6.13000011444092</v>
       </c>
       <c r="G1147" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -34510,7 +34510,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G1148" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -34536,7 +34536,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1149" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -34562,7 +34562,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1150" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -34588,7 +34588,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1151" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -34614,7 +34614,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G1152" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -34640,7 +34640,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1153" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -34666,7 +34666,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1154" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -34692,7 +34692,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1155" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -34718,7 +34718,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -34744,7 +34744,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1157" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -34770,7 +34770,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1158" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -34796,7 +34796,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1159" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -34822,7 +34822,7 @@
         <v>5.75</v>
       </c>
       <c r="G1160" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34848,7 +34848,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1161" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34874,7 +34874,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34900,7 +34900,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1163" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34926,7 +34926,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1164" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34952,7 +34952,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G1165" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34978,7 +34978,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1166" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35004,7 +35004,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1167" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35030,7 +35030,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1168" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35056,7 +35056,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1169" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35082,7 +35082,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1170" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35108,7 +35108,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1171" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35134,7 +35134,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35160,7 +35160,7 @@
         <v>6.23999977111816</v>
       </c>
       <c r="G1173" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35186,7 +35186,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1174" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35212,7 +35212,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G1175" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35238,7 +35238,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G1176" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -35264,7 +35264,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G1177" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -35290,7 +35290,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1178" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -35316,7 +35316,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1179" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -35342,7 +35342,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G1180" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -35368,7 +35368,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1181" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -35394,7 +35394,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1182" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -35420,7 +35420,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G1183" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -35446,7 +35446,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G1184" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -35472,7 +35472,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1185" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -35498,7 +35498,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1186" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -35524,7 +35524,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1187" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -35550,7 +35550,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1188" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -35576,7 +35576,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1189" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -35602,7 +35602,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G1190" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -35628,7 +35628,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1191" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -35654,7 +35654,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1192" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -35680,7 +35680,7 @@
         <v>6</v>
       </c>
       <c r="G1193" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -35706,7 +35706,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1194" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -35732,7 +35732,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -35758,7 +35758,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1196" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -35784,7 +35784,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1197" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -35810,7 +35810,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1198" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35836,7 +35836,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G1199" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35862,7 +35862,7 @@
         <v>6</v>
       </c>
       <c r="G1200" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35888,7 +35888,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1201" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35914,7 +35914,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G1202" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35940,7 +35940,7 @@
         <v>6</v>
       </c>
       <c r="G1203" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35966,7 +35966,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G1204" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35992,7 +35992,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G1205" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -36018,7 +36018,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1206" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -36044,7 +36044,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1207" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -36070,7 +36070,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G1208" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -36096,7 +36096,7 @@
         <v>5.75</v>
       </c>
       <c r="G1209" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -36122,7 +36122,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1210" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -36148,7 +36148,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1211" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -36174,7 +36174,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1212" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -36200,7 +36200,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1213" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -36226,7 +36226,7 @@
         <v>5.8600001335144</v>
       </c>
       <c r="G1214" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -36252,7 +36252,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G1215" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -36278,7 +36278,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -36304,7 +36304,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G1217" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -36330,7 +36330,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G1218" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -36356,7 +36356,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G1219" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -36382,7 +36382,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1220" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -36408,7 +36408,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G1221" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -36434,7 +36434,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1222" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -36460,7 +36460,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G1223" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -36486,7 +36486,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G1224" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -36512,7 +36512,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1225" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -36538,7 +36538,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G1226" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -36564,7 +36564,7 @@
         <v>5.19999980926514</v>
       </c>
       <c r="G1227" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -36590,7 +36590,7 @@
         <v>5.32000017166138</v>
       </c>
       <c r="G1228" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -36616,7 +36616,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G1229" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -36642,7 +36642,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G1230" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -36668,7 +36668,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1231" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -36694,7 +36694,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G1232" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -36720,7 +36720,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G1233" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -36746,7 +36746,7 @@
         <v>5.61999988555908</v>
       </c>
       <c r="G1234" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -36772,7 +36772,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1235" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -36798,7 +36798,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1236" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -36824,7 +36824,7 @@
         <v>6.76999998092651</v>
       </c>
       <c r="G1237" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36850,7 +36850,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1238" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36876,7 +36876,7 @@
         <v>6.75</v>
       </c>
       <c r="G1239" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36902,7 +36902,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1240" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36928,7 +36928,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1241" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36954,7 +36954,7 @@
         <v>7.15999984741211</v>
       </c>
       <c r="G1242" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36980,7 +36980,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1243" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -37006,7 +37006,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1244" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -37032,7 +37032,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1245" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -37058,7 +37058,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1246" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -37084,7 +37084,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1247" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -37110,7 +37110,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1248" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -37136,7 +37136,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1249" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -37162,7 +37162,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1250" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -37188,7 +37188,7 @@
         <v>7.03999996185303</v>
       </c>
       <c r="G1251" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -37214,7 +37214,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1252" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -37240,7 +37240,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1253" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -37266,7 +37266,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1254" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -37292,7 +37292,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1255" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -37318,7 +37318,7 @@
         <v>6.82000017166138</v>
       </c>
       <c r="G1256" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -37344,7 +37344,7 @@
         <v>6.75</v>
       </c>
       <c r="G1257" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -37370,7 +37370,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1258" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -37396,7 +37396,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1259" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -37422,7 +37422,7 @@
         <v>6.75</v>
       </c>
       <c r="G1260" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -37448,7 +37448,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1261" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -37474,7 +37474,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1262" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -37500,7 +37500,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1263" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -37526,7 +37526,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -37552,7 +37552,7 @@
         <v>6.69999980926514</v>
       </c>
       <c r="G1265" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -37578,7 +37578,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1266" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -37604,7 +37604,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1267" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -37630,7 +37630,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1268" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -37656,7 +37656,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1269" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -37682,7 +37682,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1270" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -37708,7 +37708,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G1271" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -37734,7 +37734,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -37760,7 +37760,7 @@
         <v>6.73999977111816</v>
       </c>
       <c r="G1273" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -37786,7 +37786,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1274" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -37812,7 +37812,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1275" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37838,7 +37838,7 @@
         <v>6.86999988555908</v>
       </c>
       <c r="G1276" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37864,7 +37864,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1277" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37890,7 +37890,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="G1278" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37916,7 +37916,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1279" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37942,7 +37942,7 @@
         <v>7.01999998092651</v>
       </c>
       <c r="G1280" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37968,7 +37968,7 @@
         <v>7.11999988555908</v>
       </c>
       <c r="G1281" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37994,7 +37994,7 @@
         <v>7.07000017166138</v>
       </c>
       <c r="G1282" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -38020,7 +38020,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1283" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -38046,7 +38046,7 @@
         <v>6.98999977111816</v>
       </c>
       <c r="G1284" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -38072,7 +38072,7 @@
         <v>6.80999994277954</v>
       </c>
       <c r="G1285" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -38098,7 +38098,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1286" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -38124,7 +38124,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G1287" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -38150,7 +38150,7 @@
         <v>6.90000009536743</v>
       </c>
       <c r="G1288" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -38176,7 +38176,7 @@
         <v>7</v>
       </c>
       <c r="G1289" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -38202,7 +38202,7 @@
         <v>6.78000020980835</v>
       </c>
       <c r="G1290" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -38228,7 +38228,7 @@
         <v>6.96000003814697</v>
       </c>
       <c r="G1291" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -38254,7 +38254,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1292" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -38280,7 +38280,7 @@
         <v>7.30000019073486</v>
       </c>
       <c r="G1293" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -38306,7 +38306,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1294" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -38332,7 +38332,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G1295" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -38358,7 +38358,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1296" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -38384,7 +38384,7 @@
         <v>8.5</v>
       </c>
       <c r="G1297" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -38410,7 +38410,7 @@
         <v>8.5600004196167</v>
       </c>
       <c r="G1298" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -38436,7 +38436,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1299" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -38462,7 +38462,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1300" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -38488,7 +38488,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1301" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -38514,7 +38514,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1302" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -38540,7 +38540,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1303" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -38566,7 +38566,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1304" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -38592,7 +38592,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1305" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -38618,7 +38618,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1306" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -38644,7 +38644,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G1307" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -38670,7 +38670,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1308" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -38696,7 +38696,7 @@
         <v>8.03999996185303</v>
       </c>
       <c r="G1309" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -38722,7 +38722,7 @@
         <v>7.94000005722046</v>
       </c>
       <c r="G1310" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -38748,7 +38748,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1311" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -38774,7 +38774,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1312" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38800,7 +38800,7 @@
         <v>8.22000026702881</v>
       </c>
       <c r="G1313" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -38826,7 +38826,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G1314" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38852,7 +38852,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1315" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38878,7 +38878,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1316" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38904,7 +38904,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1317" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38930,7 +38930,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1318" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38956,7 +38956,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1319" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38982,7 +38982,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1320" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -39008,7 +39008,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1321" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -39034,7 +39034,7 @@
         <v>8.55000019073486</v>
       </c>
       <c r="G1322" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -39060,7 +39060,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1323" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -39086,7 +39086,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1324" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -39112,7 +39112,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1325" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -39138,7 +39138,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1326" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -39164,7 +39164,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1327" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -39190,7 +39190,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1328" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -39216,7 +39216,7 @@
         <v>8.60000038146973</v>
       </c>
       <c r="G1329" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -39242,7 +39242,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1330" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -39268,7 +39268,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1331" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -39294,7 +39294,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1332" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -39320,7 +39320,7 @@
         <v>8.75</v>
       </c>
       <c r="G1333" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -39346,7 +39346,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1334" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -39372,7 +39372,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1335" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -39398,7 +39398,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1336" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -39424,7 +39424,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1337" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -39450,7 +39450,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1338" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -39476,7 +39476,7 @@
         <v>9.23999977111816</v>
       </c>
       <c r="G1339" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -39502,7 +39502,7 @@
         <v>9</v>
       </c>
       <c r="G1340" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -39528,7 +39528,7 @@
         <v>9.01000022888184</v>
       </c>
       <c r="G1341" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -39554,7 +39554,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G1342" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -39580,7 +39580,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G1343" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -39606,7 +39606,7 @@
         <v>9.0600004196167</v>
       </c>
       <c r="G1344" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -39632,7 +39632,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G1345" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -39658,7 +39658,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1346" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -39684,7 +39684,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1347" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -39710,7 +39710,7 @@
         <v>9.10000038146973</v>
       </c>
       <c r="G1348" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -39736,7 +39736,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G1349" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -39762,7 +39762,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1350" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -39788,7 +39788,7 @@
         <v>9.18000030517578</v>
       </c>
       <c r="G1351" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -39814,7 +39814,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1352" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39840,7 +39840,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1353" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39866,7 +39866,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1354" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39892,7 +39892,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1355" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39918,7 +39918,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1356" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39944,7 +39944,7 @@
         <v>9.5</v>
       </c>
       <c r="G1357" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39970,7 +39970,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1358" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39996,7 +39996,7 @@
         <v>9.73999977111816</v>
       </c>
       <c r="G1359" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -40022,7 +40022,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1360" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -40048,7 +40048,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1361" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -40074,7 +40074,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1362" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -40100,7 +40100,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G1363" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -40126,7 +40126,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1364" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -40152,7 +40152,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1365" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -40178,7 +40178,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1366" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -40204,7 +40204,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1367" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -40230,7 +40230,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1368" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -40256,7 +40256,7 @@
         <v>9.5</v>
       </c>
       <c r="G1369" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -40282,7 +40282,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1370" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -40308,7 +40308,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1371" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -40334,7 +40334,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G1372" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -40360,7 +40360,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1373" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -40386,7 +40386,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1374" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -40698,7 +40698,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1386" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -41530,7 +41530,7 @@
         <v>9.5</v>
       </c>
       <c r="G1418" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -41712,7 +41712,7 @@
         <v>9.36999988555908</v>
       </c>
       <c r="G1425" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -41816,7 +41816,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1429" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41842,7 +41842,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1430" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41972,7 +41972,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1435" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -42206,7 +42206,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G1444" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -61298,13 +61298,13 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6495717593</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>19325</v>
       </c>
       <c r="C2179" t="n">
-        <v>10.0600004196167</v>
+        <v>10.0799999237061</v>
       </c>
       <c r="D2179" t="n">
         <v>10</v>
@@ -61319,6 +61319,32 @@
         <v>1416</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6494444444</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>35527</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>10.0799999237061</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>10.0799999237061</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="1442">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,73 +38,73 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">4.79800653457642</t>
+    <t xml:space="preserve">4.7980055809021</t>
   </si>
   <si>
     <t xml:space="preserve">CEM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77356767654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64730453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57806348800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41514348983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30517196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41106939315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37441253662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37848567962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14225149154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01435995101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05346059799194</t>
+    <t xml:space="preserve">4.77356815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64730501174927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57806301116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41514301300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30517148971558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41107034683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37441349029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37848615646362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14225196838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01435899734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05345964431763</t>
   </si>
   <si>
     <t xml:space="preserve">3.74879884719849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91171908378601</t>
+    <t xml:space="preserve">3.91171932220459</t>
   </si>
   <si>
     <t xml:space="preserve">4.02739238739014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95733571052551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99480867385864</t>
+    <t xml:space="preserve">3.95733666419983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9948091506958</t>
   </si>
   <si>
     <t xml:space="preserve">3.95570731163025</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82048344612122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01273012161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95081949234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81233739852905</t>
+    <t xml:space="preserve">3.82048392295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01272964477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95082020759583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81233716011047</t>
   </si>
   <si>
     <t xml:space="preserve">3.64941716194153</t>
@@ -113,49 +113,49 @@
     <t xml:space="preserve">3.67059683799744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.69177651405334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4180703163147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21279072761536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31543016433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19324016571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2730712890625</t>
+    <t xml:space="preserve">3.6917769908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41807055473328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21279048919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31543064117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19323992729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27307105064392</t>
   </si>
   <si>
     <t xml:space="preserve">3.51093506813049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42947483062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54514813423157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62497925758362</t>
+    <t xml:space="preserve">3.42947459220886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54514837265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6249794960022</t>
   </si>
   <si>
     <t xml:space="preserve">3.41318273544312</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45880055427551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4343626499176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30402565002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35778975486755</t>
+    <t xml:space="preserve">3.45880007743835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43436241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30402636528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35778999328613</t>
   </si>
   <si>
     <t xml:space="preserve">3.47020530700684</t>
@@ -167,43 +167,43 @@
     <t xml:space="preserve">3.70643949508667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.62660813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71621441841125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63149619102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59076571464539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795716285706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59565377235413</t>
+    <t xml:space="preserve">3.6266086101532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71621465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63149642944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59076595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56795692443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59565329551697</t>
   </si>
   <si>
     <t xml:space="preserve">3.62009143829346</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8270001411438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68525958061218</t>
+    <t xml:space="preserve">3.82700085639954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68526005744934</t>
   </si>
   <si>
     <t xml:space="preserve">3.82862949371338</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90846061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74391102790833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78138256072998</t>
+    <t xml:space="preserve">3.90846014022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74391078948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78138279914856</t>
   </si>
   <si>
     <t xml:space="preserve">3.730877161026</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">3.5875072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64127087593079</t>
+    <t xml:space="preserve">3.64127063751221</t>
   </si>
   <si>
     <t xml:space="preserve">3.57936143875122</t>
@@ -221,79 +221,79 @@
     <t xml:space="preserve">3.61357474327087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65104675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52071070671082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47835087776184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44250845909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67222619056702</t>
+    <t xml:space="preserve">3.65104603767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52071022987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47835063934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44250822067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6722264289856</t>
   </si>
   <si>
     <t xml:space="preserve">3.55492305755615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61520433425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66733837127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85469698905945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81885433197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93452763557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81396698951721</t>
+    <t xml:space="preserve">3.61520457267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66733813285828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85469675064087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81885480880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9345281124115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81396675109863</t>
   </si>
   <si>
     <t xml:space="preserve">3.8237419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7797532081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76671981811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75042819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87261891365051</t>
+    <t xml:space="preserve">3.77975392341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76672053337097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75042796134949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87261843681335</t>
   </si>
   <si>
     <t xml:space="preserve">3.73902368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77486562728882</t>
+    <t xml:space="preserve">3.77486538887024</t>
   </si>
   <si>
     <t xml:space="preserve">3.69829297065735</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74716973304749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71458506584167</t>
+    <t xml:space="preserve">3.74716925621033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71458554267883</t>
   </si>
   <si>
     <t xml:space="preserve">3.60054111480713</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52722692489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54351902008057</t>
+    <t xml:space="preserve">3.52722668647766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54351878166199</t>
   </si>
   <si>
     <t xml:space="preserve">3.6022744178772</t>
@@ -302,19 +302,19 @@
     <t xml:space="preserve">3.69399881362915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83241963386536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83575534820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95249509811401</t>
+    <t xml:space="preserve">3.8324191570282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83575487136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95249605178833</t>
   </si>
   <si>
     <t xml:space="preserve">3.96083402633667</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8524317741394</t>
+    <t xml:space="preserve">3.85243201255798</t>
   </si>
   <si>
     <t xml:space="preserve">3.82908415794373</t>
@@ -323,40 +323,40 @@
     <t xml:space="preserve">3.779052734375</t>
   </si>
   <si>
-    <t xml:space="preserve">3.74236249923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66898345947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65564155578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62729024887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45384740829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37713265419006</t>
+    <t xml:space="preserve">3.7423632144928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66898322105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6556408405304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62728977203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45384788513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37713241577148</t>
   </si>
   <si>
     <t xml:space="preserve">3.36379027366638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2603919506073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22203421592712</t>
+    <t xml:space="preserve">3.26039171218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2220344543457</t>
   </si>
   <si>
     <t xml:space="preserve">3.06693649291992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21703124046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09528732299805</t>
+    <t xml:space="preserve">3.21703147888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09528779983521</t>
   </si>
   <si>
     <t xml:space="preserve">3.28707551956177</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">3.41882491111755</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16866731643677</t>
+    <t xml:space="preserve">3.16866707801819</t>
   </si>
   <si>
     <t xml:space="preserve">2.88515496253967</t>
@@ -377,25 +377,25 @@
     <t xml:space="preserve">2.8968288898468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9935564994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10362577438354</t>
+    <t xml:space="preserve">2.99355673789978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1036262512207</t>
   </si>
   <si>
     <t xml:space="preserve">3.01690483093262</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8518009185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81844639778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82344937324524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90516781806946</t>
+    <t xml:space="preserve">2.85180044174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81844615936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82344913482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9051673412323</t>
   </si>
   <si>
     <t xml:space="preserve">2.9351863861084</t>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">3.10195851325989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06026530265808</t>
+    <t xml:space="preserve">3.06026577949524</t>
   </si>
   <si>
     <t xml:space="preserve">3.27540135383606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19535112380981</t>
+    <t xml:space="preserve">3.19535088539124</t>
   </si>
   <si>
     <t xml:space="preserve">3.13698101043701</t>
@@ -419,109 +419,109 @@
     <t xml:space="preserve">3.03358197212219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17033505439758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03524994850159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98688578605652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23871159553528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2437150478363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21869874000549</t>
+    <t xml:space="preserve">3.17033529281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03524971008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9868860244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23871183395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24371480941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21869850158691</t>
   </si>
   <si>
     <t xml:space="preserve">3.25205326080322</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16032886505127</t>
+    <t xml:space="preserve">3.16032862663269</t>
   </si>
   <si>
     <t xml:space="preserve">3.18367695808411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08528113365173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17867374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30208516120911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34544587135315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38880658149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50387907028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4738597869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53556561470032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5055468082428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51722049713135</t>
+    <t xml:space="preserve">3.08528161048889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17867350578308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30208492279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34544539451599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38880610466003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5038788318634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47386026382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53556537628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50554704666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51722097396851</t>
   </si>
   <si>
     <t xml:space="preserve">3.75236916542053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7190146446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79239392280579</t>
+    <t xml:space="preserve">3.71901488304138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239463806152</t>
   </si>
   <si>
     <t xml:space="preserve">3.76904630661011</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81907773017883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92914724349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88411927223206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8991277217865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87911534309387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81740999221802</t>
+    <t xml:space="preserve">3.81907820701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92914700508118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88411903381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89912843704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87911605834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81741094589233</t>
   </si>
   <si>
     <t xml:space="preserve">3.69566679000854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63729643821716</t>
+    <t xml:space="preserve">3.63729619979858</t>
   </si>
   <si>
     <t xml:space="preserve">3.54390430450439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58559703826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73235607147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.677321434021</t>
+    <t xml:space="preserve">3.58559727668762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73235630989075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67732191085815</t>
   </si>
   <si>
     <t xml:space="preserve">3.61561608314514</t>
@@ -530,58 +530,58 @@
     <t xml:space="preserve">3.7206826210022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71734738349915</t>
+    <t xml:space="preserve">3.71734690666199</t>
   </si>
   <si>
     <t xml:space="preserve">3.45551538467407</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55224347114563</t>
+    <t xml:space="preserve">3.55224299430847</t>
   </si>
   <si>
     <t xml:space="preserve">3.52222418785095</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50221109390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57725858688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63562870025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62562227249146</t>
+    <t xml:space="preserve">3.50221133232117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57725882530212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63562917709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62562274932861</t>
   </si>
   <si>
     <t xml:space="preserve">3.63396096229553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.55391097068787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61394882202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69733452796936</t>
+    <t xml:space="preserve">3.55391073226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61394906044006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69733428955078</t>
   </si>
   <si>
     <t xml:space="preserve">3.66231274604797</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71401166915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76237511634827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73402428627014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76070785522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60727787017822</t>
+    <t xml:space="preserve">3.71401143074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76237535476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73402452468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76070809364319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60727763175964</t>
   </si>
   <si>
     <t xml:space="preserve">3.70233750343323</t>
@@ -590,28 +590,28 @@
     <t xml:space="preserve">3.7106761932373</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50721406936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48553419113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48720169067383</t>
+    <t xml:space="preserve">3.50721454620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48553371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48720192909241</t>
   </si>
   <si>
     <t xml:space="preserve">3.40214776992798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43883776664734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3404426574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28540778160095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27373385429382</t>
+    <t xml:space="preserve">3.43883800506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34044241905212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28540754318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27373337745667</t>
   </si>
   <si>
     <t xml:space="preserve">3.24037909507751</t>
@@ -620,22 +620,22 @@
     <t xml:space="preserve">3.27706909179688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21036052703857</t>
+    <t xml:space="preserve">3.21036028862</t>
   </si>
   <si>
     <t xml:space="preserve">3.17533850669861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06526875495911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07694244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01190185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97687935829163</t>
+    <t xml:space="preserve">3.06526899337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07694292068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01190161705017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97687959671021</t>
   </si>
   <si>
     <t xml:space="preserve">3.02357578277588</t>
@@ -647,34 +647,34 @@
     <t xml:space="preserve">3.0152370929718</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10862922668457</t>
+    <t xml:space="preserve">3.10862946510315</t>
   </si>
   <si>
     <t xml:space="preserve">3.23537611961365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25038576126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38547110557556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2987494468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52722668647766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55724596977234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52055621147156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56892013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64396715164185</t>
+    <t xml:space="preserve">3.25038528442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38547086715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29874920845032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52722716331482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55724620819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5205557346344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56891989707947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64396739006042</t>
   </si>
   <si>
     <t xml:space="preserve">3.51888823509216</t>
@@ -686,40 +686,40 @@
     <t xml:space="preserve">3.75070142745972</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66064476966858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77738523483276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55557823181152</t>
+    <t xml:space="preserve">3.66064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77738547325134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5555784702301</t>
   </si>
   <si>
     <t xml:space="preserve">3.39881277084351</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35211658477783</t>
+    <t xml:space="preserve">3.35211634635925</t>
   </si>
   <si>
     <t xml:space="preserve">3.29374623298645</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33543944358826</t>
+    <t xml:space="preserve">3.33543920516968</t>
   </si>
   <si>
     <t xml:space="preserve">3.31209087371826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29541373252869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2970814704895</t>
+    <t xml:space="preserve">3.29541397094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29708170890808</t>
   </si>
   <si>
     <t xml:space="preserve">3.3271005153656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34211039543152</t>
+    <t xml:space="preserve">3.34211015701294</t>
   </si>
   <si>
     <t xml:space="preserve">3.30041694641113</t>
@@ -734,22 +734,22 @@
     <t xml:space="preserve">4.21099233627319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.252685546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2610239982605</t>
+    <t xml:space="preserve">4.25268507003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26102352142334</t>
   </si>
   <si>
     <t xml:space="preserve">4.14428281784058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03588151931763</t>
+    <t xml:space="preserve">4.03588199615479</t>
   </si>
   <si>
     <t xml:space="preserve">4.27770090103149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36942481994629</t>
+    <t xml:space="preserve">4.36942529678345</t>
   </si>
   <si>
     <t xml:space="preserve">4.43196487426758</t>
@@ -770,43 +770,43 @@
     <t xml:space="preserve">4.4611496925354</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35274791717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4778265953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44864225387573</t>
+    <t xml:space="preserve">4.35274839401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47782707214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44864130020142</t>
   </si>
   <si>
     <t xml:space="preserve">4.46531915664673</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47365760803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65293836593628</t>
+    <t xml:space="preserve">4.47365808486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65293741226196</t>
   </si>
   <si>
     <t xml:space="preserve">4.51535034179688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41528749465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34024000167847</t>
+    <t xml:space="preserve">4.41528797149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34024095535278</t>
   </si>
   <si>
     <t xml:space="preserve">4.3360710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38610363006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43613386154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32773303985596</t>
+    <t xml:space="preserve">4.3861026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43613433837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3277325630188</t>
   </si>
   <si>
     <t xml:space="preserve">4.33190202713013</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">4.18597650527954</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30688619613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49450445175171</t>
+    <t xml:space="preserve">4.30688571929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49450397491455</t>
   </si>
   <si>
     <t xml:space="preserve">4.45281171798706</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36108732223511</t>
+    <t xml:space="preserve">4.36108684539795</t>
   </si>
   <si>
     <t xml:space="preserve">4.39027214050293</t>
@@ -839,40 +839,40 @@
     <t xml:space="preserve">4.36525630950928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53619766235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61958408355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60707473754883</t>
+    <t xml:space="preserve">4.53619718551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61958265304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60707521438599</t>
   </si>
   <si>
     <t xml:space="preserve">4.61124563217163</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7738471031189</t>
+    <t xml:space="preserve">4.77384757995605</t>
   </si>
   <si>
     <t xml:space="preserve">4.75300073623657</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80720186233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82804775238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91560316085815</t>
+    <t xml:space="preserve">4.80720233917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82804822921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91560363769531</t>
   </si>
   <si>
     <t xml:space="preserve">4.90726566314697</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74466228485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42779588699341</t>
+    <t xml:space="preserve">4.74466276168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42779541015625</t>
   </si>
   <si>
     <t xml:space="preserve">4.42362594604492</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">4.53827857971191</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5042839050293</t>
+    <t xml:space="preserve">4.50428342819214</t>
   </si>
   <si>
     <t xml:space="preserve">4.46179008483887</t>
@@ -899,25 +899,25 @@
     <t xml:space="preserve">4.38955163955688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35980653762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34280920028687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.40229940414429</t>
+    <t xml:space="preserve">4.35980606079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34280872344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.40229988098145</t>
   </si>
   <si>
     <t xml:space="preserve">4.35130786895752</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29181718826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41929721832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45754098892212</t>
+    <t xml:space="preserve">4.2918176651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4192967414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45754051208496</t>
   </si>
   <si>
     <t xml:space="preserve">4.43204498291016</t>
@@ -926,19 +926,19 @@
     <t xml:space="preserve">4.47878742218018</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38530254364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51703119277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48728609085083</t>
+    <t xml:space="preserve">4.38530158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5170316696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48728656768799</t>
   </si>
   <si>
     <t xml:space="preserve">4.48303699493408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47028970718384</t>
+    <t xml:space="preserve">4.47028875350952</t>
   </si>
   <si>
     <t xml:space="preserve">4.55527544021606</t>
@@ -953,52 +953,52 @@
     <t xml:space="preserve">4.49578475952148</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4362940788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78473854064941</t>
+    <t xml:space="preserve">4.43629455566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78473949432373</t>
   </si>
   <si>
     <t xml:space="preserve">4.67425680160522</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95046281814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09918880462646</t>
+    <t xml:space="preserve">4.95046234130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09918785095215</t>
   </si>
   <si>
     <t xml:space="preserve">5.15867948532104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20967054367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35414838790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3923921585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35839700698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52412176132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40938949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40514039993286</t>
+    <t xml:space="preserve">5.20967149734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35414791107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39239168167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35839748382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52412128448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40938901901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4051399230957</t>
   </si>
   <si>
     <t xml:space="preserve">5.45188236236572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41363906860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33290195465088</t>
+    <t xml:space="preserve">5.41363859176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33290147781372</t>
   </si>
   <si>
     <t xml:space="preserve">5.39664173126221</t>
@@ -1013,28 +1013,28 @@
     <t xml:space="preserve">5.11618614196777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15442943572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22666883468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30740594863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1756763458252</t>
+    <t xml:space="preserve">5.15442991256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22666835784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30740547180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17567682266235</t>
   </si>
   <si>
     <t xml:space="preserve">5.13318347930908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05669546127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09068965911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06094455718994</t>
+    <t xml:space="preserve">5.05669498443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09068918228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0609450340271</t>
   </si>
   <si>
     <t xml:space="preserve">5.00570344924927</t>
@@ -1052,67 +1052,67 @@
     <t xml:space="preserve">5.05244636535645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04394817352295</t>
+    <t xml:space="preserve">5.04394721984863</t>
   </si>
   <si>
     <t xml:space="preserve">5.01420211791992</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12468481063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15018081665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21817016601562</t>
+    <t xml:space="preserve">5.12468433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15018033981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21816921234131</t>
   </si>
   <si>
     <t xml:space="preserve">5.27766036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33715105056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28191041946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23516750335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43913412094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37114524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32865238189697</t>
+    <t xml:space="preserve">5.33715152740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28190994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23516702651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43913555145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3711462020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32865190505981</t>
   </si>
   <si>
     <t xml:space="preserve">5.69409418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80032730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12327575683594</t>
+    <t xml:space="preserve">5.80032682418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12327527999878</t>
   </si>
   <si>
     <t xml:space="preserve">5.9235577583313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19551420211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1360239982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28899908065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00854396820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05953550338745</t>
+    <t xml:space="preserve">6.19551467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13602352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28900003433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00854444503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05953598022461</t>
   </si>
   <si>
     <t xml:space="preserve">6.08503198623657</t>
@@ -1124,43 +1124,43 @@
     <t xml:space="preserve">6.11477708816528</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08928155899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03403997421265</t>
+    <t xml:space="preserve">6.08928108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03403949737549</t>
   </si>
   <si>
     <t xml:space="preserve">5.97879886627197</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04678726196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01704263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0212926864624</t>
+    <t xml:space="preserve">6.04678773880005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0170431137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02129220962524</t>
   </si>
   <si>
     <t xml:space="preserve">5.99154663085938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96180105209351</t>
+    <t xml:space="preserve">5.96180200576782</t>
   </si>
   <si>
     <t xml:space="preserve">6.12752532958984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10202884674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15727090835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21251201629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14877223968506</t>
+    <t xml:space="preserve">6.10202932357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1572699546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21251153945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14877128601074</t>
   </si>
   <si>
     <t xml:space="preserve">6.11902618408203</t>
@@ -1169,19 +1169,19 @@
     <t xml:space="preserve">6.17001867294312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19976425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41647958755493</t>
+    <t xml:space="preserve">6.19976377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41647911071777</t>
   </si>
   <si>
     <t xml:space="preserve">6.29749774932861</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32299375534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20401334762573</t>
+    <t xml:space="preserve">6.32299423217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20401382446289</t>
   </si>
   <si>
     <t xml:space="preserve">6.36973667144775</t>
@@ -1193,22 +1193,22 @@
     <t xml:space="preserve">6.14452266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22101020812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30599641799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33149242401123</t>
+    <t xml:space="preserve">6.22101068496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30599737167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33149290084839</t>
   </si>
   <si>
     <t xml:space="preserve">6.34424066543579</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26775312423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07653284072876</t>
+    <t xml:space="preserve">6.2677526473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07653379440308</t>
   </si>
   <si>
     <t xml:space="preserve">6.06378555297852</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">6.13177490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1402735710144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23800706863403</t>
+    <t xml:space="preserve">6.14027309417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23800802230835</t>
   </si>
   <si>
     <t xml:space="preserve">6.18276643753052</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">6.1615195274353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27200174331665</t>
+    <t xml:space="preserve">6.27200222015381</t>
   </si>
   <si>
     <t xml:space="preserve">6.21676111221313</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">6.48446846008301</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3484902381897</t>
+    <t xml:space="preserve">6.34848976135254</t>
   </si>
   <si>
     <t xml:space="preserve">6.40798044204712</t>
@@ -1247,28 +1247,28 @@
     <t xml:space="preserve">6.71393203735352</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74792623519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7054328918457</t>
+    <t xml:space="preserve">6.74792671203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70543336868286</t>
   </si>
   <si>
     <t xml:space="preserve">6.63744401931763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62894582748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79041957855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87540626525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72243022918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75642442703247</t>
+    <t xml:space="preserve">6.62894535064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7904200553894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87540674209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72243070602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75642490386963</t>
   </si>
   <si>
     <t xml:space="preserve">6.76492357254028</t>
@@ -1277,40 +1277,40 @@
     <t xml:space="preserve">6.84141206741333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65444087982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64594316482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79891872406006</t>
+    <t xml:space="preserve">6.65444135665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64594221115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7989182472229</t>
   </si>
   <si>
     <t xml:space="preserve">6.6799373626709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57795333862305</t>
+    <t xml:space="preserve">6.57795286178589</t>
   </si>
   <si>
     <t xml:space="preserve">6.42497777938843</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35698843002319</t>
+    <t xml:space="preserve">6.35698938369751</t>
   </si>
   <si>
     <t xml:space="preserve">6.02554130554199</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05103778839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66294050216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39098358154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4929666519165</t>
+    <t xml:space="preserve">6.05103731155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66294002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39098310470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49296712875366</t>
   </si>
   <si>
     <t xml:space="preserve">6.45897197723389</t>
@@ -1319,31 +1319,31 @@
     <t xml:space="preserve">6.26350355148315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28050088882446</t>
+    <t xml:space="preserve">6.2805004119873</t>
   </si>
   <si>
     <t xml:space="preserve">6.18701553344727</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06803417205811</t>
+    <t xml:space="preserve">6.06803464889526</t>
   </si>
   <si>
     <t xml:space="preserve">6.2550048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17851734161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00004529953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96605110168457</t>
+    <t xml:space="preserve">6.17851781845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00004482269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96605157852173</t>
   </si>
   <si>
     <t xml:space="preserve">5.93205595016479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83857107162476</t>
+    <t xml:space="preserve">5.8385705947876</t>
   </si>
   <si>
     <t xml:space="preserve">5.87256526947021</t>
@@ -1352,28 +1352,28 @@
     <t xml:space="preserve">5.88106441497803</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7960786819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94055461883545</t>
+    <t xml:space="preserve">5.79607772827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94055509567261</t>
   </si>
   <si>
     <t xml:space="preserve">5.98304843902588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88956212997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89806127548218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90656042098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74508619308472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76233863830566</t>
+    <t xml:space="preserve">5.88956260681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89806175231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90655994415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74508571624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76233768463135</t>
   </si>
   <si>
     <t xml:space="preserve">5.7968430519104</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">5.81409549713135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58981418609619</t>
+    <t xml:space="preserve">5.58981370925903</t>
   </si>
   <si>
     <t xml:space="preserve">5.56393480300903</t>
@@ -1400,22 +1400,22 @@
     <t xml:space="preserve">5.85722732543945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69332885742188</t>
+    <t xml:space="preserve">5.69332838058472</t>
   </si>
   <si>
     <t xml:space="preserve">5.77096509933472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82272243499756</t>
+    <t xml:space="preserve">5.8227219581604</t>
   </si>
   <si>
     <t xml:space="preserve">5.89173269271851</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02975177764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02112579345703</t>
+    <t xml:space="preserve">6.02975225448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02112627029419</t>
   </si>
   <si>
     <t xml:space="preserve">6.01249980926514</t>
@@ -1424,91 +1424,91 @@
     <t xml:space="preserve">5.86585378646851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90035915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83134937286377</t>
+    <t xml:space="preserve">5.9003586769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83134889602661</t>
   </si>
   <si>
     <t xml:space="preserve">5.9262375831604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67607641220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61569261550903</t>
+    <t xml:space="preserve">5.67607593536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61569309234619</t>
   </si>
   <si>
     <t xml:space="preserve">5.80546998977661</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83997535705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84860134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71920728683472</t>
+    <t xml:space="preserve">5.83997488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8486008644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71920776367188</t>
   </si>
   <si>
     <t xml:space="preserve">5.62431907653809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78821754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13326787948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11601495742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93486309051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8744797706604</t>
+    <t xml:space="preserve">5.78821706771851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13326740264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11601543426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93486356735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87448024749756</t>
   </si>
   <si>
     <t xml:space="preserve">5.91761112213135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90898513793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00387334823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99524736404419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04700469970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96936798095703</t>
+    <t xml:space="preserve">5.90898466110229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00387382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99524688720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04700517654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96936893463135</t>
   </si>
   <si>
     <t xml:space="preserve">5.88310623168945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94348955154419</t>
+    <t xml:space="preserve">5.94349050521851</t>
   </si>
   <si>
     <t xml:space="preserve">5.95211601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53805685043335</t>
+    <t xml:space="preserve">5.53805637359619</t>
   </si>
   <si>
     <t xml:space="preserve">5.49492454528809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4431676864624</t>
+    <t xml:space="preserve">5.44316673278809</t>
   </si>
   <si>
     <t xml:space="preserve">5.3655309677124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40866231918335</t>
+    <t xml:space="preserve">5.40866184234619</t>
   </si>
   <si>
     <t xml:space="preserve">5.54668235778809</t>
@@ -1532,16 +1532,16 @@
     <t xml:space="preserve">5.24476337432861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21888494491577</t>
+    <t xml:space="preserve">5.21888542175293</t>
   </si>
   <si>
     <t xml:space="preserve">5.3482780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23613786697388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37415742874146</t>
+    <t xml:space="preserve">5.23613691329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3741569519043</t>
   </si>
   <si>
     <t xml:space="preserve">5.35690498352051</t>
@@ -1550,37 +1550,37 @@
     <t xml:space="preserve">5.31377363204956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3396520614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3914098739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4259147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4000358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59844017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43454074859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27064228057861</t>
+    <t xml:space="preserve">5.33965253829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39140939712524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42591428756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40003633499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59843969345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43454122543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27064180374146</t>
   </si>
   <si>
     <t xml:space="preserve">5.19300603866577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27926778793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21025800704956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01185464859009</t>
+    <t xml:space="preserve">5.27926826477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2102575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01185417175293</t>
   </si>
   <si>
     <t xml:space="preserve">4.69268321990967</t>
@@ -1598,70 +1598,70 @@
     <t xml:space="preserve">4.63229942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61504697799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70993614196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55466318130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35625886917114</t>
+    <t xml:space="preserve">4.61504650115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70993518829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55466270446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3562593460083</t>
   </si>
   <si>
     <t xml:space="preserve">4.22686529159546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3045015335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17510747909546</t>
+    <t xml:space="preserve">4.30450105667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17510795593262</t>
   </si>
   <si>
     <t xml:space="preserve">4.2872486114502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23980474472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48565292358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62367343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68405723571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70130920410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.72718811035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50290536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58054113388062</t>
+    <t xml:space="preserve">4.23980522155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48565244674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62367296218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68405628204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70130968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.72718858718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50290489196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58054161071777</t>
   </si>
   <si>
     <t xml:space="preserve">4.51153135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52015733718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3821382522583</t>
+    <t xml:space="preserve">4.52015781402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38213777542114</t>
   </si>
   <si>
     <t xml:space="preserve">4.42526912689209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27862215042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12766313552856</t>
+    <t xml:space="preserve">4.2786226272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12766265869141</t>
   </si>
   <si>
     <t xml:space="preserve">4.16648149490356</t>
@@ -1673,40 +1673,40 @@
     <t xml:space="preserve">4.23549127578735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32175445556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3001880645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24411773681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18373394012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11903667449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3907642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3390064239502</t>
+    <t xml:space="preserve">4.32175397872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30018854141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24411725997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18373346328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11903762817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39076375961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33900594711304</t>
   </si>
   <si>
     <t xml:space="preserve">4.22255182266235</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13197612762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23117876052856</t>
+    <t xml:space="preserve">4.13197660446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23117828369141</t>
   </si>
   <si>
     <t xml:space="preserve">4.17079448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11472368240356</t>
+    <t xml:space="preserve">4.11472463607788</t>
   </si>
   <si>
     <t xml:space="preserve">4.02414846420288</t>
@@ -1718,34 +1718,34 @@
     <t xml:space="preserve">4.39939022064209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57191562652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74444055557251</t>
+    <t xml:space="preserve">4.57191514968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74444007873535</t>
   </si>
   <si>
     <t xml:space="preserve">4.8910870552063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88246011734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91696548461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96009683609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00322866439819</t>
+    <t xml:space="preserve">4.88246059417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9169659614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96009731292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00322818756104</t>
   </si>
   <si>
     <t xml:space="preserve">4.98597621917725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05498552322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10674333572388</t>
+    <t xml:space="preserve">5.05498600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10674285888672</t>
   </si>
   <si>
     <t xml:space="preserve">5.11536884307861</t>
@@ -1757,25 +1757,25 @@
     <t xml:space="preserve">5.15850067138672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08949089050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07223892211914</t>
+    <t xml:space="preserve">5.08949041366577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07223796844482</t>
   </si>
   <si>
     <t xml:space="preserve">5.30514764785767</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22751092910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26201581954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32240009307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4517936706543</t>
+    <t xml:space="preserve">5.22751045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2620153427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32239961624146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45179414749146</t>
   </si>
   <si>
     <t xml:space="preserve">5.38278341293335</t>
@@ -1784,16 +1784,16 @@
     <t xml:space="preserve">5.51217699050903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5035514831543</t>
+    <t xml:space="preserve">5.50355100631714</t>
   </si>
   <si>
     <t xml:space="preserve">5.58118677139282</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60706663131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5294303894043</t>
+    <t xml:space="preserve">5.60706615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52942943572998</t>
   </si>
   <si>
     <t xml:space="preserve">5.52080392837524</t>
@@ -1802,25 +1802,25 @@
     <t xml:space="preserve">5.08086442947388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21648120880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23413419723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11939001083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11056327819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1635217666626</t>
+    <t xml:space="preserve">5.21648073196411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23413372039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11938905715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11056280136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16352128982544</t>
   </si>
   <si>
     <t xml:space="preserve">5.19000148773193</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19882822036743</t>
+    <t xml:space="preserve">5.19882774353027</t>
   </si>
   <si>
     <t xml:space="preserve">5.24296092987061</t>
@@ -1829,16 +1829,16 @@
     <t xml:space="preserve">5.30474662780762</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27826738357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33122634887695</t>
+    <t xml:space="preserve">5.27826690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33122539520264</t>
   </si>
   <si>
     <t xml:space="preserve">5.36653232574463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34005260467529</t>
+    <t xml:space="preserve">5.34005308151245</t>
   </si>
   <si>
     <t xml:space="preserve">5.35770559310913</t>
@@ -1850,28 +1850,28 @@
     <t xml:space="preserve">5.5695424079895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65780735015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53423690795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43714427947998</t>
+    <t xml:space="preserve">5.65780782699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53423643112183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43714475631714</t>
   </si>
   <si>
     <t xml:space="preserve">5.51658296585083</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68428707122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63132858276367</t>
+    <t xml:space="preserve">5.68428754806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63132810592651</t>
   </si>
   <si>
     <t xml:space="preserve">5.58719539642334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75489950180054</t>
+    <t xml:space="preserve">5.7548999786377</t>
   </si>
   <si>
     <t xml:space="preserve">5.87847137451172</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">5.86081790924072</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84316492080688</t>
+    <t xml:space="preserve">5.84316539764404</t>
   </si>
   <si>
     <t xml:space="preserve">5.76372623443604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81668519973755</t>
+    <t xml:space="preserve">5.81668567657471</t>
   </si>
   <si>
     <t xml:space="preserve">5.78137969970703</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">5.71076679229736</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60484790802002</t>
+    <t xml:space="preserve">5.60484886169434</t>
   </si>
   <si>
     <t xml:space="preserve">5.56071615219116</t>
@@ -1913,28 +1913,28 @@
     <t xml:space="preserve">5.34887886047363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28709316253662</t>
+    <t xml:space="preserve">5.28709268569946</t>
   </si>
   <si>
     <t xml:space="preserve">5.39301156997681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29591989517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22530794143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37535905838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18117427825928</t>
+    <t xml:space="preserve">5.29591941833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22530746459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37535858154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18117475509644</t>
   </si>
   <si>
     <t xml:space="preserve">5.25178670883179</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26943969726562</t>
+    <t xml:space="preserve">5.26944065093994</t>
   </si>
   <si>
     <t xml:space="preserve">5.26061344146729</t>
@@ -1943,16 +1943,16 @@
     <t xml:space="preserve">5.4018383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64898109436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55188941955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59602165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50775623321533</t>
+    <t xml:space="preserve">5.64898157119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55188894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59602212905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50775671005249</t>
   </si>
   <si>
     <t xml:space="preserve">5.47245025634766</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">5.49010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12821578979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14586877822876</t>
+    <t xml:space="preserve">5.12821531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14586925506592</t>
   </si>
   <si>
     <t xml:space="preserve">5.26502704620361</t>
@@ -1979,37 +1979,37 @@
     <t xml:space="preserve">5.20765447616577</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25531768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31269073486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38418531417847</t>
+    <t xml:space="preserve">5.25531816482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31269025802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38418483734131</t>
   </si>
   <si>
     <t xml:space="preserve">5.45214939117432</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43273115158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38506746292114</t>
+    <t xml:space="preserve">5.43273162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3850679397583</t>
   </si>
   <si>
     <t xml:space="preserve">5.41154766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37271070480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45391416549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32328224182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44950103759766</t>
+    <t xml:space="preserve">5.37271118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45391511917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32328176498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44950151443481</t>
   </si>
   <si>
     <t xml:space="preserve">5.59425640106201</t>
@@ -2018,64 +2018,64 @@
     <t xml:space="preserve">5.54747581481934</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42390441894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62779808044434</t>
+    <t xml:space="preserve">5.42390489578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62779760360718</t>
   </si>
   <si>
     <t xml:space="preserve">5.7284197807312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62603282928467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57130765914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53070545196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57660341262817</t>
+    <t xml:space="preserve">5.62603235244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57130718231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53070592880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57660388946533</t>
   </si>
   <si>
     <t xml:space="preserve">5.5527720451355</t>
   </si>
   <si>
-    <t xml:space="preserve">5.578369140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8961238861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14326667785645</t>
+    <t xml:space="preserve">5.57836961746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89612340927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1432671546936</t>
   </si>
   <si>
     <t xml:space="preserve">6.16092014312744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16974592208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06294584274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88464975357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89788961410522</t>
+    <t xml:space="preserve">6.16974639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06294536590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8846492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89789009094238</t>
   </si>
   <si>
     <t xml:space="preserve">5.86876153945923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85552167892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85375690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92613458633423</t>
+    <t xml:space="preserve">5.85552215576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85375642776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92613506317139</t>
   </si>
   <si>
     <t xml:space="preserve">6.02322626113892</t>
@@ -2084,19 +2084,19 @@
     <t xml:space="preserve">6.05147123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05941486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02852249145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04440975189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97026681900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9729151725769</t>
+    <t xml:space="preserve">6.05941534042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02852201461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04441022872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9702672958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97291564941406</t>
   </si>
   <si>
     <t xml:space="preserve">5.79373645782471</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">5.84669542312622</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93496131896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02410936355591</t>
+    <t xml:space="preserve">5.93496036529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02410888671875</t>
   </si>
   <si>
     <t xml:space="preserve">5.81933355331421</t>
@@ -2117,10 +2117,10 @@
     <t xml:space="preserve">5.68605279922485</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87052774429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93143033981323</t>
+    <t xml:space="preserve">5.87052726745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93142938613892</t>
   </si>
   <si>
     <t xml:space="preserve">5.87494039535522</t>
@@ -2129,31 +2129,31 @@
     <t xml:space="preserve">5.84934377670288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83433818817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8113899230957</t>
+    <t xml:space="preserve">5.83433866500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81138944625854</t>
   </si>
   <si>
     <t xml:space="preserve">5.80609321594238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74077701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87405824661255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77078771591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68340444564819</t>
+    <t xml:space="preserve">5.74077749252319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87405776977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77078723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68340539932251</t>
   </si>
   <si>
     <t xml:space="preserve">5.7372465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78579235076904</t>
+    <t xml:space="preserve">5.78579187393188</t>
   </si>
   <si>
     <t xml:space="preserve">5.69311380386353</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">5.75754737854004</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83963441848755</t>
+    <t xml:space="preserve">5.83963489532471</t>
   </si>
   <si>
     <t xml:space="preserve">5.72665500640869</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">6.04617500305176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99321603775024</t>
+    <t xml:space="preserve">5.99321556091309</t>
   </si>
   <si>
     <t xml:space="preserve">5.82815980911255</t>
@@ -2201,37 +2201,37 @@
     <t xml:space="preserve">5.5298228263855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46892023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29856729507446</t>
+    <t xml:space="preserve">5.46891975402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29856824874878</t>
   </si>
   <si>
     <t xml:space="preserve">5.14057302474976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25708246231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28356313705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89166450500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32809066772461</t>
+    <t xml:space="preserve">5.25708293914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28356266021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89166498184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32809019088745</t>
   </si>
   <si>
     <t xml:space="preserve">4.38678646087646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39296531677246</t>
+    <t xml:space="preserve">4.39296627044678</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357482910156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19260311126709</t>
+    <t xml:space="preserve">4.19260358810425</t>
   </si>
   <si>
     <t xml:space="preserve">4.06020498275757</t>
@@ -2240,31 +2240,31 @@
     <t xml:space="preserve">3.84969234466553</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97194004058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25880193710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90000343322754</t>
+    <t xml:space="preserve">3.97194051742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25880241394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9000039100647</t>
   </si>
   <si>
     <t xml:space="preserve">4.05402660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15111923217773</t>
+    <t xml:space="preserve">4.15111827850342</t>
   </si>
   <si>
     <t xml:space="preserve">4.35898351669312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19966459274292</t>
+    <t xml:space="preserve">4.19966411590576</t>
   </si>
   <si>
     <t xml:space="preserve">4.13743734359741</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34177160263062</t>
+    <t xml:space="preserve">4.34177207946777</t>
   </si>
   <si>
     <t xml:space="preserve">4.39561319351196</t>
@@ -2273,37 +2273,37 @@
     <t xml:space="preserve">4.45739984512329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25438928604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41326665878296</t>
+    <t xml:space="preserve">4.2543888092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4132661819458</t>
   </si>
   <si>
     <t xml:space="preserve">4.54566478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70454263687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57214450836182</t>
+    <t xml:space="preserve">4.70454216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57214403152466</t>
   </si>
   <si>
     <t xml:space="preserve">4.72219514846802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66040992736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6692361831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61627721786499</t>
+    <t xml:space="preserve">4.66040945053101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66923666000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61627674102783</t>
   </si>
   <si>
     <t xml:space="preserve">4.5897970199585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8369402885437</t>
+    <t xml:space="preserve">4.83694076538086</t>
   </si>
   <si>
     <t xml:space="preserve">4.8634204864502</t>
@@ -2315,28 +2315,28 @@
     <t xml:space="preserve">5.03995037078857</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0134711265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93403196334839</t>
+    <t xml:space="preserve">5.01347064971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93403291702271</t>
   </si>
   <si>
     <t xml:space="preserve">4.678062915802</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64275646209717</t>
+    <t xml:space="preserve">4.64275693893433</t>
   </si>
   <si>
     <t xml:space="preserve">4.71336889266968</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76632785797119</t>
+    <t xml:space="preserve">4.76632833480835</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872598648071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00738573074341</t>
+    <t xml:space="preserve">5.00738525390625</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872550964355</t>
@@ -2345,22 +2345,22 @@
     <t xml:space="preserve">4.82628631591797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98022031784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01644039154053</t>
+    <t xml:space="preserve">4.98022079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01643991470337</t>
   </si>
   <si>
     <t xml:space="preserve">5.20659399032593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32430791854858</t>
+    <t xml:space="preserve">5.3243088722229</t>
   </si>
   <si>
     <t xml:space="preserve">5.29714345932007</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50540733337402</t>
+    <t xml:space="preserve">5.50540685653687</t>
   </si>
   <si>
     <t xml:space="preserve">5.55068206787109</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">5.60501194000244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71367120742798</t>
+    <t xml:space="preserve">5.71367073059082</t>
   </si>
   <si>
     <t xml:space="preserve">5.84044027328491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93099069595337</t>
+    <t xml:space="preserve">5.93099021911621</t>
   </si>
   <si>
     <t xml:space="preserve">5.74989080429077</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">5.37863826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3424186706543</t>
+    <t xml:space="preserve">5.34241819381714</t>
   </si>
   <si>
     <t xml:space="preserve">5.66839647293091</t>
@@ -2402,37 +2402,37 @@
     <t xml:space="preserve">5.84949541091919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7227258682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76800060272217</t>
+    <t xml:space="preserve">5.72272634506226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76800012588501</t>
   </si>
   <si>
     <t xml:space="preserve">5.79516553878784</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73178052902222</t>
+    <t xml:space="preserve">5.73178100585938</t>
   </si>
   <si>
     <t xml:space="preserve">5.75894594192505</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83138465881348</t>
+    <t xml:space="preserve">5.83138513565063</t>
   </si>
   <si>
     <t xml:space="preserve">5.69556140899658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67745161056519</t>
+    <t xml:space="preserve">5.67745113372803</t>
   </si>
   <si>
     <t xml:space="preserve">5.64123153686523</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56879234313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46013307571411</t>
+    <t xml:space="preserve">5.56879186630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46013259887695</t>
   </si>
   <si>
     <t xml:space="preserve">5.5325722694397</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">5.49635219573975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39674758911133</t>
+    <t xml:space="preserve">5.39674806594849</t>
   </si>
   <si>
     <t xml:space="preserve">5.31525325775146</t>
@@ -2456,22 +2456,22 @@
     <t xml:space="preserve">5.46918725967407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36052846908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36958312988281</t>
+    <t xml:space="preserve">5.36052799224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36958265304565</t>
   </si>
   <si>
     <t xml:space="preserve">5.47824287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59595727920532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70461654663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6502857208252</t>
+    <t xml:space="preserve">5.59595632553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7046160697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65028619766235</t>
   </si>
   <si>
     <t xml:space="preserve">5.6140661239624</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">5.38769292831421</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30619859695435</t>
+    <t xml:space="preserve">5.30619812011719</t>
   </si>
   <si>
     <t xml:space="preserve">5.43296766281128</t>
@@ -2498,28 +2498,28 @@
     <t xml:space="preserve">5.35147333145142</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26092386245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2337589263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26997900009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28808832168579</t>
+    <t xml:space="preserve">5.26092338562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23375940322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26997852325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28808879852295</t>
   </si>
   <si>
     <t xml:space="preserve">5.12509965896606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99833059310913</t>
+    <t xml:space="preserve">4.99833011627197</t>
   </si>
   <si>
     <t xml:space="preserve">4.70857191085815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81723165512085</t>
+    <t xml:space="preserve">4.81723117828369</t>
   </si>
   <si>
     <t xml:space="preserve">4.9530553817749</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">5.10698938369751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98927545547485</t>
+    <t xml:space="preserve">4.98927593231201</t>
   </si>
   <si>
     <t xml:space="preserve">5.08888006210327</t>
@@ -2540,16 +2540,16 @@
     <t xml:space="preserve">6.02153968811035</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13019847869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13925409317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11208915710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22074794769287</t>
+    <t xml:space="preserve">6.13019895553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13925361633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11208820343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22074842453003</t>
   </si>
   <si>
     <t xml:space="preserve">6.22980308532715</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">6.31129741668701</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36562776565552</t>
+    <t xml:space="preserve">6.36562728881836</t>
   </si>
   <si>
     <t xml:space="preserve">6.41090154647827</t>
@@ -2573,31 +2573,31 @@
     <t xml:space="preserve">6.37468242645264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42901134490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43806743621826</t>
+    <t xml:space="preserve">6.42901229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43806648254395</t>
   </si>
   <si>
     <t xml:space="preserve">6.23885774612427</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20263814926147</t>
+    <t xml:space="preserve">6.20263767242432</t>
   </si>
   <si>
     <t xml:space="preserve">6.18452835083008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1754732131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10303401947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0849232673645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05775880813599</t>
+    <t xml:space="preserve">6.17547369003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1030330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08492374420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05775928497314</t>
   </si>
   <si>
     <t xml:space="preserve">6.06681346893311</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">6.03059434890747</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35657262802124</t>
+    <t xml:space="preserve">6.35657215118408</t>
   </si>
   <si>
     <t xml:space="preserve">6.59200096130371</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">6.4561767578125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40184736251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32940721511841</t>
+    <t xml:space="preserve">6.40184688568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32940769195557</t>
   </si>
   <si>
     <t xml:space="preserve">6.16641807556152</t>
@@ -2633,85 +2633,85 @@
     <t xml:space="preserve">6.24791288375854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33846187591553</t>
+    <t xml:space="preserve">6.33846235275269</t>
   </si>
   <si>
     <t xml:space="preserve">6.30224227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39279174804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61011123657227</t>
+    <t xml:space="preserve">6.39279222488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61011075973511</t>
   </si>
   <si>
     <t xml:space="preserve">6.80026531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15340805053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58804559707642</t>
+    <t xml:space="preserve">7.15340757369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58804512023926</t>
   </si>
   <si>
     <t xml:space="preserve">7.69670391082764</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75103378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78725385665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84158325195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67859315872192</t>
+    <t xml:space="preserve">7.75103425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84158277511597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67859411239624</t>
   </si>
   <si>
     <t xml:space="preserve">7.46127557754517</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45222091674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32545185089111</t>
+    <t xml:space="preserve">7.45221996307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32545137405396</t>
   </si>
   <si>
     <t xml:space="preserve">7.44316577911377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28017616271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18962717056274</t>
+    <t xml:space="preserve">7.28017663955688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1896276473999</t>
   </si>
   <si>
     <t xml:space="preserve">7.33450698852539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36167144775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4974946975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63332033157349</t>
+    <t xml:space="preserve">7.36167097091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49749517440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63331985473633</t>
   </si>
   <si>
     <t xml:space="preserve">7.74197912216187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73292350769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80536413192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.660484790802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6061544418335</t>
+    <t xml:space="preserve">7.73292398452759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80536317825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66048526763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60615491867065</t>
   </si>
   <si>
     <t xml:space="preserve">7.31639623641968</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">7.83252763748169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92307806015015</t>
+    <t xml:space="preserve">7.92307758331299</t>
   </si>
   <si>
     <t xml:space="preserve">8.09512233734131</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">8.35771465301514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25811004638672</t>
+    <t xml:space="preserve">8.25811100006104</t>
   </si>
   <si>
     <t xml:space="preserve">8.15850734710693</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">8.33960628509521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36676979064941</t>
+    <t xml:space="preserve">8.36677074432373</t>
   </si>
   <si>
     <t xml:space="preserve">8.14945220947266</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">8.21283626556396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20378112792969</t>
+    <t xml:space="preserve">8.203782081604</t>
   </si>
   <si>
     <t xml:space="preserve">8.16756153106689</t>
@@ -2765,16 +2765,16 @@
     <t xml:space="preserve">8.30338573455811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2309455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31244087219238</t>
+    <t xml:space="preserve">8.23094654083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31243991851807</t>
   </si>
   <si>
     <t xml:space="preserve">8.55692386627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40298938751221</t>
+    <t xml:space="preserve">8.40299034118652</t>
   </si>
   <si>
     <t xml:space="preserve">8.61125469207764</t>
@@ -2783,10 +2783,10 @@
     <t xml:space="preserve">8.5478687286377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68369388580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60219764709473</t>
+    <t xml:space="preserve">8.68369293212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60219860076904</t>
   </si>
   <si>
     <t xml:space="preserve">8.81951713562012</t>
@@ -2795,22 +2795,22 @@
     <t xml:space="preserve">8.59314346313477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63882446289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77667903900146</t>
+    <t xml:space="preserve">8.63882350921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77667808532715</t>
   </si>
   <si>
     <t xml:space="preserve">8.60206317901611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58368396759033</t>
+    <t xml:space="preserve">8.58368301391602</t>
   </si>
   <si>
     <t xml:space="preserve">8.53773212432861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73072624206543</t>
+    <t xml:space="preserve">8.73072719573975</t>
   </si>
   <si>
     <t xml:space="preserve">8.48258972167969</t>
@@ -2825,22 +2825,22 @@
     <t xml:space="preserve">8.79505825042725</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93291282653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83181858062744</t>
+    <t xml:space="preserve">8.93291187286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83181953430176</t>
   </si>
   <si>
     <t xml:space="preserve">8.87777042388916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91453170776367</t>
+    <t xml:space="preserve">8.91453075408936</t>
   </si>
   <si>
     <t xml:space="preserve">8.85939025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64801406860352</t>
+    <t xml:space="preserve">8.64801502227783</t>
   </si>
   <si>
     <t xml:space="preserve">8.67558574676514</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">8.68477535247803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70315647125244</t>
+    <t xml:space="preserve">8.70315551757812</t>
   </si>
   <si>
     <t xml:space="preserve">8.62963485717773</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">8.4366397857666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27121448516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31716632843018</t>
+    <t xml:space="preserve">8.27121543884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31716728210449</t>
   </si>
   <si>
     <t xml:space="preserve">8.24364471435547</t>
@@ -2870,25 +2870,25 @@
     <t xml:space="preserve">8.20688343048096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21607398986816</t>
+    <t xml:space="preserve">8.21607303619385</t>
   </si>
   <si>
     <t xml:space="preserve">8.11498069763184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16093254089355</t>
+    <t xml:space="preserve">8.16093158721924</t>
   </si>
   <si>
     <t xml:space="preserve">7.90360593795776</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01388740539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94036674499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99550771713257</t>
+    <t xml:space="preserve">8.01388835906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94036626815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99550724029541</t>
   </si>
   <si>
     <t xml:space="preserve">7.89441537857056</t>
@@ -2897,31 +2897,31 @@
     <t xml:space="preserve">8.15174102783203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07822036743164</t>
+    <t xml:space="preserve">8.07821941375732</t>
   </si>
   <si>
     <t xml:space="preserve">8.33554649353027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46421051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32635688781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38149738311768</t>
+    <t xml:space="preserve">8.46420955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32635593414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38149833679199</t>
   </si>
   <si>
     <t xml:space="preserve">8.12417125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75656127929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23445415496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40906810760498</t>
+    <t xml:space="preserve">7.75656080245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23445320129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40906715393066</t>
   </si>
   <si>
     <t xml:space="preserve">8.28959560394287</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">8.65720558166504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55611228942871</t>
+    <t xml:space="preserve">8.55611324310303</t>
   </si>
   <si>
     <t xml:space="preserve">8.51935195922852</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">8.39987945556641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4734001159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81343841552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95129203796387</t>
+    <t xml:space="preserve">8.47340106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81343936920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95129299163818</t>
   </si>
   <si>
     <t xml:space="preserve">8.72153663635254</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">8.66639518737793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4182596206665</t>
+    <t xml:space="preserve">8.41825866699219</t>
   </si>
   <si>
     <t xml:space="preserve">8.36311721801758</t>
@@ -2978,46 +2978,46 @@
     <t xml:space="preserve">8.14255142211914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17931175231934</t>
+    <t xml:space="preserve">8.17931270599365</t>
   </si>
   <si>
     <t xml:space="preserve">8.04145908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71980047225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78413248062134</t>
+    <t xml:space="preserve">7.71979999542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78413200378418</t>
   </si>
   <si>
     <t xml:space="preserve">7.72899103164673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70142078399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81170272827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83008337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87603521347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92198610305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86684417724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09660148620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39068698883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35392665863037</t>
+    <t xml:space="preserve">7.70142030715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81170320510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8300838470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87603378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9219856262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86684513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09660053253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39068794250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35392761230469</t>
   </si>
   <si>
     <t xml:space="preserve">8.37230682373047</t>
@@ -3026,52 +3026,52 @@
     <t xml:space="preserve">8.5469217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34473609924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18850231170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95874691009521</t>
+    <t xml:space="preserve">8.34473705291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18850326538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9587459564209</t>
   </si>
   <si>
     <t xml:space="preserve">7.84846353530884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76575183868408</t>
+    <t xml:space="preserve">7.76575136184692</t>
   </si>
   <si>
     <t xml:space="preserve">7.52680492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48085451126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51761531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60951709747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50842523574829</t>
+    <t xml:space="preserve">7.48085498809814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5176157951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6095175743103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50842475891113</t>
   </si>
   <si>
     <t xml:space="preserve">7.49923467636108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59113788604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80251264572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61870765686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54518604278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47166442871094</t>
+    <t xml:space="preserve">7.59113740921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80251169204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61870813369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5451865196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47166395187378</t>
   </si>
   <si>
     <t xml:space="preserve">7.41652250289917</t>
@@ -3086,28 +3086,28 @@
     <t xml:space="preserve">7.40733289718628</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69222927093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79332160949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77494192123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68303918838501</t>
+    <t xml:space="preserve">7.69222974777222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79332256317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77494239807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68303966522217</t>
   </si>
   <si>
     <t xml:space="preserve">7.67384958267212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46247386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53599548339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60032796859741</t>
+    <t xml:space="preserve">7.46247339248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5359959602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60032749176025</t>
   </si>
   <si>
     <t xml:space="preserve">7.10405445098877</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">7.06729364395142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16838645935059</t>
+    <t xml:space="preserve">7.16838598251343</t>
   </si>
   <si>
     <t xml:space="preserve">7.03053283691406</t>
@@ -3125,22 +3125,22 @@
     <t xml:space="preserve">7.15000581741333</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26947832107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26028919219971</t>
+    <t xml:space="preserve">7.2694787979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26028871536255</t>
   </si>
   <si>
     <t xml:space="preserve">7.08567428588867</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02134227752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03972291946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42571306228638</t>
+    <t xml:space="preserve">7.0213418006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03972244262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42571258544922</t>
   </si>
   <si>
     <t xml:space="preserve">7.37057209014893</t>
@@ -3149,10 +3149,10 @@
     <t xml:space="preserve">7.17757654190063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2878589630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34300088882446</t>
+    <t xml:space="preserve">7.28785943984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3430004119873</t>
   </si>
   <si>
     <t xml:space="preserve">7.14081573486328</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">7.21433734893799</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93863010406494</t>
+    <t xml:space="preserve">6.9386305809021</t>
   </si>
   <si>
     <t xml:space="preserve">6.87429857254028</t>
@@ -3176,10 +3176,10 @@
     <t xml:space="preserve">6.72725486755371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54345035552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45154809951782</t>
+    <t xml:space="preserve">6.54344987869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45154762268066</t>
   </si>
   <si>
     <t xml:space="preserve">6.25855207443237</t>
@@ -3191,25 +3191,25 @@
     <t xml:space="preserve">5.95527458190918</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12988948822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4055962562561</t>
+    <t xml:space="preserve">6.12988901138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40559577941895</t>
   </si>
   <si>
     <t xml:space="preserve">6.21260166168213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26774263381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47911834716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35964584350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59859085083008</t>
+    <t xml:space="preserve">6.26774311065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47911882400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3596453666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59859132766724</t>
   </si>
   <si>
     <t xml:space="preserve">6.51587915420532</t>
@@ -3224,10 +3224,10 @@
     <t xml:space="preserve">6.44235754013062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14826965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24017238616943</t>
+    <t xml:space="preserve">6.14827013015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24017190933228</t>
   </si>
   <si>
     <t xml:space="preserve">6.24936246871948</t>
@@ -3242,22 +3242,22 @@
     <t xml:space="preserve">6.30450391769409</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4239764213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29531335830688</t>
+    <t xml:space="preserve">6.42397689819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29531383514404</t>
   </si>
   <si>
     <t xml:space="preserve">5.96446466445923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98284578323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03798675537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01041603088379</t>
+    <t xml:space="preserve">5.98284530639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03798723220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01041650772095</t>
   </si>
   <si>
     <t xml:space="preserve">6.05636739730835</t>
@@ -3275,7 +3275,7 @@
     <t xml:space="preserve">6.18503093719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10231876373291</t>
+    <t xml:space="preserve">6.10231828689575</t>
   </si>
   <si>
     <t xml:space="preserve">6.0655574798584</t>
@@ -3284,10 +3284,10 @@
     <t xml:space="preserve">6.13907909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11150932312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0839376449585</t>
+    <t xml:space="preserve">6.11150884628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08393812179565</t>
   </si>
   <si>
     <t xml:space="preserve">6.0931282043457</t>
@@ -3296,10 +3296,10 @@
     <t xml:space="preserve">6.07474803924561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20341157913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19422101974487</t>
+    <t xml:space="preserve">6.20341110229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19422054290771</t>
   </si>
   <si>
     <t xml:space="preserve">6.15745973587036</t>
@@ -3308,16 +3308,16 @@
     <t xml:space="preserve">6.1602988243103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06581592559814</t>
+    <t xml:space="preserve">6.06581544876099</t>
   </si>
   <si>
     <t xml:space="preserve">6.08471202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28312730789185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40595531463623</t>
+    <t xml:space="preserve">6.28312683105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40595483779907</t>
   </si>
   <si>
     <t xml:space="preserve">6.34926462173462</t>
@@ -3341,16 +3341,16 @@
     <t xml:space="preserve">6.12250566482544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93353986740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95243644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04691934585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00912618637085</t>
+    <t xml:space="preserve">5.93353939056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9524359703064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04691886901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00912570953369</t>
   </si>
   <si>
     <t xml:space="preserve">6.2169885635376</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">5.84850454330444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83905649185181</t>
+    <t xml:space="preserve">5.83905601501465</t>
   </si>
   <si>
     <t xml:space="preserve">5.45167541503906</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">5.86740112304688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62174463272095</t>
+    <t xml:space="preserve">5.62174510955811</t>
   </si>
   <si>
     <t xml:space="preserve">5.97133255004883</t>
@@ -3398,10 +3398,10 @@
     <t xml:space="preserve">5.66898679733276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82960844039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88629770278931</t>
+    <t xml:space="preserve">5.82960796356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88629817962646</t>
   </si>
   <si>
     <t xml:space="preserve">5.72567653656006</t>
@@ -3425,10 +3425,10 @@
     <t xml:space="preserve">6.1697473526001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98078060150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65009021759033</t>
+    <t xml:space="preserve">5.98078107833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65008974075317</t>
   </si>
   <si>
     <t xml:space="preserve">5.60284852981567</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">5.58395195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48002099990845</t>
+    <t xml:space="preserve">5.48002052307129</t>
   </si>
   <si>
     <t xml:space="preserve">5.49891710281372</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">5.48946905136108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23436450958252</t>
+    <t xml:space="preserve">5.23436403274536</t>
   </si>
   <si>
     <t xml:space="preserve">5.20601987838745</t>
@@ -3482,19 +3482,19 @@
     <t xml:space="preserve">5.33829593658447</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1871223449707</t>
+    <t xml:space="preserve">5.18712282180786</t>
   </si>
   <si>
     <t xml:space="preserve">5.15877771377563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11153602600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12098503112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28160572052002</t>
+    <t xml:space="preserve">5.11153650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12098455429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28160619735718</t>
   </si>
   <si>
     <t xml:space="preserve">5.149329662323</t>
@@ -3512,7 +3512,7 @@
     <t xml:space="preserve">5.01705312728882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07374286651611</t>
+    <t xml:space="preserve">5.07374334335327</t>
   </si>
   <si>
     <t xml:space="preserve">5.06429481506348</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">5.4044337272644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57450389862061</t>
+    <t xml:space="preserve">5.57450342178345</t>
   </si>
   <si>
     <t xml:space="preserve">5.67843532562256</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">5.75402164459229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9996771812439</t>
+    <t xml:space="preserve">5.99967765808105</t>
   </si>
   <si>
     <t xml:space="preserve">6.11305713653564</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">6.10360908508301</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02802276611328</t>
+    <t xml:space="preserve">6.02802228927612</t>
   </si>
   <si>
     <t xml:space="preserve">6.57602453231812</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">6.84057712554932</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93506050109863</t>
+    <t xml:space="preserve">6.93506097793579</t>
   </si>
   <si>
     <t xml:space="preserve">6.9634051322937</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">6.92561197280884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02954339981079</t>
+    <t xml:space="preserve">7.02954387664795</t>
   </si>
   <si>
     <t xml:space="preserve">7.10513019561768</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">7.4925103187561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53030395507812</t>
+    <t xml:space="preserve">7.53030347824097</t>
   </si>
   <si>
     <t xml:space="preserve">7.6153392791748</t>
@@ -3647,10 +3647,10 @@
     <t xml:space="preserve">7.65313243865967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78540849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77595996856689</t>
+    <t xml:space="preserve">7.78540802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77595949172974</t>
   </si>
   <si>
     <t xml:space="preserve">7.72871875762939</t>
@@ -3662,7 +3662,7 @@
     <t xml:space="preserve">7.60589075088501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58699321746826</t>
+    <t xml:space="preserve">7.58699369430542</t>
   </si>
   <si>
     <t xml:space="preserve">7.22795820236206</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">7.47361373901367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24685430526733</t>
+    <t xml:space="preserve">7.24685478210449</t>
   </si>
   <si>
     <t xml:space="preserve">7.33188962936401</t>
@@ -3680,10 +3680,10 @@
     <t xml:space="preserve">7.56809759140015</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4547176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43582105636597</t>
+    <t xml:space="preserve">7.45471715927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43582057952881</t>
   </si>
   <si>
     <t xml:space="preserve">7.30354452133179</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">7.44526958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38857936859131</t>
+    <t xml:space="preserve">7.38857984542847</t>
   </si>
   <si>
     <t xml:space="preserve">7.36023426055908</t>
@@ -3704,13 +3704,13 @@
     <t xml:space="preserve">7.35078620910645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48306226730347</t>
+    <t xml:space="preserve">7.48306274414062</t>
   </si>
   <si>
     <t xml:space="preserve">7.46416616439819</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40747594833374</t>
+    <t xml:space="preserve">7.4074764251709</t>
   </si>
   <si>
     <t xml:space="preserve">7.26575136184692</t>
@@ -3719,16 +3719,16 @@
     <t xml:space="preserve">7.1901650428772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12402629852295</t>
+    <t xml:space="preserve">7.12402677536011</t>
   </si>
   <si>
     <t xml:space="preserve">7.21850967407227</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36968278884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34133815765381</t>
+    <t xml:space="preserve">7.36968326568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34133768081665</t>
   </si>
   <si>
     <t xml:space="preserve">7.29409599304199</t>
@@ -4335,6 +4335,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.88000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89999961853027</t>
   </si>
 </sst>
 </file>
@@ -61382,7 +61385,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6496412037</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>24351</v>
@@ -61403,6 +61406,32 @@
         <v>1440</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6493518519</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>112488</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>10.039999961853</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>9.63000011444092</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>9.89999961853027</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>9.89999961853027</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/CEM.MI.xlsx
+++ b/data/CEM.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="1442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="1443">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">CEM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77356815338135</t>
+    <t xml:space="preserve">4.77356767654419</t>
   </si>
   <si>
     <t xml:space="preserve">4.64730501174927</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">4.14225149154663</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01435852050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05346012115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74879813194275</t>
+    <t xml:space="preserve">4.01435947418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05345964431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74879884719849</t>
   </si>
   <si>
     <t xml:space="preserve">3.91171932220459</t>
@@ -86,37 +86,37 @@
     <t xml:space="preserve">4.02739238739014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95733666419983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99480843544006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95570778846741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82048344612122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01272964477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95081996917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81233787536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64941716194153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67059659957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69177675247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4180703163147</t>
+    <t xml:space="preserve">3.95733737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99480819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95570731163025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82048392295837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01273012161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95081925392151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81233739852905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64941740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67059683799744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69177651405334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41807055473328</t>
   </si>
   <si>
     <t xml:space="preserve">3.21279048919678</t>
@@ -125,67 +125,67 @@
     <t xml:space="preserve">3.31543064117432</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19324016571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27307105064392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51093506813049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42947483062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54514813423157</t>
+    <t xml:space="preserve">3.19324040412903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2730712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51093459129333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42947506904602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54514837265015</t>
   </si>
   <si>
     <t xml:space="preserve">3.62497901916504</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41318321228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45880007743835</t>
+    <t xml:space="preserve">3.41318273544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45879983901978</t>
   </si>
   <si>
     <t xml:space="preserve">3.43436241149902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30402588844299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35778951644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47020483016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65756344795227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70643949508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62660908699036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7162139415741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6314959526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59076547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56795692443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59565377235413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62009119987488</t>
+    <t xml:space="preserve">3.30402636528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35778975486755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47020506858826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65756320953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70643973350525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62660813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71621417999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63149619102478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59076595306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56795716285706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59565305709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62009167671204</t>
   </si>
   <si>
     <t xml:space="preserve">3.82700109481812</t>
@@ -203,13 +203,13 @@
     <t xml:space="preserve">3.74391150474548</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78138327598572</t>
+    <t xml:space="preserve">3.78138279914856</t>
   </si>
   <si>
     <t xml:space="preserve">3.73087763786316</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58750748634338</t>
+    <t xml:space="preserve">3.58750772476196</t>
   </si>
   <si>
     <t xml:space="preserve">3.64127111434937</t>
@@ -218,31 +218,31 @@
     <t xml:space="preserve">3.57936143875122</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61357498168945</t>
+    <t xml:space="preserve">3.61357474327087</t>
   </si>
   <si>
     <t xml:space="preserve">3.65104627609253</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52070999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47835087776184</t>
+    <t xml:space="preserve">3.52071046829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47835063934326</t>
   </si>
   <si>
     <t xml:space="preserve">3.44250822067261</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6722264289856</t>
+    <t xml:space="preserve">3.67222619056702</t>
   </si>
   <si>
     <t xml:space="preserve">3.55492329597473</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61520433425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6673378944397</t>
+    <t xml:space="preserve">3.61520457267761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66733837127686</t>
   </si>
   <si>
     <t xml:space="preserve">3.85469722747803</t>
@@ -254,463 +254,463 @@
     <t xml:space="preserve">3.93452787399292</t>
   </si>
   <si>
-    <t xml:space="preserve">3.81396770477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82374167442322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7797532081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76671981811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75042819976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87261819839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7390239238739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77486610412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69829320907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.74716973304749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71458530426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60054135322571</t>
+    <t xml:space="preserve">3.81396698951721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82374238967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77975392341614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76672005653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75042796134949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87261843681335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73902344703674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7748658657074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69829344749451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74716925621033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71458554267883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60054111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52722644805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54351878166199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60227465629578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69399857521057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83242011070251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83575534820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95249509811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96083450317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85243153572083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8290843963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77905297279358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74236273765564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66898322105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65564131736755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62729001045227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45384740829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37713241577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36379051208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2603919506073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22203421592712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06693649291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21703147888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09528732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28707551956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41882514953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16866731643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88515472412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87681651115417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8968288898468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9935564994812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10362601280212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01690435409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85180044174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81844615936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82344961166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90516757965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9351863861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10195851325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06026554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27540135383606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19535064697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13698101043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03358173370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17033505439758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03524971008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98688578605652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23871159553528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24371480941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21869874000549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25205326080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16032862663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18367671966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08528161048889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17867350578308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30208539962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34544587135315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38880634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50387859344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4738597869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.53556537628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50554656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51722073554993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75236916542053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71901440620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79239463806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76904606819153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81907749176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92914772033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88411927223206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89912867546082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87911534309387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81741046905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69566655158997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63729643821716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54390406608582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5855975151062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73235630989075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67732214927673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61561584472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72068214416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71734738349915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45551514625549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55224323272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52222371101379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50221061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.57725834846497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63562893867493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.62562251091003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63396072387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.55391025543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61394858360291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6973340511322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66231274604797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71401143074036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.762375831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73402404785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76070833206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.60727787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70233774185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71067667007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50721430778503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48553347587585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48720169067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40214776992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43883776664734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34044218063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28540778160095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27373361587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24037885665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27706933021545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21036005020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17533826828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06526875495911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07694268226624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01190161705017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97687983512878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02357578277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02691125869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0152370929718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10862946510315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23537611961365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25038576126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38547086715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29874968528748</t>
   </si>
   <si>
     <t xml:space="preserve">3.52722692489624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54351902008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6022744178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69399881362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83242011070251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83575558662415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95249533653259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96083378791809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85243225097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82908391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77905297279358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7423632144928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66898393630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65564131736755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62729001045227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45384740829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37713265419006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36379027366638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26039218902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22203469276428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06693625450134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21703100204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09528756141663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28707528114319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41882491111755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16866731643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88515543937683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87681651115417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8968288898468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9935564994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1036262512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01690483093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85180068016052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81844639778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82344913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90516757965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93518662452698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10195827484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06026530265808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27540135383606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19535088539124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13698053359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03358197212219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17033529281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03524971008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98688578605652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23871159553528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2437150478363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21869874000549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2520534992218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16032862663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18367695808411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08528137207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17867374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30208492279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34544563293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38880658149719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50387907028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47385954856873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.53556537628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50554633140564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51722073554993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75236892700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71901440620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7923948764801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76904606819153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81907820701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92914724349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88411855697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89912891387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87911629676819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8174102306366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69566655158997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63729691505432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54390406608582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5855975151062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73235630989075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67732191085815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61561632156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72068285942078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71734714508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45551538467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55224275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52222418785095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50221157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57725858688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63562893867493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.62562274932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63396143913269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55391073226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61394834518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.69733452796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66231274604797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71401166915894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76237559318542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73402404785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76070761680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.60727763175964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70233750343323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71067595481873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50721430778503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48553347587585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48720192909241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.40214776992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43883800506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34044241905212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28540754318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27373385429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24037909507751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27706933021545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21036005020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17533826828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06526899337769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07694292068481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01190185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97687959671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0235755443573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02691102027893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01523685455322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10862922668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23537635803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25038576126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38547086715698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2987494468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52722668647766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5572464466095</t>
+    <t xml:space="preserve">3.55724549293518</t>
   </si>
   <si>
     <t xml:space="preserve">3.52055621147156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56892013549805</t>
+    <t xml:space="preserve">3.56892037391663</t>
   </si>
   <si>
     <t xml:space="preserve">3.64396739006042</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51888823509216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.68566060066223</t>
+    <t xml:space="preserve">3.51888847351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.68566036224365</t>
   </si>
   <si>
     <t xml:space="preserve">3.75070142745972</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77738499641418</t>
+    <t xml:space="preserve">3.66064429283142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77738523483276</t>
   </si>
   <si>
     <t xml:space="preserve">3.55557799339294</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39881277084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35211634635925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29374599456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3354389667511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31209087371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.29541373252869</t>
+    <t xml:space="preserve">3.39881300926208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35211658477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29374647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33543920516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31209111213684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29541420936584</t>
   </si>
   <si>
     <t xml:space="preserve">3.29708170890808</t>
@@ -722,37 +722,37 @@
     <t xml:space="preserve">3.34210991859436</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30041718482971</t>
+    <t xml:space="preserve">3.30041694641113</t>
   </si>
   <si>
     <t xml:space="preserve">4.08091020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12760591506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21099281311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25268459320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26102352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14428281784058</t>
+    <t xml:space="preserve">4.12760639190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21099233627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25268507003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2610239982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14428329467773</t>
   </si>
   <si>
     <t xml:space="preserve">4.03588151931763</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27770042419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36942577362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43196439743042</t>
+    <t xml:space="preserve">4.27770090103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36942529678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43196487426758</t>
   </si>
   <si>
     <t xml:space="preserve">4.56121253967285</t>
@@ -761,16 +761,16 @@
     <t xml:space="preserve">4.52785873413086</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49867391586304</t>
+    <t xml:space="preserve">4.49867343902588</t>
   </si>
   <si>
     <t xml:space="preserve">4.50284337997437</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46115016937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35274791717529</t>
+    <t xml:space="preserve">4.4611496925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35274839401245</t>
   </si>
   <si>
     <t xml:space="preserve">4.47782754898071</t>
@@ -782,19 +782,19 @@
     <t xml:space="preserve">4.46531915664673</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47365808486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65293741226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51535129547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41528749465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34024047851562</t>
+    <t xml:space="preserve">4.47365760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65293788909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51535081863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41528844833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34024000167847</t>
   </si>
   <si>
     <t xml:space="preserve">4.33607053756714</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">4.3861026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43613481521606</t>
+    <t xml:space="preserve">4.43613433837891</t>
   </si>
   <si>
     <t xml:space="preserve">4.32773208618164</t>
@@ -812,49 +812,49 @@
     <t xml:space="preserve">4.33190155029297</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29437828063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22766971588135</t>
+    <t xml:space="preserve">4.29437780380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22766923904419</t>
   </si>
   <si>
     <t xml:space="preserve">4.18597650527954</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30688571929932</t>
+    <t xml:space="preserve">4.30688619613647</t>
   </si>
   <si>
     <t xml:space="preserve">4.49450445175171</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4528112411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36108732223511</t>
+    <t xml:space="preserve">4.45281171798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36108636856079</t>
   </si>
   <si>
     <t xml:space="preserve">4.39027166366577</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36525678634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53619766235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61958360671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6070761680603</t>
+    <t xml:space="preserve">4.36525630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53619718551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61958312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60707569122314</t>
   </si>
   <si>
     <t xml:space="preserve">4.61124515533447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7738471031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75300121307373</t>
+    <t xml:space="preserve">4.77384757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75300073623657</t>
   </si>
   <si>
     <t xml:space="preserve">4.80720138549805</t>
@@ -863,43 +863,43 @@
     <t xml:space="preserve">4.82804870605469</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91560363769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90726566314697</t>
+    <t xml:space="preserve">4.91560316085815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90726470947266</t>
   </si>
   <si>
     <t xml:space="preserve">4.74466276168823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42779541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42362689971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34440994262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49153518676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5382776260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50428342819214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46179056167603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45329189300537</t>
+    <t xml:space="preserve">4.42779493331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42362594604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34440946578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49153566360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53827810287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5042839050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46178960800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45329141616821</t>
   </si>
   <si>
     <t xml:space="preserve">4.38955163955688</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35980606079102</t>
+    <t xml:space="preserve">4.35980653762817</t>
   </si>
   <si>
     <t xml:space="preserve">4.34280920028687</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">4.40229988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35130739212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29181814193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41929626464844</t>
+    <t xml:space="preserve">4.35130834579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2918176651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4192967414856</t>
   </si>
   <si>
     <t xml:space="preserve">4.45754098892212</t>
@@ -923,19 +923,19 @@
     <t xml:space="preserve">4.43204498291016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47878694534302</t>
+    <t xml:space="preserve">4.47878742218018</t>
   </si>
   <si>
     <t xml:space="preserve">4.38530206680298</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51703071594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48728609085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48303651809692</t>
+    <t xml:space="preserve">4.51703119277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48728656768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.48303699493408</t>
   </si>
   <si>
     <t xml:space="preserve">4.47028875350952</t>
@@ -953,31 +953,31 @@
     <t xml:space="preserve">4.49578428268433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4362940788269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78473901748657</t>
+    <t xml:space="preserve">4.43629455566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78473949432373</t>
   </si>
   <si>
     <t xml:space="preserve">4.67425584793091</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95046234130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09918928146362</t>
+    <t xml:space="preserve">4.95046186447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09918975830078</t>
   </si>
   <si>
     <t xml:space="preserve">5.15867948532104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20967149734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35414886474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39239168167114</t>
+    <t xml:space="preserve">5.20967102050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35414838790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3923921585083</t>
   </si>
   <si>
     <t xml:space="preserve">5.35839748382568</t>
@@ -986,28 +986,28 @@
     <t xml:space="preserve">5.52412080764771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40938949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40514039993286</t>
+    <t xml:space="preserve">5.40938997268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4051399230957</t>
   </si>
   <si>
     <t xml:space="preserve">5.45188236236572</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4136381149292</t>
+    <t xml:space="preserve">5.41363906860352</t>
   </si>
   <si>
     <t xml:space="preserve">5.33290195465088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39664077758789</t>
+    <t xml:space="preserve">5.39664125442505</t>
   </si>
   <si>
     <t xml:space="preserve">5.40089082717896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26491212844849</t>
+    <t xml:space="preserve">5.26491260528564</t>
   </si>
   <si>
     <t xml:space="preserve">5.11618614196777</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">5.15442991256714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22666835784912</t>
+    <t xml:space="preserve">5.22666883468628</t>
   </si>
   <si>
     <t xml:space="preserve">5.30740547180176</t>
@@ -1025,13 +1025,13 @@
     <t xml:space="preserve">5.17567682266235</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13318300247192</t>
+    <t xml:space="preserve">5.13318347930908</t>
   </si>
   <si>
     <t xml:space="preserve">5.05669546127319</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09069108963013</t>
+    <t xml:space="preserve">5.09068965911865</t>
   </si>
   <si>
     <t xml:space="preserve">5.0609450340271</t>
@@ -1040,28 +1040,28 @@
     <t xml:space="preserve">5.00570344924927</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03969860076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9887056350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00145483016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05244636535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04394721984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01420211791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12468433380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15018033981323</t>
+    <t xml:space="preserve">5.03969764709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98870611190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00145387649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0524468421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04394769668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01420259475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12468481063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15018129348755</t>
   </si>
   <si>
     <t xml:space="preserve">5.21816968917847</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">5.33715105056763</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28190946578979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23516702651978</t>
+    <t xml:space="preserve">5.28190994262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23516750335693</t>
   </si>
   <si>
     <t xml:space="preserve">5.43913459777832</t>
@@ -1085,40 +1085,40 @@
     <t xml:space="preserve">5.37114572525024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32865285873413</t>
+    <t xml:space="preserve">5.32865238189697</t>
   </si>
   <si>
     <t xml:space="preserve">5.69409418106079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80032730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1232762336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92355728149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19551420211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1360239982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28899955749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00854444503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05953645706177</t>
+    <t xml:space="preserve">5.80032777786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12327575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92355680465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19551467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13602352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28900003433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00854396820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05953598022461</t>
   </si>
   <si>
     <t xml:space="preserve">6.08503198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15302133560181</t>
+    <t xml:space="preserve">6.15302085876465</t>
   </si>
   <si>
     <t xml:space="preserve">6.11477756500244</t>
@@ -1127,28 +1127,28 @@
     <t xml:space="preserve">6.08928108215332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03403949737549</t>
+    <t xml:space="preserve">6.0340404510498</t>
   </si>
   <si>
     <t xml:space="preserve">5.97879886627197</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04678773880005</t>
+    <t xml:space="preserve">6.04678726196289</t>
   </si>
   <si>
     <t xml:space="preserve">6.01704263687134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02129173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99154710769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96180200576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12752485275269</t>
+    <t xml:space="preserve">6.02129220962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99154663085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96180152893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12752532958984</t>
   </si>
   <si>
     <t xml:space="preserve">6.10202884674072</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">6.15727043151855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21251153945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1487717628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11902713775635</t>
+    <t xml:space="preserve">6.21251201629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14877128601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11902618408203</t>
   </si>
   <si>
     <t xml:space="preserve">6.17001867294312</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">6.36973667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33574199676514</t>
+    <t xml:space="preserve">6.33574247360229</t>
   </si>
   <si>
     <t xml:space="preserve">6.14452266693115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22101068496704</t>
+    <t xml:space="preserve">6.22101020812988</t>
   </si>
   <si>
     <t xml:space="preserve">6.30599689483643</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">6.33149242401123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34424018859863</t>
+    <t xml:space="preserve">6.34424161911011</t>
   </si>
   <si>
     <t xml:space="preserve">6.2677526473999</t>
@@ -1211,91 +1211,91 @@
     <t xml:space="preserve">6.07653331756592</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06378555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13177490234375</t>
+    <t xml:space="preserve">6.06378602981567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13177442550659</t>
   </si>
   <si>
     <t xml:space="preserve">6.1402735710144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23800754547119</t>
+    <t xml:space="preserve">6.23800802230835</t>
   </si>
   <si>
     <t xml:space="preserve">6.18276596069336</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1615195274353</t>
+    <t xml:space="preserve">6.16152048110962</t>
   </si>
   <si>
     <t xml:space="preserve">6.27200222015381</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21676111221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48446893692017</t>
+    <t xml:space="preserve">6.21676063537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48446846008301</t>
   </si>
   <si>
     <t xml:space="preserve">6.34848976135254</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40797996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71393156051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74792623519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70543384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63744401931763</t>
+    <t xml:space="preserve">6.40798044204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71393251419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74792671203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70543336868286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63744449615479</t>
   </si>
   <si>
     <t xml:space="preserve">6.62894582748413</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7904200553894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87540578842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72243022918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75642538070679</t>
+    <t xml:space="preserve">6.79041862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87540626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72242975234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75642442703247</t>
   </si>
   <si>
     <t xml:space="preserve">6.76492404937744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84141159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65444135665894</t>
+    <t xml:space="preserve">6.84141206741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65444087982178</t>
   </si>
   <si>
     <t xml:space="preserve">6.6459436416626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79891777038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6799373626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57795286178589</t>
+    <t xml:space="preserve">6.7989182472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67993783950806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57795381546021</t>
   </si>
   <si>
     <t xml:space="preserve">6.42497777938843</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35698890686035</t>
+    <t xml:space="preserve">6.35698843002319</t>
   </si>
   <si>
     <t xml:space="preserve">6.02554130554199</t>
@@ -1307,19 +1307,19 @@
     <t xml:space="preserve">6.66294002532959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39098358154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49296712875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45897245407104</t>
+    <t xml:space="preserve">6.39098310470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4929666519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45897197723389</t>
   </si>
   <si>
     <t xml:space="preserve">6.26350355148315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28050088882446</t>
+    <t xml:space="preserve">6.2805004119873</t>
   </si>
   <si>
     <t xml:space="preserve">6.18701553344727</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">6.06803464889526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25500535964966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17851686477661</t>
+    <t xml:space="preserve">6.2550048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17851734161377</t>
   </si>
   <si>
     <t xml:space="preserve">6.00004529953003</t>
@@ -1340,25 +1340,25 @@
     <t xml:space="preserve">5.96605110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93205642700195</t>
+    <t xml:space="preserve">5.93205690383911</t>
   </si>
   <si>
     <t xml:space="preserve">5.83857107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87256526947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88106489181519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79607725143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94055414199829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98304843902588</t>
+    <t xml:space="preserve">5.87256574630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88106441497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79607820510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94055461883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98304796218872</t>
   </si>
   <si>
     <t xml:space="preserve">5.88956308364868</t>
@@ -1367,16 +1367,16 @@
     <t xml:space="preserve">5.89806222915649</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90655994415283</t>
+    <t xml:space="preserve">5.90656042098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.74508619308472</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76233863830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79684352874756</t>
+    <t xml:space="preserve">5.76233816146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7968430519104</t>
   </si>
   <si>
     <t xml:space="preserve">5.77959108352661</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">5.81409597396851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58981323242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56393527984619</t>
+    <t xml:space="preserve">5.58981370925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56393432617188</t>
   </si>
   <si>
     <t xml:space="preserve">5.65882349014282</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">5.65019798278809</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85722732543945</t>
+    <t xml:space="preserve">5.85722780227661</t>
   </si>
   <si>
     <t xml:space="preserve">5.69332838058472</t>
@@ -1406,28 +1406,28 @@
     <t xml:space="preserve">5.77096462249756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82272291183472</t>
+    <t xml:space="preserve">5.82272243499756</t>
   </si>
   <si>
     <t xml:space="preserve">5.89173269271851</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02975177764893</t>
+    <t xml:space="preserve">6.02975225448608</t>
   </si>
   <si>
     <t xml:space="preserve">6.02112674713135</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01249980926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86585378646851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9003586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83134889602661</t>
+    <t xml:space="preserve">6.01249933242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86585330963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90035820007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83134841918945</t>
   </si>
   <si>
     <t xml:space="preserve">5.92623710632324</t>
@@ -1439,82 +1439,82 @@
     <t xml:space="preserve">5.61569261550903</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80547046661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83997535705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8486008644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71920680999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62431859970093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78821706771851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13326835632324</t>
+    <t xml:space="preserve">5.80546998977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83997488021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84860134124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71920728683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62431907653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78821754455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13326740264893</t>
   </si>
   <si>
     <t xml:space="preserve">6.11601495742798</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93486404418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8744797706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91761159896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90898561477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00387382507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99524688720703</t>
+    <t xml:space="preserve">5.93486356735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87447929382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91761112213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90898513793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00387334823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99524736404419</t>
   </si>
   <si>
     <t xml:space="preserve">6.04700517654419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96936941146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88310575485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94348955154419</t>
+    <t xml:space="preserve">5.96936845779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88310623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94349002838135</t>
   </si>
   <si>
     <t xml:space="preserve">5.9521164894104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53805637359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49492406845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44316673278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36553049087524</t>
+    <t xml:space="preserve">5.53805589675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49492502212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4431676864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3655309677124</t>
   </si>
   <si>
     <t xml:space="preserve">5.40866279602051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54668140411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57256126403809</t>
+    <t xml:space="preserve">5.54668283462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57256174087524</t>
   </si>
   <si>
     <t xml:space="preserve">5.55530834197998</t>
@@ -1523,22 +1523,22 @@
     <t xml:space="preserve">5.46041965484619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47767162322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33102512359619</t>
+    <t xml:space="preserve">5.47767210006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33102607727051</t>
   </si>
   <si>
     <t xml:space="preserve">5.24476337432861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21888446807861</t>
+    <t xml:space="preserve">5.21888494491577</t>
   </si>
   <si>
     <t xml:space="preserve">5.34827852249146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23613691329956</t>
+    <t xml:space="preserve">5.23613739013672</t>
   </si>
   <si>
     <t xml:space="preserve">5.37415742874146</t>
@@ -1547,16 +1547,16 @@
     <t xml:space="preserve">5.35690498352051</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3137731552124</t>
+    <t xml:space="preserve">5.31377363204956</t>
   </si>
   <si>
     <t xml:space="preserve">5.3396520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39140939712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42591524124146</t>
+    <t xml:space="preserve">5.3914098739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4259147644043</t>
   </si>
   <si>
     <t xml:space="preserve">5.40003633499146</t>
@@ -1571,19 +1571,19 @@
     <t xml:space="preserve">5.27064228057861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19300556182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27926826477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21025800704956</t>
+    <t xml:space="preserve">5.19300603866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27926874160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21025848388672</t>
   </si>
   <si>
     <t xml:space="preserve">5.01185417175293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69268274307251</t>
+    <t xml:space="preserve">4.69268321990967</t>
   </si>
   <si>
     <t xml:space="preserve">4.58916807174683</t>
@@ -1598,28 +1598,28 @@
     <t xml:space="preserve">4.63229942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61504697799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70993566513062</t>
+    <t xml:space="preserve">4.61504650115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70993518829346</t>
   </si>
   <si>
     <t xml:space="preserve">4.55466318130493</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35625982284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22686529159546</t>
+    <t xml:space="preserve">4.3562593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2268648147583</t>
   </si>
   <si>
     <t xml:space="preserve">4.3045015335083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17510747909546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28724813461304</t>
+    <t xml:space="preserve">4.17510795593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28724908828735</t>
   </si>
   <si>
     <t xml:space="preserve">4.23980474472046</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">4.70130920410156</t>
   </si>
   <si>
-    <t xml:space="preserve">4.72718811035156</t>
+    <t xml:space="preserve">4.72718858718872</t>
   </si>
   <si>
     <t xml:space="preserve">4.50290536880493</t>
@@ -1646,37 +1646,37 @@
     <t xml:space="preserve">4.58054113388062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51153182983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52015829086304</t>
+    <t xml:space="preserve">4.51153135299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52015781402588</t>
   </si>
   <si>
     <t xml:space="preserve">4.38213777542114</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42526865005493</t>
+    <t xml:space="preserve">4.42526912689209</t>
   </si>
   <si>
     <t xml:space="preserve">4.27862310409546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12766313552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16648149490356</t>
+    <t xml:space="preserve">4.12766265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16648101806641</t>
   </si>
   <si>
     <t xml:space="preserve">4.18804693222046</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2354907989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32175397872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30018854141235</t>
+    <t xml:space="preserve">4.23549175262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32175445556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3001880645752</t>
   </si>
   <si>
     <t xml:space="preserve">4.24411773681641</t>
@@ -1685,28 +1685,28 @@
     <t xml:space="preserve">4.18373394012451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11903762817383</t>
+    <t xml:space="preserve">4.11903667449951</t>
   </si>
   <si>
     <t xml:space="preserve">4.3907642364502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33900594711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22255229949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13197660446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23117828369141</t>
+    <t xml:space="preserve">4.33900690078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2225513458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13197612762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23117876052856</t>
   </si>
   <si>
     <t xml:space="preserve">4.17079448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11472415924072</t>
+    <t xml:space="preserve">4.11472368240356</t>
   </si>
   <si>
     <t xml:space="preserve">4.02414798736572</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">4.44252157211304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39939022064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57191514968872</t>
+    <t xml:space="preserve">4.39938974380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57191562652588</t>
   </si>
   <si>
     <t xml:space="preserve">4.74444007873535</t>
@@ -1727,16 +1727,16 @@
     <t xml:space="preserve">4.8910870552063</t>
   </si>
   <si>
-    <t xml:space="preserve">4.88246011734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9169659614563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96009635925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00322914123535</t>
+    <t xml:space="preserve">4.88246059417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91696548461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96009683609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00322866439819</t>
   </si>
   <si>
     <t xml:space="preserve">4.98597526550293</t>
@@ -1748,25 +1748,25 @@
     <t xml:space="preserve">5.10674333572388</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11536979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13262176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15850114822388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08949041366577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07223749160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30514717102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22751045227051</t>
+    <t xml:space="preserve">5.11536884307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13262224197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15850067138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08949089050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.07223844528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30514764785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22751140594482</t>
   </si>
   <si>
     <t xml:space="preserve">5.26201629638672</t>
@@ -1778,22 +1778,22 @@
     <t xml:space="preserve">5.4517936706543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38278293609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51217746734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5035514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58118724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60706567764282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52942943572998</t>
+    <t xml:space="preserve">5.38278341293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51217699050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50355100631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58118772506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60706615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52942991256714</t>
   </si>
   <si>
     <t xml:space="preserve">5.52080345153809</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">5.21648120880127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23413419723511</t>
+    <t xml:space="preserve">5.23413372039795</t>
   </si>
   <si>
     <t xml:space="preserve">5.11938953399658</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">5.1635217666626</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19000101089478</t>
+    <t xml:space="preserve">5.19000196456909</t>
   </si>
   <si>
     <t xml:space="preserve">5.19882774353027</t>
@@ -1826,16 +1826,19 @@
     <t xml:space="preserve">5.24296092987061</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30474662780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27826738357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33122587203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36653184890747</t>
+    <t xml:space="preserve">5.32240009307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30474615097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27826690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33122634887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36653232574463</t>
   </si>
   <si>
     <t xml:space="preserve">5.34005260467529</t>
@@ -1844,22 +1847,22 @@
     <t xml:space="preserve">5.35770559310913</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44597148895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56954193115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65780782699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53423595428467</t>
+    <t xml:space="preserve">5.44597101211548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5695424079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65780735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53423690795898</t>
   </si>
   <si>
     <t xml:space="preserve">5.43714427947998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51658296585083</t>
+    <t xml:space="preserve">5.51658344268799</t>
   </si>
   <si>
     <t xml:space="preserve">5.68428707122803</t>
@@ -1868,7 +1871,7 @@
     <t xml:space="preserve">5.63132810592651</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5871958732605</t>
+    <t xml:space="preserve">5.58719539642334</t>
   </si>
   <si>
     <t xml:space="preserve">5.7548999786377</t>
@@ -1877,10 +1880,10 @@
     <t xml:space="preserve">5.87847089767456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86081838607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84316444396973</t>
+    <t xml:space="preserve">5.86081790924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84316492080688</t>
   </si>
   <si>
     <t xml:space="preserve">5.76372623443604</t>
@@ -1892,34 +1895,34 @@
     <t xml:space="preserve">5.78137969970703</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71076679229736</t>
+    <t xml:space="preserve">5.71076726913452</t>
   </si>
   <si>
     <t xml:space="preserve">5.60484838485718</t>
   </si>
   <si>
-    <t xml:space="preserve">5.560715675354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67545986175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85199117660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62250137329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34887886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28709363937378</t>
+    <t xml:space="preserve">5.56071615219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67546129226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85199165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62250185012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34887933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28709316253662</t>
   </si>
   <si>
     <t xml:space="preserve">5.39301156997681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29591989517212</t>
+    <t xml:space="preserve">5.29592037200928</t>
   </si>
   <si>
     <t xml:space="preserve">5.22530746459961</t>
@@ -1928,88 +1931,88 @@
     <t xml:space="preserve">5.37535905838013</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18117523193359</t>
+    <t xml:space="preserve">5.18117475509644</t>
   </si>
   <si>
     <t xml:space="preserve">5.25178718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26944017410278</t>
+    <t xml:space="preserve">5.26943969726562</t>
   </si>
   <si>
     <t xml:space="preserve">5.26061344146729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40183782577515</t>
+    <t xml:space="preserve">5.4018383026123</t>
   </si>
   <si>
     <t xml:space="preserve">5.64898109436035</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55188989639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59602165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50775575637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47245073318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42831754684448</t>
+    <t xml:space="preserve">5.55188941955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59602212905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50775671005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47245025634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42831802368164</t>
   </si>
   <si>
     <t xml:space="preserve">5.49010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12821578979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14586877822876</t>
+    <t xml:space="preserve">5.12821531295776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14586925506592</t>
   </si>
   <si>
     <t xml:space="preserve">5.26502704620361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13969039916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20765495300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25531721115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31269025802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38418579101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45214939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43273115158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3850679397583</t>
+    <t xml:space="preserve">5.13968992233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20765447616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25531768798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31268978118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38418531417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45214986801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43273162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38506746292114</t>
   </si>
   <si>
     <t xml:space="preserve">5.41154766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37271070480347</t>
+    <t xml:space="preserve">5.37271118164062</t>
   </si>
   <si>
     <t xml:space="preserve">5.45391464233398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32328224182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44950151443481</t>
+    <t xml:space="preserve">5.32328319549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44950103759766</t>
   </si>
   <si>
     <t xml:space="preserve">5.59425640106201</t>
@@ -2021,22 +2024,22 @@
     <t xml:space="preserve">5.42390441894531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62779760360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72842025756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62603187561035</t>
+    <t xml:space="preserve">5.62779808044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7284197807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62603235244751</t>
   </si>
   <si>
     <t xml:space="preserve">5.57130765914917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53070592880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57660388946533</t>
+    <t xml:space="preserve">5.53070545196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57660341262817</t>
   </si>
   <si>
     <t xml:space="preserve">5.55277156829834</t>
@@ -2045,13 +2048,13 @@
     <t xml:space="preserve">5.578369140625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89612436294556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1432671546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16092014312744</t>
+    <t xml:space="preserve">5.8961238861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14326667785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1609206199646</t>
   </si>
   <si>
     <t xml:space="preserve">6.16974639892578</t>
@@ -2060,31 +2063,31 @@
     <t xml:space="preserve">6.06294584274292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8846492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89788913726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86876153945923</t>
+    <t xml:space="preserve">5.88464975357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89788961410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86876201629639</t>
   </si>
   <si>
     <t xml:space="preserve">5.85552167892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85375690460205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92613458633423</t>
+    <t xml:space="preserve">5.85375642776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92613410949707</t>
   </si>
   <si>
     <t xml:space="preserve">6.02322626113892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05147075653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05941486358643</t>
+    <t xml:space="preserve">6.05147123336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05941534042358</t>
   </si>
   <si>
     <t xml:space="preserve">6.02852249145508</t>
@@ -2096,91 +2099,91 @@
     <t xml:space="preserve">5.97026681900024</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97291469573975</t>
+    <t xml:space="preserve">5.97291564941406</t>
   </si>
   <si>
     <t xml:space="preserve">5.79373645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84669542312622</t>
+    <t xml:space="preserve">5.84669589996338</t>
   </si>
   <si>
     <t xml:space="preserve">5.93496084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02410888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81933307647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68605279922485</t>
+    <t xml:space="preserve">6.02410936355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81933355331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6860523223877</t>
   </si>
   <si>
     <t xml:space="preserve">5.87052726745605</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93143033981323</t>
+    <t xml:space="preserve">5.93142986297607</t>
   </si>
   <si>
     <t xml:space="preserve">5.87494039535522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84934377670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83433866500854</t>
+    <t xml:space="preserve">5.84934329986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83433818817139</t>
   </si>
   <si>
     <t xml:space="preserve">5.8113899230957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80609321594238</t>
+    <t xml:space="preserve">5.80609369277954</t>
   </si>
   <si>
     <t xml:space="preserve">5.74077701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87405824661255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77078771591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68340444564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73724603652954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78579187393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69311428070068</t>
+    <t xml:space="preserve">5.87405776977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77078723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68340492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7372465133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7857928276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69311332702637</t>
   </si>
   <si>
     <t xml:space="preserve">5.69576215744019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75754737854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83963489532471</t>
+    <t xml:space="preserve">5.7575478553772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83963441848755</t>
   </si>
   <si>
     <t xml:space="preserve">5.72665500640869</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71871137619019</t>
+    <t xml:space="preserve">5.71871089935303</t>
   </si>
   <si>
     <t xml:space="preserve">5.7654914855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76813936233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86964464187622</t>
+    <t xml:space="preserve">5.76813888549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86964416503906</t>
   </si>
   <si>
     <t xml:space="preserve">5.95702695846558</t>
@@ -2189,22 +2192,22 @@
     <t xml:space="preserve">6.12561416625977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04617500305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99321556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82816028594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52982330322266</t>
+    <t xml:space="preserve">6.04617547988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9932165145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82815980911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52982234954834</t>
   </si>
   <si>
     <t xml:space="preserve">5.46891975402832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29856729507446</t>
+    <t xml:space="preserve">5.29856777191162</t>
   </si>
   <si>
     <t xml:space="preserve">5.14057302474976</t>
@@ -2216,13 +2219,13 @@
     <t xml:space="preserve">5.28356266021729</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89166402816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32809019088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38678646087646</t>
+    <t xml:space="preserve">4.89166450500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32809066772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38678693771362</t>
   </si>
   <si>
     <t xml:space="preserve">4.39296579360962</t>
@@ -2234,7 +2237,7 @@
     <t xml:space="preserve">4.19260311126709</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06020498275757</t>
+    <t xml:space="preserve">4.06020545959473</t>
   </si>
   <si>
     <t xml:space="preserve">3.84969210624695</t>
@@ -2243,10 +2246,10 @@
     <t xml:space="preserve">3.97194004058838</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25880193710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90000367164612</t>
+    <t xml:space="preserve">4.25880146026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90000343322754</t>
   </si>
   <si>
     <t xml:space="preserve">4.05402660369873</t>
@@ -2255,7 +2258,7 @@
     <t xml:space="preserve">4.15111875534058</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35898399353027</t>
+    <t xml:space="preserve">4.35898351669312</t>
   </si>
   <si>
     <t xml:space="preserve">4.19966411590576</t>
@@ -2267,16 +2270,16 @@
     <t xml:space="preserve">4.34177160263062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39561367034912</t>
+    <t xml:space="preserve">4.39561319351196</t>
   </si>
   <si>
     <t xml:space="preserve">4.45739984512329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25438928604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4132661819458</t>
+    <t xml:space="preserve">4.2543888092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41326665878296</t>
   </si>
   <si>
     <t xml:space="preserve">4.54566478729248</t>
@@ -2285,7 +2288,7 @@
     <t xml:space="preserve">4.70454216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57214403152466</t>
+    <t xml:space="preserve">4.57214450836182</t>
   </si>
   <si>
     <t xml:space="preserve">4.72219514846802</t>
@@ -2303,7 +2306,7 @@
     <t xml:space="preserve">4.5897970199585</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8369402885437</t>
+    <t xml:space="preserve">4.83694076538086</t>
   </si>
   <si>
     <t xml:space="preserve">4.86342000961304</t>
@@ -2312,7 +2315,7 @@
     <t xml:space="preserve">4.88989925384521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03995084762573</t>
+    <t xml:space="preserve">5.03995037078857</t>
   </si>
   <si>
     <t xml:space="preserve">5.0134711265564</t>
@@ -2321,7 +2324,7 @@
     <t xml:space="preserve">4.93403196334839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.67806243896484</t>
+    <t xml:space="preserve">4.678062915802</t>
   </si>
   <si>
     <t xml:space="preserve">4.64275646209717</t>
@@ -2330,7 +2333,7 @@
     <t xml:space="preserve">4.71336889266968</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76632785797119</t>
+    <t xml:space="preserve">4.76632833480835</t>
   </si>
   <si>
     <t xml:space="preserve">4.89872598648071</t>
@@ -2339,22 +2342,19 @@
     <t xml:space="preserve">5.00738525390625</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89872550964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82628631591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98022031784058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01644039154053</t>
+    <t xml:space="preserve">4.82628583908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98022079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01643991470337</t>
   </si>
   <si>
     <t xml:space="preserve">5.20659399032593</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32430791854858</t>
+    <t xml:space="preserve">5.32430839538574</t>
   </si>
   <si>
     <t xml:space="preserve">5.29714345932007</t>
@@ -2372,10 +2372,10 @@
     <t xml:space="preserve">5.63217639923096</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60501194000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71367073059082</t>
+    <t xml:space="preserve">5.60501146316528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71367168426514</t>
   </si>
   <si>
     <t xml:space="preserve">5.84044027328491</t>
@@ -2387,34 +2387,34 @@
     <t xml:space="preserve">5.74989080429077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41485786437988</t>
+    <t xml:space="preserve">5.41485738754272</t>
   </si>
   <si>
     <t xml:space="preserve">5.37863826751709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3424186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66839647293091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84949588775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72272634506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76800060272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79516553878784</t>
+    <t xml:space="preserve">5.34241819381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66839694976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84949541091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7227258682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76800107955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79516506195068</t>
   </si>
   <si>
     <t xml:space="preserve">5.73178100585938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75894594192505</t>
+    <t xml:space="preserve">5.75894546508789</t>
   </si>
   <si>
     <t xml:space="preserve">5.83138513565063</t>
@@ -2423,16 +2423,16 @@
     <t xml:space="preserve">5.69556140899658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67745113372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64123153686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56879186630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46013307571411</t>
+    <t xml:space="preserve">5.67745161056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64123201370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56879234313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46013259887695</t>
   </si>
   <si>
     <t xml:space="preserve">5.5325722694397</t>
@@ -2444,19 +2444,19 @@
     <t xml:space="preserve">5.42391300201416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49635219573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39674806594849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31525373458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46918725967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36052846908569</t>
+    <t xml:space="preserve">5.4963526725769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39674758911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31525325775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46918773651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36052799224854</t>
   </si>
   <si>
     <t xml:space="preserve">5.36958312988281</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">5.47824287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59595632553101</t>
+    <t xml:space="preserve">5.59595680236816</t>
   </si>
   <si>
     <t xml:space="preserve">5.7046160697937</t>
@@ -2477,31 +2477,31 @@
     <t xml:space="preserve">5.61406660079956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48729705810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45107746124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38769245147705</t>
+    <t xml:space="preserve">5.48729753494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45107793807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38769292831421</t>
   </si>
   <si>
     <t xml:space="preserve">5.30619859695435</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43296766281128</t>
+    <t xml:space="preserve">5.43296813964844</t>
   </si>
   <si>
     <t xml:space="preserve">5.44202280044556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35147285461426</t>
+    <t xml:space="preserve">5.35147333145142</t>
   </si>
   <si>
     <t xml:space="preserve">5.26092386245728</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2337589263916</t>
+    <t xml:space="preserve">5.23375940322876</t>
   </si>
   <si>
     <t xml:space="preserve">5.26997852325439</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">5.28808879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12509918212891</t>
+    <t xml:space="preserve">5.12509965896606</t>
   </si>
   <si>
     <t xml:space="preserve">4.99833011627197</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">4.70857191085815</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81723213195801</t>
+    <t xml:space="preserve">4.81723117828369</t>
   </si>
   <si>
     <t xml:space="preserve">4.9530553817749</t>
@@ -2531,40 +2531,40 @@
     <t xml:space="preserve">5.10698938369751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98927593231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08887958526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02153968811035</t>
+    <t xml:space="preserve">4.98927545547485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08888006210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02153921127319</t>
   </si>
   <si>
     <t xml:space="preserve">6.13019847869873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13925409317017</t>
+    <t xml:space="preserve">6.13925361633301</t>
   </si>
   <si>
     <t xml:space="preserve">6.11208915710449</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22074794769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22980308532715</t>
+    <t xml:space="preserve">6.22074842453003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22980260848999</t>
   </si>
   <si>
     <t xml:space="preserve">6.48334121704102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31129693984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36562728881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41090154647827</t>
+    <t xml:space="preserve">6.31129741668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36562776565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41090202331543</t>
   </si>
   <si>
     <t xml:space="preserve">6.44712162017822</t>
@@ -2573,10 +2573,10 @@
     <t xml:space="preserve">6.37468194961548</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42901134490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43806743621826</t>
+    <t xml:space="preserve">6.42901182174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43806648254395</t>
   </si>
   <si>
     <t xml:space="preserve">6.23885774612427</t>
@@ -2594,16 +2594,16 @@
     <t xml:space="preserve">6.10303354263306</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08492374420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05775880813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06681346893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03964900970459</t>
+    <t xml:space="preserve">6.0849232673645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05775928497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06681394577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03964948654175</t>
   </si>
   <si>
     <t xml:space="preserve">6.03059434890747</t>
@@ -2615,19 +2615,19 @@
     <t xml:space="preserve">6.59200048446655</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4561767578125</t>
+    <t xml:space="preserve">6.45617723464966</t>
   </si>
   <si>
     <t xml:space="preserve">6.40184736251831</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32940673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16641807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50145101547241</t>
+    <t xml:space="preserve">6.32940721511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16641855239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50145149230957</t>
   </si>
   <si>
     <t xml:space="preserve">6.24791288375854</t>
@@ -2642,25 +2642,25 @@
     <t xml:space="preserve">6.39279174804688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61011123657227</t>
+    <t xml:space="preserve">6.61011075973511</t>
   </si>
   <si>
     <t xml:space="preserve">6.80026483535767</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15340757369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58804559707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69670343399048</t>
+    <t xml:space="preserve">7.15340805053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5880446434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69670391082764</t>
   </si>
   <si>
     <t xml:space="preserve">7.75103425979614</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78725433349609</t>
+    <t xml:space="preserve">7.78725385665894</t>
   </si>
   <si>
     <t xml:space="preserve">7.84158325195312</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">7.67859411239624</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46127605438232</t>
+    <t xml:space="preserve">7.46127510070801</t>
   </si>
   <si>
     <t xml:space="preserve">7.45222043991089</t>
@@ -2681,25 +2681,25 @@
     <t xml:space="preserve">7.44316577911377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28017663955688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18962717056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33450651168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36167097091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49749565124512</t>
+    <t xml:space="preserve">7.28017616271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1896276473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33450698852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36167144775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4974946975708</t>
   </si>
   <si>
     <t xml:space="preserve">7.63331985473633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74197864532471</t>
+    <t xml:space="preserve">7.74197912216187</t>
   </si>
   <si>
     <t xml:space="preserve">7.73292398452759</t>
@@ -2711,19 +2711,19 @@
     <t xml:space="preserve">7.66048431396484</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60615491867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31639671325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7691445350647</t>
+    <t xml:space="preserve">7.6061544418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31639623641968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76914358139038</t>
   </si>
   <si>
     <t xml:space="preserve">7.83252859115601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92307710647583</t>
+    <t xml:space="preserve">7.92307901382446</t>
   </si>
   <si>
     <t xml:space="preserve">8.09512233734131</t>
@@ -2738,13 +2738,13 @@
     <t xml:space="preserve">8.15850639343262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3396053314209</t>
+    <t xml:space="preserve">8.33960628509521</t>
   </si>
   <si>
     <t xml:space="preserve">8.36676979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14945220947266</t>
+    <t xml:space="preserve">8.14945125579834</t>
   </si>
   <si>
     <t xml:space="preserve">8.24905586242676</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">8.16756153106689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24000072479248</t>
+    <t xml:space="preserve">8.2400016784668</t>
   </si>
   <si>
     <t xml:space="preserve">8.30338668823242</t>
@@ -2768,22 +2768,22 @@
     <t xml:space="preserve">8.2309455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3124418258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55692291259766</t>
+    <t xml:space="preserve">8.31244087219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55692386627197</t>
   </si>
   <si>
     <t xml:space="preserve">8.40298938751221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61125469207764</t>
+    <t xml:space="preserve">8.61125373840332</t>
   </si>
   <si>
     <t xml:space="preserve">8.5478687286377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68369293212891</t>
+    <t xml:space="preserve">8.68369483947754</t>
   </si>
   <si>
     <t xml:space="preserve">8.60219860076904</t>
@@ -2792,31 +2792,31 @@
     <t xml:space="preserve">8.81951713562012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59314346313477</t>
+    <t xml:space="preserve">8.59314441680908</t>
   </si>
   <si>
     <t xml:space="preserve">8.63882446289062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77667903900146</t>
+    <t xml:space="preserve">8.77667808532715</t>
   </si>
   <si>
     <t xml:space="preserve">8.60206317901611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58368396759033</t>
+    <t xml:space="preserve">8.58368301391602</t>
   </si>
   <si>
     <t xml:space="preserve">8.53773212432861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73072624206543</t>
+    <t xml:space="preserve">8.73072719573975</t>
   </si>
   <si>
     <t xml:space="preserve">8.48258972167969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59287452697754</t>
+    <t xml:space="preserve">8.59287357330322</t>
   </si>
   <si>
     <t xml:space="preserve">8.79505825042725</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">8.93291282653809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83181953430176</t>
+    <t xml:space="preserve">8.83181858062744</t>
   </si>
   <si>
     <t xml:space="preserve">8.87777042388916</t>
@@ -2837,10 +2837,10 @@
     <t xml:space="preserve">8.85939025878906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64801502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67558479309082</t>
+    <t xml:space="preserve">8.64801406860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67558574676514</t>
   </si>
   <si>
     <t xml:space="preserve">8.68477535247803</t>
@@ -2852,25 +2852,25 @@
     <t xml:space="preserve">8.62963485717773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4366397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27121543884277</t>
+    <t xml:space="preserve">8.43663883209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27121448516846</t>
   </si>
   <si>
     <t xml:space="preserve">8.31716537475586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24364471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20688247680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21607398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11498069763184</t>
+    <t xml:space="preserve">8.24364376068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20688343048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21607303619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11498165130615</t>
   </si>
   <si>
     <t xml:space="preserve">8.16093254089355</t>
@@ -2882,25 +2882,25 @@
     <t xml:space="preserve">8.01388835906982</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94036626815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99550724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89441585540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15174102783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07821941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33554553985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46420955657959</t>
+    <t xml:space="preserve">7.94036674499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99550676345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89441537857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15174198150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07822036743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33554649353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46421051025391</t>
   </si>
   <si>
     <t xml:space="preserve">8.32635688781738</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">8.12417125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75656127929688</t>
+    <t xml:space="preserve">7.75656175613403</t>
   </si>
   <si>
     <t xml:space="preserve">8.23445415496826</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">8.28959560394287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65720462799072</t>
+    <t xml:space="preserve">8.65720558166504</t>
   </si>
   <si>
     <t xml:space="preserve">8.55611228942871</t>
@@ -2936,13 +2936,13 @@
     <t xml:space="preserve">8.5009708404541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88696098327637</t>
+    <t xml:space="preserve">8.88696193695068</t>
   </si>
   <si>
     <t xml:space="preserve">8.80424880981445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39987945556641</t>
+    <t xml:space="preserve">8.39987850189209</t>
   </si>
   <si>
     <t xml:space="preserve">8.4734001159668</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">8.72153663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66639614105225</t>
+    <t xml:space="preserve">8.66639518737793</t>
   </si>
   <si>
     <t xml:space="preserve">8.41825866699219</t>
@@ -2972,70 +2972,70 @@
     <t xml:space="preserve">8.08741092681885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14255142211914</t>
+    <t xml:space="preserve">8.14255046844482</t>
   </si>
   <si>
     <t xml:space="preserve">8.17931175231934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04145812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71980047225952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78413200378418</t>
+    <t xml:space="preserve">8.04146003723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71979999542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78413248062134</t>
   </si>
   <si>
     <t xml:space="preserve">7.72899103164673</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70142078399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81170225143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83008337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8760347366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92198610305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86684465408325</t>
+    <t xml:space="preserve">7.70142030715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81170272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83008432388306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87603425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92198514938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86684513092041</t>
   </si>
   <si>
     <t xml:space="preserve">8.09660053253174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39068698883057</t>
+    <t xml:space="preserve">8.39068794250488</t>
   </si>
   <si>
     <t xml:space="preserve">8.35392665863037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37230682373047</t>
+    <t xml:space="preserve">8.37230777740479</t>
   </si>
   <si>
     <t xml:space="preserve">8.5469217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34473705291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18850231170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95874643325806</t>
+    <t xml:space="preserve">8.34473609924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18850326538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9587459564209</t>
   </si>
   <si>
     <t xml:space="preserve">7.84846353530884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76575136184692</t>
+    <t xml:space="preserve">7.76575183868408</t>
   </si>
   <si>
     <t xml:space="preserve">7.52680492401123</t>
@@ -3044,10 +3044,10 @@
     <t xml:space="preserve">7.48085451126099</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5176157951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6095175743103</t>
+    <t xml:space="preserve">7.51761531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60951709747314</t>
   </si>
   <si>
     <t xml:space="preserve">7.50842523574829</t>
@@ -3056,19 +3056,19 @@
     <t xml:space="preserve">7.49923467636108</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59113740921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80251216888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61870765686035</t>
+    <t xml:space="preserve">7.59113788604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80251264572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61870813369751</t>
   </si>
   <si>
     <t xml:space="preserve">7.54518604278564</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47166395187378</t>
+    <t xml:space="preserve">7.47166442871094</t>
   </si>
   <si>
     <t xml:space="preserve">7.41652250289917</t>
@@ -3083,19 +3083,19 @@
     <t xml:space="preserve">7.40733289718628</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69222927093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79332208633423</t>
+    <t xml:space="preserve">7.69222974777222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79332256317139</t>
   </si>
   <si>
     <t xml:space="preserve">7.77494192123413</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68303871154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67384910583496</t>
+    <t xml:space="preserve">7.68303918838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67384958267212</t>
   </si>
   <si>
     <t xml:space="preserve">7.46247386932373</t>
@@ -3107,25 +3107,25 @@
     <t xml:space="preserve">7.60032796859741</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10405492782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06729412078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16838645935059</t>
+    <t xml:space="preserve">7.10405445098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06729364395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16838693618774</t>
   </si>
   <si>
     <t xml:space="preserve">7.03053283691406</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15000629425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2694787979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26028871536255</t>
+    <t xml:space="preserve">7.15000581741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26947832107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26028919219971</t>
   </si>
   <si>
     <t xml:space="preserve">7.08567428588867</t>
@@ -3149,34 +3149,34 @@
     <t xml:space="preserve">7.2878589630127</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34300088882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14081573486328</t>
+    <t xml:space="preserve">7.3430004119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14081525802612</t>
   </si>
   <si>
     <t xml:space="preserve">7.21433734893799</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9386305809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87429809570312</t>
+    <t xml:space="preserve">6.93863010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87429904937744</t>
   </si>
   <si>
     <t xml:space="preserve">6.80077695846558</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48830842971802</t>
+    <t xml:space="preserve">6.48830890655518</t>
   </si>
   <si>
     <t xml:space="preserve">6.72725486755371</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54344987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45154762268066</t>
+    <t xml:space="preserve">6.54345035552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45154809951782</t>
   </si>
   <si>
     <t xml:space="preserve">6.25855255126953</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">5.97365522384644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95527505874634</t>
+    <t xml:space="preserve">5.95527458190918</t>
   </si>
   <si>
     <t xml:space="preserve">6.12988948822021</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">6.4055962562561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21260166168213</t>
+    <t xml:space="preserve">6.21260118484497</t>
   </si>
   <si>
     <t xml:space="preserve">6.26774263381958</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">6.3596453666687</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59859085083008</t>
+    <t xml:space="preserve">6.59859132766724</t>
   </si>
   <si>
     <t xml:space="preserve">6.51587915420532</t>
@@ -3221,13 +3221,13 @@
     <t xml:space="preserve">6.44235754013062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14826965332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24017190933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24936246871948</t>
+    <t xml:space="preserve">6.14827013015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24017238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24936199188232</t>
   </si>
   <si>
     <t xml:space="preserve">6.39640617370605</t>
@@ -3236,28 +3236,28 @@
     <t xml:space="preserve">6.38721561431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30450391769409</t>
+    <t xml:space="preserve">6.30450344085693</t>
   </si>
   <si>
     <t xml:space="preserve">6.4239764213562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29531383514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96446514129639</t>
+    <t xml:space="preserve">6.29531335830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96446466445923</t>
   </si>
   <si>
     <t xml:space="preserve">5.98284578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03798723220825</t>
+    <t xml:space="preserve">6.03798675537109</t>
   </si>
   <si>
     <t xml:space="preserve">6.01041603088379</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05636787414551</t>
+    <t xml:space="preserve">6.05636739730835</t>
   </si>
   <si>
     <t xml:space="preserve">6.00122594833374</t>
@@ -3272,19 +3272,19 @@
     <t xml:space="preserve">6.18503093719482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10231876373291</t>
+    <t xml:space="preserve">6.10231828689575</t>
   </si>
   <si>
     <t xml:space="preserve">6.0655574798584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13907957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11150932312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08393812179565</t>
+    <t xml:space="preserve">6.13907909393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11150884628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0839376449585</t>
   </si>
   <si>
     <t xml:space="preserve">6.0931282043457</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">6.20341157913208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19422101974487</t>
+    <t xml:space="preserve">6.19422054290771</t>
   </si>
   <si>
     <t xml:space="preserve">6.15745973587036</t>
@@ -3305,16 +3305,16 @@
     <t xml:space="preserve">6.1602988243103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06581592559814</t>
+    <t xml:space="preserve">6.06581544876099</t>
   </si>
   <si>
     <t xml:space="preserve">6.08471202850342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28312730789185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40595531463623</t>
+    <t xml:space="preserve">6.28312683105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40595483779907</t>
   </si>
   <si>
     <t xml:space="preserve">6.34926462173462</t>
@@ -3338,16 +3338,16 @@
     <t xml:space="preserve">6.12250566482544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93353986740112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95243644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04691934585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00912618637085</t>
+    <t xml:space="preserve">5.93353939056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9524359703064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04691886901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00912570953369</t>
   </si>
   <si>
     <t xml:space="preserve">6.2169885635376</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">5.84850454330444</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83905649185181</t>
+    <t xml:space="preserve">5.83905601501465</t>
   </si>
   <si>
     <t xml:space="preserve">5.45167541503906</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">5.86740112304688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62174463272095</t>
+    <t xml:space="preserve">5.62174510955811</t>
   </si>
   <si>
     <t xml:space="preserve">5.97133255004883</t>
@@ -3395,10 +3395,10 @@
     <t xml:space="preserve">5.66898679733276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82960844039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88629770278931</t>
+    <t xml:space="preserve">5.82960796356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88629817962646</t>
   </si>
   <si>
     <t xml:space="preserve">5.72567653656006</t>
@@ -3422,10 +3422,10 @@
     <t xml:space="preserve">6.1697473526001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98078060150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65009021759033</t>
+    <t xml:space="preserve">5.98078107833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65008974075317</t>
   </si>
   <si>
     <t xml:space="preserve">5.60284852981567</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">5.58395195007324</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48002099990845</t>
+    <t xml:space="preserve">5.48002052307129</t>
   </si>
   <si>
     <t xml:space="preserve">5.49891710281372</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">5.48946905136108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23436450958252</t>
+    <t xml:space="preserve">5.23436403274536</t>
   </si>
   <si>
     <t xml:space="preserve">5.20601987838745</t>
@@ -3479,19 +3479,19 @@
     <t xml:space="preserve">5.33829593658447</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1871223449707</t>
+    <t xml:space="preserve">5.18712282180786</t>
   </si>
   <si>
     <t xml:space="preserve">5.15877771377563</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11153602600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12098503112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28160572052002</t>
+    <t xml:space="preserve">5.11153650283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12098455429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28160619735718</t>
   </si>
   <si>
     <t xml:space="preserve">5.149329662323</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">5.01705312728882</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07374286651611</t>
+    <t xml:space="preserve">5.07374334335327</t>
   </si>
   <si>
     <t xml:space="preserve">5.06429481506348</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">5.4044337272644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57450389862061</t>
+    <t xml:space="preserve">5.57450342178345</t>
   </si>
   <si>
     <t xml:space="preserve">5.67843532562256</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">5.75402164459229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9996771812439</t>
+    <t xml:space="preserve">5.99967765808105</t>
   </si>
   <si>
     <t xml:space="preserve">6.11305713653564</t>
@@ -3578,7 +3578,7 @@
     <t xml:space="preserve">6.10360908508301</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02802276611328</t>
+    <t xml:space="preserve">6.02802228927612</t>
   </si>
   <si>
     <t xml:space="preserve">6.57602453231812</t>
@@ -3590,7 +3590,7 @@
     <t xml:space="preserve">6.84057712554932</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93506050109863</t>
+    <t xml:space="preserve">6.93506097793579</t>
   </si>
   <si>
     <t xml:space="preserve">6.9634051322937</t>
@@ -3599,7 +3599,7 @@
     <t xml:space="preserve">6.92561197280884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02954339981079</t>
+    <t xml:space="preserve">7.02954387664795</t>
   </si>
   <si>
     <t xml:space="preserve">7.10513019561768</t>
@@ -3611,7 +3611,7 @@
     <t xml:space="preserve">7.4925103187561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53030395507812</t>
+    <t xml:space="preserve">7.53030347824097</t>
   </si>
   <si>
     <t xml:space="preserve">7.6153392791748</t>
@@ -3644,10 +3644,10 @@
     <t xml:space="preserve">7.65313243865967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78540849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77595996856689</t>
+    <t xml:space="preserve">7.78540802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77595949172974</t>
   </si>
   <si>
     <t xml:space="preserve">7.72871875762939</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">7.60589075088501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58699321746826</t>
+    <t xml:space="preserve">7.58699369430542</t>
   </si>
   <si>
     <t xml:space="preserve">7.22795820236206</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">7.47361373901367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24685430526733</t>
+    <t xml:space="preserve">7.24685478210449</t>
   </si>
   <si>
     <t xml:space="preserve">7.33188962936401</t>
@@ -3677,10 +3677,10 @@
     <t xml:space="preserve">7.56809759140015</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4547176361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43582105636597</t>
+    <t xml:space="preserve">7.45471715927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43582057952881</t>
   </si>
   <si>
     <t xml:space="preserve">7.30354452133179</t>
@@ -3689,7 +3689,7 @@
     <t xml:space="preserve">7.44526958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38857936859131</t>
+    <t xml:space="preserve">7.38857984542847</t>
   </si>
   <si>
     <t xml:space="preserve">7.36023426055908</t>
@@ -3701,13 +3701,13 @@
     <t xml:space="preserve">7.35078620910645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48306226730347</t>
+    <t xml:space="preserve">7.48306274414062</t>
   </si>
   <si>
     <t xml:space="preserve">7.46416616439819</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40747594833374</t>
+    <t xml:space="preserve">7.4074764251709</t>
   </si>
   <si>
     <t xml:space="preserve">7.26575136184692</t>
@@ -3716,16 +3716,16 @@
     <t xml:space="preserve">7.1901650428772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12402629852295</t>
+    <t xml:space="preserve">7.12402677536011</t>
   </si>
   <si>
     <t xml:space="preserve">7.21850967407227</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36968278884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34133815765381</t>
+    <t xml:space="preserve">7.36968326568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34133768081665</t>
   </si>
   <si>
     <t xml:space="preserve">7.29409599304199</t>
@@ -4338,6 +4338,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.5200004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4200000762939</t>
   </si>
 </sst>
 </file>
@@ -27317,7 +27320,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G871" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27343,7 +27346,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G872" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27369,7 +27372,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G873" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27395,7 +27398,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G874" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27421,7 +27424,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G875" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27447,7 +27450,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G876" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27473,7 +27476,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -27499,7 +27502,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G878" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27525,7 +27528,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G879" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27551,7 +27554,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G880" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -27577,7 +27580,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G881" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -27603,7 +27606,7 @@
         <v>6.30999994277954</v>
       </c>
       <c r="G882" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -27629,7 +27632,7 @@
         <v>6.40999984741211</v>
       </c>
       <c r="G883" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -27655,7 +27658,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G884" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -27681,7 +27684,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G885" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -27707,7 +27710,7 @@
         <v>6.25</v>
       </c>
       <c r="G886" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -27733,7 +27736,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G887" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -27759,7 +27762,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G888" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -27785,7 +27788,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G889" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27811,7 +27814,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G890" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27837,7 +27840,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G891" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27863,7 +27866,7 @@
         <v>6.65999984741211</v>
       </c>
       <c r="G892" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27889,7 +27892,7 @@
         <v>6.6399998664856</v>
       </c>
       <c r="G893" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27915,7 +27918,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G894" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27941,7 +27944,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G895" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27967,7 +27970,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G896" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27993,7 +27996,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G897" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28019,7 +28022,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G898" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28045,7 +28048,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G899" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28071,7 +28074,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G900" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28097,7 +28100,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G901" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28123,7 +28126,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G902" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28149,7 +28152,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G903" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28175,7 +28178,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G904" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28201,7 +28204,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G905" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -28227,7 +28230,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G906" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28253,7 +28256,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G907" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -28279,7 +28282,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G908" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -28305,7 +28308,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G909" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -28331,7 +28334,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G910" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -28357,7 +28360,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G911" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -28383,7 +28386,7 @@
         <v>6.25</v>
       </c>
       <c r="G912" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -28409,7 +28412,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G913" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -28435,7 +28438,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G914" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -28461,7 +28464,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G915" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -28487,7 +28490,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G916" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -28513,7 +28516,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G917" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -28565,7 +28568,7 @@
         <v>6</v>
       </c>
       <c r="G919" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -28591,7 +28594,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G920" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -28617,7 +28620,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -28643,7 +28646,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G922" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -28669,7 +28672,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G923" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -28695,7 +28698,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G924" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -28747,7 +28750,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G926" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -28799,7 +28802,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G928" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28825,7 +28828,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G929" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28851,7 +28854,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G930" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28877,7 +28880,7 @@
         <v>6.01000022888184</v>
       </c>
       <c r="G931" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28929,7 +28932,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="G933" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28981,7 +28984,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29007,7 +29010,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G936" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29033,7 +29036,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G937" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29059,7 +29062,7 @@
         <v>6.34999990463257</v>
       </c>
       <c r="G938" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29085,7 +29088,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G939" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29111,7 +29114,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G940" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29137,7 +29140,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G941" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29163,7 +29166,7 @@
         <v>6.28999996185303</v>
       </c>
       <c r="G942" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29189,7 +29192,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G943" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29215